--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12881" uniqueCount="2907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12899" uniqueCount="2921">
   <si>
     <r>
       <rPr>
@@ -25363,12 +25363,154 @@
 Tender hasID Identifier
 (Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard OR ProcedureisAbout LegalRegime=none)</t>
   </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isReferedToByContract Contract,
+Contract hasTitle Text
+(Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard OR ProcedureisAbout LegalRegime=none)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision hasAwardDecisionDate Date
+(Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard OR ProcedureisAbout LegalRegime=none)
+</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isReferedToByContract Contract,
+Contract hasContractSignatureDate Date
+(Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard OR ProcedureisAbout LegalRegime=none)</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot uses Technique,
+FrameworkAgreement isA Technique, 
+FrameworkAgreement isA Contract
+(Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard)</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isReferedToByContract Contract,
+Contract attachesDocument Document,
+Document madeAvailableVia ElectronicMeansOfCommunication,
+ElectronicMeansOfCommunication hasURL URI
+(Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard OR Procedure isAbout LegalRegime=none)</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isFundedBy Fund,
+Fund hasName Text
+(Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard OR Procedure isAbout LegalRegime=none)</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isFundedBy Fund,
+Fund hasID Identifier
+(Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard OR Procedure isAbout LegalRegime=none)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isSpecifiedIn Procedure,
+Procedure involves StrategicProcurement,
+StrategicProcurement specifiedIn GreenProcurement
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(TO BE DISCUSSED)</t>
+    </r>
+  </si>
+  <si>
+    <t>TO BE DISCUSSED</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isSpecifiedIn Procedure,
+Procedure hasCompetitionTermination Indicator
+(Procedure isAbout LegalRegime=standard OR Procedure isAbout LegalRegime=light-regime) AND (Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR23_URL OR Procedure hasLegalBasisID URI=DIR81_URL)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isSpecifiedIn Procedure,
+Procedure refersTo Document,
+Document hasNonPublishedElements PublicationProvision,
+Document hasID Identifier
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(TO BE DISCUSSED)</t>
+    </r>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isSpecifiedIn Procedure,
+Procedure refersTo Document,
+Document hasNonPublishedElements PublicationProvision,
+PublicationProvision hasNonPublicationJustification Code
+(Procedure isAbout LegalRegime=standard OR Procedure isAbout LegalRegime=light-regime)</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isSpecifiedIn Procedure,
+Procedure refersTo Document,
+Document hasNonPublishedElements PublicationProvision,
+PublicationProvision hasNonPublicationJustificationDescription Text
+(Procedure isAbout LegalRegime=standard OR Procedure isAbout LegalRegime=light-regime)</t>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot isSpecifiedIn Procedure,
+Procedure refersTo Document,
+Document hasNonPublishedElements PublicationProvision,
+PublicationProvision hasAvailabilityDate Date
+(Procedure isAbout LegalRegime=standard OR Procedure isAbout LegalRegime=light-regime)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -25562,6 +25704,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -25964,7 +26113,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="310">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -26596,212 +26745,35 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -26854,32 +26826,230 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -27285,8 +27455,8 @@
   <dimension ref="A1:BO312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG239" sqref="BG239:BI239"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BG276" sqref="BG276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27329,105 +27499,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="219" t="s">
+      <c r="A1" s="299" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="223" t="s">
+      <c r="B1" s="300"/>
+      <c r="C1" s="303" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="223" t="s">
+      <c r="D1" s="303" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="223" t="s">
+      <c r="E1" s="303" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="223" t="s">
+      <c r="F1" s="303" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="225" t="s">
+      <c r="G1" s="305" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
-      <c r="O1" s="227"/>
-      <c r="P1" s="225" t="s">
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="305" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="226"/>
-      <c r="R1" s="226"/>
-      <c r="S1" s="226"/>
-      <c r="T1" s="226"/>
-      <c r="U1" s="226"/>
-      <c r="V1" s="226"/>
-      <c r="W1" s="226"/>
-      <c r="X1" s="226"/>
-      <c r="Y1" s="226"/>
-      <c r="Z1" s="226"/>
-      <c r="AA1" s="226"/>
-      <c r="AB1" s="226"/>
-      <c r="AC1" s="226"/>
-      <c r="AD1" s="227"/>
-      <c r="AE1" s="225" t="s">
+      <c r="Q1" s="306"/>
+      <c r="R1" s="306"/>
+      <c r="S1" s="306"/>
+      <c r="T1" s="306"/>
+      <c r="U1" s="306"/>
+      <c r="V1" s="306"/>
+      <c r="W1" s="306"/>
+      <c r="X1" s="306"/>
+      <c r="Y1" s="306"/>
+      <c r="Z1" s="306"/>
+      <c r="AA1" s="306"/>
+      <c r="AB1" s="306"/>
+      <c r="AC1" s="306"/>
+      <c r="AD1" s="307"/>
+      <c r="AE1" s="305" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="226"/>
-      <c r="AG1" s="226"/>
-      <c r="AH1" s="227"/>
-      <c r="AI1" s="225" t="s">
+      <c r="AF1" s="306"/>
+      <c r="AG1" s="306"/>
+      <c r="AH1" s="307"/>
+      <c r="AI1" s="305" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="226"/>
-      <c r="AK1" s="226"/>
-      <c r="AL1" s="226"/>
-      <c r="AM1" s="226"/>
-      <c r="AN1" s="226"/>
-      <c r="AO1" s="226"/>
-      <c r="AP1" s="226"/>
-      <c r="AQ1" s="227"/>
-      <c r="AR1" s="228" t="s">
+      <c r="AJ1" s="306"/>
+      <c r="AK1" s="306"/>
+      <c r="AL1" s="306"/>
+      <c r="AM1" s="306"/>
+      <c r="AN1" s="306"/>
+      <c r="AO1" s="306"/>
+      <c r="AP1" s="306"/>
+      <c r="AQ1" s="307"/>
+      <c r="AR1" s="308" t="s">
         <v>667</v>
       </c>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="230"/>
+      <c r="AS1" s="309"/>
+      <c r="AT1" s="310"/>
       <c r="AU1" s="80" t="s">
         <v>1362</v>
       </c>
-      <c r="AV1" s="279" t="s">
+      <c r="AV1" s="252" t="s">
         <v>1323</v>
       </c>
-      <c r="AW1" s="280"/>
-      <c r="AX1" s="281"/>
-      <c r="AY1" s="273" t="s">
+      <c r="AW1" s="253"/>
+      <c r="AX1" s="254"/>
+      <c r="AY1" s="246" t="s">
         <v>705</v>
       </c>
-      <c r="AZ1" s="274"/>
-      <c r="BA1" s="274"/>
-      <c r="BB1" s="274"/>
-      <c r="BC1" s="274"/>
-      <c r="BD1" s="274"/>
-      <c r="BE1" s="275"/>
-      <c r="BF1" s="276" t="s">
+      <c r="AZ1" s="247"/>
+      <c r="BA1" s="247"/>
+      <c r="BB1" s="247"/>
+      <c r="BC1" s="247"/>
+      <c r="BD1" s="247"/>
+      <c r="BE1" s="248"/>
+      <c r="BF1" s="249" t="s">
         <v>706</v>
       </c>
-      <c r="BG1" s="287" t="s">
+      <c r="BG1" s="228" t="s">
         <v>1456</v>
       </c>
-      <c r="BH1" s="287"/>
-      <c r="BI1" s="287"/>
+      <c r="BH1" s="228"/>
+      <c r="BI1" s="228"/>
     </row>
     <row r="2" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="221"/>
-      <c r="B2" s="222"/>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
+      <c r="A2" s="301"/>
+      <c r="B2" s="302"/>
+      <c r="C2" s="304"/>
+      <c r="D2" s="304"/>
+      <c r="E2" s="304"/>
+      <c r="F2" s="304"/>
       <c r="G2" s="83">
         <v>1</v>
       </c>
@@ -27552,156 +27722,156 @@
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
       <c r="AX2" s="40"/>
-      <c r="AY2" s="272" t="s">
+      <c r="AY2" s="245" t="s">
         <v>707</v>
       </c>
-      <c r="AZ2" s="272"/>
+      <c r="AZ2" s="245"/>
       <c r="BA2" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="BB2" s="272" t="s">
+      <c r="BB2" s="245" t="s">
         <v>708</v>
       </c>
-      <c r="BC2" s="272"/>
-      <c r="BD2" s="272"/>
-      <c r="BE2" s="272"/>
-      <c r="BF2" s="276"/>
-      <c r="BG2" s="291" t="s">
+      <c r="BC2" s="245"/>
+      <c r="BD2" s="245"/>
+      <c r="BE2" s="245"/>
+      <c r="BF2" s="249"/>
+      <c r="BG2" s="232" t="s">
         <v>2863</v>
       </c>
-      <c r="BH2" s="291" t="s">
+      <c r="BH2" s="232" t="s">
         <v>2862</v>
       </c>
-      <c r="BI2" s="294" t="s">
+      <c r="BI2" s="235" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="221"/>
-      <c r="B3" s="222"/>
-      <c r="C3" s="224"/>
-      <c r="D3" s="224"/>
-      <c r="E3" s="224"/>
-      <c r="F3" s="224"/>
-      <c r="G3" s="215" t="s">
+      <c r="A3" s="301"/>
+      <c r="B3" s="302"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="261" t="s">
         <v>652</v>
       </c>
-      <c r="H3" s="231"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="215" t="s">
+      <c r="H3" s="262"/>
+      <c r="I3" s="263"/>
+      <c r="J3" s="261" t="s">
         <v>659</v>
       </c>
-      <c r="K3" s="216"/>
-      <c r="L3" s="217"/>
-      <c r="M3" s="215" t="s">
+      <c r="K3" s="264"/>
+      <c r="L3" s="265"/>
+      <c r="M3" s="261" t="s">
         <v>658</v>
       </c>
-      <c r="N3" s="216"/>
-      <c r="O3" s="217"/>
-      <c r="P3" s="215" t="s">
+      <c r="N3" s="264"/>
+      <c r="O3" s="265"/>
+      <c r="P3" s="261" t="s">
         <v>670</v>
       </c>
-      <c r="Q3" s="217"/>
-      <c r="R3" s="264" t="s">
+      <c r="Q3" s="265"/>
+      <c r="R3" s="266" t="s">
         <v>671</v>
       </c>
-      <c r="S3" s="265"/>
-      <c r="T3" s="266"/>
+      <c r="S3" s="267"/>
+      <c r="T3" s="268"/>
       <c r="U3" s="83" t="s">
         <v>657</v>
       </c>
-      <c r="V3" s="215" t="s">
+      <c r="V3" s="261" t="s">
         <v>672</v>
       </c>
-      <c r="W3" s="216"/>
-      <c r="X3" s="216"/>
-      <c r="Y3" s="217"/>
-      <c r="Z3" s="215" t="s">
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="265"/>
+      <c r="Z3" s="261" t="s">
         <v>660</v>
       </c>
-      <c r="AA3" s="232"/>
+      <c r="AA3" s="263"/>
       <c r="AB3" s="87" t="s">
         <v>661</v>
       </c>
-      <c r="AC3" s="215" t="s">
+      <c r="AC3" s="261" t="s">
         <v>662</v>
       </c>
-      <c r="AD3" s="217"/>
-      <c r="AE3" s="215" t="s">
+      <c r="AD3" s="265"/>
+      <c r="AE3" s="261" t="s">
         <v>663</v>
       </c>
-      <c r="AF3" s="216"/>
-      <c r="AG3" s="216"/>
-      <c r="AH3" s="217"/>
-      <c r="AI3" s="215" t="s">
+      <c r="AF3" s="264"/>
+      <c r="AG3" s="264"/>
+      <c r="AH3" s="265"/>
+      <c r="AI3" s="261" t="s">
         <v>673</v>
       </c>
-      <c r="AJ3" s="231"/>
-      <c r="AK3" s="231"/>
-      <c r="AL3" s="232"/>
-      <c r="AM3" s="215" t="s">
+      <c r="AJ3" s="262"/>
+      <c r="AK3" s="262"/>
+      <c r="AL3" s="263"/>
+      <c r="AM3" s="261" t="s">
         <v>666</v>
       </c>
-      <c r="AN3" s="216"/>
-      <c r="AO3" s="217"/>
-      <c r="AP3" s="215" t="s">
+      <c r="AN3" s="264"/>
+      <c r="AO3" s="265"/>
+      <c r="AP3" s="261" t="s">
         <v>668</v>
       </c>
-      <c r="AQ3" s="217"/>
-      <c r="AR3" s="215" t="s">
+      <c r="AQ3" s="265"/>
+      <c r="AR3" s="261" t="s">
         <v>669</v>
       </c>
-      <c r="AS3" s="216"/>
-      <c r="AT3" s="218"/>
+      <c r="AS3" s="264"/>
+      <c r="AT3" s="298"/>
       <c r="AU3" s="88"/>
-      <c r="AV3" s="282" t="s">
+      <c r="AV3" s="255" t="s">
         <v>1324</v>
       </c>
-      <c r="AW3" s="282" t="s">
+      <c r="AW3" s="255" t="s">
         <v>1325</v>
       </c>
-      <c r="AX3" s="282" t="s">
+      <c r="AX3" s="255" t="s">
         <v>1326</v>
       </c>
-      <c r="AY3" s="277" t="s">
+      <c r="AY3" s="250" t="s">
         <v>709</v>
       </c>
-      <c r="AZ3" s="277" t="s">
+      <c r="AZ3" s="250" t="s">
         <v>710</v>
       </c>
       <c r="BA3" s="89"/>
-      <c r="BB3" s="277" t="s">
+      <c r="BB3" s="250" t="s">
         <v>709</v>
       </c>
-      <c r="BC3" s="272" t="s">
+      <c r="BC3" s="245" t="s">
         <v>710</v>
       </c>
-      <c r="BD3" s="272" t="s">
+      <c r="BD3" s="245" t="s">
         <v>711</v>
       </c>
-      <c r="BE3" s="272" t="s">
+      <c r="BE3" s="245" t="s">
         <v>712</v>
       </c>
-      <c r="BF3" s="276"/>
-      <c r="BG3" s="292"/>
-      <c r="BH3" s="292"/>
-      <c r="BI3" s="294"/>
+      <c r="BF3" s="249"/>
+      <c r="BG3" s="233"/>
+      <c r="BH3" s="233"/>
+      <c r="BI3" s="235"/>
       <c r="BJ3" s="212"/>
-      <c r="BK3" s="288"/>
-      <c r="BL3" s="288"/>
-      <c r="BM3" s="288"/>
-      <c r="BN3" s="288"/>
-      <c r="BO3" s="288"/>
+      <c r="BK3" s="229"/>
+      <c r="BL3" s="229"/>
+      <c r="BM3" s="229"/>
+      <c r="BN3" s="229"/>
+      <c r="BO3" s="229"/>
     </row>
     <row r="4" spans="1:67" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="267" t="s">
+      <c r="A4" s="269" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="267"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="267"/>
-      <c r="E4" s="267"/>
-      <c r="F4" s="268"/>
+      <c r="B4" s="269"/>
+      <c r="C4" s="269"/>
+      <c r="D4" s="269"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="270"/>
       <c r="G4" s="90" t="s">
         <v>653</v>
       </c>
@@ -27823,26 +27993,26 @@
         <v>656</v>
       </c>
       <c r="AU4" s="95"/>
-      <c r="AV4" s="283"/>
-      <c r="AW4" s="283"/>
-      <c r="AX4" s="283"/>
-      <c r="AY4" s="278"/>
-      <c r="AZ4" s="278"/>
+      <c r="AV4" s="256"/>
+      <c r="AW4" s="256"/>
+      <c r="AX4" s="256"/>
+      <c r="AY4" s="251"/>
+      <c r="AZ4" s="251"/>
       <c r="BA4" s="89"/>
-      <c r="BB4" s="278"/>
-      <c r="BC4" s="272"/>
-      <c r="BD4" s="272"/>
-      <c r="BE4" s="272"/>
-      <c r="BF4" s="276"/>
-      <c r="BG4" s="293"/>
-      <c r="BH4" s="293"/>
-      <c r="BI4" s="294"/>
+      <c r="BB4" s="251"/>
+      <c r="BC4" s="245"/>
+      <c r="BD4" s="245"/>
+      <c r="BE4" s="245"/>
+      <c r="BF4" s="249"/>
+      <c r="BG4" s="234"/>
+      <c r="BH4" s="234"/>
+      <c r="BI4" s="235"/>
     </row>
     <row r="5" spans="1:67" s="100" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="259" t="s">
         <v>1360</v>
       </c>
-      <c r="B5" s="251"/>
+      <c r="B5" s="260"/>
       <c r="C5" s="50" t="s">
         <v>10</v>
       </c>
@@ -28012,10 +28182,10 @@
       <c r="BI5" s="207"/>
     </row>
     <row r="6" spans="1:67" ht="204" x14ac:dyDescent="0.2">
-      <c r="A6" s="248" t="s">
+      <c r="A6" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="249"/>
+      <c r="B6" s="258"/>
       <c r="C6" s="49" t="s">
         <v>15</v>
       </c>
@@ -28158,10 +28328,10 @@
       </c>
     </row>
     <row r="7" spans="1:67" ht="357" x14ac:dyDescent="0.2">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="249"/>
+      <c r="B7" s="258"/>
       <c r="C7" s="49" t="s">
         <v>18</v>
       </c>
@@ -28328,10 +28498,10 @@
       </c>
     </row>
     <row r="8" spans="1:67" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="248" t="s">
+      <c r="A8" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="249"/>
+      <c r="B8" s="258"/>
       <c r="C8" s="48" t="s">
         <v>20</v>
       </c>
@@ -28465,11 +28635,11 @@
         <v>13</v>
       </c>
       <c r="AU8" s="105"/>
-      <c r="AV8" s="269" t="s">
+      <c r="AV8" s="242" t="s">
         <v>1403</v>
       </c>
-      <c r="AW8" s="270"/>
-      <c r="AX8" s="271"/>
+      <c r="AW8" s="243"/>
+      <c r="AX8" s="244"/>
       <c r="AY8" s="19" t="s">
         <v>713</v>
       </c>
@@ -28494,10 +28664,10 @@
       <c r="BF8" s="177"/>
     </row>
     <row r="9" spans="1:67" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="248" t="s">
+      <c r="A9" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="249"/>
+      <c r="B9" s="258"/>
       <c r="C9" s="48" t="s">
         <v>22</v>
       </c>
@@ -28664,10 +28834,10 @@
       </c>
     </row>
     <row r="10" spans="1:67" ht="51" x14ac:dyDescent="0.2">
-      <c r="A10" s="248" t="s">
+      <c r="A10" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="249"/>
+      <c r="B10" s="258"/>
       <c r="C10" s="48" t="s">
         <v>25</v>
       </c>
@@ -28834,10 +29004,10 @@
       </c>
     </row>
     <row r="11" spans="1:67" ht="51" x14ac:dyDescent="0.2">
-      <c r="A11" s="248" t="s">
+      <c r="A11" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="249"/>
+      <c r="B11" s="258"/>
       <c r="C11" s="48" t="s">
         <v>27</v>
       </c>
@@ -29004,10 +29174,10 @@
       </c>
     </row>
     <row r="12" spans="1:67" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="248" t="s">
+      <c r="A12" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="249"/>
+      <c r="B12" s="258"/>
       <c r="C12" s="48" t="s">
         <v>29</v>
       </c>
@@ -29174,10 +29344,10 @@
       </c>
     </row>
     <row r="13" spans="1:67" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="248" t="s">
+      <c r="A13" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="249"/>
+      <c r="B13" s="258"/>
       <c r="C13" s="48" t="s">
         <v>32</v>
       </c>
@@ -29344,10 +29514,10 @@
       </c>
     </row>
     <row r="14" spans="1:67" ht="102" x14ac:dyDescent="0.2">
-      <c r="A14" s="248" t="s">
+      <c r="A14" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="249"/>
+      <c r="B14" s="258"/>
       <c r="C14" s="48" t="s">
         <v>34</v>
       </c>
@@ -29514,10 +29684,10 @@
       </c>
     </row>
     <row r="15" spans="1:67" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="250" t="s">
+      <c r="A15" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="251"/>
+      <c r="B15" s="260"/>
       <c r="C15" s="50" t="s">
         <v>35</v>
       </c>
@@ -29681,10 +29851,10 @@
       <c r="BI15" s="207"/>
     </row>
     <row r="16" spans="1:67" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="248" t="s">
+      <c r="A16" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="249"/>
+      <c r="B16" s="258"/>
       <c r="C16" s="49" t="s">
         <v>37</v>
       </c>
@@ -29845,10 +30015,10 @@
       </c>
     </row>
     <row r="17" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="248" t="s">
+      <c r="A17" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="249"/>
+      <c r="B17" s="258"/>
       <c r="C17" s="49" t="s">
         <v>39</v>
       </c>
@@ -30009,10 +30179,10 @@
       </c>
     </row>
     <row r="18" spans="1:61" s="100" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="250" t="s">
+      <c r="A18" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="251"/>
+      <c r="B18" s="260"/>
       <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
@@ -30182,10 +30352,10 @@
       <c r="BI18" s="207"/>
     </row>
     <row r="19" spans="1:61" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="248" t="s">
+      <c r="A19" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="249"/>
+      <c r="B19" s="258"/>
       <c r="C19" s="49" t="s">
         <v>41</v>
       </c>
@@ -30352,10 +30522,10 @@
       <c r="BF19" s="181"/>
     </row>
     <row r="20" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="248" t="s">
+      <c r="A20" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="249"/>
+      <c r="B20" s="258"/>
       <c r="C20" s="48" t="s">
         <v>42</v>
       </c>
@@ -30522,10 +30692,10 @@
       <c r="BF20" s="182"/>
     </row>
     <row r="21" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="248" t="s">
+      <c r="A21" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="249"/>
+      <c r="B21" s="258"/>
       <c r="C21" s="48" t="s">
         <v>44</v>
       </c>
@@ -30692,10 +30862,10 @@
       <c r="BF21" s="182"/>
     </row>
     <row r="22" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="248" t="s">
+      <c r="A22" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="249"/>
+      <c r="B22" s="258"/>
       <c r="C22" s="48" t="s">
         <v>45</v>
       </c>
@@ -30862,10 +31032,10 @@
       <c r="BF22" s="182"/>
     </row>
     <row r="23" spans="1:61" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="248" t="s">
+      <c r="A23" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="249"/>
+      <c r="B23" s="258"/>
       <c r="C23" s="48" t="s">
         <v>46</v>
       </c>
@@ -31032,10 +31202,10 @@
       <c r="BF23" s="182"/>
     </row>
     <row r="24" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="248" t="s">
+      <c r="A24" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="249"/>
+      <c r="B24" s="258"/>
       <c r="C24" s="48" t="s">
         <v>47</v>
       </c>
@@ -31202,10 +31372,10 @@
       <c r="BF24" s="182"/>
     </row>
     <row r="25" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="248" t="s">
+      <c r="A25" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="249"/>
+      <c r="B25" s="258"/>
       <c r="C25" s="48" t="s">
         <v>48</v>
       </c>
@@ -31372,10 +31542,10 @@
       <c r="BF25" s="182"/>
     </row>
     <row r="26" spans="1:61" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="248" t="s">
+      <c r="A26" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="249"/>
+      <c r="B26" s="258"/>
       <c r="C26" s="48" t="s">
         <v>49</v>
       </c>
@@ -31542,10 +31712,10 @@
       <c r="BF26" s="182"/>
     </row>
     <row r="27" spans="1:61" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="248" t="s">
+      <c r="A27" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="249"/>
+      <c r="B27" s="258"/>
       <c r="C27" s="48" t="s">
         <v>50</v>
       </c>
@@ -31712,10 +31882,10 @@
       <c r="BF27" s="182"/>
     </row>
     <row r="28" spans="1:61" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="248" t="s">
+      <c r="A28" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="249"/>
+      <c r="B28" s="258"/>
       <c r="C28" s="48" t="s">
         <v>51</v>
       </c>
@@ -31882,10 +32052,10 @@
       </c>
     </row>
     <row r="29" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="248" t="s">
+      <c r="A29" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="249"/>
+      <c r="B29" s="258"/>
       <c r="C29" s="48" t="s">
         <v>52</v>
       </c>
@@ -32052,10 +32222,10 @@
       <c r="BF29" s="182"/>
     </row>
     <row r="30" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="248" t="s">
+      <c r="A30" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="249"/>
+      <c r="B30" s="258"/>
       <c r="C30" s="48" t="s">
         <v>53</v>
       </c>
@@ -32222,10 +32392,10 @@
       <c r="BF30" s="182"/>
     </row>
     <row r="31" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="248" t="s">
+      <c r="A31" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="249"/>
+      <c r="B31" s="258"/>
       <c r="C31" s="48" t="s">
         <v>54</v>
       </c>
@@ -32392,10 +32562,10 @@
       <c r="BF31" s="182"/>
     </row>
     <row r="32" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="248" t="s">
+      <c r="A32" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="249"/>
+      <c r="B32" s="258"/>
       <c r="C32" s="48" t="s">
         <v>55</v>
       </c>
@@ -32562,10 +32732,10 @@
       <c r="BF32" s="182"/>
     </row>
     <row r="33" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="248" t="s">
+      <c r="A33" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="249"/>
+      <c r="B33" s="258"/>
       <c r="C33" s="48" t="s">
         <v>57</v>
       </c>
@@ -32732,10 +32902,10 @@
       <c r="BF33" s="182"/>
     </row>
     <row r="34" spans="1:61" s="116" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="252" t="s">
+      <c r="A34" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="253"/>
+      <c r="B34" s="272"/>
       <c r="C34" s="51" t="s">
         <v>58</v>
       </c>
@@ -32905,10 +33075,10 @@
       <c r="BI34" s="207"/>
     </row>
     <row r="35" spans="1:61" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="248" t="s">
+      <c r="A35" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="249"/>
+      <c r="B35" s="258"/>
       <c r="C35" s="48" t="s">
         <v>60</v>
       </c>
@@ -33062,10 +33232,10 @@
       <c r="BG35" s="208"/>
     </row>
     <row r="36" spans="1:61" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="248" t="s">
+      <c r="A36" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="249"/>
+      <c r="B36" s="258"/>
       <c r="C36" s="49" t="s">
         <v>61</v>
       </c>
@@ -33232,10 +33402,10 @@
       <c r="BF36" s="182"/>
     </row>
     <row r="37" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="248" t="s">
+      <c r="A37" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="249"/>
+      <c r="B37" s="258"/>
       <c r="C37" s="49" t="s">
         <v>62</v>
       </c>
@@ -33396,10 +33566,10 @@
       </c>
     </row>
     <row r="38" spans="1:61" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="248" t="s">
+      <c r="A38" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="249"/>
+      <c r="B38" s="258"/>
       <c r="C38" s="49" t="s">
         <v>65</v>
       </c>
@@ -33560,10 +33730,10 @@
       </c>
     </row>
     <row r="39" spans="1:61" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A39" s="248" t="s">
+      <c r="A39" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="249"/>
+      <c r="B39" s="258"/>
       <c r="C39" s="49" t="s">
         <v>66</v>
       </c>
@@ -33724,10 +33894,10 @@
       </c>
     </row>
     <row r="40" spans="1:61" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="248" t="s">
+      <c r="A40" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="249"/>
+      <c r="B40" s="258"/>
       <c r="C40" s="49" t="s">
         <v>67</v>
       </c>
@@ -33828,10 +33998,10 @@
       </c>
     </row>
     <row r="41" spans="1:61" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A41" s="248" t="s">
+      <c r="A41" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="249"/>
+      <c r="B41" s="258"/>
       <c r="C41" s="49" t="s">
         <v>68</v>
       </c>
@@ -33988,10 +34158,10 @@
       </c>
     </row>
     <row r="42" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="248" t="s">
+      <c r="A42" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="249"/>
+      <c r="B42" s="258"/>
       <c r="C42" s="49" t="s">
         <v>70</v>
       </c>
@@ -34124,10 +34294,10 @@
       </c>
     </row>
     <row r="43" spans="1:61" s="121" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="260" t="s">
+      <c r="A43" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="261"/>
+      <c r="B43" s="274"/>
       <c r="C43" s="58" t="s">
         <v>72</v>
       </c>
@@ -34229,10 +34399,10 @@
       <c r="BI43" s="207"/>
     </row>
     <row r="44" spans="1:61" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="248" t="s">
+      <c r="A44" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="249"/>
+      <c r="B44" s="258"/>
       <c r="C44" s="49" t="s">
         <v>74</v>
       </c>
@@ -34341,17 +34511,17 @@
         <v>1315</v>
       </c>
       <c r="BF44" s="182"/>
-      <c r="BG44" s="289" t="s">
+      <c r="BG44" s="230" t="s">
         <v>2864</v>
       </c>
-      <c r="BH44" s="290"/>
-      <c r="BI44" s="290"/>
+      <c r="BH44" s="231"/>
+      <c r="BI44" s="231"/>
     </row>
     <row r="45" spans="1:61" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="248" t="s">
+      <c r="A45" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="249"/>
+      <c r="B45" s="258"/>
       <c r="C45" s="48" t="s">
         <v>76</v>
       </c>
@@ -34460,17 +34630,17 @@
         <v>1315</v>
       </c>
       <c r="BF45" s="182"/>
-      <c r="BG45" s="289" t="s">
+      <c r="BG45" s="230" t="s">
         <v>2865</v>
       </c>
-      <c r="BH45" s="290"/>
-      <c r="BI45" s="290"/>
+      <c r="BH45" s="231"/>
+      <c r="BI45" s="231"/>
     </row>
     <row r="46" spans="1:61" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="248" t="s">
+      <c r="A46" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="249"/>
+      <c r="B46" s="258"/>
       <c r="C46" s="48" t="s">
         <v>77</v>
       </c>
@@ -34579,17 +34749,17 @@
         <v>1315</v>
       </c>
       <c r="BF46" s="182"/>
-      <c r="BG46" s="289" t="s">
+      <c r="BG46" s="230" t="s">
         <v>2866</v>
       </c>
-      <c r="BH46" s="290"/>
-      <c r="BI46" s="290"/>
+      <c r="BH46" s="231"/>
+      <c r="BI46" s="231"/>
     </row>
     <row r="47" spans="1:61" s="100" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="250" t="s">
+      <c r="A47" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="251"/>
+      <c r="B47" s="260"/>
       <c r="C47" s="50" t="s">
         <v>79</v>
       </c>
@@ -34759,10 +34929,10 @@
       <c r="BI47" s="207"/>
     </row>
     <row r="48" spans="1:61" s="125" customFormat="1" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="262" t="s">
+      <c r="A48" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="263"/>
+      <c r="B48" s="276"/>
       <c r="C48" s="66" t="s">
         <v>81</v>
       </c>
@@ -34932,10 +35102,10 @@
       <c r="BI48" s="207"/>
     </row>
     <row r="49" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A49" s="248" t="s">
+      <c r="A49" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="249"/>
+      <c r="B49" s="258"/>
       <c r="C49" s="49" t="s">
         <v>83</v>
       </c>
@@ -35102,10 +35272,10 @@
       </c>
     </row>
     <row r="50" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A50" s="248" t="s">
+      <c r="A50" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="249"/>
+      <c r="B50" s="258"/>
       <c r="C50" s="49" t="s">
         <v>84</v>
       </c>
@@ -35272,10 +35442,10 @@
       </c>
     </row>
     <row r="51" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A51" s="248" t="s">
+      <c r="A51" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="249"/>
+      <c r="B51" s="258"/>
       <c r="C51" s="49" t="s">
         <v>86</v>
       </c>
@@ -35444,10 +35614,10 @@
       </c>
     </row>
     <row r="52" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A52" s="248" t="s">
+      <c r="A52" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="249"/>
+      <c r="B52" s="258"/>
       <c r="C52" s="49" t="s">
         <v>88</v>
       </c>
@@ -35614,10 +35784,10 @@
       </c>
     </row>
     <row r="53" spans="1:61" s="125" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="262" t="s">
+      <c r="A53" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="263"/>
+      <c r="B53" s="276"/>
       <c r="C53" s="66" t="s">
         <v>89</v>
       </c>
@@ -35755,10 +35925,10 @@
       <c r="BI53" s="207"/>
     </row>
     <row r="54" spans="1:61" s="125" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A54" s="262" t="s">
+      <c r="A54" s="275" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="263"/>
+      <c r="B54" s="276"/>
       <c r="C54" s="66" t="s">
         <v>92</v>
       </c>
@@ -35894,10 +36064,10 @@
       <c r="BI54" s="207"/>
     </row>
     <row r="55" spans="1:61" s="125" customFormat="1" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A55" s="262" t="s">
+      <c r="A55" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="263"/>
+      <c r="B55" s="276"/>
       <c r="C55" s="65" t="s">
         <v>93</v>
       </c>
@@ -36033,10 +36203,10 @@
       <c r="BI55" s="207"/>
     </row>
     <row r="56" spans="1:61" s="125" customFormat="1" ht="206.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="262" t="s">
+      <c r="A56" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="263"/>
+      <c r="B56" s="276"/>
       <c r="C56" s="65" t="s">
         <v>94</v>
       </c>
@@ -36172,10 +36342,10 @@
       <c r="BI56" s="207"/>
     </row>
     <row r="57" spans="1:61" s="172" customFormat="1" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="258" t="s">
+      <c r="A57" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="259"/>
+      <c r="B57" s="278"/>
       <c r="C57" s="162" t="s">
         <v>95</v>
       </c>
@@ -36345,10 +36515,10 @@
       <c r="BI57" s="207"/>
     </row>
     <row r="58" spans="1:61" s="125" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="262" t="s">
+      <c r="A58" s="275" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="263"/>
+      <c r="B58" s="276"/>
       <c r="C58" s="65" t="s">
         <v>96</v>
       </c>
@@ -36510,10 +36680,10 @@
       <c r="BI58" s="207"/>
     </row>
     <row r="59" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="248" t="s">
+      <c r="A59" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="249"/>
+      <c r="B59" s="258"/>
       <c r="C59" s="48" t="s">
         <v>97</v>
       </c>
@@ -36680,10 +36850,10 @@
       </c>
     </row>
     <row r="60" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="248" t="s">
+      <c r="A60" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="249"/>
+      <c r="B60" s="258"/>
       <c r="C60" s="48" t="s">
         <v>98</v>
       </c>
@@ -36850,10 +37020,10 @@
       </c>
     </row>
     <row r="61" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="248" t="s">
+      <c r="A61" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="249"/>
+      <c r="B61" s="258"/>
       <c r="C61" s="48" t="s">
         <v>99</v>
       </c>
@@ -37006,10 +37176,10 @@
       </c>
     </row>
     <row r="62" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="248" t="s">
+      <c r="A62" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="249"/>
+      <c r="B62" s="258"/>
       <c r="C62" s="48" t="s">
         <v>102</v>
       </c>
@@ -37162,10 +37332,10 @@
       </c>
     </row>
     <row r="63" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A63" s="248" t="s">
+      <c r="A63" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="249"/>
+      <c r="B63" s="258"/>
       <c r="C63" s="48" t="s">
         <v>104</v>
       </c>
@@ -37308,10 +37478,10 @@
       </c>
     </row>
     <row r="64" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A64" s="248" t="s">
+      <c r="A64" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="249"/>
+      <c r="B64" s="258"/>
       <c r="C64" s="48" t="s">
         <v>106</v>
       </c>
@@ -37454,10 +37624,10 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="248" t="s">
+      <c r="A65" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="249"/>
+      <c r="B65" s="258"/>
       <c r="C65" s="48" t="s">
         <v>107</v>
       </c>
@@ -37562,10 +37732,10 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="248" t="s">
+      <c r="A66" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="249"/>
+      <c r="B66" s="258"/>
       <c r="C66" s="49" t="s">
         <v>108</v>
       </c>
@@ -37670,10 +37840,10 @@
       </c>
     </row>
     <row r="67" spans="1:62" s="125" customFormat="1" ht="180.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="262" t="s">
+      <c r="A67" s="275" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="263"/>
+      <c r="B67" s="276"/>
       <c r="C67" s="66" t="s">
         <v>109</v>
       </c>
@@ -37843,10 +38013,10 @@
       <c r="BI67" s="207"/>
     </row>
     <row r="68" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="248" t="s">
+      <c r="A68" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="249"/>
+      <c r="B68" s="258"/>
       <c r="C68" s="49" t="s">
         <v>110</v>
       </c>
@@ -38013,10 +38183,10 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="248" t="s">
+      <c r="A69" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="249"/>
+      <c r="B69" s="258"/>
       <c r="C69" s="49" t="s">
         <v>111</v>
       </c>
@@ -38183,10 +38353,10 @@
       </c>
     </row>
     <row r="70" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="248" t="s">
+      <c r="A70" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="249"/>
+      <c r="B70" s="258"/>
       <c r="C70" s="49" t="s">
         <v>112</v>
       </c>
@@ -38353,10 +38523,10 @@
       </c>
     </row>
     <row r="71" spans="1:62" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="248" t="s">
+      <c r="A71" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="249"/>
+      <c r="B71" s="258"/>
       <c r="C71" s="49" t="s">
         <v>113</v>
       </c>
@@ -38523,10 +38693,10 @@
       </c>
     </row>
     <row r="72" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A72" s="248" t="s">
+      <c r="A72" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="249"/>
+      <c r="B72" s="258"/>
       <c r="C72" s="49" t="s">
         <v>114</v>
       </c>
@@ -38693,10 +38863,10 @@
       </c>
     </row>
     <row r="73" spans="1:62" ht="255" x14ac:dyDescent="0.2">
-      <c r="A73" s="248" t="s">
+      <c r="A73" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="249"/>
+      <c r="B73" s="258"/>
       <c r="C73" s="49" t="s">
         <v>115</v>
       </c>
@@ -38863,10 +39033,10 @@
       </c>
     </row>
     <row r="74" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A74" s="248" t="s">
+      <c r="A74" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="249"/>
+      <c r="B74" s="258"/>
       <c r="C74" s="49" t="s">
         <v>116</v>
       </c>
@@ -39033,10 +39203,10 @@
       </c>
     </row>
     <row r="75" spans="1:62" s="100" customFormat="1" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="250" t="s">
+      <c r="A75" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="251"/>
+      <c r="B75" s="260"/>
       <c r="C75" s="50" t="s">
         <v>117</v>
       </c>
@@ -39179,10 +39349,10 @@
       <c r="BJ75" s="96"/>
     </row>
     <row r="76" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="248" t="s">
+      <c r="A76" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="249"/>
+      <c r="B76" s="258"/>
       <c r="C76" s="48" t="s">
         <v>119</v>
       </c>
@@ -39341,10 +39511,10 @@
       </c>
     </row>
     <row r="77" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="248" t="s">
+      <c r="A77" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="249"/>
+      <c r="B77" s="258"/>
       <c r="C77" s="48" t="s">
         <v>121</v>
       </c>
@@ -39501,10 +39671,10 @@
       </c>
     </row>
     <row r="78" spans="1:62" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A78" s="248" t="s">
+      <c r="A78" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="249"/>
+      <c r="B78" s="258"/>
       <c r="C78" s="48" t="s">
         <v>123</v>
       </c>
@@ -39661,10 +39831,10 @@
       </c>
     </row>
     <row r="79" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="248" t="s">
+      <c r="A79" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="249"/>
+      <c r="B79" s="258"/>
       <c r="C79" s="48" t="s">
         <v>125</v>
       </c>
@@ -39821,10 +39991,10 @@
       </c>
     </row>
     <row r="80" spans="1:62" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="248" t="s">
+      <c r="A80" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="249"/>
+      <c r="B80" s="258"/>
       <c r="C80" s="48" t="s">
         <v>127</v>
       </c>
@@ -39967,10 +40137,10 @@
       </c>
     </row>
     <row r="81" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="248" t="s">
+      <c r="A81" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="249"/>
+      <c r="B81" s="258"/>
       <c r="C81" s="49" t="s">
         <v>129</v>
       </c>
@@ -40113,10 +40283,10 @@
       </c>
     </row>
     <row r="82" spans="1:62" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="250" t="s">
+      <c r="A82" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="251"/>
+      <c r="B82" s="260"/>
       <c r="C82" s="50" t="s">
         <v>130</v>
       </c>
@@ -40254,10 +40424,10 @@
       <c r="BI82" s="207"/>
     </row>
     <row r="83" spans="1:62" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="248" t="s">
+      <c r="A83" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="249"/>
+      <c r="B83" s="258"/>
       <c r="C83" s="49" t="s">
         <v>132</v>
       </c>
@@ -40412,10 +40582,10 @@
       </c>
     </row>
     <row r="84" spans="1:62" s="100" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="250" t="s">
+      <c r="A84" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="251"/>
+      <c r="B84" s="260"/>
       <c r="C84" s="50" t="s">
         <v>133</v>
       </c>
@@ -40563,10 +40733,10 @@
       <c r="BI84" s="207"/>
     </row>
     <row r="85" spans="1:62" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="248" t="s">
+      <c r="A85" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="249"/>
+      <c r="B85" s="258"/>
       <c r="C85" s="49" t="s">
         <v>135</v>
       </c>
@@ -40713,10 +40883,10 @@
       <c r="BF85" s="182"/>
     </row>
     <row r="86" spans="1:62" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="248" t="s">
+      <c r="A86" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="249"/>
+      <c r="B86" s="258"/>
       <c r="C86" s="49" t="s">
         <v>136</v>
       </c>
@@ -40855,10 +41025,10 @@
       </c>
     </row>
     <row r="87" spans="1:62" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="248" t="s">
+      <c r="A87" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="249"/>
+      <c r="B87" s="258"/>
       <c r="C87" s="48" t="s">
         <v>138</v>
       </c>
@@ -40995,10 +41165,10 @@
       </c>
     </row>
     <row r="88" spans="1:62" ht="153" x14ac:dyDescent="0.2">
-      <c r="A88" s="248" t="s">
+      <c r="A88" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="249"/>
+      <c r="B88" s="258"/>
       <c r="C88" s="48" t="s">
         <v>140</v>
       </c>
@@ -41087,10 +41257,10 @@
       </c>
     </row>
     <row r="89" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A89" s="248" t="s">
+      <c r="A89" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="249"/>
+      <c r="B89" s="258"/>
       <c r="C89" s="49" t="s">
         <v>141</v>
       </c>
@@ -41179,10 +41349,10 @@
       </c>
     </row>
     <row r="90" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A90" s="248" t="s">
+      <c r="A90" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="249"/>
+      <c r="B90" s="258"/>
       <c r="C90" s="48" t="s">
         <v>142</v>
       </c>
@@ -41287,16 +41457,16 @@
         <v>1315</v>
       </c>
       <c r="BF90" s="189"/>
-      <c r="BG90" s="286" t="s">
+      <c r="BG90" s="227" t="s">
         <v>2867</v>
       </c>
-      <c r="BH90" s="295"/>
+      <c r="BH90" s="236"/>
     </row>
     <row r="91" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A91" s="248" t="s">
+      <c r="A91" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="249"/>
+      <c r="B91" s="258"/>
       <c r="C91" s="49" t="s">
         <v>2873</v>
       </c>
@@ -41401,18 +41571,18 @@
         <v>1315</v>
       </c>
       <c r="BF91" s="190"/>
-      <c r="BG91" s="296" t="s">
+      <c r="BG91" s="237" t="s">
         <v>2875</v>
       </c>
-      <c r="BH91" s="297"/>
-      <c r="BI91" s="298"/>
-      <c r="BJ91" s="299"/>
+      <c r="BH91" s="238"/>
+      <c r="BI91" s="239"/>
+      <c r="BJ91" s="240"/>
     </row>
     <row r="92" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A92" s="248" t="s">
+      <c r="A92" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="249"/>
+      <c r="B92" s="258"/>
       <c r="C92" s="48" t="s">
         <v>143</v>
       </c>
@@ -41517,16 +41687,16 @@
         <v>1315</v>
       </c>
       <c r="BF92" s="182"/>
-      <c r="BG92" s="296" t="s">
+      <c r="BG92" s="237" t="s">
         <v>2876</v>
       </c>
-      <c r="BH92" s="297"/>
+      <c r="BH92" s="238"/>
     </row>
     <row r="93" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A93" s="248" t="s">
+      <c r="A93" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="249"/>
+      <c r="B93" s="258"/>
       <c r="C93" s="48" t="s">
         <v>144</v>
       </c>
@@ -41647,10 +41817,10 @@
       </c>
     </row>
     <row r="94" spans="1:62" ht="204" x14ac:dyDescent="0.2">
-      <c r="A94" s="248" t="s">
+      <c r="A94" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="249"/>
+      <c r="B94" s="258"/>
       <c r="C94" s="48" t="s">
         <v>146</v>
       </c>
@@ -41771,10 +41941,10 @@
       </c>
     </row>
     <row r="95" spans="1:62" ht="204" x14ac:dyDescent="0.2">
-      <c r="A95" s="248" t="s">
+      <c r="A95" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="249"/>
+      <c r="B95" s="258"/>
       <c r="C95" s="48" t="s">
         <v>148</v>
       </c>
@@ -41895,10 +42065,10 @@
       </c>
     </row>
     <row r="96" spans="1:62" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="250" t="s">
+      <c r="A96" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="251"/>
+      <c r="B96" s="260"/>
       <c r="C96" s="50" t="s">
         <v>150</v>
       </c>
@@ -41994,10 +42164,10 @@
       <c r="BI96" s="207"/>
     </row>
     <row r="97" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A97" s="248" t="s">
+      <c r="A97" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B97" s="249"/>
+      <c r="B97" s="258"/>
       <c r="C97" s="48" t="s">
         <v>152</v>
       </c>
@@ -42118,10 +42288,10 @@
       </c>
     </row>
     <row r="98" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A98" s="248" t="s">
+      <c r="A98" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="249"/>
+      <c r="B98" s="258"/>
       <c r="C98" s="49" t="s">
         <v>154</v>
       </c>
@@ -42242,10 +42412,10 @@
       </c>
     </row>
     <row r="99" spans="1:61" s="172" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A99" s="258" t="s">
+      <c r="A99" s="277" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="259"/>
+      <c r="B99" s="278"/>
       <c r="C99" s="162" t="s">
         <v>156</v>
       </c>
@@ -42347,10 +42517,10 @@
       <c r="BI99" s="207"/>
     </row>
     <row r="100" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A100" s="248" t="s">
+      <c r="A100" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B100" s="249"/>
+      <c r="B100" s="258"/>
       <c r="C100" s="48" t="s">
         <v>158</v>
       </c>
@@ -42469,10 +42639,10 @@
       </c>
     </row>
     <row r="101" spans="1:61" s="116" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A101" s="252" t="s">
+      <c r="A101" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="B101" s="253"/>
+      <c r="B101" s="272"/>
       <c r="C101" s="51" t="s">
         <v>159</v>
       </c>
@@ -42580,10 +42750,10 @@
       <c r="BI101" s="207"/>
     </row>
     <row r="102" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A102" s="248" t="s">
+      <c r="A102" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B102" s="249"/>
+      <c r="B102" s="258"/>
       <c r="C102" s="49" t="s">
         <v>161</v>
       </c>
@@ -42702,10 +42872,10 @@
       </c>
     </row>
     <row r="103" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="248" t="s">
+      <c r="A103" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="249"/>
+      <c r="B103" s="258"/>
       <c r="C103" s="49" t="s">
         <v>163</v>
       </c>
@@ -42824,10 +42994,10 @@
       </c>
     </row>
     <row r="104" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A104" s="248" t="s">
+      <c r="A104" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B104" s="249"/>
+      <c r="B104" s="258"/>
       <c r="C104" s="49" t="s">
         <v>165</v>
       </c>
@@ -42910,10 +43080,10 @@
       </c>
     </row>
     <row r="105" spans="1:61" s="100" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A105" s="250" t="s">
+      <c r="A105" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="251"/>
+      <c r="B105" s="260"/>
       <c r="C105" s="50" t="s">
         <v>166</v>
       </c>
@@ -42993,10 +43163,10 @@
       <c r="BI105" s="207"/>
     </row>
     <row r="106" spans="1:61" s="100" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="250" t="s">
+      <c r="A106" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="251"/>
+      <c r="B106" s="260"/>
       <c r="C106" s="50" t="s">
         <v>168</v>
       </c>
@@ -43076,10 +43246,10 @@
       <c r="BI106" s="207"/>
     </row>
     <row r="107" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A107" s="248" t="s">
+      <c r="A107" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="249"/>
+      <c r="B107" s="258"/>
       <c r="C107" s="49" t="s">
         <v>170</v>
       </c>
@@ -43160,10 +43330,10 @@
       </c>
     </row>
     <row r="108" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A108" s="248" t="s">
+      <c r="A108" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="249"/>
+      <c r="B108" s="258"/>
       <c r="C108" s="49" t="s">
         <v>172</v>
       </c>
@@ -43244,10 +43414,10 @@
       </c>
     </row>
     <row r="109" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A109" s="248" t="s">
+      <c r="A109" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="249"/>
+      <c r="B109" s="258"/>
       <c r="C109" s="49" t="s">
         <v>174</v>
       </c>
@@ -43328,10 +43498,10 @@
       </c>
     </row>
     <row r="110" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A110" s="248" t="s">
+      <c r="A110" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="249"/>
+      <c r="B110" s="258"/>
       <c r="C110" s="49" t="s">
         <v>176</v>
       </c>
@@ -43412,10 +43582,10 @@
       </c>
     </row>
     <row r="111" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A111" s="248" t="s">
+      <c r="A111" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="249"/>
+      <c r="B111" s="258"/>
       <c r="C111" s="49" t="s">
         <v>178</v>
       </c>
@@ -43496,10 +43666,10 @@
       </c>
     </row>
     <row r="112" spans="1:61" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="248" t="s">
+      <c r="A112" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B112" s="249"/>
+      <c r="B112" s="258"/>
       <c r="C112" s="49" t="s">
         <v>179</v>
       </c>
@@ -43580,10 +43750,10 @@
       </c>
     </row>
     <row r="113" spans="1:62" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="248" t="s">
+      <c r="A113" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="249"/>
+      <c r="B113" s="258"/>
       <c r="C113" s="49" t="s">
         <v>180</v>
       </c>
@@ -43664,10 +43834,10 @@
       </c>
     </row>
     <row r="114" spans="1:62" s="100" customFormat="1" ht="107.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="250" t="s">
+      <c r="A114" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="251"/>
+      <c r="B114" s="260"/>
       <c r="C114" s="50" t="s">
         <v>182</v>
       </c>
@@ -43773,10 +43943,10 @@
       <c r="BI114" s="207"/>
     </row>
     <row r="115" spans="1:62" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="248" t="s">
+      <c r="A115" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="249"/>
+      <c r="B115" s="258"/>
       <c r="C115" s="48" t="s">
         <v>184</v>
       </c>
@@ -43899,10 +44069,10 @@
       <c r="BF115" s="182"/>
     </row>
     <row r="116" spans="1:62" s="100" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A116" s="250" t="s">
+      <c r="A116" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="251"/>
+      <c r="B116" s="260"/>
       <c r="C116" s="50" t="s">
         <v>185</v>
       </c>
@@ -44013,10 +44183,10 @@
       <c r="BJ116" s="96"/>
     </row>
     <row r="117" spans="1:62" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="248" t="s">
+      <c r="A117" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="249"/>
+      <c r="B117" s="258"/>
       <c r="C117" s="48" t="s">
         <v>187</v>
       </c>
@@ -44139,10 +44309,10 @@
       <c r="BF117" s="182"/>
     </row>
     <row r="118" spans="1:62" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="248" t="s">
+      <c r="A118" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B118" s="249"/>
+      <c r="B118" s="258"/>
       <c r="C118" s="48" t="s">
         <v>189</v>
       </c>
@@ -44265,10 +44435,10 @@
       <c r="BF118" s="182"/>
     </row>
     <row r="119" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="248" t="s">
+      <c r="A119" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="249"/>
+      <c r="B119" s="258"/>
       <c r="C119" s="48" t="s">
         <v>191</v>
       </c>
@@ -44391,10 +44561,10 @@
       <c r="BF119" s="182"/>
     </row>
     <row r="120" spans="1:62" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="248" t="s">
+      <c r="A120" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B120" s="249"/>
+      <c r="B120" s="258"/>
       <c r="C120" s="49" t="s">
         <v>193</v>
       </c>
@@ -44517,10 +44687,10 @@
       <c r="BF120" s="182"/>
     </row>
     <row r="121" spans="1:62" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="248" t="s">
+      <c r="A121" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="249"/>
+      <c r="B121" s="258"/>
       <c r="C121" s="49" t="s">
         <v>194</v>
       </c>
@@ -44639,10 +44809,10 @@
       <c r="BF121" s="182"/>
     </row>
     <row r="122" spans="1:62" s="100" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A122" s="250" t="s">
+      <c r="A122" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="251"/>
+      <c r="B122" s="260"/>
       <c r="C122" s="50" t="s">
         <v>195</v>
       </c>
@@ -44740,10 +44910,10 @@
       <c r="BI122" s="207"/>
     </row>
     <row r="123" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="248" t="s">
+      <c r="A123" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B123" s="249"/>
+      <c r="B123" s="258"/>
       <c r="C123" s="49" t="s">
         <v>196</v>
       </c>
@@ -44862,10 +45032,10 @@
       <c r="BF123" s="182"/>
     </row>
     <row r="124" spans="1:62" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="248" t="s">
+      <c r="A124" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B124" s="249"/>
+      <c r="B124" s="258"/>
       <c r="C124" s="49" t="s">
         <v>197</v>
       </c>
@@ -44984,10 +45154,10 @@
       <c r="BF124" s="182"/>
     </row>
     <row r="125" spans="1:62" ht="102" x14ac:dyDescent="0.2">
-      <c r="A125" s="248" t="s">
+      <c r="A125" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B125" s="249"/>
+      <c r="B125" s="258"/>
       <c r="C125" s="49" t="s">
         <v>198</v>
       </c>
@@ -45106,10 +45276,10 @@
       <c r="BF125" s="182"/>
     </row>
     <row r="126" spans="1:62" s="100" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="250" t="s">
+      <c r="A126" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="251"/>
+      <c r="B126" s="260"/>
       <c r="C126" s="50" t="s">
         <v>199</v>
       </c>
@@ -45211,10 +45381,10 @@
       <c r="BI126" s="207"/>
     </row>
     <row r="127" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="248" t="s">
+      <c r="A127" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="249"/>
+      <c r="B127" s="258"/>
       <c r="C127" s="48" t="s">
         <v>200</v>
       </c>
@@ -45333,10 +45503,10 @@
       <c r="BF127" s="182"/>
     </row>
     <row r="128" spans="1:62" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A128" s="248" t="s">
+      <c r="A128" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="249"/>
+      <c r="B128" s="258"/>
       <c r="C128" s="48" t="s">
         <v>201</v>
       </c>
@@ -45451,10 +45621,10 @@
       <c r="BF128" s="182"/>
     </row>
     <row r="129" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="248" t="s">
+      <c r="A129" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="249"/>
+      <c r="B129" s="258"/>
       <c r="C129" s="48" t="s">
         <v>202</v>
       </c>
@@ -45569,10 +45739,10 @@
       <c r="BF129" s="182"/>
     </row>
     <row r="130" spans="1:61" ht="51" x14ac:dyDescent="0.2">
-      <c r="A130" s="248" t="s">
+      <c r="A130" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="249"/>
+      <c r="B130" s="258"/>
       <c r="C130" s="48" t="s">
         <v>204</v>
       </c>
@@ -45687,10 +45857,10 @@
       <c r="BF130" s="182"/>
     </row>
     <row r="131" spans="1:61" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="248" t="s">
+      <c r="A131" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B131" s="249"/>
+      <c r="B131" s="258"/>
       <c r="C131" s="48" t="s">
         <v>206</v>
       </c>
@@ -45805,10 +45975,10 @@
       <c r="BF131" s="182"/>
     </row>
     <row r="132" spans="1:61" s="100" customFormat="1" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="250" t="s">
+      <c r="A132" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="251"/>
+      <c r="B132" s="260"/>
       <c r="C132" s="112" t="s">
         <v>494</v>
       </c>
@@ -45924,10 +46094,10 @@
       <c r="BI132" s="207"/>
     </row>
     <row r="133" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A133" s="248" t="s">
+      <c r="A133" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="249"/>
+      <c r="B133" s="258"/>
       <c r="C133" s="48" t="s">
         <v>208</v>
       </c>
@@ -46054,10 +46224,10 @@
       </c>
     </row>
     <row r="134" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="248" t="s">
+      <c r="A134" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="249"/>
+      <c r="B134" s="258"/>
       <c r="C134" s="48" t="s">
         <v>210</v>
       </c>
@@ -46180,10 +46350,10 @@
       </c>
     </row>
     <row r="135" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A135" s="248" t="s">
+      <c r="A135" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B135" s="249"/>
+      <c r="B135" s="258"/>
       <c r="C135" s="48" t="s">
         <v>212</v>
       </c>
@@ -46306,10 +46476,10 @@
       </c>
     </row>
     <row r="136" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A136" s="248" t="s">
+      <c r="A136" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B136" s="249"/>
+      <c r="B136" s="258"/>
       <c r="C136" s="48" t="s">
         <v>214</v>
       </c>
@@ -46430,10 +46600,10 @@
       </c>
     </row>
     <row r="137" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A137" s="248" t="s">
+      <c r="A137" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B137" s="249"/>
+      <c r="B137" s="258"/>
       <c r="C137" s="48" t="s">
         <v>216</v>
       </c>
@@ -46556,10 +46726,10 @@
       </c>
     </row>
     <row r="138" spans="1:61" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="248" t="s">
+      <c r="A138" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B138" s="249"/>
+      <c r="B138" s="258"/>
       <c r="C138" s="48" t="s">
         <v>218</v>
       </c>
@@ -46682,10 +46852,10 @@
       </c>
     </row>
     <row r="139" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A139" s="248" t="s">
+      <c r="A139" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B139" s="249"/>
+      <c r="B139" s="258"/>
       <c r="C139" s="49" t="s">
         <v>220</v>
       </c>
@@ -46806,10 +46976,10 @@
       </c>
     </row>
     <row r="140" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A140" s="248" t="s">
+      <c r="A140" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B140" s="249"/>
+      <c r="B140" s="258"/>
       <c r="C140" s="49" t="s">
         <v>222</v>
       </c>
@@ -46932,10 +47102,10 @@
       </c>
     </row>
     <row r="141" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A141" s="248" t="s">
+      <c r="A141" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="249"/>
+      <c r="B141" s="258"/>
       <c r="C141" s="49" t="s">
         <v>224</v>
       </c>
@@ -47016,10 +47186,10 @@
       </c>
     </row>
     <row r="142" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A142" s="248" t="s">
+      <c r="A142" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="249"/>
+      <c r="B142" s="258"/>
       <c r="C142" s="49" t="s">
         <v>225</v>
       </c>
@@ -47098,10 +47268,10 @@
       </c>
     </row>
     <row r="143" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A143" s="248" t="s">
+      <c r="A143" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="249"/>
+      <c r="B143" s="258"/>
       <c r="C143" s="49" t="s">
         <v>227</v>
       </c>
@@ -47182,10 +47352,10 @@
       </c>
     </row>
     <row r="144" spans="1:61" s="121" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="260" t="s">
+      <c r="A144" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="261"/>
+      <c r="B144" s="274"/>
       <c r="C144" s="135" t="s">
         <v>507</v>
       </c>
@@ -47321,10 +47491,10 @@
       <c r="BI144" s="207"/>
     </row>
     <row r="145" spans="1:61" s="121" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="260" t="s">
+      <c r="A145" s="273" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="261"/>
+      <c r="B145" s="274"/>
       <c r="C145" s="58" t="s">
         <v>229</v>
       </c>
@@ -47460,10 +47630,10 @@
       <c r="BI145" s="207"/>
     </row>
     <row r="146" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A146" s="248" t="s">
+      <c r="A146" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B146" s="249"/>
+      <c r="B146" s="258"/>
       <c r="C146" s="48" t="s">
         <v>231</v>
       </c>
@@ -47612,10 +47782,10 @@
       </c>
     </row>
     <row r="147" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A147" s="248" t="s">
+      <c r="A147" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B147" s="249"/>
+      <c r="B147" s="258"/>
       <c r="C147" s="48" t="s">
         <v>233</v>
       </c>
@@ -47764,10 +47934,10 @@
       </c>
     </row>
     <row r="148" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A148" s="248" t="s">
+      <c r="A148" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B148" s="249"/>
+      <c r="B148" s="258"/>
       <c r="C148" s="48" t="s">
         <v>235</v>
       </c>
@@ -47916,10 +48086,10 @@
       </c>
     </row>
     <row r="149" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="248" t="s">
+      <c r="A149" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B149" s="249"/>
+      <c r="B149" s="258"/>
       <c r="C149" s="49" t="s">
         <v>236</v>
       </c>
@@ -48068,10 +48238,10 @@
       <c r="BF149" s="182"/>
     </row>
     <row r="150" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A150" s="248" t="s">
+      <c r="A150" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B150" s="249"/>
+      <c r="B150" s="258"/>
       <c r="C150" s="48" t="s">
         <v>239</v>
       </c>
@@ -48220,10 +48390,10 @@
       </c>
     </row>
     <row r="151" spans="1:61" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="248" t="s">
+      <c r="A151" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B151" s="249"/>
+      <c r="B151" s="258"/>
       <c r="C151" s="106" t="s">
         <v>506</v>
       </c>
@@ -48372,10 +48542,10 @@
       </c>
     </row>
     <row r="152" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A152" s="248" t="s">
+      <c r="A152" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B152" s="249"/>
+      <c r="B152" s="258"/>
       <c r="C152" s="106" t="s">
         <v>505</v>
       </c>
@@ -48524,10 +48694,10 @@
       </c>
     </row>
     <row r="153" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A153" s="248" t="s">
+      <c r="A153" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B153" s="249"/>
+      <c r="B153" s="258"/>
       <c r="C153" s="106" t="s">
         <v>508</v>
       </c>
@@ -48676,10 +48846,10 @@
       </c>
     </row>
     <row r="154" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="248" t="s">
+      <c r="A154" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="249"/>
+      <c r="B154" s="258"/>
       <c r="C154" s="48" t="s">
         <v>243</v>
       </c>
@@ -48828,10 +48998,10 @@
       </c>
     </row>
     <row r="155" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A155" s="248" t="s">
+      <c r="A155" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B155" s="249"/>
+      <c r="B155" s="258"/>
       <c r="C155" s="48" t="s">
         <v>244</v>
       </c>
@@ -48980,10 +49150,10 @@
       </c>
     </row>
     <row r="156" spans="1:61" s="121" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="260" t="s">
+      <c r="A156" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="B156" s="261"/>
+      <c r="B156" s="274"/>
       <c r="C156" s="135" t="s">
         <v>514</v>
       </c>
@@ -49125,10 +49295,10 @@
       <c r="BI156" s="207"/>
     </row>
     <row r="157" spans="1:61" ht="255" x14ac:dyDescent="0.2">
-      <c r="A157" s="248" t="s">
+      <c r="A157" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B157" s="249"/>
+      <c r="B157" s="258"/>
       <c r="C157" s="48" t="s">
         <v>245</v>
       </c>
@@ -49261,10 +49431,10 @@
       </c>
     </row>
     <row r="158" spans="1:61" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A158" s="248" t="s">
+      <c r="A158" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="249"/>
+      <c r="B158" s="258"/>
       <c r="C158" s="48" t="s">
         <v>246</v>
       </c>
@@ -49375,10 +49545,10 @@
       </c>
     </row>
     <row r="159" spans="1:61" ht="252.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="248" t="s">
+      <c r="A159" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="249"/>
+      <c r="B159" s="258"/>
       <c r="C159" s="48" t="s">
         <v>247</v>
       </c>
@@ -49489,10 +49659,10 @@
       </c>
     </row>
     <row r="160" spans="1:61" ht="255" x14ac:dyDescent="0.2">
-      <c r="A160" s="248" t="s">
+      <c r="A160" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="249"/>
+      <c r="B160" s="258"/>
       <c r="C160" s="48" t="s">
         <v>248</v>
       </c>
@@ -49603,10 +49773,10 @@
       </c>
     </row>
     <row r="161" spans="1:61" ht="255" x14ac:dyDescent="0.2">
-      <c r="A161" s="248" t="s">
+      <c r="A161" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="249"/>
+      <c r="B161" s="258"/>
       <c r="C161" s="48" t="s">
         <v>249</v>
       </c>
@@ -49731,10 +49901,10 @@
       </c>
     </row>
     <row r="162" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A162" s="248" t="s">
+      <c r="A162" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="249"/>
+      <c r="B162" s="258"/>
       <c r="C162" s="48" t="s">
         <v>250</v>
       </c>
@@ -49855,10 +50025,10 @@
       </c>
     </row>
     <row r="163" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="248" t="s">
+      <c r="A163" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="249"/>
+      <c r="B163" s="258"/>
       <c r="C163" s="48" t="s">
         <v>251</v>
       </c>
@@ -49953,16 +50123,16 @@
       <c r="BF163" s="181" t="s">
         <v>1458</v>
       </c>
-      <c r="BG163" s="289" t="s">
+      <c r="BG163" s="230" t="s">
         <v>2868</v>
       </c>
-      <c r="BH163" s="289"/>
+      <c r="BH163" s="230"/>
     </row>
     <row r="164" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A164" s="248" t="s">
+      <c r="A164" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="249"/>
+      <c r="B164" s="258"/>
       <c r="C164" s="48" t="s">
         <v>252</v>
       </c>
@@ -50089,16 +50259,16 @@
       <c r="BF164" s="181" t="s">
         <v>1229</v>
       </c>
-      <c r="BG164" s="300" t="s">
+      <c r="BG164" s="241" t="s">
         <v>2877</v>
       </c>
-      <c r="BH164" s="300"/>
+      <c r="BH164" s="241"/>
     </row>
     <row r="165" spans="1:61" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="248" t="s">
+      <c r="A165" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="249"/>
+      <c r="B165" s="258"/>
       <c r="C165" s="48" t="s">
         <v>254</v>
       </c>
@@ -50213,10 +50383,10 @@
       </c>
     </row>
     <row r="166" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A166" s="248" t="s">
+      <c r="A166" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="249"/>
+      <c r="B166" s="258"/>
       <c r="C166" s="48" t="s">
         <v>256</v>
       </c>
@@ -50331,10 +50501,10 @@
       </c>
     </row>
     <row r="167" spans="1:61" s="121" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A167" s="260" t="s">
+      <c r="A167" s="273" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="261"/>
+      <c r="B167" s="274"/>
       <c r="C167" s="135" t="s">
         <v>528</v>
       </c>
@@ -50484,10 +50654,10 @@
       <c r="BI167" s="207"/>
     </row>
     <row r="168" spans="1:61" s="116" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A168" s="252" t="s">
+      <c r="A168" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="253"/>
+      <c r="B168" s="272"/>
       <c r="C168" s="51" t="s">
         <v>257</v>
       </c>
@@ -50619,10 +50789,10 @@
       <c r="BI168" s="207"/>
     </row>
     <row r="169" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="248" t="s">
+      <c r="A169" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B169" s="249"/>
+      <c r="B169" s="258"/>
       <c r="C169" s="48" t="s">
         <v>259</v>
       </c>
@@ -50751,10 +50921,10 @@
       </c>
     </row>
     <row r="170" spans="1:61" ht="344.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="248" t="s">
+      <c r="A170" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="249"/>
+      <c r="B170" s="258"/>
       <c r="C170" s="48" t="s">
         <v>260</v>
       </c>
@@ -50883,10 +51053,10 @@
       </c>
     </row>
     <row r="171" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="248" t="s">
+      <c r="A171" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B171" s="249"/>
+      <c r="B171" s="258"/>
       <c r="C171" s="48" t="s">
         <v>261</v>
       </c>
@@ -50981,10 +51151,10 @@
       <c r="BF171" s="182"/>
     </row>
     <row r="172" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A172" s="248" t="s">
+      <c r="A172" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="249"/>
+      <c r="B172" s="258"/>
       <c r="C172" s="48" t="s">
         <v>262</v>
       </c>
@@ -51073,10 +51243,10 @@
       </c>
     </row>
     <row r="173" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A173" s="248" t="s">
+      <c r="A173" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="249"/>
+      <c r="B173" s="258"/>
       <c r="C173" s="48" t="s">
         <v>264</v>
       </c>
@@ -51195,10 +51365,10 @@
       </c>
     </row>
     <row r="174" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A174" s="248" t="s">
+      <c r="A174" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="249"/>
+      <c r="B174" s="258"/>
       <c r="C174" s="48" t="s">
         <v>266</v>
       </c>
@@ -51347,10 +51517,10 @@
       </c>
     </row>
     <row r="175" spans="1:61" s="100" customFormat="1" ht="395.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="250" t="s">
+      <c r="A175" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B175" s="251"/>
+      <c r="B175" s="260"/>
       <c r="C175" s="50" t="s">
         <v>267</v>
       </c>
@@ -51482,10 +51652,10 @@
       <c r="BI175" s="207"/>
     </row>
     <row r="176" spans="1:61" ht="171.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="248" t="s">
+      <c r="A176" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="249"/>
+      <c r="B176" s="258"/>
       <c r="C176" s="48" t="s">
         <v>268</v>
       </c>
@@ -51614,10 +51784,10 @@
       </c>
     </row>
     <row r="177" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A177" s="248" t="s">
+      <c r="A177" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B177" s="249"/>
+      <c r="B177" s="258"/>
       <c r="C177" s="48" t="s">
         <v>269</v>
       </c>
@@ -51746,10 +51916,10 @@
       </c>
     </row>
     <row r="178" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A178" s="248" t="s">
+      <c r="A178" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B178" s="249"/>
+      <c r="B178" s="258"/>
       <c r="C178" s="48" t="s">
         <v>270</v>
       </c>
@@ -51878,10 +52048,10 @@
       </c>
     </row>
     <row r="179" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A179" s="248" t="s">
+      <c r="A179" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B179" s="249"/>
+      <c r="B179" s="258"/>
       <c r="C179" s="48" t="s">
         <v>271</v>
       </c>
@@ -52010,10 +52180,10 @@
       </c>
     </row>
     <row r="180" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A180" s="248" t="s">
+      <c r="A180" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B180" s="249"/>
+      <c r="B180" s="258"/>
       <c r="C180" s="48" t="s">
         <v>272</v>
       </c>
@@ -52140,10 +52310,10 @@
       <c r="BF180" s="181"/>
     </row>
     <row r="181" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A181" s="248" t="s">
+      <c r="A181" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B181" s="249"/>
+      <c r="B181" s="258"/>
       <c r="C181" s="48" t="s">
         <v>273</v>
       </c>
@@ -52272,10 +52442,10 @@
       </c>
     </row>
     <row r="182" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A182" s="248" t="s">
+      <c r="A182" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B182" s="249"/>
+      <c r="B182" s="258"/>
       <c r="C182" s="48" t="s">
         <v>274</v>
       </c>
@@ -52404,10 +52574,10 @@
       </c>
     </row>
     <row r="183" spans="1:61" s="100" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="250" t="s">
+      <c r="A183" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B183" s="251"/>
+      <c r="B183" s="260"/>
       <c r="C183" s="112" t="s">
         <v>548</v>
       </c>
@@ -52531,10 +52701,10 @@
       <c r="BI183" s="207"/>
     </row>
     <row r="184" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A184" s="248" t="s">
+      <c r="A184" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B184" s="249"/>
+      <c r="B184" s="258"/>
       <c r="C184" s="48" t="s">
         <v>275</v>
       </c>
@@ -52655,10 +52825,10 @@
       </c>
     </row>
     <row r="185" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A185" s="248" t="s">
+      <c r="A185" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="249"/>
+      <c r="B185" s="258"/>
       <c r="C185" s="48" t="s">
         <v>276</v>
       </c>
@@ -52779,10 +52949,10 @@
       </c>
     </row>
     <row r="186" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A186" s="248" t="s">
+      <c r="A186" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B186" s="249"/>
+      <c r="B186" s="258"/>
       <c r="C186" s="48" t="s">
         <v>277</v>
       </c>
@@ -52903,10 +53073,10 @@
       </c>
     </row>
     <row r="187" spans="1:61" ht="357" x14ac:dyDescent="0.2">
-      <c r="A187" s="248" t="s">
+      <c r="A187" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="249"/>
+      <c r="B187" s="258"/>
       <c r="C187" s="48" t="s">
         <v>278</v>
       </c>
@@ -53027,10 +53197,10 @@
       </c>
     </row>
     <row r="188" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A188" s="248" t="s">
+      <c r="A188" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="249"/>
+      <c r="B188" s="258"/>
       <c r="C188" s="48" t="s">
         <v>279</v>
       </c>
@@ -53151,10 +53321,10 @@
       </c>
     </row>
     <row r="189" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A189" s="248" t="s">
+      <c r="A189" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B189" s="249"/>
+      <c r="B189" s="258"/>
       <c r="C189" s="48" t="s">
         <v>280</v>
       </c>
@@ -53263,10 +53433,10 @@
       </c>
     </row>
     <row r="190" spans="1:61" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A190" s="248" t="s">
+      <c r="A190" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B190" s="249"/>
+      <c r="B190" s="258"/>
       <c r="C190" s="48" t="s">
         <v>281</v>
       </c>
@@ -53387,10 +53557,10 @@
       </c>
     </row>
     <row r="191" spans="1:61" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="248" t="s">
+      <c r="A191" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="249"/>
+      <c r="B191" s="258"/>
       <c r="C191" s="48" t="s">
         <v>282</v>
       </c>
@@ -53509,10 +53679,10 @@
       </c>
     </row>
     <row r="192" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A192" s="248" t="s">
+      <c r="A192" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B192" s="249"/>
+      <c r="B192" s="258"/>
       <c r="C192" s="48" t="s">
         <v>284</v>
       </c>
@@ -53621,10 +53791,10 @@
       </c>
     </row>
     <row r="193" spans="1:62" ht="153" x14ac:dyDescent="0.2">
-      <c r="A193" s="248" t="s">
+      <c r="A193" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="249"/>
+      <c r="B193" s="258"/>
       <c r="C193" s="48" t="s">
         <v>286</v>
       </c>
@@ -53717,10 +53887,10 @@
       </c>
     </row>
     <row r="194" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="248" t="s">
+      <c r="A194" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B194" s="249"/>
+      <c r="B194" s="258"/>
       <c r="C194" s="49" t="s">
         <v>287</v>
       </c>
@@ -53823,10 +53993,10 @@
       </c>
     </row>
     <row r="195" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="248" t="s">
+      <c r="A195" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B195" s="249"/>
+      <c r="B195" s="258"/>
       <c r="C195" s="48" t="s">
         <v>289</v>
       </c>
@@ -53925,10 +54095,10 @@
       </c>
     </row>
     <row r="196" spans="1:62" ht="204" x14ac:dyDescent="0.2">
-      <c r="A196" s="248" t="s">
+      <c r="A196" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="249"/>
+      <c r="B196" s="258"/>
       <c r="C196" s="48" t="s">
         <v>291</v>
       </c>
@@ -54015,10 +54185,10 @@
       </c>
     </row>
     <row r="197" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A197" s="248" t="s">
+      <c r="A197" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B197" s="249"/>
+      <c r="B197" s="258"/>
       <c r="C197" s="48" t="s">
         <v>292</v>
       </c>
@@ -54133,10 +54303,10 @@
       </c>
     </row>
     <row r="198" spans="1:62" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="248" t="s">
+      <c r="A198" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="249"/>
+      <c r="B198" s="258"/>
       <c r="C198" s="48" t="s">
         <v>294</v>
       </c>
@@ -54251,10 +54421,10 @@
       </c>
     </row>
     <row r="199" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A199" s="248" t="s">
+      <c r="A199" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B199" s="249"/>
+      <c r="B199" s="258"/>
       <c r="C199" s="48" t="s">
         <v>295</v>
       </c>
@@ -54333,10 +54503,10 @@
       </c>
     </row>
     <row r="200" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A200" s="248" t="s">
+      <c r="A200" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B200" s="249"/>
+      <c r="B200" s="258"/>
       <c r="C200" s="48" t="s">
         <v>297</v>
       </c>
@@ -54423,10 +54593,10 @@
       </c>
     </row>
     <row r="201" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A201" s="248" t="s">
+      <c r="A201" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B201" s="249"/>
+      <c r="B201" s="258"/>
       <c r="C201" s="48" t="s">
         <v>299</v>
       </c>
@@ -54513,10 +54683,10 @@
       </c>
     </row>
     <row r="202" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A202" s="248" t="s">
+      <c r="A202" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B202" s="249"/>
+      <c r="B202" s="258"/>
       <c r="C202" s="48" t="s">
         <v>301</v>
       </c>
@@ -54603,10 +54773,10 @@
       </c>
     </row>
     <row r="203" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A203" s="248" t="s">
+      <c r="A203" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B203" s="249"/>
+      <c r="B203" s="258"/>
       <c r="C203" s="49" t="s">
         <v>302</v>
       </c>
@@ -54722,11 +54892,11 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="204" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A204" s="248" t="s">
+    <row r="204" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A204" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="249"/>
+      <c r="B204" s="258"/>
       <c r="C204" s="49" t="s">
         <v>303</v>
       </c>
@@ -54843,10 +55013,10 @@
       </c>
     </row>
     <row r="205" spans="1:62" s="172" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="258" t="s">
+      <c r="A205" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="259"/>
+      <c r="B205" s="278"/>
       <c r="C205" s="162" t="s">
         <v>304</v>
       </c>
@@ -54964,10 +55134,10 @@
       <c r="BI205" s="207"/>
     </row>
     <row r="206" spans="1:62" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="248" t="s">
+      <c r="A206" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="249"/>
+      <c r="B206" s="258"/>
       <c r="C206" s="49" t="s">
         <v>2895</v>
       </c>
@@ -55080,18 +55250,18 @@
         <v>1315</v>
       </c>
       <c r="BF206" s="181"/>
-      <c r="BG206" s="284" t="s">
+      <c r="BG206" s="225" t="s">
         <v>2894</v>
       </c>
-      <c r="BH206" s="285"/>
-      <c r="BI206" s="284"/>
-      <c r="BJ206" s="285"/>
+      <c r="BH206" s="226"/>
+      <c r="BI206" s="225"/>
+      <c r="BJ206" s="226"/>
     </row>
     <row r="207" spans="1:62" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="248" t="s">
+      <c r="A207" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="249"/>
+      <c r="B207" s="258"/>
       <c r="C207" s="49" t="s">
         <v>2892</v>
       </c>
@@ -55198,18 +55368,18 @@
         <v>1315</v>
       </c>
       <c r="BF207" s="181"/>
-      <c r="BG207" s="286" t="s">
+      <c r="BG207" s="227" t="s">
         <v>2896</v>
       </c>
-      <c r="BH207" s="285"/>
-      <c r="BI207" s="284"/>
-      <c r="BJ207" s="285"/>
+      <c r="BH207" s="226"/>
+      <c r="BI207" s="225"/>
+      <c r="BJ207" s="226"/>
     </row>
     <row r="208" spans="1:62" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="250" t="s">
+      <c r="A208" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B208" s="251"/>
+      <c r="B208" s="260"/>
       <c r="C208" s="112" t="s">
         <v>586</v>
       </c>
@@ -55307,10 +55477,10 @@
       <c r="BI208" s="207"/>
     </row>
     <row r="209" spans="1:61" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="248" t="s">
+      <c r="A209" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B209" s="249"/>
+      <c r="B209" s="258"/>
       <c r="C209" s="48" t="s">
         <v>306</v>
       </c>
@@ -55417,16 +55587,16 @@
         <v>1315</v>
       </c>
       <c r="BF209" s="181"/>
-      <c r="BG209" s="301" t="s">
+      <c r="BG209" s="217" t="s">
         <v>2869</v>
       </c>
-      <c r="BH209" s="304"/>
+      <c r="BH209" s="218"/>
     </row>
     <row r="210" spans="1:61" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="248" t="s">
+      <c r="A210" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B210" s="249"/>
+      <c r="B210" s="258"/>
       <c r="C210" s="48" t="s">
         <v>308</v>
       </c>
@@ -55533,16 +55703,16 @@
         <v>1315</v>
       </c>
       <c r="BF210" s="181"/>
-      <c r="BG210" s="301" t="s">
+      <c r="BG210" s="217" t="s">
         <v>2870</v>
       </c>
-      <c r="BH210" s="304"/>
+      <c r="BH210" s="218"/>
     </row>
     <row r="211" spans="1:61" s="100" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="250" t="s">
+      <c r="A211" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B211" s="251"/>
+      <c r="B211" s="260"/>
       <c r="C211" s="112" t="s">
         <v>587</v>
       </c>
@@ -55648,10 +55818,10 @@
       <c r="BI211" s="207"/>
     </row>
     <row r="212" spans="1:61" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="248" t="s">
+      <c r="A212" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B212" s="249"/>
+      <c r="B212" s="258"/>
       <c r="C212" s="48" t="s">
         <v>310</v>
       </c>
@@ -55754,17 +55924,17 @@
         <v>1315</v>
       </c>
       <c r="BF212" s="181"/>
-      <c r="BG212" s="301" t="s">
+      <c r="BG212" s="217" t="s">
         <v>2871</v>
       </c>
-      <c r="BH212" s="303"/>
-      <c r="BI212" s="304"/>
+      <c r="BH212" s="223"/>
+      <c r="BI212" s="218"/>
     </row>
     <row r="213" spans="1:61" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="248" t="s">
+      <c r="A213" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B213" s="249"/>
+      <c r="B213" s="258"/>
       <c r="C213" s="48" t="s">
         <v>312</v>
       </c>
@@ -55867,17 +56037,17 @@
         <v>1315</v>
       </c>
       <c r="BF213" s="181"/>
-      <c r="BG213" s="301" t="s">
+      <c r="BG213" s="217" t="s">
         <v>2872</v>
       </c>
-      <c r="BH213" s="303"/>
-      <c r="BI213" s="304"/>
-    </row>
-    <row r="214" spans="1:61" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A214" s="248" t="s">
+      <c r="BH213" s="223"/>
+      <c r="BI213" s="218"/>
+    </row>
+    <row r="214" spans="1:61" ht="85.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B214" s="249"/>
+      <c r="B214" s="258"/>
       <c r="C214" s="48" t="s">
         <v>314</v>
       </c>
@@ -55984,16 +56154,16 @@
         <v>1315</v>
       </c>
       <c r="BF214" s="181"/>
-      <c r="BG214" s="301" t="s">
+      <c r="BG214" s="217" t="s">
         <v>2878</v>
       </c>
-      <c r="BH214" s="304"/>
+      <c r="BH214" s="218"/>
     </row>
     <row r="215" spans="1:61" s="116" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A215" s="252" t="s">
+      <c r="A215" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="B215" s="253"/>
+      <c r="B215" s="272"/>
       <c r="C215" s="51" t="s">
         <v>315</v>
       </c>
@@ -56100,17 +56270,17 @@
         <v>1315</v>
       </c>
       <c r="BF215" s="181"/>
-      <c r="BG215" s="301" t="s">
+      <c r="BG215" s="217" t="s">
         <v>2879</v>
       </c>
-      <c r="BH215" s="304"/>
+      <c r="BH215" s="218"/>
       <c r="BI215" s="207"/>
     </row>
     <row r="216" spans="1:61" s="100" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="250" t="s">
+      <c r="A216" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="B216" s="251"/>
+      <c r="B216" s="260"/>
       <c r="C216" s="112" t="s">
         <v>593</v>
       </c>
@@ -56204,10 +56374,10 @@
       <c r="BI216" s="207"/>
     </row>
     <row r="217" spans="1:61" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="248" t="s">
+      <c r="A217" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B217" s="249"/>
+      <c r="B217" s="258"/>
       <c r="C217" s="48" t="s">
         <v>316</v>
       </c>
@@ -56310,17 +56480,17 @@
         <v>1315</v>
       </c>
       <c r="BF217" s="181"/>
-      <c r="BG217" s="301" t="s">
+      <c r="BG217" s="217" t="s">
         <v>2880</v>
       </c>
-      <c r="BH217" s="303"/>
-      <c r="BI217" s="304"/>
+      <c r="BH217" s="223"/>
+      <c r="BI217" s="218"/>
     </row>
     <row r="218" spans="1:61" ht="321" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="248" t="s">
+      <c r="A218" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B218" s="249"/>
+      <c r="B218" s="258"/>
       <c r="C218" s="49" t="s">
         <v>318</v>
       </c>
@@ -56423,17 +56593,17 @@
         <v>1315</v>
       </c>
       <c r="BF218" s="181"/>
-      <c r="BG218" s="301" t="s">
+      <c r="BG218" s="217" t="s">
         <v>2881</v>
       </c>
-      <c r="BH218" s="306"/>
-      <c r="BI218" s="302"/>
+      <c r="BH218" s="224"/>
+      <c r="BI218" s="219"/>
     </row>
     <row r="219" spans="1:61" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A219" s="248" t="s">
+      <c r="A219" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B219" s="249"/>
+      <c r="B219" s="258"/>
       <c r="C219" s="48" t="s">
         <v>320</v>
       </c>
@@ -56524,15 +56694,15 @@
         <v>1315</v>
       </c>
       <c r="BF219" s="140"/>
-      <c r="BG219" s="305" t="s">
+      <c r="BG219" s="216" t="s">
         <v>2882</v>
       </c>
     </row>
     <row r="220" spans="1:61" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A220" s="248" t="s">
+      <c r="A220" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B220" s="249"/>
+      <c r="B220" s="258"/>
       <c r="C220" s="48" t="s">
         <v>322</v>
       </c>
@@ -56623,15 +56793,15 @@
         <v>1315</v>
       </c>
       <c r="BF220" s="140"/>
-      <c r="BG220" s="305" t="s">
+      <c r="BG220" s="216" t="s">
         <v>2883</v>
       </c>
     </row>
     <row r="221" spans="1:61" s="100" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="250" t="s">
+      <c r="A221" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B221" s="251"/>
+      <c r="B221" s="260"/>
       <c r="C221" s="50" t="s">
         <v>324</v>
       </c>
@@ -56753,10 +56923,10 @@
       <c r="BI221" s="207"/>
     </row>
     <row r="222" spans="1:61" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="248" t="s">
+      <c r="A222" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B222" s="249"/>
+      <c r="B222" s="258"/>
       <c r="C222" s="49" t="s">
         <v>326</v>
       </c>
@@ -56873,17 +57043,17 @@
         <v>1315</v>
       </c>
       <c r="BF222" s="140"/>
-      <c r="BG222" s="301" t="s">
+      <c r="BG222" s="217" t="s">
         <v>2884</v>
       </c>
-      <c r="BH222" s="303"/>
-      <c r="BI222" s="304"/>
+      <c r="BH222" s="223"/>
+      <c r="BI222" s="218"/>
     </row>
     <row r="223" spans="1:61" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="248" t="s">
+      <c r="A223" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B223" s="249"/>
+      <c r="B223" s="258"/>
       <c r="C223" s="48" t="s">
         <v>328</v>
       </c>
@@ -56996,16 +57166,16 @@
         <v>1315</v>
       </c>
       <c r="BF223" s="140"/>
-      <c r="BG223" s="301" t="s">
+      <c r="BG223" s="217" t="s">
         <v>2885</v>
       </c>
-      <c r="BH223" s="304"/>
+      <c r="BH223" s="218"/>
     </row>
     <row r="224" spans="1:61" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="248" t="s">
+      <c r="A224" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B224" s="249"/>
+      <c r="B224" s="258"/>
       <c r="C224" s="48" t="s">
         <v>329</v>
       </c>
@@ -57116,17 +57286,17 @@
         <v>1315</v>
       </c>
       <c r="BF224" s="140"/>
-      <c r="BG224" s="301" t="s">
+      <c r="BG224" s="217" t="s">
         <v>2886</v>
       </c>
-      <c r="BH224" s="303"/>
-      <c r="BI224" s="304"/>
+      <c r="BH224" s="223"/>
+      <c r="BI224" s="218"/>
     </row>
     <row r="225" spans="1:61" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="248" t="s">
+      <c r="A225" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B225" s="249"/>
+      <c r="B225" s="258"/>
       <c r="C225" s="48" t="s">
         <v>331</v>
       </c>
@@ -57219,16 +57389,16 @@
         <v>1315</v>
       </c>
       <c r="BF225" s="140"/>
-      <c r="BG225" s="301" t="s">
+      <c r="BG225" s="217" t="s">
         <v>2887</v>
       </c>
-      <c r="BH225" s="302"/>
+      <c r="BH225" s="219"/>
     </row>
     <row r="226" spans="1:61" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="248" t="s">
+      <c r="A226" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B226" s="249"/>
+      <c r="B226" s="258"/>
       <c r="C226" s="48" t="s">
         <v>332</v>
       </c>
@@ -57321,16 +57491,16 @@
         <v>1315</v>
       </c>
       <c r="BF226" s="89"/>
-      <c r="BG226" s="301" t="s">
+      <c r="BG226" s="217" t="s">
         <v>2887</v>
       </c>
-      <c r="BH226" s="302"/>
+      <c r="BH226" s="219"/>
     </row>
     <row r="227" spans="1:61" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="248" t="s">
+      <c r="A227" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B227" s="249"/>
+      <c r="B227" s="258"/>
       <c r="C227" s="48" t="s">
         <v>334</v>
       </c>
@@ -57423,16 +57593,16 @@
         <v>1315</v>
       </c>
       <c r="BF227" s="89"/>
-      <c r="BG227" s="301" t="s">
+      <c r="BG227" s="217" t="s">
         <v>2888</v>
       </c>
-      <c r="BH227" s="302"/>
+      <c r="BH227" s="219"/>
     </row>
     <row r="228" spans="1:61" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="248" t="s">
+      <c r="A228" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B228" s="249"/>
+      <c r="B228" s="258"/>
       <c r="C228" s="48" t="s">
         <v>335</v>
       </c>
@@ -57535,17 +57705,17 @@
         <v>1315</v>
       </c>
       <c r="BF228" s="89"/>
-      <c r="BG228" s="301" t="s">
+      <c r="BG228" s="217" t="s">
         <v>2897</v>
       </c>
-      <c r="BH228" s="303"/>
-      <c r="BI228" s="304"/>
+      <c r="BH228" s="223"/>
+      <c r="BI228" s="218"/>
     </row>
     <row r="229" spans="1:61" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="248" t="s">
+      <c r="A229" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B229" s="249"/>
+      <c r="B229" s="258"/>
       <c r="C229" s="48" t="s">
         <v>337</v>
       </c>
@@ -57637,10 +57807,10 @@
       </c>
     </row>
     <row r="230" spans="1:61" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="250" t="s">
+      <c r="A230" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="B230" s="251"/>
+      <c r="B230" s="260"/>
       <c r="C230" s="112" t="s">
         <v>609</v>
       </c>
@@ -57744,10 +57914,10 @@
       <c r="BI230" s="207"/>
     </row>
     <row r="231" spans="1:61" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="248" t="s">
+      <c r="A231" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B231" s="249"/>
+      <c r="B231" s="258"/>
       <c r="C231" s="48" t="s">
         <v>339</v>
       </c>
@@ -57860,16 +58030,16 @@
         <v>1315</v>
       </c>
       <c r="BF231" s="140"/>
-      <c r="BG231" s="301" t="s">
+      <c r="BG231" s="217" t="s">
         <v>2899</v>
       </c>
-      <c r="BH231" s="304"/>
+      <c r="BH231" s="218"/>
     </row>
     <row r="232" spans="1:61" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="248" t="s">
+      <c r="A232" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="249"/>
+      <c r="B232" s="258"/>
       <c r="C232" s="48" t="s">
         <v>340</v>
       </c>
@@ -57982,16 +58152,16 @@
         <v>1315</v>
       </c>
       <c r="BF232" s="89"/>
-      <c r="BG232" s="301" t="s">
+      <c r="BG232" s="217" t="s">
         <v>2900</v>
       </c>
-      <c r="BH232" s="302"/>
+      <c r="BH232" s="219"/>
     </row>
     <row r="233" spans="1:61" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="248" t="s">
+      <c r="A233" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B233" s="249"/>
+      <c r="B233" s="258"/>
       <c r="C233" s="48" t="s">
         <v>341</v>
       </c>
@@ -58104,16 +58274,16 @@
         <v>1315</v>
       </c>
       <c r="BF233" s="89"/>
-      <c r="BG233" s="301" t="s">
+      <c r="BG233" s="217" t="s">
         <v>2901</v>
       </c>
-      <c r="BH233" s="304"/>
+      <c r="BH233" s="218"/>
     </row>
     <row r="234" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A234" s="248" t="s">
+      <c r="A234" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B234" s="249"/>
+      <c r="B234" s="258"/>
       <c r="C234" s="48" t="s">
         <v>343</v>
       </c>
@@ -58226,16 +58396,16 @@
         <v>1315</v>
       </c>
       <c r="BF234" s="89"/>
-      <c r="BG234" s="301" t="s">
+      <c r="BG234" s="217" t="s">
         <v>2902</v>
       </c>
-      <c r="BH234" s="302"/>
+      <c r="BH234" s="219"/>
     </row>
     <row r="235" spans="1:61" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="248" t="s">
+      <c r="A235" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B235" s="249"/>
+      <c r="B235" s="258"/>
       <c r="C235" s="48" t="s">
         <v>344</v>
       </c>
@@ -58348,16 +58518,16 @@
         <v>1315</v>
       </c>
       <c r="BF235" s="89"/>
-      <c r="BG235" s="301" t="s">
+      <c r="BG235" s="217" t="s">
         <v>2903</v>
       </c>
-      <c r="BH235" s="302"/>
+      <c r="BH235" s="219"/>
     </row>
     <row r="236" spans="1:61" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="248" t="s">
+      <c r="A236" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="249"/>
+      <c r="B236" s="258"/>
       <c r="C236" s="48" t="s">
         <v>345</v>
       </c>
@@ -58470,16 +58640,16 @@
         <v>1315</v>
       </c>
       <c r="BF236" s="140"/>
-      <c r="BG236" s="301" t="s">
+      <c r="BG236" s="217" t="s">
         <v>2904</v>
       </c>
-      <c r="BH236" s="302"/>
+      <c r="BH236" s="219"/>
     </row>
     <row r="237" spans="1:61" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="250" t="s">
+      <c r="A237" s="259" t="s">
         <v>14</v>
       </c>
-      <c r="B237" s="251"/>
+      <c r="B237" s="260"/>
       <c r="C237" s="50" t="s">
         <v>346</v>
       </c>
@@ -58587,10 +58757,10 @@
       <c r="BI237" s="207"/>
     </row>
     <row r="238" spans="1:61" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="248" t="s">
+      <c r="A238" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B238" s="249"/>
+      <c r="B238" s="258"/>
       <c r="C238" s="48" t="s">
         <v>348</v>
       </c>
@@ -58703,16 +58873,16 @@
         <v>1315</v>
       </c>
       <c r="BF238" s="195"/>
-      <c r="BG238" s="301" t="s">
+      <c r="BG238" s="217" t="s">
         <v>2905</v>
       </c>
-      <c r="BH238" s="304"/>
+      <c r="BH238" s="218"/>
     </row>
     <row r="239" spans="1:61" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="248" t="s">
+      <c r="A239" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B239" s="249"/>
+      <c r="B239" s="258"/>
       <c r="C239" s="49" t="s">
         <v>350</v>
       </c>
@@ -58829,17 +58999,17 @@
         <v>1315</v>
       </c>
       <c r="BF239" s="195"/>
-      <c r="BG239" s="307" t="s">
+      <c r="BG239" s="220" t="s">
         <v>2906</v>
       </c>
-      <c r="BH239" s="308"/>
-      <c r="BI239" s="309"/>
-    </row>
-    <row r="240" spans="1:61" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="248" t="s">
+      <c r="BH239" s="221"/>
+      <c r="BI239" s="222"/>
+    </row>
+    <row r="240" spans="1:61" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B240" s="249"/>
+      <c r="B240" s="258"/>
       <c r="C240" s="48" t="s">
         <v>352</v>
       </c>
@@ -58956,12 +59126,17 @@
         <v>1315</v>
       </c>
       <c r="BF240" s="195"/>
-    </row>
-    <row r="241" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="248" t="s">
+      <c r="BG240" s="220" t="s">
+        <v>2907</v>
+      </c>
+      <c r="BH240" s="221"/>
+      <c r="BI240" s="222"/>
+    </row>
+    <row r="241" spans="1:61" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B241" s="249"/>
+      <c r="B241" s="258"/>
       <c r="C241" s="49" t="s">
         <v>354</v>
       </c>
@@ -59078,12 +59253,17 @@
         <v>1315</v>
       </c>
       <c r="BF241" s="195"/>
+      <c r="BG241" s="217" t="s">
+        <v>2908</v>
+      </c>
+      <c r="BH241" s="312"/>
+      <c r="BI241" s="226"/>
     </row>
     <row r="242" spans="1:61" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="248" t="s">
+      <c r="A242" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B242" s="249"/>
+      <c r="B242" s="258"/>
       <c r="C242" s="48" t="s">
         <v>356</v>
       </c>
@@ -59192,12 +59372,17 @@
         <v>1315</v>
       </c>
       <c r="BF242" s="195"/>
-    </row>
-    <row r="243" spans="1:61" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="248" t="s">
+      <c r="BG242" s="217" t="s">
+        <v>2909</v>
+      </c>
+      <c r="BH242" s="224"/>
+      <c r="BI242" s="219"/>
+    </row>
+    <row r="243" spans="1:61" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B243" s="249"/>
+      <c r="B243" s="258"/>
       <c r="C243" s="48" t="s">
         <v>357</v>
       </c>
@@ -59296,12 +59481,16 @@
         <v>1315</v>
       </c>
       <c r="BF243" s="195"/>
-    </row>
-    <row r="244" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="248" t="s">
+      <c r="BG243" s="217" t="s">
+        <v>2910</v>
+      </c>
+      <c r="BH243" s="311"/>
+    </row>
+    <row r="244" spans="1:61" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="257" t="s">
         <v>64</v>
       </c>
-      <c r="B244" s="249"/>
+      <c r="B244" s="258"/>
       <c r="C244" s="48" t="s">
         <v>358</v>
       </c>
@@ -59410,12 +59599,17 @@
         <v>1315</v>
       </c>
       <c r="BF244" s="195"/>
+      <c r="BG244" s="217" t="s">
+        <v>2911</v>
+      </c>
+      <c r="BH244" s="224"/>
+      <c r="BI244" s="219"/>
     </row>
     <row r="245" spans="1:61" s="100" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="250" t="s">
+      <c r="A245" s="259" t="s">
         <v>64</v>
       </c>
-      <c r="B245" s="251"/>
+      <c r="B245" s="260"/>
       <c r="C245" s="50" t="s">
         <v>360</v>
       </c>
@@ -59522,11 +59716,11 @@
       <c r="BH245" s="207"/>
       <c r="BI245" s="207"/>
     </row>
-    <row r="246" spans="1:61" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="248" t="s">
+    <row r="246" spans="1:61" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B246" s="249"/>
+      <c r="B246" s="258"/>
       <c r="C246" s="49" t="s">
         <v>362</v>
       </c>
@@ -59643,12 +59837,17 @@
         <v>1315</v>
       </c>
       <c r="BF246" s="195"/>
-    </row>
-    <row r="247" spans="1:61" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="248" t="s">
+      <c r="BG246" s="217" t="s">
+        <v>2912</v>
+      </c>
+      <c r="BH246" s="224"/>
+      <c r="BI246" s="219"/>
+    </row>
+    <row r="247" spans="1:61" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="257" t="s">
         <v>238</v>
       </c>
-      <c r="B247" s="249"/>
+      <c r="B247" s="258"/>
       <c r="C247" s="49" t="s">
         <v>364</v>
       </c>
@@ -59765,168 +59964,176 @@
         <v>1315</v>
       </c>
       <c r="BF247" s="195"/>
+      <c r="BG247" s="217" t="s">
+        <v>2913</v>
+      </c>
+      <c r="BH247" s="224"/>
+      <c r="BI247" s="219"/>
     </row>
     <row r="248" spans="1:61" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A248" s="248" t="s">
+      <c r="A248" s="277" t="s">
         <v>9</v>
       </c>
-      <c r="B248" s="249"/>
-      <c r="C248" s="49" t="s">
+      <c r="B248" s="278"/>
+      <c r="C248" s="162" t="s">
         <v>366</v>
       </c>
-      <c r="D248" s="49" t="s">
+      <c r="D248" s="162" t="s">
         <v>367</v>
       </c>
       <c r="E248" s="110" t="s">
         <v>613</v>
       </c>
-      <c r="F248" s="49" t="s">
+      <c r="F248" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="G248" s="53"/>
-      <c r="H248" s="53"/>
-      <c r="I248" s="53"/>
-      <c r="J248" s="53"/>
-      <c r="K248" s="53"/>
-      <c r="L248" s="53"/>
-      <c r="M248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="N248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="O248" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="P248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="S248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="T248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="U248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="V248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="W248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="X248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AB248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD248" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG248" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="AH248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI248" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK248" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="AL248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AM248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AN248" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="AO248" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="AP248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AQ248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR248" s="49" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS248" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="AT248" s="104" t="s">
-        <v>33</v>
-      </c>
-      <c r="AU248" s="105"/>
-      <c r="AV248" s="41" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AW248" s="41" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AX248" s="41"/>
-      <c r="AY248" s="77" t="s">
-        <v>1315</v>
-      </c>
-      <c r="AZ248" s="77" t="s">
-        <v>1315</v>
-      </c>
-      <c r="BA248" s="77" t="s">
-        <v>1315</v>
-      </c>
-      <c r="BB248" s="77" t="s">
-        <v>1315</v>
-      </c>
-      <c r="BC248" s="77" t="s">
-        <v>1315</v>
-      </c>
-      <c r="BD248" s="77" t="s">
-        <v>1315</v>
-      </c>
-      <c r="BE248" s="77" t="s">
-        <v>1315</v>
-      </c>
-      <c r="BF248" s="195"/>
+      <c r="G248" s="164"/>
+      <c r="H248" s="164"/>
+      <c r="I248" s="164"/>
+      <c r="J248" s="164"/>
+      <c r="K248" s="164"/>
+      <c r="L248" s="164"/>
+      <c r="M248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="N248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="O248" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="P248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="R248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="S248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="T248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="U248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="V248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="W248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="X248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD248" s="199" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AG248" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI248" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK248" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN248" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AO248" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AP248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR248" s="162" t="s">
+        <v>33</v>
+      </c>
+      <c r="AS248" s="166" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT248" s="167" t="s">
+        <v>33</v>
+      </c>
+      <c r="AU248" s="168"/>
+      <c r="AV248" s="169" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AW248" s="169" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AX248" s="169"/>
+      <c r="AY248" s="170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="AZ248" s="170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BA248" s="170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BB248" s="170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BC248" s="170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BD248" s="170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BE248" s="170" t="s">
+        <v>1315</v>
+      </c>
+      <c r="BF248" s="313"/>
+      <c r="BG248" s="314"/>
+      <c r="BH248" s="314"/>
+      <c r="BI248" s="314"/>
     </row>
     <row r="249" spans="1:61" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A249" s="248" t="s">
+      <c r="A249" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B249" s="249"/>
+      <c r="B249" s="258"/>
       <c r="C249" s="49" t="s">
         <v>368</v>
       </c>
@@ -60079,10 +60286,10 @@
       <c r="BF249" s="195"/>
     </row>
     <row r="250" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A250" s="248" t="s">
+      <c r="A250" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B250" s="249"/>
+      <c r="B250" s="258"/>
       <c r="C250" s="48" t="s">
         <v>369</v>
       </c>
@@ -60235,10 +60442,10 @@
       </c>
     </row>
     <row r="251" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A251" s="248" t="s">
+      <c r="A251" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B251" s="249"/>
+      <c r="B251" s="258"/>
       <c r="C251" s="48" t="s">
         <v>370</v>
       </c>
@@ -60391,10 +60598,10 @@
       </c>
     </row>
     <row r="252" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A252" s="248" t="s">
+      <c r="A252" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B252" s="249"/>
+      <c r="B252" s="258"/>
       <c r="C252" s="48" t="s">
         <v>372</v>
       </c>
@@ -60547,10 +60754,10 @@
       </c>
     </row>
     <row r="253" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A253" s="248" t="s">
+      <c r="A253" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B253" s="249"/>
+      <c r="B253" s="258"/>
       <c r="C253" s="48" t="s">
         <v>374</v>
       </c>
@@ -60703,10 +60910,10 @@
       </c>
     </row>
     <row r="254" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A254" s="248" t="s">
+      <c r="A254" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B254" s="249"/>
+      <c r="B254" s="258"/>
       <c r="C254" s="48" t="s">
         <v>376</v>
       </c>
@@ -60859,10 +61066,10 @@
       </c>
     </row>
     <row r="255" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A255" s="248" t="s">
+      <c r="A255" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B255" s="249"/>
+      <c r="B255" s="258"/>
       <c r="C255" s="48" t="s">
         <v>377</v>
       </c>
@@ -60959,12 +61166,15 @@
         <v>1315</v>
       </c>
       <c r="BF255" s="195"/>
+      <c r="BG255" s="215" t="s">
+        <v>2914</v>
+      </c>
     </row>
     <row r="256" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A256" s="248" t="s">
+      <c r="A256" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B256" s="249"/>
+      <c r="B256" s="258"/>
       <c r="C256" s="48" t="s">
         <v>379</v>
       </c>
@@ -61061,12 +61271,15 @@
         <v>1315</v>
       </c>
       <c r="BF256" s="195"/>
+      <c r="BG256" s="215" t="s">
+        <v>2914</v>
+      </c>
     </row>
     <row r="257" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="248" t="s">
+      <c r="A257" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B257" s="249"/>
+      <c r="B257" s="258"/>
       <c r="C257" s="48" t="s">
         <v>381</v>
       </c>
@@ -61163,12 +61376,15 @@
         <v>1315</v>
       </c>
       <c r="BF257" s="195"/>
+      <c r="BG257" s="215" t="s">
+        <v>2914</v>
+      </c>
     </row>
     <row r="258" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A258" s="248" t="s">
+      <c r="A258" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B258" s="249"/>
+      <c r="B258" s="258"/>
       <c r="C258" s="48" t="s">
         <v>383</v>
       </c>
@@ -61321,10 +61537,10 @@
       </c>
     </row>
     <row r="259" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A259" s="248" t="s">
+      <c r="A259" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B259" s="249"/>
+      <c r="B259" s="258"/>
       <c r="C259" s="48" t="s">
         <v>384</v>
       </c>
@@ -61477,10 +61693,10 @@
       </c>
     </row>
     <row r="260" spans="1:61" s="148" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A260" s="256" t="s">
+      <c r="A260" s="279" t="s">
         <v>9</v>
       </c>
-      <c r="B260" s="257"/>
+      <c r="B260" s="280"/>
       <c r="C260" s="142" t="s">
         <v>385</v>
       </c>
@@ -61593,11 +61809,11 @@
       <c r="BH260" s="211"/>
       <c r="BI260" s="211"/>
     </row>
-    <row r="261" spans="1:61" s="153" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="254" t="s">
+    <row r="261" spans="1:61" s="153" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="281" t="s">
         <v>14</v>
       </c>
-      <c r="B261" s="255"/>
+      <c r="B261" s="282"/>
       <c r="C261" s="149" t="s">
         <v>386</v>
       </c>
@@ -61706,15 +61922,17 @@
         <v>1315</v>
       </c>
       <c r="BF261" s="181"/>
-      <c r="BG261" s="207"/>
+      <c r="BG261" s="315" t="s">
+        <v>2915</v>
+      </c>
       <c r="BH261" s="207"/>
       <c r="BI261" s="207"/>
     </row>
     <row r="262" spans="1:61" s="148" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A262" s="256" t="s">
+      <c r="A262" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="B262" s="257"/>
+      <c r="B262" s="280"/>
       <c r="C262" s="142" t="s">
         <v>387</v>
       </c>
@@ -61828,10 +62046,10 @@
       <c r="BI262" s="211"/>
     </row>
     <row r="263" spans="1:61" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A263" s="252" t="s">
+      <c r="A263" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="B263" s="253"/>
+      <c r="B263" s="272"/>
       <c r="C263" s="51" t="s">
         <v>388</v>
       </c>
@@ -61940,15 +62158,17 @@
         <v>1315</v>
       </c>
       <c r="BF263" s="181"/>
-      <c r="BG263" s="207"/>
+      <c r="BG263" s="315" t="s">
+        <v>2915</v>
+      </c>
       <c r="BH263" s="207"/>
       <c r="BI263" s="207"/>
     </row>
     <row r="264" spans="1:61" s="116" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="252" t="s">
+      <c r="A264" s="271" t="s">
         <v>64</v>
       </c>
-      <c r="B264" s="253"/>
+      <c r="B264" s="272"/>
       <c r="C264" s="51" t="s">
         <v>389</v>
       </c>
@@ -62057,15 +62277,17 @@
         <v>1315</v>
       </c>
       <c r="BF264" s="181"/>
-      <c r="BG264" s="207"/>
+      <c r="BG264" s="315" t="s">
+        <v>2915</v>
+      </c>
       <c r="BH264" s="207"/>
       <c r="BI264" s="207"/>
     </row>
     <row r="265" spans="1:61" s="100" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="250" t="s">
+      <c r="A265" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B265" s="251"/>
+      <c r="B265" s="260"/>
       <c r="C265" s="112" t="s">
         <v>633</v>
       </c>
@@ -62207,10 +62429,10 @@
       <c r="BI265" s="207"/>
     </row>
     <row r="266" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A266" s="248" t="s">
+      <c r="A266" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="249"/>
+      <c r="B266" s="258"/>
       <c r="C266" s="49" t="s">
         <v>390</v>
       </c>
@@ -62329,10 +62551,10 @@
       </c>
     </row>
     <row r="267" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A267" s="248" t="s">
+      <c r="A267" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B267" s="249"/>
+      <c r="B267" s="258"/>
       <c r="C267" s="49" t="s">
         <v>392</v>
       </c>
@@ -62445,10 +62667,10 @@
       </c>
     </row>
     <row r="268" spans="1:61" s="116" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="252" t="s">
+      <c r="A268" s="271" t="s">
         <v>14</v>
       </c>
-      <c r="B268" s="253"/>
+      <c r="B268" s="272"/>
       <c r="C268" s="52" t="s">
         <v>393</v>
       </c>
@@ -62586,10 +62808,10 @@
       <c r="BI268" s="207"/>
     </row>
     <row r="269" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A269" s="248" t="s">
+      <c r="A269" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B269" s="249"/>
+      <c r="B269" s="258"/>
       <c r="C269" s="49" t="s">
         <v>394</v>
       </c>
@@ -62636,7 +62858,7 @@
       <c r="AJ269" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="AK269" s="53"/>
+      <c r="AK269" s="316"/>
       <c r="AL269" s="53"/>
       <c r="AM269" s="48" t="s">
         <v>33</v>
@@ -62682,12 +62904,16 @@
         <v>1315</v>
       </c>
       <c r="BF269" s="181"/>
+      <c r="BG269" s="217" t="s">
+        <v>2916</v>
+      </c>
+      <c r="BH269" s="219"/>
     </row>
     <row r="270" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A270" s="248" t="s">
+      <c r="A270" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B270" s="249"/>
+      <c r="B270" s="258"/>
       <c r="C270" s="49" t="s">
         <v>395</v>
       </c>
@@ -62848,10 +63074,10 @@
       </c>
     </row>
     <row r="271" spans="1:61" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="250" t="s">
+      <c r="A271" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B271" s="251"/>
+      <c r="B271" s="260"/>
       <c r="C271" s="50" t="s">
         <v>396</v>
       </c>
@@ -62949,10 +63175,10 @@
       <c r="BI271" s="207"/>
     </row>
     <row r="272" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A272" s="248" t="s">
+      <c r="A272" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B272" s="249"/>
+      <c r="B272" s="258"/>
       <c r="C272" s="49" t="s">
         <v>397</v>
       </c>
@@ -63059,12 +63285,16 @@
         <v>1315</v>
       </c>
       <c r="BF272" s="195"/>
-    </row>
-    <row r="273" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="248" t="s">
+      <c r="BG272" s="217" t="s">
+        <v>2917</v>
+      </c>
+      <c r="BH272" s="219"/>
+    </row>
+    <row r="273" spans="1:61" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B273" s="249"/>
+      <c r="B273" s="258"/>
       <c r="C273" s="49" t="s">
         <v>398</v>
       </c>
@@ -63171,12 +63401,16 @@
         <v>1315</v>
       </c>
       <c r="BF273" s="195"/>
-    </row>
-    <row r="274" spans="1:61" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="248" t="s">
+      <c r="BG273" s="217" t="s">
+        <v>2918</v>
+      </c>
+      <c r="BH273" s="219"/>
+    </row>
+    <row r="274" spans="1:61" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B274" s="249"/>
+      <c r="B274" s="258"/>
       <c r="C274" s="49" t="s">
         <v>399</v>
       </c>
@@ -63283,12 +63517,16 @@
         <v>1315</v>
       </c>
       <c r="BF274" s="195"/>
-    </row>
-    <row r="275" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="248" t="s">
+      <c r="BG274" s="217" t="s">
+        <v>2919</v>
+      </c>
+      <c r="BH274" s="219"/>
+    </row>
+    <row r="275" spans="1:61" ht="162" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B275" s="249"/>
+      <c r="B275" s="258"/>
       <c r="C275" s="49" t="s">
         <v>400</v>
       </c>
@@ -63395,12 +63633,16 @@
         <v>1315</v>
       </c>
       <c r="BF275" s="195"/>
+      <c r="BG275" s="217" t="s">
+        <v>2920</v>
+      </c>
+      <c r="BH275" s="219"/>
     </row>
     <row r="276" spans="1:61" s="100" customFormat="1" ht="102" x14ac:dyDescent="0.2">
-      <c r="A276" s="250" t="s">
+      <c r="A276" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B276" s="251"/>
+      <c r="B276" s="260"/>
       <c r="C276" s="50" t="s">
         <v>401</v>
       </c>
@@ -63482,10 +63724,10 @@
       <c r="BI276" s="207"/>
     </row>
     <row r="277" spans="1:61" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="248" t="s">
+      <c r="A277" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B277" s="249"/>
+      <c r="B277" s="258"/>
       <c r="C277" s="49" t="s">
         <v>402</v>
       </c>
@@ -63578,10 +63820,10 @@
       <c r="BF277" s="195"/>
     </row>
     <row r="278" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="248" t="s">
+      <c r="A278" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B278" s="249"/>
+      <c r="B278" s="258"/>
       <c r="C278" s="49" t="s">
         <v>403</v>
       </c>
@@ -63674,10 +63916,10 @@
       <c r="BF278" s="195"/>
     </row>
     <row r="279" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="248" t="s">
+      <c r="A279" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B279" s="249"/>
+      <c r="B279" s="258"/>
       <c r="C279" s="49" t="s">
         <v>404</v>
       </c>
@@ -63770,10 +64012,10 @@
       <c r="BF279" s="195"/>
     </row>
     <row r="280" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="248" t="s">
+      <c r="A280" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B280" s="249"/>
+      <c r="B280" s="258"/>
       <c r="C280" s="49" t="s">
         <v>405</v>
       </c>
@@ -63866,10 +64108,10 @@
       <c r="BF280" s="195"/>
     </row>
     <row r="281" spans="1:61" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="250" t="s">
+      <c r="A281" s="259" t="s">
         <v>9</v>
       </c>
-      <c r="B281" s="251"/>
+      <c r="B281" s="260"/>
       <c r="C281" s="50" t="s">
         <v>406</v>
       </c>
@@ -63945,10 +64187,10 @@
       <c r="BI281" s="207"/>
     </row>
     <row r="282" spans="1:61" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="248" t="s">
+      <c r="A282" s="257" t="s">
         <v>14</v>
       </c>
-      <c r="B282" s="249"/>
+      <c r="B282" s="258"/>
       <c r="C282" s="49" t="s">
         <v>408</v>
       </c>
@@ -64035,10 +64277,10 @@
       <c r="BF282" s="195"/>
     </row>
     <row r="283" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="240" t="s">
+      <c r="A283" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="B283" s="241"/>
+      <c r="B283" s="284"/>
       <c r="C283" s="154" t="s">
         <v>410</v>
       </c>
@@ -64051,46 +64293,46 @@
       <c r="F283" s="155" t="s">
         <v>17</v>
       </c>
-      <c r="G283" s="242"/>
-      <c r="H283" s="242"/>
-      <c r="I283" s="242"/>
-      <c r="J283" s="242"/>
-      <c r="K283" s="242"/>
-      <c r="L283" s="242"/>
-      <c r="M283" s="242"/>
-      <c r="N283" s="242"/>
-      <c r="O283" s="242"/>
-      <c r="P283" s="245"/>
-      <c r="Q283" s="245"/>
-      <c r="R283" s="245"/>
-      <c r="S283" s="245"/>
-      <c r="T283" s="245"/>
-      <c r="U283" s="245"/>
-      <c r="V283" s="245"/>
-      <c r="W283" s="245"/>
-      <c r="X283" s="245"/>
-      <c r="Y283" s="245"/>
-      <c r="Z283" s="245"/>
-      <c r="AA283" s="245"/>
-      <c r="AB283" s="245"/>
-      <c r="AC283" s="245"/>
-      <c r="AD283" s="245"/>
-      <c r="AE283" s="242"/>
-      <c r="AF283" s="242"/>
-      <c r="AG283" s="242"/>
-      <c r="AH283" s="242"/>
-      <c r="AI283" s="242"/>
-      <c r="AJ283" s="242"/>
-      <c r="AK283" s="242"/>
-      <c r="AL283" s="242"/>
-      <c r="AM283" s="242"/>
-      <c r="AN283" s="242"/>
-      <c r="AO283" s="242"/>
-      <c r="AP283" s="242"/>
-      <c r="AQ283" s="242"/>
-      <c r="AR283" s="242"/>
-      <c r="AS283" s="242"/>
-      <c r="AT283" s="233"/>
+      <c r="G283" s="285"/>
+      <c r="H283" s="285"/>
+      <c r="I283" s="285"/>
+      <c r="J283" s="285"/>
+      <c r="K283" s="285"/>
+      <c r="L283" s="285"/>
+      <c r="M283" s="285"/>
+      <c r="N283" s="285"/>
+      <c r="O283" s="285"/>
+      <c r="P283" s="288"/>
+      <c r="Q283" s="288"/>
+      <c r="R283" s="288"/>
+      <c r="S283" s="288"/>
+      <c r="T283" s="288"/>
+      <c r="U283" s="288"/>
+      <c r="V283" s="288"/>
+      <c r="W283" s="288"/>
+      <c r="X283" s="288"/>
+      <c r="Y283" s="288"/>
+      <c r="Z283" s="288"/>
+      <c r="AA283" s="288"/>
+      <c r="AB283" s="288"/>
+      <c r="AC283" s="288"/>
+      <c r="AD283" s="288"/>
+      <c r="AE283" s="285"/>
+      <c r="AF283" s="285"/>
+      <c r="AG283" s="285"/>
+      <c r="AH283" s="285"/>
+      <c r="AI283" s="285"/>
+      <c r="AJ283" s="285"/>
+      <c r="AK283" s="285"/>
+      <c r="AL283" s="285"/>
+      <c r="AM283" s="285"/>
+      <c r="AN283" s="285"/>
+      <c r="AO283" s="285"/>
+      <c r="AP283" s="285"/>
+      <c r="AQ283" s="285"/>
+      <c r="AR283" s="285"/>
+      <c r="AS283" s="285"/>
+      <c r="AT283" s="291"/>
       <c r="AU283" s="64"/>
       <c r="AV283" s="41" t="s">
         <v>1315</v>
@@ -64125,8 +64367,8 @@
       <c r="BF283" s="195"/>
     </row>
     <row r="284" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="236"/>
-      <c r="B284" s="237"/>
+      <c r="A284" s="294"/>
+      <c r="B284" s="295"/>
       <c r="C284" s="78"/>
       <c r="D284" s="157" t="s">
         <v>11</v>
@@ -64135,46 +64377,46 @@
         <v>1120</v>
       </c>
       <c r="F284" s="78"/>
-      <c r="G284" s="243"/>
-      <c r="H284" s="243"/>
-      <c r="I284" s="243"/>
-      <c r="J284" s="243"/>
-      <c r="K284" s="243"/>
-      <c r="L284" s="243"/>
-      <c r="M284" s="243"/>
-      <c r="N284" s="243"/>
-      <c r="O284" s="243"/>
-      <c r="P284" s="246"/>
-      <c r="Q284" s="246"/>
-      <c r="R284" s="246"/>
-      <c r="S284" s="246"/>
-      <c r="T284" s="246"/>
-      <c r="U284" s="246"/>
-      <c r="V284" s="246"/>
-      <c r="W284" s="246"/>
-      <c r="X284" s="246"/>
-      <c r="Y284" s="246"/>
-      <c r="Z284" s="246"/>
-      <c r="AA284" s="246"/>
-      <c r="AB284" s="246"/>
-      <c r="AC284" s="246"/>
-      <c r="AD284" s="246"/>
-      <c r="AE284" s="243"/>
-      <c r="AF284" s="243"/>
-      <c r="AG284" s="243"/>
-      <c r="AH284" s="243"/>
-      <c r="AI284" s="243"/>
-      <c r="AJ284" s="243"/>
-      <c r="AK284" s="243"/>
-      <c r="AL284" s="243"/>
-      <c r="AM284" s="243"/>
-      <c r="AN284" s="243"/>
-      <c r="AO284" s="243"/>
-      <c r="AP284" s="243"/>
-      <c r="AQ284" s="243"/>
-      <c r="AR284" s="243"/>
-      <c r="AS284" s="243"/>
-      <c r="AT284" s="234"/>
+      <c r="G284" s="286"/>
+      <c r="H284" s="286"/>
+      <c r="I284" s="286"/>
+      <c r="J284" s="286"/>
+      <c r="K284" s="286"/>
+      <c r="L284" s="286"/>
+      <c r="M284" s="286"/>
+      <c r="N284" s="286"/>
+      <c r="O284" s="286"/>
+      <c r="P284" s="289"/>
+      <c r="Q284" s="289"/>
+      <c r="R284" s="289"/>
+      <c r="S284" s="289"/>
+      <c r="T284" s="289"/>
+      <c r="U284" s="289"/>
+      <c r="V284" s="289"/>
+      <c r="W284" s="289"/>
+      <c r="X284" s="289"/>
+      <c r="Y284" s="289"/>
+      <c r="Z284" s="289"/>
+      <c r="AA284" s="289"/>
+      <c r="AB284" s="289"/>
+      <c r="AC284" s="289"/>
+      <c r="AD284" s="289"/>
+      <c r="AE284" s="286"/>
+      <c r="AF284" s="286"/>
+      <c r="AG284" s="286"/>
+      <c r="AH284" s="286"/>
+      <c r="AI284" s="286"/>
+      <c r="AJ284" s="286"/>
+      <c r="AK284" s="286"/>
+      <c r="AL284" s="286"/>
+      <c r="AM284" s="286"/>
+      <c r="AN284" s="286"/>
+      <c r="AO284" s="286"/>
+      <c r="AP284" s="286"/>
+      <c r="AQ284" s="286"/>
+      <c r="AR284" s="286"/>
+      <c r="AS284" s="286"/>
+      <c r="AT284" s="292"/>
       <c r="AU284" s="64"/>
       <c r="AV284" s="41" t="s">
         <v>1315</v>
@@ -64209,8 +64451,8 @@
       <c r="BF284" s="195"/>
     </row>
     <row r="285" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="236"/>
-      <c r="B285" s="237"/>
+      <c r="A285" s="294"/>
+      <c r="B285" s="295"/>
       <c r="C285" s="78"/>
       <c r="D285" s="157" t="s">
         <v>411</v>
@@ -64219,46 +64461,46 @@
         <v>1121</v>
       </c>
       <c r="F285" s="78"/>
-      <c r="G285" s="243"/>
-      <c r="H285" s="243"/>
-      <c r="I285" s="243"/>
-      <c r="J285" s="243"/>
-      <c r="K285" s="243"/>
-      <c r="L285" s="243"/>
-      <c r="M285" s="243"/>
-      <c r="N285" s="243"/>
-      <c r="O285" s="243"/>
-      <c r="P285" s="246"/>
-      <c r="Q285" s="246"/>
-      <c r="R285" s="246"/>
-      <c r="S285" s="246"/>
-      <c r="T285" s="246"/>
-      <c r="U285" s="246"/>
-      <c r="V285" s="246"/>
-      <c r="W285" s="246"/>
-      <c r="X285" s="246"/>
-      <c r="Y285" s="246"/>
-      <c r="Z285" s="246"/>
-      <c r="AA285" s="246"/>
-      <c r="AB285" s="246"/>
-      <c r="AC285" s="246"/>
-      <c r="AD285" s="246"/>
-      <c r="AE285" s="243"/>
-      <c r="AF285" s="243"/>
-      <c r="AG285" s="243"/>
-      <c r="AH285" s="243"/>
-      <c r="AI285" s="243"/>
-      <c r="AJ285" s="243"/>
-      <c r="AK285" s="243"/>
-      <c r="AL285" s="243"/>
-      <c r="AM285" s="243"/>
-      <c r="AN285" s="243"/>
-      <c r="AO285" s="243"/>
-      <c r="AP285" s="243"/>
-      <c r="AQ285" s="243"/>
-      <c r="AR285" s="243"/>
-      <c r="AS285" s="243"/>
-      <c r="AT285" s="234"/>
+      <c r="G285" s="286"/>
+      <c r="H285" s="286"/>
+      <c r="I285" s="286"/>
+      <c r="J285" s="286"/>
+      <c r="K285" s="286"/>
+      <c r="L285" s="286"/>
+      <c r="M285" s="286"/>
+      <c r="N285" s="286"/>
+      <c r="O285" s="286"/>
+      <c r="P285" s="289"/>
+      <c r="Q285" s="289"/>
+      <c r="R285" s="289"/>
+      <c r="S285" s="289"/>
+      <c r="T285" s="289"/>
+      <c r="U285" s="289"/>
+      <c r="V285" s="289"/>
+      <c r="W285" s="289"/>
+      <c r="X285" s="289"/>
+      <c r="Y285" s="289"/>
+      <c r="Z285" s="289"/>
+      <c r="AA285" s="289"/>
+      <c r="AB285" s="289"/>
+      <c r="AC285" s="289"/>
+      <c r="AD285" s="289"/>
+      <c r="AE285" s="286"/>
+      <c r="AF285" s="286"/>
+      <c r="AG285" s="286"/>
+      <c r="AH285" s="286"/>
+      <c r="AI285" s="286"/>
+      <c r="AJ285" s="286"/>
+      <c r="AK285" s="286"/>
+      <c r="AL285" s="286"/>
+      <c r="AM285" s="286"/>
+      <c r="AN285" s="286"/>
+      <c r="AO285" s="286"/>
+      <c r="AP285" s="286"/>
+      <c r="AQ285" s="286"/>
+      <c r="AR285" s="286"/>
+      <c r="AS285" s="286"/>
+      <c r="AT285" s="292"/>
       <c r="AU285" s="64"/>
       <c r="AV285" s="41" t="s">
         <v>1315</v>
@@ -64293,8 +64535,8 @@
       <c r="BF285" s="195"/>
     </row>
     <row r="286" spans="1:61" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="236"/>
-      <c r="B286" s="237"/>
+      <c r="A286" s="294"/>
+      <c r="B286" s="295"/>
       <c r="C286" s="78"/>
       <c r="D286" s="157" t="s">
         <v>17</v>
@@ -64303,46 +64545,46 @@
         <v>1122</v>
       </c>
       <c r="F286" s="78"/>
-      <c r="G286" s="243"/>
-      <c r="H286" s="243"/>
-      <c r="I286" s="243"/>
-      <c r="J286" s="243"/>
-      <c r="K286" s="243"/>
-      <c r="L286" s="243"/>
-      <c r="M286" s="243"/>
-      <c r="N286" s="243"/>
-      <c r="O286" s="243"/>
-      <c r="P286" s="246"/>
-      <c r="Q286" s="246"/>
-      <c r="R286" s="246"/>
-      <c r="S286" s="246"/>
-      <c r="T286" s="246"/>
-      <c r="U286" s="246"/>
-      <c r="V286" s="246"/>
-      <c r="W286" s="246"/>
-      <c r="X286" s="246"/>
-      <c r="Y286" s="246"/>
-      <c r="Z286" s="246"/>
-      <c r="AA286" s="246"/>
-      <c r="AB286" s="246"/>
-      <c r="AC286" s="246"/>
-      <c r="AD286" s="246"/>
-      <c r="AE286" s="243"/>
-      <c r="AF286" s="243"/>
-      <c r="AG286" s="243"/>
-      <c r="AH286" s="243"/>
-      <c r="AI286" s="243"/>
-      <c r="AJ286" s="243"/>
-      <c r="AK286" s="243"/>
-      <c r="AL286" s="243"/>
-      <c r="AM286" s="243"/>
-      <c r="AN286" s="243"/>
-      <c r="AO286" s="243"/>
-      <c r="AP286" s="243"/>
-      <c r="AQ286" s="243"/>
-      <c r="AR286" s="243"/>
-      <c r="AS286" s="243"/>
-      <c r="AT286" s="234"/>
+      <c r="G286" s="286"/>
+      <c r="H286" s="286"/>
+      <c r="I286" s="286"/>
+      <c r="J286" s="286"/>
+      <c r="K286" s="286"/>
+      <c r="L286" s="286"/>
+      <c r="M286" s="286"/>
+      <c r="N286" s="286"/>
+      <c r="O286" s="286"/>
+      <c r="P286" s="289"/>
+      <c r="Q286" s="289"/>
+      <c r="R286" s="289"/>
+      <c r="S286" s="289"/>
+      <c r="T286" s="289"/>
+      <c r="U286" s="289"/>
+      <c r="V286" s="289"/>
+      <c r="W286" s="289"/>
+      <c r="X286" s="289"/>
+      <c r="Y286" s="289"/>
+      <c r="Z286" s="289"/>
+      <c r="AA286" s="289"/>
+      <c r="AB286" s="289"/>
+      <c r="AC286" s="289"/>
+      <c r="AD286" s="289"/>
+      <c r="AE286" s="286"/>
+      <c r="AF286" s="286"/>
+      <c r="AG286" s="286"/>
+      <c r="AH286" s="286"/>
+      <c r="AI286" s="286"/>
+      <c r="AJ286" s="286"/>
+      <c r="AK286" s="286"/>
+      <c r="AL286" s="286"/>
+      <c r="AM286" s="286"/>
+      <c r="AN286" s="286"/>
+      <c r="AO286" s="286"/>
+      <c r="AP286" s="286"/>
+      <c r="AQ286" s="286"/>
+      <c r="AR286" s="286"/>
+      <c r="AS286" s="286"/>
+      <c r="AT286" s="292"/>
       <c r="AU286" s="64"/>
       <c r="AV286" s="41" t="s">
         <v>1315</v>
@@ -64377,54 +64619,54 @@
       <c r="BF286" s="195"/>
     </row>
     <row r="287" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="236"/>
-      <c r="B287" s="237"/>
+      <c r="A287" s="294"/>
+      <c r="B287" s="295"/>
       <c r="C287" s="78"/>
       <c r="D287" s="78"/>
       <c r="E287" s="158" t="s">
         <v>1123</v>
       </c>
       <c r="F287" s="78"/>
-      <c r="G287" s="243"/>
-      <c r="H287" s="243"/>
-      <c r="I287" s="243"/>
-      <c r="J287" s="243"/>
-      <c r="K287" s="243"/>
-      <c r="L287" s="243"/>
-      <c r="M287" s="243"/>
-      <c r="N287" s="243"/>
-      <c r="O287" s="243"/>
-      <c r="P287" s="246"/>
-      <c r="Q287" s="246"/>
-      <c r="R287" s="246"/>
-      <c r="S287" s="246"/>
-      <c r="T287" s="246"/>
-      <c r="U287" s="246"/>
-      <c r="V287" s="246"/>
-      <c r="W287" s="246"/>
-      <c r="X287" s="246"/>
-      <c r="Y287" s="246"/>
-      <c r="Z287" s="246"/>
-      <c r="AA287" s="246"/>
-      <c r="AB287" s="246"/>
-      <c r="AC287" s="246"/>
-      <c r="AD287" s="246"/>
-      <c r="AE287" s="243"/>
-      <c r="AF287" s="243"/>
-      <c r="AG287" s="243"/>
-      <c r="AH287" s="243"/>
-      <c r="AI287" s="243"/>
-      <c r="AJ287" s="243"/>
-      <c r="AK287" s="243"/>
-      <c r="AL287" s="243"/>
-      <c r="AM287" s="243"/>
-      <c r="AN287" s="243"/>
-      <c r="AO287" s="243"/>
-      <c r="AP287" s="243"/>
-      <c r="AQ287" s="243"/>
-      <c r="AR287" s="243"/>
-      <c r="AS287" s="243"/>
-      <c r="AT287" s="234"/>
+      <c r="G287" s="286"/>
+      <c r="H287" s="286"/>
+      <c r="I287" s="286"/>
+      <c r="J287" s="286"/>
+      <c r="K287" s="286"/>
+      <c r="L287" s="286"/>
+      <c r="M287" s="286"/>
+      <c r="N287" s="286"/>
+      <c r="O287" s="286"/>
+      <c r="P287" s="289"/>
+      <c r="Q287" s="289"/>
+      <c r="R287" s="289"/>
+      <c r="S287" s="289"/>
+      <c r="T287" s="289"/>
+      <c r="U287" s="289"/>
+      <c r="V287" s="289"/>
+      <c r="W287" s="289"/>
+      <c r="X287" s="289"/>
+      <c r="Y287" s="289"/>
+      <c r="Z287" s="289"/>
+      <c r="AA287" s="289"/>
+      <c r="AB287" s="289"/>
+      <c r="AC287" s="289"/>
+      <c r="AD287" s="289"/>
+      <c r="AE287" s="286"/>
+      <c r="AF287" s="286"/>
+      <c r="AG287" s="286"/>
+      <c r="AH287" s="286"/>
+      <c r="AI287" s="286"/>
+      <c r="AJ287" s="286"/>
+      <c r="AK287" s="286"/>
+      <c r="AL287" s="286"/>
+      <c r="AM287" s="286"/>
+      <c r="AN287" s="286"/>
+      <c r="AO287" s="286"/>
+      <c r="AP287" s="286"/>
+      <c r="AQ287" s="286"/>
+      <c r="AR287" s="286"/>
+      <c r="AS287" s="286"/>
+      <c r="AT287" s="292"/>
       <c r="AU287" s="64"/>
       <c r="AV287" s="41" t="s">
         <v>1315</v>
@@ -64459,54 +64701,54 @@
       <c r="BF287" s="195"/>
     </row>
     <row r="288" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="236"/>
-      <c r="B288" s="237"/>
+      <c r="A288" s="294"/>
+      <c r="B288" s="295"/>
       <c r="C288" s="78"/>
       <c r="D288" s="78"/>
       <c r="E288" s="158" t="s">
         <v>1124</v>
       </c>
       <c r="F288" s="78"/>
-      <c r="G288" s="243"/>
-      <c r="H288" s="243"/>
-      <c r="I288" s="243"/>
-      <c r="J288" s="243"/>
-      <c r="K288" s="243"/>
-      <c r="L288" s="243"/>
-      <c r="M288" s="243"/>
-      <c r="N288" s="243"/>
-      <c r="O288" s="243"/>
-      <c r="P288" s="246"/>
-      <c r="Q288" s="246"/>
-      <c r="R288" s="246"/>
-      <c r="S288" s="246"/>
-      <c r="T288" s="246"/>
-      <c r="U288" s="246"/>
-      <c r="V288" s="246"/>
-      <c r="W288" s="246"/>
-      <c r="X288" s="246"/>
-      <c r="Y288" s="246"/>
-      <c r="Z288" s="246"/>
-      <c r="AA288" s="246"/>
-      <c r="AB288" s="246"/>
-      <c r="AC288" s="246"/>
-      <c r="AD288" s="246"/>
-      <c r="AE288" s="243"/>
-      <c r="AF288" s="243"/>
-      <c r="AG288" s="243"/>
-      <c r="AH288" s="243"/>
-      <c r="AI288" s="243"/>
-      <c r="AJ288" s="243"/>
-      <c r="AK288" s="243"/>
-      <c r="AL288" s="243"/>
-      <c r="AM288" s="243"/>
-      <c r="AN288" s="243"/>
-      <c r="AO288" s="243"/>
-      <c r="AP288" s="243"/>
-      <c r="AQ288" s="243"/>
-      <c r="AR288" s="243"/>
-      <c r="AS288" s="243"/>
-      <c r="AT288" s="234"/>
+      <c r="G288" s="286"/>
+      <c r="H288" s="286"/>
+      <c r="I288" s="286"/>
+      <c r="J288" s="286"/>
+      <c r="K288" s="286"/>
+      <c r="L288" s="286"/>
+      <c r="M288" s="286"/>
+      <c r="N288" s="286"/>
+      <c r="O288" s="286"/>
+      <c r="P288" s="289"/>
+      <c r="Q288" s="289"/>
+      <c r="R288" s="289"/>
+      <c r="S288" s="289"/>
+      <c r="T288" s="289"/>
+      <c r="U288" s="289"/>
+      <c r="V288" s="289"/>
+      <c r="W288" s="289"/>
+      <c r="X288" s="289"/>
+      <c r="Y288" s="289"/>
+      <c r="Z288" s="289"/>
+      <c r="AA288" s="289"/>
+      <c r="AB288" s="289"/>
+      <c r="AC288" s="289"/>
+      <c r="AD288" s="289"/>
+      <c r="AE288" s="286"/>
+      <c r="AF288" s="286"/>
+      <c r="AG288" s="286"/>
+      <c r="AH288" s="286"/>
+      <c r="AI288" s="286"/>
+      <c r="AJ288" s="286"/>
+      <c r="AK288" s="286"/>
+      <c r="AL288" s="286"/>
+      <c r="AM288" s="286"/>
+      <c r="AN288" s="286"/>
+      <c r="AO288" s="286"/>
+      <c r="AP288" s="286"/>
+      <c r="AQ288" s="286"/>
+      <c r="AR288" s="286"/>
+      <c r="AS288" s="286"/>
+      <c r="AT288" s="292"/>
       <c r="AU288" s="64"/>
       <c r="AV288" s="41" t="s">
         <v>1315</v>
@@ -64541,54 +64783,54 @@
       <c r="BF288" s="195"/>
     </row>
     <row r="289" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="238"/>
-      <c r="B289" s="239"/>
+      <c r="A289" s="296"/>
+      <c r="B289" s="297"/>
       <c r="C289" s="79"/>
       <c r="D289" s="79"/>
       <c r="E289" s="159" t="s">
         <v>1125</v>
       </c>
       <c r="F289" s="79"/>
-      <c r="G289" s="244"/>
-      <c r="H289" s="244"/>
-      <c r="I289" s="244"/>
-      <c r="J289" s="244"/>
-      <c r="K289" s="244"/>
-      <c r="L289" s="244"/>
-      <c r="M289" s="244"/>
-      <c r="N289" s="244"/>
-      <c r="O289" s="244"/>
-      <c r="P289" s="247"/>
-      <c r="Q289" s="247"/>
-      <c r="R289" s="247"/>
-      <c r="S289" s="247"/>
-      <c r="T289" s="247"/>
-      <c r="U289" s="247"/>
-      <c r="V289" s="247"/>
-      <c r="W289" s="247"/>
-      <c r="X289" s="247"/>
-      <c r="Y289" s="247"/>
-      <c r="Z289" s="247"/>
-      <c r="AA289" s="247"/>
-      <c r="AB289" s="247"/>
-      <c r="AC289" s="247"/>
-      <c r="AD289" s="247"/>
-      <c r="AE289" s="244"/>
-      <c r="AF289" s="244"/>
-      <c r="AG289" s="244"/>
-      <c r="AH289" s="244"/>
-      <c r="AI289" s="244"/>
-      <c r="AJ289" s="244"/>
-      <c r="AK289" s="244"/>
-      <c r="AL289" s="244"/>
-      <c r="AM289" s="244"/>
-      <c r="AN289" s="244"/>
-      <c r="AO289" s="244"/>
-      <c r="AP289" s="244"/>
-      <c r="AQ289" s="244"/>
-      <c r="AR289" s="244"/>
-      <c r="AS289" s="244"/>
-      <c r="AT289" s="235"/>
+      <c r="G289" s="287"/>
+      <c r="H289" s="287"/>
+      <c r="I289" s="287"/>
+      <c r="J289" s="287"/>
+      <c r="K289" s="287"/>
+      <c r="L289" s="287"/>
+      <c r="M289" s="287"/>
+      <c r="N289" s="287"/>
+      <c r="O289" s="287"/>
+      <c r="P289" s="290"/>
+      <c r="Q289" s="290"/>
+      <c r="R289" s="290"/>
+      <c r="S289" s="290"/>
+      <c r="T289" s="290"/>
+      <c r="U289" s="290"/>
+      <c r="V289" s="290"/>
+      <c r="W289" s="290"/>
+      <c r="X289" s="290"/>
+      <c r="Y289" s="290"/>
+      <c r="Z289" s="290"/>
+      <c r="AA289" s="290"/>
+      <c r="AB289" s="290"/>
+      <c r="AC289" s="290"/>
+      <c r="AD289" s="290"/>
+      <c r="AE289" s="287"/>
+      <c r="AF289" s="287"/>
+      <c r="AG289" s="287"/>
+      <c r="AH289" s="287"/>
+      <c r="AI289" s="287"/>
+      <c r="AJ289" s="287"/>
+      <c r="AK289" s="287"/>
+      <c r="AL289" s="287"/>
+      <c r="AM289" s="287"/>
+      <c r="AN289" s="287"/>
+      <c r="AO289" s="287"/>
+      <c r="AP289" s="287"/>
+      <c r="AQ289" s="287"/>
+      <c r="AR289" s="287"/>
+      <c r="AS289" s="287"/>
+      <c r="AT289" s="293"/>
       <c r="AU289" s="64"/>
       <c r="AV289" s="41" t="s">
         <v>1315</v>
@@ -64623,10 +64865,10 @@
       <c r="BF289" s="195"/>
     </row>
     <row r="290" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="240" t="s">
+      <c r="A290" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="B290" s="241"/>
+      <c r="B290" s="284"/>
       <c r="C290" s="154" t="s">
         <v>412</v>
       </c>
@@ -64639,46 +64881,46 @@
       <c r="F290" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="G290" s="242"/>
-      <c r="H290" s="242"/>
-      <c r="I290" s="242"/>
-      <c r="J290" s="242"/>
-      <c r="K290" s="242"/>
-      <c r="L290" s="242"/>
-      <c r="M290" s="242"/>
-      <c r="N290" s="242"/>
-      <c r="O290" s="242"/>
-      <c r="P290" s="245"/>
-      <c r="Q290" s="245"/>
-      <c r="R290" s="245"/>
-      <c r="S290" s="245"/>
-      <c r="T290" s="245"/>
-      <c r="U290" s="245"/>
-      <c r="V290" s="245"/>
-      <c r="W290" s="245"/>
-      <c r="X290" s="245"/>
-      <c r="Y290" s="245"/>
-      <c r="Z290" s="245"/>
-      <c r="AA290" s="245"/>
-      <c r="AB290" s="245"/>
-      <c r="AC290" s="245"/>
-      <c r="AD290" s="245"/>
-      <c r="AE290" s="242"/>
-      <c r="AF290" s="242"/>
-      <c r="AG290" s="242"/>
-      <c r="AH290" s="242"/>
-      <c r="AI290" s="242"/>
-      <c r="AJ290" s="242"/>
-      <c r="AK290" s="242"/>
-      <c r="AL290" s="242"/>
-      <c r="AM290" s="242"/>
-      <c r="AN290" s="242"/>
-      <c r="AO290" s="242"/>
-      <c r="AP290" s="242"/>
-      <c r="AQ290" s="242"/>
-      <c r="AR290" s="242"/>
-      <c r="AS290" s="242"/>
-      <c r="AT290" s="233"/>
+      <c r="G290" s="285"/>
+      <c r="H290" s="285"/>
+      <c r="I290" s="285"/>
+      <c r="J290" s="285"/>
+      <c r="K290" s="285"/>
+      <c r="L290" s="285"/>
+      <c r="M290" s="285"/>
+      <c r="N290" s="285"/>
+      <c r="O290" s="285"/>
+      <c r="P290" s="288"/>
+      <c r="Q290" s="288"/>
+      <c r="R290" s="288"/>
+      <c r="S290" s="288"/>
+      <c r="T290" s="288"/>
+      <c r="U290" s="288"/>
+      <c r="V290" s="288"/>
+      <c r="W290" s="288"/>
+      <c r="X290" s="288"/>
+      <c r="Y290" s="288"/>
+      <c r="Z290" s="288"/>
+      <c r="AA290" s="288"/>
+      <c r="AB290" s="288"/>
+      <c r="AC290" s="288"/>
+      <c r="AD290" s="288"/>
+      <c r="AE290" s="285"/>
+      <c r="AF290" s="285"/>
+      <c r="AG290" s="285"/>
+      <c r="AH290" s="285"/>
+      <c r="AI290" s="285"/>
+      <c r="AJ290" s="285"/>
+      <c r="AK290" s="285"/>
+      <c r="AL290" s="285"/>
+      <c r="AM290" s="285"/>
+      <c r="AN290" s="285"/>
+      <c r="AO290" s="285"/>
+      <c r="AP290" s="285"/>
+      <c r="AQ290" s="285"/>
+      <c r="AR290" s="285"/>
+      <c r="AS290" s="285"/>
+      <c r="AT290" s="291"/>
       <c r="AU290" s="64"/>
       <c r="AV290" s="41" t="s">
         <v>1315</v>
@@ -64713,8 +64955,8 @@
       <c r="BF290" s="195"/>
     </row>
     <row r="291" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="236"/>
-      <c r="B291" s="237"/>
+      <c r="A291" s="294"/>
+      <c r="B291" s="295"/>
       <c r="C291" s="78"/>
       <c r="D291" s="157" t="s">
         <v>413</v>
@@ -64723,46 +64965,46 @@
         <v>1127</v>
       </c>
       <c r="F291" s="78"/>
-      <c r="G291" s="243"/>
-      <c r="H291" s="243"/>
-      <c r="I291" s="243"/>
-      <c r="J291" s="243"/>
-      <c r="K291" s="243"/>
-      <c r="L291" s="243"/>
-      <c r="M291" s="243"/>
-      <c r="N291" s="243"/>
-      <c r="O291" s="243"/>
-      <c r="P291" s="246"/>
-      <c r="Q291" s="246"/>
-      <c r="R291" s="246"/>
-      <c r="S291" s="246"/>
-      <c r="T291" s="246"/>
-      <c r="U291" s="246"/>
-      <c r="V291" s="246"/>
-      <c r="W291" s="246"/>
-      <c r="X291" s="246"/>
-      <c r="Y291" s="246"/>
-      <c r="Z291" s="246"/>
-      <c r="AA291" s="246"/>
-      <c r="AB291" s="246"/>
-      <c r="AC291" s="246"/>
-      <c r="AD291" s="246"/>
-      <c r="AE291" s="243"/>
-      <c r="AF291" s="243"/>
-      <c r="AG291" s="243"/>
-      <c r="AH291" s="243"/>
-      <c r="AI291" s="243"/>
-      <c r="AJ291" s="243"/>
-      <c r="AK291" s="243"/>
-      <c r="AL291" s="243"/>
-      <c r="AM291" s="243"/>
-      <c r="AN291" s="243"/>
-      <c r="AO291" s="243"/>
-      <c r="AP291" s="243"/>
-      <c r="AQ291" s="243"/>
-      <c r="AR291" s="243"/>
-      <c r="AS291" s="243"/>
-      <c r="AT291" s="234"/>
+      <c r="G291" s="286"/>
+      <c r="H291" s="286"/>
+      <c r="I291" s="286"/>
+      <c r="J291" s="286"/>
+      <c r="K291" s="286"/>
+      <c r="L291" s="286"/>
+      <c r="M291" s="286"/>
+      <c r="N291" s="286"/>
+      <c r="O291" s="286"/>
+      <c r="P291" s="289"/>
+      <c r="Q291" s="289"/>
+      <c r="R291" s="289"/>
+      <c r="S291" s="289"/>
+      <c r="T291" s="289"/>
+      <c r="U291" s="289"/>
+      <c r="V291" s="289"/>
+      <c r="W291" s="289"/>
+      <c r="X291" s="289"/>
+      <c r="Y291" s="289"/>
+      <c r="Z291" s="289"/>
+      <c r="AA291" s="289"/>
+      <c r="AB291" s="289"/>
+      <c r="AC291" s="289"/>
+      <c r="AD291" s="289"/>
+      <c r="AE291" s="286"/>
+      <c r="AF291" s="286"/>
+      <c r="AG291" s="286"/>
+      <c r="AH291" s="286"/>
+      <c r="AI291" s="286"/>
+      <c r="AJ291" s="286"/>
+      <c r="AK291" s="286"/>
+      <c r="AL291" s="286"/>
+      <c r="AM291" s="286"/>
+      <c r="AN291" s="286"/>
+      <c r="AO291" s="286"/>
+      <c r="AP291" s="286"/>
+      <c r="AQ291" s="286"/>
+      <c r="AR291" s="286"/>
+      <c r="AS291" s="286"/>
+      <c r="AT291" s="292"/>
       <c r="AU291" s="64"/>
       <c r="AV291" s="41" t="s">
         <v>1315</v>
@@ -64797,8 +65039,8 @@
       <c r="BF291" s="195"/>
     </row>
     <row r="292" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="236"/>
-      <c r="B292" s="237"/>
+      <c r="A292" s="294"/>
+      <c r="B292" s="295"/>
       <c r="C292" s="78"/>
       <c r="D292" s="157" t="s">
         <v>414</v>
@@ -64807,46 +65049,46 @@
         <v>1128</v>
       </c>
       <c r="F292" s="78"/>
-      <c r="G292" s="243"/>
-      <c r="H292" s="243"/>
-      <c r="I292" s="243"/>
-      <c r="J292" s="243"/>
-      <c r="K292" s="243"/>
-      <c r="L292" s="243"/>
-      <c r="M292" s="243"/>
-      <c r="N292" s="243"/>
-      <c r="O292" s="243"/>
-      <c r="P292" s="246"/>
-      <c r="Q292" s="246"/>
-      <c r="R292" s="246"/>
-      <c r="S292" s="246"/>
-      <c r="T292" s="246"/>
-      <c r="U292" s="246"/>
-      <c r="V292" s="246"/>
-      <c r="W292" s="246"/>
-      <c r="X292" s="246"/>
-      <c r="Y292" s="246"/>
-      <c r="Z292" s="246"/>
-      <c r="AA292" s="246"/>
-      <c r="AB292" s="246"/>
-      <c r="AC292" s="246"/>
-      <c r="AD292" s="246"/>
-      <c r="AE292" s="243"/>
-      <c r="AF292" s="243"/>
-      <c r="AG292" s="243"/>
-      <c r="AH292" s="243"/>
-      <c r="AI292" s="243"/>
-      <c r="AJ292" s="243"/>
-      <c r="AK292" s="243"/>
-      <c r="AL292" s="243"/>
-      <c r="AM292" s="243"/>
-      <c r="AN292" s="243"/>
-      <c r="AO292" s="243"/>
-      <c r="AP292" s="243"/>
-      <c r="AQ292" s="243"/>
-      <c r="AR292" s="243"/>
-      <c r="AS292" s="243"/>
-      <c r="AT292" s="234"/>
+      <c r="G292" s="286"/>
+      <c r="H292" s="286"/>
+      <c r="I292" s="286"/>
+      <c r="J292" s="286"/>
+      <c r="K292" s="286"/>
+      <c r="L292" s="286"/>
+      <c r="M292" s="286"/>
+      <c r="N292" s="286"/>
+      <c r="O292" s="286"/>
+      <c r="P292" s="289"/>
+      <c r="Q292" s="289"/>
+      <c r="R292" s="289"/>
+      <c r="S292" s="289"/>
+      <c r="T292" s="289"/>
+      <c r="U292" s="289"/>
+      <c r="V292" s="289"/>
+      <c r="W292" s="289"/>
+      <c r="X292" s="289"/>
+      <c r="Y292" s="289"/>
+      <c r="Z292" s="289"/>
+      <c r="AA292" s="289"/>
+      <c r="AB292" s="289"/>
+      <c r="AC292" s="289"/>
+      <c r="AD292" s="289"/>
+      <c r="AE292" s="286"/>
+      <c r="AF292" s="286"/>
+      <c r="AG292" s="286"/>
+      <c r="AH292" s="286"/>
+      <c r="AI292" s="286"/>
+      <c r="AJ292" s="286"/>
+      <c r="AK292" s="286"/>
+      <c r="AL292" s="286"/>
+      <c r="AM292" s="286"/>
+      <c r="AN292" s="286"/>
+      <c r="AO292" s="286"/>
+      <c r="AP292" s="286"/>
+      <c r="AQ292" s="286"/>
+      <c r="AR292" s="286"/>
+      <c r="AS292" s="286"/>
+      <c r="AT292" s="292"/>
       <c r="AU292" s="64"/>
       <c r="AV292" s="41" t="s">
         <v>1315</v>
@@ -64881,54 +65123,54 @@
       <c r="BF292" s="195"/>
     </row>
     <row r="293" spans="1:58" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="238"/>
-      <c r="B293" s="239"/>
+      <c r="A293" s="296"/>
+      <c r="B293" s="297"/>
       <c r="C293" s="79"/>
       <c r="D293" s="79"/>
       <c r="E293" s="159" t="s">
         <v>1129</v>
       </c>
       <c r="F293" s="79"/>
-      <c r="G293" s="244"/>
-      <c r="H293" s="244"/>
-      <c r="I293" s="244"/>
-      <c r="J293" s="244"/>
-      <c r="K293" s="244"/>
-      <c r="L293" s="244"/>
-      <c r="M293" s="244"/>
-      <c r="N293" s="244"/>
-      <c r="O293" s="244"/>
-      <c r="P293" s="247"/>
-      <c r="Q293" s="247"/>
-      <c r="R293" s="247"/>
-      <c r="S293" s="247"/>
-      <c r="T293" s="247"/>
-      <c r="U293" s="247"/>
-      <c r="V293" s="247"/>
-      <c r="W293" s="247"/>
-      <c r="X293" s="247"/>
-      <c r="Y293" s="247"/>
-      <c r="Z293" s="247"/>
-      <c r="AA293" s="247"/>
-      <c r="AB293" s="247"/>
-      <c r="AC293" s="247"/>
-      <c r="AD293" s="247"/>
-      <c r="AE293" s="244"/>
-      <c r="AF293" s="244"/>
-      <c r="AG293" s="244"/>
-      <c r="AH293" s="244"/>
-      <c r="AI293" s="244"/>
-      <c r="AJ293" s="244"/>
-      <c r="AK293" s="244"/>
-      <c r="AL293" s="244"/>
-      <c r="AM293" s="244"/>
-      <c r="AN293" s="244"/>
-      <c r="AO293" s="244"/>
-      <c r="AP293" s="244"/>
-      <c r="AQ293" s="244"/>
-      <c r="AR293" s="244"/>
-      <c r="AS293" s="244"/>
-      <c r="AT293" s="235"/>
+      <c r="G293" s="287"/>
+      <c r="H293" s="287"/>
+      <c r="I293" s="287"/>
+      <c r="J293" s="287"/>
+      <c r="K293" s="287"/>
+      <c r="L293" s="287"/>
+      <c r="M293" s="287"/>
+      <c r="N293" s="287"/>
+      <c r="O293" s="287"/>
+      <c r="P293" s="290"/>
+      <c r="Q293" s="290"/>
+      <c r="R293" s="290"/>
+      <c r="S293" s="290"/>
+      <c r="T293" s="290"/>
+      <c r="U293" s="290"/>
+      <c r="V293" s="290"/>
+      <c r="W293" s="290"/>
+      <c r="X293" s="290"/>
+      <c r="Y293" s="290"/>
+      <c r="Z293" s="290"/>
+      <c r="AA293" s="290"/>
+      <c r="AB293" s="290"/>
+      <c r="AC293" s="290"/>
+      <c r="AD293" s="290"/>
+      <c r="AE293" s="287"/>
+      <c r="AF293" s="287"/>
+      <c r="AG293" s="287"/>
+      <c r="AH293" s="287"/>
+      <c r="AI293" s="287"/>
+      <c r="AJ293" s="287"/>
+      <c r="AK293" s="287"/>
+      <c r="AL293" s="287"/>
+      <c r="AM293" s="287"/>
+      <c r="AN293" s="287"/>
+      <c r="AO293" s="287"/>
+      <c r="AP293" s="287"/>
+      <c r="AQ293" s="287"/>
+      <c r="AR293" s="287"/>
+      <c r="AS293" s="287"/>
+      <c r="AT293" s="293"/>
       <c r="AU293" s="64"/>
       <c r="AV293" s="41" t="s">
         <v>1315</v>
@@ -64963,10 +65205,10 @@
       <c r="BF293" s="195"/>
     </row>
     <row r="294" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="240" t="s">
+      <c r="A294" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="B294" s="241"/>
+      <c r="B294" s="284"/>
       <c r="C294" s="154" t="s">
         <v>415</v>
       </c>
@@ -64979,46 +65221,46 @@
       <c r="F294" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="G294" s="242"/>
-      <c r="H294" s="242"/>
-      <c r="I294" s="242"/>
-      <c r="J294" s="242"/>
-      <c r="K294" s="242"/>
-      <c r="L294" s="242"/>
-      <c r="M294" s="242"/>
-      <c r="N294" s="242"/>
-      <c r="O294" s="242"/>
-      <c r="P294" s="245"/>
-      <c r="Q294" s="245"/>
-      <c r="R294" s="245"/>
-      <c r="S294" s="245"/>
-      <c r="T294" s="245"/>
-      <c r="U294" s="245"/>
-      <c r="V294" s="245"/>
-      <c r="W294" s="245"/>
-      <c r="X294" s="245"/>
-      <c r="Y294" s="245"/>
-      <c r="Z294" s="245"/>
-      <c r="AA294" s="245"/>
-      <c r="AB294" s="245"/>
-      <c r="AC294" s="245"/>
-      <c r="AD294" s="245"/>
-      <c r="AE294" s="242"/>
-      <c r="AF294" s="242"/>
-      <c r="AG294" s="242"/>
-      <c r="AH294" s="242"/>
-      <c r="AI294" s="242"/>
-      <c r="AJ294" s="242"/>
-      <c r="AK294" s="242"/>
-      <c r="AL294" s="242"/>
-      <c r="AM294" s="242"/>
-      <c r="AN294" s="242"/>
-      <c r="AO294" s="242"/>
-      <c r="AP294" s="242"/>
-      <c r="AQ294" s="242"/>
-      <c r="AR294" s="242"/>
-      <c r="AS294" s="242"/>
-      <c r="AT294" s="233"/>
+      <c r="G294" s="285"/>
+      <c r="H294" s="285"/>
+      <c r="I294" s="285"/>
+      <c r="J294" s="285"/>
+      <c r="K294" s="285"/>
+      <c r="L294" s="285"/>
+      <c r="M294" s="285"/>
+      <c r="N294" s="285"/>
+      <c r="O294" s="285"/>
+      <c r="P294" s="288"/>
+      <c r="Q294" s="288"/>
+      <c r="R294" s="288"/>
+      <c r="S294" s="288"/>
+      <c r="T294" s="288"/>
+      <c r="U294" s="288"/>
+      <c r="V294" s="288"/>
+      <c r="W294" s="288"/>
+      <c r="X294" s="288"/>
+      <c r="Y294" s="288"/>
+      <c r="Z294" s="288"/>
+      <c r="AA294" s="288"/>
+      <c r="AB294" s="288"/>
+      <c r="AC294" s="288"/>
+      <c r="AD294" s="288"/>
+      <c r="AE294" s="285"/>
+      <c r="AF294" s="285"/>
+      <c r="AG294" s="285"/>
+      <c r="AH294" s="285"/>
+      <c r="AI294" s="285"/>
+      <c r="AJ294" s="285"/>
+      <c r="AK294" s="285"/>
+      <c r="AL294" s="285"/>
+      <c r="AM294" s="285"/>
+      <c r="AN294" s="285"/>
+      <c r="AO294" s="285"/>
+      <c r="AP294" s="285"/>
+      <c r="AQ294" s="285"/>
+      <c r="AR294" s="285"/>
+      <c r="AS294" s="285"/>
+      <c r="AT294" s="291"/>
       <c r="AU294" s="64"/>
       <c r="AV294" s="41" t="s">
         <v>1315</v>
@@ -65053,8 +65295,8 @@
       <c r="BF294" s="195"/>
     </row>
     <row r="295" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="236"/>
-      <c r="B295" s="237"/>
+      <c r="A295" s="294"/>
+      <c r="B295" s="295"/>
       <c r="C295" s="78"/>
       <c r="D295" s="157" t="s">
         <v>416</v>
@@ -65063,46 +65305,46 @@
         <v>1131</v>
       </c>
       <c r="F295" s="78"/>
-      <c r="G295" s="243"/>
-      <c r="H295" s="243"/>
-      <c r="I295" s="243"/>
-      <c r="J295" s="243"/>
-      <c r="K295" s="243"/>
-      <c r="L295" s="243"/>
-      <c r="M295" s="243"/>
-      <c r="N295" s="243"/>
-      <c r="O295" s="243"/>
-      <c r="P295" s="246"/>
-      <c r="Q295" s="246"/>
-      <c r="R295" s="246"/>
-      <c r="S295" s="246"/>
-      <c r="T295" s="246"/>
-      <c r="U295" s="246"/>
-      <c r="V295" s="246"/>
-      <c r="W295" s="246"/>
-      <c r="X295" s="246"/>
-      <c r="Y295" s="246"/>
-      <c r="Z295" s="246"/>
-      <c r="AA295" s="246"/>
-      <c r="AB295" s="246"/>
-      <c r="AC295" s="246"/>
-      <c r="AD295" s="246"/>
-      <c r="AE295" s="243"/>
-      <c r="AF295" s="243"/>
-      <c r="AG295" s="243"/>
-      <c r="AH295" s="243"/>
-      <c r="AI295" s="243"/>
-      <c r="AJ295" s="243"/>
-      <c r="AK295" s="243"/>
-      <c r="AL295" s="243"/>
-      <c r="AM295" s="243"/>
-      <c r="AN295" s="243"/>
-      <c r="AO295" s="243"/>
-      <c r="AP295" s="243"/>
-      <c r="AQ295" s="243"/>
-      <c r="AR295" s="243"/>
-      <c r="AS295" s="243"/>
-      <c r="AT295" s="234"/>
+      <c r="G295" s="286"/>
+      <c r="H295" s="286"/>
+      <c r="I295" s="286"/>
+      <c r="J295" s="286"/>
+      <c r="K295" s="286"/>
+      <c r="L295" s="286"/>
+      <c r="M295" s="286"/>
+      <c r="N295" s="286"/>
+      <c r="O295" s="286"/>
+      <c r="P295" s="289"/>
+      <c r="Q295" s="289"/>
+      <c r="R295" s="289"/>
+      <c r="S295" s="289"/>
+      <c r="T295" s="289"/>
+      <c r="U295" s="289"/>
+      <c r="V295" s="289"/>
+      <c r="W295" s="289"/>
+      <c r="X295" s="289"/>
+      <c r="Y295" s="289"/>
+      <c r="Z295" s="289"/>
+      <c r="AA295" s="289"/>
+      <c r="AB295" s="289"/>
+      <c r="AC295" s="289"/>
+      <c r="AD295" s="289"/>
+      <c r="AE295" s="286"/>
+      <c r="AF295" s="286"/>
+      <c r="AG295" s="286"/>
+      <c r="AH295" s="286"/>
+      <c r="AI295" s="286"/>
+      <c r="AJ295" s="286"/>
+      <c r="AK295" s="286"/>
+      <c r="AL295" s="286"/>
+      <c r="AM295" s="286"/>
+      <c r="AN295" s="286"/>
+      <c r="AO295" s="286"/>
+      <c r="AP295" s="286"/>
+      <c r="AQ295" s="286"/>
+      <c r="AR295" s="286"/>
+      <c r="AS295" s="286"/>
+      <c r="AT295" s="292"/>
       <c r="AU295" s="64"/>
       <c r="AV295" s="41" t="s">
         <v>1315</v>
@@ -65137,54 +65379,54 @@
       <c r="BF295" s="195"/>
     </row>
     <row r="296" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="236"/>
-      <c r="B296" s="237"/>
+      <c r="A296" s="294"/>
+      <c r="B296" s="295"/>
       <c r="C296" s="78"/>
       <c r="D296" s="157" t="s">
         <v>417</v>
       </c>
       <c r="E296" s="35"/>
       <c r="F296" s="78"/>
-      <c r="G296" s="243"/>
-      <c r="H296" s="243"/>
-      <c r="I296" s="243"/>
-      <c r="J296" s="243"/>
-      <c r="K296" s="243"/>
-      <c r="L296" s="243"/>
-      <c r="M296" s="243"/>
-      <c r="N296" s="243"/>
-      <c r="O296" s="243"/>
-      <c r="P296" s="246"/>
-      <c r="Q296" s="246"/>
-      <c r="R296" s="246"/>
-      <c r="S296" s="246"/>
-      <c r="T296" s="246"/>
-      <c r="U296" s="246"/>
-      <c r="V296" s="246"/>
-      <c r="W296" s="246"/>
-      <c r="X296" s="246"/>
-      <c r="Y296" s="246"/>
-      <c r="Z296" s="246"/>
-      <c r="AA296" s="246"/>
-      <c r="AB296" s="246"/>
-      <c r="AC296" s="246"/>
-      <c r="AD296" s="246"/>
-      <c r="AE296" s="243"/>
-      <c r="AF296" s="243"/>
-      <c r="AG296" s="243"/>
-      <c r="AH296" s="243"/>
-      <c r="AI296" s="243"/>
-      <c r="AJ296" s="243"/>
-      <c r="AK296" s="243"/>
-      <c r="AL296" s="243"/>
-      <c r="AM296" s="243"/>
-      <c r="AN296" s="243"/>
-      <c r="AO296" s="243"/>
-      <c r="AP296" s="243"/>
-      <c r="AQ296" s="243"/>
-      <c r="AR296" s="243"/>
-      <c r="AS296" s="243"/>
-      <c r="AT296" s="234"/>
+      <c r="G296" s="286"/>
+      <c r="H296" s="286"/>
+      <c r="I296" s="286"/>
+      <c r="J296" s="286"/>
+      <c r="K296" s="286"/>
+      <c r="L296" s="286"/>
+      <c r="M296" s="286"/>
+      <c r="N296" s="286"/>
+      <c r="O296" s="286"/>
+      <c r="P296" s="289"/>
+      <c r="Q296" s="289"/>
+      <c r="R296" s="289"/>
+      <c r="S296" s="289"/>
+      <c r="T296" s="289"/>
+      <c r="U296" s="289"/>
+      <c r="V296" s="289"/>
+      <c r="W296" s="289"/>
+      <c r="X296" s="289"/>
+      <c r="Y296" s="289"/>
+      <c r="Z296" s="289"/>
+      <c r="AA296" s="289"/>
+      <c r="AB296" s="289"/>
+      <c r="AC296" s="289"/>
+      <c r="AD296" s="289"/>
+      <c r="AE296" s="286"/>
+      <c r="AF296" s="286"/>
+      <c r="AG296" s="286"/>
+      <c r="AH296" s="286"/>
+      <c r="AI296" s="286"/>
+      <c r="AJ296" s="286"/>
+      <c r="AK296" s="286"/>
+      <c r="AL296" s="286"/>
+      <c r="AM296" s="286"/>
+      <c r="AN296" s="286"/>
+      <c r="AO296" s="286"/>
+      <c r="AP296" s="286"/>
+      <c r="AQ296" s="286"/>
+      <c r="AR296" s="286"/>
+      <c r="AS296" s="286"/>
+      <c r="AT296" s="292"/>
       <c r="AU296" s="64"/>
       <c r="AV296" s="41" t="s">
         <v>1315</v>
@@ -65219,54 +65461,54 @@
       <c r="BF296" s="195"/>
     </row>
     <row r="297" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="236"/>
-      <c r="B297" s="237"/>
+      <c r="A297" s="294"/>
+      <c r="B297" s="295"/>
       <c r="C297" s="78"/>
       <c r="D297" s="157" t="s">
         <v>418</v>
       </c>
       <c r="E297" s="35"/>
       <c r="F297" s="78"/>
-      <c r="G297" s="243"/>
-      <c r="H297" s="243"/>
-      <c r="I297" s="243"/>
-      <c r="J297" s="243"/>
-      <c r="K297" s="243"/>
-      <c r="L297" s="243"/>
-      <c r="M297" s="243"/>
-      <c r="N297" s="243"/>
-      <c r="O297" s="243"/>
-      <c r="P297" s="246"/>
-      <c r="Q297" s="246"/>
-      <c r="R297" s="246"/>
-      <c r="S297" s="246"/>
-      <c r="T297" s="246"/>
-      <c r="U297" s="246"/>
-      <c r="V297" s="246"/>
-      <c r="W297" s="246"/>
-      <c r="X297" s="246"/>
-      <c r="Y297" s="246"/>
-      <c r="Z297" s="246"/>
-      <c r="AA297" s="246"/>
-      <c r="AB297" s="246"/>
-      <c r="AC297" s="246"/>
-      <c r="AD297" s="246"/>
-      <c r="AE297" s="243"/>
-      <c r="AF297" s="243"/>
-      <c r="AG297" s="243"/>
-      <c r="AH297" s="243"/>
-      <c r="AI297" s="243"/>
-      <c r="AJ297" s="243"/>
-      <c r="AK297" s="243"/>
-      <c r="AL297" s="243"/>
-      <c r="AM297" s="243"/>
-      <c r="AN297" s="243"/>
-      <c r="AO297" s="243"/>
-      <c r="AP297" s="243"/>
-      <c r="AQ297" s="243"/>
-      <c r="AR297" s="243"/>
-      <c r="AS297" s="243"/>
-      <c r="AT297" s="234"/>
+      <c r="G297" s="286"/>
+      <c r="H297" s="286"/>
+      <c r="I297" s="286"/>
+      <c r="J297" s="286"/>
+      <c r="K297" s="286"/>
+      <c r="L297" s="286"/>
+      <c r="M297" s="286"/>
+      <c r="N297" s="286"/>
+      <c r="O297" s="286"/>
+      <c r="P297" s="289"/>
+      <c r="Q297" s="289"/>
+      <c r="R297" s="289"/>
+      <c r="S297" s="289"/>
+      <c r="T297" s="289"/>
+      <c r="U297" s="289"/>
+      <c r="V297" s="289"/>
+      <c r="W297" s="289"/>
+      <c r="X297" s="289"/>
+      <c r="Y297" s="289"/>
+      <c r="Z297" s="289"/>
+      <c r="AA297" s="289"/>
+      <c r="AB297" s="289"/>
+      <c r="AC297" s="289"/>
+      <c r="AD297" s="289"/>
+      <c r="AE297" s="286"/>
+      <c r="AF297" s="286"/>
+      <c r="AG297" s="286"/>
+      <c r="AH297" s="286"/>
+      <c r="AI297" s="286"/>
+      <c r="AJ297" s="286"/>
+      <c r="AK297" s="286"/>
+      <c r="AL297" s="286"/>
+      <c r="AM297" s="286"/>
+      <c r="AN297" s="286"/>
+      <c r="AO297" s="286"/>
+      <c r="AP297" s="286"/>
+      <c r="AQ297" s="286"/>
+      <c r="AR297" s="286"/>
+      <c r="AS297" s="286"/>
+      <c r="AT297" s="292"/>
       <c r="AU297" s="64"/>
       <c r="AV297" s="41" t="s">
         <v>1315</v>
@@ -65301,54 +65543,54 @@
       <c r="BF297" s="195"/>
     </row>
     <row r="298" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="238"/>
-      <c r="B298" s="239"/>
+      <c r="A298" s="296"/>
+      <c r="B298" s="297"/>
       <c r="C298" s="79"/>
       <c r="D298" s="160" t="s">
         <v>419</v>
       </c>
       <c r="E298" s="36"/>
       <c r="F298" s="79"/>
-      <c r="G298" s="244"/>
-      <c r="H298" s="244"/>
-      <c r="I298" s="244"/>
-      <c r="J298" s="244"/>
-      <c r="K298" s="244"/>
-      <c r="L298" s="244"/>
-      <c r="M298" s="244"/>
-      <c r="N298" s="244"/>
-      <c r="O298" s="244"/>
-      <c r="P298" s="247"/>
-      <c r="Q298" s="247"/>
-      <c r="R298" s="247"/>
-      <c r="S298" s="247"/>
-      <c r="T298" s="247"/>
-      <c r="U298" s="247"/>
-      <c r="V298" s="247"/>
-      <c r="W298" s="247"/>
-      <c r="X298" s="247"/>
-      <c r="Y298" s="247"/>
-      <c r="Z298" s="247"/>
-      <c r="AA298" s="247"/>
-      <c r="AB298" s="247"/>
-      <c r="AC298" s="247"/>
-      <c r="AD298" s="247"/>
-      <c r="AE298" s="244"/>
-      <c r="AF298" s="244"/>
-      <c r="AG298" s="244"/>
-      <c r="AH298" s="244"/>
-      <c r="AI298" s="244"/>
-      <c r="AJ298" s="244"/>
-      <c r="AK298" s="244"/>
-      <c r="AL298" s="244"/>
-      <c r="AM298" s="244"/>
-      <c r="AN298" s="244"/>
-      <c r="AO298" s="244"/>
-      <c r="AP298" s="244"/>
-      <c r="AQ298" s="244"/>
-      <c r="AR298" s="244"/>
-      <c r="AS298" s="244"/>
-      <c r="AT298" s="235"/>
+      <c r="G298" s="287"/>
+      <c r="H298" s="287"/>
+      <c r="I298" s="287"/>
+      <c r="J298" s="287"/>
+      <c r="K298" s="287"/>
+      <c r="L298" s="287"/>
+      <c r="M298" s="287"/>
+      <c r="N298" s="287"/>
+      <c r="O298" s="287"/>
+      <c r="P298" s="290"/>
+      <c r="Q298" s="290"/>
+      <c r="R298" s="290"/>
+      <c r="S298" s="290"/>
+      <c r="T298" s="290"/>
+      <c r="U298" s="290"/>
+      <c r="V298" s="290"/>
+      <c r="W298" s="290"/>
+      <c r="X298" s="290"/>
+      <c r="Y298" s="290"/>
+      <c r="Z298" s="290"/>
+      <c r="AA298" s="290"/>
+      <c r="AB298" s="290"/>
+      <c r="AC298" s="290"/>
+      <c r="AD298" s="290"/>
+      <c r="AE298" s="287"/>
+      <c r="AF298" s="287"/>
+      <c r="AG298" s="287"/>
+      <c r="AH298" s="287"/>
+      <c r="AI298" s="287"/>
+      <c r="AJ298" s="287"/>
+      <c r="AK298" s="287"/>
+      <c r="AL298" s="287"/>
+      <c r="AM298" s="287"/>
+      <c r="AN298" s="287"/>
+      <c r="AO298" s="287"/>
+      <c r="AP298" s="287"/>
+      <c r="AQ298" s="287"/>
+      <c r="AR298" s="287"/>
+      <c r="AS298" s="287"/>
+      <c r="AT298" s="293"/>
       <c r="AU298" s="64"/>
       <c r="AV298" s="41" t="s">
         <v>1315</v>
@@ -65383,10 +65625,10 @@
       <c r="BF298" s="195"/>
     </row>
     <row r="299" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="240" t="s">
+      <c r="A299" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="B299" s="241"/>
+      <c r="B299" s="284"/>
       <c r="C299" s="154" t="s">
         <v>420</v>
       </c>
@@ -65399,46 +65641,46 @@
       <c r="F299" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="G299" s="242"/>
-      <c r="H299" s="242"/>
-      <c r="I299" s="242"/>
-      <c r="J299" s="242"/>
-      <c r="K299" s="242"/>
-      <c r="L299" s="242"/>
-      <c r="M299" s="242"/>
-      <c r="N299" s="242"/>
-      <c r="O299" s="242"/>
-      <c r="P299" s="245"/>
-      <c r="Q299" s="245"/>
-      <c r="R299" s="245"/>
-      <c r="S299" s="245"/>
-      <c r="T299" s="245"/>
-      <c r="U299" s="245"/>
-      <c r="V299" s="245"/>
-      <c r="W299" s="245"/>
-      <c r="X299" s="245"/>
-      <c r="Y299" s="245"/>
-      <c r="Z299" s="245"/>
-      <c r="AA299" s="245"/>
-      <c r="AB299" s="245"/>
-      <c r="AC299" s="245"/>
-      <c r="AD299" s="245"/>
-      <c r="AE299" s="242"/>
-      <c r="AF299" s="242"/>
-      <c r="AG299" s="242"/>
-      <c r="AH299" s="242"/>
-      <c r="AI299" s="242"/>
-      <c r="AJ299" s="242"/>
-      <c r="AK299" s="242"/>
-      <c r="AL299" s="242"/>
-      <c r="AM299" s="242"/>
-      <c r="AN299" s="242"/>
-      <c r="AO299" s="242"/>
-      <c r="AP299" s="242"/>
-      <c r="AQ299" s="242"/>
-      <c r="AR299" s="242"/>
-      <c r="AS299" s="242"/>
-      <c r="AT299" s="233"/>
+      <c r="G299" s="285"/>
+      <c r="H299" s="285"/>
+      <c r="I299" s="285"/>
+      <c r="J299" s="285"/>
+      <c r="K299" s="285"/>
+      <c r="L299" s="285"/>
+      <c r="M299" s="285"/>
+      <c r="N299" s="285"/>
+      <c r="O299" s="285"/>
+      <c r="P299" s="288"/>
+      <c r="Q299" s="288"/>
+      <c r="R299" s="288"/>
+      <c r="S299" s="288"/>
+      <c r="T299" s="288"/>
+      <c r="U299" s="288"/>
+      <c r="V299" s="288"/>
+      <c r="W299" s="288"/>
+      <c r="X299" s="288"/>
+      <c r="Y299" s="288"/>
+      <c r="Z299" s="288"/>
+      <c r="AA299" s="288"/>
+      <c r="AB299" s="288"/>
+      <c r="AC299" s="288"/>
+      <c r="AD299" s="288"/>
+      <c r="AE299" s="285"/>
+      <c r="AF299" s="285"/>
+      <c r="AG299" s="285"/>
+      <c r="AH299" s="285"/>
+      <c r="AI299" s="285"/>
+      <c r="AJ299" s="285"/>
+      <c r="AK299" s="285"/>
+      <c r="AL299" s="285"/>
+      <c r="AM299" s="285"/>
+      <c r="AN299" s="285"/>
+      <c r="AO299" s="285"/>
+      <c r="AP299" s="285"/>
+      <c r="AQ299" s="285"/>
+      <c r="AR299" s="285"/>
+      <c r="AS299" s="285"/>
+      <c r="AT299" s="291"/>
       <c r="AU299" s="64"/>
       <c r="AV299" s="40"/>
       <c r="AW299" s="40"/>
@@ -65467,8 +65709,8 @@
       <c r="BF299" s="195"/>
     </row>
     <row r="300" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="236"/>
-      <c r="B300" s="237"/>
+      <c r="A300" s="294"/>
+      <c r="B300" s="295"/>
       <c r="C300" s="78"/>
       <c r="D300" s="157" t="s">
         <v>416</v>
@@ -65477,46 +65719,46 @@
         <v>1133</v>
       </c>
       <c r="F300" s="78"/>
-      <c r="G300" s="243"/>
-      <c r="H300" s="243"/>
-      <c r="I300" s="243"/>
-      <c r="J300" s="243"/>
-      <c r="K300" s="243"/>
-      <c r="L300" s="243"/>
-      <c r="M300" s="243"/>
-      <c r="N300" s="243"/>
-      <c r="O300" s="243"/>
-      <c r="P300" s="246"/>
-      <c r="Q300" s="246"/>
-      <c r="R300" s="246"/>
-      <c r="S300" s="246"/>
-      <c r="T300" s="246"/>
-      <c r="U300" s="246"/>
-      <c r="V300" s="246"/>
-      <c r="W300" s="246"/>
-      <c r="X300" s="246"/>
-      <c r="Y300" s="246"/>
-      <c r="Z300" s="246"/>
-      <c r="AA300" s="246"/>
-      <c r="AB300" s="246"/>
-      <c r="AC300" s="246"/>
-      <c r="AD300" s="246"/>
-      <c r="AE300" s="243"/>
-      <c r="AF300" s="243"/>
-      <c r="AG300" s="243"/>
-      <c r="AH300" s="243"/>
-      <c r="AI300" s="243"/>
-      <c r="AJ300" s="243"/>
-      <c r="AK300" s="243"/>
-      <c r="AL300" s="243"/>
-      <c r="AM300" s="243"/>
-      <c r="AN300" s="243"/>
-      <c r="AO300" s="243"/>
-      <c r="AP300" s="243"/>
-      <c r="AQ300" s="243"/>
-      <c r="AR300" s="243"/>
-      <c r="AS300" s="243"/>
-      <c r="AT300" s="234"/>
+      <c r="G300" s="286"/>
+      <c r="H300" s="286"/>
+      <c r="I300" s="286"/>
+      <c r="J300" s="286"/>
+      <c r="K300" s="286"/>
+      <c r="L300" s="286"/>
+      <c r="M300" s="286"/>
+      <c r="N300" s="286"/>
+      <c r="O300" s="286"/>
+      <c r="P300" s="289"/>
+      <c r="Q300" s="289"/>
+      <c r="R300" s="289"/>
+      <c r="S300" s="289"/>
+      <c r="T300" s="289"/>
+      <c r="U300" s="289"/>
+      <c r="V300" s="289"/>
+      <c r="W300" s="289"/>
+      <c r="X300" s="289"/>
+      <c r="Y300" s="289"/>
+      <c r="Z300" s="289"/>
+      <c r="AA300" s="289"/>
+      <c r="AB300" s="289"/>
+      <c r="AC300" s="289"/>
+      <c r="AD300" s="289"/>
+      <c r="AE300" s="286"/>
+      <c r="AF300" s="286"/>
+      <c r="AG300" s="286"/>
+      <c r="AH300" s="286"/>
+      <c r="AI300" s="286"/>
+      <c r="AJ300" s="286"/>
+      <c r="AK300" s="286"/>
+      <c r="AL300" s="286"/>
+      <c r="AM300" s="286"/>
+      <c r="AN300" s="286"/>
+      <c r="AO300" s="286"/>
+      <c r="AP300" s="286"/>
+      <c r="AQ300" s="286"/>
+      <c r="AR300" s="286"/>
+      <c r="AS300" s="286"/>
+      <c r="AT300" s="292"/>
       <c r="AU300" s="64"/>
       <c r="AV300" s="40"/>
       <c r="AW300" s="40"/>
@@ -65545,8 +65787,8 @@
       <c r="BF300" s="195"/>
     </row>
     <row r="301" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="236"/>
-      <c r="B301" s="237"/>
+      <c r="A301" s="294"/>
+      <c r="B301" s="295"/>
       <c r="C301" s="78"/>
       <c r="D301" s="157" t="s">
         <v>417</v>
@@ -65555,46 +65797,46 @@
         <v>1131</v>
       </c>
       <c r="F301" s="78"/>
-      <c r="G301" s="243"/>
-      <c r="H301" s="243"/>
-      <c r="I301" s="243"/>
-      <c r="J301" s="243"/>
-      <c r="K301" s="243"/>
-      <c r="L301" s="243"/>
-      <c r="M301" s="243"/>
-      <c r="N301" s="243"/>
-      <c r="O301" s="243"/>
-      <c r="P301" s="246"/>
-      <c r="Q301" s="246"/>
-      <c r="R301" s="246"/>
-      <c r="S301" s="246"/>
-      <c r="T301" s="246"/>
-      <c r="U301" s="246"/>
-      <c r="V301" s="246"/>
-      <c r="W301" s="246"/>
-      <c r="X301" s="246"/>
-      <c r="Y301" s="246"/>
-      <c r="Z301" s="246"/>
-      <c r="AA301" s="246"/>
-      <c r="AB301" s="246"/>
-      <c r="AC301" s="246"/>
-      <c r="AD301" s="246"/>
-      <c r="AE301" s="243"/>
-      <c r="AF301" s="243"/>
-      <c r="AG301" s="243"/>
-      <c r="AH301" s="243"/>
-      <c r="AI301" s="243"/>
-      <c r="AJ301" s="243"/>
-      <c r="AK301" s="243"/>
-      <c r="AL301" s="243"/>
-      <c r="AM301" s="243"/>
-      <c r="AN301" s="243"/>
-      <c r="AO301" s="243"/>
-      <c r="AP301" s="243"/>
-      <c r="AQ301" s="243"/>
-      <c r="AR301" s="243"/>
-      <c r="AS301" s="243"/>
-      <c r="AT301" s="234"/>
+      <c r="G301" s="286"/>
+      <c r="H301" s="286"/>
+      <c r="I301" s="286"/>
+      <c r="J301" s="286"/>
+      <c r="K301" s="286"/>
+      <c r="L301" s="286"/>
+      <c r="M301" s="286"/>
+      <c r="N301" s="286"/>
+      <c r="O301" s="286"/>
+      <c r="P301" s="289"/>
+      <c r="Q301" s="289"/>
+      <c r="R301" s="289"/>
+      <c r="S301" s="289"/>
+      <c r="T301" s="289"/>
+      <c r="U301" s="289"/>
+      <c r="V301" s="289"/>
+      <c r="W301" s="289"/>
+      <c r="X301" s="289"/>
+      <c r="Y301" s="289"/>
+      <c r="Z301" s="289"/>
+      <c r="AA301" s="289"/>
+      <c r="AB301" s="289"/>
+      <c r="AC301" s="289"/>
+      <c r="AD301" s="289"/>
+      <c r="AE301" s="286"/>
+      <c r="AF301" s="286"/>
+      <c r="AG301" s="286"/>
+      <c r="AH301" s="286"/>
+      <c r="AI301" s="286"/>
+      <c r="AJ301" s="286"/>
+      <c r="AK301" s="286"/>
+      <c r="AL301" s="286"/>
+      <c r="AM301" s="286"/>
+      <c r="AN301" s="286"/>
+      <c r="AO301" s="286"/>
+      <c r="AP301" s="286"/>
+      <c r="AQ301" s="286"/>
+      <c r="AR301" s="286"/>
+      <c r="AS301" s="286"/>
+      <c r="AT301" s="292"/>
       <c r="AU301" s="64"/>
       <c r="AV301" s="40"/>
       <c r="AW301" s="40"/>
@@ -65623,54 +65865,54 @@
       <c r="BF301" s="195"/>
     </row>
     <row r="302" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="236"/>
-      <c r="B302" s="237"/>
+      <c r="A302" s="294"/>
+      <c r="B302" s="295"/>
       <c r="C302" s="78"/>
       <c r="D302" s="157" t="s">
         <v>418</v>
       </c>
       <c r="E302" s="35"/>
       <c r="F302" s="78"/>
-      <c r="G302" s="243"/>
-      <c r="H302" s="243"/>
-      <c r="I302" s="243"/>
-      <c r="J302" s="243"/>
-      <c r="K302" s="243"/>
-      <c r="L302" s="243"/>
-      <c r="M302" s="243"/>
-      <c r="N302" s="243"/>
-      <c r="O302" s="243"/>
-      <c r="P302" s="246"/>
-      <c r="Q302" s="246"/>
-      <c r="R302" s="246"/>
-      <c r="S302" s="246"/>
-      <c r="T302" s="246"/>
-      <c r="U302" s="246"/>
-      <c r="V302" s="246"/>
-      <c r="W302" s="246"/>
-      <c r="X302" s="246"/>
-      <c r="Y302" s="246"/>
-      <c r="Z302" s="246"/>
-      <c r="AA302" s="246"/>
-      <c r="AB302" s="246"/>
-      <c r="AC302" s="246"/>
-      <c r="AD302" s="246"/>
-      <c r="AE302" s="243"/>
-      <c r="AF302" s="243"/>
-      <c r="AG302" s="243"/>
-      <c r="AH302" s="243"/>
-      <c r="AI302" s="243"/>
-      <c r="AJ302" s="243"/>
-      <c r="AK302" s="243"/>
-      <c r="AL302" s="243"/>
-      <c r="AM302" s="243"/>
-      <c r="AN302" s="243"/>
-      <c r="AO302" s="243"/>
-      <c r="AP302" s="243"/>
-      <c r="AQ302" s="243"/>
-      <c r="AR302" s="243"/>
-      <c r="AS302" s="243"/>
-      <c r="AT302" s="234"/>
+      <c r="G302" s="286"/>
+      <c r="H302" s="286"/>
+      <c r="I302" s="286"/>
+      <c r="J302" s="286"/>
+      <c r="K302" s="286"/>
+      <c r="L302" s="286"/>
+      <c r="M302" s="286"/>
+      <c r="N302" s="286"/>
+      <c r="O302" s="286"/>
+      <c r="P302" s="289"/>
+      <c r="Q302" s="289"/>
+      <c r="R302" s="289"/>
+      <c r="S302" s="289"/>
+      <c r="T302" s="289"/>
+      <c r="U302" s="289"/>
+      <c r="V302" s="289"/>
+      <c r="W302" s="289"/>
+      <c r="X302" s="289"/>
+      <c r="Y302" s="289"/>
+      <c r="Z302" s="289"/>
+      <c r="AA302" s="289"/>
+      <c r="AB302" s="289"/>
+      <c r="AC302" s="289"/>
+      <c r="AD302" s="289"/>
+      <c r="AE302" s="286"/>
+      <c r="AF302" s="286"/>
+      <c r="AG302" s="286"/>
+      <c r="AH302" s="286"/>
+      <c r="AI302" s="286"/>
+      <c r="AJ302" s="286"/>
+      <c r="AK302" s="286"/>
+      <c r="AL302" s="286"/>
+      <c r="AM302" s="286"/>
+      <c r="AN302" s="286"/>
+      <c r="AO302" s="286"/>
+      <c r="AP302" s="286"/>
+      <c r="AQ302" s="286"/>
+      <c r="AR302" s="286"/>
+      <c r="AS302" s="286"/>
+      <c r="AT302" s="292"/>
       <c r="AU302" s="64"/>
       <c r="AV302" s="40"/>
       <c r="AW302" s="40"/>
@@ -65699,54 +65941,54 @@
       <c r="BF302" s="195"/>
     </row>
     <row r="303" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="236"/>
-      <c r="B303" s="237"/>
+      <c r="A303" s="294"/>
+      <c r="B303" s="295"/>
       <c r="C303" s="78"/>
       <c r="D303" s="157" t="s">
         <v>419</v>
       </c>
       <c r="E303" s="35"/>
       <c r="F303" s="78"/>
-      <c r="G303" s="243"/>
-      <c r="H303" s="243"/>
-      <c r="I303" s="243"/>
-      <c r="J303" s="243"/>
-      <c r="K303" s="243"/>
-      <c r="L303" s="243"/>
-      <c r="M303" s="243"/>
-      <c r="N303" s="243"/>
-      <c r="O303" s="243"/>
-      <c r="P303" s="246"/>
-      <c r="Q303" s="246"/>
-      <c r="R303" s="246"/>
-      <c r="S303" s="246"/>
-      <c r="T303" s="246"/>
-      <c r="U303" s="246"/>
-      <c r="V303" s="246"/>
-      <c r="W303" s="246"/>
-      <c r="X303" s="246"/>
-      <c r="Y303" s="246"/>
-      <c r="Z303" s="246"/>
-      <c r="AA303" s="246"/>
-      <c r="AB303" s="246"/>
-      <c r="AC303" s="246"/>
-      <c r="AD303" s="246"/>
-      <c r="AE303" s="243"/>
-      <c r="AF303" s="243"/>
-      <c r="AG303" s="243"/>
-      <c r="AH303" s="243"/>
-      <c r="AI303" s="243"/>
-      <c r="AJ303" s="243"/>
-      <c r="AK303" s="243"/>
-      <c r="AL303" s="243"/>
-      <c r="AM303" s="243"/>
-      <c r="AN303" s="243"/>
-      <c r="AO303" s="243"/>
-      <c r="AP303" s="243"/>
-      <c r="AQ303" s="243"/>
-      <c r="AR303" s="243"/>
-      <c r="AS303" s="243"/>
-      <c r="AT303" s="234"/>
+      <c r="G303" s="286"/>
+      <c r="H303" s="286"/>
+      <c r="I303" s="286"/>
+      <c r="J303" s="286"/>
+      <c r="K303" s="286"/>
+      <c r="L303" s="286"/>
+      <c r="M303" s="286"/>
+      <c r="N303" s="286"/>
+      <c r="O303" s="286"/>
+      <c r="P303" s="289"/>
+      <c r="Q303" s="289"/>
+      <c r="R303" s="289"/>
+      <c r="S303" s="289"/>
+      <c r="T303" s="289"/>
+      <c r="U303" s="289"/>
+      <c r="V303" s="289"/>
+      <c r="W303" s="289"/>
+      <c r="X303" s="289"/>
+      <c r="Y303" s="289"/>
+      <c r="Z303" s="289"/>
+      <c r="AA303" s="289"/>
+      <c r="AB303" s="289"/>
+      <c r="AC303" s="289"/>
+      <c r="AD303" s="289"/>
+      <c r="AE303" s="286"/>
+      <c r="AF303" s="286"/>
+      <c r="AG303" s="286"/>
+      <c r="AH303" s="286"/>
+      <c r="AI303" s="286"/>
+      <c r="AJ303" s="286"/>
+      <c r="AK303" s="286"/>
+      <c r="AL303" s="286"/>
+      <c r="AM303" s="286"/>
+      <c r="AN303" s="286"/>
+      <c r="AO303" s="286"/>
+      <c r="AP303" s="286"/>
+      <c r="AQ303" s="286"/>
+      <c r="AR303" s="286"/>
+      <c r="AS303" s="286"/>
+      <c r="AT303" s="292"/>
       <c r="AU303" s="64"/>
       <c r="AV303" s="40"/>
       <c r="AW303" s="40"/>
@@ -65775,54 +66017,54 @@
       <c r="BF303" s="195"/>
     </row>
     <row r="304" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="238"/>
-      <c r="B304" s="239"/>
+      <c r="A304" s="296"/>
+      <c r="B304" s="297"/>
       <c r="C304" s="79"/>
       <c r="D304" s="160" t="s">
         <v>31</v>
       </c>
       <c r="E304" s="36"/>
       <c r="F304" s="79"/>
-      <c r="G304" s="244"/>
-      <c r="H304" s="244"/>
-      <c r="I304" s="244"/>
-      <c r="J304" s="244"/>
-      <c r="K304" s="244"/>
-      <c r="L304" s="244"/>
-      <c r="M304" s="244"/>
-      <c r="N304" s="244"/>
-      <c r="O304" s="244"/>
-      <c r="P304" s="247"/>
-      <c r="Q304" s="247"/>
-      <c r="R304" s="247"/>
-      <c r="S304" s="247"/>
-      <c r="T304" s="247"/>
-      <c r="U304" s="247"/>
-      <c r="V304" s="247"/>
-      <c r="W304" s="247"/>
-      <c r="X304" s="247"/>
-      <c r="Y304" s="247"/>
-      <c r="Z304" s="247"/>
-      <c r="AA304" s="247"/>
-      <c r="AB304" s="247"/>
-      <c r="AC304" s="247"/>
-      <c r="AD304" s="247"/>
-      <c r="AE304" s="244"/>
-      <c r="AF304" s="244"/>
-      <c r="AG304" s="244"/>
-      <c r="AH304" s="244"/>
-      <c r="AI304" s="244"/>
-      <c r="AJ304" s="244"/>
-      <c r="AK304" s="244"/>
-      <c r="AL304" s="244"/>
-      <c r="AM304" s="244"/>
-      <c r="AN304" s="244"/>
-      <c r="AO304" s="244"/>
-      <c r="AP304" s="244"/>
-      <c r="AQ304" s="244"/>
-      <c r="AR304" s="244"/>
-      <c r="AS304" s="244"/>
-      <c r="AT304" s="235"/>
+      <c r="G304" s="287"/>
+      <c r="H304" s="287"/>
+      <c r="I304" s="287"/>
+      <c r="J304" s="287"/>
+      <c r="K304" s="287"/>
+      <c r="L304" s="287"/>
+      <c r="M304" s="287"/>
+      <c r="N304" s="287"/>
+      <c r="O304" s="287"/>
+      <c r="P304" s="290"/>
+      <c r="Q304" s="290"/>
+      <c r="R304" s="290"/>
+      <c r="S304" s="290"/>
+      <c r="T304" s="290"/>
+      <c r="U304" s="290"/>
+      <c r="V304" s="290"/>
+      <c r="W304" s="290"/>
+      <c r="X304" s="290"/>
+      <c r="Y304" s="290"/>
+      <c r="Z304" s="290"/>
+      <c r="AA304" s="290"/>
+      <c r="AB304" s="290"/>
+      <c r="AC304" s="290"/>
+      <c r="AD304" s="290"/>
+      <c r="AE304" s="287"/>
+      <c r="AF304" s="287"/>
+      <c r="AG304" s="287"/>
+      <c r="AH304" s="287"/>
+      <c r="AI304" s="287"/>
+      <c r="AJ304" s="287"/>
+      <c r="AK304" s="287"/>
+      <c r="AL304" s="287"/>
+      <c r="AM304" s="287"/>
+      <c r="AN304" s="287"/>
+      <c r="AO304" s="287"/>
+      <c r="AP304" s="287"/>
+      <c r="AQ304" s="287"/>
+      <c r="AR304" s="287"/>
+      <c r="AS304" s="287"/>
+      <c r="AT304" s="293"/>
       <c r="AU304" s="64"/>
       <c r="AV304" s="40"/>
       <c r="AW304" s="40"/>
@@ -65851,10 +66093,10 @@
       <c r="BF304" s="195"/>
     </row>
     <row r="305" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="240" t="s">
+      <c r="A305" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="B305" s="241"/>
+      <c r="B305" s="284"/>
       <c r="C305" s="154" t="s">
         <v>421</v>
       </c>
@@ -65867,46 +66109,46 @@
       <c r="F305" s="155" t="s">
         <v>24</v>
       </c>
-      <c r="G305" s="242"/>
-      <c r="H305" s="242"/>
-      <c r="I305" s="242"/>
-      <c r="J305" s="242"/>
-      <c r="K305" s="242"/>
-      <c r="L305" s="242"/>
-      <c r="M305" s="242"/>
-      <c r="N305" s="242"/>
-      <c r="O305" s="242"/>
-      <c r="P305" s="245"/>
-      <c r="Q305" s="245"/>
-      <c r="R305" s="245"/>
-      <c r="S305" s="245"/>
-      <c r="T305" s="245"/>
-      <c r="U305" s="245"/>
-      <c r="V305" s="245"/>
-      <c r="W305" s="245"/>
-      <c r="X305" s="245"/>
-      <c r="Y305" s="245"/>
-      <c r="Z305" s="245"/>
-      <c r="AA305" s="245"/>
-      <c r="AB305" s="245"/>
-      <c r="AC305" s="245"/>
-      <c r="AD305" s="245"/>
-      <c r="AE305" s="242"/>
-      <c r="AF305" s="242"/>
-      <c r="AG305" s="242"/>
-      <c r="AH305" s="242"/>
-      <c r="AI305" s="242"/>
-      <c r="AJ305" s="242"/>
-      <c r="AK305" s="242"/>
-      <c r="AL305" s="242"/>
-      <c r="AM305" s="242"/>
-      <c r="AN305" s="242"/>
-      <c r="AO305" s="242"/>
-      <c r="AP305" s="242"/>
-      <c r="AQ305" s="242"/>
-      <c r="AR305" s="242"/>
-      <c r="AS305" s="242"/>
-      <c r="AT305" s="233"/>
+      <c r="G305" s="285"/>
+      <c r="H305" s="285"/>
+      <c r="I305" s="285"/>
+      <c r="J305" s="285"/>
+      <c r="K305" s="285"/>
+      <c r="L305" s="285"/>
+      <c r="M305" s="285"/>
+      <c r="N305" s="285"/>
+      <c r="O305" s="285"/>
+      <c r="P305" s="288"/>
+      <c r="Q305" s="288"/>
+      <c r="R305" s="288"/>
+      <c r="S305" s="288"/>
+      <c r="T305" s="288"/>
+      <c r="U305" s="288"/>
+      <c r="V305" s="288"/>
+      <c r="W305" s="288"/>
+      <c r="X305" s="288"/>
+      <c r="Y305" s="288"/>
+      <c r="Z305" s="288"/>
+      <c r="AA305" s="288"/>
+      <c r="AB305" s="288"/>
+      <c r="AC305" s="288"/>
+      <c r="AD305" s="288"/>
+      <c r="AE305" s="285"/>
+      <c r="AF305" s="285"/>
+      <c r="AG305" s="285"/>
+      <c r="AH305" s="285"/>
+      <c r="AI305" s="285"/>
+      <c r="AJ305" s="285"/>
+      <c r="AK305" s="285"/>
+      <c r="AL305" s="285"/>
+      <c r="AM305" s="285"/>
+      <c r="AN305" s="285"/>
+      <c r="AO305" s="285"/>
+      <c r="AP305" s="285"/>
+      <c r="AQ305" s="285"/>
+      <c r="AR305" s="285"/>
+      <c r="AS305" s="285"/>
+      <c r="AT305" s="291"/>
       <c r="AU305" s="64"/>
       <c r="AV305" s="40"/>
       <c r="AW305" s="40"/>
@@ -65935,8 +66177,8 @@
       <c r="BF305" s="195"/>
     </row>
     <row r="306" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="236"/>
-      <c r="B306" s="237"/>
+      <c r="A306" s="294"/>
+      <c r="B306" s="295"/>
       <c r="C306" s="78"/>
       <c r="D306" s="157" t="s">
         <v>422</v>
@@ -65945,46 +66187,46 @@
         <v>1135</v>
       </c>
       <c r="F306" s="78"/>
-      <c r="G306" s="243"/>
-      <c r="H306" s="243"/>
-      <c r="I306" s="243"/>
-      <c r="J306" s="243"/>
-      <c r="K306" s="243"/>
-      <c r="L306" s="243"/>
-      <c r="M306" s="243"/>
-      <c r="N306" s="243"/>
-      <c r="O306" s="243"/>
-      <c r="P306" s="246"/>
-      <c r="Q306" s="246"/>
-      <c r="R306" s="246"/>
-      <c r="S306" s="246"/>
-      <c r="T306" s="246"/>
-      <c r="U306" s="246"/>
-      <c r="V306" s="246"/>
-      <c r="W306" s="246"/>
-      <c r="X306" s="246"/>
-      <c r="Y306" s="246"/>
-      <c r="Z306" s="246"/>
-      <c r="AA306" s="246"/>
-      <c r="AB306" s="246"/>
-      <c r="AC306" s="246"/>
-      <c r="AD306" s="246"/>
-      <c r="AE306" s="243"/>
-      <c r="AF306" s="243"/>
-      <c r="AG306" s="243"/>
-      <c r="AH306" s="243"/>
-      <c r="AI306" s="243"/>
-      <c r="AJ306" s="243"/>
-      <c r="AK306" s="243"/>
-      <c r="AL306" s="243"/>
-      <c r="AM306" s="243"/>
-      <c r="AN306" s="243"/>
-      <c r="AO306" s="243"/>
-      <c r="AP306" s="243"/>
-      <c r="AQ306" s="243"/>
-      <c r="AR306" s="243"/>
-      <c r="AS306" s="243"/>
-      <c r="AT306" s="234"/>
+      <c r="G306" s="286"/>
+      <c r="H306" s="286"/>
+      <c r="I306" s="286"/>
+      <c r="J306" s="286"/>
+      <c r="K306" s="286"/>
+      <c r="L306" s="286"/>
+      <c r="M306" s="286"/>
+      <c r="N306" s="286"/>
+      <c r="O306" s="286"/>
+      <c r="P306" s="289"/>
+      <c r="Q306" s="289"/>
+      <c r="R306" s="289"/>
+      <c r="S306" s="289"/>
+      <c r="T306" s="289"/>
+      <c r="U306" s="289"/>
+      <c r="V306" s="289"/>
+      <c r="W306" s="289"/>
+      <c r="X306" s="289"/>
+      <c r="Y306" s="289"/>
+      <c r="Z306" s="289"/>
+      <c r="AA306" s="289"/>
+      <c r="AB306" s="289"/>
+      <c r="AC306" s="289"/>
+      <c r="AD306" s="289"/>
+      <c r="AE306" s="286"/>
+      <c r="AF306" s="286"/>
+      <c r="AG306" s="286"/>
+      <c r="AH306" s="286"/>
+      <c r="AI306" s="286"/>
+      <c r="AJ306" s="286"/>
+      <c r="AK306" s="286"/>
+      <c r="AL306" s="286"/>
+      <c r="AM306" s="286"/>
+      <c r="AN306" s="286"/>
+      <c r="AO306" s="286"/>
+      <c r="AP306" s="286"/>
+      <c r="AQ306" s="286"/>
+      <c r="AR306" s="286"/>
+      <c r="AS306" s="286"/>
+      <c r="AT306" s="292"/>
       <c r="AU306" s="64"/>
       <c r="AV306" s="40"/>
       <c r="AW306" s="40"/>
@@ -66013,8 +66255,8 @@
       <c r="BF306" s="195"/>
     </row>
     <row r="307" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="238"/>
-      <c r="B307" s="239"/>
+      <c r="A307" s="296"/>
+      <c r="B307" s="297"/>
       <c r="C307" s="79"/>
       <c r="D307" s="160" t="s">
         <v>24</v>
@@ -66023,46 +66265,46 @@
         <v>1136</v>
       </c>
       <c r="F307" s="79"/>
-      <c r="G307" s="244"/>
-      <c r="H307" s="244"/>
-      <c r="I307" s="244"/>
-      <c r="J307" s="244"/>
-      <c r="K307" s="244"/>
-      <c r="L307" s="244"/>
-      <c r="M307" s="244"/>
-      <c r="N307" s="244"/>
-      <c r="O307" s="244"/>
-      <c r="P307" s="247"/>
-      <c r="Q307" s="247"/>
-      <c r="R307" s="247"/>
-      <c r="S307" s="247"/>
-      <c r="T307" s="247"/>
-      <c r="U307" s="247"/>
-      <c r="V307" s="247"/>
-      <c r="W307" s="247"/>
-      <c r="X307" s="247"/>
-      <c r="Y307" s="247"/>
-      <c r="Z307" s="247"/>
-      <c r="AA307" s="247"/>
-      <c r="AB307" s="247"/>
-      <c r="AC307" s="247"/>
-      <c r="AD307" s="247"/>
-      <c r="AE307" s="244"/>
-      <c r="AF307" s="244"/>
-      <c r="AG307" s="244"/>
-      <c r="AH307" s="244"/>
-      <c r="AI307" s="244"/>
-      <c r="AJ307" s="244"/>
-      <c r="AK307" s="244"/>
-      <c r="AL307" s="244"/>
-      <c r="AM307" s="244"/>
-      <c r="AN307" s="244"/>
-      <c r="AO307" s="244"/>
-      <c r="AP307" s="244"/>
-      <c r="AQ307" s="244"/>
-      <c r="AR307" s="244"/>
-      <c r="AS307" s="244"/>
-      <c r="AT307" s="235"/>
+      <c r="G307" s="287"/>
+      <c r="H307" s="287"/>
+      <c r="I307" s="287"/>
+      <c r="J307" s="287"/>
+      <c r="K307" s="287"/>
+      <c r="L307" s="287"/>
+      <c r="M307" s="287"/>
+      <c r="N307" s="287"/>
+      <c r="O307" s="287"/>
+      <c r="P307" s="290"/>
+      <c r="Q307" s="290"/>
+      <c r="R307" s="290"/>
+      <c r="S307" s="290"/>
+      <c r="T307" s="290"/>
+      <c r="U307" s="290"/>
+      <c r="V307" s="290"/>
+      <c r="W307" s="290"/>
+      <c r="X307" s="290"/>
+      <c r="Y307" s="290"/>
+      <c r="Z307" s="290"/>
+      <c r="AA307" s="290"/>
+      <c r="AB307" s="290"/>
+      <c r="AC307" s="290"/>
+      <c r="AD307" s="290"/>
+      <c r="AE307" s="287"/>
+      <c r="AF307" s="287"/>
+      <c r="AG307" s="287"/>
+      <c r="AH307" s="287"/>
+      <c r="AI307" s="287"/>
+      <c r="AJ307" s="287"/>
+      <c r="AK307" s="287"/>
+      <c r="AL307" s="287"/>
+      <c r="AM307" s="287"/>
+      <c r="AN307" s="287"/>
+      <c r="AO307" s="287"/>
+      <c r="AP307" s="287"/>
+      <c r="AQ307" s="287"/>
+      <c r="AR307" s="287"/>
+      <c r="AS307" s="287"/>
+      <c r="AT307" s="293"/>
       <c r="AU307" s="64"/>
       <c r="AV307" s="40"/>
       <c r="AW307" s="40"/>
@@ -66091,10 +66333,10 @@
       <c r="BF307" s="195"/>
     </row>
     <row r="308" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="240" t="s">
+      <c r="A308" s="283" t="s">
         <v>14</v>
       </c>
-      <c r="B308" s="241"/>
+      <c r="B308" s="284"/>
       <c r="C308" s="154" t="s">
         <v>423</v>
       </c>
@@ -66107,46 +66349,46 @@
       <c r="F308" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="G308" s="242"/>
-      <c r="H308" s="242"/>
-      <c r="I308" s="242"/>
-      <c r="J308" s="242"/>
-      <c r="K308" s="242"/>
-      <c r="L308" s="242"/>
-      <c r="M308" s="242"/>
-      <c r="N308" s="242"/>
-      <c r="O308" s="242"/>
-      <c r="P308" s="245"/>
-      <c r="Q308" s="245"/>
-      <c r="R308" s="245"/>
-      <c r="S308" s="245"/>
-      <c r="T308" s="245"/>
-      <c r="U308" s="245"/>
-      <c r="V308" s="245"/>
-      <c r="W308" s="245"/>
-      <c r="X308" s="245"/>
-      <c r="Y308" s="245"/>
-      <c r="Z308" s="245"/>
-      <c r="AA308" s="245"/>
-      <c r="AB308" s="245"/>
-      <c r="AC308" s="245"/>
-      <c r="AD308" s="245"/>
-      <c r="AE308" s="242"/>
-      <c r="AF308" s="242"/>
-      <c r="AG308" s="242"/>
-      <c r="AH308" s="242"/>
-      <c r="AI308" s="242"/>
-      <c r="AJ308" s="242"/>
-      <c r="AK308" s="242"/>
-      <c r="AL308" s="242"/>
-      <c r="AM308" s="242"/>
-      <c r="AN308" s="242"/>
-      <c r="AO308" s="242"/>
-      <c r="AP308" s="242"/>
-      <c r="AQ308" s="242"/>
-      <c r="AR308" s="242"/>
-      <c r="AS308" s="242"/>
-      <c r="AT308" s="233"/>
+      <c r="G308" s="285"/>
+      <c r="H308" s="285"/>
+      <c r="I308" s="285"/>
+      <c r="J308" s="285"/>
+      <c r="K308" s="285"/>
+      <c r="L308" s="285"/>
+      <c r="M308" s="285"/>
+      <c r="N308" s="285"/>
+      <c r="O308" s="285"/>
+      <c r="P308" s="288"/>
+      <c r="Q308" s="288"/>
+      <c r="R308" s="288"/>
+      <c r="S308" s="288"/>
+      <c r="T308" s="288"/>
+      <c r="U308" s="288"/>
+      <c r="V308" s="288"/>
+      <c r="W308" s="288"/>
+      <c r="X308" s="288"/>
+      <c r="Y308" s="288"/>
+      <c r="Z308" s="288"/>
+      <c r="AA308" s="288"/>
+      <c r="AB308" s="288"/>
+      <c r="AC308" s="288"/>
+      <c r="AD308" s="288"/>
+      <c r="AE308" s="285"/>
+      <c r="AF308" s="285"/>
+      <c r="AG308" s="285"/>
+      <c r="AH308" s="285"/>
+      <c r="AI308" s="285"/>
+      <c r="AJ308" s="285"/>
+      <c r="AK308" s="285"/>
+      <c r="AL308" s="285"/>
+      <c r="AM308" s="285"/>
+      <c r="AN308" s="285"/>
+      <c r="AO308" s="285"/>
+      <c r="AP308" s="285"/>
+      <c r="AQ308" s="285"/>
+      <c r="AR308" s="285"/>
+      <c r="AS308" s="285"/>
+      <c r="AT308" s="291"/>
       <c r="AU308" s="64"/>
       <c r="AV308" s="40"/>
       <c r="AW308" s="40"/>
@@ -66175,8 +66417,8 @@
       <c r="BF308" s="195"/>
     </row>
     <row r="309" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="236"/>
-      <c r="B309" s="237"/>
+      <c r="A309" s="294"/>
+      <c r="B309" s="295"/>
       <c r="C309" s="78"/>
       <c r="D309" s="157" t="s">
         <v>413</v>
@@ -66185,46 +66427,46 @@
         <v>1135</v>
       </c>
       <c r="F309" s="78"/>
-      <c r="G309" s="243"/>
-      <c r="H309" s="243"/>
-      <c r="I309" s="243"/>
-      <c r="J309" s="243"/>
-      <c r="K309" s="243"/>
-      <c r="L309" s="243"/>
-      <c r="M309" s="243"/>
-      <c r="N309" s="243"/>
-      <c r="O309" s="243"/>
-      <c r="P309" s="246"/>
-      <c r="Q309" s="246"/>
-      <c r="R309" s="246"/>
-      <c r="S309" s="246"/>
-      <c r="T309" s="246"/>
-      <c r="U309" s="246"/>
-      <c r="V309" s="246"/>
-      <c r="W309" s="246"/>
-      <c r="X309" s="246"/>
-      <c r="Y309" s="246"/>
-      <c r="Z309" s="246"/>
-      <c r="AA309" s="246"/>
-      <c r="AB309" s="246"/>
-      <c r="AC309" s="246"/>
-      <c r="AD309" s="246"/>
-      <c r="AE309" s="243"/>
-      <c r="AF309" s="243"/>
-      <c r="AG309" s="243"/>
-      <c r="AH309" s="243"/>
-      <c r="AI309" s="243"/>
-      <c r="AJ309" s="243"/>
-      <c r="AK309" s="243"/>
-      <c r="AL309" s="243"/>
-      <c r="AM309" s="243"/>
-      <c r="AN309" s="243"/>
-      <c r="AO309" s="243"/>
-      <c r="AP309" s="243"/>
-      <c r="AQ309" s="243"/>
-      <c r="AR309" s="243"/>
-      <c r="AS309" s="243"/>
-      <c r="AT309" s="234"/>
+      <c r="G309" s="286"/>
+      <c r="H309" s="286"/>
+      <c r="I309" s="286"/>
+      <c r="J309" s="286"/>
+      <c r="K309" s="286"/>
+      <c r="L309" s="286"/>
+      <c r="M309" s="286"/>
+      <c r="N309" s="286"/>
+      <c r="O309" s="286"/>
+      <c r="P309" s="289"/>
+      <c r="Q309" s="289"/>
+      <c r="R309" s="289"/>
+      <c r="S309" s="289"/>
+      <c r="T309" s="289"/>
+      <c r="U309" s="289"/>
+      <c r="V309" s="289"/>
+      <c r="W309" s="289"/>
+      <c r="X309" s="289"/>
+      <c r="Y309" s="289"/>
+      <c r="Z309" s="289"/>
+      <c r="AA309" s="289"/>
+      <c r="AB309" s="289"/>
+      <c r="AC309" s="289"/>
+      <c r="AD309" s="289"/>
+      <c r="AE309" s="286"/>
+      <c r="AF309" s="286"/>
+      <c r="AG309" s="286"/>
+      <c r="AH309" s="286"/>
+      <c r="AI309" s="286"/>
+      <c r="AJ309" s="286"/>
+      <c r="AK309" s="286"/>
+      <c r="AL309" s="286"/>
+      <c r="AM309" s="286"/>
+      <c r="AN309" s="286"/>
+      <c r="AO309" s="286"/>
+      <c r="AP309" s="286"/>
+      <c r="AQ309" s="286"/>
+      <c r="AR309" s="286"/>
+      <c r="AS309" s="286"/>
+      <c r="AT309" s="292"/>
       <c r="AU309" s="64"/>
       <c r="AV309" s="40"/>
       <c r="AW309" s="40"/>
@@ -66253,8 +66495,8 @@
       <c r="BF309" s="195"/>
     </row>
     <row r="310" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="236"/>
-      <c r="B310" s="237"/>
+      <c r="A310" s="294"/>
+      <c r="B310" s="295"/>
       <c r="C310" s="78"/>
       <c r="D310" s="157" t="s">
         <v>414</v>
@@ -66263,46 +66505,46 @@
         <v>1128</v>
       </c>
       <c r="F310" s="78"/>
-      <c r="G310" s="243"/>
-      <c r="H310" s="243"/>
-      <c r="I310" s="243"/>
-      <c r="J310" s="243"/>
-      <c r="K310" s="243"/>
-      <c r="L310" s="243"/>
-      <c r="M310" s="243"/>
-      <c r="N310" s="243"/>
-      <c r="O310" s="243"/>
-      <c r="P310" s="246"/>
-      <c r="Q310" s="246"/>
-      <c r="R310" s="246"/>
-      <c r="S310" s="246"/>
-      <c r="T310" s="246"/>
-      <c r="U310" s="246"/>
-      <c r="V310" s="246"/>
-      <c r="W310" s="246"/>
-      <c r="X310" s="246"/>
-      <c r="Y310" s="246"/>
-      <c r="Z310" s="246"/>
-      <c r="AA310" s="246"/>
-      <c r="AB310" s="246"/>
-      <c r="AC310" s="246"/>
-      <c r="AD310" s="246"/>
-      <c r="AE310" s="243"/>
-      <c r="AF310" s="243"/>
-      <c r="AG310" s="243"/>
-      <c r="AH310" s="243"/>
-      <c r="AI310" s="243"/>
-      <c r="AJ310" s="243"/>
-      <c r="AK310" s="243"/>
-      <c r="AL310" s="243"/>
-      <c r="AM310" s="243"/>
-      <c r="AN310" s="243"/>
-      <c r="AO310" s="243"/>
-      <c r="AP310" s="243"/>
-      <c r="AQ310" s="243"/>
-      <c r="AR310" s="243"/>
-      <c r="AS310" s="243"/>
-      <c r="AT310" s="234"/>
+      <c r="G310" s="286"/>
+      <c r="H310" s="286"/>
+      <c r="I310" s="286"/>
+      <c r="J310" s="286"/>
+      <c r="K310" s="286"/>
+      <c r="L310" s="286"/>
+      <c r="M310" s="286"/>
+      <c r="N310" s="286"/>
+      <c r="O310" s="286"/>
+      <c r="P310" s="289"/>
+      <c r="Q310" s="289"/>
+      <c r="R310" s="289"/>
+      <c r="S310" s="289"/>
+      <c r="T310" s="289"/>
+      <c r="U310" s="289"/>
+      <c r="V310" s="289"/>
+      <c r="W310" s="289"/>
+      <c r="X310" s="289"/>
+      <c r="Y310" s="289"/>
+      <c r="Z310" s="289"/>
+      <c r="AA310" s="289"/>
+      <c r="AB310" s="289"/>
+      <c r="AC310" s="289"/>
+      <c r="AD310" s="289"/>
+      <c r="AE310" s="286"/>
+      <c r="AF310" s="286"/>
+      <c r="AG310" s="286"/>
+      <c r="AH310" s="286"/>
+      <c r="AI310" s="286"/>
+      <c r="AJ310" s="286"/>
+      <c r="AK310" s="286"/>
+      <c r="AL310" s="286"/>
+      <c r="AM310" s="286"/>
+      <c r="AN310" s="286"/>
+      <c r="AO310" s="286"/>
+      <c r="AP310" s="286"/>
+      <c r="AQ310" s="286"/>
+      <c r="AR310" s="286"/>
+      <c r="AS310" s="286"/>
+      <c r="AT310" s="292"/>
       <c r="AU310" s="64"/>
       <c r="AV310" s="40"/>
       <c r="AW310" s="40"/>
@@ -66331,54 +66573,54 @@
       <c r="BF310" s="195"/>
     </row>
     <row r="311" spans="1:58" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="238"/>
-      <c r="B311" s="239"/>
+      <c r="A311" s="296"/>
+      <c r="B311" s="297"/>
       <c r="C311" s="79"/>
       <c r="D311" s="79"/>
       <c r="E311" s="159" t="s">
         <v>1129</v>
       </c>
       <c r="F311" s="79"/>
-      <c r="G311" s="244"/>
-      <c r="H311" s="244"/>
-      <c r="I311" s="244"/>
-      <c r="J311" s="244"/>
-      <c r="K311" s="244"/>
-      <c r="L311" s="244"/>
-      <c r="M311" s="244"/>
-      <c r="N311" s="244"/>
-      <c r="O311" s="244"/>
-      <c r="P311" s="247"/>
-      <c r="Q311" s="247"/>
-      <c r="R311" s="247"/>
-      <c r="S311" s="247"/>
-      <c r="T311" s="247"/>
-      <c r="U311" s="247"/>
-      <c r="V311" s="247"/>
-      <c r="W311" s="247"/>
-      <c r="X311" s="247"/>
-      <c r="Y311" s="247"/>
-      <c r="Z311" s="247"/>
-      <c r="AA311" s="247"/>
-      <c r="AB311" s="247"/>
-      <c r="AC311" s="247"/>
-      <c r="AD311" s="247"/>
-      <c r="AE311" s="244"/>
-      <c r="AF311" s="244"/>
-      <c r="AG311" s="244"/>
-      <c r="AH311" s="244"/>
-      <c r="AI311" s="244"/>
-      <c r="AJ311" s="244"/>
-      <c r="AK311" s="244"/>
-      <c r="AL311" s="244"/>
-      <c r="AM311" s="244"/>
-      <c r="AN311" s="244"/>
-      <c r="AO311" s="244"/>
-      <c r="AP311" s="244"/>
-      <c r="AQ311" s="244"/>
-      <c r="AR311" s="244"/>
-      <c r="AS311" s="244"/>
-      <c r="AT311" s="235"/>
+      <c r="G311" s="287"/>
+      <c r="H311" s="287"/>
+      <c r="I311" s="287"/>
+      <c r="J311" s="287"/>
+      <c r="K311" s="287"/>
+      <c r="L311" s="287"/>
+      <c r="M311" s="287"/>
+      <c r="N311" s="287"/>
+      <c r="O311" s="287"/>
+      <c r="P311" s="290"/>
+      <c r="Q311" s="290"/>
+      <c r="R311" s="290"/>
+      <c r="S311" s="290"/>
+      <c r="T311" s="290"/>
+      <c r="U311" s="290"/>
+      <c r="V311" s="290"/>
+      <c r="W311" s="290"/>
+      <c r="X311" s="290"/>
+      <c r="Y311" s="290"/>
+      <c r="Z311" s="290"/>
+      <c r="AA311" s="290"/>
+      <c r="AB311" s="290"/>
+      <c r="AC311" s="290"/>
+      <c r="AD311" s="290"/>
+      <c r="AE311" s="287"/>
+      <c r="AF311" s="287"/>
+      <c r="AG311" s="287"/>
+      <c r="AH311" s="287"/>
+      <c r="AI311" s="287"/>
+      <c r="AJ311" s="287"/>
+      <c r="AK311" s="287"/>
+      <c r="AL311" s="287"/>
+      <c r="AM311" s="287"/>
+      <c r="AN311" s="287"/>
+      <c r="AO311" s="287"/>
+      <c r="AP311" s="287"/>
+      <c r="AQ311" s="287"/>
+      <c r="AR311" s="287"/>
+      <c r="AS311" s="287"/>
+      <c r="AT311" s="293"/>
       <c r="AU311" s="64"/>
       <c r="AY311" s="77" t="s">
         <v>1315</v>
@@ -66408,374 +66650,256 @@
       <c r="BF312" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="628">
-    <mergeCell ref="BG231:BH231"/>
-    <mergeCell ref="BG232:BH232"/>
-    <mergeCell ref="BG233:BH233"/>
-    <mergeCell ref="BG234:BH234"/>
-    <mergeCell ref="BG235:BH235"/>
-    <mergeCell ref="BG236:BH236"/>
-    <mergeCell ref="BG238:BH238"/>
-    <mergeCell ref="BG239:BI239"/>
-    <mergeCell ref="BG227:BH227"/>
-    <mergeCell ref="BG228:BI228"/>
-    <mergeCell ref="BG214:BH214"/>
-    <mergeCell ref="BG215:BH215"/>
-    <mergeCell ref="BG217:BI217"/>
-    <mergeCell ref="BG218:BI218"/>
-    <mergeCell ref="BG222:BI222"/>
-    <mergeCell ref="BG223:BH223"/>
-    <mergeCell ref="BG224:BI224"/>
-    <mergeCell ref="BG225:BH225"/>
-    <mergeCell ref="BG226:BH226"/>
-    <mergeCell ref="BG206:BH206"/>
-    <mergeCell ref="BG207:BH207"/>
-    <mergeCell ref="BG209:BH209"/>
-    <mergeCell ref="BG210:BH210"/>
-    <mergeCell ref="BG212:BI212"/>
-    <mergeCell ref="BG213:BI213"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BK3:BM3"/>
-    <mergeCell ref="BN3:BO3"/>
-    <mergeCell ref="BG163:BH163"/>
-    <mergeCell ref="BG44:BI44"/>
-    <mergeCell ref="BG45:BI45"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BG46:BI46"/>
-    <mergeCell ref="BG90:BH90"/>
-    <mergeCell ref="BG91:BH91"/>
-    <mergeCell ref="BG92:BH92"/>
-    <mergeCell ref="BI91:BJ91"/>
-    <mergeCell ref="BG164:BH164"/>
-    <mergeCell ref="BI206:BJ206"/>
-    <mergeCell ref="BI207:BJ207"/>
-    <mergeCell ref="AV8:AX8"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="BB2:BE2"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AY1:BE1"/>
-    <mergeCell ref="BF1:BF4"/>
-    <mergeCell ref="BB3:BB4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="AV1:AX1"/>
-    <mergeCell ref="AV3:AV4"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="G283:G289"/>
-    <mergeCell ref="H283:H289"/>
-    <mergeCell ref="I283:I289"/>
-    <mergeCell ref="J283:J289"/>
-    <mergeCell ref="K283:K289"/>
-    <mergeCell ref="L283:L289"/>
-    <mergeCell ref="M283:M289"/>
-    <mergeCell ref="N283:N289"/>
-    <mergeCell ref="AB283:AB289"/>
-    <mergeCell ref="AC283:AC289"/>
-    <mergeCell ref="AD283:AD289"/>
-    <mergeCell ref="AE283:AE289"/>
-    <mergeCell ref="AF283:AF289"/>
-    <mergeCell ref="O283:O289"/>
-    <mergeCell ref="P283:P289"/>
-    <mergeCell ref="Q283:Q289"/>
-    <mergeCell ref="R283:R289"/>
-    <mergeCell ref="S283:S289"/>
-    <mergeCell ref="T283:T289"/>
-    <mergeCell ref="U283:U289"/>
-    <mergeCell ref="V283:V289"/>
-    <mergeCell ref="W283:W289"/>
+  <mergeCells count="640">
+    <mergeCell ref="BG273:BH273"/>
+    <mergeCell ref="BG274:BH274"/>
+    <mergeCell ref="BG275:BH275"/>
+    <mergeCell ref="BG240:BI240"/>
+    <mergeCell ref="BG241:BI241"/>
+    <mergeCell ref="BG242:BI242"/>
+    <mergeCell ref="BG243:BH243"/>
+    <mergeCell ref="BG244:BI244"/>
+    <mergeCell ref="BG246:BI246"/>
+    <mergeCell ref="BG247:BI247"/>
+    <mergeCell ref="BG269:BH269"/>
+    <mergeCell ref="BG272:BH272"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AT305:AT307"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="G308:G311"/>
+    <mergeCell ref="H308:H311"/>
+    <mergeCell ref="I308:I311"/>
+    <mergeCell ref="J308:J311"/>
+    <mergeCell ref="K308:K311"/>
+    <mergeCell ref="L308:L311"/>
+    <mergeCell ref="AO308:AO311"/>
+    <mergeCell ref="AP308:AP311"/>
+    <mergeCell ref="AQ308:AQ311"/>
+    <mergeCell ref="AR308:AR311"/>
+    <mergeCell ref="AS308:AS311"/>
+    <mergeCell ref="AT308:AT311"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="AF308:AF311"/>
+    <mergeCell ref="AG308:AG311"/>
+    <mergeCell ref="AH308:AH311"/>
+    <mergeCell ref="AI308:AI311"/>
+    <mergeCell ref="AJ308:AJ311"/>
+    <mergeCell ref="AK308:AK311"/>
+    <mergeCell ref="AL308:AL311"/>
+    <mergeCell ref="AM308:AM311"/>
+    <mergeCell ref="AN308:AN311"/>
+    <mergeCell ref="M308:M311"/>
+    <mergeCell ref="N308:N311"/>
+    <mergeCell ref="O308:O311"/>
+    <mergeCell ref="P308:P311"/>
+    <mergeCell ref="Q308:Q311"/>
+    <mergeCell ref="R308:R311"/>
+    <mergeCell ref="S308:S311"/>
+    <mergeCell ref="T308:T311"/>
+    <mergeCell ref="U308:U311"/>
+    <mergeCell ref="AD308:AD311"/>
+    <mergeCell ref="AE308:AE311"/>
+    <mergeCell ref="AF305:AF307"/>
+    <mergeCell ref="AG305:AG307"/>
+    <mergeCell ref="AH305:AH307"/>
+    <mergeCell ref="AI305:AI307"/>
+    <mergeCell ref="AJ305:AJ307"/>
+    <mergeCell ref="AK305:AK307"/>
+    <mergeCell ref="AL305:AL307"/>
+    <mergeCell ref="AM305:AM307"/>
+    <mergeCell ref="AN305:AN307"/>
+    <mergeCell ref="Z305:Z307"/>
+    <mergeCell ref="AA305:AA307"/>
+    <mergeCell ref="AB305:AB307"/>
+    <mergeCell ref="AC305:AC307"/>
+    <mergeCell ref="AD305:AD307"/>
+    <mergeCell ref="AE305:AE307"/>
+    <mergeCell ref="V308:V311"/>
+    <mergeCell ref="W308:W311"/>
+    <mergeCell ref="X308:X311"/>
+    <mergeCell ref="Y308:Y311"/>
+    <mergeCell ref="Z308:Z311"/>
+    <mergeCell ref="AA308:AA311"/>
+    <mergeCell ref="AB308:AB311"/>
+    <mergeCell ref="AC308:AC311"/>
+    <mergeCell ref="X305:X307"/>
+    <mergeCell ref="Y305:Y307"/>
+    <mergeCell ref="AT299:AT304"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="G305:G307"/>
+    <mergeCell ref="H305:H307"/>
+    <mergeCell ref="I305:I307"/>
+    <mergeCell ref="J305:J307"/>
+    <mergeCell ref="K305:K307"/>
+    <mergeCell ref="L305:L307"/>
+    <mergeCell ref="M305:M307"/>
+    <mergeCell ref="N305:N307"/>
+    <mergeCell ref="O305:O307"/>
+    <mergeCell ref="P305:P307"/>
+    <mergeCell ref="Q305:Q307"/>
+    <mergeCell ref="R305:R307"/>
+    <mergeCell ref="S305:S307"/>
+    <mergeCell ref="T305:T307"/>
+    <mergeCell ref="U305:U307"/>
+    <mergeCell ref="V305:V307"/>
+    <mergeCell ref="W305:W307"/>
+    <mergeCell ref="AO305:AO307"/>
+    <mergeCell ref="AP305:AP307"/>
+    <mergeCell ref="AN299:AN304"/>
+    <mergeCell ref="AO299:AO304"/>
+    <mergeCell ref="AP299:AP304"/>
+    <mergeCell ref="AQ299:AQ304"/>
+    <mergeCell ref="AQ305:AQ307"/>
+    <mergeCell ref="AR299:AR304"/>
+    <mergeCell ref="AS299:AS304"/>
+    <mergeCell ref="AR305:AR307"/>
+    <mergeCell ref="AS305:AS307"/>
+    <mergeCell ref="AL299:AL304"/>
+    <mergeCell ref="AM299:AM304"/>
+    <mergeCell ref="AE299:AE304"/>
+    <mergeCell ref="AF299:AF304"/>
+    <mergeCell ref="AG299:AG304"/>
+    <mergeCell ref="AH299:AH304"/>
+    <mergeCell ref="AI299:AI304"/>
+    <mergeCell ref="AJ299:AJ304"/>
+    <mergeCell ref="AK299:AK304"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="G299:G304"/>
+    <mergeCell ref="H299:H304"/>
+    <mergeCell ref="I299:I304"/>
+    <mergeCell ref="J299:J304"/>
+    <mergeCell ref="K299:K304"/>
+    <mergeCell ref="L299:L304"/>
+    <mergeCell ref="M299:M304"/>
+    <mergeCell ref="N299:N304"/>
+    <mergeCell ref="O299:O304"/>
+    <mergeCell ref="P299:P304"/>
+    <mergeCell ref="Q299:Q304"/>
+    <mergeCell ref="R299:R304"/>
+    <mergeCell ref="S299:S304"/>
+    <mergeCell ref="T299:T304"/>
+    <mergeCell ref="U299:U304"/>
+    <mergeCell ref="V299:V304"/>
+    <mergeCell ref="AD299:AD304"/>
+    <mergeCell ref="W299:W304"/>
+    <mergeCell ref="X299:X304"/>
+    <mergeCell ref="Y299:Y304"/>
+    <mergeCell ref="Z299:Z304"/>
+    <mergeCell ref="AA299:AA304"/>
+    <mergeCell ref="AB299:AB304"/>
+    <mergeCell ref="AC299:AC304"/>
+    <mergeCell ref="AT294:AT298"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="AE294:AE298"/>
+    <mergeCell ref="AF294:AF298"/>
+    <mergeCell ref="AG294:AG298"/>
+    <mergeCell ref="AH294:AH298"/>
+    <mergeCell ref="AI294:AI298"/>
+    <mergeCell ref="AJ294:AJ298"/>
+    <mergeCell ref="AK294:AK298"/>
+    <mergeCell ref="AL294:AL298"/>
+    <mergeCell ref="AM294:AM298"/>
+    <mergeCell ref="V294:V298"/>
+    <mergeCell ref="W294:W298"/>
+    <mergeCell ref="X294:X298"/>
+    <mergeCell ref="Y294:Y298"/>
+    <mergeCell ref="Z294:Z298"/>
+    <mergeCell ref="AA294:AA298"/>
+    <mergeCell ref="AB294:AB298"/>
+    <mergeCell ref="AC294:AC298"/>
+    <mergeCell ref="AD294:AD298"/>
+    <mergeCell ref="AN294:AN298"/>
+    <mergeCell ref="AP290:AP293"/>
+    <mergeCell ref="AQ290:AQ293"/>
+    <mergeCell ref="AR290:AR293"/>
+    <mergeCell ref="AS290:AS293"/>
+    <mergeCell ref="AK290:AK293"/>
+    <mergeCell ref="AL290:AL293"/>
+    <mergeCell ref="AM290:AM293"/>
+    <mergeCell ref="AN290:AN293"/>
+    <mergeCell ref="AO290:AO293"/>
+    <mergeCell ref="AO294:AO298"/>
+    <mergeCell ref="AP294:AP298"/>
+    <mergeCell ref="AQ294:AQ298"/>
+    <mergeCell ref="AR294:AR298"/>
+    <mergeCell ref="AS294:AS298"/>
+    <mergeCell ref="AT290:AT293"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="G294:G298"/>
+    <mergeCell ref="H294:H298"/>
+    <mergeCell ref="I294:I298"/>
+    <mergeCell ref="J294:J298"/>
+    <mergeCell ref="K294:K298"/>
+    <mergeCell ref="L294:L298"/>
+    <mergeCell ref="M294:M298"/>
+    <mergeCell ref="N294:N298"/>
+    <mergeCell ref="O294:O298"/>
+    <mergeCell ref="P294:P298"/>
+    <mergeCell ref="Q294:Q298"/>
+    <mergeCell ref="R294:R298"/>
+    <mergeCell ref="S294:S298"/>
+    <mergeCell ref="T294:T298"/>
+    <mergeCell ref="U294:U298"/>
+    <mergeCell ref="AG290:AG293"/>
+    <mergeCell ref="AH290:AH293"/>
+    <mergeCell ref="AI290:AI293"/>
+    <mergeCell ref="AJ290:AJ293"/>
+    <mergeCell ref="X290:X293"/>
+    <mergeCell ref="Y290:Y293"/>
+    <mergeCell ref="Z290:Z293"/>
+    <mergeCell ref="AA290:AA293"/>
+    <mergeCell ref="AB290:AB293"/>
+    <mergeCell ref="AC290:AC293"/>
+    <mergeCell ref="AD290:AD293"/>
+    <mergeCell ref="AE290:AE293"/>
+    <mergeCell ref="AF290:AF293"/>
+    <mergeCell ref="O290:O293"/>
+    <mergeCell ref="P290:P293"/>
+    <mergeCell ref="Q290:Q293"/>
+    <mergeCell ref="R290:R293"/>
+    <mergeCell ref="S290:S293"/>
+    <mergeCell ref="T290:T293"/>
+    <mergeCell ref="U290:U293"/>
+    <mergeCell ref="V290:V293"/>
+    <mergeCell ref="W290:W293"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="G290:G293"/>
+    <mergeCell ref="H290:H293"/>
+    <mergeCell ref="I290:I293"/>
+    <mergeCell ref="J290:J293"/>
+    <mergeCell ref="K290:K293"/>
+    <mergeCell ref="L290:L293"/>
+    <mergeCell ref="M290:M293"/>
+    <mergeCell ref="N290:N293"/>
     <mergeCell ref="AP283:AP289"/>
     <mergeCell ref="AQ283:AQ289"/>
     <mergeCell ref="AR283:AR289"/>
@@ -66800,243 +66924,373 @@
     <mergeCell ref="Y283:Y289"/>
     <mergeCell ref="Z283:Z289"/>
     <mergeCell ref="AA283:AA289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="G290:G293"/>
-    <mergeCell ref="H290:H293"/>
-    <mergeCell ref="I290:I293"/>
-    <mergeCell ref="J290:J293"/>
-    <mergeCell ref="K290:K293"/>
-    <mergeCell ref="L290:L293"/>
-    <mergeCell ref="M290:M293"/>
-    <mergeCell ref="N290:N293"/>
-    <mergeCell ref="O290:O293"/>
-    <mergeCell ref="P290:P293"/>
-    <mergeCell ref="Q290:Q293"/>
-    <mergeCell ref="R290:R293"/>
-    <mergeCell ref="S290:S293"/>
-    <mergeCell ref="T290:T293"/>
-    <mergeCell ref="U290:U293"/>
-    <mergeCell ref="V290:V293"/>
-    <mergeCell ref="W290:W293"/>
-    <mergeCell ref="U294:U298"/>
-    <mergeCell ref="AG290:AG293"/>
-    <mergeCell ref="AH290:AH293"/>
-    <mergeCell ref="AI290:AI293"/>
-    <mergeCell ref="AJ290:AJ293"/>
-    <mergeCell ref="X290:X293"/>
-    <mergeCell ref="Y290:Y293"/>
-    <mergeCell ref="Z290:Z293"/>
-    <mergeCell ref="AA290:AA293"/>
-    <mergeCell ref="AB290:AB293"/>
-    <mergeCell ref="AC290:AC293"/>
-    <mergeCell ref="AD290:AD293"/>
-    <mergeCell ref="AE290:AE293"/>
-    <mergeCell ref="AF290:AF293"/>
-    <mergeCell ref="AO294:AO298"/>
-    <mergeCell ref="AP294:AP298"/>
-    <mergeCell ref="AQ294:AQ298"/>
-    <mergeCell ref="AR294:AR298"/>
-    <mergeCell ref="AS294:AS298"/>
-    <mergeCell ref="AT290:AT293"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="G294:G298"/>
-    <mergeCell ref="H294:H298"/>
-    <mergeCell ref="I294:I298"/>
-    <mergeCell ref="J294:J298"/>
-    <mergeCell ref="K294:K298"/>
-    <mergeCell ref="L294:L298"/>
-    <mergeCell ref="M294:M298"/>
-    <mergeCell ref="N294:N298"/>
-    <mergeCell ref="O294:O298"/>
-    <mergeCell ref="P294:P298"/>
-    <mergeCell ref="Q294:Q298"/>
-    <mergeCell ref="R294:R298"/>
-    <mergeCell ref="S294:S298"/>
-    <mergeCell ref="T294:T298"/>
-    <mergeCell ref="AP290:AP293"/>
-    <mergeCell ref="AQ290:AQ293"/>
-    <mergeCell ref="AR290:AR293"/>
-    <mergeCell ref="AS290:AS293"/>
-    <mergeCell ref="AK290:AK293"/>
-    <mergeCell ref="AL290:AL293"/>
-    <mergeCell ref="AM290:AM293"/>
-    <mergeCell ref="AN290:AN293"/>
-    <mergeCell ref="AO290:AO293"/>
-    <mergeCell ref="AT294:AT298"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="AE294:AE298"/>
-    <mergeCell ref="AF294:AF298"/>
-    <mergeCell ref="AG294:AG298"/>
-    <mergeCell ref="AH294:AH298"/>
-    <mergeCell ref="AI294:AI298"/>
-    <mergeCell ref="AJ294:AJ298"/>
-    <mergeCell ref="AK294:AK298"/>
-    <mergeCell ref="AL294:AL298"/>
-    <mergeCell ref="AM294:AM298"/>
-    <mergeCell ref="V294:V298"/>
-    <mergeCell ref="W294:W298"/>
-    <mergeCell ref="X294:X298"/>
-    <mergeCell ref="Y294:Y298"/>
-    <mergeCell ref="Z294:Z298"/>
-    <mergeCell ref="AA294:AA298"/>
-    <mergeCell ref="AB294:AB298"/>
-    <mergeCell ref="AC294:AC298"/>
-    <mergeCell ref="AD294:AD298"/>
-    <mergeCell ref="AN294:AN298"/>
-    <mergeCell ref="O299:O304"/>
-    <mergeCell ref="P299:P304"/>
-    <mergeCell ref="Q299:Q304"/>
-    <mergeCell ref="R299:R304"/>
-    <mergeCell ref="S299:S304"/>
-    <mergeCell ref="T299:T304"/>
-    <mergeCell ref="U299:U304"/>
-    <mergeCell ref="V299:V304"/>
-    <mergeCell ref="AD299:AD304"/>
-    <mergeCell ref="W299:W304"/>
-    <mergeCell ref="X299:X304"/>
-    <mergeCell ref="Y299:Y304"/>
-    <mergeCell ref="Z299:Z304"/>
-    <mergeCell ref="AA299:AA304"/>
-    <mergeCell ref="AB299:AB304"/>
-    <mergeCell ref="AC299:AC304"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="G299:G304"/>
-    <mergeCell ref="H299:H304"/>
-    <mergeCell ref="I299:I304"/>
-    <mergeCell ref="J299:J304"/>
-    <mergeCell ref="K299:K304"/>
-    <mergeCell ref="L299:L304"/>
-    <mergeCell ref="M299:M304"/>
-    <mergeCell ref="N299:N304"/>
-    <mergeCell ref="AL299:AL304"/>
-    <mergeCell ref="AM299:AM304"/>
-    <mergeCell ref="AE299:AE304"/>
-    <mergeCell ref="AF299:AF304"/>
-    <mergeCell ref="AG299:AG304"/>
-    <mergeCell ref="AH299:AH304"/>
-    <mergeCell ref="AI299:AI304"/>
-    <mergeCell ref="AJ299:AJ304"/>
-    <mergeCell ref="AK299:AK304"/>
-    <mergeCell ref="AO305:AO307"/>
-    <mergeCell ref="AP305:AP307"/>
-    <mergeCell ref="AN299:AN304"/>
-    <mergeCell ref="AO299:AO304"/>
-    <mergeCell ref="AP299:AP304"/>
-    <mergeCell ref="AQ299:AQ304"/>
-    <mergeCell ref="AQ305:AQ307"/>
-    <mergeCell ref="AR299:AR304"/>
-    <mergeCell ref="AS299:AS304"/>
-    <mergeCell ref="AR305:AR307"/>
-    <mergeCell ref="AS305:AS307"/>
-    <mergeCell ref="AT299:AT304"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="G305:G307"/>
-    <mergeCell ref="H305:H307"/>
-    <mergeCell ref="I305:I307"/>
-    <mergeCell ref="J305:J307"/>
-    <mergeCell ref="K305:K307"/>
-    <mergeCell ref="L305:L307"/>
-    <mergeCell ref="M305:M307"/>
-    <mergeCell ref="N305:N307"/>
-    <mergeCell ref="O305:O307"/>
-    <mergeCell ref="P305:P307"/>
-    <mergeCell ref="Q305:Q307"/>
-    <mergeCell ref="R305:R307"/>
-    <mergeCell ref="S305:S307"/>
-    <mergeCell ref="T305:T307"/>
-    <mergeCell ref="U305:U307"/>
-    <mergeCell ref="V305:V307"/>
-    <mergeCell ref="W305:W307"/>
-    <mergeCell ref="Z305:Z307"/>
-    <mergeCell ref="AA305:AA307"/>
-    <mergeCell ref="AB305:AB307"/>
-    <mergeCell ref="AC305:AC307"/>
-    <mergeCell ref="AD305:AD307"/>
-    <mergeCell ref="AE305:AE307"/>
-    <mergeCell ref="V308:V311"/>
-    <mergeCell ref="W308:W311"/>
-    <mergeCell ref="X308:X311"/>
-    <mergeCell ref="Y308:Y311"/>
-    <mergeCell ref="Z308:Z311"/>
-    <mergeCell ref="AA308:AA311"/>
-    <mergeCell ref="AB308:AB311"/>
-    <mergeCell ref="AC308:AC311"/>
-    <mergeCell ref="X305:X307"/>
-    <mergeCell ref="Y305:Y307"/>
-    <mergeCell ref="AF305:AF307"/>
-    <mergeCell ref="AG305:AG307"/>
-    <mergeCell ref="AH305:AH307"/>
-    <mergeCell ref="AI305:AI307"/>
-    <mergeCell ref="AJ305:AJ307"/>
-    <mergeCell ref="AK305:AK307"/>
-    <mergeCell ref="AL305:AL307"/>
-    <mergeCell ref="AM305:AM307"/>
-    <mergeCell ref="AN305:AN307"/>
-    <mergeCell ref="AK308:AK311"/>
-    <mergeCell ref="AL308:AL311"/>
-    <mergeCell ref="AM308:AM311"/>
-    <mergeCell ref="AN308:AN311"/>
-    <mergeCell ref="M308:M311"/>
-    <mergeCell ref="N308:N311"/>
-    <mergeCell ref="O308:O311"/>
-    <mergeCell ref="P308:P311"/>
-    <mergeCell ref="Q308:Q311"/>
-    <mergeCell ref="R308:R311"/>
-    <mergeCell ref="S308:S311"/>
-    <mergeCell ref="T308:T311"/>
-    <mergeCell ref="U308:U311"/>
-    <mergeCell ref="AD308:AD311"/>
-    <mergeCell ref="AE308:AE311"/>
-    <mergeCell ref="AT305:AT307"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="G308:G311"/>
-    <mergeCell ref="H308:H311"/>
-    <mergeCell ref="I308:I311"/>
-    <mergeCell ref="J308:J311"/>
-    <mergeCell ref="K308:K311"/>
-    <mergeCell ref="L308:L311"/>
-    <mergeCell ref="AO308:AO311"/>
-    <mergeCell ref="AP308:AP311"/>
-    <mergeCell ref="AQ308:AQ311"/>
-    <mergeCell ref="AR308:AR311"/>
-    <mergeCell ref="AS308:AS311"/>
-    <mergeCell ref="AT308:AT311"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="AF308:AF311"/>
-    <mergeCell ref="AG308:AG311"/>
-    <mergeCell ref="AH308:AH311"/>
-    <mergeCell ref="AI308:AI311"/>
-    <mergeCell ref="AJ308:AJ311"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AB283:AB289"/>
+    <mergeCell ref="AC283:AC289"/>
+    <mergeCell ref="AD283:AD289"/>
+    <mergeCell ref="AE283:AE289"/>
+    <mergeCell ref="AF283:AF289"/>
+    <mergeCell ref="O283:O289"/>
+    <mergeCell ref="P283:P289"/>
+    <mergeCell ref="Q283:Q289"/>
+    <mergeCell ref="R283:R289"/>
+    <mergeCell ref="S283:S289"/>
+    <mergeCell ref="T283:T289"/>
+    <mergeCell ref="U283:U289"/>
+    <mergeCell ref="V283:V289"/>
+    <mergeCell ref="W283:W289"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="G283:G289"/>
+    <mergeCell ref="H283:H289"/>
+    <mergeCell ref="I283:I289"/>
+    <mergeCell ref="J283:J289"/>
+    <mergeCell ref="K283:K289"/>
+    <mergeCell ref="L283:L289"/>
+    <mergeCell ref="M283:M289"/>
+    <mergeCell ref="N283:N289"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AV8:AX8"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="BB2:BE2"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AY1:BE1"/>
+    <mergeCell ref="BF1:BF4"/>
+    <mergeCell ref="BB3:BB4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="AV1:AX1"/>
+    <mergeCell ref="AV3:AV4"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="BG206:BH206"/>
+    <mergeCell ref="BG207:BH207"/>
+    <mergeCell ref="BG209:BH209"/>
+    <mergeCell ref="BG210:BH210"/>
+    <mergeCell ref="BG212:BI212"/>
+    <mergeCell ref="BG213:BI213"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BK3:BM3"/>
+    <mergeCell ref="BN3:BO3"/>
+    <mergeCell ref="BG163:BH163"/>
+    <mergeCell ref="BG44:BI44"/>
+    <mergeCell ref="BG45:BI45"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BG46:BI46"/>
+    <mergeCell ref="BG90:BH90"/>
+    <mergeCell ref="BG91:BH91"/>
+    <mergeCell ref="BG92:BH92"/>
+    <mergeCell ref="BI91:BJ91"/>
+    <mergeCell ref="BG164:BH164"/>
+    <mergeCell ref="BI206:BJ206"/>
+    <mergeCell ref="BI207:BJ207"/>
+    <mergeCell ref="BG214:BH214"/>
+    <mergeCell ref="BG215:BH215"/>
+    <mergeCell ref="BG217:BI217"/>
+    <mergeCell ref="BG218:BI218"/>
+    <mergeCell ref="BG222:BI222"/>
+    <mergeCell ref="BG223:BH223"/>
+    <mergeCell ref="BG224:BI224"/>
+    <mergeCell ref="BG225:BH225"/>
+    <mergeCell ref="BG226:BH226"/>
+    <mergeCell ref="BG231:BH231"/>
+    <mergeCell ref="BG232:BH232"/>
+    <mergeCell ref="BG233:BH233"/>
+    <mergeCell ref="BG234:BH234"/>
+    <mergeCell ref="BG235:BH235"/>
+    <mergeCell ref="BG236:BH236"/>
+    <mergeCell ref="BG238:BH238"/>
+    <mergeCell ref="BG239:BI239"/>
+    <mergeCell ref="BG227:BH227"/>
+    <mergeCell ref="BG228:BI228"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -77962,18 +78216,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78156,14 +78410,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2ABEC9-400A-419C-B8CB-07BFC3B042E4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7967D5-8315-4331-A59D-984E422EEF7F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -78176,6 +78422,14 @@
     <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2ABEC9-400A-419C-B8CB-07BFC3B042E4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9390" windowHeight="6000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="eforms empty" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12976" uniqueCount="2947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12973" uniqueCount="2944">
   <si>
     <r>
       <rPr>
@@ -19979,9 +19979,6 @@
 (Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL)</t>
   </si>
   <si>
-    <t>Inverse of BT-710</t>
-  </si>
-  <si>
     <t>CAN isA Notice,
 CAN notifiesAwardResult AwardDecision,
 AwardDecision refersTo GroupLot,
@@ -19989,107 +19986,6 @@
 (A Framework Agreement is organised in one Lot Group, which implies that the awarded value refers to the maximum awarded value of the Framework Agreement)
 (Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR81) AND
 (Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CAN isA Notice,
-CAN notifiesAwardResult AwardDecision,
-AwardDecision refersTo Lot,
-Lot awardedTo TenderLot,
-TenderLot includedIn Tender,
-TenderLot hasValue FinancialOfferValue
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(At evaluation time, any information related to the Tender, e.g. whether the Tender is admissible or not, can be reached through the triple TenderLot includedIn Tender)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR81_URL) AND (Procedure isAbout legal-regime=standard)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CAN isA Notice,
-CAN notifiesAwardResult AwardDecision,
-AwardDecision refersTo Lot,
-Lot hasAwardedValue ProcurementValue
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(The FrameworkAgreement awarded value is inferred from the fact that the Lot uses Framework Agreement, which is a Technique, and Lot hasAwardedValue ProcurementValue)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR81_URL) AND (Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CAN isA Notice,
-CAN notifiesAwardResult AwardDecision,
-AwardDecision refersTo Lot,
-Lot hasAwardedEstimatedValue ProcurementValue
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(The FrameworkAgreement awarded value is inferred from the fact that the Lot uses Framework Agreement, which is a Technique, and Lot hasAwardedValue ProcurementValue)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-(Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR81_URL) AND (Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard)
-https://github.com/eForms/eForms/issues/329</t>
-    </r>
-  </si>
-  <si>
-    <t>CAN isA Notice,
-CAN notifiesAwardResult AwardDecision,
-AwardDecision refersTo Lot,
-Lot providesAdditionalInformation ProcurementInformation,
-ProcurementInformation hasParticipationRequest Numeric</t>
-  </si>
-  <si>
-    <t>CAN isA Notice,
-CAN notifiesAwardResult AwardDecision,
-AwardDecision refersTo Lot,
-Lot has ProcurmentInformation,
-ProcurementInformation hasTenders
-…hasEEATenders, hasReviewRequestsReceived, hasNon-EEATenders, hasSMETenders, hasMicroTenders, hasSmallTenders, hasMediumTenders, hasTendersReceived, hasInadmissibleTenders, hasAbnormallyLowTenders, hasUnverifiedTender, hasElectronicTenders</t>
   </si>
   <si>
     <t>CAN isA Notice,
@@ -20274,6 +20170,110 @@
 Notice isA Document,
 Document summarises (subproperty of relates To) Procedure,
 Procedure hasDescription Text</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot hasAwardedEstimatedValue ProcurementValue
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Lot usesTechnique FrameworkAgreement OR Lot usesTechnique DynamicPurchasingSystem) AND (Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR81_URL) AND (Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard)
+https://github.com/eForms/eForms/issues/329</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot has StatisticalInformation,
+StatisticalInformation hasTenders
+…hasEEATenders, hasReviewRequestsReceived, 
+hasNon-EEATenders, 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hasSMETenders</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, 
+hasMicroTenders, 
+hasSmallTenders, 
+hasMediumTenders, hasTendersReceived, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">hasInadmissibleTenders, hasAbnormallyLowTenders, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hasUnverifiedTender</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, hasElectronicTenders, 
+hasLowestAdmissibleAmount, 
+hasHighestAdmissibleAmount.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR81_URL) AND (Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard)</t>
+    </r>
+  </si>
+  <si>
+    <t>CAN isA Notice,
+CAN notifiesAwardResult AwardDecision,
+AwardDecision refersTo Lot,
+Lot hasAwardedMaximumValue ProcurementValue
+(Lot usesTechnique FrameworkAgreement OR Lot usesTechnique DynamicPurchasingSystem) AND (Procedure hasLegalBasisID URI=DIR24_URL OR Procedure hasLegalBasisID URI=DIR25_URL OR Procedure hasLegalBasisID URI=DIR81_URL) AND (Procedure isAbout LegalRegime=light-regime OR Procedure isAbout LegalRegime=standard)</t>
   </si>
 </sst>
 </file>
@@ -20483,7 +20483,8 @@
       <family val="1"/>
     </font>
     <font>
-      <strike/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
@@ -20574,7 +20575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -20883,6 +20884,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -20890,7 +20922,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="326">
+  <cellXfs count="332">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -21552,11 +21584,20 @@
     <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -21854,6 +21895,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -22258,9 +22308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BG209" sqref="BG209:BH209"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC218" sqref="BC218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22303,105 +22353,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="248" t="s">
+      <c r="A1" s="251" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="249"/>
-      <c r="C1" s="252" t="s">
+      <c r="B1" s="252"/>
+      <c r="C1" s="255" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="252" t="s">
+      <c r="D1" s="255" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="252" t="s">
+      <c r="E1" s="255" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="252" t="s">
+      <c r="F1" s="255" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="254" t="s">
+      <c r="G1" s="257" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="256"/>
-      <c r="P1" s="254" t="s">
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
+      <c r="O1" s="259"/>
+      <c r="P1" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="255"/>
-      <c r="R1" s="255"/>
-      <c r="S1" s="255"/>
-      <c r="T1" s="255"/>
-      <c r="U1" s="255"/>
-      <c r="V1" s="255"/>
-      <c r="W1" s="255"/>
-      <c r="X1" s="255"/>
-      <c r="Y1" s="255"/>
-      <c r="Z1" s="255"/>
-      <c r="AA1" s="255"/>
-      <c r="AB1" s="255"/>
-      <c r="AC1" s="255"/>
-      <c r="AD1" s="256"/>
-      <c r="AE1" s="254" t="s">
+      <c r="Q1" s="258"/>
+      <c r="R1" s="258"/>
+      <c r="S1" s="258"/>
+      <c r="T1" s="258"/>
+      <c r="U1" s="258"/>
+      <c r="V1" s="258"/>
+      <c r="W1" s="258"/>
+      <c r="X1" s="258"/>
+      <c r="Y1" s="258"/>
+      <c r="Z1" s="258"/>
+      <c r="AA1" s="258"/>
+      <c r="AB1" s="258"/>
+      <c r="AC1" s="258"/>
+      <c r="AD1" s="259"/>
+      <c r="AE1" s="257" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="255"/>
-      <c r="AG1" s="255"/>
-      <c r="AH1" s="256"/>
-      <c r="AI1" s="254" t="s">
+      <c r="AF1" s="258"/>
+      <c r="AG1" s="258"/>
+      <c r="AH1" s="259"/>
+      <c r="AI1" s="257" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="255"/>
-      <c r="AK1" s="255"/>
-      <c r="AL1" s="255"/>
-      <c r="AM1" s="255"/>
-      <c r="AN1" s="255"/>
-      <c r="AO1" s="255"/>
-      <c r="AP1" s="255"/>
-      <c r="AQ1" s="256"/>
-      <c r="AR1" s="257" t="s">
+      <c r="AJ1" s="258"/>
+      <c r="AK1" s="258"/>
+      <c r="AL1" s="258"/>
+      <c r="AM1" s="258"/>
+      <c r="AN1" s="258"/>
+      <c r="AO1" s="258"/>
+      <c r="AP1" s="258"/>
+      <c r="AQ1" s="259"/>
+      <c r="AR1" s="260" t="s">
         <v>667</v>
       </c>
-      <c r="AS1" s="258"/>
-      <c r="AT1" s="259"/>
+      <c r="AS1" s="261"/>
+      <c r="AT1" s="262"/>
       <c r="AU1" s="80" t="s">
         <v>1087</v>
       </c>
-      <c r="AV1" s="308" t="s">
+      <c r="AV1" s="311" t="s">
         <v>1059</v>
       </c>
-      <c r="AW1" s="309"/>
-      <c r="AX1" s="310"/>
-      <c r="AY1" s="302" t="s">
+      <c r="AW1" s="312"/>
+      <c r="AX1" s="313"/>
+      <c r="AY1" s="305" t="s">
         <v>705</v>
       </c>
-      <c r="AZ1" s="303"/>
-      <c r="BA1" s="303"/>
-      <c r="BB1" s="303"/>
-      <c r="BC1" s="303"/>
-      <c r="BD1" s="303"/>
-      <c r="BE1" s="304"/>
-      <c r="BF1" s="305" t="s">
+      <c r="AZ1" s="306"/>
+      <c r="BA1" s="306"/>
+      <c r="BB1" s="306"/>
+      <c r="BC1" s="306"/>
+      <c r="BD1" s="306"/>
+      <c r="BE1" s="307"/>
+      <c r="BF1" s="308" t="s">
         <v>706</v>
       </c>
-      <c r="BG1" s="313" t="s">
+      <c r="BG1" s="316" t="s">
         <v>1147</v>
       </c>
-      <c r="BH1" s="313"/>
-      <c r="BI1" s="313"/>
+      <c r="BH1" s="316"/>
+      <c r="BI1" s="316"/>
     </row>
     <row r="2" spans="1:67" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="250"/>
-      <c r="B2" s="251"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
+      <c r="A2" s="253"/>
+      <c r="B2" s="254"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
+      <c r="E2" s="256"/>
+      <c r="F2" s="256"/>
       <c r="G2" s="83">
         <v>1</v>
       </c>
@@ -22526,156 +22576,156 @@
       <c r="AV2" s="40"/>
       <c r="AW2" s="40"/>
       <c r="AX2" s="40"/>
-      <c r="AY2" s="301" t="s">
+      <c r="AY2" s="304" t="s">
         <v>707</v>
       </c>
-      <c r="AZ2" s="301"/>
+      <c r="AZ2" s="304"/>
       <c r="BA2" s="19" t="s">
         <v>657</v>
       </c>
-      <c r="BB2" s="301" t="s">
+      <c r="BB2" s="304" t="s">
         <v>708</v>
       </c>
-      <c r="BC2" s="301"/>
-      <c r="BD2" s="301"/>
-      <c r="BE2" s="301"/>
-      <c r="BF2" s="305"/>
-      <c r="BG2" s="317" t="s">
+      <c r="BC2" s="304"/>
+      <c r="BD2" s="304"/>
+      <c r="BE2" s="304"/>
+      <c r="BF2" s="308"/>
+      <c r="BG2" s="320" t="s">
         <v>2553</v>
       </c>
-      <c r="BH2" s="317" t="s">
+      <c r="BH2" s="320" t="s">
         <v>2552</v>
       </c>
-      <c r="BI2" s="320" t="s">
+      <c r="BI2" s="323" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="3" spans="1:67" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="250"/>
-      <c r="B3" s="251"/>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="244" t="s">
+      <c r="A3" s="253"/>
+      <c r="B3" s="254"/>
+      <c r="C3" s="256"/>
+      <c r="D3" s="256"/>
+      <c r="E3" s="256"/>
+      <c r="F3" s="256"/>
+      <c r="G3" s="247" t="s">
         <v>652</v>
       </c>
-      <c r="H3" s="260"/>
-      <c r="I3" s="261"/>
-      <c r="J3" s="244" t="s">
+      <c r="H3" s="263"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="247" t="s">
         <v>659</v>
       </c>
-      <c r="K3" s="245"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="244" t="s">
+      <c r="K3" s="248"/>
+      <c r="L3" s="249"/>
+      <c r="M3" s="247" t="s">
         <v>658</v>
       </c>
-      <c r="N3" s="245"/>
-      <c r="O3" s="246"/>
-      <c r="P3" s="244" t="s">
+      <c r="N3" s="248"/>
+      <c r="O3" s="249"/>
+      <c r="P3" s="247" t="s">
         <v>670</v>
       </c>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="293" t="s">
+      <c r="Q3" s="249"/>
+      <c r="R3" s="296" t="s">
         <v>671</v>
       </c>
-      <c r="S3" s="294"/>
-      <c r="T3" s="295"/>
+      <c r="S3" s="297"/>
+      <c r="T3" s="298"/>
       <c r="U3" s="83" t="s">
         <v>657</v>
       </c>
-      <c r="V3" s="244" t="s">
+      <c r="V3" s="247" t="s">
         <v>672</v>
       </c>
-      <c r="W3" s="245"/>
-      <c r="X3" s="245"/>
-      <c r="Y3" s="246"/>
-      <c r="Z3" s="244" t="s">
+      <c r="W3" s="248"/>
+      <c r="X3" s="248"/>
+      <c r="Y3" s="249"/>
+      <c r="Z3" s="247" t="s">
         <v>660</v>
       </c>
-      <c r="AA3" s="261"/>
+      <c r="AA3" s="264"/>
       <c r="AB3" s="87" t="s">
         <v>661</v>
       </c>
-      <c r="AC3" s="244" t="s">
+      <c r="AC3" s="247" t="s">
         <v>662</v>
       </c>
-      <c r="AD3" s="246"/>
-      <c r="AE3" s="244" t="s">
+      <c r="AD3" s="249"/>
+      <c r="AE3" s="247" t="s">
         <v>663</v>
       </c>
-      <c r="AF3" s="245"/>
-      <c r="AG3" s="245"/>
-      <c r="AH3" s="246"/>
-      <c r="AI3" s="244" t="s">
+      <c r="AF3" s="248"/>
+      <c r="AG3" s="248"/>
+      <c r="AH3" s="249"/>
+      <c r="AI3" s="247" t="s">
         <v>673</v>
       </c>
-      <c r="AJ3" s="260"/>
-      <c r="AK3" s="260"/>
-      <c r="AL3" s="261"/>
-      <c r="AM3" s="244" t="s">
+      <c r="AJ3" s="263"/>
+      <c r="AK3" s="263"/>
+      <c r="AL3" s="264"/>
+      <c r="AM3" s="247" t="s">
         <v>666</v>
       </c>
-      <c r="AN3" s="245"/>
-      <c r="AO3" s="246"/>
-      <c r="AP3" s="244" t="s">
+      <c r="AN3" s="248"/>
+      <c r="AO3" s="249"/>
+      <c r="AP3" s="247" t="s">
         <v>668</v>
       </c>
-      <c r="AQ3" s="246"/>
-      <c r="AR3" s="244" t="s">
+      <c r="AQ3" s="249"/>
+      <c r="AR3" s="247" t="s">
         <v>669</v>
       </c>
-      <c r="AS3" s="245"/>
-      <c r="AT3" s="247"/>
+      <c r="AS3" s="248"/>
+      <c r="AT3" s="250"/>
       <c r="AU3" s="88"/>
-      <c r="AV3" s="311" t="s">
+      <c r="AV3" s="314" t="s">
         <v>1060</v>
       </c>
-      <c r="AW3" s="311" t="s">
+      <c r="AW3" s="314" t="s">
         <v>1061</v>
       </c>
-      <c r="AX3" s="311" t="s">
+      <c r="AX3" s="314" t="s">
         <v>1062</v>
       </c>
-      <c r="AY3" s="306" t="s">
+      <c r="AY3" s="309" t="s">
         <v>709</v>
       </c>
-      <c r="AZ3" s="306" t="s">
+      <c r="AZ3" s="309" t="s">
         <v>710</v>
       </c>
       <c r="BA3" s="89"/>
-      <c r="BB3" s="306" t="s">
+      <c r="BB3" s="309" t="s">
         <v>709</v>
       </c>
-      <c r="BC3" s="301" t="s">
+      <c r="BC3" s="304" t="s">
         <v>710</v>
       </c>
-      <c r="BD3" s="301" t="s">
+      <c r="BD3" s="304" t="s">
         <v>711</v>
       </c>
-      <c r="BE3" s="301" t="s">
+      <c r="BE3" s="304" t="s">
         <v>712</v>
       </c>
-      <c r="BF3" s="305"/>
-      <c r="BG3" s="318"/>
-      <c r="BH3" s="318"/>
-      <c r="BI3" s="320"/>
+      <c r="BF3" s="308"/>
+      <c r="BG3" s="321"/>
+      <c r="BH3" s="321"/>
+      <c r="BI3" s="323"/>
       <c r="BJ3" s="211"/>
-      <c r="BK3" s="314"/>
-      <c r="BL3" s="314"/>
-      <c r="BM3" s="314"/>
-      <c r="BN3" s="314"/>
-      <c r="BO3" s="314"/>
+      <c r="BK3" s="317"/>
+      <c r="BL3" s="317"/>
+      <c r="BM3" s="317"/>
+      <c r="BN3" s="317"/>
+      <c r="BO3" s="317"/>
     </row>
     <row r="4" spans="1:67" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="296" t="s">
+      <c r="A4" s="299" t="s">
         <v>674</v>
       </c>
-      <c r="B4" s="296"/>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
-      <c r="E4" s="296"/>
-      <c r="F4" s="297"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="300"/>
       <c r="G4" s="90" t="s">
         <v>653</v>
       </c>
@@ -22797,26 +22847,26 @@
         <v>656</v>
       </c>
       <c r="AU4" s="95"/>
-      <c r="AV4" s="312"/>
-      <c r="AW4" s="312"/>
-      <c r="AX4" s="312"/>
-      <c r="AY4" s="307"/>
-      <c r="AZ4" s="307"/>
+      <c r="AV4" s="315"/>
+      <c r="AW4" s="315"/>
+      <c r="AX4" s="315"/>
+      <c r="AY4" s="310"/>
+      <c r="AZ4" s="310"/>
       <c r="BA4" s="89"/>
-      <c r="BB4" s="307"/>
-      <c r="BC4" s="301"/>
-      <c r="BD4" s="301"/>
-      <c r="BE4" s="301"/>
-      <c r="BF4" s="305"/>
-      <c r="BG4" s="319"/>
-      <c r="BH4" s="319"/>
-      <c r="BI4" s="320"/>
+      <c r="BB4" s="310"/>
+      <c r="BC4" s="304"/>
+      <c r="BD4" s="304"/>
+      <c r="BE4" s="304"/>
+      <c r="BF4" s="308"/>
+      <c r="BG4" s="322"/>
+      <c r="BH4" s="322"/>
+      <c r="BI4" s="323"/>
     </row>
     <row r="5" spans="1:67" s="100" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="279" t="s">
+      <c r="A5" s="282" t="s">
         <v>1085</v>
       </c>
-      <c r="B5" s="280"/>
+      <c r="B5" s="283"/>
       <c r="C5" s="50" t="s">
         <v>10</v>
       </c>
@@ -22981,17 +23031,17 @@
       <c r="BF5" s="174" t="s">
         <v>1121</v>
       </c>
-      <c r="BG5" s="236" t="s">
-        <v>2921</v>
-      </c>
-      <c r="BH5" s="241"/>
-      <c r="BI5" s="235"/>
+      <c r="BG5" s="239" t="s">
+        <v>2915</v>
+      </c>
+      <c r="BH5" s="244"/>
+      <c r="BI5" s="238"/>
     </row>
     <row r="6" spans="1:67" ht="204" x14ac:dyDescent="0.2">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="278"/>
+      <c r="B6" s="281"/>
       <c r="C6" s="49" t="s">
         <v>15</v>
       </c>
@@ -23132,17 +23182,17 @@
       <c r="BF6" s="174" t="s">
         <v>1122</v>
       </c>
-      <c r="BG6" s="236" t="s">
-        <v>2923</v>
-      </c>
-      <c r="BH6" s="241"/>
-      <c r="BI6" s="235"/>
+      <c r="BG6" s="239" t="s">
+        <v>2917</v>
+      </c>
+      <c r="BH6" s="244"/>
+      <c r="BI6" s="238"/>
     </row>
     <row r="7" spans="1:67" ht="357" x14ac:dyDescent="0.2">
-      <c r="A7" s="277" t="s">
+      <c r="A7" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="278"/>
+      <c r="B7" s="281"/>
       <c r="C7" s="49" t="s">
         <v>18</v>
       </c>
@@ -23307,17 +23357,17 @@
       <c r="BF7" s="175" t="s">
         <v>1141</v>
       </c>
-      <c r="BG7" s="236" t="s">
-        <v>2922</v>
-      </c>
-      <c r="BH7" s="241"/>
-      <c r="BI7" s="235"/>
+      <c r="BG7" s="239" t="s">
+        <v>2916</v>
+      </c>
+      <c r="BH7" s="244"/>
+      <c r="BI7" s="238"/>
     </row>
     <row r="8" spans="1:67" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="277" t="s">
+      <c r="A8" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="278"/>
+      <c r="B8" s="281"/>
       <c r="C8" s="48" t="s">
         <v>20</v>
       </c>
@@ -23451,11 +23501,11 @@
         <v>13</v>
       </c>
       <c r="AU8" s="105"/>
-      <c r="AV8" s="298" t="s">
+      <c r="AV8" s="301" t="s">
         <v>1119</v>
       </c>
-      <c r="AW8" s="299"/>
-      <c r="AX8" s="300"/>
+      <c r="AW8" s="302"/>
+      <c r="AX8" s="303"/>
       <c r="AY8" s="19" t="s">
         <v>713</v>
       </c>
@@ -23489,10 +23539,10 @@
       </c>
     </row>
     <row r="9" spans="1:67" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A9" s="277" t="s">
+      <c r="A9" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="278"/>
+      <c r="B9" s="281"/>
       <c r="C9" s="48" t="s">
         <v>22</v>
       </c>
@@ -23657,17 +23707,17 @@
       <c r="BF9" s="177" t="s">
         <v>945</v>
       </c>
-      <c r="BG9" s="236" t="s">
-        <v>2924</v>
-      </c>
-      <c r="BH9" s="241"/>
-      <c r="BI9" s="235"/>
+      <c r="BG9" s="239" t="s">
+        <v>2918</v>
+      </c>
+      <c r="BH9" s="244"/>
+      <c r="BI9" s="238"/>
     </row>
     <row r="10" spans="1:67" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="278"/>
+      <c r="B10" s="281"/>
       <c r="C10" s="48" t="s">
         <v>25</v>
       </c>
@@ -23832,17 +23882,17 @@
       <c r="BF10" s="177" t="s">
         <v>944</v>
       </c>
-      <c r="BG10" s="236" t="s">
-        <v>2925</v>
-      </c>
-      <c r="BH10" s="325"/>
-      <c r="BI10" s="243"/>
+      <c r="BG10" s="239" t="s">
+        <v>2919</v>
+      </c>
+      <c r="BH10" s="328"/>
+      <c r="BI10" s="246"/>
     </row>
     <row r="11" spans="1:67" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="277" t="s">
+      <c r="A11" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="278"/>
+      <c r="B11" s="281"/>
       <c r="C11" s="48" t="s">
         <v>27</v>
       </c>
@@ -24007,17 +24057,17 @@
       <c r="BF11" s="177" t="s">
         <v>943</v>
       </c>
-      <c r="BG11" s="236" t="s">
-        <v>2926</v>
-      </c>
-      <c r="BH11" s="325"/>
-      <c r="BI11" s="243"/>
+      <c r="BG11" s="239" t="s">
+        <v>2920</v>
+      </c>
+      <c r="BH11" s="328"/>
+      <c r="BI11" s="246"/>
     </row>
     <row r="12" spans="1:67" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="277" t="s">
+      <c r="A12" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="278"/>
+      <c r="B12" s="281"/>
       <c r="C12" s="48" t="s">
         <v>29</v>
       </c>
@@ -24182,17 +24232,17 @@
       <c r="BF12" s="177" t="s">
         <v>942</v>
       </c>
-      <c r="BG12" s="236" t="s">
-        <v>2927</v>
-      </c>
-      <c r="BH12" s="325"/>
-      <c r="BI12" s="243"/>
+      <c r="BG12" s="239" t="s">
+        <v>2921</v>
+      </c>
+      <c r="BH12" s="328"/>
+      <c r="BI12" s="246"/>
     </row>
     <row r="13" spans="1:67" ht="102" x14ac:dyDescent="0.2">
-      <c r="A13" s="277" t="s">
+      <c r="A13" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="278"/>
+      <c r="B13" s="281"/>
       <c r="C13" s="48" t="s">
         <v>32</v>
       </c>
@@ -24357,17 +24407,17 @@
       <c r="BF13" s="178" t="s">
         <v>1114</v>
       </c>
-      <c r="BG13" s="236" t="s">
-        <v>2928</v>
-      </c>
-      <c r="BH13" s="325"/>
-      <c r="BI13" s="243"/>
+      <c r="BG13" s="239" t="s">
+        <v>2922</v>
+      </c>
+      <c r="BH13" s="328"/>
+      <c r="BI13" s="246"/>
     </row>
     <row r="14" spans="1:67" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="277" t="s">
+      <c r="A14" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="278"/>
+      <c r="B14" s="281"/>
       <c r="C14" s="48" t="s">
         <v>34</v>
       </c>
@@ -24532,17 +24582,17 @@
       <c r="BF14" s="178" t="s">
         <v>715</v>
       </c>
-      <c r="BG14" s="236" t="s">
-        <v>2929</v>
-      </c>
-      <c r="BH14" s="325"/>
-      <c r="BI14" s="243"/>
+      <c r="BG14" s="239" t="s">
+        <v>2923</v>
+      </c>
+      <c r="BH14" s="328"/>
+      <c r="BI14" s="246"/>
     </row>
     <row r="15" spans="1:67" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="279" t="s">
+      <c r="A15" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="280"/>
+      <c r="B15" s="283"/>
       <c r="C15" s="50" t="s">
         <v>35</v>
       </c>
@@ -24706,10 +24756,10 @@
       <c r="BI15" s="206"/>
     </row>
     <row r="16" spans="1:67" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="277" t="s">
+      <c r="A16" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="278"/>
+      <c r="B16" s="281"/>
       <c r="C16" s="49" t="s">
         <v>37</v>
       </c>
@@ -24868,17 +24918,17 @@
       <c r="BF16" s="179" t="s">
         <v>1142</v>
       </c>
-      <c r="BG16" s="236" t="s">
-        <v>2930</v>
-      </c>
-      <c r="BH16" s="325"/>
-      <c r="BI16" s="243"/>
+      <c r="BG16" s="239" t="s">
+        <v>2924</v>
+      </c>
+      <c r="BH16" s="328"/>
+      <c r="BI16" s="246"/>
     </row>
     <row r="17" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="277" t="s">
+      <c r="A17" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="278"/>
+      <c r="B17" s="281"/>
       <c r="C17" s="49" t="s">
         <v>39</v>
       </c>
@@ -25037,17 +25087,17 @@
       <c r="BF17" s="174" t="s">
         <v>1123</v>
       </c>
-      <c r="BG17" s="236" t="s">
-        <v>2931</v>
-      </c>
-      <c r="BH17" s="325"/>
-      <c r="BI17" s="243"/>
+      <c r="BG17" s="239" t="s">
+        <v>2925</v>
+      </c>
+      <c r="BH17" s="328"/>
+      <c r="BI17" s="246"/>
     </row>
     <row r="18" spans="1:61" s="100" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="279" t="s">
+      <c r="A18" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="280"/>
+      <c r="B18" s="283"/>
       <c r="C18" s="50" t="s">
         <v>40</v>
       </c>
@@ -25212,17 +25262,17 @@
       <c r="BF18" s="180" t="s">
         <v>717</v>
       </c>
-      <c r="BG18" s="236" t="s">
-        <v>2932</v>
-      </c>
-      <c r="BH18" s="241"/>
-      <c r="BI18" s="235"/>
+      <c r="BG18" s="239" t="s">
+        <v>2926</v>
+      </c>
+      <c r="BH18" s="244"/>
+      <c r="BI18" s="238"/>
     </row>
     <row r="19" spans="1:61" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="277" t="s">
+      <c r="A19" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="278"/>
+      <c r="B19" s="281"/>
       <c r="C19" s="49" t="s">
         <v>41</v>
       </c>
@@ -25398,10 +25448,10 @@
       </c>
     </row>
     <row r="20" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="277" t="s">
+      <c r="A20" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="278"/>
+      <c r="B20" s="281"/>
       <c r="C20" s="48" t="s">
         <v>42</v>
       </c>
@@ -25577,10 +25627,10 @@
       </c>
     </row>
     <row r="21" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="278"/>
+      <c r="B21" s="281"/>
       <c r="C21" s="48" t="s">
         <v>44</v>
       </c>
@@ -25756,10 +25806,10 @@
       </c>
     </row>
     <row r="22" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="277" t="s">
+      <c r="A22" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="278"/>
+      <c r="B22" s="281"/>
       <c r="C22" s="48" t="s">
         <v>45</v>
       </c>
@@ -25935,10 +25985,10 @@
       </c>
     </row>
     <row r="23" spans="1:61" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="277" t="s">
+      <c r="A23" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="278"/>
+      <c r="B23" s="281"/>
       <c r="C23" s="48" t="s">
         <v>46</v>
       </c>
@@ -26114,10 +26164,10 @@
       </c>
     </row>
     <row r="24" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="277" t="s">
+      <c r="A24" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="278"/>
+      <c r="B24" s="281"/>
       <c r="C24" s="48" t="s">
         <v>47</v>
       </c>
@@ -26293,10 +26343,10 @@
       </c>
     </row>
     <row r="25" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="278"/>
+      <c r="B25" s="281"/>
       <c r="C25" s="48" t="s">
         <v>48</v>
       </c>
@@ -26472,10 +26522,10 @@
       </c>
     </row>
     <row r="26" spans="1:61" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="277" t="s">
+      <c r="A26" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="278"/>
+      <c r="B26" s="281"/>
       <c r="C26" s="48" t="s">
         <v>49</v>
       </c>
@@ -26651,10 +26701,10 @@
       </c>
     </row>
     <row r="27" spans="1:61" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="278"/>
+      <c r="B27" s="281"/>
       <c r="C27" s="48" t="s">
         <v>50</v>
       </c>
@@ -26830,10 +26880,10 @@
       </c>
     </row>
     <row r="28" spans="1:61" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="277" t="s">
+      <c r="A28" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="278"/>
+      <c r="B28" s="281"/>
       <c r="C28" s="48" t="s">
         <v>51</v>
       </c>
@@ -26998,17 +27048,17 @@
       <c r="BF28" s="180" t="s">
         <v>1115</v>
       </c>
-      <c r="BG28" s="236" t="s">
-        <v>2933</v>
-      </c>
-      <c r="BH28" s="325"/>
-      <c r="BI28" s="243"/>
+      <c r="BG28" s="239" t="s">
+        <v>2927</v>
+      </c>
+      <c r="BH28" s="328"/>
+      <c r="BI28" s="246"/>
     </row>
     <row r="29" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="277" t="s">
+      <c r="A29" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="278"/>
+      <c r="B29" s="281"/>
       <c r="C29" s="48" t="s">
         <v>52</v>
       </c>
@@ -27184,10 +27234,10 @@
       </c>
     </row>
     <row r="30" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="278"/>
+      <c r="B30" s="281"/>
       <c r="C30" s="48" t="s">
         <v>53</v>
       </c>
@@ -27363,10 +27413,10 @@
       </c>
     </row>
     <row r="31" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="277" t="s">
+      <c r="A31" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="278"/>
+      <c r="B31" s="281"/>
       <c r="C31" s="48" t="s">
         <v>54</v>
       </c>
@@ -27542,10 +27592,10 @@
       </c>
     </row>
     <row r="32" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="277" t="s">
+      <c r="A32" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="278"/>
+      <c r="B32" s="281"/>
       <c r="C32" s="48" t="s">
         <v>55</v>
       </c>
@@ -27721,10 +27771,10 @@
       </c>
     </row>
     <row r="33" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="277" t="s">
+      <c r="A33" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="278"/>
+      <c r="B33" s="281"/>
       <c r="C33" s="48" t="s">
         <v>57</v>
       </c>
@@ -27900,10 +27950,10 @@
       </c>
     </row>
     <row r="34" spans="1:61" s="116" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="281" t="s">
+      <c r="A34" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="282"/>
+      <c r="B34" s="285"/>
       <c r="C34" s="51" t="s">
         <v>58</v>
       </c>
@@ -28079,10 +28129,10 @@
       </c>
     </row>
     <row r="35" spans="1:61" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="277" t="s">
+      <c r="A35" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="278"/>
+      <c r="B35" s="281"/>
       <c r="C35" s="48" t="s">
         <v>60</v>
       </c>
@@ -28244,10 +28294,10 @@
       </c>
     </row>
     <row r="36" spans="1:61" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="277" t="s">
+      <c r="A36" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="278"/>
+      <c r="B36" s="281"/>
       <c r="C36" s="49" t="s">
         <v>61</v>
       </c>
@@ -28423,10 +28473,10 @@
       </c>
     </row>
     <row r="37" spans="1:61" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A37" s="277" t="s">
+      <c r="A37" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="278"/>
+      <c r="B37" s="281"/>
       <c r="C37" s="49" t="s">
         <v>62</v>
       </c>
@@ -28585,17 +28635,17 @@
       <c r="BF37" s="174" t="s">
         <v>946</v>
       </c>
-      <c r="BG37" s="236" t="s">
-        <v>2934</v>
-      </c>
-      <c r="BH37" s="241"/>
-      <c r="BI37" s="235"/>
+      <c r="BG37" s="239" t="s">
+        <v>2928</v>
+      </c>
+      <c r="BH37" s="244"/>
+      <c r="BI37" s="238"/>
     </row>
     <row r="38" spans="1:61" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A38" s="277" t="s">
+      <c r="A38" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="278"/>
+      <c r="B38" s="281"/>
       <c r="C38" s="49" t="s">
         <v>65</v>
       </c>
@@ -28754,17 +28804,17 @@
       <c r="BF38" s="174" t="s">
         <v>1144</v>
       </c>
-      <c r="BG38" s="236" t="s">
-        <v>2935</v>
-      </c>
-      <c r="BH38" s="325"/>
-      <c r="BI38" s="243"/>
+      <c r="BG38" s="239" t="s">
+        <v>2929</v>
+      </c>
+      <c r="BH38" s="328"/>
+      <c r="BI38" s="246"/>
     </row>
     <row r="39" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A39" s="277" t="s">
+      <c r="A39" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B39" s="278"/>
+      <c r="B39" s="281"/>
       <c r="C39" s="49" t="s">
         <v>66</v>
       </c>
@@ -28923,17 +28973,17 @@
       <c r="BF39" s="175" t="s">
         <v>941</v>
       </c>
-      <c r="BG39" s="236" t="s">
-        <v>2936</v>
-      </c>
-      <c r="BH39" s="325"/>
-      <c r="BI39" s="243"/>
+      <c r="BG39" s="239" t="s">
+        <v>2930</v>
+      </c>
+      <c r="BH39" s="328"/>
+      <c r="BI39" s="246"/>
     </row>
     <row r="40" spans="1:61" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A40" s="277" t="s">
+      <c r="A40" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B40" s="278"/>
+      <c r="B40" s="281"/>
       <c r="C40" s="49" t="s">
         <v>67</v>
       </c>
@@ -29032,16 +29082,16 @@
       <c r="BF40" s="175" t="s">
         <v>947</v>
       </c>
-      <c r="BG40" s="236" t="s">
-        <v>2937</v>
-      </c>
-      <c r="BH40" s="243"/>
+      <c r="BG40" s="239" t="s">
+        <v>2931</v>
+      </c>
+      <c r="BH40" s="246"/>
     </row>
     <row r="41" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A41" s="277" t="s">
+      <c r="A41" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B41" s="278"/>
+      <c r="B41" s="281"/>
       <c r="C41" s="49" t="s">
         <v>68</v>
       </c>
@@ -29196,17 +29246,17 @@
       <c r="BF41" s="175" t="s">
         <v>940</v>
       </c>
-      <c r="BG41" s="236" t="s">
-        <v>2940</v>
-      </c>
-      <c r="BH41" s="325"/>
-      <c r="BI41" s="243"/>
+      <c r="BG41" s="239" t="s">
+        <v>2934</v>
+      </c>
+      <c r="BH41" s="328"/>
+      <c r="BI41" s="246"/>
     </row>
     <row r="42" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A42" s="277" t="s">
+      <c r="A42" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B42" s="278"/>
+      <c r="B42" s="281"/>
       <c r="C42" s="49" t="s">
         <v>70</v>
       </c>
@@ -29318,36 +29368,36 @@
         <v>1083</v>
       </c>
       <c r="AY42" s="20" t="s">
-        <v>2939</v>
+        <v>2933</v>
       </c>
       <c r="AZ42" s="20" t="s">
-        <v>2939</v>
+        <v>2933</v>
       </c>
       <c r="BA42" s="20"/>
       <c r="BB42" s="20" t="s">
-        <v>2938</v>
+        <v>2932</v>
       </c>
       <c r="BC42" s="20" t="s">
-        <v>2938</v>
+        <v>2932</v>
       </c>
       <c r="BD42" s="20"/>
       <c r="BE42" s="20" t="s">
-        <v>2938</v>
+        <v>2932</v>
       </c>
       <c r="BF42" s="175" t="s">
         <v>939</v>
       </c>
-      <c r="BG42" s="236" t="s">
-        <v>2941</v>
-      </c>
-      <c r="BH42" s="325"/>
-      <c r="BI42" s="243"/>
+      <c r="BG42" s="239" t="s">
+        <v>2935</v>
+      </c>
+      <c r="BH42" s="328"/>
+      <c r="BI42" s="246"/>
     </row>
     <row r="43" spans="1:61" s="121" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="289" t="s">
+      <c r="A43" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="290"/>
+      <c r="B43" s="293"/>
       <c r="C43" s="58" t="s">
         <v>72</v>
       </c>
@@ -29449,10 +29499,10 @@
       <c r="BI43" s="206"/>
     </row>
     <row r="44" spans="1:61" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="277" t="s">
+      <c r="A44" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B44" s="278"/>
+      <c r="B44" s="281"/>
       <c r="C44" s="49" t="s">
         <v>74</v>
       </c>
@@ -29561,17 +29611,17 @@
         <v>1055</v>
       </c>
       <c r="BF44" s="181"/>
-      <c r="BG44" s="315" t="s">
+      <c r="BG44" s="318" t="s">
         <v>2554</v>
       </c>
-      <c r="BH44" s="316"/>
-      <c r="BI44" s="316"/>
+      <c r="BH44" s="319"/>
+      <c r="BI44" s="319"/>
     </row>
     <row r="45" spans="1:61" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="277" t="s">
+      <c r="A45" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B45" s="278"/>
+      <c r="B45" s="281"/>
       <c r="C45" s="48" t="s">
         <v>76</v>
       </c>
@@ -29680,17 +29730,17 @@
         <v>1055</v>
       </c>
       <c r="BF45" s="181"/>
-      <c r="BG45" s="315" t="s">
+      <c r="BG45" s="318" t="s">
         <v>2555</v>
       </c>
-      <c r="BH45" s="316"/>
-      <c r="BI45" s="316"/>
+      <c r="BH45" s="319"/>
+      <c r="BI45" s="319"/>
     </row>
     <row r="46" spans="1:61" ht="132" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="277" t="s">
+      <c r="A46" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B46" s="278"/>
+      <c r="B46" s="281"/>
       <c r="C46" s="48" t="s">
         <v>77</v>
       </c>
@@ -29799,17 +29849,17 @@
         <v>1055</v>
       </c>
       <c r="BF46" s="181"/>
-      <c r="BG46" s="315" t="s">
+      <c r="BG46" s="318" t="s">
         <v>2556</v>
       </c>
-      <c r="BH46" s="316"/>
-      <c r="BI46" s="316"/>
+      <c r="BH46" s="319"/>
+      <c r="BI46" s="319"/>
     </row>
     <row r="47" spans="1:61" s="100" customFormat="1" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="279" t="s">
+      <c r="A47" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="280"/>
+      <c r="B47" s="283"/>
       <c r="C47" s="50" t="s">
         <v>79</v>
       </c>
@@ -29979,10 +30029,10 @@
       <c r="BI47" s="206"/>
     </row>
     <row r="48" spans="1:61" s="125" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="291" t="s">
+      <c r="A48" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="292"/>
+      <c r="B48" s="295"/>
       <c r="C48" s="66" t="s">
         <v>81</v>
       </c>
@@ -30147,17 +30197,17 @@
       <c r="BF48" s="184" t="s">
         <v>1125</v>
       </c>
-      <c r="BG48" s="236" t="s">
-        <v>2942</v>
-      </c>
-      <c r="BH48" s="325"/>
-      <c r="BI48" s="243"/>
+      <c r="BG48" s="239" t="s">
+        <v>2936</v>
+      </c>
+      <c r="BH48" s="328"/>
+      <c r="BI48" s="246"/>
     </row>
     <row r="49" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A49" s="277" t="s">
+      <c r="A49" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="278"/>
+      <c r="B49" s="281"/>
       <c r="C49" s="49" t="s">
         <v>83</v>
       </c>
@@ -30322,17 +30372,17 @@
       <c r="BF49" s="175" t="s">
         <v>1041</v>
       </c>
-      <c r="BG49" s="236" t="s">
-        <v>2943</v>
-      </c>
-      <c r="BH49" s="325"/>
-      <c r="BI49" s="243"/>
+      <c r="BG49" s="239" t="s">
+        <v>2937</v>
+      </c>
+      <c r="BH49" s="328"/>
+      <c r="BI49" s="246"/>
     </row>
     <row r="50" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A50" s="277" t="s">
+      <c r="A50" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="278"/>
+      <c r="B50" s="281"/>
       <c r="C50" s="49" t="s">
         <v>84</v>
       </c>
@@ -30497,17 +30547,17 @@
       <c r="BF50" s="175" t="s">
         <v>1042</v>
       </c>
-      <c r="BG50" s="236" t="s">
-        <v>2944</v>
-      </c>
-      <c r="BH50" s="325"/>
-      <c r="BI50" s="243"/>
+      <c r="BG50" s="239" t="s">
+        <v>2938</v>
+      </c>
+      <c r="BH50" s="328"/>
+      <c r="BI50" s="246"/>
     </row>
     <row r="51" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A51" s="277" t="s">
+      <c r="A51" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="278"/>
+      <c r="B51" s="281"/>
       <c r="C51" s="49" t="s">
         <v>86</v>
       </c>
@@ -30674,17 +30724,17 @@
       <c r="BF51" s="174" t="s">
         <v>1140</v>
       </c>
-      <c r="BG51" s="236" t="s">
-        <v>2945</v>
-      </c>
-      <c r="BH51" s="325"/>
-      <c r="BI51" s="243"/>
+      <c r="BG51" s="239" t="s">
+        <v>2939</v>
+      </c>
+      <c r="BH51" s="328"/>
+      <c r="BI51" s="246"/>
     </row>
     <row r="52" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A52" s="277" t="s">
+      <c r="A52" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="278"/>
+      <c r="B52" s="281"/>
       <c r="C52" s="49" t="s">
         <v>88</v>
       </c>
@@ -30849,17 +30899,17 @@
       <c r="BF52" s="175" t="s">
         <v>1126</v>
       </c>
-      <c r="BG52" s="236" t="s">
-        <v>2946</v>
-      </c>
-      <c r="BH52" s="325"/>
-      <c r="BI52" s="243"/>
+      <c r="BG52" s="239" t="s">
+        <v>2940</v>
+      </c>
+      <c r="BH52" s="328"/>
+      <c r="BI52" s="246"/>
     </row>
     <row r="53" spans="1:61" s="125" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A53" s="291" t="s">
+      <c r="A53" s="294" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="292"/>
+      <c r="B53" s="295"/>
       <c r="C53" s="66" t="s">
         <v>89</v>
       </c>
@@ -30992,17 +31042,17 @@
       <c r="BF53" s="184" t="s">
         <v>1127</v>
       </c>
-      <c r="BG53" s="227" t="s">
+      <c r="BG53" s="230" t="s">
         <v>2605</v>
       </c>
-      <c r="BH53" s="228"/>
+      <c r="BH53" s="231"/>
       <c r="BI53" s="223"/>
     </row>
     <row r="54" spans="1:61" s="171" customFormat="1" ht="153" x14ac:dyDescent="0.2">
-      <c r="A54" s="287" t="s">
+      <c r="A54" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="288"/>
+      <c r="B54" s="291"/>
       <c r="C54" s="161" t="s">
         <v>92</v>
       </c>
@@ -31120,10 +31170,10 @@
       <c r="BI54" s="216"/>
     </row>
     <row r="55" spans="1:61" s="125" customFormat="1" ht="255" x14ac:dyDescent="0.2">
-      <c r="A55" s="291" t="s">
+      <c r="A55" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="B55" s="292"/>
+      <c r="B55" s="295"/>
       <c r="C55" s="65" t="s">
         <v>93</v>
       </c>
@@ -31259,10 +31309,10 @@
       <c r="BI55" s="206"/>
     </row>
     <row r="56" spans="1:61" s="125" customFormat="1" ht="206.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="291" t="s">
+      <c r="A56" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="292"/>
+      <c r="B56" s="295"/>
       <c r="C56" s="65" t="s">
         <v>94</v>
       </c>
@@ -31393,19 +31443,19 @@
       <c r="BF56" s="184" t="s">
         <v>948</v>
       </c>
-      <c r="BG56" s="227" t="s">
+      <c r="BG56" s="230" t="s">
         <v>2912</v>
       </c>
-      <c r="BH56" s="324"/>
+      <c r="BH56" s="327"/>
       <c r="BI56" s="224" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="57" spans="1:61" s="171" customFormat="1" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="287" t="s">
+      <c r="A57" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="288"/>
+      <c r="B57" s="291"/>
       <c r="C57" s="161" t="s">
         <v>95</v>
       </c>
@@ -31575,10 +31625,10 @@
       <c r="BI57" s="206"/>
     </row>
     <row r="58" spans="1:61" s="125" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="291" t="s">
+      <c r="A58" s="294" t="s">
         <v>64</v>
       </c>
-      <c r="B58" s="292"/>
+      <c r="B58" s="295"/>
       <c r="C58" s="65" t="s">
         <v>96</v>
       </c>
@@ -31740,10 +31790,10 @@
       <c r="BI58" s="206"/>
     </row>
     <row r="59" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="277" t="s">
+      <c r="A59" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="278"/>
+      <c r="B59" s="281"/>
       <c r="C59" s="48" t="s">
         <v>97</v>
       </c>
@@ -31910,10 +31960,10 @@
       </c>
     </row>
     <row r="60" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="277" t="s">
+      <c r="A60" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B60" s="278"/>
+      <c r="B60" s="281"/>
       <c r="C60" s="48" t="s">
         <v>98</v>
       </c>
@@ -32080,10 +32130,10 @@
       </c>
     </row>
     <row r="61" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="277" t="s">
+      <c r="A61" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="278"/>
+      <c r="B61" s="281"/>
       <c r="C61" s="48" t="s">
         <v>99</v>
       </c>
@@ -32236,10 +32286,10 @@
       </c>
     </row>
     <row r="62" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="277" t="s">
+      <c r="A62" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="278"/>
+      <c r="B62" s="281"/>
       <c r="C62" s="48" t="s">
         <v>102</v>
       </c>
@@ -32392,10 +32442,10 @@
       </c>
     </row>
     <row r="63" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="277" t="s">
+      <c r="A63" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="278"/>
+      <c r="B63" s="281"/>
       <c r="C63" s="48" t="s">
         <v>104</v>
       </c>
@@ -32538,10 +32588,10 @@
       </c>
     </row>
     <row r="64" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="277" t="s">
+      <c r="A64" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="278"/>
+      <c r="B64" s="281"/>
       <c r="C64" s="48" t="s">
         <v>106</v>
       </c>
@@ -32684,10 +32734,10 @@
       </c>
     </row>
     <row r="65" spans="1:62" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="277" t="s">
+      <c r="A65" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="278"/>
+      <c r="B65" s="281"/>
       <c r="C65" s="48" t="s">
         <v>107</v>
       </c>
@@ -32792,10 +32842,10 @@
       </c>
     </row>
     <row r="66" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="277" t="s">
+      <c r="A66" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="278"/>
+      <c r="B66" s="281"/>
       <c r="C66" s="49" t="s">
         <v>108</v>
       </c>
@@ -32900,10 +32950,10 @@
       </c>
     </row>
     <row r="67" spans="1:62" s="125" customFormat="1" ht="180.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="291" t="s">
+      <c r="A67" s="294" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="292"/>
+      <c r="B67" s="295"/>
       <c r="C67" s="66" t="s">
         <v>109</v>
       </c>
@@ -33073,10 +33123,10 @@
       <c r="BI67" s="206"/>
     </row>
     <row r="68" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A68" s="277" t="s">
+      <c r="A68" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="278"/>
+      <c r="B68" s="281"/>
       <c r="C68" s="49" t="s">
         <v>110</v>
       </c>
@@ -33243,10 +33293,10 @@
       </c>
     </row>
     <row r="69" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A69" s="277" t="s">
+      <c r="A69" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="278"/>
+      <c r="B69" s="281"/>
       <c r="C69" s="49" t="s">
         <v>111</v>
       </c>
@@ -33413,10 +33463,10 @@
       </c>
     </row>
     <row r="70" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A70" s="277" t="s">
+      <c r="A70" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="278"/>
+      <c r="B70" s="281"/>
       <c r="C70" s="49" t="s">
         <v>112</v>
       </c>
@@ -33583,10 +33633,10 @@
       </c>
     </row>
     <row r="71" spans="1:62" ht="204" x14ac:dyDescent="0.2">
-      <c r="A71" s="277" t="s">
+      <c r="A71" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="278"/>
+      <c r="B71" s="281"/>
       <c r="C71" s="49" t="s">
         <v>113</v>
       </c>
@@ -33753,10 +33803,10 @@
       </c>
     </row>
     <row r="72" spans="1:62" ht="204" x14ac:dyDescent="0.2">
-      <c r="A72" s="277" t="s">
+      <c r="A72" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="278"/>
+      <c r="B72" s="281"/>
       <c r="C72" s="49" t="s">
         <v>114</v>
       </c>
@@ -33923,10 +33973,10 @@
       </c>
     </row>
     <row r="73" spans="1:62" ht="255" x14ac:dyDescent="0.2">
-      <c r="A73" s="277" t="s">
+      <c r="A73" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="278"/>
+      <c r="B73" s="281"/>
       <c r="C73" s="49" t="s">
         <v>115</v>
       </c>
@@ -34093,10 +34143,10 @@
       </c>
     </row>
     <row r="74" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="277" t="s">
+      <c r="A74" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="278"/>
+      <c r="B74" s="281"/>
       <c r="C74" s="49" t="s">
         <v>116</v>
       </c>
@@ -34263,10 +34313,10 @@
       </c>
     </row>
     <row r="75" spans="1:62" s="100" customFormat="1" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="279" t="s">
+      <c r="A75" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="280"/>
+      <c r="B75" s="283"/>
       <c r="C75" s="50" t="s">
         <v>117</v>
       </c>
@@ -34409,10 +34459,10 @@
       <c r="BJ75" s="96"/>
     </row>
     <row r="76" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="277" t="s">
+      <c r="A76" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="278"/>
+      <c r="B76" s="281"/>
       <c r="C76" s="48" t="s">
         <v>119</v>
       </c>
@@ -34571,10 +34621,10 @@
       </c>
     </row>
     <row r="77" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="277" t="s">
+      <c r="A77" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="278"/>
+      <c r="B77" s="281"/>
       <c r="C77" s="48" t="s">
         <v>121</v>
       </c>
@@ -34731,10 +34781,10 @@
       </c>
     </row>
     <row r="78" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="277" t="s">
+      <c r="A78" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="278"/>
+      <c r="B78" s="281"/>
       <c r="C78" s="48" t="s">
         <v>123</v>
       </c>
@@ -34891,10 +34941,10 @@
       </c>
     </row>
     <row r="79" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A79" s="277" t="s">
+      <c r="A79" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="278"/>
+      <c r="B79" s="281"/>
       <c r="C79" s="48" t="s">
         <v>125</v>
       </c>
@@ -35051,10 +35101,10 @@
       </c>
     </row>
     <row r="80" spans="1:62" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="277" t="s">
+      <c r="A80" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="278"/>
+      <c r="B80" s="281"/>
       <c r="C80" s="48" t="s">
         <v>127</v>
       </c>
@@ -35197,10 +35247,10 @@
       </c>
     </row>
     <row r="81" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="277" t="s">
+      <c r="A81" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="278"/>
+      <c r="B81" s="281"/>
       <c r="C81" s="49" t="s">
         <v>129</v>
       </c>
@@ -35343,10 +35393,10 @@
       </c>
     </row>
     <row r="82" spans="1:62" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="279" t="s">
+      <c r="A82" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="280"/>
+      <c r="B82" s="283"/>
       <c r="C82" s="50" t="s">
         <v>130</v>
       </c>
@@ -35484,10 +35534,10 @@
       <c r="BI82" s="206"/>
     </row>
     <row r="83" spans="1:62" ht="318.75" x14ac:dyDescent="0.2">
-      <c r="A83" s="277" t="s">
+      <c r="A83" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="278"/>
+      <c r="B83" s="281"/>
       <c r="C83" s="49" t="s">
         <v>132</v>
       </c>
@@ -35642,10 +35692,10 @@
       </c>
     </row>
     <row r="84" spans="1:62" s="100" customFormat="1" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A84" s="279" t="s">
+      <c r="A84" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="280"/>
+      <c r="B84" s="283"/>
       <c r="C84" s="50" t="s">
         <v>133</v>
       </c>
@@ -35793,10 +35843,10 @@
       <c r="BI84" s="206"/>
     </row>
     <row r="85" spans="1:62" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="277" t="s">
+      <c r="A85" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="278"/>
+      <c r="B85" s="281"/>
       <c r="C85" s="49" t="s">
         <v>135</v>
       </c>
@@ -35943,10 +35993,10 @@
       <c r="BF85" s="181"/>
     </row>
     <row r="86" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A86" s="277" t="s">
+      <c r="A86" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="278"/>
+      <c r="B86" s="281"/>
       <c r="C86" s="49" t="s">
         <v>136</v>
       </c>
@@ -36085,10 +36135,10 @@
       </c>
     </row>
     <row r="87" spans="1:62" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="277" t="s">
+      <c r="A87" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="278"/>
+      <c r="B87" s="281"/>
       <c r="C87" s="48" t="s">
         <v>138</v>
       </c>
@@ -36225,10 +36275,10 @@
       </c>
     </row>
     <row r="88" spans="1:62" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="277" t="s">
+      <c r="A88" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="278"/>
+      <c r="B88" s="281"/>
       <c r="C88" s="48" t="s">
         <v>140</v>
       </c>
@@ -36317,10 +36367,10 @@
       </c>
     </row>
     <row r="89" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A89" s="277" t="s">
+      <c r="A89" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="278"/>
+      <c r="B89" s="281"/>
       <c r="C89" s="49" t="s">
         <v>141</v>
       </c>
@@ -36409,10 +36459,10 @@
       </c>
     </row>
     <row r="90" spans="1:62" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A90" s="277" t="s">
+      <c r="A90" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="278"/>
+      <c r="B90" s="281"/>
       <c r="C90" s="48" t="s">
         <v>142</v>
       </c>
@@ -36517,16 +36567,16 @@
         <v>1055</v>
       </c>
       <c r="BF90" s="188"/>
-      <c r="BG90" s="234" t="s">
+      <c r="BG90" s="237" t="s">
         <v>2557</v>
       </c>
-      <c r="BH90" s="321"/>
+      <c r="BH90" s="324"/>
     </row>
     <row r="91" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A91" s="277" t="s">
+      <c r="A91" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="278"/>
+      <c r="B91" s="281"/>
       <c r="C91" s="49" t="s">
         <v>2560</v>
       </c>
@@ -36631,18 +36681,18 @@
         <v>1055</v>
       </c>
       <c r="BF91" s="189"/>
-      <c r="BG91" s="227" t="s">
+      <c r="BG91" s="230" t="s">
         <v>2562</v>
       </c>
-      <c r="BH91" s="229"/>
-      <c r="BI91" s="322"/>
-      <c r="BJ91" s="323"/>
+      <c r="BH91" s="232"/>
+      <c r="BI91" s="325"/>
+      <c r="BJ91" s="326"/>
     </row>
     <row r="92" spans="1:62" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A92" s="277" t="s">
+      <c r="A92" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="278"/>
+      <c r="B92" s="281"/>
       <c r="C92" s="48" t="s">
         <v>143</v>
       </c>
@@ -36747,16 +36797,16 @@
         <v>1055</v>
       </c>
       <c r="BF92" s="181"/>
-      <c r="BG92" s="227" t="s">
+      <c r="BG92" s="230" t="s">
         <v>2563</v>
       </c>
-      <c r="BH92" s="229"/>
+      <c r="BH92" s="232"/>
     </row>
     <row r="93" spans="1:62" ht="102" x14ac:dyDescent="0.2">
-      <c r="A93" s="277" t="s">
+      <c r="A93" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="278"/>
+      <c r="B93" s="281"/>
       <c r="C93" s="48" t="s">
         <v>144</v>
       </c>
@@ -36877,10 +36927,10 @@
       </c>
     </row>
     <row r="94" spans="1:62" ht="204" x14ac:dyDescent="0.2">
-      <c r="A94" s="277" t="s">
+      <c r="A94" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="278"/>
+      <c r="B94" s="281"/>
       <c r="C94" s="48" t="s">
         <v>146</v>
       </c>
@@ -37001,10 +37051,10 @@
       </c>
     </row>
     <row r="95" spans="1:62" ht="204" x14ac:dyDescent="0.2">
-      <c r="A95" s="277" t="s">
+      <c r="A95" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="278"/>
+      <c r="B95" s="281"/>
       <c r="C95" s="48" t="s">
         <v>148</v>
       </c>
@@ -37125,10 +37175,10 @@
       </c>
     </row>
     <row r="96" spans="1:62" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="279" t="s">
+      <c r="A96" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="280"/>
+      <c r="B96" s="283"/>
       <c r="C96" s="50" t="s">
         <v>150</v>
       </c>
@@ -37224,10 +37274,10 @@
       <c r="BI96" s="206"/>
     </row>
     <row r="97" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A97" s="277" t="s">
+      <c r="A97" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B97" s="278"/>
+      <c r="B97" s="281"/>
       <c r="C97" s="48" t="s">
         <v>152</v>
       </c>
@@ -37348,10 +37398,10 @@
       </c>
     </row>
     <row r="98" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A98" s="277" t="s">
+      <c r="A98" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="278"/>
+      <c r="B98" s="281"/>
       <c r="C98" s="49" t="s">
         <v>154</v>
       </c>
@@ -37472,10 +37522,10 @@
       </c>
     </row>
     <row r="99" spans="1:61" s="171" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A99" s="287" t="s">
+      <c r="A99" s="290" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="288"/>
+      <c r="B99" s="291"/>
       <c r="C99" s="161" t="s">
         <v>156</v>
       </c>
@@ -37577,10 +37627,10 @@
       <c r="BI99" s="206"/>
     </row>
     <row r="100" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A100" s="277" t="s">
+      <c r="A100" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B100" s="278"/>
+      <c r="B100" s="281"/>
       <c r="C100" s="48" t="s">
         <v>158</v>
       </c>
@@ -37699,10 +37749,10 @@
       </c>
     </row>
     <row r="101" spans="1:61" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A101" s="281" t="s">
+      <c r="A101" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B101" s="282"/>
+      <c r="B101" s="285"/>
       <c r="C101" s="51" t="s">
         <v>159</v>
       </c>
@@ -37810,10 +37860,10 @@
       <c r="BI101" s="206"/>
     </row>
     <row r="102" spans="1:61" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A102" s="277" t="s">
+      <c r="A102" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B102" s="278"/>
+      <c r="B102" s="281"/>
       <c r="C102" s="49" t="s">
         <v>161</v>
       </c>
@@ -37932,10 +37982,10 @@
       </c>
     </row>
     <row r="103" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A103" s="277" t="s">
+      <c r="A103" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B103" s="278"/>
+      <c r="B103" s="281"/>
       <c r="C103" s="49" t="s">
         <v>163</v>
       </c>
@@ -38054,10 +38104,10 @@
       </c>
     </row>
     <row r="104" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A104" s="277" t="s">
+      <c r="A104" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B104" s="278"/>
+      <c r="B104" s="281"/>
       <c r="C104" s="49" t="s">
         <v>165</v>
       </c>
@@ -38140,10 +38190,10 @@
       </c>
     </row>
     <row r="105" spans="1:61" s="100" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A105" s="279" t="s">
+      <c r="A105" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="280"/>
+      <c r="B105" s="283"/>
       <c r="C105" s="50" t="s">
         <v>166</v>
       </c>
@@ -38223,10 +38273,10 @@
       <c r="BI105" s="206"/>
     </row>
     <row r="106" spans="1:61" s="100" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A106" s="279" t="s">
+      <c r="A106" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="280"/>
+      <c r="B106" s="283"/>
       <c r="C106" s="50" t="s">
         <v>168</v>
       </c>
@@ -38306,10 +38356,10 @@
       <c r="BI106" s="206"/>
     </row>
     <row r="107" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A107" s="277" t="s">
+      <c r="A107" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B107" s="278"/>
+      <c r="B107" s="281"/>
       <c r="C107" s="49" t="s">
         <v>170</v>
       </c>
@@ -38388,17 +38438,17 @@
       <c r="BF107" s="174" t="s">
         <v>1049</v>
       </c>
-      <c r="BG107" s="227" t="s">
-        <v>1055</v>
-      </c>
-      <c r="BH107" s="228"/>
-      <c r="BI107" s="229"/>
+      <c r="BG107" s="230" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BH107" s="231"/>
+      <c r="BI107" s="232"/>
     </row>
     <row r="108" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A108" s="277" t="s">
+      <c r="A108" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B108" s="278"/>
+      <c r="B108" s="281"/>
       <c r="C108" s="49" t="s">
         <v>172</v>
       </c>
@@ -38479,10 +38529,10 @@
       </c>
     </row>
     <row r="109" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A109" s="277" t="s">
+      <c r="A109" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="278"/>
+      <c r="B109" s="281"/>
       <c r="C109" s="49" t="s">
         <v>174</v>
       </c>
@@ -38563,10 +38613,10 @@
       </c>
     </row>
     <row r="110" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A110" s="277" t="s">
+      <c r="A110" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="278"/>
+      <c r="B110" s="281"/>
       <c r="C110" s="49" t="s">
         <v>176</v>
       </c>
@@ -38647,10 +38697,10 @@
       </c>
     </row>
     <row r="111" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A111" s="277" t="s">
+      <c r="A111" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="278"/>
+      <c r="B111" s="281"/>
       <c r="C111" s="49" t="s">
         <v>178</v>
       </c>
@@ -38731,10 +38781,10 @@
       </c>
     </row>
     <row r="112" spans="1:61" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A112" s="277" t="s">
+      <c r="A112" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B112" s="278"/>
+      <c r="B112" s="281"/>
       <c r="C112" s="49" t="s">
         <v>179</v>
       </c>
@@ -38815,10 +38865,10 @@
       </c>
     </row>
     <row r="113" spans="1:62" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A113" s="277" t="s">
+      <c r="A113" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="278"/>
+      <c r="B113" s="281"/>
       <c r="C113" s="49" t="s">
         <v>180</v>
       </c>
@@ -38899,10 +38949,10 @@
       </c>
     </row>
     <row r="114" spans="1:62" s="100" customFormat="1" ht="107.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="279" t="s">
+      <c r="A114" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="280"/>
+      <c r="B114" s="283"/>
       <c r="C114" s="50" t="s">
         <v>182</v>
       </c>
@@ -39008,10 +39058,10 @@
       <c r="BI114" s="206"/>
     </row>
     <row r="115" spans="1:62" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="277" t="s">
+      <c r="A115" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="278"/>
+      <c r="B115" s="281"/>
       <c r="C115" s="48" t="s">
         <v>184</v>
       </c>
@@ -39134,10 +39184,10 @@
       <c r="BF115" s="181"/>
     </row>
     <row r="116" spans="1:62" s="100" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A116" s="279" t="s">
+      <c r="A116" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="280"/>
+      <c r="B116" s="283"/>
       <c r="C116" s="50" t="s">
         <v>185</v>
       </c>
@@ -39248,10 +39298,10 @@
       <c r="BJ116" s="96"/>
     </row>
     <row r="117" spans="1:62" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A117" s="277" t="s">
+      <c r="A117" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="278"/>
+      <c r="B117" s="281"/>
       <c r="C117" s="48" t="s">
         <v>187</v>
       </c>
@@ -39374,10 +39424,10 @@
       <c r="BF117" s="181"/>
     </row>
     <row r="118" spans="1:62" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="277" t="s">
+      <c r="A118" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B118" s="278"/>
+      <c r="B118" s="281"/>
       <c r="C118" s="48" t="s">
         <v>189</v>
       </c>
@@ -39500,10 +39550,10 @@
       <c r="BF118" s="181"/>
     </row>
     <row r="119" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A119" s="277" t="s">
+      <c r="A119" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="278"/>
+      <c r="B119" s="281"/>
       <c r="C119" s="48" t="s">
         <v>191</v>
       </c>
@@ -39626,10 +39676,10 @@
       <c r="BF119" s="181"/>
     </row>
     <row r="120" spans="1:62" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="277" t="s">
+      <c r="A120" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B120" s="278"/>
+      <c r="B120" s="281"/>
       <c r="C120" s="49" t="s">
         <v>193</v>
       </c>
@@ -39752,10 +39802,10 @@
       <c r="BF120" s="181"/>
     </row>
     <row r="121" spans="1:62" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="277" t="s">
+      <c r="A121" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="278"/>
+      <c r="B121" s="281"/>
       <c r="C121" s="49" t="s">
         <v>194</v>
       </c>
@@ -39874,10 +39924,10 @@
       <c r="BF121" s="181"/>
     </row>
     <row r="122" spans="1:62" s="100" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A122" s="279" t="s">
+      <c r="A122" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="280"/>
+      <c r="B122" s="283"/>
       <c r="C122" s="50" t="s">
         <v>195</v>
       </c>
@@ -39975,10 +40025,10 @@
       <c r="BI122" s="206"/>
     </row>
     <row r="123" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A123" s="277" t="s">
+      <c r="A123" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B123" s="278"/>
+      <c r="B123" s="281"/>
       <c r="C123" s="49" t="s">
         <v>196</v>
       </c>
@@ -40097,10 +40147,10 @@
       <c r="BF123" s="181"/>
     </row>
     <row r="124" spans="1:62" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A124" s="277" t="s">
+      <c r="A124" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B124" s="278"/>
+      <c r="B124" s="281"/>
       <c r="C124" s="49" t="s">
         <v>197</v>
       </c>
@@ -40219,10 +40269,10 @@
       <c r="BF124" s="181"/>
     </row>
     <row r="125" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A125" s="277" t="s">
+      <c r="A125" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B125" s="278"/>
+      <c r="B125" s="281"/>
       <c r="C125" s="49" t="s">
         <v>198</v>
       </c>
@@ -40341,10 +40391,10 @@
       <c r="BF125" s="181"/>
     </row>
     <row r="126" spans="1:62" s="100" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="279" t="s">
+      <c r="A126" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="280"/>
+      <c r="B126" s="283"/>
       <c r="C126" s="50" t="s">
         <v>199</v>
       </c>
@@ -40446,10 +40496,10 @@
       <c r="BI126" s="206"/>
     </row>
     <row r="127" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A127" s="277" t="s">
+      <c r="A127" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="278"/>
+      <c r="B127" s="281"/>
       <c r="C127" s="48" t="s">
         <v>200</v>
       </c>
@@ -40568,10 +40618,10 @@
       <c r="BF127" s="181"/>
     </row>
     <row r="128" spans="1:62" ht="51" x14ac:dyDescent="0.2">
-      <c r="A128" s="277" t="s">
+      <c r="A128" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="278"/>
+      <c r="B128" s="281"/>
       <c r="C128" s="48" t="s">
         <v>201</v>
       </c>
@@ -40686,10 +40736,10 @@
       <c r="BF128" s="181"/>
     </row>
     <row r="129" spans="1:61" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="277" t="s">
+      <c r="A129" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="278"/>
+      <c r="B129" s="281"/>
       <c r="C129" s="48" t="s">
         <v>202</v>
       </c>
@@ -40804,10 +40854,10 @@
       <c r="BF129" s="181"/>
     </row>
     <row r="130" spans="1:61" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A130" s="277" t="s">
+      <c r="A130" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="278"/>
+      <c r="B130" s="281"/>
       <c r="C130" s="48" t="s">
         <v>204</v>
       </c>
@@ -40922,10 +40972,10 @@
       <c r="BF130" s="181"/>
     </row>
     <row r="131" spans="1:61" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="277" t="s">
+      <c r="A131" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B131" s="278"/>
+      <c r="B131" s="281"/>
       <c r="C131" s="48" t="s">
         <v>206</v>
       </c>
@@ -41040,10 +41090,10 @@
       <c r="BF131" s="181"/>
     </row>
     <row r="132" spans="1:61" s="100" customFormat="1" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="279" t="s">
+      <c r="A132" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="280"/>
+      <c r="B132" s="283"/>
       <c r="C132" s="112" t="s">
         <v>494</v>
       </c>
@@ -41159,10 +41209,10 @@
       <c r="BI132" s="206"/>
     </row>
     <row r="133" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A133" s="277" t="s">
+      <c r="A133" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="278"/>
+      <c r="B133" s="281"/>
       <c r="C133" s="48" t="s">
         <v>208</v>
       </c>
@@ -41289,10 +41339,10 @@
       </c>
     </row>
     <row r="134" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="277" t="s">
+      <c r="A134" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="278"/>
+      <c r="B134" s="281"/>
       <c r="C134" s="48" t="s">
         <v>210</v>
       </c>
@@ -41415,10 +41465,10 @@
       </c>
     </row>
     <row r="135" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A135" s="277" t="s">
+      <c r="A135" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B135" s="278"/>
+      <c r="B135" s="281"/>
       <c r="C135" s="48" t="s">
         <v>212</v>
       </c>
@@ -41541,10 +41591,10 @@
       </c>
     </row>
     <row r="136" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A136" s="277" t="s">
+      <c r="A136" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B136" s="278"/>
+      <c r="B136" s="281"/>
       <c r="C136" s="48" t="s">
         <v>214</v>
       </c>
@@ -41665,10 +41715,10 @@
       </c>
     </row>
     <row r="137" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A137" s="277" t="s">
+      <c r="A137" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B137" s="278"/>
+      <c r="B137" s="281"/>
       <c r="C137" s="48" t="s">
         <v>216</v>
       </c>
@@ -41791,10 +41841,10 @@
       </c>
     </row>
     <row r="138" spans="1:61" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A138" s="277" t="s">
+      <c r="A138" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B138" s="278"/>
+      <c r="B138" s="281"/>
       <c r="C138" s="48" t="s">
         <v>218</v>
       </c>
@@ -41917,10 +41967,10 @@
       </c>
     </row>
     <row r="139" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A139" s="277" t="s">
+      <c r="A139" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B139" s="278"/>
+      <c r="B139" s="281"/>
       <c r="C139" s="49" t="s">
         <v>220</v>
       </c>
@@ -42041,10 +42091,10 @@
       </c>
     </row>
     <row r="140" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A140" s="277" t="s">
+      <c r="A140" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B140" s="278"/>
+      <c r="B140" s="281"/>
       <c r="C140" s="49" t="s">
         <v>222</v>
       </c>
@@ -42167,10 +42217,10 @@
       </c>
     </row>
     <row r="141" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A141" s="277" t="s">
+      <c r="A141" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="278"/>
+      <c r="B141" s="281"/>
       <c r="C141" s="49" t="s">
         <v>224</v>
       </c>
@@ -42251,10 +42301,10 @@
       </c>
     </row>
     <row r="142" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A142" s="277" t="s">
+      <c r="A142" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="278"/>
+      <c r="B142" s="281"/>
       <c r="C142" s="49" t="s">
         <v>225</v>
       </c>
@@ -42333,10 +42383,10 @@
       </c>
     </row>
     <row r="143" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A143" s="277" t="s">
+      <c r="A143" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="278"/>
+      <c r="B143" s="281"/>
       <c r="C143" s="49" t="s">
         <v>227</v>
       </c>
@@ -42417,10 +42467,10 @@
       </c>
     </row>
     <row r="144" spans="1:61" s="121" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="289" t="s">
+      <c r="A144" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="290"/>
+      <c r="B144" s="293"/>
       <c r="C144" s="134" t="s">
         <v>507</v>
       </c>
@@ -42556,10 +42606,10 @@
       <c r="BI144" s="206"/>
     </row>
     <row r="145" spans="1:61" s="121" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="289" t="s">
+      <c r="A145" s="292" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="290"/>
+      <c r="B145" s="293"/>
       <c r="C145" s="58" t="s">
         <v>229</v>
       </c>
@@ -42695,10 +42745,10 @@
       <c r="BI145" s="206"/>
     </row>
     <row r="146" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A146" s="277" t="s">
+      <c r="A146" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B146" s="278"/>
+      <c r="B146" s="281"/>
       <c r="C146" s="48" t="s">
         <v>231</v>
       </c>
@@ -42847,10 +42897,10 @@
       </c>
     </row>
     <row r="147" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A147" s="277" t="s">
+      <c r="A147" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B147" s="278"/>
+      <c r="B147" s="281"/>
       <c r="C147" s="48" t="s">
         <v>233</v>
       </c>
@@ -42999,10 +43049,10 @@
       </c>
     </row>
     <row r="148" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A148" s="277" t="s">
+      <c r="A148" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B148" s="278"/>
+      <c r="B148" s="281"/>
       <c r="C148" s="48" t="s">
         <v>235</v>
       </c>
@@ -43151,10 +43201,10 @@
       </c>
     </row>
     <row r="149" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="277" t="s">
+      <c r="A149" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B149" s="278"/>
+      <c r="B149" s="281"/>
       <c r="C149" s="49" t="s">
         <v>236</v>
       </c>
@@ -43303,10 +43353,10 @@
       <c r="BF149" s="181"/>
     </row>
     <row r="150" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A150" s="277" t="s">
+      <c r="A150" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B150" s="278"/>
+      <c r="B150" s="281"/>
       <c r="C150" s="48" t="s">
         <v>239</v>
       </c>
@@ -43455,10 +43505,10 @@
       </c>
     </row>
     <row r="151" spans="1:61" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A151" s="277" t="s">
+      <c r="A151" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B151" s="278"/>
+      <c r="B151" s="281"/>
       <c r="C151" s="106" t="s">
         <v>506</v>
       </c>
@@ -43607,10 +43657,10 @@
       </c>
     </row>
     <row r="152" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A152" s="277" t="s">
+      <c r="A152" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B152" s="278"/>
+      <c r="B152" s="281"/>
       <c r="C152" s="106" t="s">
         <v>505</v>
       </c>
@@ -43759,10 +43809,10 @@
       </c>
     </row>
     <row r="153" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A153" s="277" t="s">
+      <c r="A153" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B153" s="278"/>
+      <c r="B153" s="281"/>
       <c r="C153" s="106" t="s">
         <v>508</v>
       </c>
@@ -43911,10 +43961,10 @@
       </c>
     </row>
     <row r="154" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A154" s="277" t="s">
+      <c r="A154" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="278"/>
+      <c r="B154" s="281"/>
       <c r="C154" s="48" t="s">
         <v>243</v>
       </c>
@@ -44063,10 +44113,10 @@
       </c>
     </row>
     <row r="155" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A155" s="277" t="s">
+      <c r="A155" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B155" s="278"/>
+      <c r="B155" s="281"/>
       <c r="C155" s="48" t="s">
         <v>244</v>
       </c>
@@ -44215,10 +44265,10 @@
       </c>
     </row>
     <row r="156" spans="1:61" s="121" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="289" t="s">
+      <c r="A156" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="B156" s="290"/>
+      <c r="B156" s="293"/>
       <c r="C156" s="134" t="s">
         <v>514</v>
       </c>
@@ -44360,10 +44410,10 @@
       <c r="BI156" s="206"/>
     </row>
     <row r="157" spans="1:61" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A157" s="277" t="s">
+      <c r="A157" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B157" s="278"/>
+      <c r="B157" s="281"/>
       <c r="C157" s="48" t="s">
         <v>245</v>
       </c>
@@ -44496,10 +44546,10 @@
       </c>
     </row>
     <row r="158" spans="1:61" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A158" s="277" t="s">
+      <c r="A158" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="278"/>
+      <c r="B158" s="281"/>
       <c r="C158" s="48" t="s">
         <v>246</v>
       </c>
@@ -44610,10 +44660,10 @@
       </c>
     </row>
     <row r="159" spans="1:61" ht="252.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="277" t="s">
+      <c r="A159" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="278"/>
+      <c r="B159" s="281"/>
       <c r="C159" s="48" t="s">
         <v>247</v>
       </c>
@@ -44724,10 +44774,10 @@
       </c>
     </row>
     <row r="160" spans="1:61" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A160" s="277" t="s">
+      <c r="A160" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="278"/>
+      <c r="B160" s="281"/>
       <c r="C160" s="48" t="s">
         <v>248</v>
       </c>
@@ -44838,10 +44888,10 @@
       </c>
     </row>
     <row r="161" spans="1:61" ht="280.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="277" t="s">
+      <c r="A161" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="278"/>
+      <c r="B161" s="281"/>
       <c r="C161" s="48" t="s">
         <v>249</v>
       </c>
@@ -44966,10 +45016,10 @@
       </c>
     </row>
     <row r="162" spans="1:61" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A162" s="277" t="s">
+      <c r="A162" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="278"/>
+      <c r="B162" s="281"/>
       <c r="C162" s="48" t="s">
         <v>250</v>
       </c>
@@ -45090,10 +45140,10 @@
       </c>
     </row>
     <row r="163" spans="1:61" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="277" t="s">
+      <c r="A163" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="278"/>
+      <c r="B163" s="281"/>
       <c r="C163" s="48" t="s">
         <v>251</v>
       </c>
@@ -45188,16 +45238,16 @@
       <c r="BF163" s="180" t="s">
         <v>1148</v>
       </c>
-      <c r="BG163" s="315" t="s">
+      <c r="BG163" s="318" t="s">
         <v>2558</v>
       </c>
-      <c r="BH163" s="315"/>
+      <c r="BH163" s="318"/>
     </row>
     <row r="164" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A164" s="277" t="s">
+      <c r="A164" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="278"/>
+      <c r="B164" s="281"/>
       <c r="C164" s="48" t="s">
         <v>252</v>
       </c>
@@ -45324,16 +45374,16 @@
       <c r="BF164" s="180" t="s">
         <v>1001</v>
       </c>
-      <c r="BG164" s="233" t="s">
+      <c r="BG164" s="236" t="s">
         <v>2564</v>
       </c>
-      <c r="BH164" s="233"/>
+      <c r="BH164" s="236"/>
     </row>
     <row r="165" spans="1:61" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="A165" s="277" t="s">
+      <c r="A165" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="278"/>
+      <c r="B165" s="281"/>
       <c r="C165" s="48" t="s">
         <v>254</v>
       </c>
@@ -45448,10 +45498,10 @@
       </c>
     </row>
     <row r="166" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A166" s="277" t="s">
+      <c r="A166" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="278"/>
+      <c r="B166" s="281"/>
       <c r="C166" s="48" t="s">
         <v>256</v>
       </c>
@@ -45566,10 +45616,10 @@
       </c>
     </row>
     <row r="167" spans="1:61" s="121" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A167" s="289" t="s">
+      <c r="A167" s="292" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="290"/>
+      <c r="B167" s="293"/>
       <c r="C167" s="134" t="s">
         <v>528</v>
       </c>
@@ -45719,10 +45769,10 @@
       <c r="BI167" s="206"/>
     </row>
     <row r="168" spans="1:61" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A168" s="281" t="s">
+      <c r="A168" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="282"/>
+      <c r="B168" s="285"/>
       <c r="C168" s="51" t="s">
         <v>257</v>
       </c>
@@ -45854,10 +45904,10 @@
       <c r="BI168" s="206"/>
     </row>
     <row r="169" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A169" s="277" t="s">
+      <c r="A169" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B169" s="278"/>
+      <c r="B169" s="281"/>
       <c r="C169" s="48" t="s">
         <v>259</v>
       </c>
@@ -45986,10 +46036,10 @@
       </c>
     </row>
     <row r="170" spans="1:61" ht="344.25" x14ac:dyDescent="0.2">
-      <c r="A170" s="277" t="s">
+      <c r="A170" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="278"/>
+      <c r="B170" s="281"/>
       <c r="C170" s="48" t="s">
         <v>260</v>
       </c>
@@ -46118,10 +46168,10 @@
       </c>
     </row>
     <row r="171" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="277" t="s">
+      <c r="A171" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B171" s="278"/>
+      <c r="B171" s="281"/>
       <c r="C171" s="48" t="s">
         <v>261</v>
       </c>
@@ -46216,10 +46266,10 @@
       <c r="BF171" s="181"/>
     </row>
     <row r="172" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A172" s="277" t="s">
+      <c r="A172" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="278"/>
+      <c r="B172" s="281"/>
       <c r="C172" s="48" t="s">
         <v>262</v>
       </c>
@@ -46308,10 +46358,10 @@
       </c>
     </row>
     <row r="173" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A173" s="277" t="s">
+      <c r="A173" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="278"/>
+      <c r="B173" s="281"/>
       <c r="C173" s="48" t="s">
         <v>264</v>
       </c>
@@ -46430,10 +46480,10 @@
       </c>
     </row>
     <row r="174" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A174" s="277" t="s">
+      <c r="A174" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="278"/>
+      <c r="B174" s="281"/>
       <c r="C174" s="48" t="s">
         <v>266</v>
       </c>
@@ -46582,10 +46632,10 @@
       </c>
     </row>
     <row r="175" spans="1:61" s="100" customFormat="1" ht="395.25" x14ac:dyDescent="0.2">
-      <c r="A175" s="279" t="s">
+      <c r="A175" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B175" s="280"/>
+      <c r="B175" s="283"/>
       <c r="C175" s="50" t="s">
         <v>267</v>
       </c>
@@ -46717,10 +46767,10 @@
       <c r="BI175" s="206"/>
     </row>
     <row r="176" spans="1:61" ht="171.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="277" t="s">
+      <c r="A176" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="278"/>
+      <c r="B176" s="281"/>
       <c r="C176" s="48" t="s">
         <v>268</v>
       </c>
@@ -46849,10 +46899,10 @@
       </c>
     </row>
     <row r="177" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A177" s="277" t="s">
+      <c r="A177" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B177" s="278"/>
+      <c r="B177" s="281"/>
       <c r="C177" s="48" t="s">
         <v>269</v>
       </c>
@@ -46981,10 +47031,10 @@
       </c>
     </row>
     <row r="178" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="277" t="s">
+      <c r="A178" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B178" s="278"/>
+      <c r="B178" s="281"/>
       <c r="C178" s="48" t="s">
         <v>270</v>
       </c>
@@ -47113,10 +47163,10 @@
       </c>
     </row>
     <row r="179" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A179" s="277" t="s">
+      <c r="A179" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B179" s="278"/>
+      <c r="B179" s="281"/>
       <c r="C179" s="48" t="s">
         <v>271</v>
       </c>
@@ -47245,10 +47295,10 @@
       </c>
     </row>
     <row r="180" spans="1:61" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A180" s="277" t="s">
+      <c r="A180" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B180" s="278"/>
+      <c r="B180" s="281"/>
       <c r="C180" s="48" t="s">
         <v>272</v>
       </c>
@@ -47375,10 +47425,10 @@
       <c r="BF180" s="180"/>
     </row>
     <row r="181" spans="1:61" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A181" s="277" t="s">
+      <c r="A181" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B181" s="278"/>
+      <c r="B181" s="281"/>
       <c r="C181" s="48" t="s">
         <v>273</v>
       </c>
@@ -47507,10 +47557,10 @@
       </c>
     </row>
     <row r="182" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A182" s="277" t="s">
+      <c r="A182" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B182" s="278"/>
+      <c r="B182" s="281"/>
       <c r="C182" s="48" t="s">
         <v>274</v>
       </c>
@@ -47639,10 +47689,10 @@
       </c>
     </row>
     <row r="183" spans="1:61" s="100" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="279" t="s">
+      <c r="A183" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B183" s="280"/>
+      <c r="B183" s="283"/>
       <c r="C183" s="112" t="s">
         <v>548</v>
       </c>
@@ -47766,10 +47816,10 @@
       <c r="BI183" s="206"/>
     </row>
     <row r="184" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A184" s="277" t="s">
+      <c r="A184" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B184" s="278"/>
+      <c r="B184" s="281"/>
       <c r="C184" s="48" t="s">
         <v>275</v>
       </c>
@@ -47890,10 +47940,10 @@
       </c>
     </row>
     <row r="185" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A185" s="277" t="s">
+      <c r="A185" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="278"/>
+      <c r="B185" s="281"/>
       <c r="C185" s="48" t="s">
         <v>276</v>
       </c>
@@ -48014,10 +48064,10 @@
       </c>
     </row>
     <row r="186" spans="1:61" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A186" s="277" t="s">
+      <c r="A186" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B186" s="278"/>
+      <c r="B186" s="281"/>
       <c r="C186" s="48" t="s">
         <v>277</v>
       </c>
@@ -48138,10 +48188,10 @@
       </c>
     </row>
     <row r="187" spans="1:61" ht="357" x14ac:dyDescent="0.2">
-      <c r="A187" s="277" t="s">
+      <c r="A187" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="278"/>
+      <c r="B187" s="281"/>
       <c r="C187" s="48" t="s">
         <v>278</v>
       </c>
@@ -48262,10 +48312,10 @@
       </c>
     </row>
     <row r="188" spans="1:61" ht="153" x14ac:dyDescent="0.2">
-      <c r="A188" s="277" t="s">
+      <c r="A188" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="278"/>
+      <c r="B188" s="281"/>
       <c r="C188" s="48" t="s">
         <v>279</v>
       </c>
@@ -48386,10 +48436,10 @@
       </c>
     </row>
     <row r="189" spans="1:61" ht="267.75" x14ac:dyDescent="0.2">
-      <c r="A189" s="277" t="s">
+      <c r="A189" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B189" s="278"/>
+      <c r="B189" s="281"/>
       <c r="C189" s="48" t="s">
         <v>280</v>
       </c>
@@ -48498,10 +48548,10 @@
       </c>
     </row>
     <row r="190" spans="1:61" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A190" s="277" t="s">
+      <c r="A190" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B190" s="278"/>
+      <c r="B190" s="281"/>
       <c r="C190" s="48" t="s">
         <v>281</v>
       </c>
@@ -48622,10 +48672,10 @@
       </c>
     </row>
     <row r="191" spans="1:61" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="277" t="s">
+      <c r="A191" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="278"/>
+      <c r="B191" s="281"/>
       <c r="C191" s="48" t="s">
         <v>282</v>
       </c>
@@ -48744,10 +48794,10 @@
       </c>
     </row>
     <row r="192" spans="1:61" ht="102" x14ac:dyDescent="0.2">
-      <c r="A192" s="277" t="s">
+      <c r="A192" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B192" s="278"/>
+      <c r="B192" s="281"/>
       <c r="C192" s="48" t="s">
         <v>284</v>
       </c>
@@ -48856,10 +48906,10 @@
       </c>
     </row>
     <row r="193" spans="1:62" ht="153" x14ac:dyDescent="0.2">
-      <c r="A193" s="277" t="s">
+      <c r="A193" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="278"/>
+      <c r="B193" s="281"/>
       <c r="C193" s="48" t="s">
         <v>286</v>
       </c>
@@ -48952,10 +49002,10 @@
       </c>
     </row>
     <row r="194" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
-      <c r="A194" s="277" t="s">
+      <c r="A194" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B194" s="278"/>
+      <c r="B194" s="281"/>
       <c r="C194" s="49" t="s">
         <v>287</v>
       </c>
@@ -49058,10 +49108,10 @@
       </c>
     </row>
     <row r="195" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A195" s="277" t="s">
+      <c r="A195" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B195" s="278"/>
+      <c r="B195" s="281"/>
       <c r="C195" s="48" t="s">
         <v>289</v>
       </c>
@@ -49160,10 +49210,10 @@
       </c>
     </row>
     <row r="196" spans="1:62" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A196" s="277" t="s">
+      <c r="A196" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="278"/>
+      <c r="B196" s="281"/>
       <c r="C196" s="48" t="s">
         <v>291</v>
       </c>
@@ -49250,10 +49300,10 @@
       </c>
     </row>
     <row r="197" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A197" s="277" t="s">
+      <c r="A197" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B197" s="278"/>
+      <c r="B197" s="281"/>
       <c r="C197" s="48" t="s">
         <v>292</v>
       </c>
@@ -49368,10 +49418,10 @@
       </c>
     </row>
     <row r="198" spans="1:62" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="277" t="s">
+      <c r="A198" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="278"/>
+      <c r="B198" s="281"/>
       <c r="C198" s="48" t="s">
         <v>294</v>
       </c>
@@ -49486,10 +49536,10 @@
       </c>
     </row>
     <row r="199" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A199" s="277" t="s">
+      <c r="A199" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B199" s="278"/>
+      <c r="B199" s="281"/>
       <c r="C199" s="48" t="s">
         <v>295</v>
       </c>
@@ -49568,10 +49618,10 @@
       </c>
     </row>
     <row r="200" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A200" s="277" t="s">
+      <c r="A200" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B200" s="278"/>
+      <c r="B200" s="281"/>
       <c r="C200" s="48" t="s">
         <v>297</v>
       </c>
@@ -49658,10 +49708,10 @@
       </c>
     </row>
     <row r="201" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A201" s="277" t="s">
+      <c r="A201" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B201" s="278"/>
+      <c r="B201" s="281"/>
       <c r="C201" s="48" t="s">
         <v>299</v>
       </c>
@@ -49748,10 +49798,10 @@
       </c>
     </row>
     <row r="202" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
-      <c r="A202" s="277" t="s">
+      <c r="A202" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B202" s="278"/>
+      <c r="B202" s="281"/>
       <c r="C202" s="48" t="s">
         <v>301</v>
       </c>
@@ -49838,10 +49888,10 @@
       </c>
     </row>
     <row r="203" spans="1:62" ht="153" x14ac:dyDescent="0.2">
-      <c r="A203" s="277" t="s">
+      <c r="A203" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B203" s="278"/>
+      <c r="B203" s="281"/>
       <c r="C203" s="49" t="s">
         <v>302</v>
       </c>
@@ -49958,10 +50008,10 @@
       </c>
     </row>
     <row r="204" spans="1:62" ht="153" x14ac:dyDescent="0.2">
-      <c r="A204" s="277" t="s">
+      <c r="A204" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="278"/>
+      <c r="B204" s="281"/>
       <c r="C204" s="49" t="s">
         <v>303</v>
       </c>
@@ -50078,10 +50128,10 @@
       </c>
     </row>
     <row r="205" spans="1:62" s="171" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="287" t="s">
+      <c r="A205" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="288"/>
+      <c r="B205" s="291"/>
       <c r="C205" s="161" t="s">
         <v>304</v>
       </c>
@@ -50199,10 +50249,10 @@
       <c r="BI205" s="206"/>
     </row>
     <row r="206" spans="1:62" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="277" t="s">
+      <c r="A206" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="278"/>
+      <c r="B206" s="281"/>
       <c r="C206" s="49" t="s">
         <v>2573</v>
       </c>
@@ -50315,20 +50365,20 @@
         <v>1055</v>
       </c>
       <c r="BF206" s="180"/>
-      <c r="BG206" s="236" t="s">
+      <c r="BG206" s="239" t="s">
         <v>2601</v>
       </c>
-      <c r="BH206" s="235"/>
-      <c r="BI206" s="234" t="s">
-        <v>1055</v>
-      </c>
-      <c r="BJ206" s="235"/>
+      <c r="BH206" s="238"/>
+      <c r="BI206" s="237" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BJ206" s="238"/>
     </row>
     <row r="207" spans="1:62" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="277" t="s">
+      <c r="A207" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="278"/>
+      <c r="B207" s="281"/>
       <c r="C207" s="49" t="s">
         <v>2571</v>
       </c>
@@ -50435,20 +50485,20 @@
         <v>1055</v>
       </c>
       <c r="BF207" s="180"/>
-      <c r="BG207" s="234" t="s">
+      <c r="BG207" s="237" t="s">
         <v>2598</v>
       </c>
-      <c r="BH207" s="235"/>
-      <c r="BI207" s="234" t="s">
-        <v>1055</v>
-      </c>
-      <c r="BJ207" s="235"/>
+      <c r="BH207" s="238"/>
+      <c r="BI207" s="237" t="s">
+        <v>1055</v>
+      </c>
+      <c r="BJ207" s="238"/>
     </row>
     <row r="208" spans="1:62" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="279" t="s">
+      <c r="A208" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="B208" s="280"/>
+      <c r="B208" s="283"/>
       <c r="C208" s="112" t="s">
         <v>586</v>
       </c>
@@ -50546,10 +50596,10 @@
       <c r="BI208" s="206"/>
     </row>
     <row r="209" spans="1:61" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="277" t="s">
+      <c r="A209" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B209" s="278"/>
+      <c r="B209" s="281"/>
       <c r="C209" s="48" t="s">
         <v>306</v>
       </c>
@@ -50656,16 +50706,16 @@
         <v>1055</v>
       </c>
       <c r="BF209" s="180"/>
-      <c r="BG209" s="227" t="s">
+      <c r="BG209" s="230" t="s">
         <v>2599</v>
       </c>
-      <c r="BH209" s="229"/>
+      <c r="BH209" s="232"/>
     </row>
     <row r="210" spans="1:61" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="277" t="s">
+      <c r="A210" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B210" s="278"/>
+      <c r="B210" s="281"/>
       <c r="C210" s="48" t="s">
         <v>308</v>
       </c>
@@ -50772,19 +50822,19 @@
         <v>1055</v>
       </c>
       <c r="BF210" s="180"/>
-      <c r="BG210" s="227" t="s">
-        <v>2915</v>
-      </c>
-      <c r="BH210" s="229"/>
+      <c r="BG210" s="230" t="s">
+        <v>2914</v>
+      </c>
+      <c r="BH210" s="232"/>
       <c r="BI210" s="208" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="211" spans="1:61" s="100" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="279" t="s">
+      <c r="A211" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="B211" s="280"/>
+      <c r="B211" s="283"/>
       <c r="C211" s="112" t="s">
         <v>587</v>
       </c>
@@ -50890,10 +50940,10 @@
       <c r="BI211" s="206"/>
     </row>
     <row r="212" spans="1:61" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="277" t="s">
+      <c r="A212" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B212" s="278"/>
+      <c r="B212" s="281"/>
       <c r="C212" s="48" t="s">
         <v>310</v>
       </c>
@@ -50996,17 +51046,17 @@
         <v>1055</v>
       </c>
       <c r="BF212" s="180"/>
-      <c r="BG212" s="227" t="s">
+      <c r="BG212" s="230" t="s">
         <v>2600</v>
       </c>
-      <c r="BH212" s="228"/>
-      <c r="BI212" s="229"/>
+      <c r="BH212" s="231"/>
+      <c r="BI212" s="232"/>
     </row>
     <row r="213" spans="1:61" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="277" t="s">
+      <c r="A213" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B213" s="278"/>
+      <c r="B213" s="281"/>
       <c r="C213" s="48" t="s">
         <v>312</v>
       </c>
@@ -51109,21 +51159,21 @@
         <v>1055</v>
       </c>
       <c r="BF213" s="180"/>
-      <c r="BG213" s="230" t="s">
+      <c r="BG213" s="233" t="s">
         <v>2559</v>
       </c>
-      <c r="BH213" s="231"/>
-      <c r="BI213" s="232"/>
-    </row>
-    <row r="214" spans="1:61" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A214" s="277" t="s">
+      <c r="BH213" s="234"/>
+      <c r="BI213" s="235"/>
+    </row>
+    <row r="214" spans="1:61" ht="140.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B214" s="278"/>
+      <c r="B214" s="281"/>
       <c r="C214" s="48" t="s">
         <v>314</v>
       </c>
-      <c r="D214" s="106" t="s">
+      <c r="D214" s="49" t="s">
         <v>588</v>
       </c>
       <c r="E214" s="101" t="s">
@@ -51226,19 +51276,19 @@
         <v>1055</v>
       </c>
       <c r="BF214" s="180"/>
-      <c r="BG214" s="227" t="s">
-        <v>2917</v>
-      </c>
-      <c r="BH214" s="229"/>
+      <c r="BG214" s="230" t="s">
+        <v>2943</v>
+      </c>
+      <c r="BH214" s="232"/>
       <c r="BI214" s="208" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="215" spans="1:61" s="116" customFormat="1" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="281" t="s">
+      <c r="A215" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B215" s="282"/>
+      <c r="B215" s="285"/>
       <c r="C215" s="51" t="s">
         <v>315</v>
       </c>
@@ -51345,17 +51395,17 @@
         <v>1055</v>
       </c>
       <c r="BF215" s="180"/>
-      <c r="BG215" s="227" t="s">
-        <v>2918</v>
-      </c>
-      <c r="BH215" s="229"/>
+      <c r="BG215" s="230" t="s">
+        <v>2941</v>
+      </c>
+      <c r="BH215" s="232"/>
       <c r="BI215" s="206"/>
     </row>
     <row r="216" spans="1:61" s="100" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="279" t="s">
+      <c r="A216" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="B216" s="280"/>
+      <c r="B216" s="283"/>
       <c r="C216" s="112" t="s">
         <v>593</v>
       </c>
@@ -51449,10 +51499,10 @@
       <c r="BI216" s="206"/>
     </row>
     <row r="217" spans="1:61" ht="93" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="277" t="s">
+      <c r="A217" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B217" s="278"/>
+      <c r="B217" s="281"/>
       <c r="C217" s="48" t="s">
         <v>316</v>
       </c>
@@ -51555,17 +51605,17 @@
         <v>1055</v>
       </c>
       <c r="BF217" s="180"/>
-      <c r="BG217" s="230" t="s">
-        <v>2919</v>
-      </c>
-      <c r="BH217" s="231"/>
-      <c r="BI217" s="232"/>
+      <c r="BG217" s="329" t="s">
+        <v>2942</v>
+      </c>
+      <c r="BH217" s="226"/>
+      <c r="BI217" s="227"/>
     </row>
     <row r="218" spans="1:61" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="277" t="s">
+      <c r="A218" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B218" s="278"/>
+      <c r="B218" s="281"/>
       <c r="C218" s="49" t="s">
         <v>318</v>
       </c>
@@ -51668,17 +51718,15 @@
         <v>1055</v>
       </c>
       <c r="BF218" s="180"/>
-      <c r="BG218" s="230" t="s">
-        <v>2920</v>
-      </c>
-      <c r="BH218" s="242"/>
-      <c r="BI218" s="237"/>
-    </row>
-    <row r="219" spans="1:61" ht="293.25" x14ac:dyDescent="0.2">
-      <c r="A219" s="277" t="s">
+      <c r="BG218" s="330"/>
+      <c r="BH218" s="228"/>
+      <c r="BI218" s="229"/>
+    </row>
+    <row r="219" spans="1:61" ht="204" x14ac:dyDescent="0.2">
+      <c r="A219" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B219" s="278"/>
+      <c r="B219" s="281"/>
       <c r="C219" s="48" t="s">
         <v>320</v>
       </c>
@@ -51769,15 +51817,13 @@
         <v>1055</v>
       </c>
       <c r="BF219" s="139"/>
-      <c r="BG219" s="226" t="s">
-        <v>2916</v>
-      </c>
+      <c r="BG219" s="330"/>
     </row>
     <row r="220" spans="1:61" ht="204" x14ac:dyDescent="0.2">
-      <c r="A220" s="277" t="s">
+      <c r="A220" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B220" s="278"/>
+      <c r="B220" s="281"/>
       <c r="C220" s="48" t="s">
         <v>322</v>
       </c>
@@ -51868,15 +51914,13 @@
         <v>1055</v>
       </c>
       <c r="BF220" s="139"/>
-      <c r="BG220" s="225" t="s">
-        <v>2914</v>
-      </c>
+      <c r="BG220" s="330"/>
     </row>
     <row r="221" spans="1:61" s="100" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="279" t="s">
+      <c r="A221" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="B221" s="280"/>
+      <c r="B221" s="283"/>
       <c r="C221" s="50" t="s">
         <v>324</v>
       </c>
@@ -51993,15 +52037,15 @@
         <v>1055</v>
       </c>
       <c r="BF221" s="193"/>
-      <c r="BG221" s="209"/>
+      <c r="BG221" s="331"/>
       <c r="BH221" s="206"/>
       <c r="BI221" s="206"/>
     </row>
     <row r="222" spans="1:61" ht="83.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="277" t="s">
+      <c r="A222" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B222" s="278"/>
+      <c r="B222" s="281"/>
       <c r="C222" s="49" t="s">
         <v>326</v>
       </c>
@@ -52118,17 +52162,17 @@
         <v>1055</v>
       </c>
       <c r="BF222" s="139"/>
-      <c r="BG222" s="230" t="s">
+      <c r="BG222" s="233" t="s">
         <v>2565</v>
       </c>
-      <c r="BH222" s="231"/>
-      <c r="BI222" s="232"/>
+      <c r="BH222" s="234"/>
+      <c r="BI222" s="235"/>
     </row>
     <row r="223" spans="1:61" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="277" t="s">
+      <c r="A223" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B223" s="278"/>
+      <c r="B223" s="281"/>
       <c r="C223" s="48" t="s">
         <v>328</v>
       </c>
@@ -52241,16 +52285,16 @@
         <v>1055</v>
       </c>
       <c r="BF223" s="139"/>
-      <c r="BG223" s="230" t="s">
+      <c r="BG223" s="233" t="s">
         <v>2566</v>
       </c>
-      <c r="BH223" s="232"/>
+      <c r="BH223" s="235"/>
     </row>
     <row r="224" spans="1:61" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="277" t="s">
+      <c r="A224" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B224" s="278"/>
+      <c r="B224" s="281"/>
       <c r="C224" s="48" t="s">
         <v>329</v>
       </c>
@@ -52361,17 +52405,17 @@
         <v>1055</v>
       </c>
       <c r="BF224" s="139"/>
-      <c r="BG224" s="230" t="s">
+      <c r="BG224" s="233" t="s">
         <v>2567</v>
       </c>
-      <c r="BH224" s="231"/>
-      <c r="BI224" s="232"/>
+      <c r="BH224" s="234"/>
+      <c r="BI224" s="235"/>
     </row>
     <row r="225" spans="1:61" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="277" t="s">
+      <c r="A225" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B225" s="278"/>
+      <c r="B225" s="281"/>
       <c r="C225" s="48" t="s">
         <v>331</v>
       </c>
@@ -52464,16 +52508,16 @@
         <v>1055</v>
       </c>
       <c r="BF225" s="139"/>
-      <c r="BG225" s="230" t="s">
+      <c r="BG225" s="233" t="s">
         <v>2568</v>
       </c>
-      <c r="BH225" s="237"/>
+      <c r="BH225" s="240"/>
     </row>
     <row r="226" spans="1:61" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="277" t="s">
+      <c r="A226" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B226" s="278"/>
+      <c r="B226" s="281"/>
       <c r="C226" s="48" t="s">
         <v>332</v>
       </c>
@@ -52566,16 +52610,16 @@
         <v>1055</v>
       </c>
       <c r="BF226" s="89"/>
-      <c r="BG226" s="230" t="s">
+      <c r="BG226" s="233" t="s">
         <v>2568</v>
       </c>
-      <c r="BH226" s="237"/>
+      <c r="BH226" s="240"/>
     </row>
     <row r="227" spans="1:61" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="277" t="s">
+      <c r="A227" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B227" s="278"/>
+      <c r="B227" s="281"/>
       <c r="C227" s="48" t="s">
         <v>334</v>
       </c>
@@ -52668,16 +52712,16 @@
         <v>1055</v>
       </c>
       <c r="BF227" s="89"/>
-      <c r="BG227" s="230" t="s">
+      <c r="BG227" s="233" t="s">
         <v>2569</v>
       </c>
-      <c r="BH227" s="237"/>
+      <c r="BH227" s="240"/>
     </row>
     <row r="228" spans="1:61" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="277" t="s">
+      <c r="A228" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B228" s="278"/>
+      <c r="B228" s="281"/>
       <c r="C228" s="48" t="s">
         <v>335</v>
       </c>
@@ -52780,17 +52824,17 @@
         <v>1055</v>
       </c>
       <c r="BF228" s="89"/>
-      <c r="BG228" s="230" t="s">
+      <c r="BG228" s="233" t="s">
         <v>2574</v>
       </c>
-      <c r="BH228" s="231"/>
-      <c r="BI228" s="232"/>
+      <c r="BH228" s="234"/>
+      <c r="BI228" s="235"/>
     </row>
     <row r="229" spans="1:61" ht="147" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="277" t="s">
+      <c r="A229" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B229" s="278"/>
+      <c r="B229" s="281"/>
       <c r="C229" s="48" t="s">
         <v>337</v>
       </c>
@@ -52882,10 +52926,10 @@
       </c>
     </row>
     <row r="230" spans="1:61" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="279" t="s">
+      <c r="A230" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="B230" s="280"/>
+      <c r="B230" s="283"/>
       <c r="C230" s="112" t="s">
         <v>609</v>
       </c>
@@ -52989,10 +53033,10 @@
       <c r="BI230" s="206"/>
     </row>
     <row r="231" spans="1:61" ht="140.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="277" t="s">
+      <c r="A231" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B231" s="278"/>
+      <c r="B231" s="281"/>
       <c r="C231" s="48" t="s">
         <v>339</v>
       </c>
@@ -53105,16 +53149,16 @@
         <v>1055</v>
       </c>
       <c r="BF231" s="139"/>
-      <c r="BG231" s="230" t="s">
+      <c r="BG231" s="233" t="s">
         <v>2576</v>
       </c>
-      <c r="BH231" s="232"/>
+      <c r="BH231" s="235"/>
     </row>
     <row r="232" spans="1:61" ht="88.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="277" t="s">
+      <c r="A232" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B232" s="278"/>
+      <c r="B232" s="281"/>
       <c r="C232" s="48" t="s">
         <v>340</v>
       </c>
@@ -53227,16 +53271,16 @@
         <v>1055</v>
       </c>
       <c r="BF232" s="89"/>
-      <c r="BG232" s="230" t="s">
+      <c r="BG232" s="233" t="s">
         <v>2577</v>
       </c>
-      <c r="BH232" s="237"/>
+      <c r="BH232" s="240"/>
     </row>
     <row r="233" spans="1:61" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="277" t="s">
+      <c r="A233" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B233" s="278"/>
+      <c r="B233" s="281"/>
       <c r="C233" s="48" t="s">
         <v>341</v>
       </c>
@@ -53349,16 +53393,16 @@
         <v>1055</v>
       </c>
       <c r="BF233" s="89"/>
-      <c r="BG233" s="230" t="s">
+      <c r="BG233" s="233" t="s">
         <v>2578</v>
       </c>
-      <c r="BH233" s="232"/>
+      <c r="BH233" s="235"/>
     </row>
     <row r="234" spans="1:61" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A234" s="277" t="s">
+      <c r="A234" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B234" s="278"/>
+      <c r="B234" s="281"/>
       <c r="C234" s="48" t="s">
         <v>343</v>
       </c>
@@ -53471,16 +53515,16 @@
         <v>1055</v>
       </c>
       <c r="BF234" s="89"/>
-      <c r="BG234" s="230" t="s">
+      <c r="BG234" s="233" t="s">
         <v>2579</v>
       </c>
-      <c r="BH234" s="237"/>
+      <c r="BH234" s="240"/>
     </row>
     <row r="235" spans="1:61" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="277" t="s">
+      <c r="A235" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B235" s="278"/>
+      <c r="B235" s="281"/>
       <c r="C235" s="48" t="s">
         <v>344</v>
       </c>
@@ -53593,16 +53637,16 @@
         <v>1055</v>
       </c>
       <c r="BF235" s="89"/>
-      <c r="BG235" s="230" t="s">
+      <c r="BG235" s="233" t="s">
         <v>2580</v>
       </c>
-      <c r="BH235" s="237"/>
+      <c r="BH235" s="240"/>
     </row>
     <row r="236" spans="1:61" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="277" t="s">
+      <c r="A236" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="278"/>
+      <c r="B236" s="281"/>
       <c r="C236" s="48" t="s">
         <v>345</v>
       </c>
@@ -53715,16 +53759,16 @@
         <v>1055</v>
       </c>
       <c r="BF236" s="139"/>
-      <c r="BG236" s="230" t="s">
+      <c r="BG236" s="233" t="s">
         <v>2581</v>
       </c>
-      <c r="BH236" s="237"/>
+      <c r="BH236" s="240"/>
     </row>
     <row r="237" spans="1:61" s="100" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="279" t="s">
+      <c r="A237" s="282" t="s">
         <v>14</v>
       </c>
-      <c r="B237" s="280"/>
+      <c r="B237" s="283"/>
       <c r="C237" s="50" t="s">
         <v>346</v>
       </c>
@@ -53832,10 +53876,10 @@
       <c r="BI237" s="206"/>
     </row>
     <row r="238" spans="1:61" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="277" t="s">
+      <c r="A238" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B238" s="278"/>
+      <c r="B238" s="281"/>
       <c r="C238" s="48" t="s">
         <v>348</v>
       </c>
@@ -53948,16 +53992,16 @@
         <v>1055</v>
       </c>
       <c r="BF238" s="194"/>
-      <c r="BG238" s="230" t="s">
+      <c r="BG238" s="233" t="s">
         <v>2582</v>
       </c>
-      <c r="BH238" s="232"/>
+      <c r="BH238" s="235"/>
     </row>
     <row r="239" spans="1:61" ht="121.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="277" t="s">
+      <c r="A239" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B239" s="278"/>
+      <c r="B239" s="281"/>
       <c r="C239" s="49" t="s">
         <v>350</v>
       </c>
@@ -54074,17 +54118,17 @@
         <v>1055</v>
       </c>
       <c r="BF239" s="194"/>
-      <c r="BG239" s="238" t="s">
+      <c r="BG239" s="241" t="s">
         <v>2583</v>
       </c>
-      <c r="BH239" s="239"/>
-      <c r="BI239" s="240"/>
+      <c r="BH239" s="242"/>
+      <c r="BI239" s="243"/>
     </row>
     <row r="240" spans="1:61" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="277" t="s">
+      <c r="A240" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B240" s="278"/>
+      <c r="B240" s="281"/>
       <c r="C240" s="48" t="s">
         <v>352</v>
       </c>
@@ -54201,17 +54245,17 @@
         <v>1055</v>
       </c>
       <c r="BF240" s="194"/>
-      <c r="BG240" s="238" t="s">
+      <c r="BG240" s="241" t="s">
         <v>2584</v>
       </c>
-      <c r="BH240" s="239"/>
-      <c r="BI240" s="240"/>
+      <c r="BH240" s="242"/>
+      <c r="BI240" s="243"/>
     </row>
     <row r="241" spans="1:61" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="277" t="s">
+      <c r="A241" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B241" s="278"/>
+      <c r="B241" s="281"/>
       <c r="C241" s="49" t="s">
         <v>354</v>
       </c>
@@ -54328,17 +54372,17 @@
         <v>1055</v>
       </c>
       <c r="BF241" s="194"/>
-      <c r="BG241" s="230" t="s">
+      <c r="BG241" s="233" t="s">
         <v>2585</v>
       </c>
-      <c r="BH241" s="241"/>
-      <c r="BI241" s="235"/>
+      <c r="BH241" s="244"/>
+      <c r="BI241" s="238"/>
     </row>
     <row r="242" spans="1:61" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="277" t="s">
+      <c r="A242" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B242" s="278"/>
+      <c r="B242" s="281"/>
       <c r="C242" s="48" t="s">
         <v>356</v>
       </c>
@@ -54447,17 +54491,17 @@
         <v>1055</v>
       </c>
       <c r="BF242" s="194"/>
-      <c r="BG242" s="230" t="s">
+      <c r="BG242" s="233" t="s">
         <v>2586</v>
       </c>
-      <c r="BH242" s="242"/>
-      <c r="BI242" s="237"/>
+      <c r="BH242" s="245"/>
+      <c r="BI242" s="240"/>
     </row>
     <row r="243" spans="1:61" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A243" s="277" t="s">
+      <c r="A243" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B243" s="278"/>
+      <c r="B243" s="281"/>
       <c r="C243" s="48" t="s">
         <v>357</v>
       </c>
@@ -54556,16 +54600,16 @@
         <v>1055</v>
       </c>
       <c r="BF243" s="194"/>
-      <c r="BG243" s="230" t="s">
+      <c r="BG243" s="233" t="s">
         <v>2587</v>
       </c>
-      <c r="BH243" s="243"/>
+      <c r="BH243" s="246"/>
     </row>
     <row r="244" spans="1:61" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="277" t="s">
+      <c r="A244" s="280" t="s">
         <v>64</v>
       </c>
-      <c r="B244" s="278"/>
+      <c r="B244" s="281"/>
       <c r="C244" s="48" t="s">
         <v>358</v>
       </c>
@@ -54674,17 +54718,17 @@
         <v>1055</v>
       </c>
       <c r="BF244" s="194"/>
-      <c r="BG244" s="230" t="s">
+      <c r="BG244" s="233" t="s">
         <v>2588</v>
       </c>
-      <c r="BH244" s="242"/>
-      <c r="BI244" s="237"/>
+      <c r="BH244" s="245"/>
+      <c r="BI244" s="240"/>
     </row>
     <row r="245" spans="1:61" s="100" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="279" t="s">
+      <c r="A245" s="282" t="s">
         <v>64</v>
       </c>
-      <c r="B245" s="280"/>
+      <c r="B245" s="283"/>
       <c r="C245" s="50" t="s">
         <v>360</v>
       </c>
@@ -54792,10 +54836,10 @@
       <c r="BI245" s="206"/>
     </row>
     <row r="246" spans="1:61" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="277" t="s">
+      <c r="A246" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B246" s="278"/>
+      <c r="B246" s="281"/>
       <c r="C246" s="49" t="s">
         <v>362</v>
       </c>
@@ -54912,17 +54956,17 @@
         <v>1055</v>
       </c>
       <c r="BF246" s="194"/>
-      <c r="BG246" s="230" t="s">
+      <c r="BG246" s="233" t="s">
         <v>2589</v>
       </c>
-      <c r="BH246" s="242"/>
-      <c r="BI246" s="237"/>
+      <c r="BH246" s="245"/>
+      <c r="BI246" s="240"/>
     </row>
     <row r="247" spans="1:61" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="277" t="s">
+      <c r="A247" s="280" t="s">
         <v>238</v>
       </c>
-      <c r="B247" s="278"/>
+      <c r="B247" s="281"/>
       <c r="C247" s="49" t="s">
         <v>364</v>
       </c>
@@ -55039,17 +55083,17 @@
         <v>1055</v>
       </c>
       <c r="BF247" s="194"/>
-      <c r="BG247" s="230" t="s">
+      <c r="BG247" s="233" t="s">
         <v>2590</v>
       </c>
-      <c r="BH247" s="242"/>
-      <c r="BI247" s="237"/>
+      <c r="BH247" s="245"/>
+      <c r="BI247" s="240"/>
     </row>
     <row r="248" spans="1:61" ht="51" x14ac:dyDescent="0.2">
-      <c r="A248" s="287" t="s">
+      <c r="A248" s="290" t="s">
         <v>9</v>
       </c>
-      <c r="B248" s="288"/>
+      <c r="B248" s="291"/>
       <c r="C248" s="161" t="s">
         <v>366</v>
       </c>
@@ -55205,10 +55249,10 @@
       <c r="BI248" s="216"/>
     </row>
     <row r="249" spans="1:61" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A249" s="277" t="s">
+      <c r="A249" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B249" s="278"/>
+      <c r="B249" s="281"/>
       <c r="C249" s="49" t="s">
         <v>368</v>
       </c>
@@ -55361,10 +55405,10 @@
       <c r="BF249" s="194"/>
     </row>
     <row r="250" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A250" s="277" t="s">
+      <c r="A250" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B250" s="278"/>
+      <c r="B250" s="281"/>
       <c r="C250" s="48" t="s">
         <v>369</v>
       </c>
@@ -55517,10 +55561,10 @@
       </c>
     </row>
     <row r="251" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="277" t="s">
+      <c r="A251" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B251" s="278"/>
+      <c r="B251" s="281"/>
       <c r="C251" s="48" t="s">
         <v>370</v>
       </c>
@@ -55673,10 +55717,10 @@
       </c>
     </row>
     <row r="252" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="277" t="s">
+      <c r="A252" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B252" s="278"/>
+      <c r="B252" s="281"/>
       <c r="C252" s="48" t="s">
         <v>372</v>
       </c>
@@ -55829,10 +55873,10 @@
       </c>
     </row>
     <row r="253" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="277" t="s">
+      <c r="A253" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B253" s="278"/>
+      <c r="B253" s="281"/>
       <c r="C253" s="48" t="s">
         <v>374</v>
       </c>
@@ -55985,10 +56029,10 @@
       </c>
     </row>
     <row r="254" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="277" t="s">
+      <c r="A254" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B254" s="278"/>
+      <c r="B254" s="281"/>
       <c r="C254" s="48" t="s">
         <v>376</v>
       </c>
@@ -56141,10 +56185,10 @@
       </c>
     </row>
     <row r="255" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A255" s="277" t="s">
+      <c r="A255" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B255" s="278"/>
+      <c r="B255" s="281"/>
       <c r="C255" s="48" t="s">
         <v>377</v>
       </c>
@@ -56246,10 +56290,10 @@
       </c>
     </row>
     <row r="256" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A256" s="277" t="s">
+      <c r="A256" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B256" s="278"/>
+      <c r="B256" s="281"/>
       <c r="C256" s="48" t="s">
         <v>379</v>
       </c>
@@ -56351,10 +56395,10 @@
       </c>
     </row>
     <row r="257" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="277" t="s">
+      <c r="A257" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B257" s="278"/>
+      <c r="B257" s="281"/>
       <c r="C257" s="48" t="s">
         <v>381</v>
       </c>
@@ -56456,10 +56500,10 @@
       </c>
     </row>
     <row r="258" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A258" s="277" t="s">
+      <c r="A258" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B258" s="278"/>
+      <c r="B258" s="281"/>
       <c r="C258" s="48" t="s">
         <v>383</v>
       </c>
@@ -56612,10 +56656,10 @@
       </c>
     </row>
     <row r="259" spans="1:61" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A259" s="277" t="s">
+      <c r="A259" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B259" s="278"/>
+      <c r="B259" s="281"/>
       <c r="C259" s="48" t="s">
         <v>384</v>
       </c>
@@ -56768,10 +56812,10 @@
       </c>
     </row>
     <row r="260" spans="1:61" s="147" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
-      <c r="A260" s="285" t="s">
+      <c r="A260" s="288" t="s">
         <v>9</v>
       </c>
-      <c r="B260" s="286"/>
+      <c r="B260" s="289"/>
       <c r="C260" s="141" t="s">
         <v>385</v>
       </c>
@@ -56885,10 +56929,10 @@
       <c r="BI260" s="210"/>
     </row>
     <row r="261" spans="1:61" s="152" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="283" t="s">
+      <c r="A261" s="286" t="s">
         <v>14</v>
       </c>
-      <c r="B261" s="284"/>
+      <c r="B261" s="287"/>
       <c r="C261" s="148" t="s">
         <v>386</v>
       </c>
@@ -57004,10 +57048,10 @@
       <c r="BI261" s="206"/>
     </row>
     <row r="262" spans="1:61" s="147" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A262" s="285" t="s">
+      <c r="A262" s="288" t="s">
         <v>14</v>
       </c>
-      <c r="B262" s="286"/>
+      <c r="B262" s="289"/>
       <c r="C262" s="141" t="s">
         <v>387</v>
       </c>
@@ -57121,10 +57165,10 @@
       <c r="BI262" s="210"/>
     </row>
     <row r="263" spans="1:61" s="116" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A263" s="281" t="s">
+      <c r="A263" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B263" s="282"/>
+      <c r="B263" s="285"/>
       <c r="C263" s="51" t="s">
         <v>388</v>
       </c>
@@ -57240,10 +57284,10 @@
       <c r="BI263" s="206"/>
     </row>
     <row r="264" spans="1:61" s="116" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="281" t="s">
+      <c r="A264" s="284" t="s">
         <v>64</v>
       </c>
-      <c r="B264" s="282"/>
+      <c r="B264" s="285"/>
       <c r="C264" s="51" t="s">
         <v>389</v>
       </c>
@@ -57359,10 +57403,10 @@
       <c r="BI264" s="206"/>
     </row>
     <row r="265" spans="1:61" s="100" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="279" t="s">
+      <c r="A265" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B265" s="280"/>
+      <c r="B265" s="283"/>
       <c r="C265" s="112" t="s">
         <v>633</v>
       </c>
@@ -57504,10 +57548,10 @@
       <c r="BI265" s="206"/>
     </row>
     <row r="266" spans="1:61" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A266" s="277" t="s">
+      <c r="A266" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="278"/>
+      <c r="B266" s="281"/>
       <c r="C266" s="49" t="s">
         <v>390</v>
       </c>
@@ -57626,10 +57670,10 @@
       </c>
     </row>
     <row r="267" spans="1:61" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="277" t="s">
+      <c r="A267" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B267" s="278"/>
+      <c r="B267" s="281"/>
       <c r="C267" s="49" t="s">
         <v>392</v>
       </c>
@@ -57742,10 +57786,10 @@
       </c>
     </row>
     <row r="268" spans="1:61" s="116" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="281" t="s">
+      <c r="A268" s="284" t="s">
         <v>14</v>
       </c>
-      <c r="B268" s="282"/>
+      <c r="B268" s="285"/>
       <c r="C268" s="52" t="s">
         <v>393</v>
       </c>
@@ -57883,10 +57927,10 @@
       <c r="BI268" s="206"/>
     </row>
     <row r="269" spans="1:61" ht="140.25" x14ac:dyDescent="0.2">
-      <c r="A269" s="277" t="s">
+      <c r="A269" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B269" s="278"/>
+      <c r="B269" s="281"/>
       <c r="C269" s="49" t="s">
         <v>394</v>
       </c>
@@ -57979,16 +58023,16 @@
         <v>1055</v>
       </c>
       <c r="BF269" s="180"/>
-      <c r="BG269" s="230" t="s">
+      <c r="BG269" s="233" t="s">
         <v>2593</v>
       </c>
-      <c r="BH269" s="237"/>
+      <c r="BH269" s="240"/>
     </row>
     <row r="270" spans="1:61" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="277" t="s">
+      <c r="A270" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B270" s="278"/>
+      <c r="B270" s="281"/>
       <c r="C270" s="49" t="s">
         <v>395</v>
       </c>
@@ -58149,10 +58193,10 @@
       </c>
     </row>
     <row r="271" spans="1:61" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="279" t="s">
+      <c r="A271" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B271" s="280"/>
+      <c r="B271" s="283"/>
       <c r="C271" s="50" t="s">
         <v>396</v>
       </c>
@@ -58250,10 +58294,10 @@
       <c r="BI271" s="206"/>
     </row>
     <row r="272" spans="1:61" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="277" t="s">
+      <c r="A272" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B272" s="278"/>
+      <c r="B272" s="281"/>
       <c r="C272" s="49" t="s">
         <v>397</v>
       </c>
@@ -58360,16 +58404,16 @@
         <v>1055</v>
       </c>
       <c r="BF272" s="194"/>
-      <c r="BG272" s="230" t="s">
+      <c r="BG272" s="233" t="s">
         <v>2594</v>
       </c>
-      <c r="BH272" s="237"/>
+      <c r="BH272" s="240"/>
     </row>
     <row r="273" spans="1:61" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="277" t="s">
+      <c r="A273" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B273" s="278"/>
+      <c r="B273" s="281"/>
       <c r="C273" s="49" t="s">
         <v>398</v>
       </c>
@@ -58476,16 +58520,16 @@
         <v>1055</v>
       </c>
       <c r="BF273" s="194"/>
-      <c r="BG273" s="230" t="s">
+      <c r="BG273" s="233" t="s">
         <v>2595</v>
       </c>
-      <c r="BH273" s="237"/>
+      <c r="BH273" s="240"/>
     </row>
     <row r="274" spans="1:61" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="277" t="s">
+      <c r="A274" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B274" s="278"/>
+      <c r="B274" s="281"/>
       <c r="C274" s="49" t="s">
         <v>399</v>
       </c>
@@ -58592,16 +58636,16 @@
         <v>1055</v>
       </c>
       <c r="BF274" s="194"/>
-      <c r="BG274" s="230" t="s">
+      <c r="BG274" s="233" t="s">
         <v>2596</v>
       </c>
-      <c r="BH274" s="237"/>
+      <c r="BH274" s="240"/>
     </row>
     <row r="275" spans="1:61" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="277" t="s">
+      <c r="A275" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B275" s="278"/>
+      <c r="B275" s="281"/>
       <c r="C275" s="49" t="s">
         <v>400</v>
       </c>
@@ -58708,16 +58752,16 @@
         <v>1055</v>
       </c>
       <c r="BF275" s="194"/>
-      <c r="BG275" s="230" t="s">
+      <c r="BG275" s="233" t="s">
         <v>2597</v>
       </c>
-      <c r="BH275" s="237"/>
+      <c r="BH275" s="240"/>
     </row>
     <row r="276" spans="1:61" s="100" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A276" s="279" t="s">
+      <c r="A276" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B276" s="280"/>
+      <c r="B276" s="283"/>
       <c r="C276" s="50" t="s">
         <v>401</v>
       </c>
@@ -58799,10 +58843,10 @@
       <c r="BI276" s="206"/>
     </row>
     <row r="277" spans="1:61" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="277" t="s">
+      <c r="A277" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B277" s="278"/>
+      <c r="B277" s="281"/>
       <c r="C277" s="49" t="s">
         <v>402</v>
       </c>
@@ -58895,10 +58939,10 @@
       <c r="BF277" s="194"/>
     </row>
     <row r="278" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="277" t="s">
+      <c r="A278" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B278" s="278"/>
+      <c r="B278" s="281"/>
       <c r="C278" s="49" t="s">
         <v>403</v>
       </c>
@@ -58991,10 +59035,10 @@
       <c r="BF278" s="194"/>
     </row>
     <row r="279" spans="1:61" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="277" t="s">
+      <c r="A279" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B279" s="278"/>
+      <c r="B279" s="281"/>
       <c r="C279" s="49" t="s">
         <v>404</v>
       </c>
@@ -59087,10 +59131,10 @@
       <c r="BF279" s="194"/>
     </row>
     <row r="280" spans="1:61" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="277" t="s">
+      <c r="A280" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B280" s="278"/>
+      <c r="B280" s="281"/>
       <c r="C280" s="49" t="s">
         <v>405</v>
       </c>
@@ -59183,10 +59227,10 @@
       <c r="BF280" s="194"/>
     </row>
     <row r="281" spans="1:61" s="100" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="279" t="s">
+      <c r="A281" s="282" t="s">
         <v>9</v>
       </c>
-      <c r="B281" s="280"/>
+      <c r="B281" s="283"/>
       <c r="C281" s="50" t="s">
         <v>406</v>
       </c>
@@ -59262,10 +59306,10 @@
       <c r="BI281" s="206"/>
     </row>
     <row r="282" spans="1:61" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="277" t="s">
+      <c r="A282" s="280" t="s">
         <v>14</v>
       </c>
-      <c r="B282" s="278"/>
+      <c r="B282" s="281"/>
       <c r="C282" s="49" t="s">
         <v>408</v>
       </c>
@@ -59352,10 +59396,10 @@
       <c r="BF282" s="194"/>
     </row>
     <row r="283" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="269" t="s">
+      <c r="A283" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B283" s="270"/>
+      <c r="B283" s="273"/>
       <c r="C283" s="153" t="s">
         <v>410</v>
       </c>
@@ -59368,46 +59412,46 @@
       <c r="F283" s="154" t="s">
         <v>17</v>
       </c>
-      <c r="G283" s="271"/>
-      <c r="H283" s="271"/>
-      <c r="I283" s="271"/>
-      <c r="J283" s="271"/>
-      <c r="K283" s="271"/>
-      <c r="L283" s="271"/>
-      <c r="M283" s="271"/>
-      <c r="N283" s="271"/>
-      <c r="O283" s="271"/>
-      <c r="P283" s="274"/>
-      <c r="Q283" s="274"/>
-      <c r="R283" s="274"/>
-      <c r="S283" s="274"/>
-      <c r="T283" s="274"/>
-      <c r="U283" s="274"/>
-      <c r="V283" s="274"/>
-      <c r="W283" s="274"/>
-      <c r="X283" s="274"/>
-      <c r="Y283" s="274"/>
-      <c r="Z283" s="274"/>
-      <c r="AA283" s="274"/>
-      <c r="AB283" s="274"/>
-      <c r="AC283" s="274"/>
-      <c r="AD283" s="274"/>
-      <c r="AE283" s="271"/>
-      <c r="AF283" s="271"/>
-      <c r="AG283" s="271"/>
-      <c r="AH283" s="271"/>
-      <c r="AI283" s="271"/>
-      <c r="AJ283" s="271"/>
-      <c r="AK283" s="271"/>
-      <c r="AL283" s="271"/>
-      <c r="AM283" s="271"/>
-      <c r="AN283" s="271"/>
-      <c r="AO283" s="271"/>
-      <c r="AP283" s="271"/>
-      <c r="AQ283" s="271"/>
-      <c r="AR283" s="271"/>
-      <c r="AS283" s="271"/>
-      <c r="AT283" s="262"/>
+      <c r="G283" s="274"/>
+      <c r="H283" s="274"/>
+      <c r="I283" s="274"/>
+      <c r="J283" s="274"/>
+      <c r="K283" s="274"/>
+      <c r="L283" s="274"/>
+      <c r="M283" s="274"/>
+      <c r="N283" s="274"/>
+      <c r="O283" s="274"/>
+      <c r="P283" s="277"/>
+      <c r="Q283" s="277"/>
+      <c r="R283" s="277"/>
+      <c r="S283" s="277"/>
+      <c r="T283" s="277"/>
+      <c r="U283" s="277"/>
+      <c r="V283" s="277"/>
+      <c r="W283" s="277"/>
+      <c r="X283" s="277"/>
+      <c r="Y283" s="277"/>
+      <c r="Z283" s="277"/>
+      <c r="AA283" s="277"/>
+      <c r="AB283" s="277"/>
+      <c r="AC283" s="277"/>
+      <c r="AD283" s="277"/>
+      <c r="AE283" s="274"/>
+      <c r="AF283" s="274"/>
+      <c r="AG283" s="274"/>
+      <c r="AH283" s="274"/>
+      <c r="AI283" s="274"/>
+      <c r="AJ283" s="274"/>
+      <c r="AK283" s="274"/>
+      <c r="AL283" s="274"/>
+      <c r="AM283" s="274"/>
+      <c r="AN283" s="274"/>
+      <c r="AO283" s="274"/>
+      <c r="AP283" s="274"/>
+      <c r="AQ283" s="274"/>
+      <c r="AR283" s="274"/>
+      <c r="AS283" s="274"/>
+      <c r="AT283" s="265"/>
       <c r="AU283" s="64"/>
       <c r="AV283" s="41" t="s">
         <v>1055</v>
@@ -59442,8 +59486,8 @@
       <c r="BF283" s="194"/>
     </row>
     <row r="284" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="265"/>
-      <c r="B284" s="266"/>
+      <c r="A284" s="268"/>
+      <c r="B284" s="269"/>
       <c r="C284" s="78"/>
       <c r="D284" s="156" t="s">
         <v>11</v>
@@ -59452,46 +59496,46 @@
         <v>897</v>
       </c>
       <c r="F284" s="78"/>
-      <c r="G284" s="272"/>
-      <c r="H284" s="272"/>
-      <c r="I284" s="272"/>
-      <c r="J284" s="272"/>
-      <c r="K284" s="272"/>
-      <c r="L284" s="272"/>
-      <c r="M284" s="272"/>
-      <c r="N284" s="272"/>
-      <c r="O284" s="272"/>
-      <c r="P284" s="275"/>
-      <c r="Q284" s="275"/>
-      <c r="R284" s="275"/>
-      <c r="S284" s="275"/>
-      <c r="T284" s="275"/>
-      <c r="U284" s="275"/>
-      <c r="V284" s="275"/>
-      <c r="W284" s="275"/>
-      <c r="X284" s="275"/>
-      <c r="Y284" s="275"/>
-      <c r="Z284" s="275"/>
-      <c r="AA284" s="275"/>
-      <c r="AB284" s="275"/>
-      <c r="AC284" s="275"/>
-      <c r="AD284" s="275"/>
-      <c r="AE284" s="272"/>
-      <c r="AF284" s="272"/>
-      <c r="AG284" s="272"/>
-      <c r="AH284" s="272"/>
-      <c r="AI284" s="272"/>
-      <c r="AJ284" s="272"/>
-      <c r="AK284" s="272"/>
-      <c r="AL284" s="272"/>
-      <c r="AM284" s="272"/>
-      <c r="AN284" s="272"/>
-      <c r="AO284" s="272"/>
-      <c r="AP284" s="272"/>
-      <c r="AQ284" s="272"/>
-      <c r="AR284" s="272"/>
-      <c r="AS284" s="272"/>
-      <c r="AT284" s="263"/>
+      <c r="G284" s="275"/>
+      <c r="H284" s="275"/>
+      <c r="I284" s="275"/>
+      <c r="J284" s="275"/>
+      <c r="K284" s="275"/>
+      <c r="L284" s="275"/>
+      <c r="M284" s="275"/>
+      <c r="N284" s="275"/>
+      <c r="O284" s="275"/>
+      <c r="P284" s="278"/>
+      <c r="Q284" s="278"/>
+      <c r="R284" s="278"/>
+      <c r="S284" s="278"/>
+      <c r="T284" s="278"/>
+      <c r="U284" s="278"/>
+      <c r="V284" s="278"/>
+      <c r="W284" s="278"/>
+      <c r="X284" s="278"/>
+      <c r="Y284" s="278"/>
+      <c r="Z284" s="278"/>
+      <c r="AA284" s="278"/>
+      <c r="AB284" s="278"/>
+      <c r="AC284" s="278"/>
+      <c r="AD284" s="278"/>
+      <c r="AE284" s="275"/>
+      <c r="AF284" s="275"/>
+      <c r="AG284" s="275"/>
+      <c r="AH284" s="275"/>
+      <c r="AI284" s="275"/>
+      <c r="AJ284" s="275"/>
+      <c r="AK284" s="275"/>
+      <c r="AL284" s="275"/>
+      <c r="AM284" s="275"/>
+      <c r="AN284" s="275"/>
+      <c r="AO284" s="275"/>
+      <c r="AP284" s="275"/>
+      <c r="AQ284" s="275"/>
+      <c r="AR284" s="275"/>
+      <c r="AS284" s="275"/>
+      <c r="AT284" s="266"/>
       <c r="AU284" s="64"/>
       <c r="AV284" s="41" t="s">
         <v>1055</v>
@@ -59526,8 +59570,8 @@
       <c r="BF284" s="194"/>
     </row>
     <row r="285" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="265"/>
-      <c r="B285" s="266"/>
+      <c r="A285" s="268"/>
+      <c r="B285" s="269"/>
       <c r="C285" s="78"/>
       <c r="D285" s="156" t="s">
         <v>411</v>
@@ -59536,46 +59580,46 @@
         <v>898</v>
       </c>
       <c r="F285" s="78"/>
-      <c r="G285" s="272"/>
-      <c r="H285" s="272"/>
-      <c r="I285" s="272"/>
-      <c r="J285" s="272"/>
-      <c r="K285" s="272"/>
-      <c r="L285" s="272"/>
-      <c r="M285" s="272"/>
-      <c r="N285" s="272"/>
-      <c r="O285" s="272"/>
-      <c r="P285" s="275"/>
-      <c r="Q285" s="275"/>
-      <c r="R285" s="275"/>
-      <c r="S285" s="275"/>
-      <c r="T285" s="275"/>
-      <c r="U285" s="275"/>
-      <c r="V285" s="275"/>
-      <c r="W285" s="275"/>
-      <c r="X285" s="275"/>
-      <c r="Y285" s="275"/>
-      <c r="Z285" s="275"/>
-      <c r="AA285" s="275"/>
-      <c r="AB285" s="275"/>
-      <c r="AC285" s="275"/>
-      <c r="AD285" s="275"/>
-      <c r="AE285" s="272"/>
-      <c r="AF285" s="272"/>
-      <c r="AG285" s="272"/>
-      <c r="AH285" s="272"/>
-      <c r="AI285" s="272"/>
-      <c r="AJ285" s="272"/>
-      <c r="AK285" s="272"/>
-      <c r="AL285" s="272"/>
-      <c r="AM285" s="272"/>
-      <c r="AN285" s="272"/>
-      <c r="AO285" s="272"/>
-      <c r="AP285" s="272"/>
-      <c r="AQ285" s="272"/>
-      <c r="AR285" s="272"/>
-      <c r="AS285" s="272"/>
-      <c r="AT285" s="263"/>
+      <c r="G285" s="275"/>
+      <c r="H285" s="275"/>
+      <c r="I285" s="275"/>
+      <c r="J285" s="275"/>
+      <c r="K285" s="275"/>
+      <c r="L285" s="275"/>
+      <c r="M285" s="275"/>
+      <c r="N285" s="275"/>
+      <c r="O285" s="275"/>
+      <c r="P285" s="278"/>
+      <c r="Q285" s="278"/>
+      <c r="R285" s="278"/>
+      <c r="S285" s="278"/>
+      <c r="T285" s="278"/>
+      <c r="U285" s="278"/>
+      <c r="V285" s="278"/>
+      <c r="W285" s="278"/>
+      <c r="X285" s="278"/>
+      <c r="Y285" s="278"/>
+      <c r="Z285" s="278"/>
+      <c r="AA285" s="278"/>
+      <c r="AB285" s="278"/>
+      <c r="AC285" s="278"/>
+      <c r="AD285" s="278"/>
+      <c r="AE285" s="275"/>
+      <c r="AF285" s="275"/>
+      <c r="AG285" s="275"/>
+      <c r="AH285" s="275"/>
+      <c r="AI285" s="275"/>
+      <c r="AJ285" s="275"/>
+      <c r="AK285" s="275"/>
+      <c r="AL285" s="275"/>
+      <c r="AM285" s="275"/>
+      <c r="AN285" s="275"/>
+      <c r="AO285" s="275"/>
+      <c r="AP285" s="275"/>
+      <c r="AQ285" s="275"/>
+      <c r="AR285" s="275"/>
+      <c r="AS285" s="275"/>
+      <c r="AT285" s="266"/>
       <c r="AU285" s="64"/>
       <c r="AV285" s="41" t="s">
         <v>1055</v>
@@ -59610,8 +59654,8 @@
       <c r="BF285" s="194"/>
     </row>
     <row r="286" spans="1:61" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="265"/>
-      <c r="B286" s="266"/>
+      <c r="A286" s="268"/>
+      <c r="B286" s="269"/>
       <c r="C286" s="78"/>
       <c r="D286" s="156" t="s">
         <v>17</v>
@@ -59620,46 +59664,46 @@
         <v>899</v>
       </c>
       <c r="F286" s="78"/>
-      <c r="G286" s="272"/>
-      <c r="H286" s="272"/>
-      <c r="I286" s="272"/>
-      <c r="J286" s="272"/>
-      <c r="K286" s="272"/>
-      <c r="L286" s="272"/>
-      <c r="M286" s="272"/>
-      <c r="N286" s="272"/>
-      <c r="O286" s="272"/>
-      <c r="P286" s="275"/>
-      <c r="Q286" s="275"/>
-      <c r="R286" s="275"/>
-      <c r="S286" s="275"/>
-      <c r="T286" s="275"/>
-      <c r="U286" s="275"/>
-      <c r="V286" s="275"/>
-      <c r="W286" s="275"/>
-      <c r="X286" s="275"/>
-      <c r="Y286" s="275"/>
-      <c r="Z286" s="275"/>
-      <c r="AA286" s="275"/>
-      <c r="AB286" s="275"/>
-      <c r="AC286" s="275"/>
-      <c r="AD286" s="275"/>
-      <c r="AE286" s="272"/>
-      <c r="AF286" s="272"/>
-      <c r="AG286" s="272"/>
-      <c r="AH286" s="272"/>
-      <c r="AI286" s="272"/>
-      <c r="AJ286" s="272"/>
-      <c r="AK286" s="272"/>
-      <c r="AL286" s="272"/>
-      <c r="AM286" s="272"/>
-      <c r="AN286" s="272"/>
-      <c r="AO286" s="272"/>
-      <c r="AP286" s="272"/>
-      <c r="AQ286" s="272"/>
-      <c r="AR286" s="272"/>
-      <c r="AS286" s="272"/>
-      <c r="AT286" s="263"/>
+      <c r="G286" s="275"/>
+      <c r="H286" s="275"/>
+      <c r="I286" s="275"/>
+      <c r="J286" s="275"/>
+      <c r="K286" s="275"/>
+      <c r="L286" s="275"/>
+      <c r="M286" s="275"/>
+      <c r="N286" s="275"/>
+      <c r="O286" s="275"/>
+      <c r="P286" s="278"/>
+      <c r="Q286" s="278"/>
+      <c r="R286" s="278"/>
+      <c r="S286" s="278"/>
+      <c r="T286" s="278"/>
+      <c r="U286" s="278"/>
+      <c r="V286" s="278"/>
+      <c r="W286" s="278"/>
+      <c r="X286" s="278"/>
+      <c r="Y286" s="278"/>
+      <c r="Z286" s="278"/>
+      <c r="AA286" s="278"/>
+      <c r="AB286" s="278"/>
+      <c r="AC286" s="278"/>
+      <c r="AD286" s="278"/>
+      <c r="AE286" s="275"/>
+      <c r="AF286" s="275"/>
+      <c r="AG286" s="275"/>
+      <c r="AH286" s="275"/>
+      <c r="AI286" s="275"/>
+      <c r="AJ286" s="275"/>
+      <c r="AK286" s="275"/>
+      <c r="AL286" s="275"/>
+      <c r="AM286" s="275"/>
+      <c r="AN286" s="275"/>
+      <c r="AO286" s="275"/>
+      <c r="AP286" s="275"/>
+      <c r="AQ286" s="275"/>
+      <c r="AR286" s="275"/>
+      <c r="AS286" s="275"/>
+      <c r="AT286" s="266"/>
       <c r="AU286" s="64"/>
       <c r="AV286" s="41" t="s">
         <v>1055</v>
@@ -59694,54 +59738,54 @@
       <c r="BF286" s="194"/>
     </row>
     <row r="287" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="265"/>
-      <c r="B287" s="266"/>
+      <c r="A287" s="268"/>
+      <c r="B287" s="269"/>
       <c r="C287" s="78"/>
       <c r="D287" s="78"/>
       <c r="E287" s="157" t="s">
         <v>900</v>
       </c>
       <c r="F287" s="78"/>
-      <c r="G287" s="272"/>
-      <c r="H287" s="272"/>
-      <c r="I287" s="272"/>
-      <c r="J287" s="272"/>
-      <c r="K287" s="272"/>
-      <c r="L287" s="272"/>
-      <c r="M287" s="272"/>
-      <c r="N287" s="272"/>
-      <c r="O287" s="272"/>
-      <c r="P287" s="275"/>
-      <c r="Q287" s="275"/>
-      <c r="R287" s="275"/>
-      <c r="S287" s="275"/>
-      <c r="T287" s="275"/>
-      <c r="U287" s="275"/>
-      <c r="V287" s="275"/>
-      <c r="W287" s="275"/>
-      <c r="X287" s="275"/>
-      <c r="Y287" s="275"/>
-      <c r="Z287" s="275"/>
-      <c r="AA287" s="275"/>
-      <c r="AB287" s="275"/>
-      <c r="AC287" s="275"/>
-      <c r="AD287" s="275"/>
-      <c r="AE287" s="272"/>
-      <c r="AF287" s="272"/>
-      <c r="AG287" s="272"/>
-      <c r="AH287" s="272"/>
-      <c r="AI287" s="272"/>
-      <c r="AJ287" s="272"/>
-      <c r="AK287" s="272"/>
-      <c r="AL287" s="272"/>
-      <c r="AM287" s="272"/>
-      <c r="AN287" s="272"/>
-      <c r="AO287" s="272"/>
-      <c r="AP287" s="272"/>
-      <c r="AQ287" s="272"/>
-      <c r="AR287" s="272"/>
-      <c r="AS287" s="272"/>
-      <c r="AT287" s="263"/>
+      <c r="G287" s="275"/>
+      <c r="H287" s="275"/>
+      <c r="I287" s="275"/>
+      <c r="J287" s="275"/>
+      <c r="K287" s="275"/>
+      <c r="L287" s="275"/>
+      <c r="M287" s="275"/>
+      <c r="N287" s="275"/>
+      <c r="O287" s="275"/>
+      <c r="P287" s="278"/>
+      <c r="Q287" s="278"/>
+      <c r="R287" s="278"/>
+      <c r="S287" s="278"/>
+      <c r="T287" s="278"/>
+      <c r="U287" s="278"/>
+      <c r="V287" s="278"/>
+      <c r="W287" s="278"/>
+      <c r="X287" s="278"/>
+      <c r="Y287" s="278"/>
+      <c r="Z287" s="278"/>
+      <c r="AA287" s="278"/>
+      <c r="AB287" s="278"/>
+      <c r="AC287" s="278"/>
+      <c r="AD287" s="278"/>
+      <c r="AE287" s="275"/>
+      <c r="AF287" s="275"/>
+      <c r="AG287" s="275"/>
+      <c r="AH287" s="275"/>
+      <c r="AI287" s="275"/>
+      <c r="AJ287" s="275"/>
+      <c r="AK287" s="275"/>
+      <c r="AL287" s="275"/>
+      <c r="AM287" s="275"/>
+      <c r="AN287" s="275"/>
+      <c r="AO287" s="275"/>
+      <c r="AP287" s="275"/>
+      <c r="AQ287" s="275"/>
+      <c r="AR287" s="275"/>
+      <c r="AS287" s="275"/>
+      <c r="AT287" s="266"/>
       <c r="AU287" s="64"/>
       <c r="AV287" s="41" t="s">
         <v>1055</v>
@@ -59776,54 +59820,54 @@
       <c r="BF287" s="194"/>
     </row>
     <row r="288" spans="1:61" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="265"/>
-      <c r="B288" s="266"/>
+      <c r="A288" s="268"/>
+      <c r="B288" s="269"/>
       <c r="C288" s="78"/>
       <c r="D288" s="78"/>
       <c r="E288" s="157" t="s">
         <v>901</v>
       </c>
       <c r="F288" s="78"/>
-      <c r="G288" s="272"/>
-      <c r="H288" s="272"/>
-      <c r="I288" s="272"/>
-      <c r="J288" s="272"/>
-      <c r="K288" s="272"/>
-      <c r="L288" s="272"/>
-      <c r="M288" s="272"/>
-      <c r="N288" s="272"/>
-      <c r="O288" s="272"/>
-      <c r="P288" s="275"/>
-      <c r="Q288" s="275"/>
-      <c r="R288" s="275"/>
-      <c r="S288" s="275"/>
-      <c r="T288" s="275"/>
-      <c r="U288" s="275"/>
-      <c r="V288" s="275"/>
-      <c r="W288" s="275"/>
-      <c r="X288" s="275"/>
-      <c r="Y288" s="275"/>
-      <c r="Z288" s="275"/>
-      <c r="AA288" s="275"/>
-      <c r="AB288" s="275"/>
-      <c r="AC288" s="275"/>
-      <c r="AD288" s="275"/>
-      <c r="AE288" s="272"/>
-      <c r="AF288" s="272"/>
-      <c r="AG288" s="272"/>
-      <c r="AH288" s="272"/>
-      <c r="AI288" s="272"/>
-      <c r="AJ288" s="272"/>
-      <c r="AK288" s="272"/>
-      <c r="AL288" s="272"/>
-      <c r="AM288" s="272"/>
-      <c r="AN288" s="272"/>
-      <c r="AO288" s="272"/>
-      <c r="AP288" s="272"/>
-      <c r="AQ288" s="272"/>
-      <c r="AR288" s="272"/>
-      <c r="AS288" s="272"/>
-      <c r="AT288" s="263"/>
+      <c r="G288" s="275"/>
+      <c r="H288" s="275"/>
+      <c r="I288" s="275"/>
+      <c r="J288" s="275"/>
+      <c r="K288" s="275"/>
+      <c r="L288" s="275"/>
+      <c r="M288" s="275"/>
+      <c r="N288" s="275"/>
+      <c r="O288" s="275"/>
+      <c r="P288" s="278"/>
+      <c r="Q288" s="278"/>
+      <c r="R288" s="278"/>
+      <c r="S288" s="278"/>
+      <c r="T288" s="278"/>
+      <c r="U288" s="278"/>
+      <c r="V288" s="278"/>
+      <c r="W288" s="278"/>
+      <c r="X288" s="278"/>
+      <c r="Y288" s="278"/>
+      <c r="Z288" s="278"/>
+      <c r="AA288" s="278"/>
+      <c r="AB288" s="278"/>
+      <c r="AC288" s="278"/>
+      <c r="AD288" s="278"/>
+      <c r="AE288" s="275"/>
+      <c r="AF288" s="275"/>
+      <c r="AG288" s="275"/>
+      <c r="AH288" s="275"/>
+      <c r="AI288" s="275"/>
+      <c r="AJ288" s="275"/>
+      <c r="AK288" s="275"/>
+      <c r="AL288" s="275"/>
+      <c r="AM288" s="275"/>
+      <c r="AN288" s="275"/>
+      <c r="AO288" s="275"/>
+      <c r="AP288" s="275"/>
+      <c r="AQ288" s="275"/>
+      <c r="AR288" s="275"/>
+      <c r="AS288" s="275"/>
+      <c r="AT288" s="266"/>
       <c r="AU288" s="64"/>
       <c r="AV288" s="41" t="s">
         <v>1055</v>
@@ -59858,54 +59902,54 @@
       <c r="BF288" s="194"/>
     </row>
     <row r="289" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="267"/>
-      <c r="B289" s="268"/>
+      <c r="A289" s="270"/>
+      <c r="B289" s="271"/>
       <c r="C289" s="79"/>
       <c r="D289" s="79"/>
       <c r="E289" s="158" t="s">
         <v>902</v>
       </c>
       <c r="F289" s="79"/>
-      <c r="G289" s="273"/>
-      <c r="H289" s="273"/>
-      <c r="I289" s="273"/>
-      <c r="J289" s="273"/>
-      <c r="K289" s="273"/>
-      <c r="L289" s="273"/>
-      <c r="M289" s="273"/>
-      <c r="N289" s="273"/>
-      <c r="O289" s="273"/>
-      <c r="P289" s="276"/>
-      <c r="Q289" s="276"/>
-      <c r="R289" s="276"/>
-      <c r="S289" s="276"/>
-      <c r="T289" s="276"/>
-      <c r="U289" s="276"/>
-      <c r="V289" s="276"/>
-      <c r="W289" s="276"/>
-      <c r="X289" s="276"/>
-      <c r="Y289" s="276"/>
-      <c r="Z289" s="276"/>
-      <c r="AA289" s="276"/>
-      <c r="AB289" s="276"/>
-      <c r="AC289" s="276"/>
-      <c r="AD289" s="276"/>
-      <c r="AE289" s="273"/>
-      <c r="AF289" s="273"/>
-      <c r="AG289" s="273"/>
-      <c r="AH289" s="273"/>
-      <c r="AI289" s="273"/>
-      <c r="AJ289" s="273"/>
-      <c r="AK289" s="273"/>
-      <c r="AL289" s="273"/>
-      <c r="AM289" s="273"/>
-      <c r="AN289" s="273"/>
-      <c r="AO289" s="273"/>
-      <c r="AP289" s="273"/>
-      <c r="AQ289" s="273"/>
-      <c r="AR289" s="273"/>
-      <c r="AS289" s="273"/>
-      <c r="AT289" s="264"/>
+      <c r="G289" s="276"/>
+      <c r="H289" s="276"/>
+      <c r="I289" s="276"/>
+      <c r="J289" s="276"/>
+      <c r="K289" s="276"/>
+      <c r="L289" s="276"/>
+      <c r="M289" s="276"/>
+      <c r="N289" s="276"/>
+      <c r="O289" s="276"/>
+      <c r="P289" s="279"/>
+      <c r="Q289" s="279"/>
+      <c r="R289" s="279"/>
+      <c r="S289" s="279"/>
+      <c r="T289" s="279"/>
+      <c r="U289" s="279"/>
+      <c r="V289" s="279"/>
+      <c r="W289" s="279"/>
+      <c r="X289" s="279"/>
+      <c r="Y289" s="279"/>
+      <c r="Z289" s="279"/>
+      <c r="AA289" s="279"/>
+      <c r="AB289" s="279"/>
+      <c r="AC289" s="279"/>
+      <c r="AD289" s="279"/>
+      <c r="AE289" s="276"/>
+      <c r="AF289" s="276"/>
+      <c r="AG289" s="276"/>
+      <c r="AH289" s="276"/>
+      <c r="AI289" s="276"/>
+      <c r="AJ289" s="276"/>
+      <c r="AK289" s="276"/>
+      <c r="AL289" s="276"/>
+      <c r="AM289" s="276"/>
+      <c r="AN289" s="276"/>
+      <c r="AO289" s="276"/>
+      <c r="AP289" s="276"/>
+      <c r="AQ289" s="276"/>
+      <c r="AR289" s="276"/>
+      <c r="AS289" s="276"/>
+      <c r="AT289" s="267"/>
       <c r="AU289" s="64"/>
       <c r="AV289" s="41" t="s">
         <v>1055</v>
@@ -59940,10 +59984,10 @@
       <c r="BF289" s="194"/>
     </row>
     <row r="290" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A290" s="269" t="s">
+      <c r="A290" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B290" s="270"/>
+      <c r="B290" s="273"/>
       <c r="C290" s="153" t="s">
         <v>412</v>
       </c>
@@ -59956,46 +60000,46 @@
       <c r="F290" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="G290" s="271"/>
-      <c r="H290" s="271"/>
-      <c r="I290" s="271"/>
-      <c r="J290" s="271"/>
-      <c r="K290" s="271"/>
-      <c r="L290" s="271"/>
-      <c r="M290" s="271"/>
-      <c r="N290" s="271"/>
-      <c r="O290" s="271"/>
-      <c r="P290" s="274"/>
-      <c r="Q290" s="274"/>
-      <c r="R290" s="274"/>
-      <c r="S290" s="274"/>
-      <c r="T290" s="274"/>
-      <c r="U290" s="274"/>
-      <c r="V290" s="274"/>
-      <c r="W290" s="274"/>
-      <c r="X290" s="274"/>
-      <c r="Y290" s="274"/>
-      <c r="Z290" s="274"/>
-      <c r="AA290" s="274"/>
-      <c r="AB290" s="274"/>
-      <c r="AC290" s="274"/>
-      <c r="AD290" s="274"/>
-      <c r="AE290" s="271"/>
-      <c r="AF290" s="271"/>
-      <c r="AG290" s="271"/>
-      <c r="AH290" s="271"/>
-      <c r="AI290" s="271"/>
-      <c r="AJ290" s="271"/>
-      <c r="AK290" s="271"/>
-      <c r="AL290" s="271"/>
-      <c r="AM290" s="271"/>
-      <c r="AN290" s="271"/>
-      <c r="AO290" s="271"/>
-      <c r="AP290" s="271"/>
-      <c r="AQ290" s="271"/>
-      <c r="AR290" s="271"/>
-      <c r="AS290" s="271"/>
-      <c r="AT290" s="262"/>
+      <c r="G290" s="274"/>
+      <c r="H290" s="274"/>
+      <c r="I290" s="274"/>
+      <c r="J290" s="274"/>
+      <c r="K290" s="274"/>
+      <c r="L290" s="274"/>
+      <c r="M290" s="274"/>
+      <c r="N290" s="274"/>
+      <c r="O290" s="274"/>
+      <c r="P290" s="277"/>
+      <c r="Q290" s="277"/>
+      <c r="R290" s="277"/>
+      <c r="S290" s="277"/>
+      <c r="T290" s="277"/>
+      <c r="U290" s="277"/>
+      <c r="V290" s="277"/>
+      <c r="W290" s="277"/>
+      <c r="X290" s="277"/>
+      <c r="Y290" s="277"/>
+      <c r="Z290" s="277"/>
+      <c r="AA290" s="277"/>
+      <c r="AB290" s="277"/>
+      <c r="AC290" s="277"/>
+      <c r="AD290" s="277"/>
+      <c r="AE290" s="274"/>
+      <c r="AF290" s="274"/>
+      <c r="AG290" s="274"/>
+      <c r="AH290" s="274"/>
+      <c r="AI290" s="274"/>
+      <c r="AJ290" s="274"/>
+      <c r="AK290" s="274"/>
+      <c r="AL290" s="274"/>
+      <c r="AM290" s="274"/>
+      <c r="AN290" s="274"/>
+      <c r="AO290" s="274"/>
+      <c r="AP290" s="274"/>
+      <c r="AQ290" s="274"/>
+      <c r="AR290" s="274"/>
+      <c r="AS290" s="274"/>
+      <c r="AT290" s="265"/>
       <c r="AU290" s="64"/>
       <c r="AV290" s="41" t="s">
         <v>1055</v>
@@ -60030,8 +60074,8 @@
       <c r="BF290" s="194"/>
     </row>
     <row r="291" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="265"/>
-      <c r="B291" s="266"/>
+      <c r="A291" s="268"/>
+      <c r="B291" s="269"/>
       <c r="C291" s="78"/>
       <c r="D291" s="156" t="s">
         <v>413</v>
@@ -60040,46 +60084,46 @@
         <v>904</v>
       </c>
       <c r="F291" s="78"/>
-      <c r="G291" s="272"/>
-      <c r="H291" s="272"/>
-      <c r="I291" s="272"/>
-      <c r="J291" s="272"/>
-      <c r="K291" s="272"/>
-      <c r="L291" s="272"/>
-      <c r="M291" s="272"/>
-      <c r="N291" s="272"/>
-      <c r="O291" s="272"/>
-      <c r="P291" s="275"/>
-      <c r="Q291" s="275"/>
-      <c r="R291" s="275"/>
-      <c r="S291" s="275"/>
-      <c r="T291" s="275"/>
-      <c r="U291" s="275"/>
-      <c r="V291" s="275"/>
-      <c r="W291" s="275"/>
-      <c r="X291" s="275"/>
-      <c r="Y291" s="275"/>
-      <c r="Z291" s="275"/>
-      <c r="AA291" s="275"/>
-      <c r="AB291" s="275"/>
-      <c r="AC291" s="275"/>
-      <c r="AD291" s="275"/>
-      <c r="AE291" s="272"/>
-      <c r="AF291" s="272"/>
-      <c r="AG291" s="272"/>
-      <c r="AH291" s="272"/>
-      <c r="AI291" s="272"/>
-      <c r="AJ291" s="272"/>
-      <c r="AK291" s="272"/>
-      <c r="AL291" s="272"/>
-      <c r="AM291" s="272"/>
-      <c r="AN291" s="272"/>
-      <c r="AO291" s="272"/>
-      <c r="AP291" s="272"/>
-      <c r="AQ291" s="272"/>
-      <c r="AR291" s="272"/>
-      <c r="AS291" s="272"/>
-      <c r="AT291" s="263"/>
+      <c r="G291" s="275"/>
+      <c r="H291" s="275"/>
+      <c r="I291" s="275"/>
+      <c r="J291" s="275"/>
+      <c r="K291" s="275"/>
+      <c r="L291" s="275"/>
+      <c r="M291" s="275"/>
+      <c r="N291" s="275"/>
+      <c r="O291" s="275"/>
+      <c r="P291" s="278"/>
+      <c r="Q291" s="278"/>
+      <c r="R291" s="278"/>
+      <c r="S291" s="278"/>
+      <c r="T291" s="278"/>
+      <c r="U291" s="278"/>
+      <c r="V291" s="278"/>
+      <c r="W291" s="278"/>
+      <c r="X291" s="278"/>
+      <c r="Y291" s="278"/>
+      <c r="Z291" s="278"/>
+      <c r="AA291" s="278"/>
+      <c r="AB291" s="278"/>
+      <c r="AC291" s="278"/>
+      <c r="AD291" s="278"/>
+      <c r="AE291" s="275"/>
+      <c r="AF291" s="275"/>
+      <c r="AG291" s="275"/>
+      <c r="AH291" s="275"/>
+      <c r="AI291" s="275"/>
+      <c r="AJ291" s="275"/>
+      <c r="AK291" s="275"/>
+      <c r="AL291" s="275"/>
+      <c r="AM291" s="275"/>
+      <c r="AN291" s="275"/>
+      <c r="AO291" s="275"/>
+      <c r="AP291" s="275"/>
+      <c r="AQ291" s="275"/>
+      <c r="AR291" s="275"/>
+      <c r="AS291" s="275"/>
+      <c r="AT291" s="266"/>
       <c r="AU291" s="64"/>
       <c r="AV291" s="41" t="s">
         <v>1055</v>
@@ -60114,8 +60158,8 @@
       <c r="BF291" s="194"/>
     </row>
     <row r="292" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="265"/>
-      <c r="B292" s="266"/>
+      <c r="A292" s="268"/>
+      <c r="B292" s="269"/>
       <c r="C292" s="78"/>
       <c r="D292" s="156" t="s">
         <v>414</v>
@@ -60124,46 +60168,46 @@
         <v>905</v>
       </c>
       <c r="F292" s="78"/>
-      <c r="G292" s="272"/>
-      <c r="H292" s="272"/>
-      <c r="I292" s="272"/>
-      <c r="J292" s="272"/>
-      <c r="K292" s="272"/>
-      <c r="L292" s="272"/>
-      <c r="M292" s="272"/>
-      <c r="N292" s="272"/>
-      <c r="O292" s="272"/>
-      <c r="P292" s="275"/>
-      <c r="Q292" s="275"/>
-      <c r="R292" s="275"/>
-      <c r="S292" s="275"/>
-      <c r="T292" s="275"/>
-      <c r="U292" s="275"/>
-      <c r="V292" s="275"/>
-      <c r="W292" s="275"/>
-      <c r="X292" s="275"/>
-      <c r="Y292" s="275"/>
-      <c r="Z292" s="275"/>
-      <c r="AA292" s="275"/>
-      <c r="AB292" s="275"/>
-      <c r="AC292" s="275"/>
-      <c r="AD292" s="275"/>
-      <c r="AE292" s="272"/>
-      <c r="AF292" s="272"/>
-      <c r="AG292" s="272"/>
-      <c r="AH292" s="272"/>
-      <c r="AI292" s="272"/>
-      <c r="AJ292" s="272"/>
-      <c r="AK292" s="272"/>
-      <c r="AL292" s="272"/>
-      <c r="AM292" s="272"/>
-      <c r="AN292" s="272"/>
-      <c r="AO292" s="272"/>
-      <c r="AP292" s="272"/>
-      <c r="AQ292" s="272"/>
-      <c r="AR292" s="272"/>
-      <c r="AS292" s="272"/>
-      <c r="AT292" s="263"/>
+      <c r="G292" s="275"/>
+      <c r="H292" s="275"/>
+      <c r="I292" s="275"/>
+      <c r="J292" s="275"/>
+      <c r="K292" s="275"/>
+      <c r="L292" s="275"/>
+      <c r="M292" s="275"/>
+      <c r="N292" s="275"/>
+      <c r="O292" s="275"/>
+      <c r="P292" s="278"/>
+      <c r="Q292" s="278"/>
+      <c r="R292" s="278"/>
+      <c r="S292" s="278"/>
+      <c r="T292" s="278"/>
+      <c r="U292" s="278"/>
+      <c r="V292" s="278"/>
+      <c r="W292" s="278"/>
+      <c r="X292" s="278"/>
+      <c r="Y292" s="278"/>
+      <c r="Z292" s="278"/>
+      <c r="AA292" s="278"/>
+      <c r="AB292" s="278"/>
+      <c r="AC292" s="278"/>
+      <c r="AD292" s="278"/>
+      <c r="AE292" s="275"/>
+      <c r="AF292" s="275"/>
+      <c r="AG292" s="275"/>
+      <c r="AH292" s="275"/>
+      <c r="AI292" s="275"/>
+      <c r="AJ292" s="275"/>
+      <c r="AK292" s="275"/>
+      <c r="AL292" s="275"/>
+      <c r="AM292" s="275"/>
+      <c r="AN292" s="275"/>
+      <c r="AO292" s="275"/>
+      <c r="AP292" s="275"/>
+      <c r="AQ292" s="275"/>
+      <c r="AR292" s="275"/>
+      <c r="AS292" s="275"/>
+      <c r="AT292" s="266"/>
       <c r="AU292" s="64"/>
       <c r="AV292" s="41" t="s">
         <v>1055</v>
@@ -60198,54 +60242,54 @@
       <c r="BF292" s="194"/>
     </row>
     <row r="293" spans="1:58" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="267"/>
-      <c r="B293" s="268"/>
+      <c r="A293" s="270"/>
+      <c r="B293" s="271"/>
       <c r="C293" s="79"/>
       <c r="D293" s="79"/>
       <c r="E293" s="158" t="s">
         <v>906</v>
       </c>
       <c r="F293" s="79"/>
-      <c r="G293" s="273"/>
-      <c r="H293" s="273"/>
-      <c r="I293" s="273"/>
-      <c r="J293" s="273"/>
-      <c r="K293" s="273"/>
-      <c r="L293" s="273"/>
-      <c r="M293" s="273"/>
-      <c r="N293" s="273"/>
-      <c r="O293" s="273"/>
-      <c r="P293" s="276"/>
-      <c r="Q293" s="276"/>
-      <c r="R293" s="276"/>
-      <c r="S293" s="276"/>
-      <c r="T293" s="276"/>
-      <c r="U293" s="276"/>
-      <c r="V293" s="276"/>
-      <c r="W293" s="276"/>
-      <c r="X293" s="276"/>
-      <c r="Y293" s="276"/>
-      <c r="Z293" s="276"/>
-      <c r="AA293" s="276"/>
-      <c r="AB293" s="276"/>
-      <c r="AC293" s="276"/>
-      <c r="AD293" s="276"/>
-      <c r="AE293" s="273"/>
-      <c r="AF293" s="273"/>
-      <c r="AG293" s="273"/>
-      <c r="AH293" s="273"/>
-      <c r="AI293" s="273"/>
-      <c r="AJ293" s="273"/>
-      <c r="AK293" s="273"/>
-      <c r="AL293" s="273"/>
-      <c r="AM293" s="273"/>
-      <c r="AN293" s="273"/>
-      <c r="AO293" s="273"/>
-      <c r="AP293" s="273"/>
-      <c r="AQ293" s="273"/>
-      <c r="AR293" s="273"/>
-      <c r="AS293" s="273"/>
-      <c r="AT293" s="264"/>
+      <c r="G293" s="276"/>
+      <c r="H293" s="276"/>
+      <c r="I293" s="276"/>
+      <c r="J293" s="276"/>
+      <c r="K293" s="276"/>
+      <c r="L293" s="276"/>
+      <c r="M293" s="276"/>
+      <c r="N293" s="276"/>
+      <c r="O293" s="276"/>
+      <c r="P293" s="279"/>
+      <c r="Q293" s="279"/>
+      <c r="R293" s="279"/>
+      <c r="S293" s="279"/>
+      <c r="T293" s="279"/>
+      <c r="U293" s="279"/>
+      <c r="V293" s="279"/>
+      <c r="W293" s="279"/>
+      <c r="X293" s="279"/>
+      <c r="Y293" s="279"/>
+      <c r="Z293" s="279"/>
+      <c r="AA293" s="279"/>
+      <c r="AB293" s="279"/>
+      <c r="AC293" s="279"/>
+      <c r="AD293" s="279"/>
+      <c r="AE293" s="276"/>
+      <c r="AF293" s="276"/>
+      <c r="AG293" s="276"/>
+      <c r="AH293" s="276"/>
+      <c r="AI293" s="276"/>
+      <c r="AJ293" s="276"/>
+      <c r="AK293" s="276"/>
+      <c r="AL293" s="276"/>
+      <c r="AM293" s="276"/>
+      <c r="AN293" s="276"/>
+      <c r="AO293" s="276"/>
+      <c r="AP293" s="276"/>
+      <c r="AQ293" s="276"/>
+      <c r="AR293" s="276"/>
+      <c r="AS293" s="276"/>
+      <c r="AT293" s="267"/>
       <c r="AU293" s="64"/>
       <c r="AV293" s="41" t="s">
         <v>1055</v>
@@ -60280,10 +60324,10 @@
       <c r="BF293" s="194"/>
     </row>
     <row r="294" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A294" s="269" t="s">
+      <c r="A294" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B294" s="270"/>
+      <c r="B294" s="273"/>
       <c r="C294" s="153" t="s">
         <v>415</v>
       </c>
@@ -60296,46 +60340,46 @@
       <c r="F294" s="154" t="s">
         <v>59</v>
       </c>
-      <c r="G294" s="271"/>
-      <c r="H294" s="271"/>
-      <c r="I294" s="271"/>
-      <c r="J294" s="271"/>
-      <c r="K294" s="271"/>
-      <c r="L294" s="271"/>
-      <c r="M294" s="271"/>
-      <c r="N294" s="271"/>
-      <c r="O294" s="271"/>
-      <c r="P294" s="274"/>
-      <c r="Q294" s="274"/>
-      <c r="R294" s="274"/>
-      <c r="S294" s="274"/>
-      <c r="T294" s="274"/>
-      <c r="U294" s="274"/>
-      <c r="V294" s="274"/>
-      <c r="W294" s="274"/>
-      <c r="X294" s="274"/>
-      <c r="Y294" s="274"/>
-      <c r="Z294" s="274"/>
-      <c r="AA294" s="274"/>
-      <c r="AB294" s="274"/>
-      <c r="AC294" s="274"/>
-      <c r="AD294" s="274"/>
-      <c r="AE294" s="271"/>
-      <c r="AF294" s="271"/>
-      <c r="AG294" s="271"/>
-      <c r="AH294" s="271"/>
-      <c r="AI294" s="271"/>
-      <c r="AJ294" s="271"/>
-      <c r="AK294" s="271"/>
-      <c r="AL294" s="271"/>
-      <c r="AM294" s="271"/>
-      <c r="AN294" s="271"/>
-      <c r="AO294" s="271"/>
-      <c r="AP294" s="271"/>
-      <c r="AQ294" s="271"/>
-      <c r="AR294" s="271"/>
-      <c r="AS294" s="271"/>
-      <c r="AT294" s="262"/>
+      <c r="G294" s="274"/>
+      <c r="H294" s="274"/>
+      <c r="I294" s="274"/>
+      <c r="J294" s="274"/>
+      <c r="K294" s="274"/>
+      <c r="L294" s="274"/>
+      <c r="M294" s="274"/>
+      <c r="N294" s="274"/>
+      <c r="O294" s="274"/>
+      <c r="P294" s="277"/>
+      <c r="Q294" s="277"/>
+      <c r="R294" s="277"/>
+      <c r="S294" s="277"/>
+      <c r="T294" s="277"/>
+      <c r="U294" s="277"/>
+      <c r="V294" s="277"/>
+      <c r="W294" s="277"/>
+      <c r="X294" s="277"/>
+      <c r="Y294" s="277"/>
+      <c r="Z294" s="277"/>
+      <c r="AA294" s="277"/>
+      <c r="AB294" s="277"/>
+      <c r="AC294" s="277"/>
+      <c r="AD294" s="277"/>
+      <c r="AE294" s="274"/>
+      <c r="AF294" s="274"/>
+      <c r="AG294" s="274"/>
+      <c r="AH294" s="274"/>
+      <c r="AI294" s="274"/>
+      <c r="AJ294" s="274"/>
+      <c r="AK294" s="274"/>
+      <c r="AL294" s="274"/>
+      <c r="AM294" s="274"/>
+      <c r="AN294" s="274"/>
+      <c r="AO294" s="274"/>
+      <c r="AP294" s="274"/>
+      <c r="AQ294" s="274"/>
+      <c r="AR294" s="274"/>
+      <c r="AS294" s="274"/>
+      <c r="AT294" s="265"/>
       <c r="AU294" s="64"/>
       <c r="AV294" s="41" t="s">
         <v>1055</v>
@@ -60370,8 +60414,8 @@
       <c r="BF294" s="194"/>
     </row>
     <row r="295" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="265"/>
-      <c r="B295" s="266"/>
+      <c r="A295" s="268"/>
+      <c r="B295" s="269"/>
       <c r="C295" s="78"/>
       <c r="D295" s="156" t="s">
         <v>416</v>
@@ -60380,46 +60424,46 @@
         <v>908</v>
       </c>
       <c r="F295" s="78"/>
-      <c r="G295" s="272"/>
-      <c r="H295" s="272"/>
-      <c r="I295" s="272"/>
-      <c r="J295" s="272"/>
-      <c r="K295" s="272"/>
-      <c r="L295" s="272"/>
-      <c r="M295" s="272"/>
-      <c r="N295" s="272"/>
-      <c r="O295" s="272"/>
-      <c r="P295" s="275"/>
-      <c r="Q295" s="275"/>
-      <c r="R295" s="275"/>
-      <c r="S295" s="275"/>
-      <c r="T295" s="275"/>
-      <c r="U295" s="275"/>
-      <c r="V295" s="275"/>
-      <c r="W295" s="275"/>
-      <c r="X295" s="275"/>
-      <c r="Y295" s="275"/>
-      <c r="Z295" s="275"/>
-      <c r="AA295" s="275"/>
-      <c r="AB295" s="275"/>
-      <c r="AC295" s="275"/>
-      <c r="AD295" s="275"/>
-      <c r="AE295" s="272"/>
-      <c r="AF295" s="272"/>
-      <c r="AG295" s="272"/>
-      <c r="AH295" s="272"/>
-      <c r="AI295" s="272"/>
-      <c r="AJ295" s="272"/>
-      <c r="AK295" s="272"/>
-      <c r="AL295" s="272"/>
-      <c r="AM295" s="272"/>
-      <c r="AN295" s="272"/>
-      <c r="AO295" s="272"/>
-      <c r="AP295" s="272"/>
-      <c r="AQ295" s="272"/>
-      <c r="AR295" s="272"/>
-      <c r="AS295" s="272"/>
-      <c r="AT295" s="263"/>
+      <c r="G295" s="275"/>
+      <c r="H295" s="275"/>
+      <c r="I295" s="275"/>
+      <c r="J295" s="275"/>
+      <c r="K295" s="275"/>
+      <c r="L295" s="275"/>
+      <c r="M295" s="275"/>
+      <c r="N295" s="275"/>
+      <c r="O295" s="275"/>
+      <c r="P295" s="278"/>
+      <c r="Q295" s="278"/>
+      <c r="R295" s="278"/>
+      <c r="S295" s="278"/>
+      <c r="T295" s="278"/>
+      <c r="U295" s="278"/>
+      <c r="V295" s="278"/>
+      <c r="W295" s="278"/>
+      <c r="X295" s="278"/>
+      <c r="Y295" s="278"/>
+      <c r="Z295" s="278"/>
+      <c r="AA295" s="278"/>
+      <c r="AB295" s="278"/>
+      <c r="AC295" s="278"/>
+      <c r="AD295" s="278"/>
+      <c r="AE295" s="275"/>
+      <c r="AF295" s="275"/>
+      <c r="AG295" s="275"/>
+      <c r="AH295" s="275"/>
+      <c r="AI295" s="275"/>
+      <c r="AJ295" s="275"/>
+      <c r="AK295" s="275"/>
+      <c r="AL295" s="275"/>
+      <c r="AM295" s="275"/>
+      <c r="AN295" s="275"/>
+      <c r="AO295" s="275"/>
+      <c r="AP295" s="275"/>
+      <c r="AQ295" s="275"/>
+      <c r="AR295" s="275"/>
+      <c r="AS295" s="275"/>
+      <c r="AT295" s="266"/>
       <c r="AU295" s="64"/>
       <c r="AV295" s="41" t="s">
         <v>1055</v>
@@ -60454,54 +60498,54 @@
       <c r="BF295" s="194"/>
     </row>
     <row r="296" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="265"/>
-      <c r="B296" s="266"/>
+      <c r="A296" s="268"/>
+      <c r="B296" s="269"/>
       <c r="C296" s="78"/>
       <c r="D296" s="156" t="s">
         <v>417</v>
       </c>
       <c r="E296" s="35"/>
       <c r="F296" s="78"/>
-      <c r="G296" s="272"/>
-      <c r="H296" s="272"/>
-      <c r="I296" s="272"/>
-      <c r="J296" s="272"/>
-      <c r="K296" s="272"/>
-      <c r="L296" s="272"/>
-      <c r="M296" s="272"/>
-      <c r="N296" s="272"/>
-      <c r="O296" s="272"/>
-      <c r="P296" s="275"/>
-      <c r="Q296" s="275"/>
-      <c r="R296" s="275"/>
-      <c r="S296" s="275"/>
-      <c r="T296" s="275"/>
-      <c r="U296" s="275"/>
-      <c r="V296" s="275"/>
-      <c r="W296" s="275"/>
-      <c r="X296" s="275"/>
-      <c r="Y296" s="275"/>
-      <c r="Z296" s="275"/>
-      <c r="AA296" s="275"/>
-      <c r="AB296" s="275"/>
-      <c r="AC296" s="275"/>
-      <c r="AD296" s="275"/>
-      <c r="AE296" s="272"/>
-      <c r="AF296" s="272"/>
-      <c r="AG296" s="272"/>
-      <c r="AH296" s="272"/>
-      <c r="AI296" s="272"/>
-      <c r="AJ296" s="272"/>
-      <c r="AK296" s="272"/>
-      <c r="AL296" s="272"/>
-      <c r="AM296" s="272"/>
-      <c r="AN296" s="272"/>
-      <c r="AO296" s="272"/>
-      <c r="AP296" s="272"/>
-      <c r="AQ296" s="272"/>
-      <c r="AR296" s="272"/>
-      <c r="AS296" s="272"/>
-      <c r="AT296" s="263"/>
+      <c r="G296" s="275"/>
+      <c r="H296" s="275"/>
+      <c r="I296" s="275"/>
+      <c r="J296" s="275"/>
+      <c r="K296" s="275"/>
+      <c r="L296" s="275"/>
+      <c r="M296" s="275"/>
+      <c r="N296" s="275"/>
+      <c r="O296" s="275"/>
+      <c r="P296" s="278"/>
+      <c r="Q296" s="278"/>
+      <c r="R296" s="278"/>
+      <c r="S296" s="278"/>
+      <c r="T296" s="278"/>
+      <c r="U296" s="278"/>
+      <c r="V296" s="278"/>
+      <c r="W296" s="278"/>
+      <c r="X296" s="278"/>
+      <c r="Y296" s="278"/>
+      <c r="Z296" s="278"/>
+      <c r="AA296" s="278"/>
+      <c r="AB296" s="278"/>
+      <c r="AC296" s="278"/>
+      <c r="AD296" s="278"/>
+      <c r="AE296" s="275"/>
+      <c r="AF296" s="275"/>
+      <c r="AG296" s="275"/>
+      <c r="AH296" s="275"/>
+      <c r="AI296" s="275"/>
+      <c r="AJ296" s="275"/>
+      <c r="AK296" s="275"/>
+      <c r="AL296" s="275"/>
+      <c r="AM296" s="275"/>
+      <c r="AN296" s="275"/>
+      <c r="AO296" s="275"/>
+      <c r="AP296" s="275"/>
+      <c r="AQ296" s="275"/>
+      <c r="AR296" s="275"/>
+      <c r="AS296" s="275"/>
+      <c r="AT296" s="266"/>
       <c r="AU296" s="64"/>
       <c r="AV296" s="41" t="s">
         <v>1055</v>
@@ -60536,54 +60580,54 @@
       <c r="BF296" s="194"/>
     </row>
     <row r="297" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="265"/>
-      <c r="B297" s="266"/>
+      <c r="A297" s="268"/>
+      <c r="B297" s="269"/>
       <c r="C297" s="78"/>
       <c r="D297" s="156" t="s">
         <v>418</v>
       </c>
       <c r="E297" s="35"/>
       <c r="F297" s="78"/>
-      <c r="G297" s="272"/>
-      <c r="H297" s="272"/>
-      <c r="I297" s="272"/>
-      <c r="J297" s="272"/>
-      <c r="K297" s="272"/>
-      <c r="L297" s="272"/>
-      <c r="M297" s="272"/>
-      <c r="N297" s="272"/>
-      <c r="O297" s="272"/>
-      <c r="P297" s="275"/>
-      <c r="Q297" s="275"/>
-      <c r="R297" s="275"/>
-      <c r="S297" s="275"/>
-      <c r="T297" s="275"/>
-      <c r="U297" s="275"/>
-      <c r="V297" s="275"/>
-      <c r="W297" s="275"/>
-      <c r="X297" s="275"/>
-      <c r="Y297" s="275"/>
-      <c r="Z297" s="275"/>
-      <c r="AA297" s="275"/>
-      <c r="AB297" s="275"/>
-      <c r="AC297" s="275"/>
-      <c r="AD297" s="275"/>
-      <c r="AE297" s="272"/>
-      <c r="AF297" s="272"/>
-      <c r="AG297" s="272"/>
-      <c r="AH297" s="272"/>
-      <c r="AI297" s="272"/>
-      <c r="AJ297" s="272"/>
-      <c r="AK297" s="272"/>
-      <c r="AL297" s="272"/>
-      <c r="AM297" s="272"/>
-      <c r="AN297" s="272"/>
-      <c r="AO297" s="272"/>
-      <c r="AP297" s="272"/>
-      <c r="AQ297" s="272"/>
-      <c r="AR297" s="272"/>
-      <c r="AS297" s="272"/>
-      <c r="AT297" s="263"/>
+      <c r="G297" s="275"/>
+      <c r="H297" s="275"/>
+      <c r="I297" s="275"/>
+      <c r="J297" s="275"/>
+      <c r="K297" s="275"/>
+      <c r="L297" s="275"/>
+      <c r="M297" s="275"/>
+      <c r="N297" s="275"/>
+      <c r="O297" s="275"/>
+      <c r="P297" s="278"/>
+      <c r="Q297" s="278"/>
+      <c r="R297" s="278"/>
+      <c r="S297" s="278"/>
+      <c r="T297" s="278"/>
+      <c r="U297" s="278"/>
+      <c r="V297" s="278"/>
+      <c r="W297" s="278"/>
+      <c r="X297" s="278"/>
+      <c r="Y297" s="278"/>
+      <c r="Z297" s="278"/>
+      <c r="AA297" s="278"/>
+      <c r="AB297" s="278"/>
+      <c r="AC297" s="278"/>
+      <c r="AD297" s="278"/>
+      <c r="AE297" s="275"/>
+      <c r="AF297" s="275"/>
+      <c r="AG297" s="275"/>
+      <c r="AH297" s="275"/>
+      <c r="AI297" s="275"/>
+      <c r="AJ297" s="275"/>
+      <c r="AK297" s="275"/>
+      <c r="AL297" s="275"/>
+      <c r="AM297" s="275"/>
+      <c r="AN297" s="275"/>
+      <c r="AO297" s="275"/>
+      <c r="AP297" s="275"/>
+      <c r="AQ297" s="275"/>
+      <c r="AR297" s="275"/>
+      <c r="AS297" s="275"/>
+      <c r="AT297" s="266"/>
       <c r="AU297" s="64"/>
       <c r="AV297" s="41" t="s">
         <v>1055</v>
@@ -60618,54 +60662,54 @@
       <c r="BF297" s="194"/>
     </row>
     <row r="298" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="267"/>
-      <c r="B298" s="268"/>
+      <c r="A298" s="270"/>
+      <c r="B298" s="271"/>
       <c r="C298" s="79"/>
       <c r="D298" s="159" t="s">
         <v>419</v>
       </c>
       <c r="E298" s="36"/>
       <c r="F298" s="79"/>
-      <c r="G298" s="273"/>
-      <c r="H298" s="273"/>
-      <c r="I298" s="273"/>
-      <c r="J298" s="273"/>
-      <c r="K298" s="273"/>
-      <c r="L298" s="273"/>
-      <c r="M298" s="273"/>
-      <c r="N298" s="273"/>
-      <c r="O298" s="273"/>
-      <c r="P298" s="276"/>
-      <c r="Q298" s="276"/>
-      <c r="R298" s="276"/>
-      <c r="S298" s="276"/>
-      <c r="T298" s="276"/>
-      <c r="U298" s="276"/>
-      <c r="V298" s="276"/>
-      <c r="W298" s="276"/>
-      <c r="X298" s="276"/>
-      <c r="Y298" s="276"/>
-      <c r="Z298" s="276"/>
-      <c r="AA298" s="276"/>
-      <c r="AB298" s="276"/>
-      <c r="AC298" s="276"/>
-      <c r="AD298" s="276"/>
-      <c r="AE298" s="273"/>
-      <c r="AF298" s="273"/>
-      <c r="AG298" s="273"/>
-      <c r="AH298" s="273"/>
-      <c r="AI298" s="273"/>
-      <c r="AJ298" s="273"/>
-      <c r="AK298" s="273"/>
-      <c r="AL298" s="273"/>
-      <c r="AM298" s="273"/>
-      <c r="AN298" s="273"/>
-      <c r="AO298" s="273"/>
-      <c r="AP298" s="273"/>
-      <c r="AQ298" s="273"/>
-      <c r="AR298" s="273"/>
-      <c r="AS298" s="273"/>
-      <c r="AT298" s="264"/>
+      <c r="G298" s="276"/>
+      <c r="H298" s="276"/>
+      <c r="I298" s="276"/>
+      <c r="J298" s="276"/>
+      <c r="K298" s="276"/>
+      <c r="L298" s="276"/>
+      <c r="M298" s="276"/>
+      <c r="N298" s="276"/>
+      <c r="O298" s="276"/>
+      <c r="P298" s="279"/>
+      <c r="Q298" s="279"/>
+      <c r="R298" s="279"/>
+      <c r="S298" s="279"/>
+      <c r="T298" s="279"/>
+      <c r="U298" s="279"/>
+      <c r="V298" s="279"/>
+      <c r="W298" s="279"/>
+      <c r="X298" s="279"/>
+      <c r="Y298" s="279"/>
+      <c r="Z298" s="279"/>
+      <c r="AA298" s="279"/>
+      <c r="AB298" s="279"/>
+      <c r="AC298" s="279"/>
+      <c r="AD298" s="279"/>
+      <c r="AE298" s="276"/>
+      <c r="AF298" s="276"/>
+      <c r="AG298" s="276"/>
+      <c r="AH298" s="276"/>
+      <c r="AI298" s="276"/>
+      <c r="AJ298" s="276"/>
+      <c r="AK298" s="276"/>
+      <c r="AL298" s="276"/>
+      <c r="AM298" s="276"/>
+      <c r="AN298" s="276"/>
+      <c r="AO298" s="276"/>
+      <c r="AP298" s="276"/>
+      <c r="AQ298" s="276"/>
+      <c r="AR298" s="276"/>
+      <c r="AS298" s="276"/>
+      <c r="AT298" s="267"/>
       <c r="AU298" s="64"/>
       <c r="AV298" s="41" t="s">
         <v>1055</v>
@@ -60700,10 +60744,10 @@
       <c r="BF298" s="194"/>
     </row>
     <row r="299" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A299" s="269" t="s">
+      <c r="A299" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B299" s="270"/>
+      <c r="B299" s="273"/>
       <c r="C299" s="153" t="s">
         <v>420</v>
       </c>
@@ -60716,46 +60760,46 @@
       <c r="F299" s="154" t="s">
         <v>31</v>
       </c>
-      <c r="G299" s="271"/>
-      <c r="H299" s="271"/>
-      <c r="I299" s="271"/>
-      <c r="J299" s="271"/>
-      <c r="K299" s="271"/>
-      <c r="L299" s="271"/>
-      <c r="M299" s="271"/>
-      <c r="N299" s="271"/>
-      <c r="O299" s="271"/>
-      <c r="P299" s="274"/>
-      <c r="Q299" s="274"/>
-      <c r="R299" s="274"/>
-      <c r="S299" s="274"/>
-      <c r="T299" s="274"/>
-      <c r="U299" s="274"/>
-      <c r="V299" s="274"/>
-      <c r="W299" s="274"/>
-      <c r="X299" s="274"/>
-      <c r="Y299" s="274"/>
-      <c r="Z299" s="274"/>
-      <c r="AA299" s="274"/>
-      <c r="AB299" s="274"/>
-      <c r="AC299" s="274"/>
-      <c r="AD299" s="274"/>
-      <c r="AE299" s="271"/>
-      <c r="AF299" s="271"/>
-      <c r="AG299" s="271"/>
-      <c r="AH299" s="271"/>
-      <c r="AI299" s="271"/>
-      <c r="AJ299" s="271"/>
-      <c r="AK299" s="271"/>
-      <c r="AL299" s="271"/>
-      <c r="AM299" s="271"/>
-      <c r="AN299" s="271"/>
-      <c r="AO299" s="271"/>
-      <c r="AP299" s="271"/>
-      <c r="AQ299" s="271"/>
-      <c r="AR299" s="271"/>
-      <c r="AS299" s="271"/>
-      <c r="AT299" s="262"/>
+      <c r="G299" s="274"/>
+      <c r="H299" s="274"/>
+      <c r="I299" s="274"/>
+      <c r="J299" s="274"/>
+      <c r="K299" s="274"/>
+      <c r="L299" s="274"/>
+      <c r="M299" s="274"/>
+      <c r="N299" s="274"/>
+      <c r="O299" s="274"/>
+      <c r="P299" s="277"/>
+      <c r="Q299" s="277"/>
+      <c r="R299" s="277"/>
+      <c r="S299" s="277"/>
+      <c r="T299" s="277"/>
+      <c r="U299" s="277"/>
+      <c r="V299" s="277"/>
+      <c r="W299" s="277"/>
+      <c r="X299" s="277"/>
+      <c r="Y299" s="277"/>
+      <c r="Z299" s="277"/>
+      <c r="AA299" s="277"/>
+      <c r="AB299" s="277"/>
+      <c r="AC299" s="277"/>
+      <c r="AD299" s="277"/>
+      <c r="AE299" s="274"/>
+      <c r="AF299" s="274"/>
+      <c r="AG299" s="274"/>
+      <c r="AH299" s="274"/>
+      <c r="AI299" s="274"/>
+      <c r="AJ299" s="274"/>
+      <c r="AK299" s="274"/>
+      <c r="AL299" s="274"/>
+      <c r="AM299" s="274"/>
+      <c r="AN299" s="274"/>
+      <c r="AO299" s="274"/>
+      <c r="AP299" s="274"/>
+      <c r="AQ299" s="274"/>
+      <c r="AR299" s="274"/>
+      <c r="AS299" s="274"/>
+      <c r="AT299" s="265"/>
       <c r="AU299" s="64"/>
       <c r="AV299" s="40"/>
       <c r="AW299" s="40"/>
@@ -60784,8 +60828,8 @@
       <c r="BF299" s="194"/>
     </row>
     <row r="300" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="265"/>
-      <c r="B300" s="266"/>
+      <c r="A300" s="268"/>
+      <c r="B300" s="269"/>
       <c r="C300" s="78"/>
       <c r="D300" s="156" t="s">
         <v>416</v>
@@ -60794,46 +60838,46 @@
         <v>910</v>
       </c>
       <c r="F300" s="78"/>
-      <c r="G300" s="272"/>
-      <c r="H300" s="272"/>
-      <c r="I300" s="272"/>
-      <c r="J300" s="272"/>
-      <c r="K300" s="272"/>
-      <c r="L300" s="272"/>
-      <c r="M300" s="272"/>
-      <c r="N300" s="272"/>
-      <c r="O300" s="272"/>
-      <c r="P300" s="275"/>
-      <c r="Q300" s="275"/>
-      <c r="R300" s="275"/>
-      <c r="S300" s="275"/>
-      <c r="T300" s="275"/>
-      <c r="U300" s="275"/>
-      <c r="V300" s="275"/>
-      <c r="W300" s="275"/>
-      <c r="X300" s="275"/>
-      <c r="Y300" s="275"/>
-      <c r="Z300" s="275"/>
-      <c r="AA300" s="275"/>
-      <c r="AB300" s="275"/>
-      <c r="AC300" s="275"/>
-      <c r="AD300" s="275"/>
-      <c r="AE300" s="272"/>
-      <c r="AF300" s="272"/>
-      <c r="AG300" s="272"/>
-      <c r="AH300" s="272"/>
-      <c r="AI300" s="272"/>
-      <c r="AJ300" s="272"/>
-      <c r="AK300" s="272"/>
-      <c r="AL300" s="272"/>
-      <c r="AM300" s="272"/>
-      <c r="AN300" s="272"/>
-      <c r="AO300" s="272"/>
-      <c r="AP300" s="272"/>
-      <c r="AQ300" s="272"/>
-      <c r="AR300" s="272"/>
-      <c r="AS300" s="272"/>
-      <c r="AT300" s="263"/>
+      <c r="G300" s="275"/>
+      <c r="H300" s="275"/>
+      <c r="I300" s="275"/>
+      <c r="J300" s="275"/>
+      <c r="K300" s="275"/>
+      <c r="L300" s="275"/>
+      <c r="M300" s="275"/>
+      <c r="N300" s="275"/>
+      <c r="O300" s="275"/>
+      <c r="P300" s="278"/>
+      <c r="Q300" s="278"/>
+      <c r="R300" s="278"/>
+      <c r="S300" s="278"/>
+      <c r="T300" s="278"/>
+      <c r="U300" s="278"/>
+      <c r="V300" s="278"/>
+      <c r="W300" s="278"/>
+      <c r="X300" s="278"/>
+      <c r="Y300" s="278"/>
+      <c r="Z300" s="278"/>
+      <c r="AA300" s="278"/>
+      <c r="AB300" s="278"/>
+      <c r="AC300" s="278"/>
+      <c r="AD300" s="278"/>
+      <c r="AE300" s="275"/>
+      <c r="AF300" s="275"/>
+      <c r="AG300" s="275"/>
+      <c r="AH300" s="275"/>
+      <c r="AI300" s="275"/>
+      <c r="AJ300" s="275"/>
+      <c r="AK300" s="275"/>
+      <c r="AL300" s="275"/>
+      <c r="AM300" s="275"/>
+      <c r="AN300" s="275"/>
+      <c r="AO300" s="275"/>
+      <c r="AP300" s="275"/>
+      <c r="AQ300" s="275"/>
+      <c r="AR300" s="275"/>
+      <c r="AS300" s="275"/>
+      <c r="AT300" s="266"/>
       <c r="AU300" s="64"/>
       <c r="AV300" s="40"/>
       <c r="AW300" s="40"/>
@@ -60862,8 +60906,8 @@
       <c r="BF300" s="194"/>
     </row>
     <row r="301" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="265"/>
-      <c r="B301" s="266"/>
+      <c r="A301" s="268"/>
+      <c r="B301" s="269"/>
       <c r="C301" s="78"/>
       <c r="D301" s="156" t="s">
         <v>417</v>
@@ -60872,46 +60916,46 @@
         <v>908</v>
       </c>
       <c r="F301" s="78"/>
-      <c r="G301" s="272"/>
-      <c r="H301" s="272"/>
-      <c r="I301" s="272"/>
-      <c r="J301" s="272"/>
-      <c r="K301" s="272"/>
-      <c r="L301" s="272"/>
-      <c r="M301" s="272"/>
-      <c r="N301" s="272"/>
-      <c r="O301" s="272"/>
-      <c r="P301" s="275"/>
-      <c r="Q301" s="275"/>
-      <c r="R301" s="275"/>
-      <c r="S301" s="275"/>
-      <c r="T301" s="275"/>
-      <c r="U301" s="275"/>
-      <c r="V301" s="275"/>
-      <c r="W301" s="275"/>
-      <c r="X301" s="275"/>
-      <c r="Y301" s="275"/>
-      <c r="Z301" s="275"/>
-      <c r="AA301" s="275"/>
-      <c r="AB301" s="275"/>
-      <c r="AC301" s="275"/>
-      <c r="AD301" s="275"/>
-      <c r="AE301" s="272"/>
-      <c r="AF301" s="272"/>
-      <c r="AG301" s="272"/>
-      <c r="AH301" s="272"/>
-      <c r="AI301" s="272"/>
-      <c r="AJ301" s="272"/>
-      <c r="AK301" s="272"/>
-      <c r="AL301" s="272"/>
-      <c r="AM301" s="272"/>
-      <c r="AN301" s="272"/>
-      <c r="AO301" s="272"/>
-      <c r="AP301" s="272"/>
-      <c r="AQ301" s="272"/>
-      <c r="AR301" s="272"/>
-      <c r="AS301" s="272"/>
-      <c r="AT301" s="263"/>
+      <c r="G301" s="275"/>
+      <c r="H301" s="275"/>
+      <c r="I301" s="275"/>
+      <c r="J301" s="275"/>
+      <c r="K301" s="275"/>
+      <c r="L301" s="275"/>
+      <c r="M301" s="275"/>
+      <c r="N301" s="275"/>
+      <c r="O301" s="275"/>
+      <c r="P301" s="278"/>
+      <c r="Q301" s="278"/>
+      <c r="R301" s="278"/>
+      <c r="S301" s="278"/>
+      <c r="T301" s="278"/>
+      <c r="U301" s="278"/>
+      <c r="V301" s="278"/>
+      <c r="W301" s="278"/>
+      <c r="X301" s="278"/>
+      <c r="Y301" s="278"/>
+      <c r="Z301" s="278"/>
+      <c r="AA301" s="278"/>
+      <c r="AB301" s="278"/>
+      <c r="AC301" s="278"/>
+      <c r="AD301" s="278"/>
+      <c r="AE301" s="275"/>
+      <c r="AF301" s="275"/>
+      <c r="AG301" s="275"/>
+      <c r="AH301" s="275"/>
+      <c r="AI301" s="275"/>
+      <c r="AJ301" s="275"/>
+      <c r="AK301" s="275"/>
+      <c r="AL301" s="275"/>
+      <c r="AM301" s="275"/>
+      <c r="AN301" s="275"/>
+      <c r="AO301" s="275"/>
+      <c r="AP301" s="275"/>
+      <c r="AQ301" s="275"/>
+      <c r="AR301" s="275"/>
+      <c r="AS301" s="275"/>
+      <c r="AT301" s="266"/>
       <c r="AU301" s="64"/>
       <c r="AV301" s="40"/>
       <c r="AW301" s="40"/>
@@ -60940,54 +60984,54 @@
       <c r="BF301" s="194"/>
     </row>
     <row r="302" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="265"/>
-      <c r="B302" s="266"/>
+      <c r="A302" s="268"/>
+      <c r="B302" s="269"/>
       <c r="C302" s="78"/>
       <c r="D302" s="156" t="s">
         <v>418</v>
       </c>
       <c r="E302" s="35"/>
       <c r="F302" s="78"/>
-      <c r="G302" s="272"/>
-      <c r="H302" s="272"/>
-      <c r="I302" s="272"/>
-      <c r="J302" s="272"/>
-      <c r="K302" s="272"/>
-      <c r="L302" s="272"/>
-      <c r="M302" s="272"/>
-      <c r="N302" s="272"/>
-      <c r="O302" s="272"/>
-      <c r="P302" s="275"/>
-      <c r="Q302" s="275"/>
-      <c r="R302" s="275"/>
-      <c r="S302" s="275"/>
-      <c r="T302" s="275"/>
-      <c r="U302" s="275"/>
-      <c r="V302" s="275"/>
-      <c r="W302" s="275"/>
-      <c r="X302" s="275"/>
-      <c r="Y302" s="275"/>
-      <c r="Z302" s="275"/>
-      <c r="AA302" s="275"/>
-      <c r="AB302" s="275"/>
-      <c r="AC302" s="275"/>
-      <c r="AD302" s="275"/>
-      <c r="AE302" s="272"/>
-      <c r="AF302" s="272"/>
-      <c r="AG302" s="272"/>
-      <c r="AH302" s="272"/>
-      <c r="AI302" s="272"/>
-      <c r="AJ302" s="272"/>
-      <c r="AK302" s="272"/>
-      <c r="AL302" s="272"/>
-      <c r="AM302" s="272"/>
-      <c r="AN302" s="272"/>
-      <c r="AO302" s="272"/>
-      <c r="AP302" s="272"/>
-      <c r="AQ302" s="272"/>
-      <c r="AR302" s="272"/>
-      <c r="AS302" s="272"/>
-      <c r="AT302" s="263"/>
+      <c r="G302" s="275"/>
+      <c r="H302" s="275"/>
+      <c r="I302" s="275"/>
+      <c r="J302" s="275"/>
+      <c r="K302" s="275"/>
+      <c r="L302" s="275"/>
+      <c r="M302" s="275"/>
+      <c r="N302" s="275"/>
+      <c r="O302" s="275"/>
+      <c r="P302" s="278"/>
+      <c r="Q302" s="278"/>
+      <c r="R302" s="278"/>
+      <c r="S302" s="278"/>
+      <c r="T302" s="278"/>
+      <c r="U302" s="278"/>
+      <c r="V302" s="278"/>
+      <c r="W302" s="278"/>
+      <c r="X302" s="278"/>
+      <c r="Y302" s="278"/>
+      <c r="Z302" s="278"/>
+      <c r="AA302" s="278"/>
+      <c r="AB302" s="278"/>
+      <c r="AC302" s="278"/>
+      <c r="AD302" s="278"/>
+      <c r="AE302" s="275"/>
+      <c r="AF302" s="275"/>
+      <c r="AG302" s="275"/>
+      <c r="AH302" s="275"/>
+      <c r="AI302" s="275"/>
+      <c r="AJ302" s="275"/>
+      <c r="AK302" s="275"/>
+      <c r="AL302" s="275"/>
+      <c r="AM302" s="275"/>
+      <c r="AN302" s="275"/>
+      <c r="AO302" s="275"/>
+      <c r="AP302" s="275"/>
+      <c r="AQ302" s="275"/>
+      <c r="AR302" s="275"/>
+      <c r="AS302" s="275"/>
+      <c r="AT302" s="266"/>
       <c r="AU302" s="64"/>
       <c r="AV302" s="40"/>
       <c r="AW302" s="40"/>
@@ -61016,54 +61060,54 @@
       <c r="BF302" s="194"/>
     </row>
     <row r="303" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="265"/>
-      <c r="B303" s="266"/>
+      <c r="A303" s="268"/>
+      <c r="B303" s="269"/>
       <c r="C303" s="78"/>
       <c r="D303" s="156" t="s">
         <v>419</v>
       </c>
       <c r="E303" s="35"/>
       <c r="F303" s="78"/>
-      <c r="G303" s="272"/>
-      <c r="H303" s="272"/>
-      <c r="I303" s="272"/>
-      <c r="J303" s="272"/>
-      <c r="K303" s="272"/>
-      <c r="L303" s="272"/>
-      <c r="M303" s="272"/>
-      <c r="N303" s="272"/>
-      <c r="O303" s="272"/>
-      <c r="P303" s="275"/>
-      <c r="Q303" s="275"/>
-      <c r="R303" s="275"/>
-      <c r="S303" s="275"/>
-      <c r="T303" s="275"/>
-      <c r="U303" s="275"/>
-      <c r="V303" s="275"/>
-      <c r="W303" s="275"/>
-      <c r="X303" s="275"/>
-      <c r="Y303" s="275"/>
-      <c r="Z303" s="275"/>
-      <c r="AA303" s="275"/>
-      <c r="AB303" s="275"/>
-      <c r="AC303" s="275"/>
-      <c r="AD303" s="275"/>
-      <c r="AE303" s="272"/>
-      <c r="AF303" s="272"/>
-      <c r="AG303" s="272"/>
-      <c r="AH303" s="272"/>
-      <c r="AI303" s="272"/>
-      <c r="AJ303" s="272"/>
-      <c r="AK303" s="272"/>
-      <c r="AL303" s="272"/>
-      <c r="AM303" s="272"/>
-      <c r="AN303" s="272"/>
-      <c r="AO303" s="272"/>
-      <c r="AP303" s="272"/>
-      <c r="AQ303" s="272"/>
-      <c r="AR303" s="272"/>
-      <c r="AS303" s="272"/>
-      <c r="AT303" s="263"/>
+      <c r="G303" s="275"/>
+      <c r="H303" s="275"/>
+      <c r="I303" s="275"/>
+      <c r="J303" s="275"/>
+      <c r="K303" s="275"/>
+      <c r="L303" s="275"/>
+      <c r="M303" s="275"/>
+      <c r="N303" s="275"/>
+      <c r="O303" s="275"/>
+      <c r="P303" s="278"/>
+      <c r="Q303" s="278"/>
+      <c r="R303" s="278"/>
+      <c r="S303" s="278"/>
+      <c r="T303" s="278"/>
+      <c r="U303" s="278"/>
+      <c r="V303" s="278"/>
+      <c r="W303" s="278"/>
+      <c r="X303" s="278"/>
+      <c r="Y303" s="278"/>
+      <c r="Z303" s="278"/>
+      <c r="AA303" s="278"/>
+      <c r="AB303" s="278"/>
+      <c r="AC303" s="278"/>
+      <c r="AD303" s="278"/>
+      <c r="AE303" s="275"/>
+      <c r="AF303" s="275"/>
+      <c r="AG303" s="275"/>
+      <c r="AH303" s="275"/>
+      <c r="AI303" s="275"/>
+      <c r="AJ303" s="275"/>
+      <c r="AK303" s="275"/>
+      <c r="AL303" s="275"/>
+      <c r="AM303" s="275"/>
+      <c r="AN303" s="275"/>
+      <c r="AO303" s="275"/>
+      <c r="AP303" s="275"/>
+      <c r="AQ303" s="275"/>
+      <c r="AR303" s="275"/>
+      <c r="AS303" s="275"/>
+      <c r="AT303" s="266"/>
       <c r="AU303" s="64"/>
       <c r="AV303" s="40"/>
       <c r="AW303" s="40"/>
@@ -61092,54 +61136,54 @@
       <c r="BF303" s="194"/>
     </row>
     <row r="304" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="267"/>
-      <c r="B304" s="268"/>
+      <c r="A304" s="270"/>
+      <c r="B304" s="271"/>
       <c r="C304" s="79"/>
       <c r="D304" s="159" t="s">
         <v>31</v>
       </c>
       <c r="E304" s="36"/>
       <c r="F304" s="79"/>
-      <c r="G304" s="273"/>
-      <c r="H304" s="273"/>
-      <c r="I304" s="273"/>
-      <c r="J304" s="273"/>
-      <c r="K304" s="273"/>
-      <c r="L304" s="273"/>
-      <c r="M304" s="273"/>
-      <c r="N304" s="273"/>
-      <c r="O304" s="273"/>
-      <c r="P304" s="276"/>
-      <c r="Q304" s="276"/>
-      <c r="R304" s="276"/>
-      <c r="S304" s="276"/>
-      <c r="T304" s="276"/>
-      <c r="U304" s="276"/>
-      <c r="V304" s="276"/>
-      <c r="W304" s="276"/>
-      <c r="X304" s="276"/>
-      <c r="Y304" s="276"/>
-      <c r="Z304" s="276"/>
-      <c r="AA304" s="276"/>
-      <c r="AB304" s="276"/>
-      <c r="AC304" s="276"/>
-      <c r="AD304" s="276"/>
-      <c r="AE304" s="273"/>
-      <c r="AF304" s="273"/>
-      <c r="AG304" s="273"/>
-      <c r="AH304" s="273"/>
-      <c r="AI304" s="273"/>
-      <c r="AJ304" s="273"/>
-      <c r="AK304" s="273"/>
-      <c r="AL304" s="273"/>
-      <c r="AM304" s="273"/>
-      <c r="AN304" s="273"/>
-      <c r="AO304" s="273"/>
-      <c r="AP304" s="273"/>
-      <c r="AQ304" s="273"/>
-      <c r="AR304" s="273"/>
-      <c r="AS304" s="273"/>
-      <c r="AT304" s="264"/>
+      <c r="G304" s="276"/>
+      <c r="H304" s="276"/>
+      <c r="I304" s="276"/>
+      <c r="J304" s="276"/>
+      <c r="K304" s="276"/>
+      <c r="L304" s="276"/>
+      <c r="M304" s="276"/>
+      <c r="N304" s="276"/>
+      <c r="O304" s="276"/>
+      <c r="P304" s="279"/>
+      <c r="Q304" s="279"/>
+      <c r="R304" s="279"/>
+      <c r="S304" s="279"/>
+      <c r="T304" s="279"/>
+      <c r="U304" s="279"/>
+      <c r="V304" s="279"/>
+      <c r="W304" s="279"/>
+      <c r="X304" s="279"/>
+      <c r="Y304" s="279"/>
+      <c r="Z304" s="279"/>
+      <c r="AA304" s="279"/>
+      <c r="AB304" s="279"/>
+      <c r="AC304" s="279"/>
+      <c r="AD304" s="279"/>
+      <c r="AE304" s="276"/>
+      <c r="AF304" s="276"/>
+      <c r="AG304" s="276"/>
+      <c r="AH304" s="276"/>
+      <c r="AI304" s="276"/>
+      <c r="AJ304" s="276"/>
+      <c r="AK304" s="276"/>
+      <c r="AL304" s="276"/>
+      <c r="AM304" s="276"/>
+      <c r="AN304" s="276"/>
+      <c r="AO304" s="276"/>
+      <c r="AP304" s="276"/>
+      <c r="AQ304" s="276"/>
+      <c r="AR304" s="276"/>
+      <c r="AS304" s="276"/>
+      <c r="AT304" s="267"/>
       <c r="AU304" s="64"/>
       <c r="AV304" s="40"/>
       <c r="AW304" s="40"/>
@@ -61168,10 +61212,10 @@
       <c r="BF304" s="194"/>
     </row>
     <row r="305" spans="1:58" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A305" s="269" t="s">
+      <c r="A305" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B305" s="270"/>
+      <c r="B305" s="273"/>
       <c r="C305" s="153" t="s">
         <v>421</v>
       </c>
@@ -61184,46 +61228,46 @@
       <c r="F305" s="154" t="s">
         <v>24</v>
       </c>
-      <c r="G305" s="271"/>
-      <c r="H305" s="271"/>
-      <c r="I305" s="271"/>
-      <c r="J305" s="271"/>
-      <c r="K305" s="271"/>
-      <c r="L305" s="271"/>
-      <c r="M305" s="271"/>
-      <c r="N305" s="271"/>
-      <c r="O305" s="271"/>
-      <c r="P305" s="274"/>
-      <c r="Q305" s="274"/>
-      <c r="R305" s="274"/>
-      <c r="S305" s="274"/>
-      <c r="T305" s="274"/>
-      <c r="U305" s="274"/>
-      <c r="V305" s="274"/>
-      <c r="W305" s="274"/>
-      <c r="X305" s="274"/>
-      <c r="Y305" s="274"/>
-      <c r="Z305" s="274"/>
-      <c r="AA305" s="274"/>
-      <c r="AB305" s="274"/>
-      <c r="AC305" s="274"/>
-      <c r="AD305" s="274"/>
-      <c r="AE305" s="271"/>
-      <c r="AF305" s="271"/>
-      <c r="AG305" s="271"/>
-      <c r="AH305" s="271"/>
-      <c r="AI305" s="271"/>
-      <c r="AJ305" s="271"/>
-      <c r="AK305" s="271"/>
-      <c r="AL305" s="271"/>
-      <c r="AM305" s="271"/>
-      <c r="AN305" s="271"/>
-      <c r="AO305" s="271"/>
-      <c r="AP305" s="271"/>
-      <c r="AQ305" s="271"/>
-      <c r="AR305" s="271"/>
-      <c r="AS305" s="271"/>
-      <c r="AT305" s="262"/>
+      <c r="G305" s="274"/>
+      <c r="H305" s="274"/>
+      <c r="I305" s="274"/>
+      <c r="J305" s="274"/>
+      <c r="K305" s="274"/>
+      <c r="L305" s="274"/>
+      <c r="M305" s="274"/>
+      <c r="N305" s="274"/>
+      <c r="O305" s="274"/>
+      <c r="P305" s="277"/>
+      <c r="Q305" s="277"/>
+      <c r="R305" s="277"/>
+      <c r="S305" s="277"/>
+      <c r="T305" s="277"/>
+      <c r="U305" s="277"/>
+      <c r="V305" s="277"/>
+      <c r="W305" s="277"/>
+      <c r="X305" s="277"/>
+      <c r="Y305" s="277"/>
+      <c r="Z305" s="277"/>
+      <c r="AA305" s="277"/>
+      <c r="AB305" s="277"/>
+      <c r="AC305" s="277"/>
+      <c r="AD305" s="277"/>
+      <c r="AE305" s="274"/>
+      <c r="AF305" s="274"/>
+      <c r="AG305" s="274"/>
+      <c r="AH305" s="274"/>
+      <c r="AI305" s="274"/>
+      <c r="AJ305" s="274"/>
+      <c r="AK305" s="274"/>
+      <c r="AL305" s="274"/>
+      <c r="AM305" s="274"/>
+      <c r="AN305" s="274"/>
+      <c r="AO305" s="274"/>
+      <c r="AP305" s="274"/>
+      <c r="AQ305" s="274"/>
+      <c r="AR305" s="274"/>
+      <c r="AS305" s="274"/>
+      <c r="AT305" s="265"/>
       <c r="AU305" s="64"/>
       <c r="AV305" s="40"/>
       <c r="AW305" s="40"/>
@@ -61252,8 +61296,8 @@
       <c r="BF305" s="194"/>
     </row>
     <row r="306" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="265"/>
-      <c r="B306" s="266"/>
+      <c r="A306" s="268"/>
+      <c r="B306" s="269"/>
       <c r="C306" s="78"/>
       <c r="D306" s="156" t="s">
         <v>422</v>
@@ -61262,46 +61306,46 @@
         <v>912</v>
       </c>
       <c r="F306" s="78"/>
-      <c r="G306" s="272"/>
-      <c r="H306" s="272"/>
-      <c r="I306" s="272"/>
-      <c r="J306" s="272"/>
-      <c r="K306" s="272"/>
-      <c r="L306" s="272"/>
-      <c r="M306" s="272"/>
-      <c r="N306" s="272"/>
-      <c r="O306" s="272"/>
-      <c r="P306" s="275"/>
-      <c r="Q306" s="275"/>
-      <c r="R306" s="275"/>
-      <c r="S306" s="275"/>
-      <c r="T306" s="275"/>
-      <c r="U306" s="275"/>
-      <c r="V306" s="275"/>
-      <c r="W306" s="275"/>
-      <c r="X306" s="275"/>
-      <c r="Y306" s="275"/>
-      <c r="Z306" s="275"/>
-      <c r="AA306" s="275"/>
-      <c r="AB306" s="275"/>
-      <c r="AC306" s="275"/>
-      <c r="AD306" s="275"/>
-      <c r="AE306" s="272"/>
-      <c r="AF306" s="272"/>
-      <c r="AG306" s="272"/>
-      <c r="AH306" s="272"/>
-      <c r="AI306" s="272"/>
-      <c r="AJ306" s="272"/>
-      <c r="AK306" s="272"/>
-      <c r="AL306" s="272"/>
-      <c r="AM306" s="272"/>
-      <c r="AN306" s="272"/>
-      <c r="AO306" s="272"/>
-      <c r="AP306" s="272"/>
-      <c r="AQ306" s="272"/>
-      <c r="AR306" s="272"/>
-      <c r="AS306" s="272"/>
-      <c r="AT306" s="263"/>
+      <c r="G306" s="275"/>
+      <c r="H306" s="275"/>
+      <c r="I306" s="275"/>
+      <c r="J306" s="275"/>
+      <c r="K306" s="275"/>
+      <c r="L306" s="275"/>
+      <c r="M306" s="275"/>
+      <c r="N306" s="275"/>
+      <c r="O306" s="275"/>
+      <c r="P306" s="278"/>
+      <c r="Q306" s="278"/>
+      <c r="R306" s="278"/>
+      <c r="S306" s="278"/>
+      <c r="T306" s="278"/>
+      <c r="U306" s="278"/>
+      <c r="V306" s="278"/>
+      <c r="W306" s="278"/>
+      <c r="X306" s="278"/>
+      <c r="Y306" s="278"/>
+      <c r="Z306" s="278"/>
+      <c r="AA306" s="278"/>
+      <c r="AB306" s="278"/>
+      <c r="AC306" s="278"/>
+      <c r="AD306" s="278"/>
+      <c r="AE306" s="275"/>
+      <c r="AF306" s="275"/>
+      <c r="AG306" s="275"/>
+      <c r="AH306" s="275"/>
+      <c r="AI306" s="275"/>
+      <c r="AJ306" s="275"/>
+      <c r="AK306" s="275"/>
+      <c r="AL306" s="275"/>
+      <c r="AM306" s="275"/>
+      <c r="AN306" s="275"/>
+      <c r="AO306" s="275"/>
+      <c r="AP306" s="275"/>
+      <c r="AQ306" s="275"/>
+      <c r="AR306" s="275"/>
+      <c r="AS306" s="275"/>
+      <c r="AT306" s="266"/>
       <c r="AU306" s="64"/>
       <c r="AV306" s="40"/>
       <c r="AW306" s="40"/>
@@ -61330,8 +61374,8 @@
       <c r="BF306" s="194"/>
     </row>
     <row r="307" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="267"/>
-      <c r="B307" s="268"/>
+      <c r="A307" s="270"/>
+      <c r="B307" s="271"/>
       <c r="C307" s="79"/>
       <c r="D307" s="159" t="s">
         <v>24</v>
@@ -61340,46 +61384,46 @@
         <v>913</v>
       </c>
       <c r="F307" s="79"/>
-      <c r="G307" s="273"/>
-      <c r="H307" s="273"/>
-      <c r="I307" s="273"/>
-      <c r="J307" s="273"/>
-      <c r="K307" s="273"/>
-      <c r="L307" s="273"/>
-      <c r="M307" s="273"/>
-      <c r="N307" s="273"/>
-      <c r="O307" s="273"/>
-      <c r="P307" s="276"/>
-      <c r="Q307" s="276"/>
-      <c r="R307" s="276"/>
-      <c r="S307" s="276"/>
-      <c r="T307" s="276"/>
-      <c r="U307" s="276"/>
-      <c r="V307" s="276"/>
-      <c r="W307" s="276"/>
-      <c r="X307" s="276"/>
-      <c r="Y307" s="276"/>
-      <c r="Z307" s="276"/>
-      <c r="AA307" s="276"/>
-      <c r="AB307" s="276"/>
-      <c r="AC307" s="276"/>
-      <c r="AD307" s="276"/>
-      <c r="AE307" s="273"/>
-      <c r="AF307" s="273"/>
-      <c r="AG307" s="273"/>
-      <c r="AH307" s="273"/>
-      <c r="AI307" s="273"/>
-      <c r="AJ307" s="273"/>
-      <c r="AK307" s="273"/>
-      <c r="AL307" s="273"/>
-      <c r="AM307" s="273"/>
-      <c r="AN307" s="273"/>
-      <c r="AO307" s="273"/>
-      <c r="AP307" s="273"/>
-      <c r="AQ307" s="273"/>
-      <c r="AR307" s="273"/>
-      <c r="AS307" s="273"/>
-      <c r="AT307" s="264"/>
+      <c r="G307" s="276"/>
+      <c r="H307" s="276"/>
+      <c r="I307" s="276"/>
+      <c r="J307" s="276"/>
+      <c r="K307" s="276"/>
+      <c r="L307" s="276"/>
+      <c r="M307" s="276"/>
+      <c r="N307" s="276"/>
+      <c r="O307" s="276"/>
+      <c r="P307" s="279"/>
+      <c r="Q307" s="279"/>
+      <c r="R307" s="279"/>
+      <c r="S307" s="279"/>
+      <c r="T307" s="279"/>
+      <c r="U307" s="279"/>
+      <c r="V307" s="279"/>
+      <c r="W307" s="279"/>
+      <c r="X307" s="279"/>
+      <c r="Y307" s="279"/>
+      <c r="Z307" s="279"/>
+      <c r="AA307" s="279"/>
+      <c r="AB307" s="279"/>
+      <c r="AC307" s="279"/>
+      <c r="AD307" s="279"/>
+      <c r="AE307" s="276"/>
+      <c r="AF307" s="276"/>
+      <c r="AG307" s="276"/>
+      <c r="AH307" s="276"/>
+      <c r="AI307" s="276"/>
+      <c r="AJ307" s="276"/>
+      <c r="AK307" s="276"/>
+      <c r="AL307" s="276"/>
+      <c r="AM307" s="276"/>
+      <c r="AN307" s="276"/>
+      <c r="AO307" s="276"/>
+      <c r="AP307" s="276"/>
+      <c r="AQ307" s="276"/>
+      <c r="AR307" s="276"/>
+      <c r="AS307" s="276"/>
+      <c r="AT307" s="267"/>
       <c r="AU307" s="64"/>
       <c r="AV307" s="40"/>
       <c r="AW307" s="40"/>
@@ -61408,10 +61452,10 @@
       <c r="BF307" s="194"/>
     </row>
     <row r="308" spans="1:58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A308" s="269" t="s">
+      <c r="A308" s="272" t="s">
         <v>14</v>
       </c>
-      <c r="B308" s="270"/>
+      <c r="B308" s="273"/>
       <c r="C308" s="153" t="s">
         <v>423</v>
       </c>
@@ -61424,46 +61468,46 @@
       <c r="F308" s="154" t="s">
         <v>43</v>
       </c>
-      <c r="G308" s="271"/>
-      <c r="H308" s="271"/>
-      <c r="I308" s="271"/>
-      <c r="J308" s="271"/>
-      <c r="K308" s="271"/>
-      <c r="L308" s="271"/>
-      <c r="M308" s="271"/>
-      <c r="N308" s="271"/>
-      <c r="O308" s="271"/>
-      <c r="P308" s="274"/>
-      <c r="Q308" s="274"/>
-      <c r="R308" s="274"/>
-      <c r="S308" s="274"/>
-      <c r="T308" s="274"/>
-      <c r="U308" s="274"/>
-      <c r="V308" s="274"/>
-      <c r="W308" s="274"/>
-      <c r="X308" s="274"/>
-      <c r="Y308" s="274"/>
-      <c r="Z308" s="274"/>
-      <c r="AA308" s="274"/>
-      <c r="AB308" s="274"/>
-      <c r="AC308" s="274"/>
-      <c r="AD308" s="274"/>
-      <c r="AE308" s="271"/>
-      <c r="AF308" s="271"/>
-      <c r="AG308" s="271"/>
-      <c r="AH308" s="271"/>
-      <c r="AI308" s="271"/>
-      <c r="AJ308" s="271"/>
-      <c r="AK308" s="271"/>
-      <c r="AL308" s="271"/>
-      <c r="AM308" s="271"/>
-      <c r="AN308" s="271"/>
-      <c r="AO308" s="271"/>
-      <c r="AP308" s="271"/>
-      <c r="AQ308" s="271"/>
-      <c r="AR308" s="271"/>
-      <c r="AS308" s="271"/>
-      <c r="AT308" s="262"/>
+      <c r="G308" s="274"/>
+      <c r="H308" s="274"/>
+      <c r="I308" s="274"/>
+      <c r="J308" s="274"/>
+      <c r="K308" s="274"/>
+      <c r="L308" s="274"/>
+      <c r="M308" s="274"/>
+      <c r="N308" s="274"/>
+      <c r="O308" s="274"/>
+      <c r="P308" s="277"/>
+      <c r="Q308" s="277"/>
+      <c r="R308" s="277"/>
+      <c r="S308" s="277"/>
+      <c r="T308" s="277"/>
+      <c r="U308" s="277"/>
+      <c r="V308" s="277"/>
+      <c r="W308" s="277"/>
+      <c r="X308" s="277"/>
+      <c r="Y308" s="277"/>
+      <c r="Z308" s="277"/>
+      <c r="AA308" s="277"/>
+      <c r="AB308" s="277"/>
+      <c r="AC308" s="277"/>
+      <c r="AD308" s="277"/>
+      <c r="AE308" s="274"/>
+      <c r="AF308" s="274"/>
+      <c r="AG308" s="274"/>
+      <c r="AH308" s="274"/>
+      <c r="AI308" s="274"/>
+      <c r="AJ308" s="274"/>
+      <c r="AK308" s="274"/>
+      <c r="AL308" s="274"/>
+      <c r="AM308" s="274"/>
+      <c r="AN308" s="274"/>
+      <c r="AO308" s="274"/>
+      <c r="AP308" s="274"/>
+      <c r="AQ308" s="274"/>
+      <c r="AR308" s="274"/>
+      <c r="AS308" s="274"/>
+      <c r="AT308" s="265"/>
       <c r="AU308" s="64"/>
       <c r="AV308" s="40"/>
       <c r="AW308" s="40"/>
@@ -61492,8 +61536,8 @@
       <c r="BF308" s="194"/>
     </row>
     <row r="309" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="265"/>
-      <c r="B309" s="266"/>
+      <c r="A309" s="268"/>
+      <c r="B309" s="269"/>
       <c r="C309" s="78"/>
       <c r="D309" s="156" t="s">
         <v>413</v>
@@ -61502,46 +61546,46 @@
         <v>912</v>
       </c>
       <c r="F309" s="78"/>
-      <c r="G309" s="272"/>
-      <c r="H309" s="272"/>
-      <c r="I309" s="272"/>
-      <c r="J309" s="272"/>
-      <c r="K309" s="272"/>
-      <c r="L309" s="272"/>
-      <c r="M309" s="272"/>
-      <c r="N309" s="272"/>
-      <c r="O309" s="272"/>
-      <c r="P309" s="275"/>
-      <c r="Q309" s="275"/>
-      <c r="R309" s="275"/>
-      <c r="S309" s="275"/>
-      <c r="T309" s="275"/>
-      <c r="U309" s="275"/>
-      <c r="V309" s="275"/>
-      <c r="W309" s="275"/>
-      <c r="X309" s="275"/>
-      <c r="Y309" s="275"/>
-      <c r="Z309" s="275"/>
-      <c r="AA309" s="275"/>
-      <c r="AB309" s="275"/>
-      <c r="AC309" s="275"/>
-      <c r="AD309" s="275"/>
-      <c r="AE309" s="272"/>
-      <c r="AF309" s="272"/>
-      <c r="AG309" s="272"/>
-      <c r="AH309" s="272"/>
-      <c r="AI309" s="272"/>
-      <c r="AJ309" s="272"/>
-      <c r="AK309" s="272"/>
-      <c r="AL309" s="272"/>
-      <c r="AM309" s="272"/>
-      <c r="AN309" s="272"/>
-      <c r="AO309" s="272"/>
-      <c r="AP309" s="272"/>
-      <c r="AQ309" s="272"/>
-      <c r="AR309" s="272"/>
-      <c r="AS309" s="272"/>
-      <c r="AT309" s="263"/>
+      <c r="G309" s="275"/>
+      <c r="H309" s="275"/>
+      <c r="I309" s="275"/>
+      <c r="J309" s="275"/>
+      <c r="K309" s="275"/>
+      <c r="L309" s="275"/>
+      <c r="M309" s="275"/>
+      <c r="N309" s="275"/>
+      <c r="O309" s="275"/>
+      <c r="P309" s="278"/>
+      <c r="Q309" s="278"/>
+      <c r="R309" s="278"/>
+      <c r="S309" s="278"/>
+      <c r="T309" s="278"/>
+      <c r="U309" s="278"/>
+      <c r="V309" s="278"/>
+      <c r="W309" s="278"/>
+      <c r="X309" s="278"/>
+      <c r="Y309" s="278"/>
+      <c r="Z309" s="278"/>
+      <c r="AA309" s="278"/>
+      <c r="AB309" s="278"/>
+      <c r="AC309" s="278"/>
+      <c r="AD309" s="278"/>
+      <c r="AE309" s="275"/>
+      <c r="AF309" s="275"/>
+      <c r="AG309" s="275"/>
+      <c r="AH309" s="275"/>
+      <c r="AI309" s="275"/>
+      <c r="AJ309" s="275"/>
+      <c r="AK309" s="275"/>
+      <c r="AL309" s="275"/>
+      <c r="AM309" s="275"/>
+      <c r="AN309" s="275"/>
+      <c r="AO309" s="275"/>
+      <c r="AP309" s="275"/>
+      <c r="AQ309" s="275"/>
+      <c r="AR309" s="275"/>
+      <c r="AS309" s="275"/>
+      <c r="AT309" s="266"/>
       <c r="AU309" s="64"/>
       <c r="AV309" s="40"/>
       <c r="AW309" s="40"/>
@@ -61570,8 +61614,8 @@
       <c r="BF309" s="194"/>
     </row>
     <row r="310" spans="1:58" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="265"/>
-      <c r="B310" s="266"/>
+      <c r="A310" s="268"/>
+      <c r="B310" s="269"/>
       <c r="C310" s="78"/>
       <c r="D310" s="156" t="s">
         <v>414</v>
@@ -61580,46 +61624,46 @@
         <v>905</v>
       </c>
       <c r="F310" s="78"/>
-      <c r="G310" s="272"/>
-      <c r="H310" s="272"/>
-      <c r="I310" s="272"/>
-      <c r="J310" s="272"/>
-      <c r="K310" s="272"/>
-      <c r="L310" s="272"/>
-      <c r="M310" s="272"/>
-      <c r="N310" s="272"/>
-      <c r="O310" s="272"/>
-      <c r="P310" s="275"/>
-      <c r="Q310" s="275"/>
-      <c r="R310" s="275"/>
-      <c r="S310" s="275"/>
-      <c r="T310" s="275"/>
-      <c r="U310" s="275"/>
-      <c r="V310" s="275"/>
-      <c r="W310" s="275"/>
-      <c r="X310" s="275"/>
-      <c r="Y310" s="275"/>
-      <c r="Z310" s="275"/>
-      <c r="AA310" s="275"/>
-      <c r="AB310" s="275"/>
-      <c r="AC310" s="275"/>
-      <c r="AD310" s="275"/>
-      <c r="AE310" s="272"/>
-      <c r="AF310" s="272"/>
-      <c r="AG310" s="272"/>
-      <c r="AH310" s="272"/>
-      <c r="AI310" s="272"/>
-      <c r="AJ310" s="272"/>
-      <c r="AK310" s="272"/>
-      <c r="AL310" s="272"/>
-      <c r="AM310" s="272"/>
-      <c r="AN310" s="272"/>
-      <c r="AO310" s="272"/>
-      <c r="AP310" s="272"/>
-      <c r="AQ310" s="272"/>
-      <c r="AR310" s="272"/>
-      <c r="AS310" s="272"/>
-      <c r="AT310" s="263"/>
+      <c r="G310" s="275"/>
+      <c r="H310" s="275"/>
+      <c r="I310" s="275"/>
+      <c r="J310" s="275"/>
+      <c r="K310" s="275"/>
+      <c r="L310" s="275"/>
+      <c r="M310" s="275"/>
+      <c r="N310" s="275"/>
+      <c r="O310" s="275"/>
+      <c r="P310" s="278"/>
+      <c r="Q310" s="278"/>
+      <c r="R310" s="278"/>
+      <c r="S310" s="278"/>
+      <c r="T310" s="278"/>
+      <c r="U310" s="278"/>
+      <c r="V310" s="278"/>
+      <c r="W310" s="278"/>
+      <c r="X310" s="278"/>
+      <c r="Y310" s="278"/>
+      <c r="Z310" s="278"/>
+      <c r="AA310" s="278"/>
+      <c r="AB310" s="278"/>
+      <c r="AC310" s="278"/>
+      <c r="AD310" s="278"/>
+      <c r="AE310" s="275"/>
+      <c r="AF310" s="275"/>
+      <c r="AG310" s="275"/>
+      <c r="AH310" s="275"/>
+      <c r="AI310" s="275"/>
+      <c r="AJ310" s="275"/>
+      <c r="AK310" s="275"/>
+      <c r="AL310" s="275"/>
+      <c r="AM310" s="275"/>
+      <c r="AN310" s="275"/>
+      <c r="AO310" s="275"/>
+      <c r="AP310" s="275"/>
+      <c r="AQ310" s="275"/>
+      <c r="AR310" s="275"/>
+      <c r="AS310" s="275"/>
+      <c r="AT310" s="266"/>
       <c r="AU310" s="64"/>
       <c r="AV310" s="40"/>
       <c r="AW310" s="40"/>
@@ -61648,54 +61692,54 @@
       <c r="BF310" s="194"/>
     </row>
     <row r="311" spans="1:58" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="267"/>
-      <c r="B311" s="268"/>
+      <c r="A311" s="270"/>
+      <c r="B311" s="271"/>
       <c r="C311" s="79"/>
       <c r="D311" s="79"/>
       <c r="E311" s="158" t="s">
         <v>906</v>
       </c>
       <c r="F311" s="79"/>
-      <c r="G311" s="273"/>
-      <c r="H311" s="273"/>
-      <c r="I311" s="273"/>
-      <c r="J311" s="273"/>
-      <c r="K311" s="273"/>
-      <c r="L311" s="273"/>
-      <c r="M311" s="273"/>
-      <c r="N311" s="273"/>
-      <c r="O311" s="273"/>
-      <c r="P311" s="276"/>
-      <c r="Q311" s="276"/>
-      <c r="R311" s="276"/>
-      <c r="S311" s="276"/>
-      <c r="T311" s="276"/>
-      <c r="U311" s="276"/>
-      <c r="V311" s="276"/>
-      <c r="W311" s="276"/>
-      <c r="X311" s="276"/>
-      <c r="Y311" s="276"/>
-      <c r="Z311" s="276"/>
-      <c r="AA311" s="276"/>
-      <c r="AB311" s="276"/>
-      <c r="AC311" s="276"/>
-      <c r="AD311" s="276"/>
-      <c r="AE311" s="273"/>
-      <c r="AF311" s="273"/>
-      <c r="AG311" s="273"/>
-      <c r="AH311" s="273"/>
-      <c r="AI311" s="273"/>
-      <c r="AJ311" s="273"/>
-      <c r="AK311" s="273"/>
-      <c r="AL311" s="273"/>
-      <c r="AM311" s="273"/>
-      <c r="AN311" s="273"/>
-      <c r="AO311" s="273"/>
-      <c r="AP311" s="273"/>
-      <c r="AQ311" s="273"/>
-      <c r="AR311" s="273"/>
-      <c r="AS311" s="273"/>
-      <c r="AT311" s="264"/>
+      <c r="G311" s="276"/>
+      <c r="H311" s="276"/>
+      <c r="I311" s="276"/>
+      <c r="J311" s="276"/>
+      <c r="K311" s="276"/>
+      <c r="L311" s="276"/>
+      <c r="M311" s="276"/>
+      <c r="N311" s="276"/>
+      <c r="O311" s="276"/>
+      <c r="P311" s="279"/>
+      <c r="Q311" s="279"/>
+      <c r="R311" s="279"/>
+      <c r="S311" s="279"/>
+      <c r="T311" s="279"/>
+      <c r="U311" s="279"/>
+      <c r="V311" s="279"/>
+      <c r="W311" s="279"/>
+      <c r="X311" s="279"/>
+      <c r="Y311" s="279"/>
+      <c r="Z311" s="279"/>
+      <c r="AA311" s="279"/>
+      <c r="AB311" s="279"/>
+      <c r="AC311" s="279"/>
+      <c r="AD311" s="279"/>
+      <c r="AE311" s="276"/>
+      <c r="AF311" s="276"/>
+      <c r="AG311" s="276"/>
+      <c r="AH311" s="276"/>
+      <c r="AI311" s="276"/>
+      <c r="AJ311" s="276"/>
+      <c r="AK311" s="276"/>
+      <c r="AL311" s="276"/>
+      <c r="AM311" s="276"/>
+      <c r="AN311" s="276"/>
+      <c r="AO311" s="276"/>
+      <c r="AP311" s="276"/>
+      <c r="AQ311" s="276"/>
+      <c r="AR311" s="276"/>
+      <c r="AS311" s="276"/>
+      <c r="AT311" s="267"/>
       <c r="AU311" s="64"/>
       <c r="AY311" s="77" t="s">
         <v>1055</v>
@@ -61773,7 +61817,7 @@
     <filterColumn colId="58" showButton="0"/>
     <filterColumn colId="59" showButton="0"/>
   </autoFilter>
-  <mergeCells count="667">
+  <mergeCells count="666">
     <mergeCell ref="BG40:BH40"/>
     <mergeCell ref="BG41:BI41"/>
     <mergeCell ref="BG42:BI42"/>
@@ -61801,8 +61845,6 @@
     <mergeCell ref="BG228:BI228"/>
     <mergeCell ref="BG214:BH214"/>
     <mergeCell ref="BG215:BH215"/>
-    <mergeCell ref="BG217:BI217"/>
-    <mergeCell ref="BG218:BI218"/>
     <mergeCell ref="BG222:BI222"/>
     <mergeCell ref="BG223:BH223"/>
     <mergeCell ref="BG224:BI224"/>
@@ -61810,6 +61852,7 @@
     <mergeCell ref="BG226:BH226"/>
     <mergeCell ref="BG231:BH231"/>
     <mergeCell ref="BG232:BH232"/>
+    <mergeCell ref="BG217:BG221"/>
     <mergeCell ref="BG1:BI1"/>
     <mergeCell ref="BK3:BM3"/>
     <mergeCell ref="BN3:BO3"/>
@@ -62451,9 +62494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -62485,7 +62526,7 @@
       <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="225" t="s">
         <v>682</v>
       </c>
       <c r="B4" s="7"/>
@@ -62689,6 +62730,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -73570,14 +73612,14 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E7967D5-8315-4331-A59D-984E422EEF7F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -73423,8 +73423,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -73475,7 +73475,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -73494,7 +73494,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -73511,8 +73511,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -73627,20 +73627,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99C97ED7-0B73-463D-823C-AC87E12B5517}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9ABB5B9-765B-4B58-A30D-7806D9A9C106}"/>
 </file>
--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -75371,8 +75371,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -75423,7 +75423,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -75442,7 +75442,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -75459,8 +75459,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -75565,22 +75565,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99C97ED7-0B73-463D-823C-AC87E12B5517}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{816C3BF3-503F-4132-A7CE-7563BB20BBE5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -75727,8 +75727,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -75779,7 +75779,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -75798,7 +75798,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -75815,8 +75815,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -75921,22 +75921,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC3CD1A7-F08A-4A8D-9AEF-A59447959E12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DD8A035-B16B-493B-811A-E799C68AB684}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="1635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="eforms empty" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'eforms empty'!$A$1:$BK$311</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13655" uniqueCount="3157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13672" uniqueCount="3174">
   <si>
     <r>
       <rPr>
@@ -22056,6 +22056,94 @@
 The BT was not mapped due it is dependent of the everis proposal about how to represent the IFLA LRM model in ePO
 Action Point: 
 Everis to finish the Planning mapping since it is covered through the IFLA LRM model</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>- We created the dataproperty ID within the tender lot class because the BT refers to tender lot instead to tender.
+- What eForms defines as tender, We call it tender Lot. According to the definition of eForms, tender differs per Lot.
+- We created an Issue to ask What they refer to, because in ePO We refer to the winner tender lots, only, not to any tender.
+- For the time being We only considered that this BG refers only to the winning tenders. this depends on the answer to the GitHub Issue created.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- It refers to the Financial Offer Value and not to the Procurement Value.
+- Additional information was added to the definition of Financial Offer Value: “In the case of negotiated procedure the Financial Offer Value provided by the Tenderer is adapted according to the negotiations with the Buyer.
+A value given for a group of lots may be different to the sum of the lots submitted individually (e.g. more advantageous).
+Separate classes are added in the ontology for different value types (e.g. Procurement Value, Financial Official Value, other) for tracking back the provenance and enabling the individual and total values to be cross-checked.”
+- The WG decided to create a new diagram in order to solve the problem about the financial offer and the awarded value, and how to link all the values (under discussion).
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. A property from Procedure to AwardTerms was created. The predicate has been named hasDirectAwardTerms. 
+2. AwardTerms was renamed by Direct Award Terms due until now the award terms are only used for direct award.
+</t>
+  </si>
+  <si>
+    <t>Direct Award Justification attribute was renamed by Justification due the class is already named Direct Award Terms.</t>
+  </si>
+  <si>
+    <t>The property from Lot to AwardTerms was changed. Now, it goes from DirectAwartTerms To Lot. It was renamed by refersToPreviousProcedureLot.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We changed the name of the property BeneficiaryOwnerNationality to BeneficialOwnerNationaly, also for the predicate, because this is the naming used in Directive (EU) 2015/849 (https://eur-lex.europa.eu/legal-content/EN/TXT/PDF/?uri=OJ:L:2015:141:FULL&amp;from=EN).
+</t>
+  </si>
+  <si>
+    <t>We removed WinnerListedIndicator out of the Winner class and add the "Listed" in the EconomicOperator class. The definition for this attribute has been reworked and is inspired on the Annex II, paragraph 1) of the Directive 2015/849.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. We invented a link between Procedure and Procedure (cardinality 0..n) to explain the case where a subsequent procedure is awarded as a Direct Award and is justified by the previous Procedure, e.g. when the justification why the Direct Award was awarded directly.
+2.We remove DirectAwardDecisionJustification fields (Text and Text) from the AwardDecision class, because this is already specified in the AwardTerms.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natalie explained that she was investigating the difference between both terms and the conclusion is that we need both terms because some countries, sometimes, need to specify the framework maximum value. Therefore, we need two properties, one for the estimated value and another one for the maximum value. A new definition for both properties has been created.
+In addition, the definition and the additional info of the property "hasAwardedValue" have been modified: 
+Old  The value of the procurement provided by the Award Decision.
+Additional Information:
+Different cases of awarded values may refer to a lot, the global value of the procedure, or of a combinatorial value of a group of lots.
+In the case of framework agreements and dynamic purchasing systems, this refers to the maximum awarded value.
+New  The value of the procurement provided by the Award Decision for procedures that do not use Framework Agreement and non-Dynamic Purchasing System.
+Additional Information:
+Different cases of awarded values may refer to a lot, the global value of the procedure, or of a combinatorial value of a group of lots.
+For Techniques like Framework Agreement and DPS, the properties hasAwardedMaximunValue and hasAwardedEstimatedValue must be used.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class Procurement Information has been renamed by Statistical Information because it is for statistical purposes.
+Instead of to have a code list for the type of tenders received and taking into account that the data types of the value have to be “Numeric”, the WG decided to take the concepts of the code list “received-submission-type” and they were added as attributes of the class Statistical Information. See the additional information on the class for more details. 
+The NON-EU tenders and EU tender's attributes have been removed from the Procurement Information class.
+The attributes Lowest admissible tender, highest admissible tender have been created in the class Statistical Information. A definition for them has been created. 
+According to the discussion of the Lowest admissible tender and the highest admissible tender, the WG thought to add the class tender evaluation in the Result diagram. The WG decided not to add it by the moment and additional clarification was added within the class statistical information: 
+“Attention will have to be paid in the future to possible inconsistencies derived from data placed in other classes and data held in the Statistical Information class; e.g. the TenderEvaluation class (see eEvaluation diagram) has the attribute admissibileTender indicator, which in case of being false, may enter in contradiction with the highest or lowest tender value for that very same inadmissible tender.” 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The WG discussed the need to have the property “hasAwardedValue” from the Framework Agreement to Procurement Value. The WG decided to remove it and to move it to GroupLot as Lot. The values can be got from the Lot and GroupLot values. Therefore, GroupLot “hasAwardeValue” Procurement Value. 
+In addition, the additional information of the property hasEstimatedValue (GroupLot) has been modified in order to clarify that there is no need to go through the FrameworkAgreement in order to get the "Estimated Value".
+As well as, additional information has been added in the property “organisedIn” from FrameworkAgreement to GroupLot: 
+“Additional Information
+This property allows to obtain the estimated value of both a group of lots used in a Framework Agreement and the estimated value of each individual lot; which helps to compare the difference between the estimated value of the group against the addition of each lot estimated value.” 
+The same definition is used for the property “hasEstimatedValue” that links Procedure to ProcurementValue than the one that links Lot and Procurement Value.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The same definition that has the property hasEstimatedValue from Lot to ProcurementValue has been copied.
+During the mapping discussion, the WG decided to rename the property “uses” from AwardDecision to GroupLot. Now it is named “refersTo”.
+</t>
+  </si>
+  <si>
+    <t>See comments in BT-27</t>
+  </si>
+  <si>
+    <t>An issue in eForms has been created in order to clarify the difference between the BT-709 and BT-660 (https://github.com/eForms/eForms/issues/329</t>
+  </si>
+  <si>
+    <t>See commments in BT-709</t>
+  </si>
+  <si>
+    <t>The definition of both properties was changed taking into account explanation of Jachym Hercher in issue #32 (https://github.com/eForms/eForms/issues/32)</t>
   </si>
 </sst>
 </file>
@@ -22832,7 +22920,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="418">
+  <cellXfs count="419">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -23595,20 +23683,29 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -23619,6 +23716,27 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -23628,14 +23746,17 @@
     <xf numFmtId="0" fontId="36" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -23643,46 +23764,70 @@
     <xf numFmtId="0" fontId="36" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -23694,104 +23839,158 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
@@ -23832,230 +24031,122 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="13" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -24065,23 +24156,6 @@
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
   <dxfs count="15">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -24121,6 +24195,23 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -24135,7 +24226,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E353" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E353" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:E353">
     <filterColumn colId="1">
       <filters blank="1"/>
@@ -24145,27 +24236,27 @@
     <sortCondition ref="A1:A353"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="ClassName" dataDxfId="12"/>
-    <tableColumn id="2" name="ClassDefinition" dataDxfId="11"/>
-    <tableColumn id="3" name="AttributeName" dataDxfId="10"/>
-    <tableColumn id="4" name="AttributeDefinition" dataDxfId="9"/>
-    <tableColumn id="5" name="AttributeType" dataDxfId="8"/>
+    <tableColumn id="1" name="ClassName" dataDxfId="10"/>
+    <tableColumn id="2" name="ClassDefinition" dataDxfId="9"/>
+    <tableColumn id="3" name="AttributeName" dataDxfId="8"/>
+    <tableColumn id="4" name="AttributeDefinition" dataDxfId="7"/>
+    <tableColumn id="5" name="AttributeType" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D425" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D425" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D425"/>
   <sortState ref="A2:D425">
     <sortCondition ref="A1:A425"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="CodeListName" dataDxfId="5"/>
-    <tableColumn id="2" name="CodeListDefinition" dataDxfId="4"/>
-    <tableColumn id="3" name="AuthorityCode" dataDxfId="3"/>
-    <tableColumn id="4" name="CodeName" dataDxfId="2"/>
+    <tableColumn id="1" name="CodeListName" dataDxfId="3"/>
+    <tableColumn id="2" name="CodeListDefinition" dataDxfId="2"/>
+    <tableColumn id="3" name="AuthorityCode" dataDxfId="1"/>
+    <tableColumn id="4" name="CodeName" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -24461,8 +24552,8 @@
   <dimension ref="A1:BP312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E243" sqref="E243"/>
+      <pane ySplit="4" topLeftCell="A206" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AU206" sqref="AU206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -24506,108 +24597,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="368" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="335" t="s">
+      <c r="B1" s="369"/>
+      <c r="C1" s="372" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="335" t="s">
+      <c r="D1" s="372" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="335" t="s">
+      <c r="E1" s="372" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="335" t="s">
+      <c r="F1" s="372" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="337" t="s">
+      <c r="G1" s="374" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="339"/>
-      <c r="P1" s="337" t="s">
+      <c r="H1" s="375"/>
+      <c r="I1" s="375"/>
+      <c r="J1" s="375"/>
+      <c r="K1" s="375"/>
+      <c r="L1" s="375"/>
+      <c r="M1" s="375"/>
+      <c r="N1" s="375"/>
+      <c r="O1" s="376"/>
+      <c r="P1" s="374" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="338"/>
-      <c r="R1" s="338"/>
-      <c r="S1" s="338"/>
-      <c r="T1" s="338"/>
-      <c r="U1" s="338"/>
-      <c r="V1" s="338"/>
-      <c r="W1" s="338"/>
-      <c r="X1" s="338"/>
-      <c r="Y1" s="338"/>
-      <c r="Z1" s="338"/>
-      <c r="AA1" s="338"/>
-      <c r="AB1" s="338"/>
-      <c r="AC1" s="338"/>
-      <c r="AD1" s="339"/>
-      <c r="AE1" s="337" t="s">
+      <c r="Q1" s="375"/>
+      <c r="R1" s="375"/>
+      <c r="S1" s="375"/>
+      <c r="T1" s="375"/>
+      <c r="U1" s="375"/>
+      <c r="V1" s="375"/>
+      <c r="W1" s="375"/>
+      <c r="X1" s="375"/>
+      <c r="Y1" s="375"/>
+      <c r="Z1" s="375"/>
+      <c r="AA1" s="375"/>
+      <c r="AB1" s="375"/>
+      <c r="AC1" s="375"/>
+      <c r="AD1" s="376"/>
+      <c r="AE1" s="374" t="s">
         <v>7</v>
       </c>
-      <c r="AF1" s="338"/>
-      <c r="AG1" s="338"/>
-      <c r="AH1" s="339"/>
-      <c r="AI1" s="337" t="s">
+      <c r="AF1" s="375"/>
+      <c r="AG1" s="375"/>
+      <c r="AH1" s="376"/>
+      <c r="AI1" s="374" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="338"/>
-      <c r="AK1" s="338"/>
-      <c r="AL1" s="338"/>
-      <c r="AM1" s="338"/>
-      <c r="AN1" s="338"/>
-      <c r="AO1" s="338"/>
-      <c r="AP1" s="338"/>
-      <c r="AQ1" s="339"/>
-      <c r="AR1" s="340" t="s">
+      <c r="AJ1" s="375"/>
+      <c r="AK1" s="375"/>
+      <c r="AL1" s="375"/>
+      <c r="AM1" s="375"/>
+      <c r="AN1" s="375"/>
+      <c r="AO1" s="375"/>
+      <c r="AP1" s="375"/>
+      <c r="AQ1" s="376"/>
+      <c r="AR1" s="377" t="s">
         <v>603</v>
       </c>
-      <c r="AS1" s="341"/>
-      <c r="AT1" s="342"/>
+      <c r="AS1" s="378"/>
+      <c r="AT1" s="379"/>
       <c r="AU1" s="73" t="s">
         <v>882</v>
       </c>
-      <c r="AV1" s="381" t="s">
+      <c r="AV1" s="319" t="s">
         <v>642</v>
       </c>
-      <c r="AW1" s="384" t="s">
+      <c r="AW1" s="322" t="s">
         <v>859</v>
       </c>
-      <c r="AX1" s="385"/>
-      <c r="AY1" s="386"/>
-      <c r="AZ1" s="378" t="s">
+      <c r="AX1" s="323"/>
+      <c r="AY1" s="324"/>
+      <c r="AZ1" s="307" t="s">
         <v>641</v>
       </c>
-      <c r="BA1" s="379"/>
-      <c r="BB1" s="379"/>
-      <c r="BC1" s="379"/>
-      <c r="BD1" s="379"/>
-      <c r="BE1" s="379"/>
-      <c r="BF1" s="380"/>
+      <c r="BA1" s="308"/>
+      <c r="BB1" s="308"/>
+      <c r="BC1" s="308"/>
+      <c r="BD1" s="308"/>
+      <c r="BE1" s="308"/>
+      <c r="BF1" s="309"/>
       <c r="BG1" s="206" t="s">
         <v>2980</v>
       </c>
-      <c r="BH1" s="392" t="s">
+      <c r="BH1" s="291" t="s">
         <v>934</v>
       </c>
-      <c r="BI1" s="392"/>
-      <c r="BJ1" s="392"/>
+      <c r="BI1" s="291"/>
+      <c r="BJ1" s="291"/>
     </row>
     <row r="2" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="333"/>
-      <c r="B2" s="334"/>
-      <c r="C2" s="336"/>
-      <c r="D2" s="336"/>
-      <c r="E2" s="336"/>
-      <c r="F2" s="336"/>
+      <c r="A2" s="370"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="373"/>
+      <c r="D2" s="373"/>
+      <c r="E2" s="373"/>
+      <c r="F2" s="373"/>
       <c r="G2" s="76">
         <v>1</v>
       </c>
@@ -24729,163 +24820,163 @@
         <v>40</v>
       </c>
       <c r="AU2" s="79"/>
-      <c r="AV2" s="381"/>
+      <c r="AV2" s="319"/>
       <c r="AW2" s="38"/>
       <c r="AX2" s="38"/>
       <c r="AY2" s="38"/>
-      <c r="AZ2" s="377" t="s">
+      <c r="AZ2" s="306" t="s">
         <v>643</v>
       </c>
-      <c r="BA2" s="377"/>
-      <c r="BB2" s="389" t="s">
+      <c r="BA2" s="306"/>
+      <c r="BB2" s="327" t="s">
         <v>593</v>
       </c>
-      <c r="BC2" s="377" t="s">
+      <c r="BC2" s="306" t="s">
         <v>644</v>
       </c>
-      <c r="BD2" s="377"/>
-      <c r="BE2" s="377"/>
-      <c r="BF2" s="377"/>
-      <c r="BG2" s="280" t="s">
+      <c r="BD2" s="306"/>
+      <c r="BE2" s="306"/>
+      <c r="BF2" s="306"/>
+      <c r="BG2" s="407" t="s">
         <v>2979</v>
       </c>
-      <c r="BH2" s="396" t="s">
+      <c r="BH2" s="295" t="s">
         <v>2340</v>
       </c>
-      <c r="BI2" s="396" t="s">
+      <c r="BI2" s="295" t="s">
         <v>2339</v>
       </c>
-      <c r="BJ2" s="399" t="s">
+      <c r="BJ2" s="298" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="3" spans="1:68" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="333"/>
-      <c r="B3" s="334"/>
-      <c r="C3" s="336"/>
-      <c r="D3" s="336"/>
-      <c r="E3" s="336"/>
-      <c r="F3" s="336"/>
-      <c r="G3" s="327" t="s">
+      <c r="A3" s="370"/>
+      <c r="B3" s="371"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="334" t="s">
         <v>588</v>
       </c>
-      <c r="H3" s="343"/>
-      <c r="I3" s="344"/>
-      <c r="J3" s="327" t="s">
+      <c r="H3" s="335"/>
+      <c r="I3" s="336"/>
+      <c r="J3" s="334" t="s">
         <v>595</v>
       </c>
-      <c r="K3" s="328"/>
-      <c r="L3" s="329"/>
-      <c r="M3" s="327" t="s">
+      <c r="K3" s="337"/>
+      <c r="L3" s="338"/>
+      <c r="M3" s="334" t="s">
         <v>594</v>
       </c>
-      <c r="N3" s="328"/>
-      <c r="O3" s="329"/>
-      <c r="P3" s="327" t="s">
+      <c r="N3" s="337"/>
+      <c r="O3" s="338"/>
+      <c r="P3" s="334" t="s">
         <v>606</v>
       </c>
-      <c r="Q3" s="329"/>
-      <c r="R3" s="372" t="s">
+      <c r="Q3" s="338"/>
+      <c r="R3" s="339" t="s">
         <v>607</v>
       </c>
-      <c r="S3" s="373"/>
-      <c r="T3" s="374"/>
+      <c r="S3" s="340"/>
+      <c r="T3" s="341"/>
       <c r="U3" s="76" t="s">
         <v>593</v>
       </c>
-      <c r="V3" s="327" t="s">
+      <c r="V3" s="334" t="s">
         <v>608</v>
       </c>
-      <c r="W3" s="328"/>
-      <c r="X3" s="328"/>
-      <c r="Y3" s="329"/>
-      <c r="Z3" s="327" t="s">
+      <c r="W3" s="337"/>
+      <c r="X3" s="337"/>
+      <c r="Y3" s="338"/>
+      <c r="Z3" s="334" t="s">
         <v>596</v>
       </c>
-      <c r="AA3" s="344"/>
+      <c r="AA3" s="336"/>
       <c r="AB3" s="80" t="s">
         <v>597</v>
       </c>
-      <c r="AC3" s="327" t="s">
+      <c r="AC3" s="334" t="s">
         <v>598</v>
       </c>
-      <c r="AD3" s="329"/>
-      <c r="AE3" s="327" t="s">
+      <c r="AD3" s="338"/>
+      <c r="AE3" s="334" t="s">
         <v>599</v>
       </c>
-      <c r="AF3" s="328"/>
-      <c r="AG3" s="328"/>
-      <c r="AH3" s="329"/>
-      <c r="AI3" s="327" t="s">
+      <c r="AF3" s="337"/>
+      <c r="AG3" s="337"/>
+      <c r="AH3" s="338"/>
+      <c r="AI3" s="334" t="s">
         <v>609</v>
       </c>
-      <c r="AJ3" s="343"/>
-      <c r="AK3" s="343"/>
-      <c r="AL3" s="344"/>
-      <c r="AM3" s="327" t="s">
+      <c r="AJ3" s="335"/>
+      <c r="AK3" s="335"/>
+      <c r="AL3" s="336"/>
+      <c r="AM3" s="334" t="s">
         <v>602</v>
       </c>
-      <c r="AN3" s="328"/>
-      <c r="AO3" s="329"/>
-      <c r="AP3" s="327" t="s">
+      <c r="AN3" s="337"/>
+      <c r="AO3" s="338"/>
+      <c r="AP3" s="334" t="s">
         <v>604</v>
       </c>
-      <c r="AQ3" s="329"/>
-      <c r="AR3" s="327" t="s">
+      <c r="AQ3" s="338"/>
+      <c r="AR3" s="334" t="s">
         <v>605</v>
       </c>
-      <c r="AS3" s="328"/>
-      <c r="AT3" s="330"/>
+      <c r="AS3" s="337"/>
+      <c r="AT3" s="367"/>
       <c r="AU3" s="81"/>
-      <c r="AV3" s="381"/>
-      <c r="AW3" s="387" t="s">
+      <c r="AV3" s="319"/>
+      <c r="AW3" s="325" t="s">
         <v>860</v>
       </c>
-      <c r="AX3" s="387" t="s">
+      <c r="AX3" s="325" t="s">
         <v>861</v>
       </c>
-      <c r="AY3" s="387" t="s">
+      <c r="AY3" s="325" t="s">
         <v>862</v>
       </c>
-      <c r="AZ3" s="382" t="s">
+      <c r="AZ3" s="320" t="s">
         <v>645</v>
       </c>
-      <c r="BA3" s="382" t="s">
+      <c r="BA3" s="320" t="s">
         <v>646</v>
       </c>
-      <c r="BB3" s="390"/>
-      <c r="BC3" s="382" t="s">
+      <c r="BB3" s="328"/>
+      <c r="BC3" s="320" t="s">
         <v>645</v>
       </c>
-      <c r="BD3" s="377" t="s">
+      <c r="BD3" s="306" t="s">
         <v>646</v>
       </c>
-      <c r="BE3" s="377" t="s">
+      <c r="BE3" s="306" t="s">
         <v>647</v>
       </c>
-      <c r="BF3" s="377" t="s">
+      <c r="BF3" s="306" t="s">
         <v>648</v>
       </c>
-      <c r="BG3" s="281"/>
-      <c r="BH3" s="397"/>
-      <c r="BI3" s="397"/>
-      <c r="BJ3" s="399"/>
+      <c r="BG3" s="408"/>
+      <c r="BH3" s="296"/>
+      <c r="BI3" s="296"/>
+      <c r="BJ3" s="298"/>
       <c r="BK3" s="173"/>
-      <c r="BL3" s="393"/>
-      <c r="BM3" s="393"/>
-      <c r="BN3" s="393"/>
-      <c r="BO3" s="393"/>
-      <c r="BP3" s="393"/>
+      <c r="BL3" s="292"/>
+      <c r="BM3" s="292"/>
+      <c r="BN3" s="292"/>
+      <c r="BO3" s="292"/>
+      <c r="BP3" s="292"/>
     </row>
     <row r="4" spans="1:68" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="375" t="s">
+      <c r="A4" s="342" t="s">
         <v>610</v>
       </c>
-      <c r="B4" s="375"/>
-      <c r="C4" s="375"/>
-      <c r="D4" s="375"/>
-      <c r="E4" s="375"/>
-      <c r="F4" s="376"/>
+      <c r="B4" s="342"/>
+      <c r="C4" s="342"/>
+      <c r="D4" s="342"/>
+      <c r="E4" s="342"/>
+      <c r="F4" s="343"/>
       <c r="G4" s="83" t="s">
         <v>589</v>
       </c>
@@ -25007,27 +25098,27 @@
         <v>592</v>
       </c>
       <c r="AU4" s="88"/>
-      <c r="AV4" s="381"/>
-      <c r="AW4" s="388"/>
-      <c r="AX4" s="388"/>
-      <c r="AY4" s="388"/>
-      <c r="AZ4" s="383"/>
-      <c r="BA4" s="383"/>
-      <c r="BB4" s="391"/>
-      <c r="BC4" s="383"/>
-      <c r="BD4" s="377"/>
-      <c r="BE4" s="377"/>
-      <c r="BF4" s="377"/>
-      <c r="BG4" s="282"/>
-      <c r="BH4" s="398"/>
-      <c r="BI4" s="398"/>
-      <c r="BJ4" s="399"/>
-    </row>
-    <row r="5" spans="1:68" s="92" customFormat="1" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="362" t="s">
+      <c r="AV4" s="319"/>
+      <c r="AW4" s="326"/>
+      <c r="AX4" s="326"/>
+      <c r="AY4" s="326"/>
+      <c r="AZ4" s="321"/>
+      <c r="BA4" s="321"/>
+      <c r="BB4" s="329"/>
+      <c r="BC4" s="321"/>
+      <c r="BD4" s="306"/>
+      <c r="BE4" s="306"/>
+      <c r="BF4" s="306"/>
+      <c r="BG4" s="409"/>
+      <c r="BH4" s="297"/>
+      <c r="BI4" s="297"/>
+      <c r="BJ4" s="298"/>
+    </row>
+    <row r="5" spans="1:68" s="92" customFormat="1" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="332" t="s">
         <v>880</v>
       </c>
-      <c r="B5" s="363"/>
+      <c r="B5" s="333"/>
       <c r="C5" s="48" t="s">
         <v>10</v>
       </c>
@@ -25197,17 +25288,17 @@
       <c r="BG5" s="225" t="s">
         <v>2981</v>
       </c>
-      <c r="BH5" s="402" t="s">
+      <c r="BH5" s="300" t="s">
         <v>2653</v>
       </c>
-      <c r="BI5" s="403"/>
-      <c r="BJ5" s="404"/>
-    </row>
-    <row r="6" spans="1:68" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="360" t="s">
+      <c r="BI5" s="301"/>
+      <c r="BJ5" s="302"/>
+    </row>
+    <row r="6" spans="1:68" ht="204" x14ac:dyDescent="0.2">
+      <c r="A6" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="361"/>
+      <c r="B6" s="331"/>
       <c r="C6" s="47" t="s">
         <v>15</v>
       </c>
@@ -25359,17 +25450,17 @@
       <c r="BG6" s="241" t="s">
         <v>2982</v>
       </c>
-      <c r="BH6" s="272" t="s">
+      <c r="BH6" s="282" t="s">
         <v>2655</v>
       </c>
-      <c r="BI6" s="278"/>
-      <c r="BJ6" s="279"/>
-    </row>
-    <row r="7" spans="1:68" ht="357" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="360" t="s">
+      <c r="BI6" s="289"/>
+      <c r="BJ6" s="290"/>
+    </row>
+    <row r="7" spans="1:68" ht="357" x14ac:dyDescent="0.2">
+      <c r="A7" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="361"/>
+      <c r="B7" s="331"/>
       <c r="C7" s="47" t="s">
         <v>17</v>
       </c>
@@ -25539,17 +25630,17 @@
       <c r="BG7" s="211" t="s">
         <v>2983</v>
       </c>
-      <c r="BH7" s="272" t="s">
+      <c r="BH7" s="282" t="s">
         <v>2654</v>
       </c>
-      <c r="BI7" s="278"/>
-      <c r="BJ7" s="279"/>
-    </row>
-    <row r="8" spans="1:68" ht="81" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="360" t="s">
+      <c r="BI7" s="289"/>
+      <c r="BJ7" s="290"/>
+    </row>
+    <row r="8" spans="1:68" ht="81" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="361"/>
+      <c r="B8" s="331"/>
       <c r="C8" s="46" t="s">
         <v>19</v>
       </c>
@@ -25684,11 +25775,11 @@
       </c>
       <c r="AU8" s="97"/>
       <c r="AV8" s="156"/>
-      <c r="AW8" s="264" t="s">
+      <c r="AW8" s="303" t="s">
         <v>2965</v>
       </c>
-      <c r="AX8" s="265"/>
-      <c r="AY8" s="266"/>
+      <c r="AX8" s="304"/>
+      <c r="AY8" s="305"/>
       <c r="AZ8" s="19" t="s">
         <v>649</v>
       </c>
@@ -25723,11 +25814,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="9" spans="1:68" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="360" t="s">
+    <row r="9" spans="1:68" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="361"/>
+      <c r="B9" s="331"/>
       <c r="C9" s="46" t="s">
         <v>21</v>
       </c>
@@ -25864,11 +25955,11 @@
       <c r="AV9" s="157" t="s">
         <v>750</v>
       </c>
-      <c r="AW9" s="306" t="s">
+      <c r="AW9" s="310" t="s">
         <v>873</v>
       </c>
-      <c r="AX9" s="307"/>
-      <c r="AY9" s="308"/>
+      <c r="AX9" s="311"/>
+      <c r="AY9" s="312"/>
       <c r="AZ9" s="19" t="s">
         <v>2373</v>
       </c>
@@ -25893,17 +25984,17 @@
       <c r="BG9" s="211" t="s">
         <v>2985</v>
       </c>
-      <c r="BH9" s="272" t="s">
+      <c r="BH9" s="282" t="s">
         <v>2656</v>
       </c>
-      <c r="BI9" s="278"/>
-      <c r="BJ9" s="279"/>
-    </row>
-    <row r="10" spans="1:68" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="360" t="s">
+      <c r="BI9" s="289"/>
+      <c r="BJ9" s="290"/>
+    </row>
+    <row r="10" spans="1:68" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="361"/>
+      <c r="B10" s="331"/>
       <c r="C10" s="46" t="s">
         <v>24</v>
       </c>
@@ -26040,11 +26131,11 @@
       <c r="AV10" s="157" t="s">
         <v>749</v>
       </c>
-      <c r="AW10" s="306" t="s">
+      <c r="AW10" s="310" t="s">
         <v>864</v>
       </c>
-      <c r="AX10" s="307"/>
-      <c r="AY10" s="308"/>
+      <c r="AX10" s="311"/>
+      <c r="AY10" s="312"/>
       <c r="AZ10" s="19" t="s">
         <v>2374</v>
       </c>
@@ -26069,17 +26160,17 @@
       <c r="BG10" s="211" t="s">
         <v>2984</v>
       </c>
-      <c r="BH10" s="272" t="s">
+      <c r="BH10" s="282" t="s">
         <v>2657</v>
       </c>
-      <c r="BI10" s="273"/>
-      <c r="BJ10" s="274"/>
-    </row>
-    <row r="11" spans="1:68" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="360" t="s">
+      <c r="BI10" s="283"/>
+      <c r="BJ10" s="284"/>
+    </row>
+    <row r="11" spans="1:68" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="361"/>
+      <c r="B11" s="331"/>
       <c r="C11" s="46" t="s">
         <v>26</v>
       </c>
@@ -26216,11 +26307,11 @@
       <c r="AV11" s="157" t="s">
         <v>748</v>
       </c>
-      <c r="AW11" s="306" t="s">
+      <c r="AW11" s="310" t="s">
         <v>865</v>
       </c>
-      <c r="AX11" s="307"/>
-      <c r="AY11" s="308"/>
+      <c r="AX11" s="311"/>
+      <c r="AY11" s="312"/>
       <c r="AZ11" s="19" t="s">
         <v>2375</v>
       </c>
@@ -26245,17 +26336,17 @@
       <c r="BG11" s="211" t="s">
         <v>2986</v>
       </c>
-      <c r="BH11" s="272" t="s">
+      <c r="BH11" s="282" t="s">
         <v>2658</v>
       </c>
-      <c r="BI11" s="273"/>
-      <c r="BJ11" s="274"/>
-    </row>
-    <row r="12" spans="1:68" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="360" t="s">
+      <c r="BI11" s="283"/>
+      <c r="BJ11" s="284"/>
+    </row>
+    <row r="12" spans="1:68" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="361"/>
+      <c r="B12" s="331"/>
       <c r="C12" s="46" t="s">
         <v>28</v>
       </c>
@@ -26392,11 +26483,11 @@
       <c r="AV12" s="157" t="s">
         <v>747</v>
       </c>
-      <c r="AW12" s="306" t="s">
+      <c r="AW12" s="310" t="s">
         <v>874</v>
       </c>
-      <c r="AX12" s="307"/>
-      <c r="AY12" s="308"/>
+      <c r="AX12" s="311"/>
+      <c r="AY12" s="312"/>
       <c r="AZ12" s="19" t="s">
         <v>2376</v>
       </c>
@@ -26421,17 +26512,17 @@
       <c r="BG12" s="211" t="s">
         <v>2987</v>
       </c>
-      <c r="BH12" s="272" t="s">
+      <c r="BH12" s="282" t="s">
         <v>2659</v>
       </c>
-      <c r="BI12" s="273"/>
-      <c r="BJ12" s="274"/>
-    </row>
-    <row r="13" spans="1:68" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="360" t="s">
+      <c r="BI12" s="283"/>
+      <c r="BJ12" s="284"/>
+    </row>
+    <row r="13" spans="1:68" ht="102" x14ac:dyDescent="0.2">
+      <c r="A13" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="361"/>
+      <c r="B13" s="331"/>
       <c r="C13" s="46" t="s">
         <v>31</v>
       </c>
@@ -26568,11 +26659,11 @@
       <c r="AV13" s="158" t="s">
         <v>906</v>
       </c>
-      <c r="AW13" s="306" t="s">
+      <c r="AW13" s="310" t="s">
         <v>866</v>
       </c>
-      <c r="AX13" s="307"/>
-      <c r="AY13" s="308"/>
+      <c r="AX13" s="311"/>
+      <c r="AY13" s="312"/>
       <c r="AZ13" s="19" t="s">
         <v>2377</v>
       </c>
@@ -26597,17 +26688,17 @@
       <c r="BG13" s="211" t="s">
         <v>2988</v>
       </c>
-      <c r="BH13" s="272" t="s">
+      <c r="BH13" s="282" t="s">
         <v>2660</v>
       </c>
-      <c r="BI13" s="273"/>
-      <c r="BJ13" s="274"/>
-    </row>
-    <row r="14" spans="1:68" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="360" t="s">
+      <c r="BI13" s="283"/>
+      <c r="BJ13" s="284"/>
+    </row>
+    <row r="14" spans="1:68" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="361"/>
+      <c r="B14" s="331"/>
       <c r="C14" s="46" t="s">
         <v>33</v>
       </c>
@@ -26744,11 +26835,11 @@
       <c r="AV14" s="158" t="s">
         <v>651</v>
       </c>
-      <c r="AW14" s="306" t="s">
+      <c r="AW14" s="310" t="s">
         <v>867</v>
       </c>
-      <c r="AX14" s="307"/>
-      <c r="AY14" s="308"/>
+      <c r="AX14" s="311"/>
+      <c r="AY14" s="312"/>
       <c r="AZ14" s="19" t="s">
         <v>2378</v>
       </c>
@@ -26773,17 +26864,17 @@
       <c r="BG14" s="211" t="s">
         <v>2989</v>
       </c>
-      <c r="BH14" s="272" t="s">
+      <c r="BH14" s="282" t="s">
         <v>2661</v>
       </c>
-      <c r="BI14" s="273"/>
-      <c r="BJ14" s="274"/>
-    </row>
-    <row r="15" spans="1:68" s="92" customFormat="1" ht="114.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="362" t="s">
+      <c r="BI14" s="283"/>
+      <c r="BJ14" s="284"/>
+    </row>
+    <row r="15" spans="1:68" s="92" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="363"/>
+      <c r="B15" s="333"/>
       <c r="C15" s="48" t="s">
         <v>2775</v>
       </c>
@@ -26914,11 +27005,11 @@
       <c r="AV15" s="218" t="s">
         <v>652</v>
       </c>
-      <c r="AW15" s="294" t="s">
+      <c r="AW15" s="313" t="s">
         <v>868</v>
       </c>
-      <c r="AX15" s="295"/>
-      <c r="AY15" s="296"/>
+      <c r="AX15" s="314"/>
+      <c r="AY15" s="315"/>
       <c r="AZ15" s="217" t="s">
         <v>2379</v>
       </c>
@@ -26945,11 +27036,11 @@
       <c r="BI15" s="220"/>
       <c r="BJ15" s="220"/>
     </row>
-    <row r="16" spans="1:68" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="360" t="s">
+    <row r="16" spans="1:68" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="361"/>
+      <c r="B16" s="331"/>
       <c r="C16" s="47" t="s">
         <v>35</v>
       </c>
@@ -27080,11 +27171,11 @@
       <c r="AV16" s="159" t="s">
         <v>929</v>
       </c>
-      <c r="AW16" s="306" t="s">
+      <c r="AW16" s="310" t="s">
         <v>869</v>
       </c>
-      <c r="AX16" s="307"/>
-      <c r="AY16" s="308"/>
+      <c r="AX16" s="311"/>
+      <c r="AY16" s="312"/>
       <c r="AZ16" s="35" t="s">
         <v>2380</v>
       </c>
@@ -27109,17 +27200,17 @@
       <c r="BG16" s="242" t="s">
         <v>2990</v>
       </c>
-      <c r="BH16" s="272" t="s">
+      <c r="BH16" s="282" t="s">
         <v>2662</v>
       </c>
-      <c r="BI16" s="273"/>
-      <c r="BJ16" s="274"/>
-    </row>
-    <row r="17" spans="1:62" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="360" t="s">
+      <c r="BI16" s="283"/>
+      <c r="BJ16" s="284"/>
+    </row>
+    <row r="17" spans="1:62" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="361"/>
+      <c r="B17" s="331"/>
       <c r="C17" s="47" t="s">
         <v>2776</v>
       </c>
@@ -27250,11 +27341,11 @@
       <c r="AV17" s="154" t="s">
         <v>913</v>
       </c>
-      <c r="AW17" s="306" t="s">
+      <c r="AW17" s="310" t="s">
         <v>870</v>
       </c>
-      <c r="AX17" s="307"/>
-      <c r="AY17" s="308"/>
+      <c r="AX17" s="311"/>
+      <c r="AY17" s="312"/>
       <c r="AZ17" s="19" t="s">
         <v>2381</v>
       </c>
@@ -27279,17 +27370,17 @@
       <c r="BG17" s="211" t="s">
         <v>2991</v>
       </c>
-      <c r="BH17" s="272" t="s">
+      <c r="BH17" s="282" t="s">
         <v>2663</v>
       </c>
-      <c r="BI17" s="273"/>
-      <c r="BJ17" s="274"/>
-    </row>
-    <row r="18" spans="1:62" s="92" customFormat="1" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="362" t="s">
+      <c r="BI17" s="283"/>
+      <c r="BJ17" s="284"/>
+    </row>
+    <row r="18" spans="1:62" s="92" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="363"/>
+      <c r="B18" s="333"/>
       <c r="C18" s="48" t="s">
         <v>2777</v>
       </c>
@@ -27424,9 +27515,9 @@
       </c>
       <c r="AU18" s="91"/>
       <c r="AV18" s="219"/>
-      <c r="AW18" s="294"/>
-      <c r="AX18" s="295"/>
-      <c r="AY18" s="296"/>
+      <c r="AW18" s="313"/>
+      <c r="AX18" s="314"/>
+      <c r="AY18" s="315"/>
       <c r="AZ18" s="217"/>
       <c r="BA18" s="217"/>
       <c r="BB18" s="231"/>
@@ -27435,15 +27526,15 @@
       <c r="BE18" s="217"/>
       <c r="BF18" s="217"/>
       <c r="BG18" s="219"/>
-      <c r="BH18" s="402"/>
-      <c r="BI18" s="403"/>
-      <c r="BJ18" s="404"/>
-    </row>
-    <row r="19" spans="1:62" ht="144.4" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="360" t="s">
+      <c r="BH18" s="300"/>
+      <c r="BI18" s="301"/>
+      <c r="BJ18" s="302"/>
+    </row>
+    <row r="19" spans="1:62" ht="144.4" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="361"/>
+      <c r="B19" s="331"/>
       <c r="C19" s="47" t="s">
         <v>2778</v>
       </c>
@@ -27578,34 +27669,34 @@
       </c>
       <c r="AU19" s="97"/>
       <c r="AV19" s="160"/>
-      <c r="AW19" s="297" t="s">
+      <c r="AW19" s="398" t="s">
         <v>2731</v>
       </c>
-      <c r="AX19" s="298"/>
-      <c r="AY19" s="299"/>
-      <c r="AZ19" s="300" t="s">
+      <c r="AX19" s="399"/>
+      <c r="AY19" s="400"/>
+      <c r="AZ19" s="401" t="s">
         <v>2731</v>
       </c>
-      <c r="BA19" s="301"/>
-      <c r="BB19" s="301"/>
-      <c r="BC19" s="301"/>
-      <c r="BD19" s="301"/>
-      <c r="BE19" s="301"/>
-      <c r="BF19" s="302"/>
+      <c r="BA19" s="402"/>
+      <c r="BB19" s="402"/>
+      <c r="BC19" s="402"/>
+      <c r="BD19" s="402"/>
+      <c r="BE19" s="402"/>
+      <c r="BF19" s="403"/>
       <c r="BG19" s="209" t="s">
         <v>2731</v>
       </c>
-      <c r="BH19" s="303" t="s">
+      <c r="BH19" s="404" t="s">
         <v>2731</v>
       </c>
-      <c r="BI19" s="304"/>
-      <c r="BJ19" s="305"/>
-    </row>
-    <row r="20" spans="1:62" ht="98.65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="360" t="s">
+      <c r="BI19" s="405"/>
+      <c r="BJ19" s="406"/>
+    </row>
+    <row r="20" spans="1:62" ht="98.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="361"/>
+      <c r="B20" s="331"/>
       <c r="C20" s="46" t="s">
         <v>37</v>
       </c>
@@ -27740,38 +27831,38 @@
       </c>
       <c r="AU20" s="97"/>
       <c r="AV20" s="161"/>
-      <c r="AW20" s="264" t="s">
+      <c r="AW20" s="303" t="s">
         <v>2732</v>
       </c>
-      <c r="AX20" s="265"/>
-      <c r="AY20" s="266"/>
-      <c r="AZ20" s="267" t="s">
+      <c r="AX20" s="304"/>
+      <c r="AY20" s="305"/>
+      <c r="AZ20" s="316" t="s">
         <v>2733</v>
       </c>
-      <c r="BA20" s="268"/>
+      <c r="BA20" s="317"/>
       <c r="BB20" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC20" s="267" t="s">
+      <c r="BC20" s="316" t="s">
         <v>2734</v>
       </c>
-      <c r="BD20" s="283"/>
-      <c r="BE20" s="283"/>
-      <c r="BF20" s="268"/>
+      <c r="BD20" s="318"/>
+      <c r="BE20" s="318"/>
+      <c r="BF20" s="317"/>
       <c r="BG20" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH20" s="288" t="s">
+      <c r="BH20" s="275" t="s">
         <v>2734</v>
       </c>
-      <c r="BI20" s="289"/>
-      <c r="BJ20" s="290"/>
-    </row>
-    <row r="21" spans="1:62" ht="90.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="360" t="s">
+      <c r="BI20" s="285"/>
+      <c r="BJ20" s="286"/>
+    </row>
+    <row r="21" spans="1:62" ht="90.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="361"/>
+      <c r="B21" s="331"/>
       <c r="C21" s="46" t="s">
         <v>39</v>
       </c>
@@ -27906,38 +27997,38 @@
       </c>
       <c r="AU21" s="97"/>
       <c r="AV21" s="161"/>
-      <c r="AW21" s="264" t="s">
+      <c r="AW21" s="303" t="s">
         <v>2736</v>
       </c>
-      <c r="AX21" s="265"/>
-      <c r="AY21" s="266"/>
-      <c r="AZ21" s="267" t="s">
+      <c r="AX21" s="304"/>
+      <c r="AY21" s="305"/>
+      <c r="AZ21" s="316" t="s">
         <v>2736</v>
       </c>
-      <c r="BA21" s="268"/>
+      <c r="BA21" s="317"/>
       <c r="BB21" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC21" s="267" t="s">
+      <c r="BC21" s="316" t="s">
         <v>2735</v>
       </c>
-      <c r="BD21" s="283"/>
-      <c r="BE21" s="283"/>
-      <c r="BF21" s="268"/>
+      <c r="BD21" s="318"/>
+      <c r="BE21" s="318"/>
+      <c r="BF21" s="317"/>
       <c r="BG21" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH21" s="288" t="s">
+      <c r="BH21" s="275" t="s">
         <v>2737</v>
       </c>
-      <c r="BI21" s="289"/>
-      <c r="BJ21" s="290"/>
-    </row>
-    <row r="22" spans="1:62" ht="114" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="360" t="s">
+      <c r="BI21" s="285"/>
+      <c r="BJ21" s="286"/>
+    </row>
+    <row r="22" spans="1:62" ht="114" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="361"/>
+      <c r="B22" s="331"/>
       <c r="C22" s="46" t="s">
         <v>40</v>
       </c>
@@ -28072,38 +28163,38 @@
       </c>
       <c r="AU22" s="97"/>
       <c r="AV22" s="161"/>
-      <c r="AW22" s="264" t="s">
+      <c r="AW22" s="303" t="s">
         <v>2738</v>
       </c>
-      <c r="AX22" s="265"/>
-      <c r="AY22" s="266"/>
-      <c r="AZ22" s="267" t="s">
+      <c r="AX22" s="304"/>
+      <c r="AY22" s="305"/>
+      <c r="AZ22" s="316" t="s">
         <v>2738</v>
       </c>
-      <c r="BA22" s="268"/>
+      <c r="BA22" s="317"/>
       <c r="BB22" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC22" s="267" t="s">
+      <c r="BC22" s="316" t="s">
         <v>2739</v>
       </c>
-      <c r="BD22" s="283"/>
-      <c r="BE22" s="283"/>
-      <c r="BF22" s="268"/>
+      <c r="BD22" s="318"/>
+      <c r="BE22" s="318"/>
+      <c r="BF22" s="317"/>
       <c r="BG22" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH22" s="288" t="s">
+      <c r="BH22" s="275" t="s">
         <v>2738</v>
       </c>
-      <c r="BI22" s="289"/>
-      <c r="BJ22" s="290"/>
-    </row>
-    <row r="23" spans="1:62" ht="118.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="360" t="s">
+      <c r="BI22" s="285"/>
+      <c r="BJ22" s="286"/>
+    </row>
+    <row r="23" spans="1:62" ht="118.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="361"/>
+      <c r="B23" s="331"/>
       <c r="C23" s="46" t="s">
         <v>41</v>
       </c>
@@ -28238,38 +28329,38 @@
       </c>
       <c r="AU23" s="97"/>
       <c r="AV23" s="161"/>
-      <c r="AW23" s="264" t="s">
+      <c r="AW23" s="303" t="s">
         <v>2740</v>
       </c>
-      <c r="AX23" s="265"/>
-      <c r="AY23" s="266"/>
-      <c r="AZ23" s="267" t="s">
+      <c r="AX23" s="304"/>
+      <c r="AY23" s="305"/>
+      <c r="AZ23" s="316" t="s">
         <v>2740</v>
       </c>
-      <c r="BA23" s="268"/>
+      <c r="BA23" s="317"/>
       <c r="BB23" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC23" s="267" t="s">
+      <c r="BC23" s="316" t="s">
         <v>2741</v>
       </c>
-      <c r="BD23" s="283"/>
-      <c r="BE23" s="283"/>
-      <c r="BF23" s="268"/>
+      <c r="BD23" s="318"/>
+      <c r="BE23" s="318"/>
+      <c r="BF23" s="317"/>
       <c r="BG23" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH23" s="288" t="s">
+      <c r="BH23" s="275" t="s">
         <v>2740</v>
       </c>
-      <c r="BI23" s="289"/>
-      <c r="BJ23" s="290"/>
-    </row>
-    <row r="24" spans="1:62" ht="126.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="360" t="s">
+      <c r="BI23" s="285"/>
+      <c r="BJ23" s="286"/>
+    </row>
+    <row r="24" spans="1:62" ht="126.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="361"/>
+      <c r="B24" s="331"/>
       <c r="C24" s="46" t="s">
         <v>42</v>
       </c>
@@ -28404,11 +28495,11 @@
       </c>
       <c r="AU24" s="97"/>
       <c r="AV24" s="161"/>
-      <c r="AW24" s="264" t="s">
+      <c r="AW24" s="303" t="s">
         <v>2750</v>
       </c>
-      <c r="AX24" s="265"/>
-      <c r="AY24" s="266"/>
+      <c r="AX24" s="304"/>
+      <c r="AY24" s="305"/>
       <c r="AZ24" s="21" t="s">
         <v>649</v>
       </c>
@@ -28443,11 +28534,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="25" spans="1:62" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="360" t="s">
+    <row r="25" spans="1:62" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="361"/>
+      <c r="B25" s="331"/>
       <c r="C25" s="46" t="s">
         <v>43</v>
       </c>
@@ -28582,11 +28673,11 @@
       </c>
       <c r="AU25" s="97"/>
       <c r="AV25" s="161"/>
-      <c r="AW25" s="264" t="s">
+      <c r="AW25" s="303" t="s">
         <v>2751</v>
       </c>
-      <c r="AX25" s="265"/>
-      <c r="AY25" s="266"/>
+      <c r="AX25" s="304"/>
+      <c r="AY25" s="305"/>
       <c r="AZ25" s="21" t="s">
         <v>649</v>
       </c>
@@ -28621,11 +28712,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="26" spans="1:62" ht="103.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="360" t="s">
+    <row r="26" spans="1:62" ht="103.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="361"/>
+      <c r="B26" s="331"/>
       <c r="C26" s="46" t="s">
         <v>44</v>
       </c>
@@ -28760,11 +28851,11 @@
       </c>
       <c r="AU26" s="97"/>
       <c r="AV26" s="161"/>
-      <c r="AW26" s="264" t="s">
+      <c r="AW26" s="303" t="s">
         <v>2752</v>
       </c>
-      <c r="AX26" s="265"/>
-      <c r="AY26" s="266"/>
+      <c r="AX26" s="304"/>
+      <c r="AY26" s="305"/>
       <c r="AZ26" s="21" t="s">
         <v>649</v>
       </c>
@@ -28799,11 +28890,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="98.45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="360" t="s">
+    <row r="27" spans="1:62" ht="98.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="361"/>
+      <c r="B27" s="331"/>
       <c r="C27" s="46" t="s">
         <v>45</v>
       </c>
@@ -28938,11 +29029,11 @@
       </c>
       <c r="AU27" s="97"/>
       <c r="AV27" s="161"/>
-      <c r="AW27" s="264" t="s">
+      <c r="AW27" s="303" t="s">
         <v>2753</v>
       </c>
-      <c r="AX27" s="265"/>
-      <c r="AY27" s="266"/>
+      <c r="AX27" s="304"/>
+      <c r="AY27" s="305"/>
       <c r="AZ27" s="21" t="s">
         <v>649</v>
       </c>
@@ -28977,11 +29068,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="360" t="s">
+    <row r="28" spans="1:62" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="361"/>
+      <c r="B28" s="331"/>
       <c r="C28" s="46" t="s">
         <v>46</v>
       </c>
@@ -29118,38 +29209,38 @@
       <c r="AV28" s="160" t="s">
         <v>907</v>
       </c>
-      <c r="AW28" s="264" t="s">
+      <c r="AW28" s="303" t="s">
         <v>2754</v>
       </c>
-      <c r="AX28" s="265"/>
-      <c r="AY28" s="266"/>
-      <c r="AZ28" s="267" t="s">
+      <c r="AX28" s="304"/>
+      <c r="AY28" s="305"/>
+      <c r="AZ28" s="316" t="s">
         <v>2754</v>
       </c>
-      <c r="BA28" s="268"/>
+      <c r="BA28" s="317"/>
       <c r="BB28" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC28" s="267" t="s">
+      <c r="BC28" s="316" t="s">
         <v>2756</v>
       </c>
-      <c r="BD28" s="283"/>
-      <c r="BE28" s="283"/>
-      <c r="BF28" s="268"/>
+      <c r="BD28" s="318"/>
+      <c r="BE28" s="318"/>
+      <c r="BF28" s="317"/>
       <c r="BG28" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH28" s="288" t="s">
+      <c r="BH28" s="275" t="s">
         <v>2755</v>
       </c>
-      <c r="BI28" s="289"/>
-      <c r="BJ28" s="290"/>
-    </row>
-    <row r="29" spans="1:62" ht="109.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="360" t="s">
+      <c r="BI28" s="285"/>
+      <c r="BJ28" s="286"/>
+    </row>
+    <row r="29" spans="1:62" ht="109.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B29" s="361"/>
+      <c r="B29" s="331"/>
       <c r="C29" s="46" t="s">
         <v>47</v>
       </c>
@@ -29286,38 +29377,38 @@
       <c r="AV29" s="161" t="s">
         <v>2761</v>
       </c>
-      <c r="AW29" s="264" t="s">
+      <c r="AW29" s="303" t="s">
         <v>2757</v>
       </c>
-      <c r="AX29" s="265"/>
-      <c r="AY29" s="266"/>
-      <c r="AZ29" s="267" t="s">
+      <c r="AX29" s="304"/>
+      <c r="AY29" s="305"/>
+      <c r="AZ29" s="316" t="s">
         <v>2758</v>
       </c>
-      <c r="BA29" s="268"/>
+      <c r="BA29" s="317"/>
       <c r="BB29" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC29" s="267" t="s">
+      <c r="BC29" s="316" t="s">
         <v>2760</v>
       </c>
-      <c r="BD29" s="283"/>
-      <c r="BE29" s="283"/>
-      <c r="BF29" s="268"/>
+      <c r="BD29" s="318"/>
+      <c r="BE29" s="318"/>
+      <c r="BF29" s="317"/>
       <c r="BG29" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH29" s="288" t="s">
+      <c r="BH29" s="275" t="s">
         <v>2759</v>
       </c>
-      <c r="BI29" s="289"/>
-      <c r="BJ29" s="290"/>
-    </row>
-    <row r="30" spans="1:62" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="360" t="s">
+      <c r="BI29" s="285"/>
+      <c r="BJ29" s="286"/>
+    </row>
+    <row r="30" spans="1:62" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="361"/>
+      <c r="B30" s="331"/>
       <c r="C30" s="46" t="s">
         <v>48</v>
       </c>
@@ -29454,38 +29545,38 @@
       <c r="AV30" s="161" t="s">
         <v>2766</v>
       </c>
-      <c r="AW30" s="264" t="s">
+      <c r="AW30" s="303" t="s">
         <v>2762</v>
       </c>
-      <c r="AX30" s="265"/>
-      <c r="AY30" s="266"/>
-      <c r="AZ30" s="267" t="s">
+      <c r="AX30" s="304"/>
+      <c r="AY30" s="305"/>
+      <c r="AZ30" s="316" t="s">
         <v>2763</v>
       </c>
-      <c r="BA30" s="268"/>
+      <c r="BA30" s="317"/>
       <c r="BB30" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC30" s="267" t="s">
+      <c r="BC30" s="316" t="s">
         <v>2764</v>
       </c>
-      <c r="BD30" s="283"/>
-      <c r="BE30" s="283"/>
-      <c r="BF30" s="268"/>
+      <c r="BD30" s="318"/>
+      <c r="BE30" s="318"/>
+      <c r="BF30" s="317"/>
       <c r="BG30" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH30" s="288" t="s">
+      <c r="BH30" s="275" t="s">
         <v>2765</v>
       </c>
-      <c r="BI30" s="289"/>
-      <c r="BJ30" s="290"/>
-    </row>
-    <row r="31" spans="1:62" ht="108.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="360" t="s">
+      <c r="BI30" s="285"/>
+      <c r="BJ30" s="286"/>
+    </row>
+    <row r="31" spans="1:62" ht="108.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="361"/>
+      <c r="B31" s="331"/>
       <c r="C31" s="46" t="s">
         <v>49</v>
       </c>
@@ -29622,38 +29713,38 @@
       <c r="AV31" s="161" t="s">
         <v>2768</v>
       </c>
-      <c r="AW31" s="264" t="s">
+      <c r="AW31" s="303" t="s">
         <v>2767</v>
       </c>
-      <c r="AX31" s="265"/>
-      <c r="AY31" s="266"/>
-      <c r="AZ31" s="267" t="s">
+      <c r="AX31" s="304"/>
+      <c r="AY31" s="305"/>
+      <c r="AZ31" s="316" t="s">
         <v>2772</v>
       </c>
-      <c r="BA31" s="268"/>
+      <c r="BA31" s="317"/>
       <c r="BB31" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC31" s="267" t="s">
+      <c r="BC31" s="316" t="s">
         <v>3131</v>
       </c>
-      <c r="BD31" s="283"/>
-      <c r="BE31" s="283"/>
-      <c r="BF31" s="268"/>
+      <c r="BD31" s="318"/>
+      <c r="BE31" s="318"/>
+      <c r="BF31" s="317"/>
       <c r="BG31" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH31" s="288" t="s">
+      <c r="BH31" s="275" t="s">
         <v>2769</v>
       </c>
-      <c r="BI31" s="289"/>
-      <c r="BJ31" s="290"/>
-    </row>
-    <row r="32" spans="1:62" ht="105.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="360" t="s">
+      <c r="BI31" s="285"/>
+      <c r="BJ31" s="286"/>
+    </row>
+    <row r="32" spans="1:62" ht="105.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="361"/>
+      <c r="B32" s="331"/>
       <c r="C32" s="46" t="s">
         <v>50</v>
       </c>
@@ -29790,38 +29881,38 @@
       <c r="AV32" s="161" t="s">
         <v>2770</v>
       </c>
-      <c r="AW32" s="264" t="s">
+      <c r="AW32" s="303" t="s">
         <v>2771</v>
       </c>
-      <c r="AX32" s="265"/>
-      <c r="AY32" s="266"/>
-      <c r="AZ32" s="267" t="s">
+      <c r="AX32" s="304"/>
+      <c r="AY32" s="305"/>
+      <c r="AZ32" s="316" t="s">
         <v>2773</v>
       </c>
-      <c r="BA32" s="268"/>
+      <c r="BA32" s="317"/>
       <c r="BB32" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC32" s="267" t="s">
+      <c r="BC32" s="316" t="s">
         <v>3132</v>
       </c>
-      <c r="BD32" s="283"/>
-      <c r="BE32" s="283"/>
-      <c r="BF32" s="268"/>
+      <c r="BD32" s="318"/>
+      <c r="BE32" s="318"/>
+      <c r="BF32" s="317"/>
       <c r="BG32" s="210" t="s">
         <v>649</v>
       </c>
-      <c r="BH32" s="288" t="s">
+      <c r="BH32" s="275" t="s">
         <v>2774</v>
       </c>
-      <c r="BI32" s="289"/>
-      <c r="BJ32" s="290"/>
-    </row>
-    <row r="33" spans="1:62" ht="330.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="360" t="s">
+      <c r="BI32" s="285"/>
+      <c r="BJ32" s="286"/>
+    </row>
+    <row r="33" spans="1:62" ht="330.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="361"/>
+      <c r="B33" s="331"/>
       <c r="C33" s="46" t="s">
         <v>52</v>
       </c>
@@ -29958,24 +30049,24 @@
       <c r="AV33" s="161" t="s">
         <v>3135</v>
       </c>
-      <c r="AW33" s="264" t="s">
+      <c r="AW33" s="303" t="s">
         <v>3133</v>
       </c>
-      <c r="AX33" s="265"/>
-      <c r="AY33" s="266"/>
-      <c r="AZ33" s="267" t="s">
+      <c r="AX33" s="304"/>
+      <c r="AY33" s="305"/>
+      <c r="AZ33" s="316" t="s">
         <v>3134</v>
       </c>
-      <c r="BA33" s="268"/>
+      <c r="BA33" s="317"/>
       <c r="BB33" s="21" t="s">
         <v>649</v>
       </c>
-      <c r="BC33" s="267" t="s">
+      <c r="BC33" s="316" t="s">
         <v>3130</v>
       </c>
-      <c r="BD33" s="283"/>
-      <c r="BE33" s="283"/>
-      <c r="BF33" s="268"/>
+      <c r="BD33" s="318"/>
+      <c r="BE33" s="318"/>
+      <c r="BF33" s="317"/>
       <c r="BG33" s="210" t="s">
         <v>649</v>
       </c>
@@ -29989,11 +30080,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="34" spans="1:62" s="108" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="364" t="s">
+    <row r="34" spans="1:62" s="108" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="365"/>
+      <c r="B34" s="345"/>
       <c r="C34" s="49" t="s">
         <v>53</v>
       </c>
@@ -30171,11 +30262,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="35" spans="1:62" ht="147.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="360" t="s">
+    <row r="35" spans="1:62" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="361"/>
+      <c r="B35" s="331"/>
       <c r="C35" s="46" t="s">
         <v>55</v>
       </c>
@@ -30353,11 +30444,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="36" spans="1:62" ht="72.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="360" t="s">
+    <row r="36" spans="1:62" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="361"/>
+      <c r="B36" s="331"/>
       <c r="C36" s="47" t="s">
         <v>56</v>
       </c>
@@ -30535,11 +30626,11 @@
         <v>649</v>
       </c>
     </row>
-    <row r="37" spans="1:62" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="362" t="s">
+    <row r="37" spans="1:62" x14ac:dyDescent="0.2">
+      <c r="A37" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B37" s="363"/>
+      <c r="B37" s="333"/>
       <c r="C37" s="48" t="s">
         <v>57</v>
       </c>
@@ -30679,15 +30770,15 @@
       <c r="BE37" s="217"/>
       <c r="BF37" s="217"/>
       <c r="BG37" s="219"/>
-      <c r="BH37" s="402"/>
-      <c r="BI37" s="403"/>
-      <c r="BJ37" s="404"/>
-    </row>
-    <row r="38" spans="1:62" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="360" t="s">
+      <c r="BH37" s="300"/>
+      <c r="BI37" s="301"/>
+      <c r="BJ37" s="302"/>
+    </row>
+    <row r="38" spans="1:62" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="361"/>
+      <c r="B38" s="331"/>
       <c r="C38" s="47" t="s">
         <v>60</v>
       </c>
@@ -30851,17 +30942,17 @@
       <c r="BG38" s="211" t="s">
         <v>2992</v>
       </c>
-      <c r="BH38" s="272" t="s">
+      <c r="BH38" s="282" t="s">
         <v>2664</v>
       </c>
-      <c r="BI38" s="273"/>
-      <c r="BJ38" s="274"/>
-    </row>
-    <row r="39" spans="1:62" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="360" t="s">
+      <c r="BI38" s="283"/>
+      <c r="BJ38" s="284"/>
+    </row>
+    <row r="39" spans="1:62" ht="102" x14ac:dyDescent="0.2">
+      <c r="A39" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="361"/>
+      <c r="B39" s="331"/>
       <c r="C39" s="47" t="s">
         <v>61</v>
       </c>
@@ -31025,17 +31116,17 @@
       <c r="BG39" s="211" t="s">
         <v>2993</v>
       </c>
-      <c r="BH39" s="272" t="s">
+      <c r="BH39" s="282" t="s">
         <v>2665</v>
       </c>
-      <c r="BI39" s="273"/>
-      <c r="BJ39" s="274"/>
-    </row>
-    <row r="40" spans="1:62" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="360" t="s">
+      <c r="BI39" s="283"/>
+      <c r="BJ39" s="284"/>
+    </row>
+    <row r="40" spans="1:62" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="361"/>
+      <c r="B40" s="331"/>
       <c r="C40" s="47" t="s">
         <v>62</v>
       </c>
@@ -31147,17 +31238,17 @@
       <c r="BG40" s="241" t="s">
         <v>2994</v>
       </c>
-      <c r="BH40" s="272" t="s">
+      <c r="BH40" s="282" t="s">
         <v>2666</v>
       </c>
-      <c r="BI40" s="274"/>
+      <c r="BI40" s="284"/>
       <c r="BJ40" s="183"/>
     </row>
-    <row r="41" spans="1:62" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="360" t="s">
+    <row r="41" spans="1:62" ht="102" x14ac:dyDescent="0.2">
+      <c r="A41" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="361"/>
+      <c r="B41" s="331"/>
       <c r="C41" s="47" t="s">
         <v>63</v>
       </c>
@@ -31319,17 +31410,17 @@
       <c r="BG41" s="241" t="s">
         <v>2995</v>
       </c>
-      <c r="BH41" s="272" t="s">
+      <c r="BH41" s="282" t="s">
         <v>2669</v>
       </c>
-      <c r="BI41" s="273"/>
-      <c r="BJ41" s="274"/>
-    </row>
-    <row r="42" spans="1:62" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="360" t="s">
+      <c r="BI41" s="283"/>
+      <c r="BJ41" s="284"/>
+    </row>
+    <row r="42" spans="1:62" ht="102" x14ac:dyDescent="0.2">
+      <c r="A42" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B42" s="361"/>
+      <c r="B42" s="331"/>
       <c r="C42" s="47" t="s">
         <v>65</v>
       </c>
@@ -31467,17 +31558,17 @@
       <c r="BG42" s="241" t="s">
         <v>2996</v>
       </c>
-      <c r="BH42" s="272" t="s">
+      <c r="BH42" s="282" t="s">
         <v>2670</v>
       </c>
-      <c r="BI42" s="273"/>
-      <c r="BJ42" s="274"/>
-    </row>
-    <row r="43" spans="1:62" s="92" customFormat="1" ht="75.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="362" t="s">
+      <c r="BI42" s="283"/>
+      <c r="BJ42" s="284"/>
+    </row>
+    <row r="43" spans="1:62" s="92" customFormat="1" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="363"/>
+      <c r="B43" s="333"/>
       <c r="C43" s="48" t="s">
         <v>67</v>
       </c>
@@ -31573,11 +31664,11 @@
       <c r="BI43" s="220"/>
       <c r="BJ43" s="220"/>
     </row>
-    <row r="44" spans="1:62" ht="143.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="360" t="s">
+    <row r="44" spans="1:62" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="361"/>
+      <c r="B44" s="331"/>
       <c r="C44" s="47" t="s">
         <v>69</v>
       </c>
@@ -31691,17 +31782,17 @@
       <c r="BG44" s="241" t="s">
         <v>2999</v>
       </c>
-      <c r="BH44" s="395" t="s">
+      <c r="BH44" s="294" t="s">
         <v>2692</v>
       </c>
-      <c r="BI44" s="395"/>
-      <c r="BJ44" s="395"/>
-    </row>
-    <row r="45" spans="1:62" ht="114.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="360" t="s">
+      <c r="BI44" s="294"/>
+      <c r="BJ44" s="294"/>
+    </row>
+    <row r="45" spans="1:62" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B45" s="361"/>
+      <c r="B45" s="331"/>
       <c r="C45" s="46" t="s">
         <v>71</v>
       </c>
@@ -31780,7 +31871,9 @@
       <c r="AR45" s="51"/>
       <c r="AS45" s="51"/>
       <c r="AT45" s="103"/>
-      <c r="AU45" s="61"/>
+      <c r="AU45" s="269" t="s">
+        <v>3163</v>
+      </c>
       <c r="AV45" s="161"/>
       <c r="AW45" s="39" t="s">
         <v>855</v>
@@ -31815,17 +31908,17 @@
       <c r="BG45" s="241" t="s">
         <v>3000</v>
       </c>
-      <c r="BH45" s="395" t="s">
+      <c r="BH45" s="294" t="s">
         <v>2693</v>
       </c>
-      <c r="BI45" s="395"/>
-      <c r="BJ45" s="395"/>
-    </row>
-    <row r="46" spans="1:62" ht="132" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="360" t="s">
+      <c r="BI45" s="294"/>
+      <c r="BJ45" s="294"/>
+    </row>
+    <row r="46" spans="1:62" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B46" s="361"/>
+      <c r="B46" s="331"/>
       <c r="C46" s="46" t="s">
         <v>72</v>
       </c>
@@ -31904,7 +31997,9 @@
       <c r="AR46" s="51"/>
       <c r="AS46" s="51"/>
       <c r="AT46" s="103"/>
-      <c r="AU46" s="61"/>
+      <c r="AU46" s="269" t="s">
+        <v>3164</v>
+      </c>
       <c r="AV46" s="161"/>
       <c r="AW46" s="39" t="s">
         <v>855</v>
@@ -31939,17 +32034,17 @@
       <c r="BG46" s="241" t="s">
         <v>3001</v>
       </c>
-      <c r="BH46" s="395" t="s">
+      <c r="BH46" s="294" t="s">
         <v>2971</v>
       </c>
-      <c r="BI46" s="395"/>
-      <c r="BJ46" s="395"/>
-    </row>
-    <row r="47" spans="1:62" s="92" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="362" t="s">
+      <c r="BI46" s="294"/>
+      <c r="BJ46" s="294"/>
+    </row>
+    <row r="47" spans="1:62" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A47" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="363"/>
+      <c r="B47" s="333"/>
       <c r="C47" s="48" t="s">
         <v>74</v>
       </c>
@@ -32099,11 +32194,11 @@
       <c r="BI47" s="220"/>
       <c r="BJ47" s="220"/>
     </row>
-    <row r="48" spans="1:62" s="115" customFormat="1" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="360" t="s">
+    <row r="48" spans="1:62" s="115" customFormat="1" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="361"/>
+      <c r="B48" s="331"/>
       <c r="C48" s="47" t="s">
         <v>76</v>
       </c>
@@ -32273,17 +32368,17 @@
       <c r="BG48" s="211" t="s">
         <v>3002</v>
       </c>
-      <c r="BH48" s="272" t="s">
+      <c r="BH48" s="282" t="s">
         <v>2671</v>
       </c>
-      <c r="BI48" s="273"/>
-      <c r="BJ48" s="274"/>
-    </row>
-    <row r="49" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="360" t="s">
+      <c r="BI48" s="283"/>
+      <c r="BJ48" s="284"/>
+    </row>
+    <row r="49" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A49" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B49" s="361"/>
+      <c r="B49" s="331"/>
       <c r="C49" s="47" t="s">
         <v>78</v>
       </c>
@@ -32453,17 +32548,17 @@
       <c r="BG49" s="211" t="s">
         <v>3003</v>
       </c>
-      <c r="BH49" s="272" t="s">
+      <c r="BH49" s="282" t="s">
         <v>2672</v>
       </c>
-      <c r="BI49" s="273"/>
-      <c r="BJ49" s="274"/>
-    </row>
-    <row r="50" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="360" t="s">
+      <c r="BI49" s="283"/>
+      <c r="BJ49" s="284"/>
+    </row>
+    <row r="50" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A50" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B50" s="361"/>
+      <c r="B50" s="331"/>
       <c r="C50" s="47" t="s">
         <v>79</v>
       </c>
@@ -32633,17 +32728,17 @@
       <c r="BG50" s="211" t="s">
         <v>3004</v>
       </c>
-      <c r="BH50" s="272" t="s">
+      <c r="BH50" s="282" t="s">
         <v>2673</v>
       </c>
-      <c r="BI50" s="273"/>
-      <c r="BJ50" s="274"/>
-    </row>
-    <row r="51" spans="1:62" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="360" t="s">
+      <c r="BI50" s="283"/>
+      <c r="BJ50" s="284"/>
+    </row>
+    <row r="51" spans="1:62" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A51" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B51" s="361"/>
+      <c r="B51" s="331"/>
       <c r="C51" s="47" t="s">
         <v>81</v>
       </c>
@@ -32815,17 +32910,17 @@
       <c r="BG51" s="241" t="s">
         <v>3008</v>
       </c>
-      <c r="BH51" s="272" t="s">
+      <c r="BH51" s="282" t="s">
         <v>2674</v>
       </c>
-      <c r="BI51" s="273"/>
-      <c r="BJ51" s="274"/>
-    </row>
-    <row r="52" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="360" t="s">
+      <c r="BI51" s="283"/>
+      <c r="BJ51" s="284"/>
+    </row>
+    <row r="52" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A52" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B52" s="361"/>
+      <c r="B52" s="331"/>
       <c r="C52" s="47" t="s">
         <v>83</v>
       </c>
@@ -32995,17 +33090,17 @@
       <c r="BG52" s="241" t="s">
         <v>3009</v>
       </c>
-      <c r="BH52" s="272" t="s">
+      <c r="BH52" s="282" t="s">
         <v>2675</v>
       </c>
-      <c r="BI52" s="273"/>
-      <c r="BJ52" s="274"/>
-    </row>
-    <row r="53" spans="1:62" s="115" customFormat="1" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="360" t="s">
+      <c r="BI52" s="283"/>
+      <c r="BJ52" s="284"/>
+    </row>
+    <row r="53" spans="1:62" s="115" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A53" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B53" s="361"/>
+      <c r="B53" s="331"/>
       <c r="C53" s="47" t="s">
         <v>84</v>
       </c>
@@ -33108,7 +33203,9 @@
       <c r="AR53" s="65"/>
       <c r="AS53" s="65"/>
       <c r="AT53" s="116"/>
-      <c r="AU53" s="117"/>
+      <c r="AU53" s="117" t="s">
+        <v>3168</v>
+      </c>
       <c r="AV53" s="154" t="s">
         <v>916</v>
       </c>
@@ -33145,17 +33242,17 @@
       <c r="BG53" s="207" t="s">
         <v>855</v>
       </c>
-      <c r="BH53" s="272" t="s">
+      <c r="BH53" s="282" t="s">
         <v>2368</v>
       </c>
-      <c r="BI53" s="278"/>
+      <c r="BI53" s="289"/>
       <c r="BJ53" s="182"/>
     </row>
-    <row r="54" spans="1:62" s="92" customFormat="1" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="362" t="s">
+    <row r="54" spans="1:62" s="92" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B54" s="363"/>
+      <c r="B54" s="333"/>
       <c r="C54" s="48" t="s">
         <v>2779</v>
       </c>
@@ -33273,11 +33370,11 @@
       <c r="BI54" s="220"/>
       <c r="BJ54" s="220"/>
     </row>
-    <row r="55" spans="1:62" s="115" customFormat="1" ht="255" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="360" t="s">
+    <row r="55" spans="1:62" s="115" customFormat="1" ht="255" x14ac:dyDescent="0.2">
+      <c r="A55" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B55" s="361"/>
+      <c r="B55" s="331"/>
       <c r="C55" s="47" t="s">
         <v>87</v>
       </c>
@@ -33415,17 +33512,17 @@
       <c r="BG55" s="241" t="s">
         <v>3010</v>
       </c>
-      <c r="BH55" s="272" t="s">
+      <c r="BH55" s="282" t="s">
         <v>2749</v>
       </c>
-      <c r="BI55" s="274"/>
+      <c r="BI55" s="284"/>
       <c r="BJ55" s="183"/>
     </row>
-    <row r="56" spans="1:62" s="115" customFormat="1" ht="206.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="360" t="s">
+    <row r="56" spans="1:62" s="115" customFormat="1" ht="205.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B56" s="361"/>
+      <c r="B56" s="331"/>
       <c r="C56" s="47" t="s">
         <v>88</v>
       </c>
@@ -33526,7 +33623,9 @@
       <c r="AR56" s="65"/>
       <c r="AS56" s="65"/>
       <c r="AT56" s="116"/>
-      <c r="AU56" s="117"/>
+      <c r="AU56" s="117" t="s">
+        <v>3169</v>
+      </c>
       <c r="AV56" s="196" t="s">
         <v>752</v>
       </c>
@@ -33563,19 +33662,19 @@
       <c r="BG56" s="241" t="s">
         <v>3011</v>
       </c>
-      <c r="BH56" s="272" t="s">
+      <c r="BH56" s="282" t="s">
         <v>2678</v>
       </c>
-      <c r="BI56" s="274"/>
+      <c r="BI56" s="284"/>
       <c r="BJ56" s="189" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="57" spans="1:62" s="92" customFormat="1" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="362" t="s">
+    <row r="57" spans="1:62" s="92" customFormat="1" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="363"/>
+      <c r="B57" s="333"/>
       <c r="C57" s="48" t="s">
         <v>2780</v>
       </c>
@@ -33721,15 +33820,15 @@
       <c r="BE57" s="217"/>
       <c r="BF57" s="217"/>
       <c r="BG57" s="219"/>
-      <c r="BH57" s="275"/>
-      <c r="BI57" s="276"/>
-      <c r="BJ57" s="277"/>
-    </row>
-    <row r="58" spans="1:62" s="115" customFormat="1" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="360" t="s">
+      <c r="BH57" s="410"/>
+      <c r="BI57" s="411"/>
+      <c r="BJ57" s="412"/>
+    </row>
+    <row r="58" spans="1:62" s="115" customFormat="1" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="361"/>
+      <c r="B58" s="331"/>
       <c r="C58" s="46" t="s">
         <v>89</v>
       </c>
@@ -33891,17 +33990,17 @@
       <c r="BG58" s="207" t="s">
         <v>917</v>
       </c>
-      <c r="BH58" s="272" t="s">
+      <c r="BH58" s="282" t="s">
         <v>917</v>
       </c>
-      <c r="BI58" s="278"/>
-      <c r="BJ58" s="279"/>
-    </row>
-    <row r="59" spans="1:62" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="360" t="s">
+      <c r="BI58" s="289"/>
+      <c r="BJ58" s="290"/>
+    </row>
+    <row r="59" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B59" s="361"/>
+      <c r="B59" s="331"/>
       <c r="C59" s="46" t="s">
         <v>90</v>
       </c>
@@ -34071,17 +34170,17 @@
       <c r="BG59" s="211" t="s">
         <v>3012</v>
       </c>
-      <c r="BH59" s="272" t="s">
+      <c r="BH59" s="282" t="s">
         <v>2679</v>
       </c>
-      <c r="BI59" s="273"/>
-      <c r="BJ59" s="274"/>
-    </row>
-    <row r="60" spans="1:62" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="360" t="s">
+      <c r="BI59" s="283"/>
+      <c r="BJ59" s="284"/>
+    </row>
+    <row r="60" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B60" s="361"/>
+      <c r="B60" s="331"/>
       <c r="C60" s="46" t="s">
         <v>91</v>
       </c>
@@ -34251,17 +34350,17 @@
       <c r="BG60" s="211" t="s">
         <v>3013</v>
       </c>
-      <c r="BH60" s="272" t="s">
+      <c r="BH60" s="282" t="s">
         <v>2680</v>
       </c>
-      <c r="BI60" s="273"/>
-      <c r="BJ60" s="274"/>
-    </row>
-    <row r="61" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="360" t="s">
+      <c r="BI60" s="283"/>
+      <c r="BJ60" s="284"/>
+    </row>
+    <row r="61" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B61" s="361"/>
+      <c r="B61" s="331"/>
       <c r="C61" s="46" t="s">
         <v>92</v>
       </c>
@@ -34417,17 +34516,17 @@
       <c r="BG61" s="211" t="s">
         <v>3014</v>
       </c>
-      <c r="BH61" s="272" t="s">
+      <c r="BH61" s="282" t="s">
         <v>2681</v>
       </c>
-      <c r="BI61" s="273"/>
-      <c r="BJ61" s="274"/>
-    </row>
-    <row r="62" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="360" t="s">
+      <c r="BI61" s="283"/>
+      <c r="BJ61" s="284"/>
+    </row>
+    <row r="62" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B62" s="361"/>
+      <c r="B62" s="331"/>
       <c r="C62" s="46" t="s">
         <v>95</v>
       </c>
@@ -34583,17 +34682,17 @@
       <c r="BG62" s="211" t="s">
         <v>3018</v>
       </c>
-      <c r="BH62" s="272" t="s">
+      <c r="BH62" s="282" t="s">
         <v>3015</v>
       </c>
-      <c r="BI62" s="273"/>
-      <c r="BJ62" s="274"/>
-    </row>
-    <row r="63" spans="1:62" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="360" t="s">
+      <c r="BI62" s="283"/>
+      <c r="BJ62" s="284"/>
+    </row>
+    <row r="63" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="361"/>
+      <c r="B63" s="331"/>
       <c r="C63" s="46" t="s">
         <v>97</v>
       </c>
@@ -34741,19 +34840,19 @@
       <c r="BG63" s="211" t="s">
         <v>3019</v>
       </c>
-      <c r="BH63" s="272" t="s">
+      <c r="BH63" s="282" t="s">
         <v>2682</v>
       </c>
-      <c r="BI63" s="274"/>
+      <c r="BI63" s="284"/>
       <c r="BJ63" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="64" spans="1:62" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="360" t="s">
+    <row r="64" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="361"/>
+      <c r="B64" s="331"/>
       <c r="C64" s="46" t="s">
         <v>99</v>
       </c>
@@ -34901,19 +35000,19 @@
       <c r="BG64" s="211" t="s">
         <v>3020</v>
       </c>
-      <c r="BH64" s="272" t="s">
+      <c r="BH64" s="282" t="s">
         <v>2683</v>
       </c>
-      <c r="BI64" s="274"/>
+      <c r="BI64" s="284"/>
       <c r="BJ64" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="65" spans="1:63" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="360" t="s">
+    <row r="65" spans="1:63" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="361"/>
+      <c r="B65" s="331"/>
       <c r="C65" s="46" t="s">
         <v>100</v>
       </c>
@@ -35035,11 +35134,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="66" spans="1:63" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="360" t="s">
+    <row r="66" spans="1:63" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A66" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="361"/>
+      <c r="B66" s="331"/>
       <c r="C66" s="47" t="s">
         <v>101</v>
       </c>
@@ -35157,11 +35256,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="67" spans="1:63" s="92" customFormat="1" ht="180.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="362" t="s">
+    <row r="67" spans="1:63" s="92" customFormat="1" ht="180.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B67" s="363"/>
+      <c r="B67" s="333"/>
       <c r="C67" s="48" t="s">
         <v>2781</v>
       </c>
@@ -35311,11 +35410,11 @@
       <c r="BI67" s="220"/>
       <c r="BJ67" s="220"/>
     </row>
-    <row r="68" spans="1:63" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="360" t="s">
+    <row r="68" spans="1:63" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="361"/>
+      <c r="B68" s="331"/>
       <c r="C68" s="47" t="s">
         <v>2782</v>
       </c>
@@ -35485,17 +35584,17 @@
       <c r="BG68" s="211" t="s">
         <v>3021</v>
       </c>
-      <c r="BH68" s="272" t="s">
+      <c r="BH68" s="282" t="s">
         <v>2684</v>
       </c>
-      <c r="BI68" s="273"/>
-      <c r="BJ68" s="274"/>
-    </row>
-    <row r="69" spans="1:63" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="360" t="s">
+      <c r="BI68" s="283"/>
+      <c r="BJ68" s="284"/>
+    </row>
+    <row r="69" spans="1:63" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="361"/>
+      <c r="B69" s="331"/>
       <c r="C69" s="47" t="s">
         <v>2783</v>
       </c>
@@ -35665,17 +35764,17 @@
       <c r="BG69" s="211" t="s">
         <v>3022</v>
       </c>
-      <c r="BH69" s="272" t="s">
+      <c r="BH69" s="282" t="s">
         <v>2685</v>
       </c>
-      <c r="BI69" s="273"/>
-      <c r="BJ69" s="274"/>
-    </row>
-    <row r="70" spans="1:63" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="360" t="s">
+      <c r="BI69" s="283"/>
+      <c r="BJ69" s="284"/>
+    </row>
+    <row r="70" spans="1:63" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="361"/>
+      <c r="B70" s="331"/>
       <c r="C70" s="47" t="s">
         <v>2784</v>
       </c>
@@ -35845,17 +35944,17 @@
       <c r="BG70" s="211" t="s">
         <v>3023</v>
       </c>
-      <c r="BH70" s="272" t="s">
+      <c r="BH70" s="282" t="s">
         <v>2686</v>
       </c>
-      <c r="BI70" s="273"/>
-      <c r="BJ70" s="274"/>
-    </row>
-    <row r="71" spans="1:63" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="360" t="s">
+      <c r="BI70" s="283"/>
+      <c r="BJ70" s="284"/>
+    </row>
+    <row r="71" spans="1:63" ht="204" x14ac:dyDescent="0.2">
+      <c r="A71" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="361"/>
+      <c r="B71" s="331"/>
       <c r="C71" s="47" t="s">
         <v>2785</v>
       </c>
@@ -36025,17 +36124,17 @@
       <c r="BG71" s="211" t="s">
         <v>3024</v>
       </c>
-      <c r="BH71" s="272" t="s">
+      <c r="BH71" s="282" t="s">
         <v>2687</v>
       </c>
-      <c r="BI71" s="273"/>
-      <c r="BJ71" s="274"/>
-    </row>
-    <row r="72" spans="1:63" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="360" t="s">
+      <c r="BI71" s="283"/>
+      <c r="BJ71" s="284"/>
+    </row>
+    <row r="72" spans="1:63" ht="204" x14ac:dyDescent="0.2">
+      <c r="A72" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="361"/>
+      <c r="B72" s="331"/>
       <c r="C72" s="47" t="s">
         <v>2786</v>
       </c>
@@ -36205,17 +36304,17 @@
       <c r="BG72" s="211" t="s">
         <v>3025</v>
       </c>
-      <c r="BH72" s="272" t="s">
+      <c r="BH72" s="282" t="s">
         <v>2688</v>
       </c>
-      <c r="BI72" s="273"/>
-      <c r="BJ72" s="274"/>
-    </row>
-    <row r="73" spans="1:63" ht="255" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="360" t="s">
+      <c r="BI72" s="283"/>
+      <c r="BJ72" s="284"/>
+    </row>
+    <row r="73" spans="1:63" ht="255" x14ac:dyDescent="0.2">
+      <c r="A73" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="361"/>
+      <c r="B73" s="331"/>
       <c r="C73" s="47" t="s">
         <v>102</v>
       </c>
@@ -36385,17 +36484,17 @@
       <c r="BG73" s="211" t="s">
         <v>3026</v>
       </c>
-      <c r="BH73" s="272" t="s">
+      <c r="BH73" s="282" t="s">
         <v>2689</v>
       </c>
-      <c r="BI73" s="273"/>
-      <c r="BJ73" s="274"/>
-    </row>
-    <row r="74" spans="1:63" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="360" t="s">
+      <c r="BI73" s="283"/>
+      <c r="BJ73" s="284"/>
+    </row>
+    <row r="74" spans="1:63" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A74" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="361"/>
+      <c r="B74" s="331"/>
       <c r="C74" s="47" t="s">
         <v>103</v>
       </c>
@@ -36565,17 +36664,17 @@
       <c r="BG74" s="211" t="s">
         <v>3027</v>
       </c>
-      <c r="BH74" s="272" t="s">
+      <c r="BH74" s="282" t="s">
         <v>2690</v>
       </c>
-      <c r="BI74" s="273"/>
-      <c r="BJ74" s="274"/>
-    </row>
-    <row r="75" spans="1:63" s="92" customFormat="1" ht="147.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="362" t="s">
+      <c r="BI74" s="283"/>
+      <c r="BJ74" s="284"/>
+    </row>
+    <row r="75" spans="1:63" s="92" customFormat="1" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B75" s="363"/>
+      <c r="B75" s="333"/>
       <c r="C75" s="48" t="s">
         <v>104</v>
       </c>
@@ -36718,11 +36817,11 @@
       <c r="BJ75" s="222"/>
       <c r="BK75" s="195"/>
     </row>
-    <row r="76" spans="1:63" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="360" t="s">
+    <row r="76" spans="1:63" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="361"/>
+      <c r="B76" s="331"/>
       <c r="C76" s="46" t="s">
         <v>106</v>
       </c>
@@ -36884,17 +36983,17 @@
       <c r="BG76" s="211" t="s">
         <v>3028</v>
       </c>
-      <c r="BH76" s="272" t="s">
+      <c r="BH76" s="282" t="s">
         <v>2691</v>
       </c>
-      <c r="BI76" s="273"/>
-      <c r="BJ76" s="274"/>
-    </row>
-    <row r="77" spans="1:63" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="360" t="s">
+      <c r="BI76" s="283"/>
+      <c r="BJ76" s="284"/>
+    </row>
+    <row r="77" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="361"/>
+      <c r="B77" s="331"/>
       <c r="C77" s="46" t="s">
         <v>108</v>
       </c>
@@ -37054,19 +37153,19 @@
       <c r="BG77" s="211" t="s">
         <v>3029</v>
       </c>
-      <c r="BH77" s="272" t="s">
+      <c r="BH77" s="282" t="s">
         <v>2694</v>
       </c>
-      <c r="BI77" s="274"/>
+      <c r="BI77" s="284"/>
       <c r="BJ77" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="78" spans="1:63" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="360" t="s">
+    <row r="78" spans="1:63" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A78" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="361"/>
+      <c r="B78" s="331"/>
       <c r="C78" s="46" t="s">
         <v>110</v>
       </c>
@@ -37226,19 +37325,19 @@
       <c r="BG78" s="211" t="s">
         <v>3030</v>
       </c>
-      <c r="BH78" s="272" t="s">
+      <c r="BH78" s="282" t="s">
         <v>2695</v>
       </c>
-      <c r="BI78" s="274"/>
+      <c r="BI78" s="284"/>
       <c r="BJ78" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="79" spans="1:63" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="360" t="s">
+    <row r="79" spans="1:63" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A79" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="361"/>
+      <c r="B79" s="331"/>
       <c r="C79" s="46" t="s">
         <v>112</v>
       </c>
@@ -37398,19 +37497,19 @@
       <c r="BG79" s="211" t="s">
         <v>3031</v>
       </c>
-      <c r="BH79" s="272" t="s">
+      <c r="BH79" s="282" t="s">
         <v>2696</v>
       </c>
-      <c r="BI79" s="274"/>
+      <c r="BI79" s="284"/>
       <c r="BJ79" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="80" spans="1:63" ht="147.94999999999999" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="360" t="s">
+    <row r="80" spans="1:63" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="361"/>
+      <c r="B80" s="331"/>
       <c r="C80" s="46" t="s">
         <v>114</v>
       </c>
@@ -37556,19 +37655,19 @@
       <c r="BG80" s="211" t="s">
         <v>3032</v>
       </c>
-      <c r="BH80" s="272" t="s">
+      <c r="BH80" s="282" t="s">
         <v>2697</v>
       </c>
-      <c r="BI80" s="274"/>
+      <c r="BI80" s="284"/>
       <c r="BJ80" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="81" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="360" t="s">
+    <row r="81" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="361"/>
+      <c r="B81" s="331"/>
       <c r="C81" s="47" t="s">
         <v>116</v>
       </c>
@@ -37714,19 +37813,19 @@
       <c r="BG81" s="211" t="s">
         <v>3033</v>
       </c>
-      <c r="BH81" s="272" t="s">
+      <c r="BH81" s="282" t="s">
         <v>2698</v>
       </c>
-      <c r="BI81" s="274"/>
+      <c r="BI81" s="284"/>
       <c r="BJ81" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="82" spans="1:62" s="92" customFormat="1" ht="48.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="362" t="s">
+    <row r="82" spans="1:62" s="92" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B82" s="363"/>
+      <c r="B82" s="333"/>
       <c r="C82" s="48" t="s">
         <v>117</v>
       </c>
@@ -37864,11 +37963,11 @@
       <c r="BI82" s="230"/>
       <c r="BJ82" s="230"/>
     </row>
-    <row r="83" spans="1:62" ht="318.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="360" t="s">
+    <row r="83" spans="1:62" ht="318.75" x14ac:dyDescent="0.2">
+      <c r="A83" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="361"/>
+      <c r="B83" s="331"/>
       <c r="C83" s="47" t="s">
         <v>119</v>
       </c>
@@ -38026,17 +38125,17 @@
       <c r="BG83" s="241" t="s">
         <v>3034</v>
       </c>
-      <c r="BH83" s="272" t="s">
+      <c r="BH83" s="282" t="s">
         <v>2699</v>
       </c>
-      <c r="BI83" s="273"/>
-      <c r="BJ83" s="274"/>
-    </row>
-    <row r="84" spans="1:62" s="92" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="362" t="s">
+      <c r="BI83" s="283"/>
+      <c r="BJ83" s="284"/>
+    </row>
+    <row r="84" spans="1:62" s="92" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B84" s="363"/>
+      <c r="B84" s="333"/>
       <c r="C84" s="48" t="s">
         <v>120</v>
       </c>
@@ -38164,11 +38263,11 @@
       <c r="BI84" s="230"/>
       <c r="BJ84" s="230"/>
     </row>
-    <row r="85" spans="1:62" ht="135.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="360" t="s">
+    <row r="85" spans="1:62" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="361"/>
+      <c r="B85" s="331"/>
       <c r="C85" s="47" t="s">
         <v>122</v>
       </c>
@@ -38316,17 +38415,17 @@
       <c r="BG85" s="211" t="s">
         <v>3035</v>
       </c>
-      <c r="BH85" s="272" t="s">
+      <c r="BH85" s="282" t="s">
         <v>2700</v>
       </c>
-      <c r="BI85" s="278"/>
-      <c r="BJ85" s="279"/>
-    </row>
-    <row r="86" spans="1:62" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="360" t="s">
+      <c r="BI85" s="289"/>
+      <c r="BJ85" s="290"/>
+    </row>
+    <row r="86" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A86" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B86" s="361"/>
+      <c r="B86" s="331"/>
       <c r="C86" s="47" t="s">
         <v>123</v>
       </c>
@@ -38468,17 +38567,17 @@
       <c r="BG86" s="241" t="s">
         <v>3036</v>
       </c>
-      <c r="BH86" s="272" t="s">
+      <c r="BH86" s="282" t="s">
         <v>2701</v>
       </c>
-      <c r="BI86" s="273"/>
-      <c r="BJ86" s="274"/>
-    </row>
-    <row r="87" spans="1:62" ht="164.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="360" t="s">
+      <c r="BI86" s="283"/>
+      <c r="BJ86" s="284"/>
+    </row>
+    <row r="87" spans="1:62" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B87" s="361"/>
+      <c r="B87" s="331"/>
       <c r="C87" s="46" t="s">
         <v>125</v>
       </c>
@@ -38618,17 +38717,17 @@
       <c r="BG87" s="207" t="s">
         <v>855</v>
       </c>
-      <c r="BH87" s="272" t="s">
+      <c r="BH87" s="282" t="s">
         <v>2702</v>
       </c>
-      <c r="BI87" s="273"/>
-      <c r="BJ87" s="274"/>
-    </row>
-    <row r="88" spans="1:62" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="360" t="s">
+      <c r="BI87" s="283"/>
+      <c r="BJ87" s="284"/>
+    </row>
+    <row r="88" spans="1:62" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A88" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B88" s="361"/>
+      <c r="B88" s="331"/>
       <c r="C88" s="46" t="s">
         <v>127</v>
       </c>
@@ -38730,11 +38829,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="89" spans="1:62" ht="200.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="360" t="s">
+    <row r="89" spans="1:62" ht="200.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B89" s="361"/>
+      <c r="B89" s="331"/>
       <c r="C89" s="47" t="s">
         <v>2787</v>
       </c>
@@ -38836,11 +38935,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="90" spans="1:62" ht="124.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="360" t="s">
+    <row r="90" spans="1:62" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="361"/>
+      <c r="B90" s="331"/>
       <c r="C90" s="46" t="s">
         <v>128</v>
       </c>
@@ -38915,7 +39014,9 @@
       <c r="AR90" s="51"/>
       <c r="AS90" s="51"/>
       <c r="AT90" s="103"/>
-      <c r="AU90" s="61"/>
+      <c r="AU90" s="269" t="s">
+        <v>3165</v>
+      </c>
       <c r="AV90" s="164"/>
       <c r="AW90" s="39" t="s">
         <v>855</v>
@@ -38950,16 +39051,16 @@
       <c r="BG90" s="244" t="s">
         <v>3037</v>
       </c>
-      <c r="BH90" s="400" t="s">
+      <c r="BH90" s="278" t="s">
         <v>2341</v>
       </c>
-      <c r="BI90" s="401"/>
-    </row>
-    <row r="91" spans="1:62" ht="144.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="360" t="s">
+      <c r="BI90" s="299"/>
+    </row>
+    <row r="91" spans="1:62" ht="144.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B91" s="361"/>
+      <c r="B91" s="331"/>
       <c r="C91" s="47" t="s">
         <v>2343</v>
       </c>
@@ -39034,7 +39135,9 @@
       <c r="AR91" s="51"/>
       <c r="AS91" s="51"/>
       <c r="AT91" s="103"/>
-      <c r="AU91" s="61"/>
+      <c r="AU91" s="269" t="s">
+        <v>3160</v>
+      </c>
       <c r="AV91" s="165"/>
       <c r="AW91" s="39" t="s">
         <v>855</v>
@@ -39069,16 +39172,16 @@
       <c r="BG91" s="243" t="s">
         <v>3038</v>
       </c>
-      <c r="BH91" s="269" t="s">
+      <c r="BH91" s="272" t="s">
         <v>2344</v>
       </c>
-      <c r="BI91" s="271"/>
-    </row>
-    <row r="92" spans="1:62" ht="139.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="360" t="s">
+      <c r="BI91" s="274"/>
+    </row>
+    <row r="92" spans="1:62" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B92" s="361"/>
+      <c r="B92" s="331"/>
       <c r="C92" s="46" t="s">
         <v>129</v>
       </c>
@@ -39153,7 +39256,9 @@
       <c r="AR92" s="51"/>
       <c r="AS92" s="51"/>
       <c r="AT92" s="103"/>
-      <c r="AU92" s="61"/>
+      <c r="AU92" s="269" t="s">
+        <v>3161</v>
+      </c>
       <c r="AV92" s="161"/>
       <c r="AW92" s="39" t="s">
         <v>855</v>
@@ -39188,16 +39293,16 @@
       <c r="BG92" s="243" t="s">
         <v>3039</v>
       </c>
-      <c r="BH92" s="269" t="s">
+      <c r="BH92" s="272" t="s">
         <v>2345</v>
       </c>
-      <c r="BI92" s="271"/>
-    </row>
-    <row r="93" spans="1:62" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="360" t="s">
+      <c r="BI92" s="274"/>
+    </row>
+    <row r="93" spans="1:62" ht="102" x14ac:dyDescent="0.2">
+      <c r="A93" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B93" s="361"/>
+      <c r="B93" s="331"/>
       <c r="C93" s="46" t="s">
         <v>130</v>
       </c>
@@ -39331,11 +39436,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="94" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="360" t="s">
+    <row r="94" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A94" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B94" s="361"/>
+      <c r="B94" s="331"/>
       <c r="C94" s="46" t="s">
         <v>132</v>
       </c>
@@ -39469,11 +39574,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="95" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="360" t="s">
+    <row r="95" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A95" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="361"/>
+      <c r="B95" s="331"/>
       <c r="C95" s="46" t="s">
         <v>134</v>
       </c>
@@ -39607,11 +39712,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="96" spans="1:62" s="92" customFormat="1" ht="114.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="362" t="s">
+    <row r="96" spans="1:62" s="92" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="363"/>
+      <c r="B96" s="333"/>
       <c r="C96" s="48" t="s">
         <v>2788</v>
       </c>
@@ -39707,11 +39812,11 @@
       <c r="BI96" s="230"/>
       <c r="BJ96" s="230"/>
     </row>
-    <row r="97" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="360" t="s">
+    <row r="97" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A97" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="361"/>
+      <c r="B97" s="331"/>
       <c r="C97" s="46" t="s">
         <v>137</v>
       </c>
@@ -39845,11 +39950,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="98" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="360" t="s">
+    <row r="98" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A98" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B98" s="361"/>
+      <c r="B98" s="331"/>
       <c r="C98" s="47" t="s">
         <v>2789</v>
       </c>
@@ -39983,11 +40088,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="99" spans="1:62" s="92" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="362" t="s">
+    <row r="99" spans="1:62" s="92" customFormat="1" ht="357" x14ac:dyDescent="0.2">
+      <c r="A99" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B99" s="363"/>
+      <c r="B99" s="333"/>
       <c r="C99" s="48" t="s">
         <v>2790</v>
       </c>
@@ -40072,7 +40177,9 @@
       <c r="AR99" s="53"/>
       <c r="AS99" s="53"/>
       <c r="AT99" s="100"/>
-      <c r="AU99" s="101"/>
+      <c r="AU99" s="101" t="s">
+        <v>3166</v>
+      </c>
       <c r="AV99" s="228"/>
       <c r="AW99" s="224"/>
       <c r="AX99" s="224"/>
@@ -40089,11 +40196,11 @@
       <c r="BI99" s="230"/>
       <c r="BJ99" s="230"/>
     </row>
-    <row r="100" spans="1:62" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="360" t="s">
+    <row r="100" spans="1:62" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A100" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B100" s="361"/>
+      <c r="B100" s="331"/>
       <c r="C100" s="46" t="s">
         <v>141</v>
       </c>
@@ -40225,11 +40332,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="101" spans="1:62" s="108" customFormat="1" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="364" t="s">
+    <row r="101" spans="1:62" s="108" customFormat="1" ht="153" x14ac:dyDescent="0.2">
+      <c r="A101" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="B101" s="365"/>
+      <c r="B101" s="345"/>
       <c r="C101" s="49" t="s">
         <v>142</v>
       </c>
@@ -40359,11 +40466,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="102" spans="1:62" ht="229.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="360" t="s">
+    <row r="102" spans="1:62" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A102" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B102" s="361"/>
+      <c r="B102" s="331"/>
       <c r="C102" s="47" t="s">
         <v>144</v>
       </c>
@@ -40495,11 +40602,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="103" spans="1:62" ht="242.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="360" t="s">
+    <row r="103" spans="1:62" ht="242.25" x14ac:dyDescent="0.2">
+      <c r="A103" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B103" s="361"/>
+      <c r="B103" s="331"/>
       <c r="C103" s="47" t="s">
         <v>146</v>
       </c>
@@ -40631,11 +40738,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="104" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="360" t="s">
+    <row r="104" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A104" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B104" s="361"/>
+      <c r="B104" s="331"/>
       <c r="C104" s="47" t="s">
         <v>148</v>
       </c>
@@ -40739,11 +40846,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="105" spans="1:62" s="92" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="362" t="s">
+    <row r="105" spans="1:62" s="92" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B105" s="363"/>
+      <c r="B105" s="333"/>
       <c r="C105" s="48" t="s">
         <v>2791</v>
       </c>
@@ -40817,11 +40924,11 @@
       <c r="BI105" s="230"/>
       <c r="BJ105" s="230"/>
     </row>
-    <row r="106" spans="1:62" s="92" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="362" t="s">
+    <row r="106" spans="1:62" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A106" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B106" s="363"/>
+      <c r="B106" s="333"/>
       <c r="C106" s="48" t="s">
         <v>150</v>
       </c>
@@ -40895,11 +41002,11 @@
       <c r="BI106" s="230"/>
       <c r="BJ106" s="230"/>
     </row>
-    <row r="107" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="360" t="s">
+    <row r="107" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A107" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B107" s="361"/>
+      <c r="B107" s="331"/>
       <c r="C107" s="47" t="s">
         <v>152</v>
       </c>
@@ -40993,17 +41100,17 @@
       <c r="BG107" s="207" t="s">
         <v>855</v>
       </c>
-      <c r="BH107" s="269" t="s">
-        <v>855</v>
-      </c>
-      <c r="BI107" s="270"/>
-      <c r="BJ107" s="271"/>
-    </row>
-    <row r="108" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="360" t="s">
+      <c r="BH107" s="272" t="s">
+        <v>855</v>
+      </c>
+      <c r="BI107" s="273"/>
+      <c r="BJ107" s="274"/>
+    </row>
+    <row r="108" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A108" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B108" s="361"/>
+      <c r="B108" s="331"/>
       <c r="C108" s="47" t="s">
         <v>154</v>
       </c>
@@ -41107,11 +41214,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="109" spans="1:62" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="360" t="s">
+    <row r="109" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A109" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B109" s="361"/>
+      <c r="B109" s="331"/>
       <c r="C109" s="47" t="s">
         <v>156</v>
       </c>
@@ -41215,11 +41322,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="110" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="360" t="s">
+    <row r="110" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A110" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B110" s="361"/>
+      <c r="B110" s="331"/>
       <c r="C110" s="47" t="s">
         <v>158</v>
       </c>
@@ -41323,11 +41430,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="111" spans="1:62" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="360" t="s">
+    <row r="111" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A111" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B111" s="361"/>
+      <c r="B111" s="331"/>
       <c r="C111" s="47" t="s">
         <v>160</v>
       </c>
@@ -41431,11 +41538,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="112" spans="1:62" ht="229.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="360" t="s">
+    <row r="112" spans="1:62" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A112" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B112" s="361"/>
+      <c r="B112" s="331"/>
       <c r="C112" s="47" t="s">
         <v>161</v>
       </c>
@@ -41539,11 +41646,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="113" spans="1:63" ht="267.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="360" t="s">
+    <row r="113" spans="1:63" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A113" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B113" s="361"/>
+      <c r="B113" s="331"/>
       <c r="C113" s="47" t="s">
         <v>162</v>
       </c>
@@ -41647,11 +41754,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="114" spans="1:63" s="92" customFormat="1" ht="107.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="362" t="s">
+    <row r="114" spans="1:63" s="92" customFormat="1" ht="107.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B114" s="363"/>
+      <c r="B114" s="333"/>
       <c r="C114" s="48" t="s">
         <v>2792</v>
       </c>
@@ -41757,11 +41864,11 @@
       <c r="BI114" s="230"/>
       <c r="BJ114" s="230"/>
     </row>
-    <row r="115" spans="1:63" ht="105.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="360" t="s">
+    <row r="115" spans="1:63" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B115" s="361"/>
+      <c r="B115" s="331"/>
       <c r="C115" s="46" t="s">
         <v>165</v>
       </c>
@@ -41895,11 +42002,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="116" spans="1:63" s="92" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="362" t="s">
+    <row r="116" spans="1:63" s="92" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A116" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B116" s="363"/>
+      <c r="B116" s="333"/>
       <c r="C116" s="48" t="s">
         <v>2794</v>
       </c>
@@ -42006,11 +42113,11 @@
       <c r="BJ116" s="232"/>
       <c r="BK116" s="195"/>
     </row>
-    <row r="117" spans="1:63" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="360" t="s">
+    <row r="117" spans="1:63" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A117" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B117" s="361"/>
+      <c r="B117" s="331"/>
       <c r="C117" s="46" t="s">
         <v>167</v>
       </c>
@@ -42144,11 +42251,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="118" spans="1:63" ht="72.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="360" t="s">
+    <row r="118" spans="1:63" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B118" s="361"/>
+      <c r="B118" s="331"/>
       <c r="C118" s="46" t="s">
         <v>169</v>
       </c>
@@ -42282,11 +42389,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="119" spans="1:63" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="360" t="s">
+    <row r="119" spans="1:63" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A119" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B119" s="361"/>
+      <c r="B119" s="331"/>
       <c r="C119" s="46" t="s">
         <v>171</v>
       </c>
@@ -42420,11 +42527,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="120" spans="1:63" ht="123" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="360" t="s">
+    <row r="120" spans="1:63" ht="123" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B120" s="361"/>
+      <c r="B120" s="331"/>
       <c r="C120" s="47" t="s">
         <v>173</v>
       </c>
@@ -42558,11 +42665,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="121" spans="1:63" ht="65.099999999999994" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="360" t="s">
+    <row r="121" spans="1:63" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B121" s="361"/>
+      <c r="B121" s="331"/>
       <c r="C121" s="47" t="s">
         <v>174</v>
       </c>
@@ -42692,11 +42799,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="122" spans="1:63" s="92" customFormat="1" ht="36" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="362" t="s">
+    <row r="122" spans="1:63" s="92" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+      <c r="A122" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B122" s="363"/>
+      <c r="B122" s="333"/>
       <c r="C122" s="48" t="s">
         <v>175</v>
       </c>
@@ -42790,11 +42897,11 @@
       <c r="BI122" s="230"/>
       <c r="BJ122" s="230"/>
     </row>
-    <row r="123" spans="1:63" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="360" t="s">
+    <row r="123" spans="1:63" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A123" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B123" s="361"/>
+      <c r="B123" s="331"/>
       <c r="C123" s="47" t="s">
         <v>176</v>
       </c>
@@ -42924,11 +43031,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="124" spans="1:63" ht="63.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="360" t="s">
+    <row r="124" spans="1:63" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A124" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B124" s="361"/>
+      <c r="B124" s="331"/>
       <c r="C124" s="47" t="s">
         <v>2795</v>
       </c>
@@ -43058,11 +43165,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="125" spans="1:63" ht="76.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="360" t="s">
+    <row r="125" spans="1:63" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A125" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B125" s="361"/>
+      <c r="B125" s="331"/>
       <c r="C125" s="47" t="s">
         <v>2796</v>
       </c>
@@ -43192,11 +43299,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="126" spans="1:63" s="92" customFormat="1" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="362" t="s">
+    <row r="126" spans="1:63" s="92" customFormat="1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B126" s="363"/>
+      <c r="B126" s="333"/>
       <c r="C126" s="48" t="s">
         <v>2797</v>
       </c>
@@ -43296,11 +43403,11 @@
       <c r="BI126" s="230"/>
       <c r="BJ126" s="230"/>
     </row>
-    <row r="127" spans="1:63" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="360" t="s">
+    <row r="127" spans="1:63" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A127" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B127" s="361"/>
+      <c r="B127" s="331"/>
       <c r="C127" s="46" t="s">
         <v>177</v>
       </c>
@@ -43430,11 +43537,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="128" spans="1:63" ht="27" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="360" t="s">
+    <row r="128" spans="1:63" ht="27" x14ac:dyDescent="0.2">
+      <c r="A128" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B128" s="361"/>
+      <c r="B128" s="331"/>
       <c r="C128" s="46" t="s">
         <v>178</v>
       </c>
@@ -43560,11 +43667,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="129" spans="1:62" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="360" t="s">
+    <row r="129" spans="1:62" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B129" s="361"/>
+      <c r="B129" s="331"/>
       <c r="C129" s="46" t="s">
         <v>179</v>
       </c>
@@ -43690,11 +43797,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="130" spans="1:62" ht="27" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="360" t="s">
+    <row r="130" spans="1:62" ht="27" x14ac:dyDescent="0.2">
+      <c r="A130" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B130" s="361"/>
+      <c r="B130" s="331"/>
       <c r="C130" s="46" t="s">
         <v>181</v>
       </c>
@@ -43820,11 +43927,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="131" spans="1:62" ht="99" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="360" t="s">
+    <row r="131" spans="1:62" ht="99" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B131" s="361"/>
+      <c r="B131" s="331"/>
       <c r="C131" s="46" t="s">
         <v>183</v>
       </c>
@@ -43950,11 +44057,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="132" spans="1:62" s="92" customFormat="1" ht="105.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="362" t="s">
+    <row r="132" spans="1:62" s="92" customFormat="1" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B132" s="363"/>
+      <c r="B132" s="333"/>
       <c r="C132" s="104" t="s">
         <v>437</v>
       </c>
@@ -44068,11 +44175,11 @@
       <c r="BI132" s="230"/>
       <c r="BJ132" s="230"/>
     </row>
-    <row r="133" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="360" t="s">
+    <row r="133" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A133" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B133" s="361"/>
+      <c r="B133" s="331"/>
       <c r="C133" s="46" t="s">
         <v>185</v>
       </c>
@@ -44212,11 +44319,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="134" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="360" t="s">
+    <row r="134" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A134" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="361"/>
+      <c r="B134" s="331"/>
       <c r="C134" s="46" t="s">
         <v>187</v>
       </c>
@@ -44352,11 +44459,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="135" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="360" t="s">
+    <row r="135" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A135" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B135" s="361"/>
+      <c r="B135" s="331"/>
       <c r="C135" s="46" t="s">
         <v>189</v>
       </c>
@@ -44492,11 +44599,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="136" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="360" t="s">
+    <row r="136" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A136" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B136" s="361"/>
+      <c r="B136" s="331"/>
       <c r="C136" s="46" t="s">
         <v>190</v>
       </c>
@@ -44630,11 +44737,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="137" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="360" t="s">
+    <row r="137" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A137" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B137" s="361"/>
+      <c r="B137" s="331"/>
       <c r="C137" s="46" t="s">
         <v>191</v>
       </c>
@@ -44770,11 +44877,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="138" spans="1:62" ht="293.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="360" t="s">
+    <row r="138" spans="1:62" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A138" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B138" s="361"/>
+      <c r="B138" s="331"/>
       <c r="C138" s="46" t="s">
         <v>193</v>
       </c>
@@ -44910,11 +45017,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="139" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="360" t="s">
+    <row r="139" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A139" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B139" s="361"/>
+      <c r="B139" s="331"/>
       <c r="C139" s="47" t="s">
         <v>194</v>
       </c>
@@ -45048,11 +45155,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="140" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="360" t="s">
+    <row r="140" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A140" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B140" s="361"/>
+      <c r="B140" s="331"/>
       <c r="C140" s="47" t="s">
         <v>196</v>
       </c>
@@ -45188,11 +45295,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="141" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="360" t="s">
+    <row r="141" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A141" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B141" s="361"/>
+      <c r="B141" s="331"/>
       <c r="C141" s="47" t="s">
         <v>198</v>
       </c>
@@ -45296,11 +45403,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="142" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="360" t="s">
+    <row r="142" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A142" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B142" s="361"/>
+      <c r="B142" s="331"/>
       <c r="C142" s="47" t="s">
         <v>199</v>
       </c>
@@ -45402,11 +45509,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="143" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="360" t="s">
+    <row r="143" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A143" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B143" s="361"/>
+      <c r="B143" s="331"/>
       <c r="C143" s="47" t="s">
         <v>200</v>
       </c>
@@ -45510,11 +45617,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="144" spans="1:62" s="92" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="362" t="s">
+    <row r="144" spans="1:62" s="92" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B144" s="363"/>
+      <c r="B144" s="333"/>
       <c r="C144" s="104" t="s">
         <v>448</v>
       </c>
@@ -45646,11 +45753,11 @@
       <c r="BI144" s="230"/>
       <c r="BJ144" s="230"/>
     </row>
-    <row r="145" spans="1:62" s="92" customFormat="1" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="362" t="s">
+    <row r="145" spans="1:62" s="92" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B145" s="363"/>
+      <c r="B145" s="333"/>
       <c r="C145" s="48" t="s">
         <v>202</v>
       </c>
@@ -45782,11 +45889,11 @@
       <c r="BI145" s="230"/>
       <c r="BJ145" s="230"/>
     </row>
-    <row r="146" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="360" t="s">
+    <row r="146" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A146" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B146" s="361"/>
+      <c r="B146" s="331"/>
       <c r="C146" s="46" t="s">
         <v>204</v>
       </c>
@@ -45938,17 +46045,17 @@
       <c r="BG146" s="211" t="s">
         <v>3040</v>
       </c>
-      <c r="BH146" s="272" t="s">
+      <c r="BH146" s="282" t="s">
         <v>2707</v>
       </c>
-      <c r="BI146" s="273"/>
-      <c r="BJ146" s="274"/>
-    </row>
-    <row r="147" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="360" t="s">
+      <c r="BI146" s="283"/>
+      <c r="BJ146" s="284"/>
+    </row>
+    <row r="147" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A147" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B147" s="361"/>
+      <c r="B147" s="331"/>
       <c r="C147" s="46" t="s">
         <v>206</v>
       </c>
@@ -46100,17 +46207,17 @@
       <c r="BG147" s="211" t="s">
         <v>3041</v>
       </c>
-      <c r="BH147" s="272" t="s">
+      <c r="BH147" s="282" t="s">
         <v>2708</v>
       </c>
-      <c r="BI147" s="273"/>
-      <c r="BJ147" s="274"/>
-    </row>
-    <row r="148" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="360" t="s">
+      <c r="BI147" s="283"/>
+      <c r="BJ147" s="284"/>
+    </row>
+    <row r="148" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A148" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B148" s="361"/>
+      <c r="B148" s="331"/>
       <c r="C148" s="46" t="s">
         <v>208</v>
       </c>
@@ -46262,17 +46369,17 @@
       <c r="BG148" s="211" t="s">
         <v>3042</v>
       </c>
-      <c r="BH148" s="272" t="s">
+      <c r="BH148" s="282" t="s">
         <v>2709</v>
       </c>
-      <c r="BI148" s="273"/>
-      <c r="BJ148" s="274"/>
-    </row>
-    <row r="149" spans="1:62" s="92" customFormat="1" ht="32.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="362" t="s">
+      <c r="BI148" s="283"/>
+      <c r="BJ148" s="284"/>
+    </row>
+    <row r="149" spans="1:62" s="92" customFormat="1" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="B149" s="363"/>
+      <c r="B149" s="333"/>
       <c r="C149" s="48" t="s">
         <v>2799</v>
       </c>
@@ -46404,11 +46511,11 @@
       <c r="BI149" s="230"/>
       <c r="BJ149" s="230"/>
     </row>
-    <row r="150" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="360" t="s">
+    <row r="150" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A150" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B150" s="361"/>
+      <c r="B150" s="331"/>
       <c r="C150" s="46" t="s">
         <v>211</v>
       </c>
@@ -46560,17 +46667,17 @@
       <c r="BG150" s="211" t="s">
         <v>3043</v>
       </c>
-      <c r="BH150" s="272" t="s">
+      <c r="BH150" s="282" t="s">
         <v>2710</v>
       </c>
-      <c r="BI150" s="273"/>
-      <c r="BJ150" s="274"/>
-    </row>
-    <row r="151" spans="1:62" ht="280.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="360" t="s">
+      <c r="BI150" s="283"/>
+      <c r="BJ150" s="284"/>
+    </row>
+    <row r="151" spans="1:62" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A151" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B151" s="361"/>
+      <c r="B151" s="331"/>
       <c r="C151" s="98" t="s">
         <v>447</v>
       </c>
@@ -46722,17 +46829,17 @@
       <c r="BG151" s="211" t="s">
         <v>3044</v>
       </c>
-      <c r="BH151" s="272" t="s">
+      <c r="BH151" s="282" t="s">
         <v>2711</v>
       </c>
-      <c r="BI151" s="273"/>
-      <c r="BJ151" s="274"/>
-    </row>
-    <row r="152" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="360" t="s">
+      <c r="BI151" s="283"/>
+      <c r="BJ151" s="284"/>
+    </row>
+    <row r="152" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A152" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B152" s="361"/>
+      <c r="B152" s="331"/>
       <c r="C152" s="98" t="s">
         <v>446</v>
       </c>
@@ -46884,17 +46991,17 @@
       <c r="BG152" s="211" t="s">
         <v>3045</v>
       </c>
-      <c r="BH152" s="272" t="s">
+      <c r="BH152" s="282" t="s">
         <v>2712</v>
       </c>
-      <c r="BI152" s="273"/>
-      <c r="BJ152" s="274"/>
-    </row>
-    <row r="153" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="360" t="s">
+      <c r="BI152" s="283"/>
+      <c r="BJ152" s="284"/>
+    </row>
+    <row r="153" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A153" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B153" s="361"/>
+      <c r="B153" s="331"/>
       <c r="C153" s="98" t="s">
         <v>449</v>
       </c>
@@ -47046,17 +47153,17 @@
       <c r="BG153" s="211" t="s">
         <v>3046</v>
       </c>
-      <c r="BH153" s="272" t="s">
+      <c r="BH153" s="282" t="s">
         <v>2713</v>
       </c>
-      <c r="BI153" s="273"/>
-      <c r="BJ153" s="274"/>
-    </row>
-    <row r="154" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="360" t="s">
+      <c r="BI153" s="283"/>
+      <c r="BJ153" s="284"/>
+    </row>
+    <row r="154" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A154" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B154" s="361"/>
+      <c r="B154" s="331"/>
       <c r="C154" s="46" t="s">
         <v>215</v>
       </c>
@@ -47208,17 +47315,17 @@
       <c r="BG154" s="211" t="s">
         <v>3047</v>
       </c>
-      <c r="BH154" s="272" t="s">
+      <c r="BH154" s="282" t="s">
         <v>2714</v>
       </c>
-      <c r="BI154" s="273"/>
-      <c r="BJ154" s="274"/>
-    </row>
-    <row r="155" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="360" t="s">
+      <c r="BI154" s="283"/>
+      <c r="BJ154" s="284"/>
+    </row>
+    <row r="155" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A155" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B155" s="361"/>
+      <c r="B155" s="331"/>
       <c r="C155" s="46" t="s">
         <v>216</v>
       </c>
@@ -47370,17 +47477,17 @@
       <c r="BG155" s="211" t="s">
         <v>3048</v>
       </c>
-      <c r="BH155" s="272" t="s">
+      <c r="BH155" s="282" t="s">
         <v>2715</v>
       </c>
-      <c r="BI155" s="273"/>
-      <c r="BJ155" s="274"/>
-    </row>
-    <row r="156" spans="1:62" s="112" customFormat="1" ht="164.1" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="370" t="s">
+      <c r="BI155" s="283"/>
+      <c r="BJ155" s="284"/>
+    </row>
+    <row r="156" spans="1:62" s="112" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="B156" s="371"/>
+      <c r="B156" s="347"/>
       <c r="C156" s="123" t="s">
         <v>455</v>
       </c>
@@ -47506,11 +47613,11 @@
       <c r="BI156" s="230"/>
       <c r="BJ156" s="230"/>
     </row>
-    <row r="157" spans="1:62" ht="280.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="360" t="s">
+    <row r="157" spans="1:62" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A157" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B157" s="361"/>
+      <c r="B157" s="331"/>
       <c r="C157" s="46" t="s">
         <v>217</v>
       </c>
@@ -47648,19 +47755,19 @@
       <c r="BG157" s="211" t="s">
         <v>3049</v>
       </c>
-      <c r="BH157" s="272" t="s">
+      <c r="BH157" s="282" t="s">
         <v>2716</v>
       </c>
-      <c r="BI157" s="274"/>
+      <c r="BI157" s="284"/>
       <c r="BJ157" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="158" spans="1:62" ht="293.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="360" t="s">
+    <row r="158" spans="1:62" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A158" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B158" s="361"/>
+      <c r="B158" s="331"/>
       <c r="C158" s="46" t="s">
         <v>218</v>
       </c>
@@ -47784,11 +47891,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="159" spans="1:62" ht="252.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="360" t="s">
+    <row r="159" spans="1:62" ht="252.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B159" s="361"/>
+      <c r="B159" s="331"/>
       <c r="C159" s="46" t="s">
         <v>219</v>
       </c>
@@ -47912,11 +48019,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="160" spans="1:62" ht="280.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="360" t="s">
+    <row r="160" spans="1:62" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A160" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B160" s="361"/>
+      <c r="B160" s="331"/>
       <c r="C160" s="46" t="s">
         <v>220</v>
       </c>
@@ -48040,11 +48147,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="161" spans="1:62" ht="280.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="360" t="s">
+    <row r="161" spans="1:62" ht="280.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B161" s="361"/>
+      <c r="B161" s="331"/>
       <c r="C161" s="46" t="s">
         <v>221</v>
       </c>
@@ -48172,19 +48279,19 @@
       <c r="BG161" s="211" t="s">
         <v>3050</v>
       </c>
-      <c r="BH161" s="272" t="s">
+      <c r="BH161" s="282" t="s">
         <v>2717</v>
       </c>
-      <c r="BI161" s="274"/>
+      <c r="BI161" s="284"/>
       <c r="BJ161" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="162" spans="1:62" ht="267.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="360" t="s">
+    <row r="162" spans="1:62" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A162" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B162" s="361"/>
+      <c r="B162" s="331"/>
       <c r="C162" s="46" t="s">
         <v>222</v>
       </c>
@@ -48308,19 +48415,19 @@
       <c r="BG162" s="211" t="s">
         <v>3051</v>
       </c>
-      <c r="BH162" s="291" t="s">
+      <c r="BH162" s="417" t="s">
         <v>2718</v>
       </c>
-      <c r="BI162" s="291"/>
+      <c r="BI162" s="417"/>
       <c r="BJ162" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="163" spans="1:62" ht="210.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A163" s="360" t="s">
+    <row r="163" spans="1:62" ht="210.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B163" s="361"/>
+      <c r="B163" s="331"/>
       <c r="C163" s="46" t="s">
         <v>223</v>
       </c>
@@ -48381,7 +48488,9 @@
       <c r="AR163" s="51"/>
       <c r="AS163" s="51"/>
       <c r="AT163" s="103"/>
-      <c r="AU163" s="61"/>
+      <c r="AU163" s="269" t="s">
+        <v>3162</v>
+      </c>
       <c r="AV163" s="160" t="s">
         <v>935</v>
       </c>
@@ -48418,19 +48527,19 @@
       <c r="BG163" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH163" s="394" t="s">
+      <c r="BH163" s="293" t="s">
         <v>2342</v>
       </c>
-      <c r="BI163" s="394"/>
+      <c r="BI163" s="293"/>
       <c r="BJ163" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="164" spans="1:62" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A164" s="360" t="s">
+    <row r="164" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A164" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B164" s="361"/>
+      <c r="B164" s="331"/>
       <c r="C164" s="46" t="s">
         <v>224</v>
       </c>
@@ -48562,19 +48671,19 @@
       <c r="BG164" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH164" s="291" t="s">
+      <c r="BH164" s="417" t="s">
         <v>2346</v>
       </c>
-      <c r="BI164" s="291"/>
+      <c r="BI164" s="417"/>
       <c r="BJ164" s="190" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="165" spans="1:62" ht="409.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A165" s="360" t="s">
+    <row r="165" spans="1:62" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="A165" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B165" s="361"/>
+      <c r="B165" s="331"/>
       <c r="C165" s="46" t="s">
         <v>226</v>
       </c>
@@ -48702,11 +48811,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="166" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A166" s="360" t="s">
+    <row r="166" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A166" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B166" s="361"/>
+      <c r="B166" s="331"/>
       <c r="C166" s="46" t="s">
         <v>228</v>
       </c>
@@ -48834,11 +48943,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="167" spans="1:62" s="112" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="370" t="s">
+    <row r="167" spans="1:62" s="112" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A167" s="346" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="371"/>
+      <c r="B167" s="347"/>
       <c r="C167" s="123" t="s">
         <v>469</v>
       </c>
@@ -48988,11 +49097,11 @@
       <c r="BI167" s="230"/>
       <c r="BJ167" s="230"/>
     </row>
-    <row r="168" spans="1:62" s="108" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="364" t="s">
+    <row r="168" spans="1:62" s="108" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="B168" s="365"/>
+      <c r="B168" s="345"/>
       <c r="C168" s="49" t="s">
         <v>229</v>
       </c>
@@ -49132,11 +49241,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="169" spans="1:62" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="360" t="s">
+    <row r="169" spans="1:62" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B169" s="361"/>
+      <c r="B169" s="331"/>
       <c r="C169" s="46" t="s">
         <v>231</v>
       </c>
@@ -49276,11 +49385,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="170" spans="1:62" ht="344.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="360" t="s">
+    <row r="170" spans="1:62" ht="344.25" x14ac:dyDescent="0.2">
+      <c r="A170" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B170" s="361"/>
+      <c r="B170" s="331"/>
       <c r="C170" s="46" t="s">
         <v>232</v>
       </c>
@@ -49420,11 +49529,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="171" spans="1:62" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="360" t="s">
+    <row r="171" spans="1:62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B171" s="361"/>
+      <c r="B171" s="331"/>
       <c r="C171" s="46" t="s">
         <v>233</v>
       </c>
@@ -49530,11 +49639,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="172" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="360" t="s">
+    <row r="172" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A172" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B172" s="361"/>
+      <c r="B172" s="331"/>
       <c r="C172" s="46" t="s">
         <v>234</v>
       </c>
@@ -49644,11 +49753,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="173" spans="1:62" ht="204" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="360" t="s">
+    <row r="173" spans="1:62" ht="204" x14ac:dyDescent="0.2">
+      <c r="A173" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B173" s="361"/>
+      <c r="B173" s="331"/>
       <c r="C173" s="46" t="s">
         <v>236</v>
       </c>
@@ -49780,11 +49889,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="174" spans="1:62" ht="178.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A174" s="360" t="s">
+    <row r="174" spans="1:62" ht="178.5" x14ac:dyDescent="0.2">
+      <c r="A174" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B174" s="361"/>
+      <c r="B174" s="331"/>
       <c r="C174" s="46" t="s">
         <v>238</v>
       </c>
@@ -49936,17 +50045,17 @@
       <c r="BG174" s="211" t="s">
         <v>3052</v>
       </c>
-      <c r="BH174" s="272" t="s">
+      <c r="BH174" s="282" t="s">
         <v>2719</v>
       </c>
-      <c r="BI174" s="273"/>
-      <c r="BJ174" s="274"/>
-    </row>
-    <row r="175" spans="1:62" s="92" customFormat="1" ht="51" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A175" s="362" t="s">
+      <c r="BI174" s="283"/>
+      <c r="BJ174" s="284"/>
+    </row>
+    <row r="175" spans="1:62" s="92" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A175" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B175" s="363"/>
+      <c r="B175" s="333"/>
       <c r="C175" s="48" t="s">
         <v>2800</v>
       </c>
@@ -50064,11 +50173,11 @@
       <c r="BI175" s="230"/>
       <c r="BJ175" s="230"/>
     </row>
-    <row r="176" spans="1:62" ht="171.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A176" s="360" t="s">
+    <row r="176" spans="1:62" ht="171.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B176" s="361"/>
+      <c r="B176" s="331"/>
       <c r="C176" s="46" t="s">
         <v>239</v>
       </c>
@@ -50208,11 +50317,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="177" spans="1:62" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="360" t="s">
+    <row r="177" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B177" s="361"/>
+      <c r="B177" s="331"/>
       <c r="C177" s="46" t="s">
         <v>240</v>
       </c>
@@ -50352,11 +50461,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="178" spans="1:62" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="360" t="s">
+    <row r="178" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A178" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B178" s="361"/>
+      <c r="B178" s="331"/>
       <c r="C178" s="46" t="s">
         <v>241</v>
       </c>
@@ -50496,11 +50605,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="179" spans="1:62" ht="140.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="360" t="s">
+    <row r="179" spans="1:62" ht="140.25" x14ac:dyDescent="0.2">
+      <c r="A179" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B179" s="361"/>
+      <c r="B179" s="331"/>
       <c r="C179" s="46" t="s">
         <v>242</v>
       </c>
@@ -50640,11 +50749,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="180" spans="1:62" ht="114.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A180" s="360" t="s">
+    <row r="180" spans="1:62" ht="114.75" x14ac:dyDescent="0.2">
+      <c r="A180" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B180" s="361"/>
+      <c r="B180" s="331"/>
       <c r="C180" s="46" t="s">
         <v>243</v>
       </c>
@@ -50782,11 +50891,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="181" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A181" s="360" t="s">
+    <row r="181" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A181" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B181" s="361"/>
+      <c r="B181" s="331"/>
       <c r="C181" s="46" t="s">
         <v>244</v>
       </c>
@@ -50926,11 +51035,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="182" spans="1:62" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="360" t="s">
+    <row r="182" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A182" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B182" s="361"/>
+      <c r="B182" s="331"/>
       <c r="C182" s="46" t="s">
         <v>245</v>
       </c>
@@ -51070,11 +51179,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="183" spans="1:62" s="92" customFormat="1" ht="57" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="362" t="s">
+    <row r="183" spans="1:62" s="92" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B183" s="363"/>
+      <c r="B183" s="333"/>
       <c r="C183" s="104" t="s">
         <v>487</v>
       </c>
@@ -51180,11 +51289,11 @@
       <c r="BI183" s="230"/>
       <c r="BJ183" s="230"/>
     </row>
-    <row r="184" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A184" s="360" t="s">
+    <row r="184" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A184" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B184" s="361"/>
+      <c r="B184" s="331"/>
       <c r="C184" s="46" t="s">
         <v>246</v>
       </c>
@@ -51316,11 +51425,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="185" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A185" s="360" t="s">
+    <row r="185" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A185" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B185" s="361"/>
+      <c r="B185" s="331"/>
       <c r="C185" s="46" t="s">
         <v>247</v>
       </c>
@@ -51452,11 +51561,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="186" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A186" s="360" t="s">
+    <row r="186" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A186" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B186" s="361"/>
+      <c r="B186" s="331"/>
       <c r="C186" s="46" t="s">
         <v>248</v>
       </c>
@@ -51588,11 +51697,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="187" spans="1:62" ht="357" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A187" s="360" t="s">
+    <row r="187" spans="1:62" ht="357" x14ac:dyDescent="0.2">
+      <c r="A187" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B187" s="361"/>
+      <c r="B187" s="331"/>
       <c r="C187" s="46" t="s">
         <v>249</v>
       </c>
@@ -51724,11 +51833,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="188" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A188" s="360" t="s">
+    <row r="188" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A188" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B188" s="361"/>
+      <c r="B188" s="331"/>
       <c r="C188" s="46" t="s">
         <v>250</v>
       </c>
@@ -51860,11 +51969,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="189" spans="1:62" ht="267.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A189" s="360" t="s">
+    <row r="189" spans="1:62" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A189" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B189" s="361"/>
+      <c r="B189" s="331"/>
       <c r="C189" s="46" t="s">
         <v>251</v>
       </c>
@@ -51988,11 +52097,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="190" spans="1:62" ht="293.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A190" s="360" t="s">
+    <row r="190" spans="1:62" ht="293.25" x14ac:dyDescent="0.2">
+      <c r="A190" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B190" s="361"/>
+      <c r="B190" s="331"/>
       <c r="C190" s="46" t="s">
         <v>252</v>
       </c>
@@ -52124,11 +52233,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="191" spans="1:62" ht="105.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A191" s="360" t="s">
+    <row r="191" spans="1:62" ht="105.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B191" s="361"/>
+      <c r="B191" s="331"/>
       <c r="C191" s="46" t="s">
         <v>253</v>
       </c>
@@ -52260,11 +52369,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="192" spans="1:62" ht="102" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A192" s="360" t="s">
+    <row r="192" spans="1:62" ht="102" x14ac:dyDescent="0.2">
+      <c r="A192" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B192" s="361"/>
+      <c r="B192" s="331"/>
       <c r="C192" s="46" t="s">
         <v>255</v>
       </c>
@@ -52386,11 +52495,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="193" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A193" s="360" t="s">
+    <row r="193" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A193" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B193" s="361"/>
+      <c r="B193" s="331"/>
       <c r="C193" s="46" t="s">
         <v>257</v>
       </c>
@@ -52496,11 +52605,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="194" spans="1:62" ht="165.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A194" s="360" t="s">
+    <row r="194" spans="1:62" ht="165.75" x14ac:dyDescent="0.2">
+      <c r="A194" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B194" s="361"/>
+      <c r="B194" s="331"/>
       <c r="C194" s="47" t="s">
         <v>2801</v>
       </c>
@@ -52616,11 +52725,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="195" spans="1:62" ht="127.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A195" s="360" t="s">
+    <row r="195" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
+      <c r="A195" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B195" s="361"/>
+      <c r="B195" s="331"/>
       <c r="C195" s="46" t="s">
         <v>259</v>
       </c>
@@ -52732,11 +52841,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="196" spans="1:62" ht="229.5" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="360" t="s">
+    <row r="196" spans="1:62" ht="229.5" x14ac:dyDescent="0.2">
+      <c r="A196" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B196" s="361"/>
+      <c r="B196" s="331"/>
       <c r="C196" s="46" t="s">
         <v>261</v>
       </c>
@@ -52840,11 +52949,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="197" spans="1:62" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A197" s="360" t="s">
+    <row r="197" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A197" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B197" s="361"/>
+      <c r="B197" s="331"/>
       <c r="C197" s="46" t="s">
         <v>262</v>
       </c>
@@ -52972,11 +53081,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="198" spans="1:62" ht="114.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A198" s="360" t="s">
+    <row r="198" spans="1:62" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B198" s="361"/>
+      <c r="B198" s="331"/>
       <c r="C198" s="46" t="s">
         <v>264</v>
       </c>
@@ -53104,11 +53213,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="199" spans="1:62" ht="191.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A199" s="360" t="s">
+    <row r="199" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
+      <c r="A199" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B199" s="361"/>
+      <c r="B199" s="331"/>
       <c r="C199" s="46" t="s">
         <v>265</v>
       </c>
@@ -53210,11 +53319,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="200" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A200" s="360" t="s">
+    <row r="200" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A200" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B200" s="361"/>
+      <c r="B200" s="331"/>
       <c r="C200" s="46" t="s">
         <v>266</v>
       </c>
@@ -53322,11 +53431,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="201" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A201" s="360" t="s">
+    <row r="201" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A201" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B201" s="361"/>
+      <c r="B201" s="331"/>
       <c r="C201" s="46" t="s">
         <v>268</v>
       </c>
@@ -53434,11 +53543,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="202" spans="1:62" ht="216.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A202" s="360" t="s">
+    <row r="202" spans="1:62" ht="216.75" x14ac:dyDescent="0.2">
+      <c r="A202" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B202" s="361"/>
+      <c r="B202" s="331"/>
       <c r="C202" s="46" t="s">
         <v>270</v>
       </c>
@@ -53546,11 +53655,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="203" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A203" s="360" t="s">
+    <row r="203" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A203" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B203" s="361"/>
+      <c r="B203" s="331"/>
       <c r="C203" s="47" t="s">
         <v>271</v>
       </c>
@@ -53680,11 +53789,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="204" spans="1:62" ht="153" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A204" s="360" t="s">
+    <row r="204" spans="1:62" ht="153" x14ac:dyDescent="0.2">
+      <c r="A204" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B204" s="361"/>
+      <c r="B204" s="331"/>
       <c r="C204" s="47" t="s">
         <v>272</v>
       </c>
@@ -53814,11 +53923,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="205" spans="1:62" s="92" customFormat="1" ht="69" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="362" t="s">
+    <row r="205" spans="1:62" s="92" customFormat="1" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B205" s="363"/>
+      <c r="B205" s="333"/>
       <c r="C205" s="48" t="s">
         <v>273</v>
       </c>
@@ -53916,11 +54025,11 @@
       <c r="BI205" s="230"/>
       <c r="BJ205" s="230"/>
     </row>
-    <row r="206" spans="1:62" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A206" s="360" t="s">
+    <row r="206" spans="1:62" ht="122.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B206" s="361"/>
+      <c r="B206" s="331"/>
       <c r="C206" s="47" t="s">
         <v>2349</v>
       </c>
@@ -54001,7 +54110,9 @@
       <c r="AT206" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU206" s="97"/>
+      <c r="AU206" s="97" t="s">
+        <v>3173</v>
+      </c>
       <c r="AV206" s="160"/>
       <c r="AW206" s="39" t="s">
         <v>855</v>
@@ -54036,19 +54147,19 @@
       <c r="BG206" s="245" t="s">
         <v>3053</v>
       </c>
-      <c r="BH206" s="292" t="s">
+      <c r="BH206" s="418" t="s">
         <v>2364</v>
       </c>
-      <c r="BI206" s="293"/>
+      <c r="BI206" s="279"/>
       <c r="BJ206" s="171" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="207" spans="1:62" ht="189.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A207" s="360" t="s">
+    <row r="207" spans="1:62" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B207" s="361"/>
+      <c r="B207" s="331"/>
       <c r="C207" s="47" t="s">
         <v>2348</v>
       </c>
@@ -54158,19 +54269,19 @@
       <c r="BG207" s="245" t="s">
         <v>3053</v>
       </c>
-      <c r="BH207" s="400" t="s">
+      <c r="BH207" s="278" t="s">
         <v>2361</v>
       </c>
-      <c r="BI207" s="293"/>
+      <c r="BI207" s="279"/>
       <c r="BJ207" s="171" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="208" spans="1:62" s="92" customFormat="1" ht="114.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A208" s="362" t="s">
+    <row r="208" spans="1:62" s="92" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B208" s="363"/>
+      <c r="B208" s="333"/>
       <c r="C208" s="104" t="s">
         <v>524</v>
       </c>
@@ -54262,11 +54373,11 @@
       <c r="BI208" s="230"/>
       <c r="BJ208" s="237"/>
     </row>
-    <row r="209" spans="1:64" ht="186.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A209" s="360" t="s">
+    <row r="209" spans="1:64" ht="186.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B209" s="361"/>
+      <c r="B209" s="331"/>
       <c r="C209" s="46" t="s">
         <v>274</v>
       </c>
@@ -54376,19 +54487,19 @@
       <c r="BG209" s="245" t="s">
         <v>3010</v>
       </c>
-      <c r="BH209" s="269" t="s">
+      <c r="BH209" s="272" t="s">
         <v>2362</v>
       </c>
-      <c r="BI209" s="271"/>
+      <c r="BI209" s="274"/>
       <c r="BJ209" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="210" spans="1:64" ht="187.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A210" s="360" t="s">
+    <row r="210" spans="1:64" ht="187.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B210" s="361"/>
+      <c r="B210" s="331"/>
       <c r="C210" s="46" t="s">
         <v>275</v>
       </c>
@@ -54463,7 +54574,9 @@
       <c r="AT210" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU210" s="97"/>
+      <c r="AU210" s="97" t="s">
+        <v>3170</v>
+      </c>
       <c r="AV210" s="160"/>
       <c r="AW210" s="39" t="s">
         <v>855</v>
@@ -54498,19 +54611,19 @@
       <c r="BG210" s="245" t="s">
         <v>3054</v>
       </c>
-      <c r="BH210" s="269" t="s">
+      <c r="BH210" s="272" t="s">
         <v>2652</v>
       </c>
-      <c r="BI210" s="271"/>
+      <c r="BI210" s="274"/>
       <c r="BJ210" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="211" spans="1:64" s="92" customFormat="1" ht="48.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A211" s="362" t="s">
+    <row r="211" spans="1:64" s="92" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B211" s="363"/>
+      <c r="B211" s="333"/>
       <c r="C211" s="104" t="s">
         <v>525</v>
       </c>
@@ -54610,11 +54723,11 @@
       <c r="BI211" s="230"/>
       <c r="BJ211" s="230"/>
     </row>
-    <row r="212" spans="1:64" ht="74.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A212" s="360" t="s">
+    <row r="212" spans="1:64" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B212" s="361"/>
+      <c r="B212" s="331"/>
       <c r="C212" s="46" t="s">
         <v>277</v>
       </c>
@@ -54720,17 +54833,17 @@
       <c r="BG212" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH212" s="269" t="s">
+      <c r="BH212" s="272" t="s">
         <v>2363</v>
       </c>
-      <c r="BI212" s="270"/>
-      <c r="BJ212" s="271"/>
-    </row>
-    <row r="213" spans="1:64" ht="60.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A213" s="360" t="s">
+      <c r="BI212" s="273"/>
+      <c r="BJ212" s="274"/>
+    </row>
+    <row r="213" spans="1:64" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B213" s="361"/>
+      <c r="B213" s="331"/>
       <c r="C213" s="46" t="s">
         <v>279</v>
       </c>
@@ -54836,17 +54949,17 @@
       <c r="BG213" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH213" s="288" t="s">
+      <c r="BH213" s="275" t="s">
         <v>2972</v>
       </c>
-      <c r="BI213" s="407"/>
-      <c r="BJ213" s="408"/>
-    </row>
-    <row r="214" spans="1:64" ht="183.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="360" t="s">
+      <c r="BI213" s="276"/>
+      <c r="BJ213" s="277"/>
+    </row>
+    <row r="214" spans="1:64" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B214" s="361"/>
+      <c r="B214" s="331"/>
       <c r="C214" s="46" t="s">
         <v>281</v>
       </c>
@@ -54921,7 +55034,9 @@
       <c r="AT214" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU214" s="97"/>
+      <c r="AU214" s="97" t="s">
+        <v>3171</v>
+      </c>
       <c r="AV214" s="160"/>
       <c r="AW214" s="39" t="s">
         <v>855</v>
@@ -54956,19 +55071,19 @@
       <c r="BG214" s="245" t="s">
         <v>3055</v>
       </c>
-      <c r="BH214" s="269" t="s">
+      <c r="BH214" s="272" t="s">
         <v>2677</v>
       </c>
-      <c r="BI214" s="271"/>
+      <c r="BI214" s="274"/>
       <c r="BJ214" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="215" spans="1:64" s="108" customFormat="1" ht="202.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A215" s="364" t="s">
+    <row r="215" spans="1:64" s="108" customFormat="1" ht="202.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="B215" s="365"/>
+      <c r="B215" s="345"/>
       <c r="C215" s="49" t="s">
         <v>282</v>
       </c>
@@ -55043,7 +55158,9 @@
       <c r="AT215" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="AU215" s="107"/>
+      <c r="AU215" s="107" t="s">
+        <v>3172</v>
+      </c>
       <c r="AV215" s="160"/>
       <c r="AW215" s="39" t="s">
         <v>855</v>
@@ -55078,19 +55195,19 @@
       <c r="BG215" s="245" t="s">
         <v>3056</v>
       </c>
-      <c r="BH215" s="269" t="s">
+      <c r="BH215" s="272" t="s">
         <v>2676</v>
       </c>
-      <c r="BI215" s="271"/>
+      <c r="BI215" s="274"/>
       <c r="BJ215" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="216" spans="1:64" s="92" customFormat="1" ht="39.950000000000003" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A216" s="362" t="s">
+    <row r="216" spans="1:64" s="92" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="B216" s="363"/>
+      <c r="B216" s="333"/>
       <c r="C216" s="104" t="s">
         <v>531</v>
       </c>
@@ -55178,11 +55295,11 @@
       <c r="BI216" s="230"/>
       <c r="BJ216" s="230"/>
     </row>
-    <row r="217" spans="1:64" ht="93" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A217" s="360" t="s">
+    <row r="217" spans="1:64" ht="376.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B217" s="361"/>
+      <c r="B217" s="331"/>
       <c r="C217" s="46" t="s">
         <v>283</v>
       </c>
@@ -55253,7 +55370,9 @@
       <c r="AR217" s="51"/>
       <c r="AS217" s="51"/>
       <c r="AT217" s="103"/>
-      <c r="AU217" s="61"/>
+      <c r="AU217" s="61" t="s">
+        <v>3167</v>
+      </c>
       <c r="AV217" s="160"/>
       <c r="AW217" s="39" t="s">
         <v>855</v>
@@ -55288,17 +55407,17 @@
       <c r="BG217" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH217" s="315" t="s">
+      <c r="BH217" s="395" t="s">
         <v>2973</v>
       </c>
       <c r="BI217" s="178"/>
       <c r="BJ217" s="179"/>
     </row>
-    <row r="218" spans="1:64" ht="152.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="360" t="s">
+    <row r="218" spans="1:64" ht="152.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B218" s="361"/>
+      <c r="B218" s="331"/>
       <c r="C218" s="47" t="s">
         <v>284</v>
       </c>
@@ -55404,15 +55523,15 @@
       <c r="BG218" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH218" s="316"/>
+      <c r="BH218" s="396"/>
       <c r="BI218" s="180"/>
       <c r="BJ218" s="181"/>
     </row>
-    <row r="219" spans="1:64" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="360" t="s">
+    <row r="219" spans="1:64" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A219" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B219" s="361"/>
+      <c r="B219" s="331"/>
       <c r="C219" s="46" t="s">
         <v>285</v>
       </c>
@@ -55506,7 +55625,7 @@
       <c r="BG219" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH219" s="316"/>
+      <c r="BH219" s="396"/>
       <c r="BI219" s="172" t="s">
         <v>855</v>
       </c>
@@ -55514,11 +55633,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="220" spans="1:64" ht="89.25" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="360" t="s">
+    <row r="220" spans="1:64" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A220" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B220" s="361"/>
+      <c r="B220" s="331"/>
       <c r="C220" s="46" t="s">
         <v>286</v>
       </c>
@@ -55612,7 +55731,7 @@
       <c r="BG220" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH220" s="316"/>
+      <c r="BH220" s="396"/>
       <c r="BI220" s="172" t="s">
         <v>855</v>
       </c>
@@ -55620,11 +55739,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="221" spans="1:64" s="92" customFormat="1" ht="81.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="362" t="s">
+    <row r="221" spans="1:64" s="92" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B221" s="363"/>
+      <c r="B221" s="333"/>
       <c r="C221" s="48" t="s">
         <v>2802</v>
       </c>
@@ -55724,15 +55843,15 @@
       <c r="BE221" s="235"/>
       <c r="BF221" s="235"/>
       <c r="BG221" s="248"/>
-      <c r="BH221" s="317"/>
+      <c r="BH221" s="397"/>
       <c r="BI221" s="230"/>
       <c r="BJ221" s="230"/>
     </row>
-    <row r="222" spans="1:64" ht="270.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="360" t="s">
+    <row r="222" spans="1:64" ht="270.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B222" s="361"/>
+      <c r="B222" s="331"/>
       <c r="C222" s="47" t="s">
         <v>2803</v>
       </c>
@@ -55817,8 +55936,12 @@
       <c r="AT222" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AU222" s="97"/>
-      <c r="AV222" s="127"/>
+      <c r="AU222" s="271" t="s">
+        <v>3158</v>
+      </c>
+      <c r="AV222" s="127" t="s">
+        <v>3157</v>
+      </c>
       <c r="AW222" s="39" t="s">
         <v>855</v>
       </c>
@@ -55852,19 +55975,19 @@
       <c r="BG222" s="247" t="s">
         <v>3057</v>
       </c>
-      <c r="BH222" s="269" t="s">
+      <c r="BH222" s="272" t="s">
         <v>2742</v>
       </c>
-      <c r="BI222" s="270"/>
-      <c r="BJ222" s="271"/>
+      <c r="BI222" s="273"/>
+      <c r="BJ222" s="274"/>
       <c r="BK222" s="187"/>
       <c r="BL222" s="188"/>
     </row>
-    <row r="223" spans="1:64" ht="102" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="360" t="s">
+    <row r="223" spans="1:64" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B223" s="361"/>
+      <c r="B223" s="331"/>
       <c r="C223" s="46" t="s">
         <v>289</v>
       </c>
@@ -55945,7 +56068,9 @@
       <c r="AT223" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AU223" s="97"/>
+      <c r="AU223" s="271" t="s">
+        <v>3159</v>
+      </c>
       <c r="AV223" s="127"/>
       <c r="AW223" s="39" t="s">
         <v>855</v>
@@ -55980,19 +56105,19 @@
       <c r="BG223" s="249" t="s">
         <v>3058</v>
       </c>
-      <c r="BH223" s="269" t="s">
+      <c r="BH223" s="272" t="s">
         <v>2743</v>
       </c>
-      <c r="BI223" s="271"/>
+      <c r="BI223" s="274"/>
       <c r="BJ223" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="224" spans="1:64" ht="146.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="360" t="s">
+    <row r="224" spans="1:64" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B224" s="361"/>
+      <c r="B224" s="331"/>
       <c r="C224" s="46" t="s">
         <v>290</v>
       </c>
@@ -56106,17 +56231,17 @@
       <c r="BG224" s="249" t="s">
         <v>3059</v>
       </c>
-      <c r="BH224" s="269" t="s">
+      <c r="BH224" s="272" t="s">
         <v>2744</v>
       </c>
-      <c r="BI224" s="270"/>
-      <c r="BJ224" s="271"/>
-    </row>
-    <row r="225" spans="1:63" ht="139.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="360" t="s">
+      <c r="BI224" s="273"/>
+      <c r="BJ224" s="274"/>
+    </row>
+    <row r="225" spans="1:63" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B225" s="361"/>
+      <c r="B225" s="331"/>
       <c r="C225" s="46" t="s">
         <v>292</v>
       </c>
@@ -56177,7 +56302,7 @@
       <c r="AT225" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU225" s="415" t="s">
+      <c r="AU225" s="268" t="s">
         <v>3150</v>
       </c>
       <c r="AV225" s="127"/>
@@ -56214,19 +56339,19 @@
       <c r="BG225" s="249" t="s">
         <v>3060</v>
       </c>
-      <c r="BH225" s="269" t="s">
+      <c r="BH225" s="272" t="s">
         <v>2726</v>
       </c>
-      <c r="BI225" s="309"/>
+      <c r="BI225" s="389"/>
       <c r="BJ225" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="226" spans="1:63" ht="114.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="360" t="s">
+    <row r="226" spans="1:63" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B226" s="361"/>
+      <c r="B226" s="331"/>
       <c r="C226" s="46" t="s">
         <v>293</v>
       </c>
@@ -56324,19 +56449,19 @@
       <c r="BG226" s="249" t="s">
         <v>3061</v>
       </c>
-      <c r="BH226" s="269" t="s">
+      <c r="BH226" s="272" t="s">
         <v>2966</v>
       </c>
-      <c r="BI226" s="309"/>
+      <c r="BI226" s="389"/>
       <c r="BJ226" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="227" spans="1:63" ht="134.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="360" t="s">
+    <row r="227" spans="1:63" ht="134.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B227" s="361"/>
+      <c r="B227" s="331"/>
       <c r="C227" s="46" t="s">
         <v>294</v>
       </c>
@@ -56434,19 +56559,19 @@
       <c r="BG227" s="249" t="s">
         <v>3062</v>
       </c>
-      <c r="BH227" s="269" t="s">
+      <c r="BH227" s="272" t="s">
         <v>2968</v>
       </c>
-      <c r="BI227" s="309"/>
+      <c r="BI227" s="389"/>
       <c r="BJ227" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="228" spans="1:63" ht="97.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="360" t="s">
+    <row r="228" spans="1:63" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B228" s="361"/>
+      <c r="B228" s="331"/>
       <c r="C228" s="46" t="s">
         <v>295</v>
       </c>
@@ -56517,7 +56642,7 @@
       <c r="AR228" s="51"/>
       <c r="AS228" s="51"/>
       <c r="AT228" s="103"/>
-      <c r="AU228" s="416" t="s">
+      <c r="AU228" s="269" t="s">
         <v>3153</v>
       </c>
       <c r="AV228" s="82"/>
@@ -56554,17 +56679,17 @@
       <c r="BG228" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH228" s="269" t="s">
+      <c r="BH228" s="272" t="s">
         <v>2727</v>
       </c>
-      <c r="BI228" s="270"/>
-      <c r="BJ228" s="271"/>
-    </row>
-    <row r="229" spans="1:63" ht="178.9" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="360" t="s">
+      <c r="BI228" s="273"/>
+      <c r="BJ228" s="274"/>
+    </row>
+    <row r="229" spans="1:63" ht="178.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B229" s="361"/>
+      <c r="B229" s="331"/>
       <c r="C229" s="46" t="s">
         <v>297</v>
       </c>
@@ -56667,11 +56792,11 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="230" spans="1:63" s="92" customFormat="1" ht="58.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="362" t="s">
+    <row r="230" spans="1:63" s="92" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="B230" s="363"/>
+      <c r="B230" s="333"/>
       <c r="C230" s="104" t="s">
         <v>546</v>
       </c>
@@ -56769,11 +56894,11 @@
       <c r="BI230" s="230"/>
       <c r="BJ230" s="230"/>
     </row>
-    <row r="231" spans="1:63" ht="118.15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="360" t="s">
+    <row r="231" spans="1:63" ht="118.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B231" s="361"/>
+      <c r="B231" s="331"/>
       <c r="C231" s="46" t="s">
         <v>299</v>
       </c>
@@ -56891,10 +57016,10 @@
       <c r="BG231" s="250" t="s">
         <v>3063</v>
       </c>
-      <c r="BH231" s="269" t="s">
+      <c r="BH231" s="272" t="s">
         <v>2969</v>
       </c>
-      <c r="BI231" s="271"/>
+      <c r="BI231" s="274"/>
       <c r="BJ231" s="172" t="s">
         <v>855</v>
       </c>
@@ -56902,11 +57027,11 @@
         <v>2729</v>
       </c>
     </row>
-    <row r="232" spans="1:63" ht="165.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="360" t="s">
+    <row r="232" spans="1:63" ht="165.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B232" s="361"/>
+      <c r="B232" s="331"/>
       <c r="C232" s="46" t="s">
         <v>300</v>
       </c>
@@ -57019,23 +57144,23 @@
       <c r="BF232" s="70" t="s">
         <v>855</v>
       </c>
-      <c r="BG232" s="405" t="s">
+      <c r="BG232" s="287" t="s">
         <v>3064</v>
       </c>
-      <c r="BH232" s="284" t="s">
+      <c r="BH232" s="413" t="s">
         <v>2970</v>
       </c>
-      <c r="BI232" s="285"/>
+      <c r="BI232" s="414"/>
       <c r="BJ232" s="172" t="s">
         <v>855</v>
       </c>
       <c r="BK232" s="193"/>
     </row>
-    <row r="233" spans="1:63" ht="107.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="360" t="s">
+    <row r="233" spans="1:63" ht="107.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B233" s="361"/>
+      <c r="B233" s="331"/>
       <c r="C233" s="46" t="s">
         <v>301</v>
       </c>
@@ -57148,18 +57273,18 @@
       <c r="BF233" s="70" t="s">
         <v>855</v>
       </c>
-      <c r="BG233" s="406"/>
-      <c r="BH233" s="286"/>
-      <c r="BI233" s="287"/>
+      <c r="BG233" s="288"/>
+      <c r="BH233" s="415"/>
+      <c r="BI233" s="416"/>
       <c r="BJ233" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="234" spans="1:63" ht="168" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="360" t="s">
+    <row r="234" spans="1:63" ht="168" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B234" s="361"/>
+      <c r="B234" s="331"/>
       <c r="C234" s="46" t="s">
         <v>302</v>
       </c>
@@ -57272,22 +57397,22 @@
       <c r="BF234" s="70" t="s">
         <v>855</v>
       </c>
-      <c r="BG234" s="405" t="s">
+      <c r="BG234" s="287" t="s">
         <v>3065</v>
       </c>
-      <c r="BH234" s="284" t="s">
+      <c r="BH234" s="413" t="s">
         <v>3007</v>
       </c>
-      <c r="BI234" s="285"/>
+      <c r="BI234" s="414"/>
       <c r="BJ234" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="235" spans="1:63" ht="87" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="360" t="s">
+    <row r="235" spans="1:63" ht="87" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B235" s="361"/>
+      <c r="B235" s="331"/>
       <c r="C235" s="46" t="s">
         <v>303</v>
       </c>
@@ -57400,18 +57525,18 @@
       <c r="BF235" s="70" t="s">
         <v>855</v>
       </c>
-      <c r="BG235" s="406"/>
-      <c r="BH235" s="286"/>
-      <c r="BI235" s="287"/>
+      <c r="BG235" s="288"/>
+      <c r="BH235" s="415"/>
+      <c r="BI235" s="416"/>
       <c r="BJ235" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="236" spans="1:63" ht="86.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="360" t="s">
+    <row r="236" spans="1:63" ht="86.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B236" s="361"/>
+      <c r="B236" s="331"/>
       <c r="C236" s="46" t="s">
         <v>304</v>
       </c>
@@ -57527,19 +57652,19 @@
       <c r="BG236" s="246" t="s">
         <v>3066</v>
       </c>
-      <c r="BH236" s="269" t="s">
+      <c r="BH236" s="272" t="s">
         <v>2350</v>
       </c>
-      <c r="BI236" s="309"/>
+      <c r="BI236" s="389"/>
       <c r="BJ236" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="237" spans="1:63" s="92" customFormat="1" ht="114.95" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A237" s="362" t="s">
+    <row r="237" spans="1:63" s="92" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="332" t="s">
         <v>14</v>
       </c>
-      <c r="B237" s="363"/>
+      <c r="B237" s="333"/>
       <c r="C237" s="48" t="s">
         <v>2804</v>
       </c>
@@ -57641,11 +57766,11 @@
       <c r="BI237" s="230"/>
       <c r="BJ237" s="230"/>
     </row>
-    <row r="238" spans="1:63" ht="124.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A238" s="360" t="s">
+    <row r="238" spans="1:63" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B238" s="361"/>
+      <c r="B238" s="331"/>
       <c r="C238" s="46" t="s">
         <v>306</v>
       </c>
@@ -57726,7 +57851,7 @@
       <c r="AT238" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AU238" s="412"/>
+      <c r="AU238" s="265"/>
       <c r="AV238" s="168"/>
       <c r="AW238" s="39" t="s">
         <v>855</v>
@@ -57761,19 +57886,19 @@
       <c r="BG238" s="250" t="s">
         <v>3067</v>
       </c>
-      <c r="BH238" s="310" t="s">
+      <c r="BH238" s="383" t="s">
         <v>2351</v>
       </c>
-      <c r="BI238" s="311"/>
+      <c r="BI238" s="385"/>
       <c r="BJ238" s="172" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="239" spans="1:63" ht="156.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="360" t="s">
+    <row r="239" spans="1:63" ht="156.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B239" s="361"/>
+      <c r="B239" s="331"/>
       <c r="C239" s="47" t="s">
         <v>2805</v>
       </c>
@@ -57858,7 +57983,7 @@
       <c r="AT239" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AU239" s="412" t="s">
+      <c r="AU239" s="265" t="s">
         <v>3143</v>
       </c>
       <c r="AV239" s="168"/>
@@ -57895,17 +58020,17 @@
       <c r="BG239" s="249" t="s">
         <v>3068</v>
       </c>
-      <c r="BH239" s="312" t="s">
+      <c r="BH239" s="380" t="s">
         <v>3005</v>
       </c>
-      <c r="BI239" s="313"/>
-      <c r="BJ239" s="314"/>
-    </row>
-    <row r="240" spans="1:63" ht="138" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="360" t="s">
+      <c r="BI239" s="381"/>
+      <c r="BJ239" s="382"/>
+    </row>
+    <row r="240" spans="1:63" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B240" s="361"/>
+      <c r="B240" s="331"/>
       <c r="C240" s="46" t="s">
         <v>309</v>
       </c>
@@ -57990,7 +58115,7 @@
       <c r="AT240" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU240" s="412" t="s">
+      <c r="AU240" s="265" t="s">
         <v>3144</v>
       </c>
       <c r="AV240" s="168"/>
@@ -58027,17 +58152,17 @@
       <c r="BG240" s="249" t="s">
         <v>3069</v>
       </c>
-      <c r="BH240" s="312" t="s">
+      <c r="BH240" s="380" t="s">
         <v>2352</v>
       </c>
-      <c r="BI240" s="313"/>
-      <c r="BJ240" s="314"/>
-    </row>
-    <row r="241" spans="1:63" ht="103.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="360" t="s">
+      <c r="BI240" s="381"/>
+      <c r="BJ240" s="382"/>
+    </row>
+    <row r="241" spans="1:63" ht="103.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B241" s="361"/>
+      <c r="B241" s="331"/>
       <c r="C241" s="47" t="s">
         <v>2806</v>
       </c>
@@ -58123,7 +58248,7 @@
         <v>32</v>
       </c>
       <c r="AU241" s="97"/>
-      <c r="AV241" s="412" t="s">
+      <c r="AV241" s="265" t="s">
         <v>3145</v>
       </c>
       <c r="AW241" s="39" t="s">
@@ -58159,17 +58284,17 @@
       <c r="BG241" s="246" t="s">
         <v>3128</v>
       </c>
-      <c r="BH241" s="310" t="s">
+      <c r="BH241" s="383" t="s">
         <v>2353</v>
       </c>
-      <c r="BI241" s="318"/>
-      <c r="BJ241" s="311"/>
-    </row>
-    <row r="242" spans="1:63" ht="267.75" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="360" t="s">
+      <c r="BI241" s="384"/>
+      <c r="BJ241" s="385"/>
+    </row>
+    <row r="242" spans="1:63" ht="267.75" x14ac:dyDescent="0.2">
+      <c r="A242" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B242" s="361"/>
+      <c r="B242" s="331"/>
       <c r="C242" s="46" t="s">
         <v>312</v>
       </c>
@@ -58246,10 +58371,10 @@
       <c r="AT242" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AU242" s="412" t="s">
+      <c r="AU242" s="265" t="s">
         <v>3146</v>
       </c>
-      <c r="AV242" s="412" t="s">
+      <c r="AV242" s="265" t="s">
         <v>3147</v>
       </c>
       <c r="AW242" s="39" t="s">
@@ -58285,17 +58410,17 @@
       <c r="BG242" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH242" s="310" t="s">
+      <c r="BH242" s="383" t="s">
         <v>3006</v>
       </c>
-      <c r="BI242" s="319"/>
-      <c r="BJ242" s="320"/>
+      <c r="BI242" s="386"/>
+      <c r="BJ242" s="387"/>
     </row>
     <row r="243" spans="1:63" ht="408" x14ac:dyDescent="0.2">
-      <c r="A243" s="360" t="s">
+      <c r="A243" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B243" s="361"/>
+      <c r="B243" s="331"/>
       <c r="C243" s="46" t="s">
         <v>313</v>
       </c>
@@ -58362,10 +58487,10 @@
       <c r="AR243" s="51"/>
       <c r="AS243" s="51"/>
       <c r="AT243" s="103"/>
-      <c r="AU243" s="414" t="s">
+      <c r="AU243" s="267" t="s">
         <v>3148</v>
       </c>
-      <c r="AV243" s="412" t="s">
+      <c r="AV243" s="265" t="s">
         <v>3149</v>
       </c>
       <c r="AW243" s="39" t="s">
@@ -58401,19 +58526,19 @@
       <c r="BG243" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH243" s="310" t="s">
+      <c r="BH243" s="383" t="s">
         <v>3126</v>
       </c>
-      <c r="BI243" s="320"/>
+      <c r="BI243" s="387"/>
       <c r="BJ243" s="172" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="244" spans="1:63" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A244" s="360" t="s">
+      <c r="A244" s="330" t="s">
         <v>59</v>
       </c>
-      <c r="B244" s="361"/>
+      <c r="B244" s="331"/>
       <c r="C244" s="46" t="s">
         <v>314</v>
       </c>
@@ -58490,7 +58615,7 @@
       <c r="AT244" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU244" s="413" t="s">
+      <c r="AU244" s="266" t="s">
         <v>3156</v>
       </c>
       <c r="AV244" s="168"/>
@@ -58527,17 +58652,17 @@
       <c r="BG244" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH244" s="288" t="s">
+      <c r="BH244" s="275" t="s">
         <v>2354</v>
       </c>
-      <c r="BI244" s="289"/>
-      <c r="BJ244" s="290"/>
+      <c r="BI244" s="285"/>
+      <c r="BJ244" s="286"/>
     </row>
     <row r="245" spans="1:63" s="92" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A245" s="362" t="s">
+      <c r="A245" s="332" t="s">
         <v>59</v>
       </c>
-      <c r="B245" s="363"/>
+      <c r="B245" s="333"/>
       <c r="C245" s="48" t="s">
         <v>2807</v>
       </c>
@@ -58640,10 +58765,10 @@
       <c r="BJ245" s="230"/>
     </row>
     <row r="246" spans="1:63" ht="115.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A246" s="360" t="s">
+      <c r="A246" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B246" s="361"/>
+      <c r="B246" s="331"/>
       <c r="C246" s="47" t="s">
         <v>317</v>
       </c>
@@ -58728,7 +58853,7 @@
       <c r="AT246" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU246" s="417" t="s">
+      <c r="AU246" s="270" t="s">
         <v>3155</v>
       </c>
       <c r="AV246" s="168"/>
@@ -58763,17 +58888,17 @@
         <v>855</v>
       </c>
       <c r="BG246" s="212"/>
-      <c r="BH246" s="269" t="s">
+      <c r="BH246" s="272" t="s">
         <v>3127</v>
       </c>
-      <c r="BI246" s="321"/>
-      <c r="BJ246" s="309"/>
+      <c r="BI246" s="388"/>
+      <c r="BJ246" s="389"/>
     </row>
     <row r="247" spans="1:63" ht="96.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A247" s="360" t="s">
+      <c r="A247" s="330" t="s">
         <v>210</v>
       </c>
-      <c r="B247" s="361"/>
+      <c r="B247" s="331"/>
       <c r="C247" s="47" t="s">
         <v>2808</v>
       </c>
@@ -58858,7 +58983,7 @@
       <c r="AT247" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU247" s="409"/>
+      <c r="AU247" s="264"/>
       <c r="AV247" s="168"/>
       <c r="AW247" s="39" t="s">
         <v>855</v>
@@ -58891,17 +59016,17 @@
         <v>855</v>
       </c>
       <c r="BG247" s="212"/>
-      <c r="BH247" s="269" t="s">
+      <c r="BH247" s="272" t="s">
         <v>3136</v>
       </c>
-      <c r="BI247" s="321"/>
-      <c r="BJ247" s="309"/>
+      <c r="BI247" s="388"/>
+      <c r="BJ247" s="389"/>
     </row>
     <row r="248" spans="1:63" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A248" s="362" t="s">
+      <c r="A248" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B248" s="363"/>
+      <c r="B248" s="333"/>
       <c r="C248" s="48" t="s">
         <v>2809</v>
       </c>
@@ -59040,10 +59165,10 @@
       <c r="BJ248" s="230"/>
     </row>
     <row r="249" spans="1:63" ht="158.44999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A249" s="360" t="s">
+      <c r="A249" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B249" s="361"/>
+      <c r="B249" s="331"/>
       <c r="C249" s="47" t="s">
         <v>633</v>
       </c>
@@ -59164,7 +59289,7 @@
       <c r="AT249" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="AU249" s="411" t="s">
+      <c r="AU249" s="280" t="s">
         <v>3142</v>
       </c>
       <c r="AV249" s="168"/>
@@ -59199,17 +59324,17 @@
         <v>2997</v>
       </c>
       <c r="BG249" s="212"/>
-      <c r="BH249" s="269" t="s">
+      <c r="BH249" s="272" t="s">
         <v>3137</v>
       </c>
-      <c r="BI249" s="270"/>
-      <c r="BJ249" s="271"/>
+      <c r="BI249" s="273"/>
+      <c r="BJ249" s="274"/>
     </row>
     <row r="250" spans="1:63" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A250" s="360" t="s">
+      <c r="A250" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B250" s="361"/>
+      <c r="B250" s="331"/>
       <c r="C250" s="46" t="s">
         <v>320</v>
       </c>
@@ -59330,7 +59455,7 @@
       <c r="AT250" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU250" s="410"/>
+      <c r="AU250" s="281"/>
       <c r="AV250" s="160" t="s">
         <v>833</v>
       </c>
@@ -59361,17 +59486,17 @@
         <v>2634</v>
       </c>
       <c r="BG250" s="211"/>
-      <c r="BH250" s="288" t="s">
+      <c r="BH250" s="275" t="s">
         <v>3141</v>
       </c>
-      <c r="BI250" s="273"/>
-      <c r="BJ250" s="274"/>
+      <c r="BI250" s="283"/>
+      <c r="BJ250" s="284"/>
     </row>
     <row r="251" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A251" s="360" t="s">
+      <c r="A251" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B251" s="361"/>
+      <c r="B251" s="331"/>
       <c r="C251" s="46" t="s">
         <v>321</v>
       </c>
@@ -59492,7 +59617,7 @@
       <c r="AT251" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU251" s="410"/>
+      <c r="AU251" s="281"/>
       <c r="AV251" s="161" t="s">
         <v>834</v>
       </c>
@@ -59525,17 +59650,17 @@
       <c r="BG251" s="245" t="s">
         <v>3129</v>
       </c>
-      <c r="BH251" s="272" t="s">
+      <c r="BH251" s="282" t="s">
         <v>2720</v>
       </c>
-      <c r="BI251" s="273"/>
-      <c r="BJ251" s="274"/>
+      <c r="BI251" s="283"/>
+      <c r="BJ251" s="284"/>
     </row>
     <row r="252" spans="1:63" ht="178.5" x14ac:dyDescent="0.2">
-      <c r="A252" s="360" t="s">
+      <c r="A252" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B252" s="361"/>
+      <c r="B252" s="331"/>
       <c r="C252" s="46" t="s">
         <v>322</v>
       </c>
@@ -59656,7 +59781,7 @@
       <c r="AT252" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU252" s="410"/>
+      <c r="AU252" s="281"/>
       <c r="AV252" s="161" t="s">
         <v>835</v>
       </c>
@@ -59687,20 +59812,20 @@
         <v>2636</v>
       </c>
       <c r="BG252" s="208"/>
-      <c r="BH252" s="288" t="s">
+      <c r="BH252" s="275" t="s">
         <v>3138</v>
       </c>
-      <c r="BI252" s="273"/>
-      <c r="BJ252" s="274"/>
+      <c r="BI252" s="283"/>
+      <c r="BJ252" s="284"/>
       <c r="BK252" s="188" t="s">
         <v>2998</v>
       </c>
     </row>
     <row r="253" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A253" s="360" t="s">
+      <c r="A253" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B253" s="361"/>
+      <c r="B253" s="331"/>
       <c r="C253" s="46" t="s">
         <v>323</v>
       </c>
@@ -59821,7 +59946,7 @@
       <c r="AT253" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU253" s="410"/>
+      <c r="AU253" s="281"/>
       <c r="AV253" s="161" t="s">
         <v>836</v>
       </c>
@@ -59852,17 +59977,17 @@
         <v>2637</v>
       </c>
       <c r="BG253" s="208"/>
-      <c r="BH253" s="288" t="s">
+      <c r="BH253" s="275" t="s">
         <v>3140</v>
       </c>
-      <c r="BI253" s="289"/>
-      <c r="BJ253" s="290"/>
+      <c r="BI253" s="285"/>
+      <c r="BJ253" s="286"/>
     </row>
     <row r="254" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A254" s="360" t="s">
+      <c r="A254" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B254" s="361"/>
+      <c r="B254" s="331"/>
       <c r="C254" s="46" t="s">
         <v>324</v>
       </c>
@@ -59983,7 +60108,7 @@
       <c r="AT254" s="96" t="s">
         <v>32</v>
       </c>
-      <c r="AU254" s="410"/>
+      <c r="AU254" s="281"/>
       <c r="AV254" s="161" t="s">
         <v>837</v>
       </c>
@@ -60014,17 +60139,17 @@
         <v>2638</v>
       </c>
       <c r="BG254" s="208"/>
-      <c r="BH254" s="288" t="s">
+      <c r="BH254" s="275" t="s">
         <v>3139</v>
       </c>
-      <c r="BI254" s="289"/>
-      <c r="BJ254" s="290"/>
+      <c r="BI254" s="285"/>
+      <c r="BJ254" s="286"/>
     </row>
     <row r="255" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A255" s="360" t="s">
+      <c r="A255" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B255" s="361"/>
+      <c r="B255" s="331"/>
       <c r="C255" s="46" t="s">
         <v>325</v>
       </c>
@@ -60135,10 +60260,10 @@
       </c>
     </row>
     <row r="256" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="360" t="s">
+      <c r="A256" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B256" s="361"/>
+      <c r="B256" s="331"/>
       <c r="C256" s="46" t="s">
         <v>327</v>
       </c>
@@ -60249,10 +60374,10 @@
       </c>
     </row>
     <row r="257" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A257" s="360" t="s">
+      <c r="A257" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B257" s="361"/>
+      <c r="B257" s="331"/>
       <c r="C257" s="46" t="s">
         <v>329</v>
       </c>
@@ -60363,10 +60488,10 @@
       </c>
     </row>
     <row r="258" spans="1:62" ht="191.25" x14ac:dyDescent="0.2">
-      <c r="A258" s="360" t="s">
+      <c r="A258" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B258" s="361"/>
+      <c r="B258" s="331"/>
       <c r="C258" s="46" t="s">
         <v>331</v>
       </c>
@@ -60518,17 +60643,17 @@
         <v>2639</v>
       </c>
       <c r="BG258" s="208"/>
-      <c r="BH258" s="272" t="s">
+      <c r="BH258" s="282" t="s">
         <v>2722</v>
       </c>
-      <c r="BI258" s="273"/>
-      <c r="BJ258" s="274"/>
+      <c r="BI258" s="283"/>
+      <c r="BJ258" s="284"/>
     </row>
     <row r="259" spans="1:62" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A259" s="360" t="s">
+      <c r="A259" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B259" s="361"/>
+      <c r="B259" s="331"/>
       <c r="C259" s="46" t="s">
         <v>332</v>
       </c>
@@ -60680,17 +60805,17 @@
         <v>2639</v>
       </c>
       <c r="BG259" s="208"/>
-      <c r="BH259" s="272" t="s">
+      <c r="BH259" s="282" t="s">
         <v>2723</v>
       </c>
-      <c r="BI259" s="273"/>
-      <c r="BJ259" s="274"/>
+      <c r="BI259" s="283"/>
+      <c r="BJ259" s="284"/>
     </row>
     <row r="260" spans="1:62" s="135" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A260" s="368" t="s">
+      <c r="A260" s="348" t="s">
         <v>9</v>
       </c>
-      <c r="B260" s="369"/>
+      <c r="B260" s="349"/>
       <c r="C260" s="129" t="s">
         <v>2812</v>
       </c>
@@ -60805,10 +60930,10 @@
       <c r="BJ260" s="240"/>
     </row>
     <row r="261" spans="1:62" s="140" customFormat="1" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A261" s="366" t="s">
+      <c r="A261" s="350" t="s">
         <v>14</v>
       </c>
-      <c r="B261" s="367"/>
+      <c r="B261" s="351"/>
       <c r="C261" s="136" t="s">
         <v>333</v>
       </c>
@@ -60920,17 +61045,17 @@
       <c r="BG261" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH261" s="322" t="s">
+      <c r="BH261" s="390" t="s">
         <v>2747</v>
       </c>
-      <c r="BI261" s="323"/>
-      <c r="BJ261" s="324"/>
+      <c r="BI261" s="391"/>
+      <c r="BJ261" s="392"/>
     </row>
     <row r="262" spans="1:62" s="135" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A262" s="368" t="s">
+      <c r="A262" s="348" t="s">
         <v>14</v>
       </c>
-      <c r="B262" s="369"/>
+      <c r="B262" s="349"/>
       <c r="C262" s="129" t="s">
         <v>2813</v>
       </c>
@@ -61045,10 +61170,10 @@
       <c r="BJ262" s="240"/>
     </row>
     <row r="263" spans="1:62" s="108" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A263" s="364" t="s">
+      <c r="A263" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="B263" s="365"/>
+      <c r="B263" s="345"/>
       <c r="C263" s="49" t="s">
         <v>334</v>
       </c>
@@ -61160,17 +61285,17 @@
       <c r="BG263" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH263" s="322" t="s">
+      <c r="BH263" s="390" t="s">
         <v>2746</v>
       </c>
-      <c r="BI263" s="323"/>
-      <c r="BJ263" s="324"/>
+      <c r="BI263" s="391"/>
+      <c r="BJ263" s="392"/>
     </row>
     <row r="264" spans="1:62" s="108" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A264" s="364" t="s">
+      <c r="A264" s="344" t="s">
         <v>59</v>
       </c>
-      <c r="B264" s="365"/>
+      <c r="B264" s="345"/>
       <c r="C264" s="49" t="s">
         <v>335</v>
       </c>
@@ -61282,17 +61407,17 @@
       <c r="BG264" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH264" s="322" t="s">
+      <c r="BH264" s="390" t="s">
         <v>2745</v>
       </c>
-      <c r="BI264" s="323"/>
-      <c r="BJ264" s="324"/>
+      <c r="BI264" s="391"/>
+      <c r="BJ264" s="392"/>
     </row>
     <row r="265" spans="1:62" s="92" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A265" s="362" t="s">
+      <c r="A265" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B265" s="363"/>
+      <c r="B265" s="333"/>
       <c r="C265" s="104" t="s">
         <v>569</v>
       </c>
@@ -61435,10 +61560,10 @@
       <c r="BJ265" s="230"/>
     </row>
     <row r="266" spans="1:62" ht="242.25" x14ac:dyDescent="0.2">
-      <c r="A266" s="360" t="s">
+      <c r="A266" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B266" s="361"/>
+      <c r="B266" s="331"/>
       <c r="C266" s="47" t="s">
         <v>336</v>
       </c>
@@ -61571,10 +61696,10 @@
       </c>
     </row>
     <row r="267" spans="1:62" ht="229.5" x14ac:dyDescent="0.2">
-      <c r="A267" s="360" t="s">
+      <c r="A267" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B267" s="361"/>
+      <c r="B267" s="331"/>
       <c r="C267" s="47" t="s">
         <v>338</v>
       </c>
@@ -61705,10 +61830,10 @@
       </c>
     </row>
     <row r="268" spans="1:62" s="108" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A268" s="364" t="s">
+      <c r="A268" s="344" t="s">
         <v>14</v>
       </c>
-      <c r="B268" s="365"/>
+      <c r="B268" s="345"/>
       <c r="C268" s="50" t="s">
         <v>339</v>
       </c>
@@ -61844,17 +61969,17 @@
       <c r="BG268" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH268" s="322" t="s">
+      <c r="BH268" s="390" t="s">
         <v>2748</v>
       </c>
-      <c r="BI268" s="325"/>
-      <c r="BJ268" s="326"/>
+      <c r="BI268" s="393"/>
+      <c r="BJ268" s="394"/>
     </row>
     <row r="269" spans="1:62" ht="189" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A269" s="360" t="s">
+      <c r="A269" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B269" s="361"/>
+      <c r="B269" s="331"/>
       <c r="C269" s="47" t="s">
         <v>340</v>
       </c>
@@ -61950,19 +62075,19 @@
       <c r="BG269" s="213" t="s">
         <v>855</v>
       </c>
-      <c r="BH269" s="288" t="s">
+      <c r="BH269" s="275" t="s">
         <v>2356</v>
       </c>
-      <c r="BI269" s="290"/>
+      <c r="BI269" s="286"/>
       <c r="BJ269" s="172" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="270" spans="1:62" ht="127.5" x14ac:dyDescent="0.2">
-      <c r="A270" s="360" t="s">
+      <c r="A270" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B270" s="361"/>
+      <c r="B270" s="331"/>
       <c r="C270" s="47" t="s">
         <v>341</v>
       </c>
@@ -62122,17 +62247,17 @@
         <v>2641</v>
       </c>
       <c r="BG270" s="208"/>
-      <c r="BH270" s="272" t="s">
+      <c r="BH270" s="282" t="s">
         <v>2724</v>
       </c>
-      <c r="BI270" s="273"/>
-      <c r="BJ270" s="274"/>
+      <c r="BI270" s="283"/>
+      <c r="BJ270" s="284"/>
     </row>
     <row r="271" spans="1:62" s="92" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A271" s="362" t="s">
+      <c r="A271" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B271" s="363"/>
+      <c r="B271" s="333"/>
       <c r="C271" s="48" t="s">
         <v>342</v>
       </c>
@@ -62225,10 +62350,10 @@
       <c r="BJ271" s="230"/>
     </row>
     <row r="272" spans="1:62" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A272" s="360" t="s">
+      <c r="A272" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B272" s="361"/>
+      <c r="B272" s="331"/>
       <c r="C272" s="47" t="s">
         <v>343</v>
       </c>
@@ -62336,19 +62461,19 @@
         <v>855</v>
       </c>
       <c r="BG272" s="212"/>
-      <c r="BH272" s="288" t="s">
+      <c r="BH272" s="275" t="s">
         <v>2357</v>
       </c>
-      <c r="BI272" s="290"/>
+      <c r="BI272" s="286"/>
       <c r="BJ272" s="172" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="273" spans="1:62" ht="146.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A273" s="360" t="s">
+      <c r="A273" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B273" s="361"/>
+      <c r="B273" s="331"/>
       <c r="C273" s="47" t="s">
         <v>344</v>
       </c>
@@ -62456,19 +62581,19 @@
         <v>855</v>
       </c>
       <c r="BG273" s="212"/>
-      <c r="BH273" s="288" t="s">
+      <c r="BH273" s="275" t="s">
         <v>2358</v>
       </c>
-      <c r="BI273" s="290"/>
+      <c r="BI273" s="286"/>
       <c r="BJ273" s="172" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="274" spans="1:62" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A274" s="360" t="s">
+      <c r="A274" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B274" s="361"/>
+      <c r="B274" s="331"/>
       <c r="C274" s="47" t="s">
         <v>345</v>
       </c>
@@ -62576,19 +62701,19 @@
         <v>855</v>
       </c>
       <c r="BG274" s="212"/>
-      <c r="BH274" s="288" t="s">
+      <c r="BH274" s="275" t="s">
         <v>2359</v>
       </c>
-      <c r="BI274" s="290"/>
+      <c r="BI274" s="286"/>
       <c r="BJ274" s="172" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="275" spans="1:62" ht="162" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A275" s="360" t="s">
+      <c r="A275" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B275" s="361"/>
+      <c r="B275" s="331"/>
       <c r="C275" s="47" t="s">
         <v>346</v>
       </c>
@@ -62696,19 +62821,19 @@
         <v>855</v>
       </c>
       <c r="BG275" s="212"/>
-      <c r="BH275" s="288" t="s">
+      <c r="BH275" s="275" t="s">
         <v>2360</v>
       </c>
-      <c r="BI275" s="290"/>
+      <c r="BI275" s="286"/>
       <c r="BJ275" s="172" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="276" spans="1:62" s="92" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A276" s="362" t="s">
+      <c r="A276" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B276" s="363"/>
+      <c r="B276" s="333"/>
       <c r="C276" s="48" t="s">
         <v>347</v>
       </c>
@@ -62785,10 +62910,10 @@
       <c r="BJ276" s="230"/>
     </row>
     <row r="277" spans="1:62" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A277" s="360" t="s">
+      <c r="A277" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B277" s="361"/>
+      <c r="B277" s="331"/>
       <c r="C277" s="47" t="s">
         <v>2815</v>
       </c>
@@ -62893,10 +63018,10 @@
       </c>
     </row>
     <row r="278" spans="1:62" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A278" s="360" t="s">
+      <c r="A278" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B278" s="361"/>
+      <c r="B278" s="331"/>
       <c r="C278" s="47" t="s">
         <v>348</v>
       </c>
@@ -63001,10 +63126,10 @@
       </c>
     </row>
     <row r="279" spans="1:62" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A279" s="360" t="s">
+      <c r="A279" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B279" s="361"/>
+      <c r="B279" s="331"/>
       <c r="C279" s="47" t="s">
         <v>349</v>
       </c>
@@ -63109,10 +63234,10 @@
       </c>
     </row>
     <row r="280" spans="1:62" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A280" s="360" t="s">
+      <c r="A280" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B280" s="361"/>
+      <c r="B280" s="331"/>
       <c r="C280" s="47" t="s">
         <v>350</v>
       </c>
@@ -63217,10 +63342,10 @@
       </c>
     </row>
     <row r="281" spans="1:62" s="92" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A281" s="362" t="s">
+      <c r="A281" s="332" t="s">
         <v>9</v>
       </c>
-      <c r="B281" s="363"/>
+      <c r="B281" s="333"/>
       <c r="C281" s="48" t="s">
         <v>351</v>
       </c>
@@ -63291,10 +63416,10 @@
       <c r="BJ281" s="230"/>
     </row>
     <row r="282" spans="1:62" ht="57" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="360" t="s">
+      <c r="A282" s="330" t="s">
         <v>14</v>
       </c>
-      <c r="B282" s="361"/>
+      <c r="B282" s="331"/>
       <c r="C282" s="47" t="s">
         <v>2816</v>
       </c>
@@ -63448,7 +63573,7 @@
       <c r="AQ283" s="354"/>
       <c r="AR283" s="354"/>
       <c r="AS283" s="354"/>
-      <c r="AT283" s="345"/>
+      <c r="AT283" s="360"/>
       <c r="AU283" s="61"/>
       <c r="AV283" s="168"/>
       <c r="AW283" s="39" t="s">
@@ -63495,8 +63620,8 @@
       </c>
     </row>
     <row r="284" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A284" s="348"/>
-      <c r="B284" s="349"/>
+      <c r="A284" s="363"/>
+      <c r="B284" s="364"/>
       <c r="C284" s="71"/>
       <c r="D284" s="144" t="s">
         <v>11</v>
@@ -63544,7 +63669,7 @@
       <c r="AQ284" s="355"/>
       <c r="AR284" s="355"/>
       <c r="AS284" s="355"/>
-      <c r="AT284" s="346"/>
+      <c r="AT284" s="361"/>
       <c r="AU284" s="61"/>
       <c r="AV284" s="168"/>
       <c r="AW284" s="39" t="s">
@@ -63591,8 +63716,8 @@
       </c>
     </row>
     <row r="285" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A285" s="348"/>
-      <c r="B285" s="349"/>
+      <c r="A285" s="363"/>
+      <c r="B285" s="364"/>
       <c r="C285" s="71"/>
       <c r="D285" s="144" t="s">
         <v>355</v>
@@ -63640,7 +63765,7 @@
       <c r="AQ285" s="355"/>
       <c r="AR285" s="355"/>
       <c r="AS285" s="355"/>
-      <c r="AT285" s="346"/>
+      <c r="AT285" s="361"/>
       <c r="AU285" s="61"/>
       <c r="AV285" s="168"/>
       <c r="AW285" s="39" t="s">
@@ -63687,8 +63812,8 @@
       </c>
     </row>
     <row r="286" spans="1:62" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A286" s="348"/>
-      <c r="B286" s="349"/>
+      <c r="A286" s="363"/>
+      <c r="B286" s="364"/>
       <c r="C286" s="71"/>
       <c r="D286" s="144" t="s">
         <v>16</v>
@@ -63736,7 +63861,7 @@
       <c r="AQ286" s="355"/>
       <c r="AR286" s="355"/>
       <c r="AS286" s="355"/>
-      <c r="AT286" s="346"/>
+      <c r="AT286" s="361"/>
       <c r="AU286" s="61"/>
       <c r="AV286" s="168"/>
       <c r="AW286" s="39" t="s">
@@ -63783,8 +63908,8 @@
       </c>
     </row>
     <row r="287" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A287" s="348"/>
-      <c r="B287" s="349"/>
+      <c r="A287" s="363"/>
+      <c r="B287" s="364"/>
       <c r="C287" s="71"/>
       <c r="D287" s="71"/>
       <c r="E287" s="145" t="s">
@@ -63830,7 +63955,7 @@
       <c r="AQ287" s="355"/>
       <c r="AR287" s="355"/>
       <c r="AS287" s="355"/>
-      <c r="AT287" s="346"/>
+      <c r="AT287" s="361"/>
       <c r="AU287" s="61"/>
       <c r="AV287" s="168"/>
       <c r="AW287" s="39" t="s">
@@ -63877,8 +64002,8 @@
       </c>
     </row>
     <row r="288" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A288" s="348"/>
-      <c r="B288" s="349"/>
+      <c r="A288" s="363"/>
+      <c r="B288" s="364"/>
       <c r="C288" s="71"/>
       <c r="D288" s="71"/>
       <c r="E288" s="145" t="s">
@@ -63924,7 +64049,7 @@
       <c r="AQ288" s="355"/>
       <c r="AR288" s="355"/>
       <c r="AS288" s="355"/>
-      <c r="AT288" s="346"/>
+      <c r="AT288" s="361"/>
       <c r="AU288" s="61"/>
       <c r="AV288" s="168"/>
       <c r="AW288" s="39" t="s">
@@ -63971,8 +64096,8 @@
       </c>
     </row>
     <row r="289" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A289" s="350"/>
-      <c r="B289" s="351"/>
+      <c r="A289" s="365"/>
+      <c r="B289" s="366"/>
       <c r="C289" s="72"/>
       <c r="D289" s="72"/>
       <c r="E289" s="146" t="s">
@@ -64018,7 +64143,7 @@
       <c r="AQ289" s="356"/>
       <c r="AR289" s="356"/>
       <c r="AS289" s="356"/>
-      <c r="AT289" s="347"/>
+      <c r="AT289" s="362"/>
       <c r="AU289" s="61"/>
       <c r="AV289" s="168"/>
       <c r="AW289" s="39" t="s">
@@ -64120,7 +64245,7 @@
       <c r="AQ290" s="354"/>
       <c r="AR290" s="354"/>
       <c r="AS290" s="354"/>
-      <c r="AT290" s="345"/>
+      <c r="AT290" s="360"/>
       <c r="AU290" s="61"/>
       <c r="AV290" s="168"/>
       <c r="AW290" s="39" t="s">
@@ -64167,8 +64292,8 @@
       </c>
     </row>
     <row r="291" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A291" s="348"/>
-      <c r="B291" s="349"/>
+      <c r="A291" s="363"/>
+      <c r="B291" s="364"/>
       <c r="C291" s="71"/>
       <c r="D291" s="144" t="s">
         <v>357</v>
@@ -64216,7 +64341,7 @@
       <c r="AQ291" s="355"/>
       <c r="AR291" s="355"/>
       <c r="AS291" s="355"/>
-      <c r="AT291" s="346"/>
+      <c r="AT291" s="361"/>
       <c r="AU291" s="61"/>
       <c r="AV291" s="168"/>
       <c r="AW291" s="39" t="s">
@@ -64263,8 +64388,8 @@
       </c>
     </row>
     <row r="292" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A292" s="348"/>
-      <c r="B292" s="349"/>
+      <c r="A292" s="363"/>
+      <c r="B292" s="364"/>
       <c r="C292" s="71"/>
       <c r="D292" s="144" t="s">
         <v>358</v>
@@ -64312,7 +64437,7 @@
       <c r="AQ292" s="355"/>
       <c r="AR292" s="355"/>
       <c r="AS292" s="355"/>
-      <c r="AT292" s="346"/>
+      <c r="AT292" s="361"/>
       <c r="AU292" s="61"/>
       <c r="AV292" s="168"/>
       <c r="AW292" s="39" t="s">
@@ -64359,8 +64484,8 @@
       </c>
     </row>
     <row r="293" spans="1:62" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A293" s="350"/>
-      <c r="B293" s="351"/>
+      <c r="A293" s="365"/>
+      <c r="B293" s="366"/>
       <c r="C293" s="72"/>
       <c r="D293" s="72"/>
       <c r="E293" s="146" t="s">
@@ -64406,7 +64531,7 @@
       <c r="AQ293" s="356"/>
       <c r="AR293" s="356"/>
       <c r="AS293" s="356"/>
-      <c r="AT293" s="347"/>
+      <c r="AT293" s="362"/>
       <c r="AU293" s="61"/>
       <c r="AV293" s="168"/>
       <c r="AW293" s="39" t="s">
@@ -64508,7 +64633,7 @@
       <c r="AQ294" s="354"/>
       <c r="AR294" s="354"/>
       <c r="AS294" s="354"/>
-      <c r="AT294" s="345"/>
+      <c r="AT294" s="360"/>
       <c r="AU294" s="61"/>
       <c r="AV294" s="168"/>
       <c r="AW294" s="39" t="s">
@@ -64555,8 +64680,8 @@
       </c>
     </row>
     <row r="295" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A295" s="348"/>
-      <c r="B295" s="349"/>
+      <c r="A295" s="363"/>
+      <c r="B295" s="364"/>
       <c r="C295" s="71"/>
       <c r="D295" s="144" t="s">
         <v>360</v>
@@ -64604,7 +64729,7 @@
       <c r="AQ295" s="355"/>
       <c r="AR295" s="355"/>
       <c r="AS295" s="355"/>
-      <c r="AT295" s="346"/>
+      <c r="AT295" s="361"/>
       <c r="AU295" s="61"/>
       <c r="AV295" s="168"/>
       <c r="AW295" s="39" t="s">
@@ -64651,8 +64776,8 @@
       </c>
     </row>
     <row r="296" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A296" s="348"/>
-      <c r="B296" s="349"/>
+      <c r="A296" s="363"/>
+      <c r="B296" s="364"/>
       <c r="C296" s="71"/>
       <c r="D296" s="144" t="s">
         <v>361</v>
@@ -64698,7 +64823,7 @@
       <c r="AQ296" s="355"/>
       <c r="AR296" s="355"/>
       <c r="AS296" s="355"/>
-      <c r="AT296" s="346"/>
+      <c r="AT296" s="361"/>
       <c r="AU296" s="61"/>
       <c r="AV296" s="168"/>
       <c r="AW296" s="39" t="s">
@@ -64745,8 +64870,8 @@
       </c>
     </row>
     <row r="297" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A297" s="348"/>
-      <c r="B297" s="349"/>
+      <c r="A297" s="363"/>
+      <c r="B297" s="364"/>
       <c r="C297" s="71"/>
       <c r="D297" s="144" t="s">
         <v>362</v>
@@ -64792,7 +64917,7 @@
       <c r="AQ297" s="355"/>
       <c r="AR297" s="355"/>
       <c r="AS297" s="355"/>
-      <c r="AT297" s="346"/>
+      <c r="AT297" s="361"/>
       <c r="AU297" s="61"/>
       <c r="AV297" s="168"/>
       <c r="AW297" s="39" t="s">
@@ -64839,8 +64964,8 @@
       </c>
     </row>
     <row r="298" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A298" s="350"/>
-      <c r="B298" s="351"/>
+      <c r="A298" s="365"/>
+      <c r="B298" s="366"/>
       <c r="C298" s="72"/>
       <c r="D298" s="147" t="s">
         <v>363</v>
@@ -64886,7 +65011,7 @@
       <c r="AQ298" s="356"/>
       <c r="AR298" s="356"/>
       <c r="AS298" s="356"/>
-      <c r="AT298" s="347"/>
+      <c r="AT298" s="362"/>
       <c r="AU298" s="61"/>
       <c r="AV298" s="168"/>
       <c r="AW298" s="39" t="s">
@@ -64988,7 +65113,7 @@
       <c r="AQ299" s="354"/>
       <c r="AR299" s="354"/>
       <c r="AS299" s="354"/>
-      <c r="AT299" s="345"/>
+      <c r="AT299" s="360"/>
       <c r="AU299" s="61"/>
       <c r="AV299" s="168"/>
       <c r="AW299" s="38"/>
@@ -65029,8 +65154,8 @@
       </c>
     </row>
     <row r="300" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A300" s="348"/>
-      <c r="B300" s="349"/>
+      <c r="A300" s="363"/>
+      <c r="B300" s="364"/>
       <c r="C300" s="71"/>
       <c r="D300" s="144" t="s">
         <v>360</v>
@@ -65078,7 +65203,7 @@
       <c r="AQ300" s="355"/>
       <c r="AR300" s="355"/>
       <c r="AS300" s="355"/>
-      <c r="AT300" s="346"/>
+      <c r="AT300" s="361"/>
       <c r="AU300" s="61"/>
       <c r="AV300" s="168"/>
       <c r="AW300" s="38"/>
@@ -65119,8 +65244,8 @@
       </c>
     </row>
     <row r="301" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A301" s="348"/>
-      <c r="B301" s="349"/>
+      <c r="A301" s="363"/>
+      <c r="B301" s="364"/>
       <c r="C301" s="71"/>
       <c r="D301" s="144" t="s">
         <v>361</v>
@@ -65168,7 +65293,7 @@
       <c r="AQ301" s="355"/>
       <c r="AR301" s="355"/>
       <c r="AS301" s="355"/>
-      <c r="AT301" s="346"/>
+      <c r="AT301" s="361"/>
       <c r="AU301" s="61"/>
       <c r="AV301" s="168"/>
       <c r="AW301" s="38"/>
@@ -65209,8 +65334,8 @@
       </c>
     </row>
     <row r="302" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A302" s="348"/>
-      <c r="B302" s="349"/>
+      <c r="A302" s="363"/>
+      <c r="B302" s="364"/>
       <c r="C302" s="71"/>
       <c r="D302" s="144" t="s">
         <v>362</v>
@@ -65256,7 +65381,7 @@
       <c r="AQ302" s="355"/>
       <c r="AR302" s="355"/>
       <c r="AS302" s="355"/>
-      <c r="AT302" s="346"/>
+      <c r="AT302" s="361"/>
       <c r="AU302" s="61"/>
       <c r="AV302" s="168"/>
       <c r="AW302" s="38"/>
@@ -65297,8 +65422,8 @@
       </c>
     </row>
     <row r="303" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A303" s="348"/>
-      <c r="B303" s="349"/>
+      <c r="A303" s="363"/>
+      <c r="B303" s="364"/>
       <c r="C303" s="71"/>
       <c r="D303" s="144" t="s">
         <v>363</v>
@@ -65344,7 +65469,7 @@
       <c r="AQ303" s="355"/>
       <c r="AR303" s="355"/>
       <c r="AS303" s="355"/>
-      <c r="AT303" s="346"/>
+      <c r="AT303" s="361"/>
       <c r="AU303" s="61"/>
       <c r="AV303" s="168"/>
       <c r="AW303" s="38"/>
@@ -65385,8 +65510,8 @@
       </c>
     </row>
     <row r="304" spans="1:62" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A304" s="350"/>
-      <c r="B304" s="351"/>
+      <c r="A304" s="365"/>
+      <c r="B304" s="366"/>
       <c r="C304" s="72"/>
       <c r="D304" s="147" t="s">
         <v>30</v>
@@ -65432,7 +65557,7 @@
       <c r="AQ304" s="356"/>
       <c r="AR304" s="356"/>
       <c r="AS304" s="356"/>
-      <c r="AT304" s="347"/>
+      <c r="AT304" s="362"/>
       <c r="AU304" s="61"/>
       <c r="AV304" s="168"/>
       <c r="AW304" s="38"/>
@@ -65528,7 +65653,7 @@
       <c r="AQ305" s="354"/>
       <c r="AR305" s="354"/>
       <c r="AS305" s="354"/>
-      <c r="AT305" s="345"/>
+      <c r="AT305" s="360"/>
       <c r="AU305" s="61"/>
       <c r="AV305" s="168"/>
       <c r="AW305" s="38"/>
@@ -65569,8 +65694,8 @@
       </c>
     </row>
     <row r="306" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A306" s="348"/>
-      <c r="B306" s="349"/>
+      <c r="A306" s="363"/>
+      <c r="B306" s="364"/>
       <c r="C306" s="71"/>
       <c r="D306" s="144" t="s">
         <v>366</v>
@@ -65618,7 +65743,7 @@
       <c r="AQ306" s="355"/>
       <c r="AR306" s="355"/>
       <c r="AS306" s="355"/>
-      <c r="AT306" s="346"/>
+      <c r="AT306" s="361"/>
       <c r="AU306" s="61"/>
       <c r="AV306" s="168"/>
       <c r="AW306" s="38"/>
@@ -65659,8 +65784,8 @@
       </c>
     </row>
     <row r="307" spans="1:62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A307" s="350"/>
-      <c r="B307" s="351"/>
+      <c r="A307" s="365"/>
+      <c r="B307" s="366"/>
       <c r="C307" s="72"/>
       <c r="D307" s="147" t="s">
         <v>23</v>
@@ -65708,7 +65833,7 @@
       <c r="AQ307" s="356"/>
       <c r="AR307" s="356"/>
       <c r="AS307" s="356"/>
-      <c r="AT307" s="347"/>
+      <c r="AT307" s="362"/>
       <c r="AU307" s="61"/>
       <c r="AV307" s="168"/>
       <c r="AW307" s="38"/>
@@ -65804,7 +65929,7 @@
       <c r="AQ308" s="354"/>
       <c r="AR308" s="354"/>
       <c r="AS308" s="354"/>
-      <c r="AT308" s="345"/>
+      <c r="AT308" s="360"/>
       <c r="AU308" s="61"/>
       <c r="AV308" s="168"/>
       <c r="AW308" s="38"/>
@@ -65845,8 +65970,8 @@
       </c>
     </row>
     <row r="309" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="348"/>
-      <c r="B309" s="349"/>
+      <c r="A309" s="363"/>
+      <c r="B309" s="364"/>
       <c r="C309" s="71"/>
       <c r="D309" s="144" t="s">
         <v>357</v>
@@ -65894,7 +66019,7 @@
       <c r="AQ309" s="355"/>
       <c r="AR309" s="355"/>
       <c r="AS309" s="355"/>
-      <c r="AT309" s="346"/>
+      <c r="AT309" s="361"/>
       <c r="AU309" s="61"/>
       <c r="AV309" s="168"/>
       <c r="AW309" s="38"/>
@@ -65935,8 +66060,8 @@
       </c>
     </row>
     <row r="310" spans="1:62" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A310" s="348"/>
-      <c r="B310" s="349"/>
+      <c r="A310" s="363"/>
+      <c r="B310" s="364"/>
       <c r="C310" s="71"/>
       <c r="D310" s="144" t="s">
         <v>358</v>
@@ -65984,7 +66109,7 @@
       <c r="AQ310" s="355"/>
       <c r="AR310" s="355"/>
       <c r="AS310" s="355"/>
-      <c r="AT310" s="346"/>
+      <c r="AT310" s="361"/>
       <c r="AU310" s="61"/>
       <c r="AV310" s="168"/>
       <c r="AW310" s="38"/>
@@ -66025,8 +66150,8 @@
       </c>
     </row>
     <row r="311" spans="1:62" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A311" s="350"/>
-      <c r="B311" s="351"/>
+      <c r="A311" s="365"/>
+      <c r="B311" s="366"/>
       <c r="C311" s="72"/>
       <c r="D311" s="72"/>
       <c r="E311" s="146" t="s">
@@ -66072,7 +66197,7 @@
       <c r="AQ311" s="356"/>
       <c r="AR311" s="356"/>
       <c r="AS311" s="356"/>
-      <c r="AT311" s="347"/>
+      <c r="AT311" s="362"/>
       <c r="AU311" s="61"/>
       <c r="AV311" s="74"/>
       <c r="AZ311" s="70" t="s">
@@ -66163,6 +66288,755 @@
     <filterColumn colId="60" showButton="0"/>
   </autoFilter>
   <mergeCells count="773">
+    <mergeCell ref="AW33:AY33"/>
+    <mergeCell ref="AZ33:BA33"/>
+    <mergeCell ref="BH249:BJ249"/>
+    <mergeCell ref="BH209:BI209"/>
+    <mergeCell ref="BH210:BI210"/>
+    <mergeCell ref="BH148:BJ148"/>
+    <mergeCell ref="BH57:BJ57"/>
+    <mergeCell ref="BH58:BJ58"/>
+    <mergeCell ref="BH59:BJ59"/>
+    <mergeCell ref="BH60:BJ60"/>
+    <mergeCell ref="BH155:BJ155"/>
+    <mergeCell ref="BH157:BI157"/>
+    <mergeCell ref="BH161:BI161"/>
+    <mergeCell ref="BC33:BF33"/>
+    <mergeCell ref="BH234:BI235"/>
+    <mergeCell ref="BH232:BI233"/>
+    <mergeCell ref="BH162:BI162"/>
+    <mergeCell ref="BH174:BJ174"/>
+    <mergeCell ref="BH164:BI164"/>
+    <mergeCell ref="BH206:BI206"/>
+    <mergeCell ref="BH236:BI236"/>
+    <mergeCell ref="BH238:BI238"/>
+    <mergeCell ref="BH239:BJ239"/>
+    <mergeCell ref="BH227:BI227"/>
+    <mergeCell ref="BG2:BG4"/>
+    <mergeCell ref="BH74:BJ74"/>
+    <mergeCell ref="BH76:BJ76"/>
+    <mergeCell ref="BH77:BI77"/>
+    <mergeCell ref="BH78:BI78"/>
+    <mergeCell ref="BH151:BJ151"/>
+    <mergeCell ref="BH152:BJ152"/>
+    <mergeCell ref="BH153:BJ153"/>
+    <mergeCell ref="BH154:BJ154"/>
+    <mergeCell ref="BH79:BI79"/>
+    <mergeCell ref="BH80:BI80"/>
+    <mergeCell ref="BH81:BI81"/>
+    <mergeCell ref="BH83:BJ83"/>
+    <mergeCell ref="BH12:BJ12"/>
+    <mergeCell ref="BH69:BJ69"/>
+    <mergeCell ref="BH70:BJ70"/>
+    <mergeCell ref="BH71:BJ71"/>
+    <mergeCell ref="BH72:BJ72"/>
+    <mergeCell ref="BH73:BJ73"/>
+    <mergeCell ref="BH14:BJ14"/>
+    <mergeCell ref="BH16:BJ16"/>
+    <mergeCell ref="BH17:BJ17"/>
+    <mergeCell ref="BH28:BJ28"/>
+    <mergeCell ref="BH37:BJ37"/>
+    <mergeCell ref="AW30:AY30"/>
+    <mergeCell ref="AZ30:BA30"/>
+    <mergeCell ref="BC30:BF30"/>
+    <mergeCell ref="BH30:BJ30"/>
+    <mergeCell ref="AW31:AY31"/>
+    <mergeCell ref="AZ31:BA31"/>
+    <mergeCell ref="BC31:BF31"/>
+    <mergeCell ref="BH31:BJ31"/>
+    <mergeCell ref="AW32:AY32"/>
+    <mergeCell ref="AZ32:BA32"/>
+    <mergeCell ref="BC32:BF32"/>
+    <mergeCell ref="BH32:BJ32"/>
+    <mergeCell ref="AW24:AY24"/>
+    <mergeCell ref="AW25:AY25"/>
+    <mergeCell ref="AW26:AY26"/>
+    <mergeCell ref="AW27:AY27"/>
+    <mergeCell ref="AW28:AY28"/>
+    <mergeCell ref="AZ28:BA28"/>
+    <mergeCell ref="BC28:BF28"/>
+    <mergeCell ref="AW29:AY29"/>
+    <mergeCell ref="AZ29:BA29"/>
+    <mergeCell ref="BC29:BF29"/>
+    <mergeCell ref="BC23:BF23"/>
+    <mergeCell ref="BH23:BJ23"/>
+    <mergeCell ref="AW18:AY18"/>
+    <mergeCell ref="AW19:AY19"/>
+    <mergeCell ref="AZ19:BF19"/>
+    <mergeCell ref="BH19:BJ19"/>
+    <mergeCell ref="AW20:AY20"/>
+    <mergeCell ref="AW21:AY21"/>
+    <mergeCell ref="AZ20:BA20"/>
+    <mergeCell ref="BC20:BF20"/>
+    <mergeCell ref="BH20:BJ20"/>
+    <mergeCell ref="AZ21:BA21"/>
+    <mergeCell ref="BC21:BF21"/>
+    <mergeCell ref="BH21:BJ21"/>
+    <mergeCell ref="BH18:BJ18"/>
+    <mergeCell ref="BH228:BJ228"/>
+    <mergeCell ref="BH214:BI214"/>
+    <mergeCell ref="BH215:BI215"/>
+    <mergeCell ref="BH222:BJ222"/>
+    <mergeCell ref="BH223:BI223"/>
+    <mergeCell ref="BH224:BJ224"/>
+    <mergeCell ref="BH225:BI225"/>
+    <mergeCell ref="BH226:BI226"/>
+    <mergeCell ref="BH231:BI231"/>
+    <mergeCell ref="BH217:BH221"/>
+    <mergeCell ref="BH273:BI273"/>
+    <mergeCell ref="BH274:BI274"/>
+    <mergeCell ref="BH275:BI275"/>
+    <mergeCell ref="BH240:BJ240"/>
+    <mergeCell ref="BH241:BJ241"/>
+    <mergeCell ref="BH242:BJ242"/>
+    <mergeCell ref="BH243:BI243"/>
+    <mergeCell ref="BH244:BJ244"/>
+    <mergeCell ref="BH246:BJ246"/>
+    <mergeCell ref="BH247:BJ247"/>
+    <mergeCell ref="BH269:BI269"/>
+    <mergeCell ref="BH272:BI272"/>
+    <mergeCell ref="BH270:BJ270"/>
+    <mergeCell ref="BH261:BJ261"/>
+    <mergeCell ref="BH263:BJ263"/>
+    <mergeCell ref="BH264:BJ264"/>
+    <mergeCell ref="BH268:BJ268"/>
+    <mergeCell ref="BH250:BJ250"/>
+    <mergeCell ref="BH251:BJ251"/>
+    <mergeCell ref="BH252:BJ252"/>
+    <mergeCell ref="BH253:BJ253"/>
+    <mergeCell ref="BH254:BJ254"/>
+    <mergeCell ref="BH258:BJ258"/>
+    <mergeCell ref="BH259:BJ259"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AT3"/>
+    <mergeCell ref="A1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="P1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AQ1"/>
+    <mergeCell ref="AR1:AT1"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AT305:AT307"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="G308:G311"/>
+    <mergeCell ref="H308:H311"/>
+    <mergeCell ref="I308:I311"/>
+    <mergeCell ref="J308:J311"/>
+    <mergeCell ref="K308:K311"/>
+    <mergeCell ref="L308:L311"/>
+    <mergeCell ref="AO308:AO311"/>
+    <mergeCell ref="AP308:AP311"/>
+    <mergeCell ref="AQ308:AQ311"/>
+    <mergeCell ref="AR308:AR311"/>
+    <mergeCell ref="AS308:AS311"/>
+    <mergeCell ref="AT308:AT311"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="AF308:AF311"/>
+    <mergeCell ref="AG308:AG311"/>
+    <mergeCell ref="AH308:AH311"/>
+    <mergeCell ref="AI308:AI311"/>
+    <mergeCell ref="AJ308:AJ311"/>
+    <mergeCell ref="AK308:AK311"/>
+    <mergeCell ref="AL308:AL311"/>
+    <mergeCell ref="AM308:AM311"/>
+    <mergeCell ref="AN308:AN311"/>
+    <mergeCell ref="M308:M311"/>
+    <mergeCell ref="N308:N311"/>
+    <mergeCell ref="O308:O311"/>
+    <mergeCell ref="P308:P311"/>
+    <mergeCell ref="Q308:Q311"/>
+    <mergeCell ref="R308:R311"/>
+    <mergeCell ref="S308:S311"/>
+    <mergeCell ref="T308:T311"/>
+    <mergeCell ref="U308:U311"/>
+    <mergeCell ref="AD308:AD311"/>
+    <mergeCell ref="AE308:AE311"/>
+    <mergeCell ref="AF305:AF307"/>
+    <mergeCell ref="AG305:AG307"/>
+    <mergeCell ref="AH305:AH307"/>
+    <mergeCell ref="AI305:AI307"/>
+    <mergeCell ref="AJ305:AJ307"/>
+    <mergeCell ref="AK305:AK307"/>
+    <mergeCell ref="AL305:AL307"/>
+    <mergeCell ref="AM305:AM307"/>
+    <mergeCell ref="AN305:AN307"/>
+    <mergeCell ref="Z305:Z307"/>
+    <mergeCell ref="AA305:AA307"/>
+    <mergeCell ref="AB305:AB307"/>
+    <mergeCell ref="AC305:AC307"/>
+    <mergeCell ref="AD305:AD307"/>
+    <mergeCell ref="AE305:AE307"/>
+    <mergeCell ref="V308:V311"/>
+    <mergeCell ref="W308:W311"/>
+    <mergeCell ref="X308:X311"/>
+    <mergeCell ref="Y308:Y311"/>
+    <mergeCell ref="Z308:Z311"/>
+    <mergeCell ref="AA308:AA311"/>
+    <mergeCell ref="AB308:AB311"/>
+    <mergeCell ref="AC308:AC311"/>
+    <mergeCell ref="X305:X307"/>
+    <mergeCell ref="Y305:Y307"/>
+    <mergeCell ref="AT299:AT304"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="G305:G307"/>
+    <mergeCell ref="H305:H307"/>
+    <mergeCell ref="I305:I307"/>
+    <mergeCell ref="J305:J307"/>
+    <mergeCell ref="K305:K307"/>
+    <mergeCell ref="L305:L307"/>
+    <mergeCell ref="M305:M307"/>
+    <mergeCell ref="N305:N307"/>
+    <mergeCell ref="O305:O307"/>
+    <mergeCell ref="P305:P307"/>
+    <mergeCell ref="Q305:Q307"/>
+    <mergeCell ref="R305:R307"/>
+    <mergeCell ref="S305:S307"/>
+    <mergeCell ref="T305:T307"/>
+    <mergeCell ref="U305:U307"/>
+    <mergeCell ref="V305:V307"/>
+    <mergeCell ref="W305:W307"/>
+    <mergeCell ref="AO305:AO307"/>
+    <mergeCell ref="AP305:AP307"/>
+    <mergeCell ref="AN299:AN304"/>
+    <mergeCell ref="AO299:AO304"/>
+    <mergeCell ref="AP299:AP304"/>
+    <mergeCell ref="AQ299:AQ304"/>
+    <mergeCell ref="AQ305:AQ307"/>
+    <mergeCell ref="AR299:AR304"/>
+    <mergeCell ref="AS299:AS304"/>
+    <mergeCell ref="AR305:AR307"/>
+    <mergeCell ref="AS305:AS307"/>
+    <mergeCell ref="AL299:AL304"/>
+    <mergeCell ref="AM299:AM304"/>
+    <mergeCell ref="AE299:AE304"/>
+    <mergeCell ref="AF299:AF304"/>
+    <mergeCell ref="AG299:AG304"/>
+    <mergeCell ref="AH299:AH304"/>
+    <mergeCell ref="AI299:AI304"/>
+    <mergeCell ref="AJ299:AJ304"/>
+    <mergeCell ref="AK299:AK304"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="G299:G304"/>
+    <mergeCell ref="H299:H304"/>
+    <mergeCell ref="I299:I304"/>
+    <mergeCell ref="J299:J304"/>
+    <mergeCell ref="K299:K304"/>
+    <mergeCell ref="L299:L304"/>
+    <mergeCell ref="M299:M304"/>
+    <mergeCell ref="N299:N304"/>
+    <mergeCell ref="O299:O304"/>
+    <mergeCell ref="P299:P304"/>
+    <mergeCell ref="Q299:Q304"/>
+    <mergeCell ref="R299:R304"/>
+    <mergeCell ref="S299:S304"/>
+    <mergeCell ref="T299:T304"/>
+    <mergeCell ref="U299:U304"/>
+    <mergeCell ref="V299:V304"/>
+    <mergeCell ref="AD299:AD304"/>
+    <mergeCell ref="W299:W304"/>
+    <mergeCell ref="X299:X304"/>
+    <mergeCell ref="Y299:Y304"/>
+    <mergeCell ref="Z299:Z304"/>
+    <mergeCell ref="AA299:AA304"/>
+    <mergeCell ref="AB299:AB304"/>
+    <mergeCell ref="AC299:AC304"/>
+    <mergeCell ref="AT294:AT298"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="AE294:AE298"/>
+    <mergeCell ref="AF294:AF298"/>
+    <mergeCell ref="AG294:AG298"/>
+    <mergeCell ref="AH294:AH298"/>
+    <mergeCell ref="AI294:AI298"/>
+    <mergeCell ref="AJ294:AJ298"/>
+    <mergeCell ref="AK294:AK298"/>
+    <mergeCell ref="AL294:AL298"/>
+    <mergeCell ref="AM294:AM298"/>
+    <mergeCell ref="V294:V298"/>
+    <mergeCell ref="W294:W298"/>
+    <mergeCell ref="X294:X298"/>
+    <mergeCell ref="Y294:Y298"/>
+    <mergeCell ref="Z294:Z298"/>
+    <mergeCell ref="AA294:AA298"/>
+    <mergeCell ref="AB294:AB298"/>
+    <mergeCell ref="AC294:AC298"/>
+    <mergeCell ref="AD294:AD298"/>
+    <mergeCell ref="AN294:AN298"/>
+    <mergeCell ref="AP290:AP293"/>
+    <mergeCell ref="AQ290:AQ293"/>
+    <mergeCell ref="AR290:AR293"/>
+    <mergeCell ref="AS290:AS293"/>
+    <mergeCell ref="AK290:AK293"/>
+    <mergeCell ref="AL290:AL293"/>
+    <mergeCell ref="AM290:AM293"/>
+    <mergeCell ref="AN290:AN293"/>
+    <mergeCell ref="AO290:AO293"/>
+    <mergeCell ref="AO294:AO298"/>
+    <mergeCell ref="AP294:AP298"/>
+    <mergeCell ref="AQ294:AQ298"/>
+    <mergeCell ref="AR294:AR298"/>
+    <mergeCell ref="AS294:AS298"/>
+    <mergeCell ref="AT290:AT293"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="G294:G298"/>
+    <mergeCell ref="H294:H298"/>
+    <mergeCell ref="I294:I298"/>
+    <mergeCell ref="J294:J298"/>
+    <mergeCell ref="K294:K298"/>
+    <mergeCell ref="L294:L298"/>
+    <mergeCell ref="M294:M298"/>
+    <mergeCell ref="N294:N298"/>
+    <mergeCell ref="O294:O298"/>
+    <mergeCell ref="P294:P298"/>
+    <mergeCell ref="Q294:Q298"/>
+    <mergeCell ref="R294:R298"/>
+    <mergeCell ref="S294:S298"/>
+    <mergeCell ref="T294:T298"/>
+    <mergeCell ref="U294:U298"/>
+    <mergeCell ref="AG290:AG293"/>
+    <mergeCell ref="AH290:AH293"/>
+    <mergeCell ref="AI290:AI293"/>
+    <mergeCell ref="AJ290:AJ293"/>
+    <mergeCell ref="X290:X293"/>
+    <mergeCell ref="Y290:Y293"/>
+    <mergeCell ref="Z290:Z293"/>
+    <mergeCell ref="AA290:AA293"/>
+    <mergeCell ref="AB290:AB293"/>
+    <mergeCell ref="AC290:AC293"/>
+    <mergeCell ref="AD290:AD293"/>
+    <mergeCell ref="AE290:AE293"/>
+    <mergeCell ref="AF290:AF293"/>
+    <mergeCell ref="O290:O293"/>
+    <mergeCell ref="P290:P293"/>
+    <mergeCell ref="Q290:Q293"/>
+    <mergeCell ref="R290:R293"/>
+    <mergeCell ref="S290:S293"/>
+    <mergeCell ref="T290:T293"/>
+    <mergeCell ref="U290:U293"/>
+    <mergeCell ref="V290:V293"/>
+    <mergeCell ref="W290:W293"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="G290:G293"/>
+    <mergeCell ref="H290:H293"/>
+    <mergeCell ref="I290:I293"/>
+    <mergeCell ref="J290:J293"/>
+    <mergeCell ref="K290:K293"/>
+    <mergeCell ref="L290:L293"/>
+    <mergeCell ref="M290:M293"/>
+    <mergeCell ref="N290:N293"/>
+    <mergeCell ref="AP283:AP289"/>
+    <mergeCell ref="AQ283:AQ289"/>
+    <mergeCell ref="AR283:AR289"/>
+    <mergeCell ref="AS283:AS289"/>
+    <mergeCell ref="AT283:AT289"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A286:B286"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="AG283:AG289"/>
+    <mergeCell ref="AH283:AH289"/>
+    <mergeCell ref="AI283:AI289"/>
+    <mergeCell ref="AJ283:AJ289"/>
+    <mergeCell ref="AK283:AK289"/>
+    <mergeCell ref="AL283:AL289"/>
+    <mergeCell ref="AM283:AM289"/>
+    <mergeCell ref="AN283:AN289"/>
+    <mergeCell ref="AO283:AO289"/>
+    <mergeCell ref="X283:X289"/>
+    <mergeCell ref="Y283:Y289"/>
+    <mergeCell ref="Z283:Z289"/>
+    <mergeCell ref="AA283:AA289"/>
+    <mergeCell ref="AB283:AB289"/>
+    <mergeCell ref="AC283:AC289"/>
+    <mergeCell ref="AD283:AD289"/>
+    <mergeCell ref="AE283:AE289"/>
+    <mergeCell ref="AF283:AF289"/>
+    <mergeCell ref="O283:O289"/>
+    <mergeCell ref="P283:P289"/>
+    <mergeCell ref="Q283:Q289"/>
+    <mergeCell ref="R283:R289"/>
+    <mergeCell ref="S283:S289"/>
+    <mergeCell ref="T283:T289"/>
+    <mergeCell ref="U283:U289"/>
+    <mergeCell ref="V283:V289"/>
+    <mergeCell ref="W283:W289"/>
+    <mergeCell ref="A283:B283"/>
+    <mergeCell ref="G283:G289"/>
+    <mergeCell ref="H283:H289"/>
+    <mergeCell ref="I283:I289"/>
+    <mergeCell ref="J283:J289"/>
+    <mergeCell ref="K283:K289"/>
+    <mergeCell ref="L283:L289"/>
+    <mergeCell ref="M283:M289"/>
+    <mergeCell ref="N283:N289"/>
+    <mergeCell ref="A277:B277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A280:B280"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A274:B274"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A271:B271"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A262:B262"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A265:B265"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A256:B256"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A253:B253"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A259:B259"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A244:B244"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A238:B238"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A235:B235"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A226:B226"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A220:B220"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A211:B211"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A214:B214"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:B217"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A202:B202"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A205:B205"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:B193"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A196:B196"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A199:B199"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A187:B187"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A190:B190"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A175:B175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A178:B178"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A181:B181"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A166:B166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A169:B169"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A172:B172"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A163:B163"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A151:B151"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A154:B154"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A139:B139"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:B142"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A145:B145"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A133:B133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A124:B124"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A97:B97"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="V3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="AV1:AV4"/>
+    <mergeCell ref="BC3:BC4"/>
+    <mergeCell ref="AZ3:AZ4"/>
+    <mergeCell ref="BA3:BA4"/>
+    <mergeCell ref="BE3:BE4"/>
+    <mergeCell ref="BF3:BF4"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AW3:AW4"/>
+    <mergeCell ref="AX3:AX4"/>
+    <mergeCell ref="AY3:AY4"/>
+    <mergeCell ref="BB2:BB4"/>
+    <mergeCell ref="BH10:BJ10"/>
+    <mergeCell ref="BH13:BJ13"/>
+    <mergeCell ref="BH11:BJ11"/>
+    <mergeCell ref="BH40:BI40"/>
+    <mergeCell ref="AW8:AY8"/>
+    <mergeCell ref="AZ2:BA2"/>
+    <mergeCell ref="BC2:BF2"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="AZ1:BF1"/>
+    <mergeCell ref="AW9:AY9"/>
+    <mergeCell ref="AW10:AY10"/>
+    <mergeCell ref="AW11:AY11"/>
+    <mergeCell ref="AW12:AY12"/>
+    <mergeCell ref="AW13:AY13"/>
+    <mergeCell ref="AW14:AY14"/>
+    <mergeCell ref="AW15:AY15"/>
+    <mergeCell ref="AW16:AY16"/>
+    <mergeCell ref="AW17:AY17"/>
+    <mergeCell ref="AW22:AY22"/>
+    <mergeCell ref="AZ22:BA22"/>
+    <mergeCell ref="BC22:BF22"/>
+    <mergeCell ref="BH22:BJ22"/>
+    <mergeCell ref="AW23:AY23"/>
+    <mergeCell ref="AZ23:BA23"/>
+    <mergeCell ref="BH62:BJ62"/>
+    <mergeCell ref="BH63:BI63"/>
+    <mergeCell ref="BH64:BI64"/>
+    <mergeCell ref="BH68:BJ68"/>
+    <mergeCell ref="BH1:BJ1"/>
+    <mergeCell ref="BL3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BH163:BI163"/>
+    <mergeCell ref="BH44:BJ44"/>
+    <mergeCell ref="BH45:BJ45"/>
+    <mergeCell ref="BH2:BH4"/>
+    <mergeCell ref="BI2:BI4"/>
+    <mergeCell ref="BJ2:BJ4"/>
+    <mergeCell ref="BH46:BJ46"/>
+    <mergeCell ref="BH90:BI90"/>
+    <mergeCell ref="BH91:BI91"/>
+    <mergeCell ref="BH92:BI92"/>
+    <mergeCell ref="BH53:BI53"/>
+    <mergeCell ref="BH107:BJ107"/>
+    <mergeCell ref="BH56:BI56"/>
+    <mergeCell ref="BH5:BJ5"/>
+    <mergeCell ref="BH6:BJ6"/>
+    <mergeCell ref="BH7:BJ7"/>
+    <mergeCell ref="BH9:BJ9"/>
     <mergeCell ref="BH212:BJ212"/>
     <mergeCell ref="BH213:BJ213"/>
     <mergeCell ref="BH207:BI207"/>
@@ -66187,755 +67061,6 @@
     <mergeCell ref="BH147:BJ147"/>
     <mergeCell ref="BH150:BJ150"/>
     <mergeCell ref="BH61:BJ61"/>
-    <mergeCell ref="BH62:BJ62"/>
-    <mergeCell ref="BH63:BI63"/>
-    <mergeCell ref="BH64:BI64"/>
-    <mergeCell ref="BH68:BJ68"/>
-    <mergeCell ref="BH1:BJ1"/>
-    <mergeCell ref="BL3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BH163:BI163"/>
-    <mergeCell ref="BH44:BJ44"/>
-    <mergeCell ref="BH45:BJ45"/>
-    <mergeCell ref="BH2:BH4"/>
-    <mergeCell ref="BI2:BI4"/>
-    <mergeCell ref="BJ2:BJ4"/>
-    <mergeCell ref="BH46:BJ46"/>
-    <mergeCell ref="BH90:BI90"/>
-    <mergeCell ref="BH91:BI91"/>
-    <mergeCell ref="BH92:BI92"/>
-    <mergeCell ref="BH53:BI53"/>
-    <mergeCell ref="BH107:BJ107"/>
-    <mergeCell ref="BH56:BI56"/>
-    <mergeCell ref="BH5:BJ5"/>
-    <mergeCell ref="BH6:BJ6"/>
-    <mergeCell ref="BH7:BJ7"/>
-    <mergeCell ref="BH9:BJ9"/>
-    <mergeCell ref="BH10:BJ10"/>
-    <mergeCell ref="BH13:BJ13"/>
-    <mergeCell ref="BH11:BJ11"/>
-    <mergeCell ref="BH40:BI40"/>
-    <mergeCell ref="AW8:AY8"/>
-    <mergeCell ref="AZ2:BA2"/>
-    <mergeCell ref="BC2:BF2"/>
-    <mergeCell ref="BD3:BD4"/>
-    <mergeCell ref="AZ1:BF1"/>
-    <mergeCell ref="AV1:AV4"/>
-    <mergeCell ref="BC3:BC4"/>
-    <mergeCell ref="AZ3:AZ4"/>
-    <mergeCell ref="BA3:BA4"/>
-    <mergeCell ref="BE3:BE4"/>
-    <mergeCell ref="BF3:BF4"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AW3:AW4"/>
-    <mergeCell ref="AX3:AX4"/>
-    <mergeCell ref="AY3:AY4"/>
-    <mergeCell ref="BB2:BB4"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="M3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="V3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A97:B97"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A114:B114"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A117:B117"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A123:B123"/>
-    <mergeCell ref="A124:B124"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A126:B126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="A130:B130"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A133:B133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:B135"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A138:B138"/>
-    <mergeCell ref="A139:B139"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:B142"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A145:B145"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A147:B147"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A150:B150"/>
-    <mergeCell ref="A151:B151"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A153:B153"/>
-    <mergeCell ref="A154:B154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A156:B156"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A159:B159"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A163:B163"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A165:B165"/>
-    <mergeCell ref="A166:B166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A169:B169"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A171:B171"/>
-    <mergeCell ref="A172:B172"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A174:B174"/>
-    <mergeCell ref="A175:B175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:B177"/>
-    <mergeCell ref="A178:B178"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A180:B180"/>
-    <mergeCell ref="A181:B181"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A183:B183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A186:B186"/>
-    <mergeCell ref="A187:B187"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A189:B189"/>
-    <mergeCell ref="A190:B190"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A193:B193"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A195:B195"/>
-    <mergeCell ref="A196:B196"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A198:B198"/>
-    <mergeCell ref="A199:B199"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:B201"/>
-    <mergeCell ref="A202:B202"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A204:B204"/>
-    <mergeCell ref="A205:B205"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A207:B207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A210:B210"/>
-    <mergeCell ref="A211:B211"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A213:B213"/>
-    <mergeCell ref="A214:B214"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:B217"/>
-    <mergeCell ref="A222:B222"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:B225"/>
-    <mergeCell ref="A226:B226"/>
-    <mergeCell ref="A219:B219"/>
-    <mergeCell ref="A220:B220"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A235:B235"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A231:B231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A234:B234"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A228:B228"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A243:B243"/>
-    <mergeCell ref="A244:B244"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A237:B237"/>
-    <mergeCell ref="A238:B238"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A246:B246"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A255:B255"/>
-    <mergeCell ref="A256:B256"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A252:B252"/>
-    <mergeCell ref="A253:B253"/>
-    <mergeCell ref="A249:B249"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A258:B258"/>
-    <mergeCell ref="A259:B259"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="A271:B271"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A267:B267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A261:B261"/>
-    <mergeCell ref="A262:B262"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A264:B264"/>
-    <mergeCell ref="A265:B265"/>
-    <mergeCell ref="A277:B277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:B279"/>
-    <mergeCell ref="A280:B280"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A273:B273"/>
-    <mergeCell ref="A274:B274"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A283:B283"/>
-    <mergeCell ref="G283:G289"/>
-    <mergeCell ref="H283:H289"/>
-    <mergeCell ref="I283:I289"/>
-    <mergeCell ref="J283:J289"/>
-    <mergeCell ref="K283:K289"/>
-    <mergeCell ref="L283:L289"/>
-    <mergeCell ref="M283:M289"/>
-    <mergeCell ref="N283:N289"/>
-    <mergeCell ref="AB283:AB289"/>
-    <mergeCell ref="AC283:AC289"/>
-    <mergeCell ref="AD283:AD289"/>
-    <mergeCell ref="AE283:AE289"/>
-    <mergeCell ref="AF283:AF289"/>
-    <mergeCell ref="O283:O289"/>
-    <mergeCell ref="P283:P289"/>
-    <mergeCell ref="Q283:Q289"/>
-    <mergeCell ref="R283:R289"/>
-    <mergeCell ref="S283:S289"/>
-    <mergeCell ref="T283:T289"/>
-    <mergeCell ref="U283:U289"/>
-    <mergeCell ref="V283:V289"/>
-    <mergeCell ref="W283:W289"/>
-    <mergeCell ref="AP283:AP289"/>
-    <mergeCell ref="AQ283:AQ289"/>
-    <mergeCell ref="AR283:AR289"/>
-    <mergeCell ref="AS283:AS289"/>
-    <mergeCell ref="AT283:AT289"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A285:B285"/>
-    <mergeCell ref="A286:B286"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="AG283:AG289"/>
-    <mergeCell ref="AH283:AH289"/>
-    <mergeCell ref="AI283:AI289"/>
-    <mergeCell ref="AJ283:AJ289"/>
-    <mergeCell ref="AK283:AK289"/>
-    <mergeCell ref="AL283:AL289"/>
-    <mergeCell ref="AM283:AM289"/>
-    <mergeCell ref="AN283:AN289"/>
-    <mergeCell ref="AO283:AO289"/>
-    <mergeCell ref="X283:X289"/>
-    <mergeCell ref="Y283:Y289"/>
-    <mergeCell ref="Z283:Z289"/>
-    <mergeCell ref="AA283:AA289"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="G290:G293"/>
-    <mergeCell ref="H290:H293"/>
-    <mergeCell ref="I290:I293"/>
-    <mergeCell ref="J290:J293"/>
-    <mergeCell ref="K290:K293"/>
-    <mergeCell ref="L290:L293"/>
-    <mergeCell ref="M290:M293"/>
-    <mergeCell ref="N290:N293"/>
-    <mergeCell ref="O290:O293"/>
-    <mergeCell ref="P290:P293"/>
-    <mergeCell ref="Q290:Q293"/>
-    <mergeCell ref="R290:R293"/>
-    <mergeCell ref="S290:S293"/>
-    <mergeCell ref="T290:T293"/>
-    <mergeCell ref="U290:U293"/>
-    <mergeCell ref="V290:V293"/>
-    <mergeCell ref="W290:W293"/>
-    <mergeCell ref="U294:U298"/>
-    <mergeCell ref="AG290:AG293"/>
-    <mergeCell ref="AH290:AH293"/>
-    <mergeCell ref="AI290:AI293"/>
-    <mergeCell ref="AJ290:AJ293"/>
-    <mergeCell ref="X290:X293"/>
-    <mergeCell ref="Y290:Y293"/>
-    <mergeCell ref="Z290:Z293"/>
-    <mergeCell ref="AA290:AA293"/>
-    <mergeCell ref="AB290:AB293"/>
-    <mergeCell ref="AC290:AC293"/>
-    <mergeCell ref="AD290:AD293"/>
-    <mergeCell ref="AE290:AE293"/>
-    <mergeCell ref="AF290:AF293"/>
-    <mergeCell ref="AO294:AO298"/>
-    <mergeCell ref="AP294:AP298"/>
-    <mergeCell ref="AQ294:AQ298"/>
-    <mergeCell ref="AR294:AR298"/>
-    <mergeCell ref="AS294:AS298"/>
-    <mergeCell ref="AT290:AT293"/>
-    <mergeCell ref="A291:B291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="G294:G298"/>
-    <mergeCell ref="H294:H298"/>
-    <mergeCell ref="I294:I298"/>
-    <mergeCell ref="J294:J298"/>
-    <mergeCell ref="K294:K298"/>
-    <mergeCell ref="L294:L298"/>
-    <mergeCell ref="M294:M298"/>
-    <mergeCell ref="N294:N298"/>
-    <mergeCell ref="O294:O298"/>
-    <mergeCell ref="P294:P298"/>
-    <mergeCell ref="Q294:Q298"/>
-    <mergeCell ref="R294:R298"/>
-    <mergeCell ref="S294:S298"/>
-    <mergeCell ref="T294:T298"/>
-    <mergeCell ref="AP290:AP293"/>
-    <mergeCell ref="AQ290:AQ293"/>
-    <mergeCell ref="AR290:AR293"/>
-    <mergeCell ref="AS290:AS293"/>
-    <mergeCell ref="AK290:AK293"/>
-    <mergeCell ref="AL290:AL293"/>
-    <mergeCell ref="AM290:AM293"/>
-    <mergeCell ref="AN290:AN293"/>
-    <mergeCell ref="AO290:AO293"/>
-    <mergeCell ref="AT294:AT298"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="AE294:AE298"/>
-    <mergeCell ref="AF294:AF298"/>
-    <mergeCell ref="AG294:AG298"/>
-    <mergeCell ref="AH294:AH298"/>
-    <mergeCell ref="AI294:AI298"/>
-    <mergeCell ref="AJ294:AJ298"/>
-    <mergeCell ref="AK294:AK298"/>
-    <mergeCell ref="AL294:AL298"/>
-    <mergeCell ref="AM294:AM298"/>
-    <mergeCell ref="V294:V298"/>
-    <mergeCell ref="W294:W298"/>
-    <mergeCell ref="X294:X298"/>
-    <mergeCell ref="Y294:Y298"/>
-    <mergeCell ref="Z294:Z298"/>
-    <mergeCell ref="AA294:AA298"/>
-    <mergeCell ref="AB294:AB298"/>
-    <mergeCell ref="AC294:AC298"/>
-    <mergeCell ref="AD294:AD298"/>
-    <mergeCell ref="AN294:AN298"/>
-    <mergeCell ref="O299:O304"/>
-    <mergeCell ref="P299:P304"/>
-    <mergeCell ref="Q299:Q304"/>
-    <mergeCell ref="R299:R304"/>
-    <mergeCell ref="S299:S304"/>
-    <mergeCell ref="T299:T304"/>
-    <mergeCell ref="U299:U304"/>
-    <mergeCell ref="V299:V304"/>
-    <mergeCell ref="AD299:AD304"/>
-    <mergeCell ref="W299:W304"/>
-    <mergeCell ref="X299:X304"/>
-    <mergeCell ref="Y299:Y304"/>
-    <mergeCell ref="Z299:Z304"/>
-    <mergeCell ref="AA299:AA304"/>
-    <mergeCell ref="AB299:AB304"/>
-    <mergeCell ref="AC299:AC304"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="G299:G304"/>
-    <mergeCell ref="H299:H304"/>
-    <mergeCell ref="I299:I304"/>
-    <mergeCell ref="J299:J304"/>
-    <mergeCell ref="K299:K304"/>
-    <mergeCell ref="L299:L304"/>
-    <mergeCell ref="M299:M304"/>
-    <mergeCell ref="N299:N304"/>
-    <mergeCell ref="AL299:AL304"/>
-    <mergeCell ref="AM299:AM304"/>
-    <mergeCell ref="AE299:AE304"/>
-    <mergeCell ref="AF299:AF304"/>
-    <mergeCell ref="AG299:AG304"/>
-    <mergeCell ref="AH299:AH304"/>
-    <mergeCell ref="AI299:AI304"/>
-    <mergeCell ref="AJ299:AJ304"/>
-    <mergeCell ref="AK299:AK304"/>
-    <mergeCell ref="AO305:AO307"/>
-    <mergeCell ref="AP305:AP307"/>
-    <mergeCell ref="AN299:AN304"/>
-    <mergeCell ref="AO299:AO304"/>
-    <mergeCell ref="AP299:AP304"/>
-    <mergeCell ref="AQ299:AQ304"/>
-    <mergeCell ref="AQ305:AQ307"/>
-    <mergeCell ref="AR299:AR304"/>
-    <mergeCell ref="AS299:AS304"/>
-    <mergeCell ref="AR305:AR307"/>
-    <mergeCell ref="AS305:AS307"/>
-    <mergeCell ref="AT299:AT304"/>
-    <mergeCell ref="A300:B300"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A303:B303"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="G305:G307"/>
-    <mergeCell ref="H305:H307"/>
-    <mergeCell ref="I305:I307"/>
-    <mergeCell ref="J305:J307"/>
-    <mergeCell ref="K305:K307"/>
-    <mergeCell ref="L305:L307"/>
-    <mergeCell ref="M305:M307"/>
-    <mergeCell ref="N305:N307"/>
-    <mergeCell ref="O305:O307"/>
-    <mergeCell ref="P305:P307"/>
-    <mergeCell ref="Q305:Q307"/>
-    <mergeCell ref="R305:R307"/>
-    <mergeCell ref="S305:S307"/>
-    <mergeCell ref="T305:T307"/>
-    <mergeCell ref="U305:U307"/>
-    <mergeCell ref="V305:V307"/>
-    <mergeCell ref="W305:W307"/>
-    <mergeCell ref="Z305:Z307"/>
-    <mergeCell ref="AA305:AA307"/>
-    <mergeCell ref="AB305:AB307"/>
-    <mergeCell ref="AC305:AC307"/>
-    <mergeCell ref="AD305:AD307"/>
-    <mergeCell ref="AE305:AE307"/>
-    <mergeCell ref="V308:V311"/>
-    <mergeCell ref="W308:W311"/>
-    <mergeCell ref="X308:X311"/>
-    <mergeCell ref="Y308:Y311"/>
-    <mergeCell ref="Z308:Z311"/>
-    <mergeCell ref="AA308:AA311"/>
-    <mergeCell ref="AB308:AB311"/>
-    <mergeCell ref="AC308:AC311"/>
-    <mergeCell ref="X305:X307"/>
-    <mergeCell ref="Y305:Y307"/>
-    <mergeCell ref="AF305:AF307"/>
-    <mergeCell ref="AG305:AG307"/>
-    <mergeCell ref="AH305:AH307"/>
-    <mergeCell ref="AI305:AI307"/>
-    <mergeCell ref="AJ305:AJ307"/>
-    <mergeCell ref="AK305:AK307"/>
-    <mergeCell ref="AL305:AL307"/>
-    <mergeCell ref="AM305:AM307"/>
-    <mergeCell ref="AN305:AN307"/>
-    <mergeCell ref="AK308:AK311"/>
-    <mergeCell ref="AL308:AL311"/>
-    <mergeCell ref="AM308:AM311"/>
-    <mergeCell ref="AN308:AN311"/>
-    <mergeCell ref="M308:M311"/>
-    <mergeCell ref="N308:N311"/>
-    <mergeCell ref="O308:O311"/>
-    <mergeCell ref="P308:P311"/>
-    <mergeCell ref="Q308:Q311"/>
-    <mergeCell ref="R308:R311"/>
-    <mergeCell ref="S308:S311"/>
-    <mergeCell ref="T308:T311"/>
-    <mergeCell ref="U308:U311"/>
-    <mergeCell ref="AD308:AD311"/>
-    <mergeCell ref="AE308:AE311"/>
-    <mergeCell ref="AT305:AT307"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="G308:G311"/>
-    <mergeCell ref="H308:H311"/>
-    <mergeCell ref="I308:I311"/>
-    <mergeCell ref="J308:J311"/>
-    <mergeCell ref="K308:K311"/>
-    <mergeCell ref="L308:L311"/>
-    <mergeCell ref="AO308:AO311"/>
-    <mergeCell ref="AP308:AP311"/>
-    <mergeCell ref="AQ308:AQ311"/>
-    <mergeCell ref="AR308:AR311"/>
-    <mergeCell ref="AS308:AS311"/>
-    <mergeCell ref="AT308:AT311"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A310:B310"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="AF308:AF311"/>
-    <mergeCell ref="AG308:AG311"/>
-    <mergeCell ref="AH308:AH311"/>
-    <mergeCell ref="AI308:AI311"/>
-    <mergeCell ref="AJ308:AJ311"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AT3"/>
-    <mergeCell ref="A1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:D3"/>
-    <mergeCell ref="E1:E3"/>
-    <mergeCell ref="F1:F3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="P1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AQ1"/>
-    <mergeCell ref="AR1:AT1"/>
-    <mergeCell ref="AE3:AH3"/>
-    <mergeCell ref="AI3:AL3"/>
-    <mergeCell ref="BH273:BI273"/>
-    <mergeCell ref="BH274:BI274"/>
-    <mergeCell ref="BH275:BI275"/>
-    <mergeCell ref="BH240:BJ240"/>
-    <mergeCell ref="BH241:BJ241"/>
-    <mergeCell ref="BH242:BJ242"/>
-    <mergeCell ref="BH243:BI243"/>
-    <mergeCell ref="BH244:BJ244"/>
-    <mergeCell ref="BH246:BJ246"/>
-    <mergeCell ref="BH247:BJ247"/>
-    <mergeCell ref="BH269:BI269"/>
-    <mergeCell ref="BH272:BI272"/>
-    <mergeCell ref="BH270:BJ270"/>
-    <mergeCell ref="BH261:BJ261"/>
-    <mergeCell ref="BH263:BJ263"/>
-    <mergeCell ref="BH264:BJ264"/>
-    <mergeCell ref="BH268:BJ268"/>
-    <mergeCell ref="BH250:BJ250"/>
-    <mergeCell ref="BH251:BJ251"/>
-    <mergeCell ref="BH252:BJ252"/>
-    <mergeCell ref="BH253:BJ253"/>
-    <mergeCell ref="BH254:BJ254"/>
-    <mergeCell ref="BH258:BJ258"/>
-    <mergeCell ref="BH259:BJ259"/>
-    <mergeCell ref="BH228:BJ228"/>
-    <mergeCell ref="BH214:BI214"/>
-    <mergeCell ref="BH215:BI215"/>
-    <mergeCell ref="BH222:BJ222"/>
-    <mergeCell ref="BH223:BI223"/>
-    <mergeCell ref="BH224:BJ224"/>
-    <mergeCell ref="BH225:BI225"/>
-    <mergeCell ref="BH226:BI226"/>
-    <mergeCell ref="BH231:BI231"/>
-    <mergeCell ref="BH217:BH221"/>
-    <mergeCell ref="AW9:AY9"/>
-    <mergeCell ref="AW10:AY10"/>
-    <mergeCell ref="AW11:AY11"/>
-    <mergeCell ref="AW12:AY12"/>
-    <mergeCell ref="AW13:AY13"/>
-    <mergeCell ref="AW14:AY14"/>
-    <mergeCell ref="AW15:AY15"/>
-    <mergeCell ref="AW16:AY16"/>
-    <mergeCell ref="AW17:AY17"/>
-    <mergeCell ref="AW22:AY22"/>
-    <mergeCell ref="AZ22:BA22"/>
-    <mergeCell ref="BC22:BF22"/>
-    <mergeCell ref="BH22:BJ22"/>
-    <mergeCell ref="AW23:AY23"/>
-    <mergeCell ref="AZ23:BA23"/>
-    <mergeCell ref="BC23:BF23"/>
-    <mergeCell ref="BH23:BJ23"/>
-    <mergeCell ref="AW18:AY18"/>
-    <mergeCell ref="AW19:AY19"/>
-    <mergeCell ref="AZ19:BF19"/>
-    <mergeCell ref="BH19:BJ19"/>
-    <mergeCell ref="AW20:AY20"/>
-    <mergeCell ref="AW21:AY21"/>
-    <mergeCell ref="AZ20:BA20"/>
-    <mergeCell ref="BC20:BF20"/>
-    <mergeCell ref="BH20:BJ20"/>
-    <mergeCell ref="AZ21:BA21"/>
-    <mergeCell ref="BC21:BF21"/>
-    <mergeCell ref="BH21:BJ21"/>
-    <mergeCell ref="BH18:BJ18"/>
-    <mergeCell ref="AW24:AY24"/>
-    <mergeCell ref="AW25:AY25"/>
-    <mergeCell ref="AW26:AY26"/>
-    <mergeCell ref="AW27:AY27"/>
-    <mergeCell ref="AW28:AY28"/>
-    <mergeCell ref="AZ28:BA28"/>
-    <mergeCell ref="BC28:BF28"/>
-    <mergeCell ref="AW29:AY29"/>
-    <mergeCell ref="AZ29:BA29"/>
-    <mergeCell ref="BC29:BF29"/>
-    <mergeCell ref="AW30:AY30"/>
-    <mergeCell ref="AZ30:BA30"/>
-    <mergeCell ref="BC30:BF30"/>
-    <mergeCell ref="BH30:BJ30"/>
-    <mergeCell ref="AW31:AY31"/>
-    <mergeCell ref="AZ31:BA31"/>
-    <mergeCell ref="BC31:BF31"/>
-    <mergeCell ref="BH31:BJ31"/>
-    <mergeCell ref="AW32:AY32"/>
-    <mergeCell ref="AZ32:BA32"/>
-    <mergeCell ref="BC32:BF32"/>
-    <mergeCell ref="BH32:BJ32"/>
-    <mergeCell ref="BG2:BG4"/>
-    <mergeCell ref="BH74:BJ74"/>
-    <mergeCell ref="BH76:BJ76"/>
-    <mergeCell ref="BH77:BI77"/>
-    <mergeCell ref="BH78:BI78"/>
-    <mergeCell ref="BH151:BJ151"/>
-    <mergeCell ref="BH152:BJ152"/>
-    <mergeCell ref="BH153:BJ153"/>
-    <mergeCell ref="BH154:BJ154"/>
-    <mergeCell ref="BH79:BI79"/>
-    <mergeCell ref="BH80:BI80"/>
-    <mergeCell ref="BH81:BI81"/>
-    <mergeCell ref="BH83:BJ83"/>
-    <mergeCell ref="BH12:BJ12"/>
-    <mergeCell ref="BH69:BJ69"/>
-    <mergeCell ref="BH70:BJ70"/>
-    <mergeCell ref="BH71:BJ71"/>
-    <mergeCell ref="BH72:BJ72"/>
-    <mergeCell ref="BH73:BJ73"/>
-    <mergeCell ref="BH14:BJ14"/>
-    <mergeCell ref="BH16:BJ16"/>
-    <mergeCell ref="BH17:BJ17"/>
-    <mergeCell ref="BH28:BJ28"/>
-    <mergeCell ref="BH37:BJ37"/>
-    <mergeCell ref="AW33:AY33"/>
-    <mergeCell ref="AZ33:BA33"/>
-    <mergeCell ref="BH249:BJ249"/>
-    <mergeCell ref="BH209:BI209"/>
-    <mergeCell ref="BH210:BI210"/>
-    <mergeCell ref="BH148:BJ148"/>
-    <mergeCell ref="BH57:BJ57"/>
-    <mergeCell ref="BH58:BJ58"/>
-    <mergeCell ref="BH59:BJ59"/>
-    <mergeCell ref="BH60:BJ60"/>
-    <mergeCell ref="BH155:BJ155"/>
-    <mergeCell ref="BH157:BI157"/>
-    <mergeCell ref="BH161:BI161"/>
-    <mergeCell ref="BC33:BF33"/>
-    <mergeCell ref="BH234:BI235"/>
-    <mergeCell ref="BH232:BI233"/>
-    <mergeCell ref="BH162:BI162"/>
-    <mergeCell ref="BH174:BJ174"/>
-    <mergeCell ref="BH164:BI164"/>
-    <mergeCell ref="BH206:BI206"/>
-    <mergeCell ref="BH236:BI236"/>
-    <mergeCell ref="BH238:BI238"/>
-    <mergeCell ref="BH239:BJ239"/>
-    <mergeCell ref="BH227:BI227"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -67219,7 +67344,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="1" stopIfTrue="1">
       <formula>LEFT($C2,2)="BG"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -72519,7 +72644,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -77902,21 +78027,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
@@ -78095,10 +78205,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2ABEC9-400A-419C-B8CB-07BFC3B042E4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC3CD1A7-F08A-4A8D-9AEF-A59447959E12}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -78121,20 +78257,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC3CD1A7-F08A-4A8D-9AEF-A59447959E12}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E2ABEC9-400A-419C-B8CB-07BFC3B042E4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -78904,8 +78904,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -78956,7 +78956,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -78975,7 +78975,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -78992,8 +78992,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -79108,20 +79108,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC3CD1A7-F08A-4A8D-9AEF-A59447959E12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8A5830-921D-4565-A02D-3BF9EA571BFC}"/>
 </file>
--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -78888,8 +78888,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3bf4e89828d0d3cc2fc23292c739d613">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffc63a8b47298d93c51fdc2582bdfc36" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -78904,6 +78904,8 @@
                 <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
                 <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -78930,6 +78932,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -79082,22 +79096,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC3CD1A7-F08A-4A8D-9AEF-A59447959E12}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{66F3A82C-3F90-4504-A4D4-1890C6BDC9CC}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -18059,35 +18059,6 @@
 GroupLot hasID Identifier</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">CAN isA Notice,
-Notice isA Document,
-Document summarises (subproperty of relares To) Procedure,
-Procedure has Buyer,
-Organization hasContactPoint ContactPoint, 
-ContactPoint </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>hasEmail</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Text</t>
-    </r>
-  </si>
-  <si>
     <t>The eMail address used to reach a person or an organisation.</t>
   </si>
   <si>
@@ -20591,13 +20562,6 @@
 Procedure has Buyer,
 Buyer isParty Agent, Organization isA Agent,  
 Organization hasContactPoint ContactPoint, 
-ContactPoint hasEmail Text</t>
-  </si>
-  <si>
-    <t>Notice isA Document, Document announces (subproperty of refers to) Procedure,
-Procedure has Buyer,
-Buyer isParty Agent, Organization isA Agent,  
-Organization hasContactPoint ContactPoint, 
 ContactPoint hasTelephone Text</t>
   </si>
   <si>
@@ -20797,24 +20761,6 @@
 PlannedProcurementPart isPlannedBy Buyer, 
 Buyer isParty Agent, Organization isA Agent,  
 Organization hasContactPoint ContactPoint</t>
-  </si>
-  <si>
-    <t>PIN isA Notice, 
-Notice isA Document, 
-Document notifies(subproperty of Document refersTo) PlannedProcurementPart,
-PlannedProcurementPart isPlannedBy Buyer, 
-Buyer isParty Agent, Organization isA Agent,  
-Organization hasContactPoint ContactPoint,
-ContactPoint hasEmail Text</t>
-  </si>
-  <si>
-    <t>PIN isA Notice, 
-Notice isA Document, 
-Document notifies(subproperty of Document refersTo) PlannedProcurementPart,
-PlannedProcurementPart isPlannedBy Buyer, 
-Buyer isParty Agent, Organization isA Agent,  
-Organization hasContactPoint ContactPoint, 
-ContactPoint hasEmail Text</t>
   </si>
   <si>
     <t>PIN isA Notice, 
@@ -23162,6 +23108,61 @@
   </si>
   <si>
     <t>In PIN Time-limit the Notice will contain a reference either to PlannedProcurementPart or conversely to Procedure (both are disjoint, see also the diagram Planning). This implies that for PIN Time-limit it is necessary first to discern the exsitence of one of these classes to know how to get to specific information. For example some ContractTerms properties like PlaceOfPerformance could be reached either starting from PlannedProcurementPart or trhough the Lots linked to the Proceudre.</t>
+  </si>
+  <si>
+    <t>PIN isA Notice, 
+Notice isA Document, 
+Document notifies(subproperty of Document refersTo) PlannedProcurementPart,
+PlannedProcurementPart isPlannedBy Buyer, 
+Buyer isParty Agent, Organization isA Agent,  
+Organization hasContactPoint ContactPoint, 
+ContactPoint hasEmail URI</t>
+  </si>
+  <si>
+    <t>Notice isA Document, Document announces (subproperty of refers to) Procedure,
+Procedure has Buyer,
+Buyer isParty Agent, Organization isA Agent,  
+Organization hasContactPoint ContactPoint, 
+ContactPoint hasEmail URI</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CAN isA Notice,
+Notice isA Document,
+Document summarises (subproperty of relares To) Procedure,
+Procedure has Buyer,
+Organization hasContactPoint ContactPoint, 
+ContactPoint </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>hasEmail</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> URI</t>
+    </r>
+  </si>
+  <si>
+    <t>PIN isA Notice, 
+Notice isA Document, 
+Document notifies(subproperty of Document refersTo) PlannedProcurementPart,
+PlannedProcurementPart isPlannedBy Buyer, 
+Buyer isRolePlayedBy Agent, 
+Organization isA Agent,  
+Organization hasContactPoint ContactPoint,
+ContactPoint hasEmail URI</t>
   </si>
 </sst>
 </file>
@@ -25801,9 +25802,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BP312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU68" sqref="AU68"/>
+    <sheetView tabSelected="1" topLeftCell="AV1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW28" sqref="AW28:AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -25892,7 +25893,7 @@
       <c r="AC1" s="363"/>
       <c r="AD1" s="364"/>
       <c r="AE1" s="362" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="AF1" s="363"/>
       <c r="AG1" s="363"/>
@@ -25934,7 +25935,7 @@
       <c r="BE1" s="415"/>
       <c r="BF1" s="416"/>
       <c r="BG1" s="199" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="BH1" s="447" t="s">
         <v>925</v>
@@ -25942,7 +25943,7 @@
       <c r="BI1" s="447"/>
       <c r="BJ1" s="447"/>
       <c r="BK1" s="440" t="s">
-        <v>3008</v>
+        <v>3007</v>
       </c>
     </row>
     <row r="2" spans="1:68" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -26091,7 +26092,7 @@
       <c r="BE2" s="405"/>
       <c r="BF2" s="405"/>
       <c r="BG2" s="417" t="s">
-        <v>3254</v>
+        <v>3250</v>
       </c>
       <c r="BH2" s="435" t="s">
         <v>2331</v>
@@ -26196,14 +26197,14 @@
         <v>642</v>
       </c>
       <c r="BA3" s="403" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="BB3" s="412"/>
       <c r="BC3" s="403" t="s">
         <v>642</v>
       </c>
       <c r="BD3" s="405" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="BE3" s="405" t="s">
         <v>643</v>
@@ -26526,7 +26527,7 @@
         <v>2360</v>
       </c>
       <c r="BB5" s="229" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="BC5" s="203" t="s">
         <v>2472</v>
@@ -26541,7 +26542,7 @@
         <v>2474</v>
       </c>
       <c r="BG5" s="272" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="BH5" s="294" t="s">
         <v>2608</v>
@@ -26549,7 +26550,7 @@
       <c r="BI5" s="295"/>
       <c r="BJ5" s="296"/>
       <c r="BK5" s="287" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="6" spans="1:68" ht="204" x14ac:dyDescent="0.2">
@@ -26564,7 +26565,7 @@
         <v>2682</v>
       </c>
       <c r="E6" s="91" t="s">
-        <v>2742</v>
+        <v>2741</v>
       </c>
       <c r="F6" s="47" t="s">
         <v>15</v>
@@ -26691,7 +26692,7 @@
         <v>2361</v>
       </c>
       <c r="BB6" s="230" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="BC6" s="20" t="s">
         <v>2475</v>
@@ -26706,7 +26707,7 @@
         <v>2475</v>
       </c>
       <c r="BG6" s="273" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="BH6" s="319" t="s">
         <v>2610</v>
@@ -26714,7 +26715,7 @@
       <c r="BI6" s="325"/>
       <c r="BJ6" s="326"/>
       <c r="BK6" s="288" t="s">
-        <v>3010</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="7" spans="1:68" ht="357" x14ac:dyDescent="0.2">
@@ -26729,7 +26730,7 @@
         <v>17</v>
       </c>
       <c r="E7" s="91" t="s">
-        <v>2743</v>
+        <v>2742</v>
       </c>
       <c r="F7" s="47" t="s">
         <v>15</v>
@@ -26874,7 +26875,7 @@
         <v>2362</v>
       </c>
       <c r="BB7" s="21" t="s">
-        <v>2932</v>
+        <v>2931</v>
       </c>
       <c r="BC7" s="19" t="s">
         <v>2476</v>
@@ -26889,7 +26890,7 @@
         <v>2476</v>
       </c>
       <c r="BG7" s="274" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="BH7" s="319" t="s">
         <v>2609</v>
@@ -26897,7 +26898,7 @@
       <c r="BI7" s="325"/>
       <c r="BJ7" s="326"/>
       <c r="BK7" s="288" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="8" spans="1:68" ht="81" customHeight="1" x14ac:dyDescent="0.2">
@@ -27040,7 +27041,7 @@
       <c r="AU8" s="95"/>
       <c r="AV8" s="154"/>
       <c r="AW8" s="302" t="s">
-        <v>2890</v>
+        <v>2889</v>
       </c>
       <c r="AX8" s="303"/>
       <c r="AY8" s="304"/>
@@ -27093,7 +27094,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>2744</v>
+        <v>2743</v>
       </c>
       <c r="F9" s="47" t="s">
         <v>22</v>
@@ -27234,7 +27235,7 @@
         <v>2363</v>
       </c>
       <c r="BB9" s="21" t="s">
-        <v>2933</v>
+        <v>2932</v>
       </c>
       <c r="BC9" s="19" t="s">
         <v>2477</v>
@@ -27249,7 +27250,7 @@
         <v>2477</v>
       </c>
       <c r="BG9" s="274" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="BH9" s="319" t="s">
         <v>2611</v>
@@ -27257,7 +27258,7 @@
       <c r="BI9" s="325"/>
       <c r="BJ9" s="326"/>
       <c r="BK9" s="288" t="s">
-        <v>3012</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="10" spans="1:68" ht="76.5" x14ac:dyDescent="0.2">
@@ -27272,7 +27273,7 @@
         <v>24</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>2745</v>
+        <v>2744</v>
       </c>
       <c r="F10" s="47" t="s">
         <v>22</v>
@@ -27413,7 +27414,7 @@
         <v>2364</v>
       </c>
       <c r="BB10" s="21" t="s">
-        <v>2934</v>
+        <v>2933</v>
       </c>
       <c r="BC10" s="19" t="s">
         <v>2478</v>
@@ -27428,7 +27429,7 @@
         <v>2478</v>
       </c>
       <c r="BG10" s="274" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="BH10" s="319" t="s">
         <v>2612</v>
@@ -27436,7 +27437,7 @@
       <c r="BI10" s="320"/>
       <c r="BJ10" s="321"/>
       <c r="BK10" s="288" t="s">
-        <v>3013</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="11" spans="1:68" ht="76.5" x14ac:dyDescent="0.2">
@@ -27451,7 +27452,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="91" t="s">
-        <v>2746</v>
+        <v>2745</v>
       </c>
       <c r="F11" s="47" t="s">
         <v>22</v>
@@ -27592,7 +27593,7 @@
         <v>2365</v>
       </c>
       <c r="BB11" s="21" t="s">
-        <v>2935</v>
+        <v>2934</v>
       </c>
       <c r="BC11" s="19" t="s">
         <v>2479</v>
@@ -27607,7 +27608,7 @@
         <v>2479</v>
       </c>
       <c r="BG11" s="274" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
       <c r="BH11" s="319" t="s">
         <v>2613</v>
@@ -27615,7 +27616,7 @@
       <c r="BI11" s="320"/>
       <c r="BJ11" s="321"/>
       <c r="BK11" s="288" t="s">
-        <v>3014</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="12" spans="1:68" ht="114.75" x14ac:dyDescent="0.2">
@@ -27771,7 +27772,7 @@
         <v>2366</v>
       </c>
       <c r="BB12" s="21" t="s">
-        <v>2936</v>
+        <v>2935</v>
       </c>
       <c r="BC12" s="19" t="s">
         <v>2480</v>
@@ -27786,7 +27787,7 @@
         <v>2480</v>
       </c>
       <c r="BG12" s="274" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="BH12" s="319" t="s">
         <v>2614</v>
@@ -27794,7 +27795,7 @@
       <c r="BI12" s="320"/>
       <c r="BJ12" s="321"/>
       <c r="BK12" s="288" t="s">
-        <v>3015</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="13" spans="1:68" ht="102" x14ac:dyDescent="0.2">
@@ -27809,7 +27810,7 @@
         <v>402</v>
       </c>
       <c r="E13" s="91" t="s">
-        <v>2747</v>
+        <v>2746</v>
       </c>
       <c r="F13" s="47" t="s">
         <v>29</v>
@@ -27950,7 +27951,7 @@
         <v>2367</v>
       </c>
       <c r="BB13" s="21" t="s">
-        <v>2937</v>
+        <v>2936</v>
       </c>
       <c r="BC13" s="19" t="s">
         <v>2598</v>
@@ -27965,7 +27966,7 @@
         <v>2598</v>
       </c>
       <c r="BG13" s="274" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
       <c r="BH13" s="319" t="s">
         <v>2615</v>
@@ -27973,7 +27974,7 @@
       <c r="BI13" s="320"/>
       <c r="BJ13" s="321"/>
       <c r="BK13" s="288" t="s">
-        <v>3016</v>
+        <v>3015</v>
       </c>
     </row>
     <row r="14" spans="1:68" ht="114.75" x14ac:dyDescent="0.2">
@@ -27988,7 +27989,7 @@
         <v>403</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>2748</v>
+        <v>2747</v>
       </c>
       <c r="F14" s="47" t="s">
         <v>22</v>
@@ -28129,7 +28130,7 @@
         <v>2368</v>
       </c>
       <c r="BB14" s="21" t="s">
-        <v>2938</v>
+        <v>2937</v>
       </c>
       <c r="BC14" s="19" t="s">
         <v>2481</v>
@@ -28144,7 +28145,7 @@
         <v>2481</v>
       </c>
       <c r="BG14" s="274" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="BH14" s="319" t="s">
         <v>2616</v>
@@ -28152,7 +28153,7 @@
       <c r="BI14" s="320"/>
       <c r="BJ14" s="321"/>
       <c r="BK14" s="288" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="15" spans="1:68" s="90" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -28161,13 +28162,13 @@
       </c>
       <c r="B15" s="388"/>
       <c r="C15" s="48" t="s">
-        <v>2700</v>
+        <v>2699</v>
       </c>
       <c r="D15" s="48" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="97" t="s">
-        <v>2749</v>
+        <v>2748</v>
       </c>
       <c r="F15" s="48" t="s">
         <v>11</v>
@@ -28302,7 +28303,7 @@
         <v>2369</v>
       </c>
       <c r="BB15" s="219" t="s">
-        <v>2939</v>
+        <v>2938</v>
       </c>
       <c r="BC15" s="205" t="s">
         <v>2482</v>
@@ -28469,7 +28470,7 @@
         <v>2370</v>
       </c>
       <c r="BB16" s="231" t="s">
-        <v>2940</v>
+        <v>2939</v>
       </c>
       <c r="BC16" s="35" t="s">
         <v>2476</v>
@@ -28484,7 +28485,7 @@
         <v>2476</v>
       </c>
       <c r="BG16" s="275" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
       <c r="BH16" s="319" t="s">
         <v>2617</v>
@@ -28501,13 +28502,13 @@
       </c>
       <c r="B17" s="386"/>
       <c r="C17" s="47" t="s">
-        <v>2701</v>
+        <v>2700</v>
       </c>
       <c r="D17" s="96" t="s">
         <v>404</v>
       </c>
       <c r="E17" s="100" t="s">
-        <v>2750</v>
+        <v>2749</v>
       </c>
       <c r="F17" s="47" t="s">
         <v>15</v>
@@ -28642,7 +28643,7 @@
         <v>2371</v>
       </c>
       <c r="BB17" s="21" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
       <c r="BC17" s="19" t="s">
         <v>2483</v>
@@ -28657,7 +28658,7 @@
         <v>2483</v>
       </c>
       <c r="BG17" s="274" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="BH17" s="319" t="s">
         <v>2618</v>
@@ -28674,13 +28675,13 @@
       </c>
       <c r="B18" s="388"/>
       <c r="C18" s="48" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="D18" s="102" t="s">
         <v>405</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>2751</v>
+        <v>2750</v>
       </c>
       <c r="F18" s="48" t="s">
         <v>11</v>
@@ -28829,13 +28830,13 @@
       </c>
       <c r="B19" s="386"/>
       <c r="C19" s="47" t="s">
-        <v>2703</v>
+        <v>2702</v>
       </c>
       <c r="D19" s="96" t="s">
         <v>406</v>
       </c>
       <c r="E19" s="91" t="s">
-        <v>2752</v>
+        <v>2751</v>
       </c>
       <c r="F19" s="47" t="s">
         <v>15</v>
@@ -29128,19 +29129,19 @@
       <c r="AU20" s="95"/>
       <c r="AV20" s="159"/>
       <c r="AW20" s="302" t="s">
-        <v>3059</v>
+        <v>3057</v>
       </c>
       <c r="AX20" s="303"/>
       <c r="AY20" s="304"/>
       <c r="AZ20" s="300" t="s">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="BA20" s="301"/>
       <c r="BB20" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC20" s="300" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="BD20" s="305"/>
       <c r="BE20" s="305"/>
@@ -29149,7 +29150,7 @@
         <v>645</v>
       </c>
       <c r="BH20" s="313" t="s">
-        <v>3061</v>
+        <v>3059</v>
       </c>
       <c r="BI20" s="314"/>
       <c r="BJ20" s="315"/>
@@ -29169,7 +29170,7 @@
         <v>408</v>
       </c>
       <c r="E21" s="91" t="s">
-        <v>2753</v>
+        <v>2752</v>
       </c>
       <c r="F21" s="47" t="s">
         <v>15</v>
@@ -29297,19 +29298,19 @@
       <c r="AU21" s="95"/>
       <c r="AV21" s="159"/>
       <c r="AW21" s="302" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="AX21" s="303"/>
       <c r="AY21" s="304"/>
       <c r="AZ21" s="300" t="s">
-        <v>3062</v>
+        <v>3060</v>
       </c>
       <c r="BA21" s="301"/>
       <c r="BB21" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC21" s="300" t="s">
-        <v>3063</v>
+        <v>3061</v>
       </c>
       <c r="BD21" s="305"/>
       <c r="BE21" s="305"/>
@@ -29318,7 +29319,7 @@
         <v>645</v>
       </c>
       <c r="BH21" s="313" t="s">
-        <v>3064</v>
+        <v>3062</v>
       </c>
       <c r="BI21" s="314"/>
       <c r="BJ21" s="315"/>
@@ -29338,7 +29339,7 @@
         <v>409</v>
       </c>
       <c r="E22" s="91" t="s">
-        <v>2754</v>
+        <v>2753</v>
       </c>
       <c r="F22" s="47" t="s">
         <v>37</v>
@@ -29466,19 +29467,19 @@
       <c r="AU22" s="95"/>
       <c r="AV22" s="159"/>
       <c r="AW22" s="302" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="AX22" s="303"/>
       <c r="AY22" s="304"/>
       <c r="AZ22" s="300" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="BA22" s="301"/>
       <c r="BB22" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC22" s="300" t="s">
-        <v>3066</v>
+        <v>3064</v>
       </c>
       <c r="BD22" s="305"/>
       <c r="BE22" s="305"/>
@@ -29487,7 +29488,7 @@
         <v>645</v>
       </c>
       <c r="BH22" s="313" t="s">
-        <v>3065</v>
+        <v>3063</v>
       </c>
       <c r="BI22" s="314"/>
       <c r="BJ22" s="315"/>
@@ -29507,7 +29508,7 @@
         <v>410</v>
       </c>
       <c r="E23" s="91" t="s">
-        <v>2755</v>
+        <v>2754</v>
       </c>
       <c r="F23" s="47" t="s">
         <v>37</v>
@@ -29635,19 +29636,19 @@
       <c r="AU23" s="95"/>
       <c r="AV23" s="159"/>
       <c r="AW23" s="302" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="AX23" s="303"/>
       <c r="AY23" s="304"/>
       <c r="AZ23" s="300" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="BA23" s="301"/>
       <c r="BB23" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC23" s="300" t="s">
-        <v>3068</v>
+        <v>3066</v>
       </c>
       <c r="BD23" s="305"/>
       <c r="BE23" s="305"/>
@@ -29656,7 +29657,7 @@
         <v>645</v>
       </c>
       <c r="BH23" s="313" t="s">
-        <v>3067</v>
+        <v>3065</v>
       </c>
       <c r="BI23" s="314"/>
       <c r="BJ23" s="315"/>
@@ -29676,7 +29677,7 @@
         <v>411</v>
       </c>
       <c r="E24" s="91" t="s">
-        <v>2756</v>
+        <v>2755</v>
       </c>
       <c r="F24" s="47" t="s">
         <v>37</v>
@@ -29804,7 +29805,7 @@
       <c r="AU24" s="95"/>
       <c r="AV24" s="159"/>
       <c r="AW24" s="302" t="s">
-        <v>3069</v>
+        <v>3067</v>
       </c>
       <c r="AX24" s="303"/>
       <c r="AY24" s="304"/>
@@ -29857,7 +29858,7 @@
         <v>412</v>
       </c>
       <c r="E25" s="91" t="s">
-        <v>2757</v>
+        <v>2756</v>
       </c>
       <c r="F25" s="47" t="s">
         <v>37</v>
@@ -29985,7 +29986,7 @@
       <c r="AU25" s="95"/>
       <c r="AV25" s="159"/>
       <c r="AW25" s="302" t="s">
-        <v>3070</v>
+        <v>3068</v>
       </c>
       <c r="AX25" s="303"/>
       <c r="AY25" s="304"/>
@@ -30038,7 +30039,7 @@
         <v>413</v>
       </c>
       <c r="E26" s="91" t="s">
-        <v>2758</v>
+        <v>2757</v>
       </c>
       <c r="F26" s="47" t="s">
         <v>22</v>
@@ -30166,7 +30167,7 @@
       <c r="AU26" s="95"/>
       <c r="AV26" s="159"/>
       <c r="AW26" s="302" t="s">
-        <v>3071</v>
+        <v>3069</v>
       </c>
       <c r="AX26" s="303"/>
       <c r="AY26" s="304"/>
@@ -30219,7 +30220,7 @@
         <v>414</v>
       </c>
       <c r="E27" s="91" t="s">
-        <v>2759</v>
+        <v>2758</v>
       </c>
       <c r="F27" s="47" t="s">
         <v>22</v>
@@ -30347,7 +30348,7 @@
       <c r="AU27" s="95"/>
       <c r="AV27" s="159"/>
       <c r="AW27" s="302" t="s">
-        <v>3072</v>
+        <v>3070</v>
       </c>
       <c r="AX27" s="303"/>
       <c r="AY27" s="304"/>
@@ -30400,7 +30401,7 @@
         <v>415</v>
       </c>
       <c r="E28" s="100" t="s">
-        <v>2760</v>
+        <v>2759</v>
       </c>
       <c r="F28" s="47" t="s">
         <v>37</v>
@@ -30530,19 +30531,19 @@
         <v>899</v>
       </c>
       <c r="AW28" s="302" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="AX28" s="303"/>
       <c r="AY28" s="304"/>
       <c r="AZ28" s="300" t="s">
-        <v>3073</v>
+        <v>3071</v>
       </c>
       <c r="BA28" s="301"/>
       <c r="BB28" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC28" s="300" t="s">
-        <v>3045</v>
+        <v>3044</v>
       </c>
       <c r="BD28" s="305"/>
       <c r="BE28" s="305"/>
@@ -30551,7 +30552,7 @@
         <v>645</v>
       </c>
       <c r="BH28" s="313" t="s">
-        <v>3046</v>
+        <v>3045</v>
       </c>
       <c r="BI28" s="314"/>
       <c r="BJ28" s="315"/>
@@ -30571,7 +30572,7 @@
         <v>416</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>2761</v>
+        <v>2760</v>
       </c>
       <c r="F29" s="47" t="s">
         <v>37</v>
@@ -30698,22 +30699,22 @@
       </c>
       <c r="AU29" s="95"/>
       <c r="AV29" s="159" t="s">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AW29" s="302" t="s">
-        <v>3074</v>
+        <v>3301</v>
       </c>
       <c r="AX29" s="303"/>
       <c r="AY29" s="304"/>
       <c r="AZ29" s="300" t="s">
-        <v>3075</v>
+        <v>3298</v>
       </c>
       <c r="BA29" s="301"/>
       <c r="BB29" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC29" s="300" t="s">
-        <v>3047</v>
+        <v>3299</v>
       </c>
       <c r="BD29" s="305"/>
       <c r="BE29" s="305"/>
@@ -30722,7 +30723,7 @@
         <v>645</v>
       </c>
       <c r="BH29" s="313" t="s">
-        <v>2692</v>
+        <v>3300</v>
       </c>
       <c r="BI29" s="314"/>
       <c r="BJ29" s="315"/>
@@ -30742,7 +30743,7 @@
         <v>417</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="F30" s="47" t="s">
         <v>37</v>
@@ -30869,22 +30870,22 @@
       </c>
       <c r="AU30" s="95"/>
       <c r="AV30" s="159" t="s">
-        <v>2695</v>
+        <v>2694</v>
       </c>
       <c r="AW30" s="302" t="s">
-        <v>3076</v>
+        <v>3072</v>
       </c>
       <c r="AX30" s="303"/>
       <c r="AY30" s="304"/>
       <c r="AZ30" s="300" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="BA30" s="301"/>
       <c r="BB30" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC30" s="300" t="s">
-        <v>3048</v>
+        <v>3046</v>
       </c>
       <c r="BD30" s="305"/>
       <c r="BE30" s="305"/>
@@ -30893,7 +30894,7 @@
         <v>645</v>
       </c>
       <c r="BH30" s="313" t="s">
-        <v>2694</v>
+        <v>2693</v>
       </c>
       <c r="BI30" s="314"/>
       <c r="BJ30" s="315"/>
@@ -30913,7 +30914,7 @@
         <v>418</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="F31" s="47" t="s">
         <v>37</v>
@@ -31040,22 +31041,22 @@
       </c>
       <c r="AU31" s="95"/>
       <c r="AV31" s="159" t="s">
-        <v>2696</v>
+        <v>2695</v>
       </c>
       <c r="AW31" s="302" t="s">
-        <v>3078</v>
+        <v>3074</v>
       </c>
       <c r="AX31" s="303"/>
       <c r="AY31" s="304"/>
       <c r="AZ31" s="300" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
       <c r="BA31" s="301"/>
       <c r="BB31" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC31" s="300" t="s">
-        <v>3049</v>
+        <v>3047</v>
       </c>
       <c r="BD31" s="305"/>
       <c r="BE31" s="305"/>
@@ -31064,7 +31065,7 @@
         <v>645</v>
       </c>
       <c r="BH31" s="313" t="s">
-        <v>2697</v>
+        <v>2696</v>
       </c>
       <c r="BI31" s="314"/>
       <c r="BJ31" s="315"/>
@@ -31084,7 +31085,7 @@
         <v>419</v>
       </c>
       <c r="E32" s="91" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="F32" s="47" t="s">
         <v>50</v>
@@ -31211,22 +31212,22 @@
       </c>
       <c r="AU32" s="95"/>
       <c r="AV32" s="159" t="s">
-        <v>2698</v>
+        <v>2697</v>
       </c>
       <c r="AW32" s="302" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
       <c r="AX32" s="303"/>
       <c r="AY32" s="304"/>
       <c r="AZ32" s="300" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
       <c r="BA32" s="301"/>
       <c r="BB32" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC32" s="300" t="s">
-        <v>3050</v>
+        <v>3048</v>
       </c>
       <c r="BD32" s="305"/>
       <c r="BE32" s="305"/>
@@ -31235,7 +31236,7 @@
         <v>645</v>
       </c>
       <c r="BH32" s="313" t="s">
-        <v>2699</v>
+        <v>2698</v>
       </c>
       <c r="BI32" s="314"/>
       <c r="BJ32" s="315"/>
@@ -31255,7 +31256,7 @@
         <v>420</v>
       </c>
       <c r="E33" s="91" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="F33" s="47" t="s">
         <v>50</v>
@@ -31382,22 +31383,22 @@
       </c>
       <c r="AU33" s="95"/>
       <c r="AV33" s="159" t="s">
-        <v>2972</v>
+        <v>2971</v>
       </c>
       <c r="AW33" s="302" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="AX33" s="303"/>
       <c r="AY33" s="304"/>
       <c r="AZ33" s="300" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="BA33" s="301"/>
       <c r="BB33" s="21" t="s">
         <v>645</v>
       </c>
       <c r="BC33" s="300" t="s">
-        <v>3051</v>
+        <v>3049</v>
       </c>
       <c r="BD33" s="305"/>
       <c r="BE33" s="305"/>
@@ -31558,32 +31559,32 @@
       <c r="AU34" s="105"/>
       <c r="AV34" s="159"/>
       <c r="AW34" s="302" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="AX34" s="304"/>
       <c r="AY34" s="262" t="s">
-        <v>3052</v>
+        <v>3050</v>
       </c>
       <c r="AZ34" s="300" t="s">
-        <v>3053</v>
+        <v>3051</v>
       </c>
       <c r="BA34" s="301"/>
       <c r="BB34" s="21" t="s">
+        <v>3050</v>
+      </c>
+      <c r="BC34" s="300" t="s">
         <v>3052</v>
-      </c>
-      <c r="BC34" s="300" t="s">
-        <v>3054</v>
       </c>
       <c r="BD34" s="305"/>
       <c r="BE34" s="301"/>
       <c r="BF34" s="263" t="s">
-        <v>3054</v>
+        <v>3052</v>
       </c>
       <c r="BG34" s="276" t="s">
         <v>645</v>
       </c>
       <c r="BH34" s="313" t="s">
-        <v>3055</v>
+        <v>3053</v>
       </c>
       <c r="BI34" s="314"/>
       <c r="BJ34" s="315"/>
@@ -31603,7 +31604,7 @@
         <v>422</v>
       </c>
       <c r="E35" s="91" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="F35" s="47" t="s">
         <v>22</v>
@@ -31731,19 +31732,19 @@
       <c r="AU35" s="95"/>
       <c r="AV35" s="167"/>
       <c r="AW35" s="302" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="AX35" s="303"/>
       <c r="AY35" s="304"/>
       <c r="AZ35" s="300" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="BA35" s="301"/>
       <c r="BB35" s="21" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="BC35" s="300" t="s">
-        <v>3056</v>
+        <v>3054</v>
       </c>
       <c r="BD35" s="305"/>
       <c r="BE35" s="305"/>
@@ -31776,7 +31777,7 @@
         <v>423</v>
       </c>
       <c r="E36" s="91" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="F36" s="47" t="s">
         <v>22</v>
@@ -31904,19 +31905,19 @@
       <c r="AU36" s="95"/>
       <c r="AV36" s="159"/>
       <c r="AW36" s="302" t="s">
-        <v>3057</v>
+        <v>3055</v>
       </c>
       <c r="AX36" s="303"/>
       <c r="AY36" s="304"/>
       <c r="AZ36" s="300" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="BA36" s="301"/>
       <c r="BB36" s="263" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="BC36" s="300" t="s">
-        <v>3058</v>
+        <v>3056</v>
       </c>
       <c r="BD36" s="305"/>
       <c r="BE36" s="305"/>
@@ -32100,7 +32101,7 @@
         <v>424</v>
       </c>
       <c r="E38" s="91" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="F38" s="47" t="s">
         <v>50</v>
@@ -32239,7 +32240,7 @@
         <v>2372</v>
       </c>
       <c r="BB38" s="21" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
       <c r="BC38" s="19" t="s">
         <v>2484</v>
@@ -32254,7 +32255,7 @@
         <v>2484</v>
       </c>
       <c r="BG38" s="274" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="BH38" s="319" t="s">
         <v>2619</v>
@@ -32277,7 +32278,7 @@
         <v>425</v>
       </c>
       <c r="E39" s="91" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="F39" s="47" t="s">
         <v>22</v>
@@ -32416,7 +32417,7 @@
         <v>2373</v>
       </c>
       <c r="BB39" s="21" t="s">
-        <v>2943</v>
+        <v>2942</v>
       </c>
       <c r="BC39" s="19" t="s">
         <v>2485</v>
@@ -32431,7 +32432,7 @@
         <v>2486</v>
       </c>
       <c r="BG39" s="274" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="BH39" s="319" t="s">
         <v>2620</v>
@@ -32454,7 +32455,7 @@
         <v>426</v>
       </c>
       <c r="E40" s="91" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="F40" s="47" t="s">
         <v>53</v>
@@ -32556,7 +32557,7 @@
         <v>851</v>
       </c>
       <c r="BG40" s="273" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="BH40" s="319" t="s">
         <v>2621</v>
@@ -32716,7 +32717,7 @@
         <v>2375</v>
       </c>
       <c r="BB41" s="230" t="s">
-        <v>2944</v>
+        <v>2943</v>
       </c>
       <c r="BC41" s="20" t="s">
         <v>2487</v>
@@ -32731,7 +32732,7 @@
         <v>2487</v>
       </c>
       <c r="BG41" s="273" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="BH41" s="319" t="s">
         <v>2624</v>
@@ -32867,7 +32868,7 @@
         <v>2623</v>
       </c>
       <c r="BB42" s="230" t="s">
-        <v>2945</v>
+        <v>2944</v>
       </c>
       <c r="BC42" s="20" t="s">
         <v>2622</v>
@@ -32882,7 +32883,7 @@
         <v>2622</v>
       </c>
       <c r="BG42" s="273" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="BH42" s="319" t="s">
         <v>2625</v>
@@ -32905,7 +32906,7 @@
         <v>67</v>
       </c>
       <c r="E43" s="87" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="F43" s="48" t="s">
         <v>11</v>
@@ -33006,7 +33007,7 @@
         <v>69</v>
       </c>
       <c r="E44" s="91" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="F44" s="47" t="s">
         <v>22</v>
@@ -33110,7 +33111,7 @@
         <v>851</v>
       </c>
       <c r="BG44" s="273" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="BH44" s="434" t="s">
         <v>2647</v>
@@ -33133,7 +33134,7 @@
         <v>368</v>
       </c>
       <c r="E45" s="100" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="F45" s="47" t="s">
         <v>22</v>
@@ -33205,7 +33206,7 @@
       <c r="AS45" s="51"/>
       <c r="AT45" s="101"/>
       <c r="AU45" s="247" t="s">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="AV45" s="159"/>
       <c r="AW45" s="39" t="s">
@@ -33239,7 +33240,7 @@
         <v>851</v>
       </c>
       <c r="BG45" s="273" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="BH45" s="434" t="s">
         <v>2648</v>
@@ -33262,7 +33263,7 @@
         <v>72</v>
       </c>
       <c r="E46" s="100" t="s">
-        <v>2773</v>
+        <v>2772</v>
       </c>
       <c r="F46" s="47" t="s">
         <v>53</v>
@@ -33334,7 +33335,7 @@
       <c r="AS46" s="51"/>
       <c r="AT46" s="101"/>
       <c r="AU46" s="247" t="s">
-        <v>2998</v>
+        <v>2997</v>
       </c>
       <c r="AV46" s="159"/>
       <c r="AW46" s="39" t="s">
@@ -33368,10 +33369,10 @@
         <v>851</v>
       </c>
       <c r="BG46" s="273" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="BH46" s="434" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="BI46" s="434"/>
       <c r="BJ46" s="434"/>
@@ -33391,7 +33392,7 @@
         <v>74</v>
       </c>
       <c r="E47" s="87" t="s">
-        <v>2774</v>
+        <v>2773</v>
       </c>
       <c r="F47" s="48" t="s">
         <v>11</v>
@@ -33546,7 +33547,7 @@
         <v>76</v>
       </c>
       <c r="E48" s="91" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="F48" s="47" t="s">
         <v>37</v>
@@ -33691,7 +33692,7 @@
         <v>2376</v>
       </c>
       <c r="BB48" s="21" t="s">
-        <v>2946</v>
+        <v>2945</v>
       </c>
       <c r="BC48" s="19" t="s">
         <v>2488</v>
@@ -33706,7 +33707,7 @@
         <v>2488</v>
       </c>
       <c r="BG48" s="274" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="BH48" s="319" t="s">
         <v>2626</v>
@@ -33714,7 +33715,7 @@
       <c r="BI48" s="320"/>
       <c r="BJ48" s="321"/>
       <c r="BK48" s="290" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="49" spans="1:63" ht="140.25" x14ac:dyDescent="0.2">
@@ -33729,7 +33730,7 @@
         <v>427</v>
       </c>
       <c r="E49" s="91" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="F49" s="47" t="s">
         <v>22</v>
@@ -33874,7 +33875,7 @@
         <v>2377</v>
       </c>
       <c r="BB49" s="21" t="s">
-        <v>2947</v>
+        <v>2946</v>
       </c>
       <c r="BC49" s="19" t="s">
         <v>2489</v>
@@ -33889,7 +33890,7 @@
         <v>2490</v>
       </c>
       <c r="BG49" s="274" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="BH49" s="319" t="s">
         <v>2627</v>
@@ -33897,7 +33898,7 @@
       <c r="BI49" s="320"/>
       <c r="BJ49" s="321"/>
       <c r="BK49" s="288" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="50" spans="1:63" ht="140.25" x14ac:dyDescent="0.2">
@@ -33912,7 +33913,7 @@
         <v>79</v>
       </c>
       <c r="E50" s="91" t="s">
-        <v>2777</v>
+        <v>2776</v>
       </c>
       <c r="F50" s="47" t="s">
         <v>22</v>
@@ -34057,7 +34058,7 @@
         <v>2378</v>
       </c>
       <c r="BB50" s="21" t="s">
-        <v>2948</v>
+        <v>2947</v>
       </c>
       <c r="BC50" s="19" t="s">
         <v>2491</v>
@@ -34072,7 +34073,7 @@
         <v>2491</v>
       </c>
       <c r="BG50" s="274" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
       <c r="BH50" s="319" t="s">
         <v>2628</v>
@@ -34080,7 +34081,7 @@
       <c r="BI50" s="320"/>
       <c r="BJ50" s="321"/>
       <c r="BK50" s="288" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="51" spans="1:63" ht="178.5" x14ac:dyDescent="0.2">
@@ -34242,7 +34243,7 @@
         <v>2409</v>
       </c>
       <c r="BB51" s="230" t="s">
-        <v>2916</v>
+        <v>2915</v>
       </c>
       <c r="BC51" s="20" t="s">
         <v>2492</v>
@@ -34257,7 +34258,7 @@
         <v>2492</v>
       </c>
       <c r="BG51" s="273" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="BH51" s="319" t="s">
         <v>2629</v>
@@ -34265,7 +34266,7 @@
       <c r="BI51" s="320"/>
       <c r="BJ51" s="321"/>
       <c r="BK51" s="288" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="52" spans="1:63" ht="191.25" x14ac:dyDescent="0.2">
@@ -34280,7 +34281,7 @@
         <v>369</v>
       </c>
       <c r="E52" s="91" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="F52" s="47" t="s">
         <v>37</v>
@@ -34410,13 +34411,13 @@
         <v>906</v>
       </c>
       <c r="AW52" s="40" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
       <c r="AX52" s="40" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="AY52" s="40" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="AZ52" s="20" t="s">
         <v>2410</v>
@@ -34425,7 +34426,7 @@
         <v>2410</v>
       </c>
       <c r="BB52" s="230" t="s">
-        <v>2917</v>
+        <v>2916</v>
       </c>
       <c r="BC52" s="20" t="s">
         <v>2493</v>
@@ -34440,7 +34441,7 @@
         <v>2493</v>
       </c>
       <c r="BG52" s="273" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="BH52" s="319" t="s">
         <v>2630</v>
@@ -34448,7 +34449,7 @@
       <c r="BI52" s="320"/>
       <c r="BJ52" s="321"/>
       <c r="BK52" s="288" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="53" spans="1:63" s="113" customFormat="1" ht="409.5" x14ac:dyDescent="0.2">
@@ -34463,7 +34464,7 @@
         <v>84</v>
       </c>
       <c r="E53" s="91" t="s">
-        <v>2779</v>
+        <v>2778</v>
       </c>
       <c r="F53" s="47" t="s">
         <v>85</v>
@@ -34559,7 +34560,7 @@
       <c r="AS53" s="65"/>
       <c r="AT53" s="114"/>
       <c r="AU53" s="115" t="s">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="AV53" s="152" t="s">
         <v>907</v>
@@ -34612,13 +34613,13 @@
       </c>
       <c r="B54" s="388"/>
       <c r="C54" s="48" t="s">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="D54" s="102" t="s">
         <v>428</v>
       </c>
       <c r="E54" s="97" t="s">
-        <v>2780</v>
+        <v>2779</v>
       </c>
       <c r="F54" s="48" t="s">
         <v>11</v>
@@ -34741,7 +34742,7 @@
         <v>429</v>
       </c>
       <c r="E55" s="91" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
       <c r="F55" s="47" t="s">
         <v>15</v>
@@ -34842,10 +34843,10 @@
         <v>851</v>
       </c>
       <c r="AX55" s="64" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="AY55" s="64" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="AZ55" s="20" t="s">
         <v>2379</v>
@@ -34869,7 +34870,7 @@
         <v>851</v>
       </c>
       <c r="BG55" s="273" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="BH55" s="319" t="s">
         <v>2691</v>
@@ -34892,7 +34893,7 @@
         <v>370</v>
       </c>
       <c r="E56" s="91" t="s">
-        <v>2782</v>
+        <v>2781</v>
       </c>
       <c r="F56" s="47" t="s">
         <v>85</v>
@@ -34986,7 +34987,7 @@
       <c r="AS56" s="65"/>
       <c r="AT56" s="114"/>
       <c r="AU56" s="115" t="s">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="AV56" s="189" t="s">
         <v>748</v>
@@ -34995,10 +34996,10 @@
         <v>851</v>
       </c>
       <c r="AX56" s="64" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="AY56" s="64" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="AZ56" s="20" t="s">
         <v>2602</v>
@@ -35022,7 +35023,7 @@
         <v>851</v>
       </c>
       <c r="BG56" s="273" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="BH56" s="319" t="s">
         <v>2633</v>
@@ -35041,13 +35042,13 @@
       </c>
       <c r="B57" s="388"/>
       <c r="C57" s="48" t="s">
-        <v>2705</v>
+        <v>2704</v>
       </c>
       <c r="D57" s="102" t="s">
         <v>371</v>
       </c>
       <c r="E57" s="87" t="s">
-        <v>2783</v>
+        <v>2782</v>
       </c>
       <c r="F57" s="48" t="s">
         <v>11</v>
@@ -35202,7 +35203,7 @@
         <v>372</v>
       </c>
       <c r="E58" s="91" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="F58" s="47" t="s">
         <v>22</v>
@@ -35522,7 +35523,7 @@
         <v>2381</v>
       </c>
       <c r="BB59" s="21" t="s">
-        <v>2949</v>
+        <v>2948</v>
       </c>
       <c r="BC59" s="19" t="s">
         <v>2599</v>
@@ -35537,7 +35538,7 @@
         <v>2599</v>
       </c>
       <c r="BG59" s="274" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="BH59" s="319" t="s">
         <v>2634</v>
@@ -35545,7 +35546,7 @@
       <c r="BI59" s="320"/>
       <c r="BJ59" s="321"/>
       <c r="BK59" s="288" t="s">
-        <v>3023</v>
+        <v>3022</v>
       </c>
     </row>
     <row r="60" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
@@ -35705,7 +35706,7 @@
         <v>2382</v>
       </c>
       <c r="BB60" s="21" t="s">
-        <v>2950</v>
+        <v>2949</v>
       </c>
       <c r="BC60" s="19" t="s">
         <v>2600</v>
@@ -35720,7 +35721,7 @@
         <v>2600</v>
       </c>
       <c r="BG60" s="274" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="BH60" s="319" t="s">
         <v>2635</v>
@@ -35728,7 +35729,7 @@
       <c r="BI60" s="320"/>
       <c r="BJ60" s="321"/>
       <c r="BK60" s="288" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="61" spans="1:63" ht="216.75" x14ac:dyDescent="0.2">
@@ -35889,7 +35890,7 @@
         <v>2601</v>
       </c>
       <c r="BG61" s="274" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="BH61" s="319" t="s">
         <v>2636</v>
@@ -35897,7 +35898,7 @@
       <c r="BI61" s="320"/>
       <c r="BJ61" s="321"/>
       <c r="BK61" s="288" t="s">
-        <v>3025</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="62" spans="1:63" ht="165.75" x14ac:dyDescent="0.2">
@@ -36037,36 +36038,36 @@
         <v>885</v>
       </c>
       <c r="AZ62" s="19" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="BA62" s="19" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="BB62" s="21" t="s">
         <v>851</v>
       </c>
       <c r="BC62" s="19" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="BD62" s="19" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="BE62" s="19" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="BF62" s="19" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="BG62" s="274" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="BH62" s="319" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="BI62" s="320"/>
       <c r="BJ62" s="321"/>
       <c r="BK62" s="288" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="63" spans="1:63" ht="114.75" x14ac:dyDescent="0.2">
@@ -36081,7 +36082,7 @@
         <v>97</v>
       </c>
       <c r="E63" s="91" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F63" s="47" t="s">
         <v>53</v>
@@ -36219,7 +36220,7 @@
         <v>851</v>
       </c>
       <c r="BG63" s="274" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
       <c r="BH63" s="319" t="s">
         <v>2637</v>
@@ -36229,7 +36230,7 @@
         <v>851</v>
       </c>
       <c r="BK63" s="288" t="s">
-        <v>3027</v>
+        <v>3026</v>
       </c>
     </row>
     <row r="64" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
@@ -36382,7 +36383,7 @@
         <v>851</v>
       </c>
       <c r="BG64" s="274" t="s">
-        <v>3201</v>
+        <v>3197</v>
       </c>
       <c r="BH64" s="319" t="s">
         <v>2638</v>
@@ -36392,7 +36393,7 @@
         <v>851</v>
       </c>
       <c r="BK64" s="288" t="s">
-        <v>3028</v>
+        <v>3027</v>
       </c>
     </row>
     <row r="65" spans="1:63" ht="123" customHeight="1" x14ac:dyDescent="0.2">
@@ -36407,7 +36408,7 @@
         <v>376</v>
       </c>
       <c r="E65" s="91" t="s">
-        <v>2786</v>
+        <v>2785</v>
       </c>
       <c r="F65" s="47" t="s">
         <v>53</v>
@@ -36494,7 +36495,7 @@
         <v>851</v>
       </c>
       <c r="BB65" s="230" t="s">
-        <v>2918</v>
+        <v>2917</v>
       </c>
       <c r="BC65" s="20" t="s">
         <v>2498</v>
@@ -36536,7 +36537,7 @@
         <v>377</v>
       </c>
       <c r="E66" s="116" t="s">
-        <v>2787</v>
+        <v>2786</v>
       </c>
       <c r="F66" s="47" t="s">
         <v>37</v>
@@ -36619,7 +36620,7 @@
       <c r="AZ66" s="20"/>
       <c r="BA66" s="20"/>
       <c r="BB66" s="230" t="s">
-        <v>2919</v>
+        <v>2918</v>
       </c>
       <c r="BC66" s="20" t="s">
         <v>2499</v>
@@ -36655,13 +36656,13 @@
       </c>
       <c r="B67" s="388"/>
       <c r="C67" s="48" t="s">
-        <v>2706</v>
+        <v>2705</v>
       </c>
       <c r="D67" s="48" t="s">
         <v>378</v>
       </c>
       <c r="E67" s="87" t="s">
-        <v>2788</v>
+        <v>2787</v>
       </c>
       <c r="F67" s="48" t="s">
         <v>11</v>
@@ -36810,13 +36811,13 @@
       </c>
       <c r="B68" s="386"/>
       <c r="C68" s="47" t="s">
-        <v>2707</v>
+        <v>2706</v>
       </c>
       <c r="D68" s="103" t="s">
         <v>379</v>
       </c>
       <c r="E68" s="91" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="F68" s="47" t="s">
         <v>37</v>
@@ -36942,13 +36943,13 @@
         <v>31</v>
       </c>
       <c r="AU68" s="95" t="s">
-        <v>3301</v>
+        <v>3297</v>
       </c>
       <c r="AV68" s="153" t="s">
         <v>912</v>
       </c>
       <c r="AW68" s="451" t="s">
-        <v>3299</v>
+        <v>3295</v>
       </c>
       <c r="AX68" s="452"/>
       <c r="AY68" s="453"/>
@@ -36959,7 +36960,7 @@
         <v>2386</v>
       </c>
       <c r="BB68" s="21" t="s">
-        <v>2951</v>
+        <v>2950</v>
       </c>
       <c r="BC68" s="19" t="s">
         <v>2500</v>
@@ -36974,7 +36975,7 @@
         <v>2500</v>
       </c>
       <c r="BG68" s="274" t="s">
-        <v>3202</v>
+        <v>3198</v>
       </c>
       <c r="BH68" s="319" t="s">
         <v>2639</v>
@@ -36982,7 +36983,7 @@
       <c r="BI68" s="320"/>
       <c r="BJ68" s="321"/>
       <c r="BK68" s="288" t="s">
-        <v>3029</v>
+        <v>3028</v>
       </c>
     </row>
     <row r="69" spans="1:63" ht="191.25" x14ac:dyDescent="0.2">
@@ -36991,13 +36992,13 @@
       </c>
       <c r="B69" s="386"/>
       <c r="C69" s="47" t="s">
-        <v>2708</v>
+        <v>2707</v>
       </c>
       <c r="D69" s="103" t="s">
         <v>380</v>
       </c>
       <c r="E69" s="91" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="F69" s="47" t="s">
         <v>37</v>
@@ -37127,7 +37128,7 @@
         <v>752</v>
       </c>
       <c r="AW69" s="451" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="AX69" s="452"/>
       <c r="AY69" s="453"/>
@@ -37138,7 +37139,7 @@
         <v>2387</v>
       </c>
       <c r="BB69" s="21" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
       <c r="BC69" s="19" t="s">
         <v>2501</v>
@@ -37153,7 +37154,7 @@
         <v>2501</v>
       </c>
       <c r="BG69" s="274" t="s">
-        <v>3203</v>
+        <v>3199</v>
       </c>
       <c r="BH69" s="319" t="s">
         <v>2640</v>
@@ -37161,7 +37162,7 @@
       <c r="BI69" s="320"/>
       <c r="BJ69" s="321"/>
       <c r="BK69" s="288" t="s">
-        <v>3030</v>
+        <v>3029</v>
       </c>
     </row>
     <row r="70" spans="1:63" ht="191.25" x14ac:dyDescent="0.2">
@@ -37170,7 +37171,7 @@
       </c>
       <c r="B70" s="386"/>
       <c r="C70" s="47" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
       <c r="D70" s="103" t="s">
         <v>381</v>
@@ -37306,18 +37307,18 @@
         <v>753</v>
       </c>
       <c r="AW70" s="451" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="AX70" s="452"/>
       <c r="AY70" s="453"/>
       <c r="AZ70" s="264" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="BA70" s="264" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="BB70" s="21" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
       <c r="BC70" s="19" t="s">
         <v>2502</v>
@@ -37332,7 +37333,7 @@
         <v>2502</v>
       </c>
       <c r="BG70" s="274" t="s">
-        <v>3204</v>
+        <v>3200</v>
       </c>
       <c r="BH70" s="319" t="s">
         <v>2641</v>
@@ -37340,7 +37341,7 @@
       <c r="BI70" s="320"/>
       <c r="BJ70" s="321"/>
       <c r="BK70" s="288" t="s">
-        <v>3031</v>
+        <v>3030</v>
       </c>
     </row>
     <row r="71" spans="1:63" ht="204" x14ac:dyDescent="0.2">
@@ -37349,13 +37350,13 @@
       </c>
       <c r="B71" s="386"/>
       <c r="C71" s="47" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
       <c r="D71" s="103" t="s">
         <v>384</v>
       </c>
       <c r="E71" s="91" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="F71" s="47" t="s">
         <v>22</v>
@@ -37485,18 +37486,18 @@
         <v>754</v>
       </c>
       <c r="AW71" s="451" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="AX71" s="452"/>
       <c r="AY71" s="453"/>
       <c r="AZ71" s="264" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="BA71" s="264" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="BB71" s="21" t="s">
-        <v>2954</v>
+        <v>2953</v>
       </c>
       <c r="BC71" s="19" t="s">
         <v>2503</v>
@@ -37511,7 +37512,7 @@
         <v>2503</v>
       </c>
       <c r="BG71" s="274" t="s">
-        <v>3205</v>
+        <v>3201</v>
       </c>
       <c r="BH71" s="319" t="s">
         <v>2642</v>
@@ -37519,7 +37520,7 @@
       <c r="BI71" s="320"/>
       <c r="BJ71" s="321"/>
       <c r="BK71" s="288" t="s">
-        <v>3032</v>
+        <v>3031</v>
       </c>
     </row>
     <row r="72" spans="1:63" ht="204" x14ac:dyDescent="0.2">
@@ -37528,7 +37529,7 @@
       </c>
       <c r="B72" s="386"/>
       <c r="C72" s="47" t="s">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D72" s="103" t="s">
         <v>382</v>
@@ -37664,18 +37665,18 @@
         <v>755</v>
       </c>
       <c r="AW72" s="451" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="AX72" s="452"/>
       <c r="AY72" s="453"/>
       <c r="AZ72" s="264" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
       <c r="BA72" s="264" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="BB72" s="21" t="s">
-        <v>2955</v>
+        <v>2954</v>
       </c>
       <c r="BC72" s="19" t="s">
         <v>2504</v>
@@ -37690,7 +37691,7 @@
         <v>2504</v>
       </c>
       <c r="BG72" s="274" t="s">
-        <v>3206</v>
+        <v>3202</v>
       </c>
       <c r="BH72" s="319" t="s">
         <v>2643</v>
@@ -37698,7 +37699,7 @@
       <c r="BI72" s="320"/>
       <c r="BJ72" s="321"/>
       <c r="BK72" s="288" t="s">
-        <v>3033</v>
+        <v>3032</v>
       </c>
     </row>
     <row r="73" spans="1:63" ht="255" x14ac:dyDescent="0.2">
@@ -37713,7 +37714,7 @@
         <v>383</v>
       </c>
       <c r="E73" s="91" t="s">
-        <v>2792</v>
+        <v>2791</v>
       </c>
       <c r="F73" s="47" t="s">
         <v>22</v>
@@ -37843,7 +37844,7 @@
         <v>756</v>
       </c>
       <c r="AW73" s="451" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
       <c r="AX73" s="452"/>
       <c r="AY73" s="453"/>
@@ -37854,7 +37855,7 @@
         <v>2388</v>
       </c>
       <c r="BB73" s="21" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="BC73" s="19" t="s">
         <v>2505</v>
@@ -37869,7 +37870,7 @@
         <v>2505</v>
       </c>
       <c r="BG73" s="274" t="s">
-        <v>3207</v>
+        <v>3203</v>
       </c>
       <c r="BH73" s="319" t="s">
         <v>2644</v>
@@ -37877,7 +37878,7 @@
       <c r="BI73" s="320"/>
       <c r="BJ73" s="321"/>
       <c r="BK73" s="288" t="s">
-        <v>3035</v>
+        <v>3034</v>
       </c>
     </row>
     <row r="74" spans="1:63" ht="165.75" x14ac:dyDescent="0.2">
@@ -37892,7 +37893,7 @@
         <v>430</v>
       </c>
       <c r="E74" s="91" t="s">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="F74" s="47" t="s">
         <v>37</v>
@@ -38022,7 +38023,7 @@
         <v>757</v>
       </c>
       <c r="AW74" s="451" t="s">
-        <v>3096</v>
+        <v>3092</v>
       </c>
       <c r="AX74" s="452"/>
       <c r="AY74" s="453"/>
@@ -38033,7 +38034,7 @@
         <v>2389</v>
       </c>
       <c r="BB74" s="21" t="s">
-        <v>2957</v>
+        <v>2956</v>
       </c>
       <c r="BC74" s="19" t="s">
         <v>2506</v>
@@ -38048,7 +38049,7 @@
         <v>2506</v>
       </c>
       <c r="BG74" s="274" t="s">
-        <v>3208</v>
+        <v>3204</v>
       </c>
       <c r="BH74" s="319" t="s">
         <v>2645</v>
@@ -38056,7 +38057,7 @@
       <c r="BI74" s="320"/>
       <c r="BJ74" s="321"/>
       <c r="BK74" s="288" t="s">
-        <v>3034</v>
+        <v>3033</v>
       </c>
     </row>
     <row r="75" spans="1:63" s="90" customFormat="1" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -38071,7 +38072,7 @@
         <v>104</v>
       </c>
       <c r="E75" s="87" t="s">
-        <v>2794</v>
+        <v>2793</v>
       </c>
       <c r="F75" s="48" t="s">
         <v>11</v>
@@ -38218,7 +38219,7 @@
         <v>106</v>
       </c>
       <c r="E76" s="91" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="F76" s="47" t="s">
         <v>29</v>
@@ -38340,7 +38341,7 @@
         <v>758</v>
       </c>
       <c r="AW76" s="451" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
       <c r="AX76" s="452"/>
       <c r="AY76" s="453"/>
@@ -38351,7 +38352,7 @@
         <v>2390</v>
       </c>
       <c r="BB76" s="21" t="s">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="BC76" s="19" t="s">
         <v>2507</v>
@@ -38366,7 +38367,7 @@
         <v>2507</v>
       </c>
       <c r="BG76" s="274" t="s">
-        <v>3209</v>
+        <v>3205</v>
       </c>
       <c r="BH76" s="319" t="s">
         <v>2646</v>
@@ -38374,7 +38375,7 @@
       <c r="BI76" s="320"/>
       <c r="BJ76" s="321"/>
       <c r="BK76" s="288" t="s">
-        <v>3271</v>
+        <v>3267</v>
       </c>
     </row>
     <row r="77" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
@@ -38389,7 +38390,7 @@
         <v>108</v>
       </c>
       <c r="E77" s="91" t="s">
-        <v>2796</v>
+        <v>2795</v>
       </c>
       <c r="F77" s="47" t="s">
         <v>104</v>
@@ -38511,7 +38512,7 @@
         <v>842</v>
       </c>
       <c r="AW77" s="451" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="AX77" s="452"/>
       <c r="AY77" s="453"/>
@@ -38522,7 +38523,7 @@
         <v>2392</v>
       </c>
       <c r="BB77" s="21" t="s">
-        <v>2959</v>
+        <v>2958</v>
       </c>
       <c r="BC77" s="19" t="s">
         <v>2508</v>
@@ -38535,7 +38536,7 @@
       </c>
       <c r="BF77" s="19"/>
       <c r="BG77" s="274" t="s">
-        <v>3210</v>
+        <v>3206</v>
       </c>
       <c r="BH77" s="319" t="s">
         <v>2649</v>
@@ -38545,7 +38546,7 @@
         <v>851</v>
       </c>
       <c r="BK77" s="288" t="s">
-        <v>3270</v>
+        <v>3266</v>
       </c>
     </row>
     <row r="78" spans="1:63" ht="114.75" x14ac:dyDescent="0.2">
@@ -38560,7 +38561,7 @@
         <v>110</v>
       </c>
       <c r="E78" s="91" t="s">
-        <v>2797</v>
+        <v>2796</v>
       </c>
       <c r="F78" s="47" t="s">
         <v>29</v>
@@ -38682,7 +38683,7 @@
         <v>759</v>
       </c>
       <c r="AW78" s="451" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="AX78" s="452"/>
       <c r="AY78" s="453"/>
@@ -38693,7 +38694,7 @@
         <v>2394</v>
       </c>
       <c r="BB78" s="230" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
       <c r="BC78" s="20" t="s">
         <v>2509</v>
@@ -38706,7 +38707,7 @@
       </c>
       <c r="BF78" s="20"/>
       <c r="BG78" s="274" t="s">
-        <v>3211</v>
+        <v>3207</v>
       </c>
       <c r="BH78" s="319" t="s">
         <v>2650</v>
@@ -38716,7 +38717,7 @@
         <v>851</v>
       </c>
       <c r="BK78" s="288" t="s">
-        <v>3272</v>
+        <v>3268</v>
       </c>
     </row>
     <row r="79" spans="1:63" ht="140.25" x14ac:dyDescent="0.2">
@@ -38731,7 +38732,7 @@
         <v>112</v>
       </c>
       <c r="E79" s="91" t="s">
-        <v>2798</v>
+        <v>2797</v>
       </c>
       <c r="F79" s="47" t="s">
         <v>22</v>
@@ -38853,7 +38854,7 @@
         <v>760</v>
       </c>
       <c r="AW79" s="451" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="AX79" s="452"/>
       <c r="AY79" s="453"/>
@@ -38864,7 +38865,7 @@
         <v>2395</v>
       </c>
       <c r="BB79" s="230" t="s">
-        <v>2961</v>
+        <v>2960</v>
       </c>
       <c r="BC79" s="20" t="s">
         <v>2510</v>
@@ -38877,7 +38878,7 @@
       </c>
       <c r="BF79" s="20"/>
       <c r="BG79" s="274" t="s">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="BH79" s="319" t="s">
         <v>2651</v>
@@ -38887,7 +38888,7 @@
         <v>851</v>
       </c>
       <c r="BK79" s="288" t="s">
-        <v>3273</v>
+        <v>3269</v>
       </c>
     </row>
     <row r="80" spans="1:63" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.2">
@@ -38902,7 +38903,7 @@
         <v>114</v>
       </c>
       <c r="E80" s="116" t="s">
-        <v>2799</v>
+        <v>2798</v>
       </c>
       <c r="F80" s="47" t="s">
         <v>93</v>
@@ -39016,7 +39017,7 @@
         <v>851</v>
       </c>
       <c r="AY80" s="67" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="AZ80" s="19" t="s">
         <v>2396</v>
@@ -39025,7 +39026,7 @@
         <v>2397</v>
       </c>
       <c r="BB80" s="21" t="s">
-        <v>2962</v>
+        <v>2961</v>
       </c>
       <c r="BC80" s="19" t="s">
         <v>2511</v>
@@ -39038,7 +39039,7 @@
       </c>
       <c r="BF80" s="19"/>
       <c r="BG80" s="274" t="s">
-        <v>3213</v>
+        <v>3209</v>
       </c>
       <c r="BH80" s="319" t="s">
         <v>2652</v>
@@ -39048,7 +39049,7 @@
         <v>851</v>
       </c>
       <c r="BK80" s="288" t="s">
-        <v>3274</v>
+        <v>3270</v>
       </c>
     </row>
     <row r="81" spans="1:63" ht="178.5" x14ac:dyDescent="0.2">
@@ -39177,7 +39178,7 @@
         <v>851</v>
       </c>
       <c r="AY81" s="67" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
       <c r="AZ81" s="19" t="s">
         <v>2398</v>
@@ -39186,7 +39187,7 @@
         <v>2399</v>
       </c>
       <c r="BB81" s="21" t="s">
-        <v>2920</v>
+        <v>2919</v>
       </c>
       <c r="BC81" s="19" t="s">
         <v>2512</v>
@@ -39199,7 +39200,7 @@
       </c>
       <c r="BF81" s="19"/>
       <c r="BG81" s="274" t="s">
-        <v>3214</v>
+        <v>3210</v>
       </c>
       <c r="BH81" s="319" t="s">
         <v>2653</v>
@@ -39209,7 +39210,7 @@
         <v>851</v>
       </c>
       <c r="BK81" s="288" t="s">
-        <v>3275</v>
+        <v>3271</v>
       </c>
     </row>
     <row r="82" spans="1:63" s="90" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -39224,7 +39225,7 @@
         <v>117</v>
       </c>
       <c r="E82" s="87" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
       <c r="F82" s="48" t="s">
         <v>11</v>
@@ -39367,7 +39368,7 @@
         <v>117</v>
       </c>
       <c r="E83" s="91" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="F83" s="47" t="s">
         <v>53</v>
@@ -39491,7 +39492,7 @@
         <v>851</v>
       </c>
       <c r="AY83" s="67" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="AZ83" s="20" t="s">
         <v>2400</v>
@@ -39500,7 +39501,7 @@
         <v>2400</v>
       </c>
       <c r="BB83" s="230" t="s">
-        <v>2921</v>
+        <v>2920</v>
       </c>
       <c r="BC83" s="20" t="s">
         <v>2513</v>
@@ -39515,15 +39516,15 @@
         <v>2513</v>
       </c>
       <c r="BG83" s="273" t="s">
-        <v>3215</v>
+        <v>3211</v>
       </c>
       <c r="BH83" s="319" t="s">
-        <v>3276</v>
+        <v>3272</v>
       </c>
       <c r="BI83" s="320"/>
       <c r="BJ83" s="321"/>
       <c r="BK83" s="288" t="s">
-        <v>3277</v>
+        <v>3273</v>
       </c>
     </row>
     <row r="84" spans="1:63" s="90" customFormat="1" x14ac:dyDescent="0.2">
@@ -39671,7 +39672,7 @@
         <v>385</v>
       </c>
       <c r="E85" s="91" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
       <c r="F85" s="47" t="s">
         <v>37</v>
@@ -39809,7 +39810,7 @@
         <v>645</v>
       </c>
       <c r="BG85" s="274" t="s">
-        <v>3216</v>
+        <v>3212</v>
       </c>
       <c r="BH85" s="319" t="s">
         <v>2654</v>
@@ -39832,7 +39833,7 @@
         <v>123</v>
       </c>
       <c r="E86" s="91" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
       <c r="F86" s="47" t="s">
         <v>22</v>
@@ -39964,7 +39965,7 @@
         <v>2515</v>
       </c>
       <c r="BG86" s="273" t="s">
-        <v>3217</v>
+        <v>3213</v>
       </c>
       <c r="BH86" s="319" t="s">
         <v>2655</v>
@@ -39987,7 +39988,7 @@
         <v>125</v>
       </c>
       <c r="E87" s="91" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
       <c r="F87" s="47" t="s">
         <v>37</v>
@@ -40140,7 +40141,7 @@
         <v>432</v>
       </c>
       <c r="E88" s="91" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
       <c r="F88" s="47" t="s">
         <v>53</v>
@@ -40243,7 +40244,7 @@
       </c>
       <c r="B89" s="386"/>
       <c r="C89" s="47" t="s">
-        <v>2712</v>
+        <v>2711</v>
       </c>
       <c r="D89" s="96" t="s">
         <v>386</v>
@@ -40358,7 +40359,7 @@
         <v>387</v>
       </c>
       <c r="E90" s="116" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="F90" s="47" t="s">
         <v>22</v>
@@ -40426,7 +40427,7 @@
       <c r="AS90" s="51"/>
       <c r="AT90" s="101"/>
       <c r="AU90" s="247" t="s">
-        <v>2999</v>
+        <v>2998</v>
       </c>
       <c r="AV90" s="162"/>
       <c r="AW90" s="39" t="s">
@@ -40460,7 +40461,7 @@
         <v>851</v>
       </c>
       <c r="BG90" s="277" t="s">
-        <v>3218</v>
+        <v>3214</v>
       </c>
       <c r="BH90" s="332" t="s">
         <v>2332</v>
@@ -40482,7 +40483,7 @@
         <v>388</v>
       </c>
       <c r="E91" s="91" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="F91" s="47" t="s">
         <v>15</v>
@@ -40550,7 +40551,7 @@
       <c r="AS91" s="51"/>
       <c r="AT91" s="101"/>
       <c r="AU91" s="247" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
       <c r="AV91" s="163"/>
       <c r="AW91" s="39" t="s">
@@ -40584,7 +40585,7 @@
         <v>851</v>
       </c>
       <c r="BG91" s="278" t="s">
-        <v>3219</v>
+        <v>3215</v>
       </c>
       <c r="BH91" s="316" t="s">
         <v>2335</v>
@@ -40606,7 +40607,7 @@
         <v>433</v>
       </c>
       <c r="E92" s="116" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="F92" s="47" t="s">
         <v>37</v>
@@ -40674,7 +40675,7 @@
       <c r="AS92" s="51"/>
       <c r="AT92" s="101"/>
       <c r="AU92" s="247" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
       <c r="AV92" s="159"/>
       <c r="AW92" s="39" t="s">
@@ -40708,7 +40709,7 @@
         <v>851</v>
       </c>
       <c r="BG92" s="278" t="s">
-        <v>3220</v>
+        <v>3216</v>
       </c>
       <c r="BH92" s="316" t="s">
         <v>2336</v>
@@ -40730,7 +40731,7 @@
         <v>130</v>
       </c>
       <c r="E93" s="91" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
       <c r="F93" s="47" t="s">
         <v>93</v>
@@ -40869,7 +40870,7 @@
         <v>132</v>
       </c>
       <c r="E94" s="91" t="s">
-        <v>2810</v>
+        <v>2809</v>
       </c>
       <c r="F94" s="47" t="s">
         <v>53</v>
@@ -41141,13 +41142,13 @@
       </c>
       <c r="B96" s="388"/>
       <c r="C96" s="48" t="s">
-        <v>2713</v>
+        <v>2712</v>
       </c>
       <c r="D96" s="48" t="s">
         <v>135</v>
       </c>
       <c r="E96" s="87" t="s">
-        <v>2811</v>
+        <v>2810</v>
       </c>
       <c r="F96" s="48" t="s">
         <v>11</v>
@@ -41382,13 +41383,13 @@
       </c>
       <c r="B98" s="386"/>
       <c r="C98" s="47" t="s">
-        <v>2714</v>
+        <v>2713</v>
       </c>
       <c r="D98" s="47" t="s">
         <v>138</v>
       </c>
       <c r="E98" s="91" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="F98" s="47" t="s">
         <v>15</v>
@@ -41521,13 +41522,13 @@
       </c>
       <c r="B99" s="388"/>
       <c r="C99" s="48" t="s">
-        <v>2715</v>
+        <v>2714</v>
       </c>
       <c r="D99" s="48" t="s">
         <v>139</v>
       </c>
       <c r="E99" s="87" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="F99" s="48" t="s">
         <v>11</v>
@@ -41605,7 +41606,7 @@
       <c r="AS99" s="53"/>
       <c r="AT99" s="98"/>
       <c r="AU99" s="99" t="s">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="AV99" s="216"/>
       <c r="AW99" s="212"/>
@@ -41636,7 +41637,7 @@
         <v>389</v>
       </c>
       <c r="E100" s="91" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="F100" s="47" t="s">
         <v>93</v>
@@ -41859,10 +41860,10 @@
         <v>851</v>
       </c>
       <c r="AY101" s="266" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
       <c r="AZ101" s="309" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="BA101" s="310"/>
       <c r="BB101" s="230" t="s">
@@ -41996,7 +41997,7 @@
         <v>851</v>
       </c>
       <c r="AY102" s="266" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="AZ102" s="309" t="s">
         <v>2419</v>
@@ -42136,7 +42137,7 @@
         <v>2420</v>
       </c>
       <c r="AZ103" s="309" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="BA103" s="310"/>
       <c r="BB103" s="230" t="s">
@@ -42182,7 +42183,7 @@
         <v>391</v>
       </c>
       <c r="E104" s="91" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="F104" s="47" t="s">
         <v>53</v>
@@ -42287,13 +42288,13 @@
       </c>
       <c r="B105" s="388"/>
       <c r="C105" s="48" t="s">
-        <v>2716</v>
+        <v>2715</v>
       </c>
       <c r="D105" s="48" t="s">
         <v>148</v>
       </c>
       <c r="E105" s="87" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="F105" s="48" t="s">
         <v>11</v>
@@ -42669,7 +42670,7 @@
         <v>156</v>
       </c>
       <c r="E109" s="91" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="F109" s="47" t="s">
         <v>53</v>
@@ -42780,7 +42781,7 @@
         <v>158</v>
       </c>
       <c r="E110" s="91" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="F110" s="47" t="s">
         <v>37</v>
@@ -43113,7 +43114,7 @@
         <v>162</v>
       </c>
       <c r="E113" s="91" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="F113" s="47" t="s">
         <v>37</v>
@@ -43218,13 +43219,13 @@
       </c>
       <c r="B114" s="388"/>
       <c r="C114" s="48" t="s">
-        <v>2717</v>
+        <v>2716</v>
       </c>
       <c r="D114" s="48" t="s">
         <v>163</v>
       </c>
       <c r="E114" s="97" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="F114" s="48" t="s">
         <v>11</v>
@@ -43335,7 +43336,7 @@
         <v>163</v>
       </c>
       <c r="E115" s="116" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="F115" s="47" t="s">
         <v>37</v>
@@ -43425,7 +43426,7 @@
         <v>851</v>
       </c>
       <c r="AY115" s="42" t="s">
-        <v>2718</v>
+        <v>2717</v>
       </c>
       <c r="AZ115" s="21" t="s">
         <v>645</v>
@@ -43470,13 +43471,13 @@
       </c>
       <c r="B116" s="388"/>
       <c r="C116" s="48" t="s">
-        <v>2719</v>
+        <v>2718</v>
       </c>
       <c r="D116" s="48" t="s">
         <v>165</v>
       </c>
       <c r="E116" s="87" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="F116" s="48" t="s">
         <v>11</v>
@@ -43728,7 +43729,7 @@
         <v>169</v>
       </c>
       <c r="E118" s="91" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="F118" s="47" t="s">
         <v>22</v>
@@ -43869,7 +43870,7 @@
         <v>171</v>
       </c>
       <c r="E119" s="91" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="F119" s="47" t="s">
         <v>37</v>
@@ -44010,7 +44011,7 @@
         <v>396</v>
       </c>
       <c r="E120" s="116" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="F120" s="47" t="s">
         <v>37</v>
@@ -44151,7 +44152,7 @@
         <v>395</v>
       </c>
       <c r="E121" s="91" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="F121" s="47" t="s">
         <v>53</v>
@@ -44288,7 +44289,7 @@
         <v>394</v>
       </c>
       <c r="E122" s="87" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="F122" s="48" t="s">
         <v>11</v>
@@ -44388,7 +44389,7 @@
         <v>394</v>
       </c>
       <c r="E123" s="91" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="F123" s="47" t="s">
         <v>93</v>
@@ -44519,13 +44520,13 @@
       </c>
       <c r="B124" s="386"/>
       <c r="C124" s="47" t="s">
-        <v>2720</v>
+        <v>2719</v>
       </c>
       <c r="D124" s="103" t="s">
         <v>397</v>
       </c>
       <c r="E124" s="91" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="F124" s="47" t="s">
         <v>22</v>
@@ -44656,13 +44657,13 @@
       </c>
       <c r="B125" s="386"/>
       <c r="C125" s="47" t="s">
-        <v>2721</v>
+        <v>2720</v>
       </c>
       <c r="D125" s="103" t="s">
         <v>398</v>
       </c>
       <c r="E125" s="91" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="F125" s="47" t="s">
         <v>22</v>
@@ -44793,13 +44794,13 @@
       </c>
       <c r="B126" s="388"/>
       <c r="C126" s="48" t="s">
-        <v>2722</v>
+        <v>2721</v>
       </c>
       <c r="D126" s="102" t="s">
         <v>399</v>
       </c>
       <c r="E126" s="87" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="F126" s="48" t="s">
         <v>11</v>
@@ -44905,7 +44906,7 @@
         <v>400</v>
       </c>
       <c r="E127" s="91" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="F127" s="47" t="s">
         <v>22</v>
@@ -45042,7 +45043,7 @@
         <v>401</v>
       </c>
       <c r="E128" s="100" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="F128" s="103" t="s">
         <v>367</v>
@@ -45441,7 +45442,7 @@
         <v>434</v>
       </c>
       <c r="E131" s="91" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="F131" s="47" t="s">
         <v>37</v>
@@ -45800,7 +45801,7 @@
         <v>2421</v>
       </c>
       <c r="BB133" s="21" t="s">
-        <v>2922</v>
+        <v>2921</v>
       </c>
       <c r="BC133" s="19" t="s">
         <v>2536</v>
@@ -45825,7 +45826,7 @@
         <v>851</v>
       </c>
       <c r="BK133" s="288" t="s">
-        <v>3278</v>
+        <v>3274</v>
       </c>
     </row>
     <row r="134" spans="1:63" ht="216.75" x14ac:dyDescent="0.2">
@@ -45943,7 +45944,7 @@
         <v>2422</v>
       </c>
       <c r="BB134" s="21" t="s">
-        <v>2923</v>
+        <v>2922</v>
       </c>
       <c r="BC134" s="19" t="s">
         <v>2537</v>
@@ -45968,7 +45969,7 @@
         <v>851</v>
       </c>
       <c r="BK134" s="288" t="s">
-        <v>3279</v>
+        <v>3275</v>
       </c>
     </row>
     <row r="135" spans="1:63" ht="153" x14ac:dyDescent="0.2">
@@ -45980,7 +45981,7 @@
         <v>188</v>
       </c>
       <c r="D135" s="47" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="E135" s="91" t="s">
         <v>676</v>
@@ -46086,7 +46087,7 @@
         <v>2423</v>
       </c>
       <c r="BB135" s="21" t="s">
-        <v>2924</v>
+        <v>2923</v>
       </c>
       <c r="BC135" s="19" t="s">
         <v>2538</v>
@@ -46111,7 +46112,7 @@
         <v>851</v>
       </c>
       <c r="BK135" s="288" t="s">
-        <v>3280</v>
+        <v>3276</v>
       </c>
     </row>
     <row r="136" spans="1:63" ht="204" x14ac:dyDescent="0.2">
@@ -46123,7 +46124,7 @@
         <v>189</v>
       </c>
       <c r="D136" s="47" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="E136" s="91" t="s">
         <v>438</v>
@@ -46229,7 +46230,7 @@
         <v>2424</v>
       </c>
       <c r="BB136" s="230" t="s">
-        <v>2925</v>
+        <v>2924</v>
       </c>
       <c r="BC136" s="20" t="s">
         <v>2539</v>
@@ -46254,7 +46255,7 @@
         <v>851</v>
       </c>
       <c r="BK136" s="288" t="s">
-        <v>3281</v>
+        <v>3277</v>
       </c>
     </row>
     <row r="137" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
@@ -46372,7 +46373,7 @@
         <v>2425</v>
       </c>
       <c r="BB137" s="230" t="s">
-        <v>2926</v>
+        <v>2925</v>
       </c>
       <c r="BC137" s="20" t="s">
         <v>2540</v>
@@ -46397,7 +46398,7 @@
         <v>851</v>
       </c>
       <c r="BK137" s="288" t="s">
-        <v>3282</v>
+        <v>3278</v>
       </c>
     </row>
     <row r="138" spans="1:63" ht="293.25" x14ac:dyDescent="0.2">
@@ -46409,10 +46410,10 @@
         <v>192</v>
       </c>
       <c r="D138" s="47" t="s">
+        <v>2835</v>
+      </c>
+      <c r="E138" s="91" t="s">
         <v>2836</v>
-      </c>
-      <c r="E138" s="91" t="s">
-        <v>2837</v>
       </c>
       <c r="F138" s="47" t="s">
         <v>37</v>
@@ -46515,7 +46516,7 @@
         <v>2426</v>
       </c>
       <c r="BB138" s="21" t="s">
-        <v>2927</v>
+        <v>2926</v>
       </c>
       <c r="BC138" s="19" t="s">
         <v>2541</v>
@@ -46540,7 +46541,7 @@
         <v>851</v>
       </c>
       <c r="BK138" s="288" t="s">
-        <v>3283</v>
+        <v>3279</v>
       </c>
     </row>
     <row r="139" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
@@ -46555,7 +46556,7 @@
         <v>194</v>
       </c>
       <c r="E139" s="91" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="F139" s="47" t="s">
         <v>22</v>
@@ -46658,7 +46659,7 @@
         <v>2427</v>
       </c>
       <c r="BB139" s="230" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
       <c r="BC139" s="20" t="s">
         <v>2542</v>
@@ -46683,7 +46684,7 @@
         <v>851</v>
       </c>
       <c r="BK139" s="288" t="s">
-        <v>3284</v>
+        <v>3280</v>
       </c>
     </row>
     <row r="140" spans="1:63" ht="127.5" x14ac:dyDescent="0.2">
@@ -46801,7 +46802,7 @@
         <v>2428</v>
       </c>
       <c r="BB140" s="230" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
       <c r="BC140" s="20" t="s">
         <v>2543</v>
@@ -46826,7 +46827,7 @@
         <v>851</v>
       </c>
       <c r="BK140" s="288" t="s">
-        <v>3285</v>
+        <v>3281</v>
       </c>
     </row>
     <row r="141" spans="1:63" ht="204" x14ac:dyDescent="0.2">
@@ -46901,7 +46902,7 @@
         <v>851</v>
       </c>
       <c r="AY141" s="262" t="s">
-        <v>3044</v>
+        <v>3043</v>
       </c>
       <c r="AZ141" s="20" t="s">
         <v>851</v>
@@ -46913,7 +46914,7 @@
         <v>851</v>
       </c>
       <c r="BC141" s="20" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="BD141" s="20" t="s">
         <v>851</v>
@@ -46949,10 +46950,10 @@
         <v>198</v>
       </c>
       <c r="D142" s="47" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E142" s="91" t="s">
         <v>2839</v>
-      </c>
-      <c r="E142" s="91" t="s">
-        <v>2840</v>
       </c>
       <c r="F142" s="47" t="s">
         <v>93</v>
@@ -47012,7 +47013,7 @@
         <v>851</v>
       </c>
       <c r="AY142" s="42" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="AZ142" s="20" t="s">
         <v>851</v>
@@ -47024,7 +47025,7 @@
         <v>851</v>
       </c>
       <c r="BC142" s="19" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="BD142" s="20" t="s">
         <v>851</v>
@@ -47063,7 +47064,7 @@
         <v>441</v>
       </c>
       <c r="E143" s="91" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="F143" s="47" t="s">
         <v>93</v>
@@ -47123,7 +47124,7 @@
         <v>851</v>
       </c>
       <c r="AY143" s="262" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="AZ143" s="20" t="s">
         <v>851</v>
@@ -47135,7 +47136,7 @@
         <v>851</v>
       </c>
       <c r="BC143" s="19" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="BD143" s="20" t="s">
         <v>851</v>
@@ -47174,7 +47175,7 @@
         <v>200</v>
       </c>
       <c r="E144" s="87" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="F144" s="48" t="s">
         <v>11</v>
@@ -47448,7 +47449,7 @@
         <v>204</v>
       </c>
       <c r="E146" s="91" t="s">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="F146" s="47" t="s">
         <v>22</v>
@@ -47575,7 +47576,7 @@
         <v>2429</v>
       </c>
       <c r="BB146" s="21" t="s">
-        <v>2930</v>
+        <v>2929</v>
       </c>
       <c r="BC146" s="19" t="s">
         <v>2544</v>
@@ -47590,7 +47591,7 @@
         <v>2544</v>
       </c>
       <c r="BG146" s="274" t="s">
-        <v>3221</v>
+        <v>3217</v>
       </c>
       <c r="BH146" s="319" t="s">
         <v>2661</v>
@@ -47740,7 +47741,7 @@
         <v>2430</v>
       </c>
       <c r="BB147" s="21" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
       <c r="BC147" s="19" t="s">
         <v>2545</v>
@@ -47755,7 +47756,7 @@
         <v>2545</v>
       </c>
       <c r="BG147" s="274" t="s">
-        <v>3222</v>
+        <v>3218</v>
       </c>
       <c r="BH147" s="319" t="s">
         <v>2662</v>
@@ -47905,7 +47906,7 @@
         <v>2431</v>
       </c>
       <c r="BB148" s="21" t="s">
-        <v>2963</v>
+        <v>2962</v>
       </c>
       <c r="BC148" s="19" t="s">
         <v>2546</v>
@@ -47920,7 +47921,7 @@
         <v>2546</v>
       </c>
       <c r="BG148" s="274" t="s">
-        <v>3223</v>
+        <v>3219</v>
       </c>
       <c r="BH148" s="319" t="s">
         <v>2663</v>
@@ -47937,7 +47938,7 @@
       </c>
       <c r="B149" s="388"/>
       <c r="C149" s="48" t="s">
-        <v>2724</v>
+        <v>2723</v>
       </c>
       <c r="D149" s="48" t="s">
         <v>208</v>
@@ -48207,7 +48208,7 @@
         <v>2432</v>
       </c>
       <c r="BB150" s="21" t="s">
-        <v>2964</v>
+        <v>2963</v>
       </c>
       <c r="BC150" s="19" t="s">
         <v>2547</v>
@@ -48222,7 +48223,7 @@
         <v>2547</v>
       </c>
       <c r="BG150" s="274" t="s">
-        <v>3224</v>
+        <v>3220</v>
       </c>
       <c r="BH150" s="319" t="s">
         <v>2664</v>
@@ -48372,7 +48373,7 @@
         <v>2433</v>
       </c>
       <c r="BB151" s="21" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
       <c r="BC151" s="19" t="s">
         <v>2548</v>
@@ -48387,7 +48388,7 @@
         <v>2548</v>
       </c>
       <c r="BG151" s="274" t="s">
-        <v>3225</v>
+        <v>3221</v>
       </c>
       <c r="BH151" s="319" t="s">
         <v>2665</v>
@@ -48537,7 +48538,7 @@
         <v>2434</v>
       </c>
       <c r="BB152" s="21" t="s">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="BC152" s="19" t="s">
         <v>2549</v>
@@ -48552,7 +48553,7 @@
         <v>2549</v>
       </c>
       <c r="BG152" s="274" t="s">
-        <v>3226</v>
+        <v>3222</v>
       </c>
       <c r="BH152" s="319" t="s">
         <v>2666</v>
@@ -48702,7 +48703,7 @@
         <v>2435</v>
       </c>
       <c r="BB153" s="19" t="s">
-        <v>2967</v>
+        <v>2966</v>
       </c>
       <c r="BC153" s="19" t="s">
         <v>2550</v>
@@ -48717,7 +48718,7 @@
         <v>2550</v>
       </c>
       <c r="BG153" s="274" t="s">
-        <v>3227</v>
+        <v>3223</v>
       </c>
       <c r="BH153" s="319" t="s">
         <v>2667</v>
@@ -48867,7 +48868,7 @@
         <v>2436</v>
       </c>
       <c r="BB154" s="19" t="s">
-        <v>2968</v>
+        <v>2967</v>
       </c>
       <c r="BC154" s="19" t="s">
         <v>2551</v>
@@ -48882,7 +48883,7 @@
         <v>2551</v>
       </c>
       <c r="BG154" s="274" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="BH154" s="319" t="s">
         <v>2668</v>
@@ -49032,7 +49033,7 @@
         <v>2437</v>
       </c>
       <c r="BB155" s="19" t="s">
-        <v>2969</v>
+        <v>2968</v>
       </c>
       <c r="BC155" s="19" t="s">
         <v>2552</v>
@@ -49047,7 +49048,7 @@
         <v>2552</v>
       </c>
       <c r="BG155" s="274" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="BH155" s="319" t="s">
         <v>2669</v>
@@ -49302,7 +49303,7 @@
         <v>851</v>
       </c>
       <c r="AX157" s="261" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="AY157" s="261" t="s">
         <v>2438</v>
@@ -49329,7 +49330,7 @@
         <v>851</v>
       </c>
       <c r="BG157" s="274" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="BH157" s="319" t="s">
         <v>2670</v>
@@ -49616,7 +49617,7 @@
         <v>460</v>
       </c>
       <c r="E160" s="91" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="F160" s="47" t="s">
         <v>37</v>
@@ -49865,7 +49866,7 @@
       <c r="BE161" s="19"/>
       <c r="BF161" s="19"/>
       <c r="BG161" s="274" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="BH161" s="319" t="s">
         <v>2671</v>
@@ -50004,7 +50005,7 @@
       </c>
       <c r="BF162" s="19"/>
       <c r="BG162" s="274" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="BH162" s="331" t="s">
         <v>2672</v>
@@ -50029,7 +50030,7 @@
         <v>465</v>
       </c>
       <c r="E163" s="91" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="F163" s="47" t="s">
         <v>53</v>
@@ -50083,7 +50084,7 @@
       <c r="AS163" s="51"/>
       <c r="AT163" s="101"/>
       <c r="AU163" s="247" t="s">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="AV163" s="158" t="s">
         <v>926</v>
@@ -50244,25 +50245,25 @@
         <v>851</v>
       </c>
       <c r="AY164" s="261" t="s">
+        <v>3041</v>
+      </c>
+      <c r="AZ164" s="19" t="s">
+        <v>3041</v>
+      </c>
+      <c r="BA164" s="19" t="s">
+        <v>3041</v>
+      </c>
+      <c r="BB164" s="21" t="s">
+        <v>851</v>
+      </c>
+      <c r="BC164" s="19" t="s">
         <v>3042</v>
       </c>
-      <c r="AZ164" s="19" t="s">
+      <c r="BD164" s="19" t="s">
         <v>3042</v>
       </c>
-      <c r="BA164" s="19" t="s">
+      <c r="BE164" s="19" t="s">
         <v>3042</v>
-      </c>
-      <c r="BB164" s="21" t="s">
-        <v>851</v>
-      </c>
-      <c r="BC164" s="19" t="s">
-        <v>3043</v>
-      </c>
-      <c r="BD164" s="19" t="s">
-        <v>3043</v>
-      </c>
-      <c r="BE164" s="19" t="s">
-        <v>3043</v>
       </c>
       <c r="BF164" s="19"/>
       <c r="BG164" s="201" t="s">
@@ -50561,7 +50562,7 @@
         <v>468</v>
       </c>
       <c r="E167" s="100" t="s">
-        <v>2845</v>
+        <v>2844</v>
       </c>
       <c r="F167" s="56" t="s">
         <v>11</v>
@@ -50961,11 +50962,11 @@
         <v>802</v>
       </c>
       <c r="AW169" s="306" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="AX169" s="307"/>
       <c r="AY169" s="42" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="AZ169" s="19" t="s">
         <v>2450</v>
@@ -51014,7 +51015,7 @@
         <v>472</v>
       </c>
       <c r="E170" s="91" t="s">
-        <v>2846</v>
+        <v>2845</v>
       </c>
       <c r="F170" s="47" t="s">
         <v>50</v>
@@ -51112,11 +51113,11 @@
         <v>803</v>
       </c>
       <c r="AW170" s="306" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
       <c r="AX170" s="307"/>
       <c r="AY170" s="42" t="s">
-        <v>3121</v>
+        <v>3117</v>
       </c>
       <c r="AZ170" s="19" t="s">
         <v>2451</v>
@@ -51225,7 +51226,7 @@
       <c r="AU171" s="61"/>
       <c r="AV171" s="159"/>
       <c r="AW171" s="306" t="s">
-        <v>3122</v>
+        <v>3118</v>
       </c>
       <c r="AX171" s="308"/>
       <c r="AY171" s="307"/>
@@ -51676,7 +51677,7 @@
         <v>2568</v>
       </c>
       <c r="BG174" s="274" t="s">
-        <v>3233</v>
+        <v>3229</v>
       </c>
       <c r="BH174" s="319" t="s">
         <v>2673</v>
@@ -51684,7 +51685,7 @@
       <c r="BI174" s="320"/>
       <c r="BJ174" s="321"/>
       <c r="BK174" s="288" t="s">
-        <v>3286</v>
+        <v>3282</v>
       </c>
     </row>
     <row r="175" spans="1:63" s="90" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -51693,7 +51694,7 @@
       </c>
       <c r="B175" s="388"/>
       <c r="C175" s="48" t="s">
-        <v>2725</v>
+        <v>2724</v>
       </c>
       <c r="D175" s="102" t="s">
         <v>479</v>
@@ -51819,10 +51820,10 @@
         <v>238</v>
       </c>
       <c r="D176" s="47" t="s">
-        <v>3123</v>
+        <v>3119</v>
       </c>
       <c r="E176" s="100" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="F176" s="47" t="s">
         <v>50</v>
@@ -51920,26 +51921,26 @@
         <v>807</v>
       </c>
       <c r="AW176" s="302" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="AX176" s="303"/>
       <c r="AY176" s="304"/>
       <c r="AZ176" s="297" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
       <c r="BA176" s="299"/>
       <c r="BB176" s="21"/>
       <c r="BC176" s="19" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="BD176" s="19" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="BE176" s="19" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="BF176" s="19" t="s">
-        <v>3124</v>
+        <v>3120</v>
       </c>
       <c r="BG176" s="201" t="s">
         <v>851</v>
@@ -52067,12 +52068,12 @@
         <v>806</v>
       </c>
       <c r="AW177" s="302" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="AX177" s="303"/>
       <c r="AY177" s="304"/>
       <c r="AZ177" s="297" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
       <c r="BA177" s="299"/>
       <c r="BB177" s="236"/>
@@ -52110,7 +52111,7 @@
         <v>489</v>
       </c>
       <c r="E178" s="91" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="F178" s="47" t="s">
         <v>22</v>
@@ -52208,17 +52209,17 @@
         <v>808</v>
       </c>
       <c r="AW178" s="302" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
       <c r="AX178" s="303"/>
       <c r="AY178" s="304"/>
       <c r="AZ178" s="297" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="BA178" s="299"/>
       <c r="BB178" s="236"/>
       <c r="BC178" s="297" t="s">
-        <v>3135</v>
+        <v>3131</v>
       </c>
       <c r="BD178" s="298"/>
       <c r="BE178" s="298"/>
@@ -52349,17 +52350,17 @@
         <v>809</v>
       </c>
       <c r="AW179" s="302" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="AX179" s="303"/>
       <c r="AY179" s="304"/>
       <c r="AZ179" s="297" t="s">
-        <v>3125</v>
+        <v>3121</v>
       </c>
       <c r="BA179" s="299"/>
       <c r="BB179" s="236"/>
       <c r="BC179" s="297" t="s">
-        <v>3126</v>
+        <v>3122</v>
       </c>
       <c r="BD179" s="298"/>
       <c r="BE179" s="298"/>
@@ -52488,17 +52489,17 @@
       <c r="AU180" s="61"/>
       <c r="AV180" s="158"/>
       <c r="AW180" s="302" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
       <c r="AX180" s="303"/>
       <c r="AY180" s="304"/>
       <c r="AZ180" s="300" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="BA180" s="301"/>
       <c r="BB180" s="236"/>
       <c r="BC180" s="300" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="BD180" s="305"/>
       <c r="BE180" s="305"/>
@@ -52531,7 +52532,7 @@
         <v>486</v>
       </c>
       <c r="E181" s="91" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="F181" s="47" t="s">
         <v>50</v>
@@ -52629,17 +52630,17 @@
         <v>810</v>
       </c>
       <c r="AW181" s="302" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
       <c r="AX181" s="303"/>
       <c r="AY181" s="304"/>
       <c r="AZ181" s="300" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="BA181" s="301"/>
       <c r="BB181" s="21"/>
       <c r="BC181" s="297" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="BD181" s="298"/>
       <c r="BE181" s="298"/>
@@ -52672,7 +52673,7 @@
         <v>485</v>
       </c>
       <c r="E182" s="91" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="F182" s="47" t="s">
         <v>29</v>
@@ -52770,17 +52771,17 @@
         <v>811</v>
       </c>
       <c r="AW182" s="302" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="AX182" s="303"/>
       <c r="AY182" s="304"/>
       <c r="AZ182" s="297" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="BA182" s="299"/>
       <c r="BB182" s="236"/>
       <c r="BC182" s="297" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
       <c r="BD182" s="298"/>
       <c r="BE182" s="298"/>
@@ -53329,7 +53330,7 @@
         <v>502</v>
       </c>
       <c r="E187" s="100" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="F187" s="47" t="s">
         <v>50</v>
@@ -54096,10 +54097,10 @@
         <v>851</v>
       </c>
       <c r="AY192" s="42" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="AZ192" s="300" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="BA192" s="301"/>
       <c r="BB192" s="21" t="s">
@@ -54212,7 +54213,7 @@
         <v>851</v>
       </c>
       <c r="AZ193" s="300" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="BA193" s="301"/>
       <c r="BB193" s="21" t="s">
@@ -54222,7 +54223,7 @@
         <v>851</v>
       </c>
       <c r="BD193" s="21" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="BE193" s="21" t="s">
         <v>851</v>
@@ -54252,7 +54253,7 @@
       </c>
       <c r="B194" s="386"/>
       <c r="C194" s="47" t="s">
-        <v>2726</v>
+        <v>2725</v>
       </c>
       <c r="D194" s="47" t="s">
         <v>257</v>
@@ -54336,7 +54337,7 @@
         <v>851</v>
       </c>
       <c r="AY194" s="42" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="AZ194" s="300" t="s">
         <v>851</v>
@@ -54459,7 +54460,7 @@
         <v>851</v>
       </c>
       <c r="AY195" s="42" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="AZ195" s="300" t="s">
         <v>851</v>
@@ -54701,7 +54702,7 @@
         <v>851</v>
       </c>
       <c r="AY197" s="42" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="AZ197" s="297" t="s">
         <v>2464</v>
@@ -54836,7 +54837,7 @@
         <v>851</v>
       </c>
       <c r="AY198" s="42" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="AZ198" s="19" t="s">
         <v>2465</v>
@@ -54882,10 +54883,10 @@
         <v>264</v>
       </c>
       <c r="D199" s="47" t="s">
+        <v>2851</v>
+      </c>
+      <c r="E199" s="91" t="s">
         <v>2852</v>
-      </c>
-      <c r="E199" s="91" t="s">
-        <v>2853</v>
       </c>
       <c r="F199" s="47" t="s">
         <v>22</v>
@@ -54945,7 +54946,7 @@
         <v>851</v>
       </c>
       <c r="AY199" s="42" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="AZ199" s="19" t="s">
         <v>851</v>
@@ -54996,7 +54997,7 @@
         <v>266</v>
       </c>
       <c r="E200" s="91" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="F200" s="47" t="s">
         <v>29</v>
@@ -55619,7 +55620,7 @@
         <v>2338</v>
       </c>
       <c r="E205" s="87" t="s">
-        <v>2855</v>
+        <v>2854</v>
       </c>
       <c r="F205" s="48" t="s">
         <v>11</v>
@@ -55796,7 +55797,7 @@
         <v>31</v>
       </c>
       <c r="AU206" s="95" t="s">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="AV206" s="158"/>
       <c r="AW206" s="39" t="s">
@@ -55830,7 +55831,7 @@
         <v>851</v>
       </c>
       <c r="BG206" s="279" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="BH206" s="332" t="s">
         <v>2354</v>
@@ -55840,7 +55841,7 @@
         <v>851</v>
       </c>
       <c r="BK206" s="241" t="s">
-        <v>3287</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="207" spans="1:63" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -55855,7 +55856,7 @@
         <v>518</v>
       </c>
       <c r="E207" s="100" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="F207" s="47" t="s">
         <v>85</v>
@@ -55955,7 +55956,7 @@
         <v>851</v>
       </c>
       <c r="BG207" s="279" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="BH207" s="332" t="s">
         <v>2351</v>
@@ -55965,7 +55966,7 @@
         <v>851</v>
       </c>
       <c r="BK207" s="241" t="s">
-        <v>3287</v>
+        <v>3283</v>
       </c>
     </row>
     <row r="208" spans="1:63" s="90" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -56074,10 +56075,10 @@
         <v>273</v>
       </c>
       <c r="D209" s="47" t="s">
+        <v>2856</v>
+      </c>
+      <c r="E209" s="100" t="s">
         <v>2857</v>
-      </c>
-      <c r="E209" s="100" t="s">
-        <v>2858</v>
       </c>
       <c r="F209" s="47" t="s">
         <v>15</v>
@@ -56177,7 +56178,7 @@
         <v>851</v>
       </c>
       <c r="BG209" s="279" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="BH209" s="316" t="s">
         <v>2352</v>
@@ -56267,7 +56268,7 @@
         <v>31</v>
       </c>
       <c r="AU210" s="95" t="s">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="AV210" s="158"/>
       <c r="AW210" s="39" t="s">
@@ -56301,7 +56302,7 @@
         <v>851</v>
       </c>
       <c r="BG210" s="279" t="s">
-        <v>3234</v>
+        <v>3230</v>
       </c>
       <c r="BH210" s="316" t="s">
         <v>2607</v>
@@ -56323,7 +56324,7 @@
         <v>275</v>
       </c>
       <c r="E211" s="87" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="F211" s="48" t="s">
         <v>11</v>
@@ -56646,7 +56647,7 @@
         <v>851</v>
       </c>
       <c r="BH213" s="313" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="BI213" s="441"/>
       <c r="BJ213" s="442"/>
@@ -56666,7 +56667,7 @@
         <v>523</v>
       </c>
       <c r="E214" s="91" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="F214" s="47" t="s">
         <v>85</v>
@@ -56734,7 +56735,7 @@
         <v>31</v>
       </c>
       <c r="AU214" s="95" t="s">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="AV214" s="158"/>
       <c r="AW214" s="39" t="s">
@@ -56768,7 +56769,7 @@
         <v>851</v>
       </c>
       <c r="BG214" s="279" t="s">
-        <v>3235</v>
+        <v>3231</v>
       </c>
       <c r="BH214" s="316" t="s">
         <v>2632</v>
@@ -56858,7 +56859,7 @@
         <v>31</v>
       </c>
       <c r="AU215" s="105" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="AV215" s="158"/>
       <c r="AW215" s="39" t="s">
@@ -56892,7 +56893,7 @@
         <v>851</v>
       </c>
       <c r="BG215" s="279" t="s">
-        <v>3236</v>
+        <v>3232</v>
       </c>
       <c r="BH215" s="316" t="s">
         <v>2631</v>
@@ -57005,10 +57006,10 @@
         <v>282</v>
       </c>
       <c r="D217" s="47" t="s">
+        <v>2860</v>
+      </c>
+      <c r="E217" s="91" t="s">
         <v>2861</v>
-      </c>
-      <c r="E217" s="91" t="s">
-        <v>2862</v>
       </c>
       <c r="F217" s="47" t="s">
         <v>93</v>
@@ -57072,7 +57073,7 @@
       <c r="AS217" s="51"/>
       <c r="AT217" s="101"/>
       <c r="AU217" s="61" t="s">
-        <v>3001</v>
+        <v>3000</v>
       </c>
       <c r="AV217" s="158"/>
       <c r="AW217" s="39" t="s">
@@ -57109,7 +57110,7 @@
         <v>851</v>
       </c>
       <c r="BH217" s="340" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="BI217" s="175"/>
       <c r="BJ217" s="176"/>
@@ -57126,10 +57127,10 @@
         <v>283</v>
       </c>
       <c r="D218" s="47" t="s">
+        <v>2862</v>
+      </c>
+      <c r="E218" s="100" t="s">
         <v>2863</v>
-      </c>
-      <c r="E218" s="100" t="s">
-        <v>2864</v>
       </c>
       <c r="F218" s="47" t="s">
         <v>22</v>
@@ -57243,10 +57244,10 @@
         <v>284</v>
       </c>
       <c r="D219" s="47" t="s">
+        <v>2864</v>
+      </c>
+      <c r="E219" s="100" t="s">
         <v>2865</v>
-      </c>
-      <c r="E219" s="100" t="s">
-        <v>2866</v>
       </c>
       <c r="F219" s="47" t="s">
         <v>85</v>
@@ -57352,10 +57353,10 @@
         <v>285</v>
       </c>
       <c r="D220" s="47" t="s">
+        <v>2866</v>
+      </c>
+      <c r="E220" s="100" t="s">
         <v>2867</v>
-      </c>
-      <c r="E220" s="100" t="s">
-        <v>2868</v>
       </c>
       <c r="F220" s="47" t="s">
         <v>85</v>
@@ -57458,13 +57459,13 @@
       </c>
       <c r="B221" s="388"/>
       <c r="C221" s="48" t="s">
-        <v>2727</v>
+        <v>2726</v>
       </c>
       <c r="D221" s="50" t="s">
         <v>286</v>
       </c>
       <c r="E221" s="100" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="F221" s="48" t="s">
         <v>11</v>
@@ -57567,7 +57568,7 @@
       </c>
       <c r="B222" s="386"/>
       <c r="C222" s="47" t="s">
-        <v>2728</v>
+        <v>2727</v>
       </c>
       <c r="D222" s="50" t="s">
         <v>287</v>
@@ -57651,10 +57652,10 @@
         <v>12</v>
       </c>
       <c r="AU222" s="249" t="s">
-        <v>2993</v>
+        <v>2992</v>
       </c>
       <c r="AV222" s="125" t="s">
-        <v>2992</v>
+        <v>2991</v>
       </c>
       <c r="AW222" s="39" t="s">
         <v>851</v>
@@ -57687,7 +57688,7 @@
         <v>851</v>
       </c>
       <c r="BG222" s="280" t="s">
-        <v>3237</v>
+        <v>3233</v>
       </c>
       <c r="BH222" s="316" t="s">
         <v>2684</v>
@@ -57783,7 +57784,7 @@
         <v>12</v>
       </c>
       <c r="AU223" s="249" t="s">
-        <v>3238</v>
+        <v>3234</v>
       </c>
       <c r="AV223" s="125"/>
       <c r="AW223" s="39" t="s">
@@ -57817,7 +57818,7 @@
         <v>851</v>
       </c>
       <c r="BG223" s="281" t="s">
-        <v>3239</v>
+        <v>3235</v>
       </c>
       <c r="BH223" s="316" t="s">
         <v>2685</v>
@@ -57839,7 +57840,7 @@
         <v>290</v>
       </c>
       <c r="E224" s="126" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="F224" s="47" t="s">
         <v>93</v>
@@ -57943,7 +57944,7 @@
         <v>851</v>
       </c>
       <c r="BG224" s="281" t="s">
-        <v>3240</v>
+        <v>3236</v>
       </c>
       <c r="BH224" s="316" t="s">
         <v>2686</v>
@@ -58017,7 +58018,7 @@
         <v>31</v>
       </c>
       <c r="AU225" s="246" t="s">
-        <v>2985</v>
+        <v>2984</v>
       </c>
       <c r="AV225" s="125"/>
       <c r="AW225" s="39" t="s">
@@ -58051,7 +58052,7 @@
         <v>851</v>
       </c>
       <c r="BG225" s="281" t="s">
-        <v>3241</v>
+        <v>3237</v>
       </c>
       <c r="BH225" s="316" t="s">
         <v>2679</v>
@@ -58070,10 +58071,10 @@
         <v>292</v>
       </c>
       <c r="D226" s="47" t="s">
+        <v>2870</v>
+      </c>
+      <c r="E226" s="91" t="s">
         <v>2871</v>
-      </c>
-      <c r="E226" s="91" t="s">
-        <v>2872</v>
       </c>
       <c r="F226" s="47" t="s">
         <v>85</v>
@@ -58127,7 +58128,7 @@
         <v>31</v>
       </c>
       <c r="AU226" s="91" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
       <c r="AV226" s="80"/>
       <c r="AW226" s="39" t="s">
@@ -58161,10 +58162,10 @@
         <v>851</v>
       </c>
       <c r="BG226" s="281" t="s">
-        <v>3242</v>
+        <v>3238</v>
       </c>
       <c r="BH226" s="316" t="s">
-        <v>2891</v>
+        <v>2890</v>
       </c>
       <c r="BI226" s="334"/>
       <c r="BJ226" s="170" t="s">
@@ -58183,7 +58184,7 @@
         <v>531</v>
       </c>
       <c r="E227" s="91" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="F227" s="47" t="s">
         <v>37</v>
@@ -58237,7 +58238,7 @@
         <v>31</v>
       </c>
       <c r="AU227" s="91" t="s">
-        <v>2987</v>
+        <v>2986</v>
       </c>
       <c r="AV227" s="80"/>
       <c r="AW227" s="39" t="s">
@@ -58271,10 +58272,10 @@
         <v>851</v>
       </c>
       <c r="BG227" s="281" t="s">
-        <v>3243</v>
+        <v>3239</v>
       </c>
       <c r="BH227" s="316" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="BI227" s="334"/>
       <c r="BJ227" s="170" t="s">
@@ -58357,7 +58358,7 @@
       <c r="AS228" s="51"/>
       <c r="AT228" s="101"/>
       <c r="AU228" s="247" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
       <c r="AV228" s="80"/>
       <c r="AW228" s="39" t="s">
@@ -58698,7 +58699,7 @@
         <v>31</v>
       </c>
       <c r="AU231" s="183" t="s">
-        <v>2989</v>
+        <v>2988</v>
       </c>
       <c r="AV231" s="125"/>
       <c r="AW231" s="39" t="s">
@@ -58732,10 +58733,10 @@
         <v>851</v>
       </c>
       <c r="BG231" s="282" t="s">
-        <v>3244</v>
+        <v>3240</v>
       </c>
       <c r="BH231" s="316" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="BI231" s="318"/>
       <c r="BJ231" s="170" t="s">
@@ -58861,10 +58862,10 @@
         <v>851</v>
       </c>
       <c r="BG232" s="445" t="s">
-        <v>3245</v>
+        <v>3241</v>
       </c>
       <c r="BH232" s="327" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="BI232" s="328"/>
       <c r="BJ232" s="170" t="s">
@@ -58881,7 +58882,7 @@
         <v>300</v>
       </c>
       <c r="D233" s="47" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="E233" s="91" t="s">
         <v>703</v>
@@ -59114,10 +59115,10 @@
         <v>851</v>
       </c>
       <c r="BG234" s="445" t="s">
-        <v>3246</v>
+        <v>3242</v>
       </c>
       <c r="BH234" s="327" t="s">
-        <v>2909</v>
+        <v>2908</v>
       </c>
       <c r="BI234" s="328"/>
       <c r="BJ234" s="170" t="s">
@@ -59366,7 +59367,7 @@
         <v>851</v>
       </c>
       <c r="BG236" s="283" t="s">
-        <v>3247</v>
+        <v>3243</v>
       </c>
       <c r="BH236" s="316" t="s">
         <v>2341</v>
@@ -59382,13 +59383,13 @@
       </c>
       <c r="B237" s="388"/>
       <c r="C237" s="48" t="s">
-        <v>2729</v>
+        <v>2728</v>
       </c>
       <c r="D237" s="48" t="s">
         <v>304</v>
       </c>
       <c r="E237" s="100" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="F237" s="48" t="s">
         <v>11</v>
@@ -59601,7 +59602,7 @@
         <v>851</v>
       </c>
       <c r="BG238" s="282" t="s">
-        <v>3248</v>
+        <v>3244</v>
       </c>
       <c r="BH238" s="335" t="s">
         <v>2342</v>
@@ -59617,7 +59618,7 @@
       </c>
       <c r="B239" s="386"/>
       <c r="C239" s="47" t="s">
-        <v>2730</v>
+        <v>2729</v>
       </c>
       <c r="D239" s="50" t="s">
         <v>307</v>
@@ -59701,7 +59702,7 @@
         <v>12</v>
       </c>
       <c r="AU239" s="243" t="s">
-        <v>2978</v>
+        <v>2977</v>
       </c>
       <c r="AV239" s="166"/>
       <c r="AW239" s="39" t="s">
@@ -59735,10 +59736,10 @@
         <v>851</v>
       </c>
       <c r="BG239" s="281" t="s">
-        <v>3249</v>
+        <v>3245</v>
       </c>
       <c r="BH239" s="337" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="BI239" s="338"/>
       <c r="BJ239" s="339"/>
@@ -59833,7 +59834,7 @@
         <v>31</v>
       </c>
       <c r="AU240" s="243" t="s">
-        <v>2979</v>
+        <v>2978</v>
       </c>
       <c r="AV240" s="166"/>
       <c r="AW240" s="39" t="s">
@@ -59867,7 +59868,7 @@
         <v>851</v>
       </c>
       <c r="BG240" s="281" t="s">
-        <v>3250</v>
+        <v>3246</v>
       </c>
       <c r="BH240" s="337" t="s">
         <v>2343</v>
@@ -59881,7 +59882,7 @@
       </c>
       <c r="B241" s="386"/>
       <c r="C241" s="47" t="s">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="D241" s="47" t="s">
         <v>310</v>
@@ -59966,7 +59967,7 @@
       </c>
       <c r="AU241" s="95"/>
       <c r="AV241" s="243" t="s">
-        <v>2980</v>
+        <v>2979</v>
       </c>
       <c r="AW241" s="39" t="s">
         <v>851</v>
@@ -59999,7 +60000,7 @@
         <v>851</v>
       </c>
       <c r="BG241" s="283" t="s">
-        <v>3251</v>
+        <v>3247</v>
       </c>
       <c r="BH241" s="335" t="s">
         <v>2344</v>
@@ -60019,7 +60020,7 @@
         <v>545</v>
       </c>
       <c r="E242" s="100" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="F242" s="47" t="s">
         <v>29</v>
@@ -60089,11 +60090,11 @@
         <v>12</v>
       </c>
       <c r="AU242" s="243" t="s">
+        <v>2980</v>
+      </c>
+      <c r="AV242" s="243" t="s">
         <v>2981</v>
       </c>
-      <c r="AV242" s="243" t="s">
-        <v>2982</v>
-      </c>
       <c r="AW242" s="39" t="s">
         <v>851</v>
       </c>
@@ -60128,7 +60129,7 @@
         <v>851</v>
       </c>
       <c r="BH242" s="335" t="s">
-        <v>2908</v>
+        <v>2907</v>
       </c>
       <c r="BI242" s="344"/>
       <c r="BJ242" s="345"/>
@@ -60205,11 +60206,11 @@
       <c r="AS243" s="51"/>
       <c r="AT243" s="101"/>
       <c r="AU243" s="245" t="s">
+        <v>2982</v>
+      </c>
+      <c r="AV243" s="243" t="s">
         <v>2983</v>
       </c>
-      <c r="AV243" s="243" t="s">
-        <v>2984</v>
-      </c>
       <c r="AW243" s="39" t="s">
         <v>851</v>
       </c>
@@ -60244,7 +60245,7 @@
         <v>851</v>
       </c>
       <c r="BH243" s="335" t="s">
-        <v>2970</v>
+        <v>2969</v>
       </c>
       <c r="BI243" s="345"/>
       <c r="BJ243" s="170" t="s">
@@ -60266,7 +60267,7 @@
         <v>314</v>
       </c>
       <c r="E244" s="91" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="F244" s="47" t="s">
         <v>50</v>
@@ -60336,7 +60337,7 @@
         <v>31</v>
       </c>
       <c r="AU244" s="244" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
       <c r="AV244" s="166"/>
       <c r="AW244" s="39" t="s">
@@ -60384,13 +60385,13 @@
       </c>
       <c r="B245" s="388"/>
       <c r="C245" s="48" t="s">
-        <v>2732</v>
+        <v>2731</v>
       </c>
       <c r="D245" s="48" t="s">
         <v>315</v>
       </c>
       <c r="E245" s="87" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="F245" s="48" t="s">
         <v>11</v>
@@ -60575,7 +60576,7 @@
         <v>31</v>
       </c>
       <c r="AU246" s="248" t="s">
-        <v>2990</v>
+        <v>2989</v>
       </c>
       <c r="AV246" s="166"/>
       <c r="AW246" s="39" t="s">
@@ -60609,10 +60610,10 @@
         <v>851</v>
       </c>
       <c r="BG246" s="284" t="s">
-        <v>3258</v>
+        <v>3254</v>
       </c>
       <c r="BH246" s="316" t="s">
-        <v>2971</v>
+        <v>2970</v>
       </c>
       <c r="BI246" s="346"/>
       <c r="BJ246" s="334"/>
@@ -60623,7 +60624,7 @@
       </c>
       <c r="B247" s="386"/>
       <c r="C247" s="47" t="s">
-        <v>2733</v>
+        <v>2732</v>
       </c>
       <c r="D247" s="47" t="s">
         <v>318</v>
@@ -60739,10 +60740,10 @@
         <v>851</v>
       </c>
       <c r="BG247" s="285" t="s">
-        <v>3259</v>
+        <v>3255</v>
       </c>
       <c r="BH247" s="316" t="s">
-        <v>2973</v>
+        <v>2972</v>
       </c>
       <c r="BI247" s="346"/>
       <c r="BJ247" s="334"/>
@@ -60753,7 +60754,7 @@
       </c>
       <c r="B248" s="388"/>
       <c r="C248" s="48" t="s">
-        <v>2734</v>
+        <v>2733</v>
       </c>
       <c r="D248" s="48" t="s">
         <v>1424</v>
@@ -61015,7 +61016,7 @@
         <v>12</v>
       </c>
       <c r="AU249" s="443" t="s">
-        <v>3252</v>
+        <v>3248</v>
       </c>
       <c r="AV249" s="166"/>
       <c r="AW249" s="39" t="s">
@@ -61025,28 +61026,28 @@
         <v>851</v>
       </c>
       <c r="AY249" s="42" t="s">
-        <v>3036</v>
+        <v>3035</v>
       </c>
       <c r="AZ249" s="313" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="BA249" s="442"/>
       <c r="BB249" s="260" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="BC249" s="313" t="s">
-        <v>3110</v>
+        <v>3106</v>
       </c>
       <c r="BD249" s="441"/>
       <c r="BE249" s="442"/>
       <c r="BF249" s="259" t="s">
-        <v>3037</v>
+        <v>3036</v>
       </c>
       <c r="BG249" s="283" t="s">
-        <v>3260</v>
+        <v>3256</v>
       </c>
       <c r="BH249" s="316" t="s">
-        <v>3041</v>
+        <v>3040</v>
       </c>
       <c r="BI249" s="317"/>
       <c r="BJ249" s="318"/>
@@ -61063,7 +61064,7 @@
         <v>1424</v>
       </c>
       <c r="E250" s="91" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="F250" s="47" t="s">
         <v>22</v>
@@ -61187,24 +61188,24 @@
         <v>851</v>
       </c>
       <c r="AY250" s="42" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="AZ250" s="300" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="BA250" s="301"/>
       <c r="BB250" s="21"/>
       <c r="BC250" s="300" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
       <c r="BD250" s="305"/>
       <c r="BE250" s="305"/>
       <c r="BF250" s="301"/>
       <c r="BG250" s="283" t="s">
-        <v>3261</v>
+        <v>3257</v>
       </c>
       <c r="BH250" s="313" t="s">
-        <v>2977</v>
+        <v>2976</v>
       </c>
       <c r="BI250" s="320"/>
       <c r="BJ250" s="321"/>
@@ -61221,7 +61222,7 @@
         <v>1426</v>
       </c>
       <c r="E251" s="91" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="F251" s="47" t="s">
         <v>37</v>
@@ -61345,30 +61346,30 @@
         <v>851</v>
       </c>
       <c r="AY251" s="42" t="s">
-        <v>3154</v>
+        <v>3150</v>
       </c>
       <c r="AZ251" s="297" t="s">
-        <v>3038</v>
+        <v>3037</v>
       </c>
       <c r="BA251" s="299"/>
       <c r="BB251" s="21"/>
       <c r="BC251" s="19" t="s">
+        <v>3038</v>
+      </c>
+      <c r="BD251" s="19" t="s">
+        <v>3038</v>
+      </c>
+      <c r="BE251" s="19" t="s">
+        <v>3038</v>
+      </c>
+      <c r="BF251" s="19" t="s">
+        <v>3038</v>
+      </c>
+      <c r="BG251" s="279" t="s">
+        <v>3249</v>
+      </c>
+      <c r="BH251" s="319" t="s">
         <v>3039</v>
-      </c>
-      <c r="BD251" s="19" t="s">
-        <v>3039</v>
-      </c>
-      <c r="BE251" s="19" t="s">
-        <v>3039</v>
-      </c>
-      <c r="BF251" s="19" t="s">
-        <v>3039</v>
-      </c>
-      <c r="BG251" s="279" t="s">
-        <v>3253</v>
-      </c>
-      <c r="BH251" s="319" t="s">
-        <v>3040</v>
       </c>
       <c r="BI251" s="320"/>
       <c r="BJ251" s="321"/>
@@ -61385,7 +61386,7 @@
         <v>1186</v>
       </c>
       <c r="E252" s="91" t="s">
-        <v>2880</v>
+        <v>2879</v>
       </c>
       <c r="F252" s="47" t="s">
         <v>22</v>
@@ -61509,30 +61510,30 @@
         <v>851</v>
       </c>
       <c r="AY252" s="42" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="AZ252" s="300" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="BA252" s="301"/>
       <c r="BB252" s="21"/>
       <c r="BC252" s="300" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="BD252" s="305"/>
       <c r="BE252" s="305"/>
       <c r="BF252" s="301"/>
       <c r="BG252" s="274" t="s">
-        <v>3255</v>
+        <v>3251</v>
       </c>
       <c r="BH252" s="313" t="s">
-        <v>2974</v>
+        <v>2973</v>
       </c>
       <c r="BI252" s="320"/>
       <c r="BJ252" s="321"/>
       <c r="BK252" s="256"/>
       <c r="BL252" s="183" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
     </row>
     <row r="253" spans="1:64" ht="344.25" x14ac:dyDescent="0.2">
@@ -61547,7 +61548,7 @@
         <v>1423</v>
       </c>
       <c r="E253" s="100" t="s">
-        <v>2881</v>
+        <v>2880</v>
       </c>
       <c r="F253" s="47" t="s">
         <v>22</v>
@@ -61671,24 +61672,24 @@
         <v>851</v>
       </c>
       <c r="AY253" s="42" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="AZ253" s="300" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="BA253" s="301"/>
       <c r="BB253" s="21"/>
       <c r="BC253" s="300" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="BD253" s="305"/>
       <c r="BE253" s="305"/>
       <c r="BF253" s="301"/>
       <c r="BG253" s="274" t="s">
-        <v>3256</v>
+        <v>3252</v>
       </c>
       <c r="BH253" s="313" t="s">
-        <v>2976</v>
+        <v>2975</v>
       </c>
       <c r="BI253" s="314"/>
       <c r="BJ253" s="315"/>
@@ -61829,24 +61830,24 @@
         <v>851</v>
       </c>
       <c r="AY254" s="42" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="AZ254" s="300" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="BA254" s="301"/>
       <c r="BB254" s="21"/>
       <c r="BC254" s="300" t="s">
-        <v>3156</v>
+        <v>3152</v>
       </c>
       <c r="BD254" s="305"/>
       <c r="BE254" s="305"/>
       <c r="BF254" s="301"/>
       <c r="BG254" s="274" t="s">
-        <v>3257</v>
+        <v>3253</v>
       </c>
       <c r="BH254" s="313" t="s">
-        <v>2975</v>
+        <v>2974</v>
       </c>
       <c r="BI254" s="314"/>
       <c r="BJ254" s="315"/>
@@ -61956,7 +61957,7 @@
         <v>851</v>
       </c>
       <c r="BH255" s="172" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="BI255" s="170" t="s">
         <v>851</v>
@@ -61974,10 +61975,10 @@
         <v>326</v>
       </c>
       <c r="D256" s="47" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="E256" s="100" t="s">
-        <v>2735</v>
+        <v>2734</v>
       </c>
       <c r="F256" s="47" t="s">
         <v>93</v>
@@ -62070,7 +62071,7 @@
         <v>851</v>
       </c>
       <c r="BH256" s="265" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="BI256" s="170" t="s">
         <v>851</v>
@@ -62091,7 +62092,7 @@
         <v>328</v>
       </c>
       <c r="E257" s="100" t="s">
-        <v>2736</v>
+        <v>2735</v>
       </c>
       <c r="F257" s="47" t="s">
         <v>93</v>
@@ -62184,7 +62185,7 @@
         <v>851</v>
       </c>
       <c r="BH257" s="265" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="BI257" s="170" t="s">
         <v>851</v>
@@ -62205,7 +62206,7 @@
         <v>554</v>
       </c>
       <c r="E258" s="91" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="F258" s="47" t="s">
         <v>22</v>
@@ -62319,7 +62320,7 @@
         <v>31</v>
       </c>
       <c r="AU258" s="95" t="s">
-        <v>3301</v>
+        <v>3297</v>
       </c>
       <c r="AV258" s="159" t="s">
         <v>917</v>
@@ -62331,7 +62332,7 @@
         <v>851</v>
       </c>
       <c r="AY258" s="42" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="AZ258" s="297" t="s">
         <v>2468</v>
@@ -62345,7 +62346,7 @@
       <c r="BE258" s="298"/>
       <c r="BF258" s="299"/>
       <c r="BG258" s="274" t="s">
-        <v>3262</v>
+        <v>3258</v>
       </c>
       <c r="BH258" s="319" t="s">
         <v>2675</v>
@@ -62353,7 +62354,7 @@
       <c r="BI258" s="320"/>
       <c r="BJ258" s="321"/>
       <c r="BK258" s="288" t="s">
-        <v>3295</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="259" spans="1:63" ht="191.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -62492,7 +62493,7 @@
         <v>851</v>
       </c>
       <c r="AY259" s="42" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="AZ259" s="297" t="s">
         <v>2468</v>
@@ -62506,7 +62507,7 @@
       <c r="BE259" s="298"/>
       <c r="BF259" s="299"/>
       <c r="BG259" s="274" t="s">
-        <v>3263</v>
+        <v>3259</v>
       </c>
       <c r="BH259" s="319" t="s">
         <v>2676</v>
@@ -62514,7 +62515,7 @@
       <c r="BI259" s="320"/>
       <c r="BJ259" s="321"/>
       <c r="BK259" s="288" t="s">
-        <v>3294</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="260" spans="1:63" s="133" customFormat="1" ht="51" x14ac:dyDescent="0.2">
@@ -62523,7 +62524,7 @@
       </c>
       <c r="B260" s="394"/>
       <c r="C260" s="127" t="s">
-        <v>2737</v>
+        <v>2736</v>
       </c>
       <c r="D260" s="128" t="s">
         <v>558</v>
@@ -62767,7 +62768,7 @@
       </c>
       <c r="B262" s="394"/>
       <c r="C262" s="127" t="s">
-        <v>2738</v>
+        <v>2737</v>
       </c>
       <c r="D262" s="128" t="s">
         <v>560</v>
@@ -62892,7 +62893,7 @@
         <v>561</v>
       </c>
       <c r="E263" s="100" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="F263" s="50" t="s">
         <v>93</v>
@@ -63017,7 +63018,7 @@
         <v>562</v>
       </c>
       <c r="E264" s="100" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="F264" s="50" t="s">
         <v>22</v>
@@ -63142,7 +63143,7 @@
         <v>563</v>
       </c>
       <c r="E265" s="100" t="s">
-        <v>2739</v>
+        <v>2738</v>
       </c>
       <c r="F265" s="48" t="s">
         <v>11</v>
@@ -63381,10 +63382,10 @@
         <v>851</v>
       </c>
       <c r="AX266" s="42" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="AY266" s="42" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="AZ266" s="297" t="s">
         <v>2469</v>
@@ -63518,13 +63519,13 @@
         <v>851</v>
       </c>
       <c r="AX267" s="42" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="AY267" s="42" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="AZ267" s="21" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="BA267" s="19" t="s">
         <v>851</v>
@@ -63543,7 +63544,7 @@
         <v>851</v>
       </c>
       <c r="BG267" s="274" t="s">
-        <v>3264</v>
+        <v>3260</v>
       </c>
       <c r="BH267" s="181" t="s">
         <v>2674</v>
@@ -63555,7 +63556,7 @@
         <v>851</v>
       </c>
       <c r="BK267" s="288" t="s">
-        <v>3293</v>
+        <v>3289</v>
       </c>
     </row>
     <row r="268" spans="1:63" s="106" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -63719,7 +63720,7 @@
         <v>569</v>
       </c>
       <c r="E269" s="91" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="F269" s="47" t="s">
         <v>53</v>
@@ -63960,7 +63961,7 @@
         <v>836</v>
       </c>
       <c r="AW270" s="302" t="s">
-        <v>3300</v>
+        <v>3296</v>
       </c>
       <c r="AX270" s="303"/>
       <c r="AY270" s="304"/>
@@ -63976,7 +63977,7 @@
       <c r="BE270" s="456"/>
       <c r="BF270" s="455"/>
       <c r="BG270" s="274" t="s">
-        <v>3265</v>
+        <v>3261</v>
       </c>
       <c r="BH270" s="319" t="s">
         <v>2677</v>
@@ -63984,7 +63985,7 @@
       <c r="BI270" s="320"/>
       <c r="BJ270" s="321"/>
       <c r="BK270" s="288" t="s">
-        <v>3292</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="271" spans="1:63" s="90" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -63999,7 +64000,7 @@
         <v>572</v>
       </c>
       <c r="E271" s="97" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="F271" s="48" t="s">
         <v>11</v>
@@ -64196,7 +64197,7 @@
         <v>851</v>
       </c>
       <c r="BG272" s="283" t="s">
-        <v>3266</v>
+        <v>3262</v>
       </c>
       <c r="BH272" s="313" t="s">
         <v>2347</v>
@@ -64321,7 +64322,7 @@
         <v>851</v>
       </c>
       <c r="BG273" s="283" t="s">
-        <v>3267</v>
+        <v>3263</v>
       </c>
       <c r="BH273" s="313" t="s">
         <v>2348</v>
@@ -64446,7 +64447,7 @@
         <v>851</v>
       </c>
       <c r="BG274" s="283" t="s">
-        <v>3268</v>
+        <v>3264</v>
       </c>
       <c r="BH274" s="313" t="s">
         <v>2349</v>
@@ -64571,7 +64572,7 @@
         <v>851</v>
       </c>
       <c r="BG275" s="283" t="s">
-        <v>3269</v>
+        <v>3265</v>
       </c>
       <c r="BH275" s="313" t="s">
         <v>2350</v>
@@ -64671,13 +64672,13 @@
       </c>
       <c r="B277" s="386"/>
       <c r="C277" s="47" t="s">
-        <v>2740</v>
+        <v>2739</v>
       </c>
       <c r="D277" s="96" t="s">
         <v>581</v>
       </c>
       <c r="E277" s="91" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="F277" s="47" t="s">
         <v>15</v>
@@ -64773,7 +64774,7 @@
         <v>851</v>
       </c>
       <c r="BK277" s="256" t="s">
-        <v>3288</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="278" spans="1:63" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -64884,7 +64885,7 @@
         <v>851</v>
       </c>
       <c r="BK278" s="256" t="s">
-        <v>3289</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="279" spans="1:63" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -64995,7 +64996,7 @@
         <v>851</v>
       </c>
       <c r="BK279" s="256" t="s">
-        <v>3290</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="280" spans="1:63" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -65010,7 +65011,7 @@
         <v>584</v>
       </c>
       <c r="E280" s="91" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="F280" s="47" t="s">
         <v>37</v>
@@ -65106,7 +65107,7 @@
         <v>851</v>
       </c>
       <c r="BK280" s="256" t="s">
-        <v>3291</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="281" spans="1:63" s="90" customFormat="1" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -65190,13 +65191,13 @@
       </c>
       <c r="B282" s="386"/>
       <c r="C282" s="47" t="s">
-        <v>2741</v>
+        <v>2740</v>
       </c>
       <c r="D282" s="47" t="s">
         <v>351</v>
       </c>
       <c r="E282" s="91" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="F282" s="47" t="s">
         <v>15</v>
@@ -65286,7 +65287,7 @@
         <v>851</v>
       </c>
       <c r="BK282" s="256" t="s">
-        <v>3296</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="283" spans="1:63" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -65391,7 +65392,7 @@
         <v>851</v>
       </c>
       <c r="BK283" s="457" t="s">
-        <v>3297</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="284" spans="1:63" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -66072,7 +66073,7 @@
         <v>851</v>
       </c>
       <c r="BK290" s="457" t="s">
-        <v>3298</v>
+        <v>3294</v>
       </c>
     </row>
     <row r="291" spans="1:63" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -69124,7 +69125,7 @@
       </c>
       <c r="E22" s="7"/>
       <c r="F22" s="192" t="s">
-        <v>2899</v>
+        <v>2898</v>
       </c>
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
@@ -69138,7 +69139,7 @@
       </c>
       <c r="E23" s="193"/>
       <c r="F23" s="195" t="s">
-        <v>2900</v>
+        <v>2899</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
@@ -69152,7 +69153,7 @@
       </c>
       <c r="E24" s="194"/>
       <c r="F24" s="196" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -69166,7 +69167,7 @@
       </c>
       <c r="E25" s="7"/>
       <c r="F25" s="197" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
@@ -69180,7 +69181,7 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" s="198" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -79815,8 +79815,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3bf4e89828d0d3cc2fc23292c739d613">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffc63a8b47298d93c51fdc2582bdfc36" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -79881,7 +79881,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -79900,7 +79900,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -79917,8 +79917,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -80023,22 +80023,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D15C0AF7-C49B-4A42-83BD-9B50FA927179}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{63AE6EC0-0967-49AA-B377-179FB06CFA82}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -69742,8 +69742,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3bf4e89828d0d3cc2fc23292c739d613">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffc63a8b47298d93c51fdc2582bdfc36" ns2:_="" ns3:_="">
     <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
     <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
     <xsd:element name="properties">
@@ -69808,7 +69808,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -69827,7 +69827,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -69844,8 +69844,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -69960,20 +69960,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BD6032C-6846-415D-BDCC-C08A788DE256}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <ds:schemaRef ds:uri="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA63C65C-DD78-4AA0-87CE-4D04FCB86DB0}"/>
 </file>
--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -13936,26 +13936,6 @@
     <t>PIN isA Notice,
 Notice isA Document, 
 Document notifies (subproperty of relatesTo) PlannedProcurementPart,
-PlannedProcurementPart hasAccessTerms AccessTerms,
-AccessTerms hasDownloadURL Channel</t>
-  </si>
-  <si>
-    <t>PIN isA Notice,
-Notice isA Document, 
-Document notifies (subproperty of relatesTo) Procedure,
-Procedure hasAccessTerms AccessTerms,
-AccessTerms hasDownloadURL Channel</t>
-  </si>
-  <si>
-    <t>CN isA Notice,
-Notice isA Document, Document announces (subproperty of relatesTo) Procedure,
-Procedure hasAccessTerms AccessTerms,
-AccessTerms hasDownloadURL Channel</t>
-  </si>
-  <si>
-    <t>PIN isA Notice,
-Notice isA Document, 
-Document notifies (subproperty of relatesTo) PlannedProcurementPart,
 PlannedProcurementPart refersTo Document,
 Document hasOfficalLanguage Code</t>
   </si>
@@ -14009,20 +13989,6 @@
 Notice isA Document, Document announces (subproperty of relatesTo) Procedure,
 Procedure hasAccessTerms AccessTerms,
 AccessTerms hasSomeProcurementDocumentsRestricted Indicator</t>
-  </si>
-  <si>
-    <t>PIN isA Notice,
-Notice isA Document, 
-Document notifies (subproperty of relatesTo) PlannedProcurementPart,
-PlannedProcurementPart hasAccessTerms AccessTerms,
-AccessTerms hasSomeProcurementDocumentsRestrictedJustification Text</t>
-  </si>
-  <si>
-    <t>CN isA Notice,
-Notice isA Document, 
-Document announces (subproperty of relatesTo) PlannedProcurementPart,
-PlannedProcurementPart hasAccessTerms AccessTerms,
-AccessTerms hasSomeProcurementDocumentsRestrictedJustification Tex</t>
   </si>
   <si>
     <t>PIN isA Notice,
@@ -16542,6 +16508,40 @@
 Notice isA Document,
 Document relatesTo Procedure,
 Notice has NotificationContentTypes</t>
+  </si>
+  <si>
+    <t>PIN isA Notice,
+Notice isA Document, 
+Document notifies (subproperty of relatesTo) PlannedProcurementPart,
+PlannedProcurementPart hasAccessTerms AccessTerms,
+AccessTerms hasSomeProcurementDocumentsRestrictedJustification Code</t>
+  </si>
+  <si>
+    <t>CN isA Notice,
+Notice isA Document, 
+Document announces (subproperty of relatesTo) PlannedProcurementPart,
+PlannedProcurementPart hasAccessTerms AccessTerms,
+AccessTerms hasSomeProcurementDocumentsRestrictedJustification Code</t>
+  </si>
+  <si>
+    <t>CN isA Notice,
+Notice isA Document, Document announces (subproperty of relatesTo) Procedure,
+Procedure hasAccessTerms AccessTerms,
+AccessTerms hasProcurementDocumentLandingPage URI</t>
+  </si>
+  <si>
+    <t>PIN isA Notice,
+Notice isA Document, 
+Document notifies (subproperty of relatesTo) Procedure,
+Procedure hasAccessTerms AccessTerms,
+AccessTerms hasProcurementDocumentLandingPage URI</t>
+  </si>
+  <si>
+    <t>PIN isA Notice,
+Notice isA Document, 
+Document notifies (subproperty of relatesTo) PlannedProcurementPart,
+PlannedProcurementPart hasAccessTerms AccessTerms,
+AccessTerms hasProcurementDocumentLandingPage URI</t>
   </si>
 </sst>
 </file>
@@ -17892,6 +17892,15 @@
     <xf numFmtId="0" fontId="12" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="12" fillId="9" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -17902,15 +17911,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -18222,6 +18222,15 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -18230,15 +18239,6 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -18653,8 +18653,8 @@
   <dimension ref="A1:BK312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D185" sqref="D185"/>
+      <pane ySplit="4" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18665,22 +18665,22 @@
     <col min="4" max="4" width="11.1640625" style="85" customWidth="1"/>
     <col min="5" max="5" width="76" style="85" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" style="85" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" style="85" customWidth="1"/>
-    <col min="8" max="9" width="4.83203125" style="85" customWidth="1"/>
-    <col min="10" max="16" width="4.33203125" style="85" customWidth="1"/>
-    <col min="17" max="17" width="5.1640625" style="85" customWidth="1"/>
-    <col min="18" max="25" width="4.33203125" style="85" customWidth="1"/>
-    <col min="26" max="27" width="4.83203125" style="85" customWidth="1"/>
-    <col min="28" max="28" width="7.6640625" style="85" customWidth="1"/>
-    <col min="29" max="29" width="4.83203125" style="85" customWidth="1"/>
-    <col min="30" max="30" width="4.33203125" style="85" customWidth="1"/>
-    <col min="31" max="31" width="7" style="85" customWidth="1"/>
-    <col min="32" max="32" width="6" style="85" customWidth="1"/>
-    <col min="33" max="33" width="4.33203125" style="85" customWidth="1"/>
-    <col min="34" max="34" width="7.1640625" style="85" customWidth="1"/>
-    <col min="35" max="46" width="4.33203125" style="85" customWidth="1"/>
-    <col min="47" max="47" width="86.1640625" style="85" customWidth="1"/>
-    <col min="48" max="48" width="29" style="85" customWidth="1"/>
+    <col min="7" max="7" width="4.6640625" style="85" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="4.83203125" style="85" hidden="1" customWidth="1"/>
+    <col min="10" max="16" width="4.33203125" style="85" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="5.1640625" style="85" hidden="1" customWidth="1"/>
+    <col min="18" max="25" width="4.33203125" style="85" hidden="1" customWidth="1"/>
+    <col min="26" max="27" width="4.83203125" style="85" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="7.6640625" style="85" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="4.83203125" style="85" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="4.33203125" style="85" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="7" style="85" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="6" style="85" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="4.33203125" style="85" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="7.1640625" style="85" hidden="1" customWidth="1"/>
+    <col min="35" max="46" width="4.33203125" style="85" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="86.1640625" style="85" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="29" style="85" hidden="1" customWidth="1"/>
     <col min="49" max="51" width="41.83203125" style="25" customWidth="1"/>
     <col min="52" max="52" width="26.6640625" style="85" customWidth="1"/>
     <col min="53" max="53" width="27.5" style="85" customWidth="1"/>
@@ -18770,11 +18770,11 @@
       <c r="AV1" s="297" t="s">
         <v>267</v>
       </c>
-      <c r="AW1" s="247" t="s">
+      <c r="AW1" s="250" t="s">
         <v>369</v>
       </c>
-      <c r="AX1" s="247"/>
-      <c r="AY1" s="247"/>
+      <c r="AX1" s="250"/>
+      <c r="AY1" s="250"/>
       <c r="AZ1" s="298" t="s">
         <v>266</v>
       </c>
@@ -18933,7 +18933,7 @@
       </c>
       <c r="BA2" s="298"/>
       <c r="BB2" s="299" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC2" s="298" t="s">
         <v>269</v>
@@ -19034,13 +19034,13 @@
       <c r="AT3" s="333"/>
       <c r="AU3" s="43"/>
       <c r="AV3" s="297"/>
-      <c r="AW3" s="247" t="s">
+      <c r="AW3" s="250" t="s">
         <v>370</v>
       </c>
-      <c r="AX3" s="247" t="s">
+      <c r="AX3" s="250" t="s">
         <v>371</v>
       </c>
-      <c r="AY3" s="247" t="s">
+      <c r="AY3" s="250" t="s">
         <v>372</v>
       </c>
       <c r="AZ3" s="298" t="s">
@@ -19199,9 +19199,9 @@
       </c>
       <c r="AU4" s="50"/>
       <c r="AV4" s="297"/>
-      <c r="AW4" s="247"/>
-      <c r="AX4" s="247"/>
-      <c r="AY4" s="247"/>
+      <c r="AW4" s="250"/>
+      <c r="AX4" s="250"/>
+      <c r="AY4" s="250"/>
       <c r="AZ4" s="298"/>
       <c r="BA4" s="298"/>
       <c r="BB4" s="300"/>
@@ -19362,14 +19362,14 @@
       <c r="AX5" s="303"/>
       <c r="AY5" s="303"/>
       <c r="AZ5" s="304" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="BA5" s="304"/>
       <c r="BB5" s="182" t="s">
         <v>2064</v>
       </c>
       <c r="BC5" s="304" t="s">
-        <v>3208</v>
+        <v>3203</v>
       </c>
       <c r="BD5" s="304"/>
       <c r="BE5" s="304"/>
@@ -19514,19 +19514,19 @@
       </c>
       <c r="AX6" s="243"/>
       <c r="AY6" s="243"/>
-      <c r="AZ6" s="244" t="s">
-        <v>3190</v>
-      </c>
-      <c r="BA6" s="244"/>
+      <c r="AZ6" s="247" t="s">
+        <v>3185</v>
+      </c>
+      <c r="BA6" s="247"/>
       <c r="BB6" s="179" t="s">
-        <v>3191</v>
-      </c>
-      <c r="BC6" s="244" t="s">
-        <v>3192</v>
-      </c>
-      <c r="BD6" s="244"/>
-      <c r="BE6" s="244"/>
-      <c r="BF6" s="244"/>
+        <v>3186</v>
+      </c>
+      <c r="BC6" s="247" t="s">
+        <v>3187</v>
+      </c>
+      <c r="BD6" s="247"/>
+      <c r="BE6" s="247"/>
+      <c r="BF6" s="247"/>
       <c r="BG6" s="212" t="s">
         <v>2127</v>
       </c>
@@ -19690,7 +19690,7 @@
       </c>
       <c r="BA7" s="234"/>
       <c r="BB7" s="177" t="s">
-        <v>3193</v>
+        <v>3188</v>
       </c>
       <c r="BC7" s="234" t="s">
         <v>2921</v>
@@ -19848,7 +19848,7 @@
         <v>237</v>
       </c>
       <c r="AU8" s="58" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="AV8" s="92"/>
       <c r="AW8" s="243" t="s">
@@ -20028,14 +20028,14 @@
       <c r="AX9" s="243"/>
       <c r="AY9" s="243"/>
       <c r="AZ9" s="234" t="s">
-        <v>3194</v>
+        <v>3189</v>
       </c>
       <c r="BA9" s="234"/>
       <c r="BB9" s="177" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="BC9" s="234" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="BD9" s="234"/>
       <c r="BE9" s="234"/>
@@ -20199,14 +20199,14 @@
       <c r="AX10" s="243"/>
       <c r="AY10" s="243"/>
       <c r="AZ10" s="234" t="s">
-        <v>3197</v>
+        <v>3192</v>
       </c>
       <c r="BA10" s="234"/>
       <c r="BB10" s="177" t="s">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="BC10" s="234" t="s">
-        <v>3199</v>
+        <v>3194</v>
       </c>
       <c r="BD10" s="234"/>
       <c r="BE10" s="234"/>
@@ -20365,33 +20365,33 @@
         <v>2428</v>
       </c>
       <c r="AW11" s="243" t="s">
-        <v>3462</v>
+        <v>3457</v>
       </c>
       <c r="AX11" s="243"/>
       <c r="AY11" s="243"/>
       <c r="AZ11" s="234" t="s">
-        <v>3463</v>
+        <v>3458</v>
       </c>
       <c r="BA11" s="234"/>
       <c r="BB11" s="177" t="s">
-        <v>3200</v>
+        <v>3195</v>
       </c>
       <c r="BC11" s="234" t="s">
-        <v>3464</v>
+        <v>3459</v>
       </c>
       <c r="BD11" s="234"/>
       <c r="BE11" s="234"/>
       <c r="BF11" s="234"/>
       <c r="BG11" s="136" t="s">
-        <v>3465</v>
+        <v>3460</v>
       </c>
       <c r="BH11" s="236" t="s">
-        <v>3466</v>
+        <v>3461</v>
       </c>
       <c r="BI11" s="237"/>
       <c r="BJ11" s="237"/>
       <c r="BK11" s="201" t="s">
-        <v>3467</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="12" spans="1:63" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -20541,14 +20541,14 @@
       <c r="AX12" s="243"/>
       <c r="AY12" s="243"/>
       <c r="AZ12" s="234" t="s">
-        <v>3201</v>
+        <v>3196</v>
       </c>
       <c r="BA12" s="234"/>
       <c r="BB12" s="177" t="s">
-        <v>3202</v>
+        <v>3197</v>
       </c>
       <c r="BC12" s="234" t="s">
-        <v>3203</v>
+        <v>3198</v>
       </c>
       <c r="BD12" s="234"/>
       <c r="BE12" s="234"/>
@@ -20712,11 +20712,11 @@
       <c r="AX13" s="243"/>
       <c r="AY13" s="243"/>
       <c r="AZ13" s="234" t="s">
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="BA13" s="234"/>
       <c r="BB13" s="177" t="s">
-        <v>3205</v>
+        <v>3200</v>
       </c>
       <c r="BC13" s="234" t="s">
         <v>2915</v>
@@ -22200,7 +22200,7 @@
         <v>2317</v>
       </c>
       <c r="BC22" s="252" t="s">
-        <v>3383</v>
+        <v>3378</v>
       </c>
       <c r="BD22" s="252"/>
       <c r="BE22" s="252"/>
@@ -22369,7 +22369,7 @@
         <v>2293</v>
       </c>
       <c r="BC23" s="252" t="s">
-        <v>3375</v>
+        <v>3370</v>
       </c>
       <c r="BD23" s="252"/>
       <c r="BE23" s="252"/>
@@ -22876,7 +22876,7 @@
         <v>2300</v>
       </c>
       <c r="BC26" s="252" t="s">
-        <v>3376</v>
+        <v>3371</v>
       </c>
       <c r="BD26" s="252"/>
       <c r="BE26" s="252"/>
@@ -23214,7 +23214,7 @@
         <v>2311</v>
       </c>
       <c r="BC28" s="252" t="s">
-        <v>3377</v>
+        <v>3372</v>
       </c>
       <c r="BD28" s="252"/>
       <c r="BE28" s="252"/>
@@ -23385,7 +23385,7 @@
         <v>2326</v>
       </c>
       <c r="BC29" s="252" t="s">
-        <v>3378</v>
+        <v>3373</v>
       </c>
       <c r="BD29" s="252"/>
       <c r="BE29" s="252"/>
@@ -23556,7 +23556,7 @@
         <v>2329</v>
       </c>
       <c r="BC30" s="252" t="s">
-        <v>3379</v>
+        <v>3374</v>
       </c>
       <c r="BD30" s="252"/>
       <c r="BE30" s="252"/>
@@ -23727,7 +23727,7 @@
         <v>2332</v>
       </c>
       <c r="BC31" s="252" t="s">
-        <v>3380</v>
+        <v>3375</v>
       </c>
       <c r="BD31" s="252"/>
       <c r="BE31" s="252"/>
@@ -23898,7 +23898,7 @@
         <v>2335</v>
       </c>
       <c r="BC32" s="252" t="s">
-        <v>3381</v>
+        <v>3376</v>
       </c>
       <c r="BD32" s="252"/>
       <c r="BE32" s="252"/>
@@ -24057,33 +24057,33 @@
         <v>2066</v>
       </c>
       <c r="AW33" s="243" t="s">
-        <v>3456</v>
+        <v>3451</v>
       </c>
       <c r="AX33" s="243"/>
       <c r="AY33" s="243"/>
       <c r="AZ33" s="252" t="s">
-        <v>3456</v>
+        <v>3451</v>
       </c>
       <c r="BA33" s="252"/>
       <c r="BB33" s="177" t="s">
-        <v>3457</v>
+        <v>3452</v>
       </c>
       <c r="BC33" s="252" t="s">
-        <v>3458</v>
+        <v>3453</v>
       </c>
       <c r="BD33" s="252"/>
       <c r="BE33" s="252"/>
       <c r="BF33" s="252"/>
       <c r="BG33" s="136" t="s">
-        <v>3459</v>
+        <v>3454</v>
       </c>
       <c r="BH33" s="236" t="s">
-        <v>3460</v>
+        <v>3455</v>
       </c>
       <c r="BI33" s="237"/>
       <c r="BJ33" s="237"/>
       <c r="BK33" s="201" t="s">
-        <v>3461</v>
+        <v>3456</v>
       </c>
     </row>
     <row r="34" spans="1:63" s="148" customFormat="1" ht="183.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -24238,7 +24238,7 @@
         <v>2338</v>
       </c>
       <c r="BC34" s="252" t="s">
-        <v>3382</v>
+        <v>3377</v>
       </c>
       <c r="BD34" s="252"/>
       <c r="BE34" s="252"/>
@@ -24395,28 +24395,28 @@
       <c r="AU35" s="58"/>
       <c r="AV35" s="102"/>
       <c r="AW35" s="243" t="s">
-        <v>3429</v>
+        <v>3424</v>
       </c>
       <c r="AX35" s="243"/>
       <c r="AY35" s="243"/>
       <c r="AZ35" s="234" t="s">
-        <v>3428</v>
+        <v>3423</v>
       </c>
       <c r="BA35" s="234"/>
       <c r="BB35" s="141" t="s">
         <v>2347</v>
       </c>
       <c r="BC35" s="234" t="s">
-        <v>3427</v>
+        <v>3422</v>
       </c>
       <c r="BD35" s="234"/>
       <c r="BE35" s="234"/>
       <c r="BF35" s="234"/>
       <c r="BG35" s="215" t="s">
-        <v>3426</v>
+        <v>3421</v>
       </c>
       <c r="BH35" s="240" t="s">
-        <v>3425</v>
+        <v>3420</v>
       </c>
       <c r="BI35" s="240"/>
       <c r="BJ35" s="240"/>
@@ -25172,11 +25172,11 @@
       <c r="BC40" s="175" t="s">
         <v>2472</v>
       </c>
-      <c r="BD40" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BE40" s="244"/>
-      <c r="BF40" s="244"/>
+      <c r="BD40" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE40" s="247"/>
+      <c r="BF40" s="247"/>
       <c r="BG40" s="212" t="s">
         <v>2137</v>
       </c>
@@ -25329,17 +25329,17 @@
       </c>
       <c r="AX41" s="251"/>
       <c r="AY41" s="251"/>
-      <c r="AZ41" s="244" t="s">
+      <c r="AZ41" s="247" t="s">
         <v>2932</v>
       </c>
-      <c r="BA41" s="244"/>
+      <c r="BA41" s="247"/>
       <c r="BB41" s="179" t="s">
         <v>2933</v>
       </c>
-      <c r="BC41" s="244" t="s">
+      <c r="BC41" s="247" t="s">
         <v>2934</v>
       </c>
-      <c r="BD41" s="244"/>
+      <c r="BD41" s="247"/>
       <c r="BE41" s="175" t="s">
         <v>367</v>
       </c>
@@ -25472,17 +25472,17 @@
       </c>
       <c r="AX42" s="251"/>
       <c r="AY42" s="251"/>
-      <c r="AZ42" s="244" t="s">
+      <c r="AZ42" s="247" t="s">
         <v>2935</v>
       </c>
-      <c r="BA42" s="244"/>
+      <c r="BA42" s="247"/>
       <c r="BB42" s="179" t="s">
         <v>2936</v>
       </c>
-      <c r="BC42" s="244" t="s">
+      <c r="BC42" s="247" t="s">
         <v>2937</v>
       </c>
-      <c r="BD42" s="244"/>
+      <c r="BD42" s="247"/>
       <c r="BE42" s="175" t="s">
         <v>367</v>
       </c>
@@ -25686,7 +25686,7 @@
       <c r="AS44" s="67"/>
       <c r="AT44" s="147"/>
       <c r="AU44" s="133" t="s">
-        <v>3385</v>
+        <v>3380</v>
       </c>
       <c r="AV44" s="97"/>
       <c r="AW44" s="243" t="s">
@@ -25694,20 +25694,20 @@
       </c>
       <c r="AX44" s="243"/>
       <c r="AY44" s="243"/>
-      <c r="AZ44" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA44" s="244"/>
-      <c r="BB44" s="244"/>
-      <c r="BC44" s="244"/>
-      <c r="BD44" s="244"/>
-      <c r="BE44" s="244"/>
-      <c r="BF44" s="244"/>
+      <c r="AZ44" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA44" s="247"/>
+      <c r="BB44" s="247"/>
+      <c r="BC44" s="247"/>
+      <c r="BD44" s="247"/>
+      <c r="BE44" s="247"/>
+      <c r="BF44" s="247"/>
       <c r="BG44" s="212" t="s">
-        <v>3396</v>
+        <v>3391</v>
       </c>
       <c r="BH44" s="295" t="s">
-        <v>3386</v>
+        <v>3381</v>
       </c>
       <c r="BI44" s="295"/>
       <c r="BJ44" s="295"/>
@@ -25799,7 +25799,7 @@
       <c r="AS45" s="67"/>
       <c r="AT45" s="147"/>
       <c r="AU45" s="133" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
       <c r="AV45" s="97"/>
       <c r="AW45" s="243" t="s">
@@ -25807,20 +25807,20 @@
       </c>
       <c r="AX45" s="243"/>
       <c r="AY45" s="243"/>
-      <c r="AZ45" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA45" s="244"/>
-      <c r="BB45" s="244"/>
-      <c r="BC45" s="244"/>
-      <c r="BD45" s="244"/>
-      <c r="BE45" s="244"/>
-      <c r="BF45" s="244"/>
+      <c r="AZ45" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA45" s="247"/>
+      <c r="BB45" s="247"/>
+      <c r="BC45" s="247"/>
+      <c r="BD45" s="247"/>
+      <c r="BE45" s="247"/>
+      <c r="BF45" s="247"/>
       <c r="BG45" s="212" t="s">
-        <v>3400</v>
+        <v>3395</v>
       </c>
       <c r="BH45" s="240" t="s">
-        <v>3399</v>
+        <v>3394</v>
       </c>
       <c r="BI45" s="240"/>
       <c r="BJ45" s="240"/>
@@ -25920,20 +25920,20 @@
       </c>
       <c r="AX46" s="243"/>
       <c r="AY46" s="243"/>
-      <c r="AZ46" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA46" s="244"/>
-      <c r="BB46" s="244"/>
-      <c r="BC46" s="244"/>
-      <c r="BD46" s="244"/>
-      <c r="BE46" s="244"/>
-      <c r="BF46" s="244"/>
+      <c r="AZ46" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA46" s="247"/>
+      <c r="BB46" s="247"/>
+      <c r="BC46" s="247"/>
+      <c r="BD46" s="247"/>
+      <c r="BE46" s="247"/>
+      <c r="BF46" s="247"/>
       <c r="BG46" s="212" t="s">
-        <v>3398</v>
+        <v>3393</v>
       </c>
       <c r="BH46" s="240" t="s">
-        <v>3397</v>
+        <v>3392</v>
       </c>
       <c r="BI46" s="240"/>
       <c r="BJ46" s="240"/>
@@ -26757,19 +26757,19 @@
       </c>
       <c r="AX51" s="233"/>
       <c r="AY51" s="233"/>
-      <c r="AZ51" s="244" t="s">
+      <c r="AZ51" s="247" t="s">
         <v>2947</v>
       </c>
-      <c r="BA51" s="244"/>
+      <c r="BA51" s="247"/>
       <c r="BB51" s="179" t="s">
         <v>2948</v>
       </c>
-      <c r="BC51" s="244" t="s">
+      <c r="BC51" s="247" t="s">
         <v>2949</v>
       </c>
-      <c r="BD51" s="244"/>
-      <c r="BE51" s="244"/>
-      <c r="BF51" s="244"/>
+      <c r="BD51" s="247"/>
+      <c r="BE51" s="247"/>
+      <c r="BF51" s="247"/>
       <c r="BG51" s="212" t="s">
         <v>2141</v>
       </c>
@@ -26928,19 +26928,19 @@
       </c>
       <c r="AX52" s="233"/>
       <c r="AY52" s="233"/>
-      <c r="AZ52" s="244" t="s">
+      <c r="AZ52" s="247" t="s">
         <v>2950</v>
       </c>
-      <c r="BA52" s="244"/>
+      <c r="BA52" s="247"/>
       <c r="BB52" s="179" t="s">
         <v>2951</v>
       </c>
-      <c r="BC52" s="244" t="s">
+      <c r="BC52" s="247" t="s">
         <v>2952</v>
       </c>
-      <c r="BD52" s="244"/>
-      <c r="BE52" s="244"/>
-      <c r="BF52" s="244"/>
+      <c r="BD52" s="247"/>
+      <c r="BE52" s="247"/>
+      <c r="BF52" s="247"/>
       <c r="BG52" s="212" t="s">
         <v>2142</v>
       </c>
@@ -27073,18 +27073,18 @@
         <v>2503</v>
       </c>
       <c r="AY53" s="243"/>
-      <c r="AZ53" s="244" t="s">
-        <v>3307</v>
-      </c>
-      <c r="BA53" s="244"/>
+      <c r="AZ53" s="247" t="s">
+        <v>3302</v>
+      </c>
+      <c r="BA53" s="247"/>
       <c r="BB53" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC53" s="244" t="s">
+      <c r="BC53" s="247" t="s">
         <v>2953</v>
       </c>
-      <c r="BD53" s="244"/>
-      <c r="BE53" s="244"/>
+      <c r="BD53" s="247"/>
+      <c r="BE53" s="247"/>
       <c r="BF53" s="175" t="s">
         <v>367</v>
       </c>
@@ -27341,18 +27341,18 @@
         <v>2954</v>
       </c>
       <c r="AY55" s="243"/>
-      <c r="AZ55" s="244" t="s">
-        <v>3212</v>
-      </c>
-      <c r="BA55" s="244"/>
+      <c r="AZ55" s="247" t="s">
+        <v>3207</v>
+      </c>
+      <c r="BA55" s="247"/>
       <c r="BB55" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC55" s="244" t="s">
-        <v>3213</v>
-      </c>
-      <c r="BD55" s="244"/>
-      <c r="BE55" s="244"/>
+      <c r="BC55" s="247" t="s">
+        <v>3208</v>
+      </c>
+      <c r="BD55" s="247"/>
+      <c r="BE55" s="247"/>
       <c r="BF55" s="175" t="s">
         <v>367</v>
       </c>
@@ -27488,18 +27488,18 @@
         <v>2955</v>
       </c>
       <c r="AY56" s="243"/>
-      <c r="AZ56" s="244" t="s">
-        <v>3214</v>
-      </c>
-      <c r="BA56" s="244"/>
+      <c r="AZ56" s="247" t="s">
+        <v>3209</v>
+      </c>
+      <c r="BA56" s="247"/>
       <c r="BB56" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC56" s="244" t="s">
-        <v>3215</v>
-      </c>
-      <c r="BD56" s="244"/>
-      <c r="BE56" s="244"/>
+      <c r="BC56" s="247" t="s">
+        <v>3210</v>
+      </c>
+      <c r="BD56" s="247"/>
+      <c r="BE56" s="247"/>
       <c r="BF56" s="175" t="s">
         <v>367</v>
       </c>
@@ -27820,19 +27820,19 @@
       <c r="AY58" s="251" t="s">
         <v>378</v>
       </c>
-      <c r="AZ58" s="244" t="s">
+      <c r="AZ58" s="247" t="s">
         <v>378</v>
       </c>
-      <c r="BA58" s="244"/>
+      <c r="BA58" s="247"/>
       <c r="BB58" s="179" t="s">
         <v>378</v>
       </c>
-      <c r="BC58" s="244" t="s">
+      <c r="BC58" s="247" t="s">
         <v>378</v>
       </c>
-      <c r="BD58" s="244"/>
-      <c r="BE58" s="244"/>
-      <c r="BF58" s="244"/>
+      <c r="BD58" s="247"/>
+      <c r="BE58" s="247"/>
+      <c r="BF58" s="247"/>
       <c r="BG58" s="216" t="s">
         <v>378</v>
       </c>
@@ -27992,14 +27992,14 @@
       <c r="AX59" s="251"/>
       <c r="AY59" s="251"/>
       <c r="AZ59" s="234" t="s">
-        <v>3216</v>
+        <v>3211</v>
       </c>
       <c r="BA59" s="234"/>
       <c r="BB59" s="177" t="s">
         <v>2956</v>
       </c>
       <c r="BC59" s="234" t="s">
-        <v>3217</v>
+        <v>3212</v>
       </c>
       <c r="BD59" s="234"/>
       <c r="BE59" s="234"/>
@@ -28163,14 +28163,14 @@
       <c r="AX60" s="251"/>
       <c r="AY60" s="251"/>
       <c r="AZ60" s="234" t="s">
-        <v>3218</v>
+        <v>3213</v>
       </c>
       <c r="BA60" s="234"/>
       <c r="BB60" s="177" t="s">
         <v>2957</v>
       </c>
       <c r="BC60" s="234" t="s">
-        <v>3219</v>
+        <v>3214</v>
       </c>
       <c r="BD60" s="234"/>
       <c r="BE60" s="234"/>
@@ -28322,14 +28322,14 @@
         <v>2516</v>
       </c>
       <c r="AZ61" s="234" t="s">
-        <v>3220</v>
+        <v>3215</v>
       </c>
       <c r="BA61" s="234"/>
       <c r="BB61" s="177" t="s">
         <v>367</v>
       </c>
       <c r="BC61" s="234" t="s">
-        <v>3221</v>
+        <v>3216</v>
       </c>
       <c r="BD61" s="234"/>
       <c r="BE61" s="234"/>
@@ -28481,14 +28481,14 @@
         <v>2376</v>
       </c>
       <c r="AZ62" s="234" t="s">
-        <v>3222</v>
+        <v>3217</v>
       </c>
       <c r="BA62" s="234"/>
       <c r="BB62" s="177" t="s">
         <v>367</v>
       </c>
       <c r="BC62" s="234" t="s">
-        <v>3223</v>
+        <v>3218</v>
       </c>
       <c r="BD62" s="234"/>
       <c r="BE62" s="234"/>
@@ -28632,14 +28632,14 @@
         <v>2522</v>
       </c>
       <c r="AZ63" s="234" t="s">
-        <v>3224</v>
+        <v>3219</v>
       </c>
       <c r="BA63" s="234"/>
       <c r="BB63" s="177" t="s">
         <v>367</v>
       </c>
       <c r="BC63" s="234" t="s">
-        <v>3225</v>
+        <v>3220</v>
       </c>
       <c r="BD63" s="234"/>
       <c r="BE63" s="234"/>
@@ -28787,14 +28787,14 @@
         <v>2525</v>
       </c>
       <c r="AZ64" s="234" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="BA64" s="234"/>
       <c r="BB64" s="177" t="s">
         <v>367</v>
       </c>
       <c r="BC64" s="234" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="BD64" s="234"/>
       <c r="BE64" s="234"/>
@@ -28903,19 +28903,19 @@
       </c>
       <c r="AX65" s="243"/>
       <c r="AY65" s="243"/>
-      <c r="AZ65" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA65" s="244"/>
+      <c r="AZ65" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA65" s="247"/>
       <c r="BB65" s="179" t="s">
         <v>2958</v>
       </c>
-      <c r="BC65" s="244" t="s">
-        <v>3228</v>
-      </c>
-      <c r="BD65" s="244"/>
-      <c r="BE65" s="244"/>
-      <c r="BF65" s="244"/>
+      <c r="BC65" s="247" t="s">
+        <v>3223</v>
+      </c>
+      <c r="BD65" s="247"/>
+      <c r="BE65" s="247"/>
+      <c r="BF65" s="247"/>
       <c r="BG65" s="216" t="s">
         <v>367</v>
       </c>
@@ -29016,19 +29016,19 @@
       </c>
       <c r="AX66" s="243"/>
       <c r="AY66" s="243"/>
-      <c r="AZ66" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA66" s="244"/>
+      <c r="AZ66" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA66" s="247"/>
       <c r="BB66" s="179" t="s">
         <v>2959</v>
       </c>
-      <c r="BC66" s="244" t="s">
-        <v>3229</v>
-      </c>
-      <c r="BD66" s="244"/>
-      <c r="BE66" s="244"/>
-      <c r="BF66" s="244"/>
+      <c r="BC66" s="247" t="s">
+        <v>3224</v>
+      </c>
+      <c r="BD66" s="247"/>
+      <c r="BE66" s="247"/>
+      <c r="BF66" s="247"/>
       <c r="BG66" s="216" t="s">
         <v>367</v>
       </c>
@@ -29339,11 +29339,11 @@
       <c r="AV68" s="91" t="s">
         <v>2530</v>
       </c>
-      <c r="AW68" s="246" t="s">
+      <c r="AW68" s="249" t="s">
         <v>2960</v>
       </c>
-      <c r="AX68" s="246"/>
-      <c r="AY68" s="246"/>
+      <c r="AX68" s="249"/>
+      <c r="AY68" s="249"/>
       <c r="AZ68" s="234" t="s">
         <v>2961</v>
       </c>
@@ -29510,11 +29510,11 @@
       <c r="AV69" s="91" t="s">
         <v>2531</v>
       </c>
-      <c r="AW69" s="246" t="s">
+      <c r="AW69" s="249" t="s">
         <v>2964</v>
       </c>
-      <c r="AX69" s="246"/>
-      <c r="AY69" s="246"/>
+      <c r="AX69" s="249"/>
+      <c r="AY69" s="249"/>
       <c r="AZ69" s="234" t="s">
         <v>2965</v>
       </c>
@@ -29681,11 +29681,11 @@
       <c r="AV70" s="91" t="s">
         <v>2532</v>
       </c>
-      <c r="AW70" s="246" t="s">
+      <c r="AW70" s="249" t="s">
         <v>2968</v>
       </c>
-      <c r="AX70" s="246"/>
-      <c r="AY70" s="246"/>
+      <c r="AX70" s="249"/>
+      <c r="AY70" s="249"/>
       <c r="AZ70" s="234" t="s">
         <v>2969</v>
       </c>
@@ -29852,11 +29852,11 @@
       <c r="AV71" s="91" t="s">
         <v>2533</v>
       </c>
-      <c r="AW71" s="246" t="s">
+      <c r="AW71" s="249" t="s">
         <v>2972</v>
       </c>
-      <c r="AX71" s="246"/>
-      <c r="AY71" s="246"/>
+      <c r="AX71" s="249"/>
+      <c r="AY71" s="249"/>
       <c r="AZ71" s="234" t="s">
         <v>2973</v>
       </c>
@@ -30023,11 +30023,11 @@
       <c r="AV72" s="91" t="s">
         <v>2534</v>
       </c>
-      <c r="AW72" s="246" t="s">
+      <c r="AW72" s="249" t="s">
         <v>2976</v>
       </c>
-      <c r="AX72" s="246"/>
-      <c r="AY72" s="246"/>
+      <c r="AX72" s="249"/>
+      <c r="AY72" s="249"/>
       <c r="AZ72" s="234" t="s">
         <v>2977</v>
       </c>
@@ -30194,11 +30194,11 @@
       <c r="AV73" s="97" t="s">
         <v>2536</v>
       </c>
-      <c r="AW73" s="246" t="s">
+      <c r="AW73" s="249" t="s">
         <v>2980</v>
       </c>
-      <c r="AX73" s="246"/>
-      <c r="AY73" s="246"/>
+      <c r="AX73" s="249"/>
+      <c r="AY73" s="249"/>
       <c r="AZ73" s="234" t="s">
         <v>2981</v>
       </c>
@@ -30365,11 +30365,11 @@
       <c r="AV74" s="96" t="s">
         <v>2538</v>
       </c>
-      <c r="AW74" s="246" t="s">
+      <c r="AW74" s="249" t="s">
         <v>2984</v>
       </c>
-      <c r="AX74" s="246"/>
-      <c r="AY74" s="246"/>
+      <c r="AX74" s="249"/>
+      <c r="AY74" s="249"/>
       <c r="AZ74" s="234" t="s">
         <v>2985</v>
       </c>
@@ -31010,18 +31010,18 @@
       </c>
       <c r="AX78" s="243"/>
       <c r="AY78" s="243"/>
-      <c r="AZ78" s="244" t="s">
+      <c r="AZ78" s="247" t="s">
         <v>2997</v>
       </c>
-      <c r="BA78" s="244"/>
+      <c r="BA78" s="247"/>
       <c r="BB78" s="179" t="s">
         <v>2998</v>
       </c>
-      <c r="BC78" s="244" t="s">
+      <c r="BC78" s="247" t="s">
         <v>2999</v>
       </c>
-      <c r="BD78" s="244"/>
-      <c r="BE78" s="244"/>
+      <c r="BD78" s="247"/>
+      <c r="BE78" s="247"/>
       <c r="BF78" s="175" t="s">
         <v>367</v>
       </c>
@@ -31177,18 +31177,18 @@
       </c>
       <c r="AX79" s="243"/>
       <c r="AY79" s="243"/>
-      <c r="AZ79" s="244" t="s">
+      <c r="AZ79" s="247" t="s">
         <v>3001</v>
       </c>
-      <c r="BA79" s="244"/>
+      <c r="BA79" s="247"/>
       <c r="BB79" s="179" t="s">
         <v>3002</v>
       </c>
-      <c r="BC79" s="244" t="s">
+      <c r="BC79" s="247" t="s">
         <v>3003</v>
       </c>
-      <c r="BD79" s="244"/>
-      <c r="BE79" s="244"/>
+      <c r="BD79" s="247"/>
+      <c r="BE79" s="247"/>
       <c r="BF79" s="175" t="s">
         <v>367</v>
       </c>
@@ -31795,19 +31795,19 @@
       <c r="AY83" s="178" t="s">
         <v>3012</v>
       </c>
-      <c r="AZ83" s="244" t="s">
+      <c r="AZ83" s="247" t="s">
         <v>3013</v>
       </c>
-      <c r="BA83" s="244"/>
+      <c r="BA83" s="247"/>
       <c r="BB83" s="179" t="s">
         <v>3014</v>
       </c>
-      <c r="BC83" s="244" t="s">
+      <c r="BC83" s="247" t="s">
         <v>3015</v>
       </c>
-      <c r="BD83" s="244"/>
-      <c r="BE83" s="244"/>
-      <c r="BF83" s="244"/>
+      <c r="BD83" s="247"/>
+      <c r="BE83" s="247"/>
+      <c r="BF83" s="247"/>
       <c r="BG83" s="212" t="s">
         <v>2158</v>
       </c>
@@ -32224,19 +32224,19 @@
       <c r="AY86" s="142" t="s">
         <v>3016</v>
       </c>
-      <c r="AZ86" s="244" t="s">
-        <v>3209</v>
-      </c>
-      <c r="BA86" s="244"/>
+      <c r="AZ86" s="247" t="s">
+        <v>3204</v>
+      </c>
+      <c r="BA86" s="247"/>
       <c r="BB86" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC86" s="244" t="s">
+      <c r="BC86" s="247" t="s">
         <v>3017</v>
       </c>
-      <c r="BD86" s="244"/>
-      <c r="BE86" s="244"/>
-      <c r="BF86" s="244"/>
+      <c r="BD86" s="247"/>
+      <c r="BE86" s="247"/>
+      <c r="BF86" s="247"/>
       <c r="BG86" s="212" t="s">
         <v>2160</v>
       </c>
@@ -32365,21 +32365,21 @@
       </c>
       <c r="AX87" s="243"/>
       <c r="AY87" s="142" t="s">
-        <v>3231</v>
-      </c>
-      <c r="AZ87" s="244" t="s">
-        <v>3230</v>
-      </c>
-      <c r="BA87" s="244"/>
+        <v>3226</v>
+      </c>
+      <c r="AZ87" s="247" t="s">
+        <v>3225</v>
+      </c>
+      <c r="BA87" s="247"/>
       <c r="BB87" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC87" s="244" t="s">
+      <c r="BC87" s="247" t="s">
         <v>3018</v>
       </c>
-      <c r="BD87" s="244"/>
-      <c r="BE87" s="244"/>
-      <c r="BF87" s="244"/>
+      <c r="BD87" s="247"/>
+      <c r="BE87" s="247"/>
+      <c r="BF87" s="247"/>
       <c r="BG87" s="216" t="s">
         <v>367</v>
       </c>
@@ -32470,21 +32470,21 @@
       </c>
       <c r="AX88" s="243"/>
       <c r="AY88" s="243"/>
-      <c r="AZ88" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA88" s="244"/>
+      <c r="AZ88" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA88" s="247"/>
       <c r="BB88" s="179" t="s">
         <v>367</v>
       </c>
       <c r="BC88" s="175" t="s">
         <v>3019</v>
       </c>
-      <c r="BD88" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BE88" s="244"/>
-      <c r="BF88" s="244"/>
+      <c r="BD88" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE88" s="247"/>
+      <c r="BF88" s="247"/>
       <c r="BG88" s="216" t="s">
         <v>367</v>
       </c>
@@ -32577,21 +32577,21 @@
       </c>
       <c r="AX89" s="243"/>
       <c r="AY89" s="243"/>
-      <c r="AZ89" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA89" s="244"/>
+      <c r="AZ89" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA89" s="247"/>
       <c r="BB89" s="179" t="s">
         <v>367</v>
       </c>
       <c r="BC89" s="175" t="s">
         <v>3020</v>
       </c>
-      <c r="BD89" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BE89" s="244"/>
-      <c r="BF89" s="244"/>
+      <c r="BD89" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BE89" s="247"/>
+      <c r="BF89" s="247"/>
       <c r="BG89" s="216" t="s">
         <v>367</v>
       </c>
@@ -32694,15 +32694,15 @@
       </c>
       <c r="AX90" s="243"/>
       <c r="AY90" s="243"/>
-      <c r="AZ90" s="245" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA90" s="245"/>
-      <c r="BB90" s="245"/>
-      <c r="BC90" s="245"/>
-      <c r="BD90" s="245"/>
-      <c r="BE90" s="245"/>
-      <c r="BF90" s="245"/>
+      <c r="AZ90" s="248" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA90" s="248"/>
+      <c r="BB90" s="248"/>
+      <c r="BC90" s="248"/>
+      <c r="BD90" s="248"/>
+      <c r="BE90" s="248"/>
+      <c r="BF90" s="248"/>
       <c r="BG90" s="217" t="s">
         <v>2161</v>
       </c>
@@ -32805,15 +32805,15 @@
       </c>
       <c r="AX91" s="243"/>
       <c r="AY91" s="243"/>
-      <c r="AZ91" s="245" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA91" s="245"/>
-      <c r="BB91" s="245"/>
-      <c r="BC91" s="245"/>
-      <c r="BD91" s="245"/>
-      <c r="BE91" s="245"/>
-      <c r="BF91" s="245"/>
+      <c r="AZ91" s="248" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA91" s="248"/>
+      <c r="BB91" s="248"/>
+      <c r="BC91" s="248"/>
+      <c r="BD91" s="248"/>
+      <c r="BE91" s="248"/>
+      <c r="BF91" s="248"/>
       <c r="BG91" s="217" t="s">
         <v>2162</v>
       </c>
@@ -32916,15 +32916,15 @@
       </c>
       <c r="AX92" s="243"/>
       <c r="AY92" s="243"/>
-      <c r="AZ92" s="245" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA92" s="245"/>
-      <c r="BB92" s="245"/>
-      <c r="BC92" s="245"/>
-      <c r="BD92" s="245"/>
-      <c r="BE92" s="245"/>
-      <c r="BF92" s="245"/>
+      <c r="AZ92" s="248" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA92" s="248"/>
+      <c r="BB92" s="248"/>
+      <c r="BC92" s="248"/>
+      <c r="BD92" s="248"/>
+      <c r="BE92" s="248"/>
+      <c r="BF92" s="248"/>
       <c r="BG92" s="217" t="s">
         <v>2163</v>
       </c>
@@ -33041,19 +33041,19 @@
       <c r="AY93" s="142" t="s">
         <v>3021</v>
       </c>
-      <c r="AZ93" s="244" t="s">
+      <c r="AZ93" s="247" t="s">
         <v>3022</v>
       </c>
-      <c r="BA93" s="244"/>
+      <c r="BA93" s="247"/>
       <c r="BB93" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC93" s="244" t="s">
+      <c r="BC93" s="247" t="s">
         <v>3023</v>
       </c>
-      <c r="BD93" s="244"/>
-      <c r="BE93" s="244"/>
-      <c r="BF93" s="244"/>
+      <c r="BD93" s="247"/>
+      <c r="BE93" s="247"/>
+      <c r="BF93" s="247"/>
       <c r="BG93" s="216" t="s">
         <v>367</v>
       </c>
@@ -33168,19 +33168,19 @@
       <c r="AY94" s="142" t="s">
         <v>3024</v>
       </c>
-      <c r="AZ94" s="244" t="s">
+      <c r="AZ94" s="247" t="s">
         <v>3025</v>
       </c>
-      <c r="BA94" s="244"/>
+      <c r="BA94" s="247"/>
       <c r="BB94" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC94" s="244" t="s">
+      <c r="BC94" s="247" t="s">
         <v>3026</v>
       </c>
-      <c r="BD94" s="244"/>
-      <c r="BE94" s="244"/>
-      <c r="BF94" s="244"/>
+      <c r="BD94" s="247"/>
+      <c r="BE94" s="247"/>
+      <c r="BF94" s="247"/>
       <c r="BG94" s="216" t="s">
         <v>367</v>
       </c>
@@ -33295,19 +33295,19 @@
       <c r="AY95" s="142" t="s">
         <v>3027</v>
       </c>
-      <c r="AZ95" s="244" t="s">
+      <c r="AZ95" s="247" t="s">
         <v>3028</v>
       </c>
-      <c r="BA95" s="244"/>
+      <c r="BA95" s="247"/>
       <c r="BB95" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC95" s="244" t="s">
+      <c r="BC95" s="247" t="s">
         <v>3029</v>
       </c>
-      <c r="BD95" s="244"/>
-      <c r="BE95" s="244"/>
-      <c r="BF95" s="244"/>
+      <c r="BD95" s="247"/>
+      <c r="BE95" s="247"/>
+      <c r="BF95" s="247"/>
       <c r="BG95" s="216" t="s">
         <v>367</v>
       </c>
@@ -33530,19 +33530,19 @@
       <c r="AY97" s="142" t="s">
         <v>3030</v>
       </c>
-      <c r="AZ97" s="244" t="s">
+      <c r="AZ97" s="247" t="s">
         <v>3031</v>
       </c>
-      <c r="BA97" s="244"/>
+      <c r="BA97" s="247"/>
       <c r="BB97" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC97" s="244" t="s">
+      <c r="BC97" s="247" t="s">
         <v>3032</v>
       </c>
-      <c r="BD97" s="244"/>
-      <c r="BE97" s="244"/>
-      <c r="BF97" s="244"/>
+      <c r="BD97" s="247"/>
+      <c r="BE97" s="247"/>
+      <c r="BF97" s="247"/>
       <c r="BG97" s="216" t="s">
         <v>367</v>
       </c>
@@ -33657,19 +33657,19 @@
       <c r="AY98" s="142" t="s">
         <v>3033</v>
       </c>
-      <c r="AZ98" s="244" t="s">
+      <c r="AZ98" s="247" t="s">
         <v>3033</v>
       </c>
-      <c r="BA98" s="244"/>
+      <c r="BA98" s="247"/>
       <c r="BB98" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC98" s="244" t="s">
+      <c r="BC98" s="247" t="s">
         <v>3034</v>
       </c>
-      <c r="BD98" s="244"/>
-      <c r="BE98" s="244"/>
-      <c r="BF98" s="244"/>
+      <c r="BD98" s="247"/>
+      <c r="BE98" s="247"/>
+      <c r="BF98" s="247"/>
       <c r="BG98" s="216" t="s">
         <v>367</v>
       </c>
@@ -33891,19 +33891,19 @@
       <c r="AY100" s="142" t="s">
         <v>3035</v>
       </c>
-      <c r="AZ100" s="244" t="s">
+      <c r="AZ100" s="247" t="s">
         <v>3035</v>
       </c>
-      <c r="BA100" s="244"/>
+      <c r="BA100" s="247"/>
       <c r="BB100" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC100" s="244" t="s">
+      <c r="BC100" s="247" t="s">
         <v>3036</v>
       </c>
-      <c r="BD100" s="244"/>
-      <c r="BE100" s="244"/>
-      <c r="BF100" s="244"/>
+      <c r="BD100" s="247"/>
+      <c r="BE100" s="247"/>
+      <c r="BF100" s="247"/>
       <c r="BG100" s="216" t="s">
         <v>367</v>
       </c>
@@ -34014,19 +34014,19 @@
       <c r="AY101" s="142" t="s">
         <v>3037</v>
       </c>
-      <c r="AZ101" s="244" t="s">
+      <c r="AZ101" s="247" t="s">
         <v>3037</v>
       </c>
-      <c r="BA101" s="244"/>
+      <c r="BA101" s="247"/>
       <c r="BB101" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC101" s="244" t="s">
+      <c r="BC101" s="247" t="s">
         <v>3038</v>
       </c>
-      <c r="BD101" s="244"/>
-      <c r="BE101" s="244"/>
-      <c r="BF101" s="244"/>
+      <c r="BD101" s="247"/>
+      <c r="BE101" s="247"/>
+      <c r="BF101" s="247"/>
       <c r="BG101" s="216" t="s">
         <v>367</v>
       </c>
@@ -34139,19 +34139,19 @@
       <c r="AY102" s="142" t="s">
         <v>3039</v>
       </c>
-      <c r="AZ102" s="244" t="s">
+      <c r="AZ102" s="247" t="s">
         <v>3040</v>
       </c>
-      <c r="BA102" s="244"/>
+      <c r="BA102" s="247"/>
       <c r="BB102" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC102" s="244" t="s">
+      <c r="BC102" s="247" t="s">
         <v>3041</v>
       </c>
-      <c r="BD102" s="244"/>
-      <c r="BE102" s="244"/>
-      <c r="BF102" s="244"/>
+      <c r="BD102" s="247"/>
+      <c r="BE102" s="247"/>
+      <c r="BF102" s="247"/>
       <c r="BG102" s="216" t="s">
         <v>367</v>
       </c>
@@ -34264,19 +34264,19 @@
       <c r="AY103" s="142" t="s">
         <v>3042</v>
       </c>
-      <c r="AZ103" s="244" t="s">
+      <c r="AZ103" s="247" t="s">
         <v>3043</v>
       </c>
-      <c r="BA103" s="244"/>
+      <c r="BA103" s="247"/>
       <c r="BB103" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC103" s="244" t="s">
+      <c r="BC103" s="247" t="s">
         <v>3044</v>
       </c>
-      <c r="BD103" s="244"/>
-      <c r="BE103" s="244"/>
-      <c r="BF103" s="244"/>
+      <c r="BD103" s="247"/>
+      <c r="BE103" s="247"/>
+      <c r="BF103" s="247"/>
       <c r="BG103" s="216" t="s">
         <v>367</v>
       </c>
@@ -34359,21 +34359,21 @@
       </c>
       <c r="AX104" s="243"/>
       <c r="AY104" s="243"/>
-      <c r="AZ104" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA104" s="244"/>
+      <c r="AZ104" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA104" s="247"/>
       <c r="BB104" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC104" s="244" t="s">
+      <c r="BC104" s="247" t="s">
         <v>3045</v>
       </c>
-      <c r="BD104" s="244"/>
-      <c r="BE104" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BF104" s="244"/>
+      <c r="BD104" s="247"/>
+      <c r="BE104" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF104" s="247"/>
       <c r="BG104" s="216" t="s">
         <v>367</v>
       </c>
@@ -34614,18 +34614,18 @@
       </c>
       <c r="AX107" s="243"/>
       <c r="AY107" s="243"/>
-      <c r="AZ107" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA107" s="244"/>
+      <c r="AZ107" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA107" s="247"/>
       <c r="BB107" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC107" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD107" s="244"/>
-      <c r="BE107" s="244"/>
+      <c r="BC107" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD107" s="247"/>
+      <c r="BE107" s="247"/>
       <c r="BF107" s="175" t="s">
         <v>3046</v>
       </c>
@@ -34711,18 +34711,18 @@
       </c>
       <c r="AX108" s="243"/>
       <c r="AY108" s="243"/>
-      <c r="AZ108" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA108" s="244"/>
+      <c r="AZ108" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA108" s="247"/>
       <c r="BB108" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC108" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD108" s="244"/>
-      <c r="BE108" s="244"/>
+      <c r="BC108" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD108" s="247"/>
+      <c r="BE108" s="247"/>
       <c r="BF108" s="175" t="s">
         <v>3047</v>
       </c>
@@ -34808,18 +34808,18 @@
       </c>
       <c r="AX109" s="243"/>
       <c r="AY109" s="243"/>
-      <c r="AZ109" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA109" s="244"/>
+      <c r="AZ109" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA109" s="247"/>
       <c r="BB109" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC109" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD109" s="244"/>
-      <c r="BE109" s="244"/>
+      <c r="BC109" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD109" s="247"/>
+      <c r="BE109" s="247"/>
       <c r="BF109" s="175" t="s">
         <v>3048</v>
       </c>
@@ -34905,18 +34905,18 @@
       </c>
       <c r="AX110" s="243"/>
       <c r="AY110" s="243"/>
-      <c r="AZ110" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA110" s="244"/>
+      <c r="AZ110" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA110" s="247"/>
       <c r="BB110" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC110" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD110" s="244"/>
-      <c r="BE110" s="244"/>
+      <c r="BC110" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD110" s="247"/>
+      <c r="BE110" s="247"/>
       <c r="BF110" s="175" t="s">
         <v>3049</v>
       </c>
@@ -35002,18 +35002,18 @@
       </c>
       <c r="AX111" s="243"/>
       <c r="AY111" s="243"/>
-      <c r="AZ111" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA111" s="244"/>
+      <c r="AZ111" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA111" s="247"/>
       <c r="BB111" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC111" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD111" s="244"/>
-      <c r="BE111" s="244"/>
+      <c r="BC111" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD111" s="247"/>
+      <c r="BE111" s="247"/>
       <c r="BF111" s="175" t="s">
         <v>3050</v>
       </c>
@@ -35099,18 +35099,18 @@
       </c>
       <c r="AX112" s="243"/>
       <c r="AY112" s="243"/>
-      <c r="AZ112" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA112" s="244"/>
+      <c r="AZ112" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA112" s="247"/>
       <c r="BB112" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC112" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD112" s="244"/>
-      <c r="BE112" s="244"/>
+      <c r="BC112" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD112" s="247"/>
+      <c r="BE112" s="247"/>
       <c r="BF112" s="175" t="s">
         <v>3051</v>
       </c>
@@ -35196,18 +35196,18 @@
       </c>
       <c r="AX113" s="243"/>
       <c r="AY113" s="243"/>
-      <c r="AZ113" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BA113" s="244"/>
+      <c r="AZ113" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BA113" s="247"/>
       <c r="BB113" s="179" t="s">
         <v>367</v>
       </c>
-      <c r="BC113" s="244" t="s">
-        <v>367</v>
-      </c>
-      <c r="BD113" s="244"/>
-      <c r="BE113" s="244"/>
+      <c r="BC113" s="247" t="s">
+        <v>367</v>
+      </c>
+      <c r="BD113" s="247"/>
+      <c r="BE113" s="247"/>
       <c r="BF113" s="175" t="s">
         <v>3052</v>
       </c>
@@ -35428,7 +35428,7 @@
       <c r="AS115" s="67"/>
       <c r="AT115" s="147"/>
       <c r="AU115" s="133" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
       <c r="AV115" s="97"/>
       <c r="AW115" s="243" t="s">
@@ -35436,17 +35436,17 @@
       </c>
       <c r="AX115" s="243"/>
       <c r="AY115" s="142" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="AZ115" s="234" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
       <c r="BA115" s="234"/>
       <c r="BB115" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC115" s="234" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="BD115" s="234"/>
       <c r="BE115" s="234"/>
@@ -35668,7 +35668,7 @@
       <c r="AS117" s="67"/>
       <c r="AT117" s="147"/>
       <c r="AU117" s="133" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="AV117" s="97"/>
       <c r="AW117" s="243" t="s">
@@ -35676,17 +35676,17 @@
       </c>
       <c r="AX117" s="243"/>
       <c r="AY117" s="223" t="s">
-        <v>3237</v>
+        <v>3232</v>
       </c>
       <c r="AZ117" s="234" t="s">
-        <v>3237</v>
+        <v>3232</v>
       </c>
       <c r="BA117" s="234"/>
       <c r="BB117" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC117" s="234" t="s">
-        <v>3238</v>
+        <v>3233</v>
       </c>
       <c r="BD117" s="234"/>
       <c r="BE117" s="234"/>
@@ -35797,7 +35797,7 @@
       <c r="AS118" s="67"/>
       <c r="AT118" s="147"/>
       <c r="AU118" s="133" t="s">
-        <v>3313</v>
+        <v>3308</v>
       </c>
       <c r="AV118" s="97"/>
       <c r="AW118" s="243" t="s">
@@ -35805,17 +35805,17 @@
       </c>
       <c r="AX118" s="243"/>
       <c r="AY118" s="223" t="s">
-        <v>3453</v>
+        <v>3448</v>
       </c>
       <c r="AZ118" s="238" t="s">
-        <v>3454</v>
+        <v>3449</v>
       </c>
       <c r="BA118" s="238"/>
       <c r="BB118" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC118" s="238" t="s">
-        <v>3455</v>
+        <v>3450</v>
       </c>
       <c r="BD118" s="238"/>
       <c r="BE118" s="238"/>
@@ -35932,17 +35932,17 @@
       </c>
       <c r="AX119" s="243"/>
       <c r="AY119" s="224" t="s">
-        <v>3295</v>
+        <v>3290</v>
       </c>
       <c r="AZ119" s="234" t="s">
-        <v>3295</v>
+        <v>3290</v>
       </c>
       <c r="BA119" s="234"/>
       <c r="BB119" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC119" s="234" t="s">
-        <v>3296</v>
+        <v>3291</v>
       </c>
       <c r="BD119" s="234"/>
       <c r="BE119" s="234"/>
@@ -36059,17 +36059,17 @@
       </c>
       <c r="AX120" s="243"/>
       <c r="AY120" s="224" t="s">
-        <v>3297</v>
+        <v>3292</v>
       </c>
       <c r="AZ120" s="234" t="s">
-        <v>3297</v>
+        <v>3292</v>
       </c>
       <c r="BA120" s="234"/>
       <c r="BB120" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC120" s="234" t="s">
-        <v>3298</v>
+        <v>3293</v>
       </c>
       <c r="BD120" s="234"/>
       <c r="BE120" s="234"/>
@@ -36095,7 +36095,7 @@
         <v>2629</v>
       </c>
       <c r="D121" s="227" t="s">
-        <v>3315</v>
+        <v>3310</v>
       </c>
       <c r="E121" s="54" t="s">
         <v>1984</v>
@@ -36176,7 +36176,7 @@
       <c r="AS121" s="67"/>
       <c r="AT121" s="147"/>
       <c r="AU121" s="133" t="s">
-        <v>3314</v>
+        <v>3309</v>
       </c>
       <c r="AV121" s="97"/>
       <c r="AW121" s="243" t="s">
@@ -36184,21 +36184,21 @@
       </c>
       <c r="AX121" s="243"/>
       <c r="AY121" s="224" t="s">
-        <v>3260</v>
-      </c>
-      <c r="AZ121" s="248" t="s">
-        <v>3260</v>
-      </c>
-      <c r="BA121" s="249"/>
+        <v>3255</v>
+      </c>
+      <c r="AZ121" s="244" t="s">
+        <v>3255</v>
+      </c>
+      <c r="BA121" s="246"/>
       <c r="BB121" s="177" t="s">
-        <v>3243</v>
-      </c>
-      <c r="BC121" s="248" t="s">
-        <v>3299</v>
-      </c>
-      <c r="BD121" s="250"/>
-      <c r="BE121" s="250"/>
-      <c r="BF121" s="249"/>
+        <v>3238</v>
+      </c>
+      <c r="BC121" s="244" t="s">
+        <v>3294</v>
+      </c>
+      <c r="BD121" s="245"/>
+      <c r="BE121" s="245"/>
+      <c r="BF121" s="246"/>
       <c r="BG121" s="214" t="s">
         <v>367</v>
       </c>
@@ -36220,7 +36220,7 @@
         <v>2630</v>
       </c>
       <c r="D122" s="228" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
       <c r="E122" s="51" t="s">
         <v>1985</v>
@@ -36326,7 +36326,7 @@
         <v>2631</v>
       </c>
       <c r="D123" s="227" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
       <c r="E123" s="54" t="s">
         <v>1986</v>
@@ -36407,7 +36407,7 @@
       <c r="AS123" s="67"/>
       <c r="AT123" s="147"/>
       <c r="AU123" s="280" t="s">
-        <v>3332</v>
+        <v>3327</v>
       </c>
       <c r="AV123" s="97"/>
       <c r="AW123" s="243" t="s">
@@ -36415,21 +36415,21 @@
       </c>
       <c r="AX123" s="243"/>
       <c r="AY123" s="226" t="s">
-        <v>3302</v>
-      </c>
-      <c r="AZ123" s="248" t="s">
-        <v>3301</v>
-      </c>
-      <c r="BA123" s="249"/>
+        <v>3297</v>
+      </c>
+      <c r="AZ123" s="244" t="s">
+        <v>3296</v>
+      </c>
+      <c r="BA123" s="246"/>
       <c r="BB123" s="177" t="s">
-        <v>3243</v>
-      </c>
-      <c r="BC123" s="248" t="s">
-        <v>3300</v>
-      </c>
-      <c r="BD123" s="250"/>
-      <c r="BE123" s="250"/>
-      <c r="BF123" s="249"/>
+        <v>3238</v>
+      </c>
+      <c r="BC123" s="244" t="s">
+        <v>3295</v>
+      </c>
+      <c r="BD123" s="245"/>
+      <c r="BE123" s="245"/>
+      <c r="BF123" s="246"/>
       <c r="BG123" s="214" t="s">
         <v>367</v>
       </c>
@@ -36451,7 +36451,7 @@
         <v>1879</v>
       </c>
       <c r="D124" s="227" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
       <c r="E124" s="54" t="s">
         <v>1987</v>
@@ -36538,21 +36538,21 @@
       </c>
       <c r="AX124" s="243"/>
       <c r="AY124" s="226" t="s">
-        <v>3303</v>
-      </c>
-      <c r="AZ124" s="248" t="s">
-        <v>3303</v>
-      </c>
-      <c r="BA124" s="249"/>
+        <v>3298</v>
+      </c>
+      <c r="AZ124" s="244" t="s">
+        <v>3298</v>
+      </c>
+      <c r="BA124" s="246"/>
       <c r="BB124" s="177" t="s">
-        <v>3243</v>
-      </c>
-      <c r="BC124" s="248" t="s">
-        <v>3304</v>
-      </c>
-      <c r="BD124" s="250"/>
-      <c r="BE124" s="250"/>
-      <c r="BF124" s="249"/>
+        <v>3238</v>
+      </c>
+      <c r="BC124" s="244" t="s">
+        <v>3299</v>
+      </c>
+      <c r="BD124" s="245"/>
+      <c r="BE124" s="245"/>
+      <c r="BF124" s="246"/>
       <c r="BG124" s="214" t="s">
         <v>367</v>
       </c>
@@ -36574,7 +36574,7 @@
         <v>1880</v>
       </c>
       <c r="D125" s="227" t="s">
-        <v>3317</v>
+        <v>3312</v>
       </c>
       <c r="E125" s="54" t="s">
         <v>1988</v>
@@ -36661,21 +36661,21 @@
       </c>
       <c r="AX125" s="243"/>
       <c r="AY125" s="226" t="s">
-        <v>3305</v>
-      </c>
-      <c r="AZ125" s="248" t="s">
-        <v>3305</v>
-      </c>
-      <c r="BA125" s="249"/>
+        <v>3300</v>
+      </c>
+      <c r="AZ125" s="244" t="s">
+        <v>3300</v>
+      </c>
+      <c r="BA125" s="246"/>
       <c r="BB125" s="177" t="s">
-        <v>3243</v>
-      </c>
-      <c r="BC125" s="248" t="s">
-        <v>3306</v>
-      </c>
-      <c r="BD125" s="250"/>
-      <c r="BE125" s="250"/>
-      <c r="BF125" s="249"/>
+        <v>3238</v>
+      </c>
+      <c r="BC125" s="244" t="s">
+        <v>3301</v>
+      </c>
+      <c r="BD125" s="245"/>
+      <c r="BE125" s="245"/>
+      <c r="BF125" s="246"/>
       <c r="BG125" s="214" t="s">
         <v>367</v>
       </c>
@@ -36896,25 +36896,25 @@
       <c r="AS127" s="67"/>
       <c r="AT127" s="147"/>
       <c r="AU127" s="133" t="s">
-        <v>3452</v>
+        <v>3447</v>
       </c>
       <c r="AV127" s="97"/>
       <c r="AW127" s="142" t="s">
         <v>367</v>
       </c>
       <c r="AX127" s="241" t="s">
-        <v>3446</v>
+        <v>3441</v>
       </c>
       <c r="AY127" s="241"/>
       <c r="AZ127" s="242" t="s">
-        <v>3446</v>
+        <v>3441</v>
       </c>
       <c r="BA127" s="242"/>
       <c r="BB127" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC127" s="242" t="s">
-        <v>3447</v>
+        <v>3442</v>
       </c>
       <c r="BD127" s="242"/>
       <c r="BE127" s="242"/>
@@ -37021,7 +37021,7 @@
       <c r="AS128" s="67"/>
       <c r="AT128" s="147"/>
       <c r="AU128" s="133" t="s">
-        <v>3451</v>
+        <v>3446</v>
       </c>
       <c r="AV128" s="97"/>
       <c r="AW128" s="243" t="s">
@@ -37029,22 +37029,22 @@
       </c>
       <c r="AX128" s="243"/>
       <c r="AY128" s="191" t="s">
-        <v>3449</v>
+        <v>3444</v>
       </c>
       <c r="AZ128" s="177" t="s">
-        <v>3449</v>
+        <v>3444</v>
       </c>
       <c r="BA128" s="177" t="s">
-        <v>3449</v>
+        <v>3444</v>
       </c>
       <c r="BB128" s="177" t="s">
-        <v>3243</v>
-      </c>
-      <c r="BC128" s="357" t="s">
-        <v>3450</v>
-      </c>
-      <c r="BD128" s="358"/>
-      <c r="BE128" s="359"/>
+        <v>3238</v>
+      </c>
+      <c r="BC128" s="354" t="s">
+        <v>3445</v>
+      </c>
+      <c r="BD128" s="355"/>
+      <c r="BE128" s="356"/>
       <c r="BF128" s="177"/>
       <c r="BG128" s="214" t="s">
         <v>367</v>
@@ -37163,7 +37163,7 @@
         <v>2906</v>
       </c>
       <c r="BB129" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC129" s="177" t="s">
         <v>2907</v>
@@ -37294,7 +37294,7 @@
         <v>2908</v>
       </c>
       <c r="BB130" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC130" s="177" t="s">
         <v>2909</v>
@@ -37425,7 +37425,7 @@
         <v>2910</v>
       </c>
       <c r="BB131" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC131" s="177" t="s">
         <v>2911</v>
@@ -38081,18 +38081,18 @@
       <c r="AY136" s="143" t="s">
         <v>3062</v>
       </c>
-      <c r="AZ136" s="244" t="s">
+      <c r="AZ136" s="247" t="s">
         <v>3062</v>
       </c>
-      <c r="BA136" s="244"/>
+      <c r="BA136" s="247"/>
       <c r="BB136" s="179" t="s">
         <v>3063</v>
       </c>
-      <c r="BC136" s="244" t="s">
+      <c r="BC136" s="247" t="s">
         <v>3064</v>
       </c>
-      <c r="BD136" s="244"/>
-      <c r="BE136" s="244"/>
+      <c r="BD136" s="247"/>
+      <c r="BE136" s="247"/>
       <c r="BF136" s="175" t="s">
         <v>367</v>
       </c>
@@ -38214,18 +38214,18 @@
       <c r="AY137" s="142" t="s">
         <v>3065</v>
       </c>
-      <c r="AZ137" s="244" t="s">
+      <c r="AZ137" s="247" t="s">
         <v>3065</v>
       </c>
-      <c r="BA137" s="244"/>
+      <c r="BA137" s="247"/>
       <c r="BB137" s="179" t="s">
         <v>3066</v>
       </c>
-      <c r="BC137" s="244" t="s">
+      <c r="BC137" s="247" t="s">
         <v>3067</v>
       </c>
-      <c r="BD137" s="244"/>
-      <c r="BE137" s="244"/>
+      <c r="BD137" s="247"/>
+      <c r="BE137" s="247"/>
       <c r="BF137" s="175" t="s">
         <v>367</v>
       </c>
@@ -38480,18 +38480,18 @@
       <c r="AY139" s="142" t="s">
         <v>3071</v>
       </c>
-      <c r="AZ139" s="244" t="s">
+      <c r="AZ139" s="247" t="s">
         <v>3071</v>
       </c>
-      <c r="BA139" s="244"/>
+      <c r="BA139" s="247"/>
       <c r="BB139" s="179" t="s">
         <v>3072</v>
       </c>
-      <c r="BC139" s="244" t="s">
+      <c r="BC139" s="247" t="s">
         <v>3073</v>
       </c>
-      <c r="BD139" s="244"/>
-      <c r="BE139" s="244"/>
+      <c r="BD139" s="247"/>
+      <c r="BE139" s="247"/>
       <c r="BF139" s="175" t="s">
         <v>367</v>
       </c>
@@ -38622,11 +38622,11 @@
       <c r="BB140" s="179" t="s">
         <v>3075</v>
       </c>
-      <c r="BC140" s="244" t="s">
+      <c r="BC140" s="247" t="s">
         <v>3076</v>
       </c>
-      <c r="BD140" s="244"/>
-      <c r="BE140" s="244"/>
+      <c r="BD140" s="247"/>
+      <c r="BE140" s="247"/>
       <c r="BF140" s="175" t="s">
         <v>367</v>
       </c>
@@ -38721,7 +38721,7 @@
         <v>367</v>
       </c>
       <c r="BB141" s="179" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC141" s="175" t="s">
         <v>3078</v>
@@ -38826,7 +38826,7 @@
         <v>367</v>
       </c>
       <c r="BB142" s="179" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC142" s="141" t="s">
         <v>3080</v>
@@ -38931,7 +38931,7 @@
         <v>367</v>
       </c>
       <c r="BB143" s="179" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC143" s="141" t="s">
         <v>3082</v>
@@ -39359,26 +39359,26 @@
       </c>
       <c r="AX146" s="243"/>
       <c r="AY146" s="142" t="s">
-        <v>3232</v>
+        <v>3227</v>
       </c>
       <c r="AZ146" s="234" t="s">
-        <v>3233</v>
+        <v>3228</v>
       </c>
       <c r="BA146" s="234"/>
       <c r="BB146" s="177" t="s">
         <v>3083</v>
       </c>
       <c r="BC146" s="234" t="s">
-        <v>3234</v>
+        <v>3229</v>
       </c>
       <c r="BD146" s="234"/>
       <c r="BE146" s="234"/>
       <c r="BF146" s="234"/>
       <c r="BG146" s="136" t="s">
-        <v>3235</v>
+        <v>3230</v>
       </c>
       <c r="BH146" s="236" t="s">
-        <v>3236</v>
+        <v>3231</v>
       </c>
       <c r="BI146" s="237"/>
       <c r="BJ146" s="237"/>
@@ -39514,26 +39514,26 @@
       </c>
       <c r="AX147" s="243"/>
       <c r="AY147" s="142" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
       <c r="AZ147" s="234" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
       <c r="BA147" s="234"/>
       <c r="BB147" s="177" t="s">
         <v>3084</v>
       </c>
       <c r="BC147" s="234" t="s">
-        <v>3329</v>
+        <v>3324</v>
       </c>
       <c r="BD147" s="234"/>
       <c r="BE147" s="234"/>
       <c r="BF147" s="234"/>
       <c r="BG147" s="136" t="s">
-        <v>3330</v>
+        <v>3325</v>
       </c>
       <c r="BH147" s="236" t="s">
-        <v>3331</v>
+        <v>3326</v>
       </c>
       <c r="BI147" s="237"/>
       <c r="BJ147" s="237"/>
@@ -39669,26 +39669,26 @@
       </c>
       <c r="AX148" s="243"/>
       <c r="AY148" s="142" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
       <c r="AZ148" s="234" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
       <c r="BA148" s="234"/>
       <c r="BB148" s="177" t="s">
         <v>3085</v>
       </c>
       <c r="BC148" s="234" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
       <c r="BD148" s="234"/>
       <c r="BE148" s="234"/>
       <c r="BF148" s="234"/>
       <c r="BG148" s="136" t="s">
-        <v>3325</v>
+        <v>3320</v>
       </c>
       <c r="BH148" s="236" t="s">
-        <v>3326</v>
+        <v>3321</v>
       </c>
       <c r="BI148" s="237"/>
       <c r="BJ148" s="237"/>
@@ -39953,7 +39953,7 @@
       <c r="AS150" s="67"/>
       <c r="AT150" s="147"/>
       <c r="AU150" s="133" t="s">
-        <v>3333</v>
+        <v>3328</v>
       </c>
       <c r="AV150" s="96" t="s">
         <v>2676</v>
@@ -39964,23 +39964,23 @@
       <c r="AX150" s="233"/>
       <c r="AY150" s="233"/>
       <c r="AZ150" s="234" t="s">
-        <v>3280</v>
+        <v>3275</v>
       </c>
       <c r="BA150" s="234"/>
       <c r="BB150" s="177" t="s">
-        <v>3281</v>
+        <v>3276</v>
       </c>
       <c r="BC150" s="234" t="s">
-        <v>3282</v>
+        <v>3277</v>
       </c>
       <c r="BD150" s="234"/>
       <c r="BE150" s="234"/>
       <c r="BF150" s="234"/>
       <c r="BG150" s="136" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
       <c r="BH150" s="236" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="BI150" s="237"/>
       <c r="BJ150" s="237"/>
@@ -40108,7 +40108,7 @@
       <c r="AS151" s="67"/>
       <c r="AT151" s="147"/>
       <c r="AU151" s="133" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
       <c r="AV151" s="96" t="s">
         <v>2678</v>
@@ -40119,23 +40119,23 @@
       <c r="AX151" s="233"/>
       <c r="AY151" s="233"/>
       <c r="AZ151" s="331" t="s">
-        <v>3271</v>
+        <v>3266</v>
       </c>
       <c r="BA151" s="332"/>
       <c r="BB151" s="225" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
       <c r="BC151" s="234" t="s">
-        <v>3273</v>
+        <v>3268</v>
       </c>
       <c r="BD151" s="234"/>
       <c r="BE151" s="234"/>
       <c r="BF151" s="234"/>
       <c r="BG151" s="136" t="s">
-        <v>3274</v>
+        <v>3269</v>
       </c>
       <c r="BH151" s="236" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="BI151" s="237"/>
       <c r="BJ151" s="237"/>
@@ -40263,7 +40263,7 @@
       <c r="AS152" s="67"/>
       <c r="AT152" s="147"/>
       <c r="AU152" s="133" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
       <c r="AV152" s="96" t="s">
         <v>2680</v>
@@ -40273,23 +40273,23 @@
       </c>
       <c r="AX152" s="233"/>
       <c r="AY152" s="142" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
       <c r="AZ152" s="234" t="s">
-        <v>3276</v>
+        <v>3271</v>
       </c>
       <c r="BA152" s="234"/>
       <c r="BB152" s="177" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
       <c r="BC152" s="234" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
       <c r="BD152" s="234"/>
       <c r="BE152" s="234"/>
       <c r="BF152" s="234"/>
       <c r="BG152" s="136" t="s">
-        <v>3279</v>
+        <v>3274</v>
       </c>
       <c r="BH152" s="236" t="s">
         <v>1839</v>
@@ -40420,7 +40420,7 @@
       <c r="AS153" s="67"/>
       <c r="AT153" s="147"/>
       <c r="AU153" s="133" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
       <c r="AV153" s="96" t="s">
         <v>2682</v>
@@ -40430,23 +40430,23 @@
       </c>
       <c r="AX153" s="233"/>
       <c r="AY153" s="142" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="AZ153" s="234" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="BA153" s="234"/>
       <c r="BB153" s="141" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="BC153" s="234" t="s">
-        <v>3287</v>
+        <v>3282</v>
       </c>
       <c r="BD153" s="234"/>
       <c r="BE153" s="234"/>
       <c r="BF153" s="234"/>
       <c r="BG153" s="136" t="s">
-        <v>3288</v>
+        <v>3283</v>
       </c>
       <c r="BH153" s="236" t="s">
         <v>1840</v>
@@ -40577,7 +40577,7 @@
       <c r="AS154" s="67"/>
       <c r="AT154" s="147"/>
       <c r="AU154" s="133" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
       <c r="AV154" s="96" t="s">
         <v>2684</v>
@@ -40587,26 +40587,26 @@
       </c>
       <c r="AX154" s="233"/>
       <c r="AY154" s="142" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
       <c r="AZ154" s="234" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
       <c r="BA154" s="234"/>
       <c r="BB154" s="141" t="s">
-        <v>3241</v>
+        <v>3236</v>
       </c>
       <c r="BC154" s="234" t="s">
-        <v>3320</v>
+        <v>3315</v>
       </c>
       <c r="BD154" s="234"/>
       <c r="BE154" s="234"/>
       <c r="BF154" s="234"/>
       <c r="BG154" s="136" t="s">
-        <v>3321</v>
+        <v>3316</v>
       </c>
       <c r="BH154" s="236" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
       <c r="BI154" s="237"/>
       <c r="BJ154" s="237"/>
@@ -40734,7 +40734,7 @@
       <c r="AS155" s="67"/>
       <c r="AT155" s="147"/>
       <c r="AU155" s="133" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
       <c r="AV155" s="96" t="s">
         <v>2686</v>
@@ -40744,26 +40744,26 @@
       </c>
       <c r="AX155" s="233"/>
       <c r="AY155" s="142" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="AZ155" s="234" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
       <c r="BA155" s="234"/>
       <c r="BB155" s="141" t="s">
-        <v>3291</v>
+        <v>3286</v>
       </c>
       <c r="BC155" s="234" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="BD155" s="234"/>
       <c r="BE155" s="234"/>
       <c r="BF155" s="234"/>
       <c r="BG155" s="136" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="BH155" s="236" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
       <c r="BI155" s="237"/>
       <c r="BJ155" s="237"/>
@@ -42143,7 +42143,7 @@
       </c>
       <c r="AX166" s="233"/>
       <c r="AY166" s="143" t="s">
-        <v>3242</v>
+        <v>3237</v>
       </c>
       <c r="AZ166" s="234" t="s">
         <v>3101</v>
@@ -42439,17 +42439,17 @@
       </c>
       <c r="AX168" s="233"/>
       <c r="AY168" s="142" t="s">
-        <v>3239</v>
+        <v>3234</v>
       </c>
       <c r="AZ168" s="234" t="s">
-        <v>3239</v>
+        <v>3234</v>
       </c>
       <c r="BA168" s="234"/>
       <c r="BB168" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC168" s="234" t="s">
-        <v>3240</v>
+        <v>3235</v>
       </c>
       <c r="BD168" s="234"/>
       <c r="BE168" s="234"/>
@@ -42585,7 +42585,7 @@
       </c>
       <c r="BA169" s="234"/>
       <c r="BB169" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC169" s="234" t="s">
         <v>3105</v>
@@ -42724,7 +42724,7 @@
       </c>
       <c r="BA170" s="234"/>
       <c r="BB170" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC170" s="234" t="s">
         <v>3108</v>
@@ -43208,7 +43208,7 @@
       </c>
       <c r="BA174" s="234"/>
       <c r="BB174" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC174" s="234" t="s">
         <v>3115</v>
@@ -43465,19 +43465,19 @@
         <v>2912</v>
       </c>
       <c r="AW176" s="243" t="s">
-        <v>3116</v>
+        <v>3467</v>
       </c>
       <c r="AX176" s="243"/>
       <c r="AY176" s="243"/>
       <c r="AZ176" s="234" t="s">
-        <v>3117</v>
+        <v>3466</v>
       </c>
       <c r="BA176" s="234"/>
       <c r="BB176" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC176" s="234" t="s">
-        <v>3118</v>
+        <v>3465</v>
       </c>
       <c r="BD176" s="234"/>
       <c r="BE176" s="234"/>
@@ -43604,19 +43604,19 @@
         <v>2437</v>
       </c>
       <c r="AW177" s="243" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="AX177" s="243"/>
       <c r="AY177" s="243"/>
       <c r="AZ177" s="234" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="BA177" s="234"/>
       <c r="BB177" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC177" s="234" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="BD177" s="234"/>
       <c r="BE177" s="234"/>
@@ -43743,19 +43743,19 @@
         <v>2725</v>
       </c>
       <c r="AW178" s="243" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="AX178" s="243"/>
       <c r="AY178" s="243"/>
       <c r="AZ178" s="234" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="BA178" s="234"/>
       <c r="BB178" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC178" s="234" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="BD178" s="234"/>
       <c r="BE178" s="234"/>
@@ -43882,19 +43882,19 @@
         <v>2727</v>
       </c>
       <c r="AW179" s="243" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="AX179" s="243"/>
       <c r="AY179" s="243"/>
       <c r="AZ179" s="234" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BA179" s="234"/>
       <c r="BB179" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC179" s="234" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BD179" s="234"/>
       <c r="BE179" s="234"/>
@@ -44019,19 +44019,19 @@
       <c r="AU180" s="133"/>
       <c r="AV180" s="96"/>
       <c r="AW180" s="243" t="s">
-        <v>3128</v>
+        <v>3463</v>
       </c>
       <c r="AX180" s="243"/>
       <c r="AY180" s="243"/>
       <c r="AZ180" s="234" t="s">
-        <v>3128</v>
+        <v>3463</v>
       </c>
       <c r="BA180" s="234"/>
       <c r="BB180" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC180" s="234" t="s">
-        <v>3129</v>
+        <v>3464</v>
       </c>
       <c r="BD180" s="234"/>
       <c r="BE180" s="234"/>
@@ -44158,19 +44158,19 @@
         <v>2730</v>
       </c>
       <c r="AW181" s="243" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="AX181" s="243"/>
       <c r="AY181" s="243"/>
       <c r="AZ181" s="234" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="BA181" s="234"/>
       <c r="BB181" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC181" s="234" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
       <c r="BD181" s="234"/>
       <c r="BE181" s="234"/>
@@ -44297,19 +44297,19 @@
         <v>2732</v>
       </c>
       <c r="AW182" s="243" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
       <c r="AX182" s="243"/>
       <c r="AY182" s="243"/>
       <c r="AZ182" s="234" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
       <c r="BA182" s="234"/>
       <c r="BB182" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC182" s="234" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="BD182" s="234"/>
       <c r="BE182" s="234"/>
@@ -44539,17 +44539,17 @@
       </c>
       <c r="AX184" s="243"/>
       <c r="AY184" s="142" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
       <c r="AZ184" s="234" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
       <c r="BA184" s="234"/>
       <c r="BB184" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC184" s="234" t="s">
-        <v>3136</v>
+        <v>3131</v>
       </c>
       <c r="BD184" s="234"/>
       <c r="BE184" s="234"/>
@@ -44668,17 +44668,17 @@
       </c>
       <c r="AX185" s="243"/>
       <c r="AY185" s="142" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="AZ185" s="234" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="BA185" s="234"/>
       <c r="BB185" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC185" s="234" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="BD185" s="234"/>
       <c r="BE185" s="234"/>
@@ -44797,17 +44797,17 @@
       </c>
       <c r="AX186" s="243"/>
       <c r="AY186" s="142" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="AZ186" s="234" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="BA186" s="234"/>
       <c r="BB186" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC186" s="234" t="s">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="BD186" s="234"/>
       <c r="BE186" s="234"/>
@@ -44926,17 +44926,17 @@
       </c>
       <c r="AX187" s="243"/>
       <c r="AY187" s="142" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="AZ187" s="234" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="BA187" s="234"/>
       <c r="BB187" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC187" s="234" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
       <c r="BD187" s="234"/>
       <c r="BE187" s="234"/>
@@ -45055,17 +45055,17 @@
       </c>
       <c r="AX188" s="243"/>
       <c r="AY188" s="142" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
       <c r="AZ188" s="234" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
       <c r="BA188" s="234"/>
       <c r="BB188" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC188" s="234" t="s">
-        <v>3144</v>
+        <v>3139</v>
       </c>
       <c r="BD188" s="234"/>
       <c r="BE188" s="234"/>
@@ -45174,17 +45174,17 @@
       </c>
       <c r="AX189" s="243"/>
       <c r="AY189" s="142" t="s">
-        <v>3145</v>
+        <v>3140</v>
       </c>
       <c r="AZ189" s="234" t="s">
-        <v>3210</v>
+        <v>3205</v>
       </c>
       <c r="BA189" s="234"/>
       <c r="BB189" s="177" t="s">
         <v>367</v>
       </c>
       <c r="BC189" s="234" t="s">
-        <v>3146</v>
+        <v>3141</v>
       </c>
       <c r="BD189" s="234"/>
       <c r="BE189" s="234"/>
@@ -45305,17 +45305,17 @@
       </c>
       <c r="AX190" s="243"/>
       <c r="AY190" s="142" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="AZ190" s="234" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="BA190" s="234"/>
       <c r="BB190" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC190" s="234" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="BD190" s="234"/>
       <c r="BE190" s="234"/>
@@ -45432,17 +45432,17 @@
       </c>
       <c r="AX191" s="243"/>
       <c r="AY191" s="142" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="AZ191" s="234" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="BA191" s="234"/>
       <c r="BB191" s="177" t="s">
         <v>367</v>
       </c>
       <c r="BC191" s="234" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="BD191" s="234"/>
       <c r="BE191" s="234"/>
@@ -45559,17 +45559,17 @@
       </c>
       <c r="AX192" s="243"/>
       <c r="AY192" s="142" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="AZ192" s="234" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="BA192" s="234"/>
       <c r="BB192" s="177" t="s">
         <v>367</v>
       </c>
       <c r="BC192" s="234" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="BD192" s="234"/>
       <c r="BE192" s="234"/>
@@ -45667,7 +45667,7 @@
       <c r="AX193" s="243"/>
       <c r="AY193" s="243"/>
       <c r="AZ193" s="234" t="s">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="BA193" s="234"/>
       <c r="BB193" s="177" t="s">
@@ -45677,7 +45677,7 @@
         <v>367</v>
       </c>
       <c r="BD193" s="141" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="BE193" s="141" t="s">
         <v>367</v>
@@ -45785,7 +45785,7 @@
       </c>
       <c r="AX194" s="243"/>
       <c r="AY194" s="142" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="AZ194" s="234" t="s">
         <v>367</v>
@@ -45795,7 +45795,7 @@
         <v>367</v>
       </c>
       <c r="BC194" s="234" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="BD194" s="234"/>
       <c r="BE194" s="234"/>
@@ -45902,7 +45902,7 @@
       </c>
       <c r="AX195" s="243"/>
       <c r="AY195" s="142" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="AZ195" s="234" t="s">
         <v>367</v>
@@ -45912,7 +45912,7 @@
         <v>367</v>
       </c>
       <c r="BC195" s="234" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="BD195" s="234"/>
       <c r="BE195" s="234"/>
@@ -46011,7 +46011,7 @@
         <v>367</v>
       </c>
       <c r="BC196" s="234" t="s">
-        <v>3448</v>
+        <v>3443</v>
       </c>
       <c r="BD196" s="234"/>
       <c r="BE196" s="234" t="s">
@@ -46128,17 +46128,17 @@
       </c>
       <c r="AX197" s="243"/>
       <c r="AY197" s="142" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="AZ197" s="234" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="BA197" s="234"/>
       <c r="BB197" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC197" s="234" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="BD197" s="234"/>
       <c r="BE197" s="234"/>
@@ -46255,17 +46255,17 @@
       </c>
       <c r="AX198" s="243"/>
       <c r="AY198" s="142" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="AZ198" s="234" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="BA198" s="234"/>
       <c r="BB198" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC198" s="234" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
       <c r="BD198" s="234"/>
       <c r="BE198" s="234"/>
@@ -46354,7 +46354,7 @@
       </c>
       <c r="AX199" s="243"/>
       <c r="AY199" s="142" t="s">
-        <v>3164</v>
+        <v>3159</v>
       </c>
       <c r="AZ199" s="234" t="s">
         <v>367</v>
@@ -46364,7 +46364,7 @@
         <v>367</v>
       </c>
       <c r="BC199" s="141" t="s">
-        <v>3165</v>
+        <v>3160</v>
       </c>
       <c r="BD199" s="234" t="s">
         <v>367</v>
@@ -46465,7 +46465,7 @@
         <v>367</v>
       </c>
       <c r="BC200" s="234" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="BD200" s="234"/>
       <c r="BE200" s="234" t="s">
@@ -46566,7 +46566,7 @@
         <v>367</v>
       </c>
       <c r="BC201" s="234" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="BD201" s="234"/>
       <c r="BE201" s="234" t="s">
@@ -46667,7 +46667,7 @@
         <v>367</v>
       </c>
       <c r="BC202" s="234" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="BD202" s="234"/>
       <c r="BE202" s="234" t="s">
@@ -46786,24 +46786,24 @@
       </c>
       <c r="AX203" s="243"/>
       <c r="AY203" s="142" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="AZ203" s="234" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="BA203" s="234"/>
       <c r="BB203" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC203" s="234" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="BD203" s="234"/>
       <c r="BE203" s="141" t="s">
         <v>367</v>
       </c>
       <c r="BF203" s="141" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="BG203" s="214" t="s">
         <v>367</v>
@@ -46917,24 +46917,24 @@
       </c>
       <c r="AX204" s="243"/>
       <c r="AY204" s="142" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="AZ204" s="234" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="BA204" s="234"/>
       <c r="BB204" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC204" s="234" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="BD204" s="234"/>
       <c r="BE204" s="141" t="s">
         <v>367</v>
       </c>
       <c r="BF204" s="141" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="BG204" s="214" t="s">
         <v>367</v>
@@ -47155,7 +47155,7 @@
       <c r="BE206" s="234"/>
       <c r="BF206" s="234"/>
       <c r="BG206" s="136" t="s">
-        <v>3256</v>
+        <v>3251</v>
       </c>
       <c r="BH206" s="293" t="s">
         <v>2890</v>
@@ -47165,7 +47165,7 @@
         <v>367</v>
       </c>
       <c r="BK206" s="201" t="s">
-        <v>3257</v>
+        <v>3252</v>
       </c>
     </row>
     <row r="207" spans="1:63" ht="189.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47264,7 +47264,7 @@
       <c r="BE207" s="234"/>
       <c r="BF207" s="234"/>
       <c r="BG207" s="136" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="BH207" s="293" t="s">
         <v>1797</v>
@@ -47274,7 +47274,7 @@
         <v>367</v>
       </c>
       <c r="BK207" s="201" t="s">
-        <v>3258</v>
+        <v>3253</v>
       </c>
     </row>
     <row r="208" spans="1:63" s="144" customFormat="1" ht="114.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -48296,7 +48296,7 @@
       <c r="AS217" s="67"/>
       <c r="AT217" s="147"/>
       <c r="AU217" s="133" t="s">
-        <v>3312</v>
+        <v>3307</v>
       </c>
       <c r="AV217" s="96"/>
       <c r="AW217" s="243" t="s">
@@ -48317,7 +48317,7 @@
         <v>367</v>
       </c>
       <c r="BH217" s="346" t="s">
-        <v>3311</v>
+        <v>3306</v>
       </c>
       <c r="BI217" s="240" t="s">
         <v>367</v>
@@ -49059,15 +49059,15 @@
       <c r="BE224" s="234"/>
       <c r="BF224" s="234"/>
       <c r="BG224" s="136" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
       <c r="BH224" s="240" t="s">
-        <v>3308</v>
+        <v>3303</v>
       </c>
       <c r="BI224" s="240"/>
       <c r="BJ224" s="240"/>
       <c r="BK224" s="201" t="s">
-        <v>3310</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="225" spans="1:63" ht="139.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -51024,8 +51024,8 @@
       <c r="BH242" s="295" t="s">
         <v>2061</v>
       </c>
-      <c r="BI242" s="354"/>
-      <c r="BJ242" s="354"/>
+      <c r="BI242" s="357"/>
+      <c r="BJ242" s="357"/>
       <c r="BK242" s="201" t="s">
         <v>2242</v>
       </c>
@@ -51102,16 +51102,16 @@
       <c r="AS243" s="67"/>
       <c r="AT243" s="147"/>
       <c r="AU243" s="131" t="s">
-        <v>3336</v>
+        <v>3331</v>
       </c>
       <c r="AV243" s="129" t="s">
         <v>2075</v>
       </c>
-      <c r="AW243" s="247" t="s">
-        <v>367</v>
-      </c>
-      <c r="AX243" s="247"/>
-      <c r="AY243" s="247"/>
+      <c r="AW243" s="250" t="s">
+        <v>367</v>
+      </c>
+      <c r="AX243" s="250"/>
+      <c r="AY243" s="250"/>
       <c r="AZ243" s="234" t="s">
         <v>367</v>
       </c>
@@ -51125,9 +51125,9 @@
         <v>367</v>
       </c>
       <c r="BH243" s="295" t="s">
-        <v>3335</v>
-      </c>
-      <c r="BI243" s="354"/>
+        <v>3330</v>
+      </c>
+      <c r="BI243" s="357"/>
       <c r="BJ243" s="198" t="s">
         <v>367</v>
       </c>
@@ -51217,7 +51217,7 @@
         <v>377</v>
       </c>
       <c r="AU244" s="130" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="AV244" s="129"/>
       <c r="AW244" s="243" t="s">
@@ -51238,12 +51238,12 @@
         <v>367</v>
       </c>
       <c r="BH244" s="240" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="BI244" s="239"/>
       <c r="BJ244" s="239"/>
       <c r="BK244" s="201" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="245" spans="1:63" s="144" customFormat="1" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
@@ -51858,7 +51858,7 @@
         <v>237</v>
       </c>
       <c r="AU249" s="279" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="AV249" s="129"/>
       <c r="AW249" s="243" t="s">
@@ -51873,7 +51873,7 @@
       </c>
       <c r="BA249" s="234"/>
       <c r="BB249" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC249" s="234" t="s">
         <v>2121</v>
@@ -52034,7 +52034,7 @@
       </c>
       <c r="BA250" s="234"/>
       <c r="BB250" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC250" s="234" t="s">
         <v>2124</v>
@@ -52191,14 +52191,14 @@
         <v>2383</v>
       </c>
       <c r="AZ251" s="234" t="s">
-        <v>3173</v>
+        <v>3168</v>
       </c>
       <c r="BA251" s="234"/>
       <c r="BB251" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC251" s="234" t="s">
-        <v>3174</v>
+        <v>3169</v>
       </c>
       <c r="BD251" s="234"/>
       <c r="BE251" s="234"/>
@@ -52352,14 +52352,14 @@
         <v>2387</v>
       </c>
       <c r="AZ252" s="234" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="BA252" s="234"/>
       <c r="BB252" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC252" s="234" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="BD252" s="242"/>
       <c r="BE252" s="242"/>
@@ -52513,14 +52513,14 @@
         <v>2388</v>
       </c>
       <c r="AZ253" s="234" t="s">
-        <v>3175</v>
+        <v>3170</v>
       </c>
       <c r="BA253" s="234"/>
       <c r="BB253" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC253" s="234" t="s">
-        <v>3176</v>
+        <v>3171</v>
       </c>
       <c r="BD253" s="234"/>
       <c r="BE253" s="234"/>
@@ -52678,7 +52678,7 @@
       </c>
       <c r="BA254" s="238"/>
       <c r="BB254" s="177" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC254" s="238" t="s">
         <v>2390</v>
@@ -52768,7 +52768,7 @@
         <v>0</v>
       </c>
       <c r="AU255" s="166" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="AV255" s="129"/>
       <c r="AW255" s="243" t="s">
@@ -52869,7 +52869,7 @@
         <v>377</v>
       </c>
       <c r="AU256" s="58" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="AV256" s="129"/>
       <c r="AW256" s="243" t="s">
@@ -53135,17 +53135,17 @@
       </c>
       <c r="AX258" s="243"/>
       <c r="AY258" s="178" t="s">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="AZ258" s="234" t="s">
-        <v>3178</v>
+        <v>3173</v>
       </c>
       <c r="BA258" s="234"/>
       <c r="BB258" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC258" s="234" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="BD258" s="234"/>
       <c r="BE258" s="234"/>
@@ -53296,17 +53296,17 @@
       </c>
       <c r="AX259" s="243"/>
       <c r="AY259" s="178" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="AZ259" s="234" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
       <c r="BA259" s="234"/>
       <c r="BB259" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC259" s="234" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="BD259" s="234"/>
       <c r="BE259" s="234"/>
@@ -53523,7 +53523,7 @@
         <v>367</v>
       </c>
       <c r="BH261" s="240" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="BI261" s="240"/>
       <c r="BJ261" s="240"/>
@@ -53731,7 +53731,7 @@
         <v>367</v>
       </c>
       <c r="BH263" s="240" t="s">
-        <v>3244</v>
+        <v>3239</v>
       </c>
       <c r="BI263" s="240"/>
       <c r="BJ263" s="240"/>
@@ -53840,7 +53840,7 @@
         <v>367</v>
       </c>
       <c r="BH264" s="240" t="s">
-        <v>3246</v>
+        <v>3241</v>
       </c>
       <c r="BI264" s="240"/>
       <c r="BJ264" s="240"/>
@@ -54104,19 +54104,19 @@
       <c r="AW266" s="142" t="s">
         <v>367</v>
       </c>
-      <c r="AX266" s="246" t="s">
-        <v>3183</v>
-      </c>
-      <c r="AY266" s="246"/>
+      <c r="AX266" s="249" t="s">
+        <v>3178</v>
+      </c>
+      <c r="AY266" s="249"/>
       <c r="AZ266" s="234" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
       <c r="BA266" s="234"/>
       <c r="BB266" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC266" s="234" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="BD266" s="234"/>
       <c r="BE266" s="234"/>
@@ -54237,21 +54237,21 @@
       <c r="AW267" s="142" t="s">
         <v>367</v>
       </c>
-      <c r="AX267" s="246" t="s">
-        <v>3211</v>
-      </c>
-      <c r="AY267" s="246"/>
+      <c r="AX267" s="249" t="s">
+        <v>3206</v>
+      </c>
+      <c r="AY267" s="249"/>
       <c r="AZ267" s="176" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="BA267" s="141" t="s">
         <v>367</v>
       </c>
       <c r="BB267" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC267" s="141" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="BD267" s="234" t="s">
         <v>367</v>
@@ -54378,7 +54378,7 @@
       <c r="AS268" s="71"/>
       <c r="AT268" s="157"/>
       <c r="AU268" s="158" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="AV268" s="96"/>
       <c r="AW268" s="243" t="s">
@@ -54398,11 +54398,11 @@
       <c r="BG268" s="214" t="s">
         <v>367</v>
       </c>
-      <c r="BH268" s="355" t="s">
-        <v>3253</v>
-      </c>
-      <c r="BI268" s="356"/>
-      <c r="BJ268" s="356"/>
+      <c r="BH268" s="358" t="s">
+        <v>3248</v>
+      </c>
+      <c r="BI268" s="359"/>
+      <c r="BJ268" s="359"/>
       <c r="BK268" s="202" t="s">
         <v>367</v>
       </c>
@@ -54473,7 +54473,7 @@
       <c r="AS269" s="67"/>
       <c r="AT269" s="147"/>
       <c r="AU269" s="133" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="AV269" s="96"/>
       <c r="AW269" s="243" t="s">
@@ -54496,7 +54496,7 @@
       <c r="BH269" s="295" t="s">
         <v>1794</v>
       </c>
-      <c r="BI269" s="354"/>
+      <c r="BI269" s="357"/>
       <c r="BJ269" s="198" t="s">
         <v>367</v>
       </c>
@@ -54646,19 +54646,19 @@
         <v>2856</v>
       </c>
       <c r="AW270" s="243" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
       <c r="AX270" s="243"/>
       <c r="AY270" s="243"/>
       <c r="AZ270" s="234" t="s">
-        <v>3188</v>
+        <v>3183</v>
       </c>
       <c r="BA270" s="234"/>
       <c r="BB270" s="222" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="BC270" s="234" t="s">
-        <v>3189</v>
+        <v>3184</v>
       </c>
       <c r="BD270" s="234"/>
       <c r="BE270" s="234"/>
@@ -54852,7 +54852,7 @@
       <c r="AS272" s="67"/>
       <c r="AT272" s="147"/>
       <c r="AU272" s="133" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="AV272" s="129"/>
       <c r="AW272" s="243" t="s">
@@ -54870,10 +54870,10 @@
       <c r="BE272" s="234"/>
       <c r="BF272" s="234"/>
       <c r="BG272" s="136" t="s">
-        <v>3249</v>
+        <v>3244</v>
       </c>
       <c r="BH272" s="240" t="s">
-        <v>3247</v>
+        <v>3242</v>
       </c>
       <c r="BI272" s="239"/>
       <c r="BJ272" s="198" t="s">
@@ -54979,10 +54979,10 @@
       <c r="BE273" s="234"/>
       <c r="BF273" s="234"/>
       <c r="BG273" s="219" t="s">
-        <v>3250</v>
+        <v>3245</v>
       </c>
       <c r="BH273" s="240" t="s">
-        <v>3248</v>
+        <v>3243</v>
       </c>
       <c r="BI273" s="239"/>
       <c r="BJ273" s="198" t="s">
@@ -55088,7 +55088,7 @@
       <c r="BE274" s="234"/>
       <c r="BF274" s="234"/>
       <c r="BG274" s="136" t="s">
-        <v>3251</v>
+        <v>3246</v>
       </c>
       <c r="BH274" s="240" t="s">
         <v>1795</v>
@@ -55181,7 +55181,7 @@
       <c r="AS275" s="67"/>
       <c r="AT275" s="147"/>
       <c r="AU275" s="133" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
       <c r="AV275" s="129"/>
       <c r="AW275" s="243" t="s">
@@ -55199,7 +55199,7 @@
       <c r="BE275" s="234"/>
       <c r="BF275" s="234"/>
       <c r="BG275" s="136" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
       <c r="BH275" s="240" t="s">
         <v>1796</v>
@@ -58012,6 +58012,7 @@
     <mergeCell ref="BC254:BF254"/>
     <mergeCell ref="AZ258:BA258"/>
     <mergeCell ref="AZ259:BA259"/>
+    <mergeCell ref="BH264:BJ264"/>
     <mergeCell ref="BH155:BJ155"/>
     <mergeCell ref="BH157:BI157"/>
     <mergeCell ref="BH239:BJ239"/>
@@ -58189,7 +58190,6 @@
     <mergeCell ref="A254:B254"/>
     <mergeCell ref="A255:B255"/>
     <mergeCell ref="BC31:BF31"/>
-    <mergeCell ref="BH264:BJ264"/>
     <mergeCell ref="BH250:BJ250"/>
     <mergeCell ref="BH251:BJ251"/>
     <mergeCell ref="BH252:BJ252"/>
@@ -58221,6 +58221,7 @@
     <mergeCell ref="BC152:BF152"/>
     <mergeCell ref="AW24:AY24"/>
     <mergeCell ref="AW25:AY25"/>
+    <mergeCell ref="AW91:AY91"/>
     <mergeCell ref="A309:B309"/>
     <mergeCell ref="A310:B310"/>
     <mergeCell ref="A311:B311"/>
@@ -58748,7 +58749,6 @@
     <mergeCell ref="BH173:BJ173"/>
     <mergeCell ref="BH23:BJ23"/>
     <mergeCell ref="BH22:BJ22"/>
-    <mergeCell ref="AW91:AY91"/>
     <mergeCell ref="AW101:AX101"/>
     <mergeCell ref="AW102:AX102"/>
     <mergeCell ref="AZ24:BA24"/>
@@ -58779,6 +58779,8 @@
     <mergeCell ref="BC52:BF52"/>
     <mergeCell ref="AZ52:BA52"/>
     <mergeCell ref="AZ63:BA63"/>
+    <mergeCell ref="AW93:AX93"/>
+    <mergeCell ref="AW94:AX94"/>
     <mergeCell ref="AZ147:BA147"/>
     <mergeCell ref="BC147:BF147"/>
     <mergeCell ref="BC148:BF148"/>
@@ -58907,8 +58909,6 @@
     <mergeCell ref="AW50:AY50"/>
     <mergeCell ref="AW51:AY51"/>
     <mergeCell ref="AW52:AY52"/>
-    <mergeCell ref="AW93:AX93"/>
-    <mergeCell ref="AW94:AX94"/>
     <mergeCell ref="AW95:AX95"/>
     <mergeCell ref="AW97:AX97"/>
     <mergeCell ref="AW98:AX98"/>
@@ -58939,6 +58939,8 @@
     <mergeCell ref="AW26:AY26"/>
     <mergeCell ref="AZ73:BA73"/>
     <mergeCell ref="AW90:AY90"/>
+    <mergeCell ref="BC86:BF86"/>
+    <mergeCell ref="AZ86:BA86"/>
     <mergeCell ref="AZ115:BA115"/>
     <mergeCell ref="BC115:BF115"/>
     <mergeCell ref="AZ109:BA109"/>
@@ -58971,8 +58973,6 @@
     <mergeCell ref="AW20:AY20"/>
     <mergeCell ref="AW21:AY21"/>
     <mergeCell ref="AW92:AY92"/>
-    <mergeCell ref="BC86:BF86"/>
-    <mergeCell ref="AZ86:BA86"/>
     <mergeCell ref="AZ87:BA87"/>
     <mergeCell ref="BC87:BF87"/>
     <mergeCell ref="BC93:BF93"/>
@@ -70398,13 +70398,13 @@
   <sheetData>
     <row r="3" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B3" s="231" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
       <c r="E3" s="231" t="s">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="F3" s="231" t="s">
-        <v>3346</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.2">
@@ -70412,504 +70412,504 @@
         <v>1</v>
       </c>
       <c r="C4" s="232" t="s">
-        <v>3344</v>
+        <v>3339</v>
       </c>
       <c r="D4" s="232" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="232" t="s">
-        <v>3345</v>
+        <v>3340</v>
       </c>
       <c r="G4" s="232" t="s">
-        <v>3363</v>
+        <v>3358</v>
       </c>
       <c r="H4" s="232" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
       <c r="I4" s="232" t="s">
-        <v>3364</v>
+        <v>3359</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="102" x14ac:dyDescent="0.2">
       <c r="B5" s="231" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="C5" s="231" t="s">
         <v>424</v>
       </c>
       <c r="D5" s="230" t="s">
-        <v>3361</v>
+        <v>3356</v>
       </c>
       <c r="E5" s="230" t="s">
-        <v>3370</v>
+        <v>3365</v>
       </c>
       <c r="F5" s="231" t="s">
-        <v>3347</v>
+        <v>3342</v>
       </c>
       <c r="G5" s="230" t="s">
-        <v>3362</v>
+        <v>3357</v>
       </c>
       <c r="H5" s="231" t="s">
-        <v>3342</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="231" t="s">
+        <v>3338</v>
+      </c>
+      <c r="C6" s="230" t="s">
         <v>3343</v>
-      </c>
-      <c r="C6" s="230" t="s">
-        <v>3348</v>
       </c>
       <c r="D6" s="230"/>
       <c r="E6" s="230" t="s">
-        <v>3350</v>
+        <v>3345</v>
       </c>
       <c r="F6" s="230" t="s">
-        <v>3351</v>
+        <v>3346</v>
       </c>
       <c r="G6" s="230"/>
     </row>
     <row r="7" spans="2:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="B7" s="230" t="s">
-        <v>3352</v>
+        <v>3347</v>
       </c>
       <c r="C7" s="230" t="s">
-        <v>3354</v>
+        <v>3349</v>
       </c>
       <c r="D7" s="230"/>
       <c r="E7" s="230" t="s">
-        <v>3359</v>
+        <v>3354</v>
       </c>
       <c r="G7" s="230"/>
       <c r="H7" s="230" t="s">
-        <v>3358</v>
+        <v>3353</v>
       </c>
       <c r="I7" s="230" t="s">
-        <v>3353</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B8" s="230" t="s">
-        <v>3355</v>
+        <v>3350</v>
       </c>
       <c r="C8" s="230" t="s">
-        <v>3356</v>
+        <v>3351</v>
       </c>
       <c r="D8" s="230"/>
       <c r="E8" s="230" t="s">
-        <v>3357</v>
+        <v>3352</v>
       </c>
       <c r="G8" s="230"/>
       <c r="H8" s="230" t="s">
-        <v>3360</v>
+        <v>3355</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B9" s="230" t="s">
-        <v>3365</v>
+        <v>3360</v>
       </c>
       <c r="C9" s="230" t="s">
         <v>966</v>
       </c>
       <c r="D9" s="230" t="s">
-        <v>3366</v>
+        <v>3361</v>
       </c>
       <c r="E9" s="230" t="s">
-        <v>3369</v>
+        <v>3364</v>
       </c>
       <c r="G9" s="230" t="s">
-        <v>3367</v>
+        <v>3362</v>
       </c>
       <c r="I9" s="230" t="s">
-        <v>3368</v>
+        <v>3363</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="B10" s="231" t="s">
-        <v>3371</v>
+        <v>3366</v>
       </c>
       <c r="C10" s="231" t="s">
-        <v>3372</v>
+        <v>3367</v>
       </c>
       <c r="D10" s="230" t="s">
-        <v>3373</v>
+        <v>3368</v>
       </c>
       <c r="E10" s="231" t="s">
-        <v>3374</v>
+        <v>3369</v>
       </c>
       <c r="G10" s="230" t="s">
-        <v>3384</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B11" s="231" t="s">
-        <v>3387</v>
+        <v>3382</v>
       </c>
       <c r="C11" s="231" t="s">
-        <v>3389</v>
+        <v>3384</v>
       </c>
       <c r="D11" s="231" t="s">
-        <v>3391</v>
+        <v>3386</v>
       </c>
       <c r="E11" s="231" t="s">
-        <v>3393</v>
+        <v>3388</v>
       </c>
       <c r="G11" s="231" t="s">
-        <v>3395</v>
+        <v>3390</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="B12" s="231" t="s">
-        <v>3388</v>
+        <v>3383</v>
       </c>
       <c r="C12" s="231" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D12" s="231" t="s">
+        <v>3387</v>
+      </c>
+      <c r="E12" s="231" t="s">
+        <v>3389</v>
+      </c>
+      <c r="G12" s="231" t="s">
         <v>3390</v>
-      </c>
-      <c r="D12" s="231" t="s">
-        <v>3392</v>
-      </c>
-      <c r="E12" s="231" t="s">
-        <v>3394</v>
-      </c>
-      <c r="G12" s="231" t="s">
-        <v>3395</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="382.5" x14ac:dyDescent="0.2">
       <c r="B13" s="231" t="s">
-        <v>3401</v>
+        <v>3396</v>
       </c>
       <c r="C13" s="231" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
       <c r="D13" s="231" t="s">
-        <v>3403</v>
+        <v>3398</v>
       </c>
       <c r="E13" s="231" t="s">
-        <v>3404</v>
+        <v>3399</v>
       </c>
       <c r="F13" s="231" t="s">
-        <v>3349</v>
+        <v>3344</v>
       </c>
       <c r="G13" s="231" t="s">
-        <v>3402</v>
+        <v>3397</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="382.5" x14ac:dyDescent="0.2">
       <c r="B14" s="231" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="C14" s="231" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
       <c r="D14" s="231" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="E14" s="231" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="F14" s="231" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="G14" s="231" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="382.5" x14ac:dyDescent="0.2">
       <c r="B15" s="231" t="s">
-        <v>3405</v>
+        <v>3400</v>
       </c>
       <c r="C15" s="231" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="D15" s="231" t="s">
-        <v>3408</v>
+        <v>3403</v>
       </c>
       <c r="E15" s="231" t="s">
-        <v>3409</v>
+        <v>3404</v>
       </c>
       <c r="F15" s="231" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="G15" s="231" t="s">
-        <v>3406</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="382.5" x14ac:dyDescent="0.2">
       <c r="B16" s="231" t="s">
-        <v>3410</v>
+        <v>3405</v>
       </c>
       <c r="C16" s="231" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
       <c r="D16" s="231" t="s">
-        <v>3412</v>
+        <v>3407</v>
       </c>
       <c r="E16" s="231" t="s">
-        <v>3413</v>
+        <v>3408</v>
       </c>
       <c r="F16" s="231" t="s">
-        <v>3407</v>
+        <v>3402</v>
       </c>
       <c r="G16" s="231" t="s">
-        <v>3411</v>
+        <v>3406</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="369.75" x14ac:dyDescent="0.2">
       <c r="B17" s="231" t="s">
-        <v>3414</v>
+        <v>3409</v>
       </c>
       <c r="C17" s="231" t="s">
-        <v>3415</v>
+        <v>3410</v>
       </c>
       <c r="D17" s="231" t="s">
+        <v>3411</v>
+      </c>
+      <c r="E17" s="231" t="s">
         <v>3416</v>
       </c>
-      <c r="E17" s="231" t="s">
-        <v>3421</v>
-      </c>
       <c r="F17" s="231" t="s">
-        <v>3416</v>
+        <v>3411</v>
       </c>
       <c r="G17" s="231" t="s">
-        <v>3422</v>
+        <v>3417</v>
       </c>
       <c r="I17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="J17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="K17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="L17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="M17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="N17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="O17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="P17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="Q17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="R17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="S17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="T17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="U17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="V17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="W17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="X17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="Y17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="Z17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AA17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AB17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AC17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AD17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AE17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AF17" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="18" spans="1:32" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="231" t="s">
-        <v>3418</v>
+        <v>3413</v>
       </c>
       <c r="B18" s="231" t="s">
-        <v>3419</v>
+        <v>3414</v>
       </c>
       <c r="C18" s="231" t="s">
         <v>960</v>
       </c>
       <c r="D18" s="231" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="E18" s="231" t="s">
-        <v>3424</v>
+        <v>3419</v>
       </c>
       <c r="F18" s="231" t="s">
-        <v>3420</v>
+        <v>3415</v>
       </c>
       <c r="G18" s="231" t="s">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="I18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="J18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="K18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="L18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="M18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="N18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="O18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="P18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="Q18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="R18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="S18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="T18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="U18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="V18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="W18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="X18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="Y18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="Z18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AA18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AB18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AC18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AD18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AE18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
       <c r="AF18" s="231" t="s">
-        <v>3417</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="19" spans="1:32" ht="102" x14ac:dyDescent="0.2">
       <c r="B19" s="231" t="s">
-        <v>3430</v>
+        <v>3425</v>
       </c>
       <c r="C19" s="231" t="s">
-        <v>3445</v>
+        <v>3440</v>
       </c>
       <c r="D19" s="231" t="s">
-        <v>3443</v>
+        <v>3438</v>
       </c>
       <c r="E19" s="231" t="s">
-        <v>3442</v>
+        <v>3437</v>
       </c>
       <c r="G19" s="230" t="s">
-        <v>3441</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="20" spans="1:32" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="231" t="s">
-        <v>3431</v>
+        <v>3426</v>
       </c>
       <c r="C20" s="231" t="s">
-        <v>3444</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B21" s="231" t="s">
-        <v>3432</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B22" s="231" t="s">
-        <v>3433</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B23" s="231" t="s">
-        <v>3434</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B24" s="231" t="s">
-        <v>3435</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B25" s="231" t="s">
-        <v>3436</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B26" s="231" t="s">
-        <v>3437</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B27" s="231" t="s">
-        <v>3438</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B28" s="231" t="s">
-        <v>3439</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B29" s="231" t="s">
-        <v>3440</v>
+        <v>3435</v>
       </c>
     </row>
   </sheetData>

--- a/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
+++ b/v2.0.1/03-Analysis and design/Mappings/Ontology_eForms_Mapping_New Regulation.xlsx
@@ -18653,8 +18653,8 @@
   <dimension ref="A1:BK312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E177" sqref="E177"/>
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AV53" sqref="AV53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
